--- a/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E61DA9-E28D-487B-A16A-00BFB3BA8E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5710B-22D8-45C1-8406-0C8B2A29BCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,23 +833,6 @@
     <t>マスタ関係</t>
     <rPh sb="3" eb="5">
       <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>製品マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>製品データを取得して、参照する。</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2998,6 +2981,23 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>工程マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>工程データを取得して、参照する。</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -4366,6 +4366,18 @@
     <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4375,91 +4387,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4486,6 +4413,91 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4576,18 +4588,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5548,7 +5548,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3585"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3587"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6931,108 +6931,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="231" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="231"/>
-      <c r="C32" s="231"/>
-      <c r="D32" s="231"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="231"/>
-      <c r="G32" s="231"/>
-      <c r="H32" s="231"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="231"/>
-      <c r="L32" s="231"/>
-      <c r="M32" s="231"/>
-      <c r="N32" s="231"/>
-      <c r="O32" s="231"/>
-      <c r="P32" s="231"/>
-      <c r="Q32" s="231"/>
-      <c r="R32" s="231"/>
-      <c r="S32" s="231"/>
-      <c r="T32" s="231"/>
-      <c r="U32" s="231"/>
-      <c r="V32" s="231"/>
-      <c r="W32" s="231"/>
-      <c r="X32" s="231"/>
-      <c r="Y32" s="231"/>
-      <c r="Z32" s="231"/>
-      <c r="AA32" s="231"/>
-      <c r="AB32" s="231"/>
-      <c r="AC32" s="231"/>
-      <c r="AD32" s="231"/>
-      <c r="AE32" s="231"/>
-      <c r="AF32" s="231"/>
-      <c r="AG32" s="231"/>
-      <c r="AH32" s="231"/>
-      <c r="AI32" s="231"/>
-      <c r="AJ32" s="231"/>
-      <c r="AK32" s="231"/>
-      <c r="AL32" s="231"/>
-      <c r="AM32" s="231"/>
-      <c r="AN32" s="231"/>
-      <c r="AO32" s="231"/>
-      <c r="AP32" s="231"/>
-      <c r="AQ32" s="231"/>
-      <c r="AR32" s="231"/>
-      <c r="AS32" s="231"/>
-      <c r="AT32" s="231"/>
-      <c r="AU32" s="231"/>
-      <c r="AV32" s="231"/>
-      <c r="AW32" s="231"/>
+      <c r="A32" s="235" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="235"/>
+      <c r="M32" s="235"/>
+      <c r="N32" s="235"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="235"/>
+      <c r="Q32" s="235"/>
+      <c r="R32" s="235"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="235"/>
+      <c r="V32" s="235"/>
+      <c r="W32" s="235"/>
+      <c r="X32" s="235"/>
+      <c r="Y32" s="235"/>
+      <c r="Z32" s="235"/>
+      <c r="AA32" s="235"/>
+      <c r="AB32" s="235"/>
+      <c r="AC32" s="235"/>
+      <c r="AD32" s="235"/>
+      <c r="AE32" s="235"/>
+      <c r="AF32" s="235"/>
+      <c r="AG32" s="235"/>
+      <c r="AH32" s="235"/>
+      <c r="AI32" s="235"/>
+      <c r="AJ32" s="235"/>
+      <c r="AK32" s="235"/>
+      <c r="AL32" s="235"/>
+      <c r="AM32" s="235"/>
+      <c r="AN32" s="235"/>
+      <c r="AO32" s="235"/>
+      <c r="AP32" s="235"/>
+      <c r="AQ32" s="235"/>
+      <c r="AR32" s="235"/>
+      <c r="AS32" s="235"/>
+      <c r="AT32" s="235"/>
+      <c r="AU32" s="235"/>
+      <c r="AV32" s="235"/>
+      <c r="AW32" s="235"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="232"/>
-      <c r="B33" s="232"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="232"/>
-      <c r="M33" s="232"/>
-      <c r="N33" s="232"/>
-      <c r="O33" s="232"/>
-      <c r="P33" s="232"/>
-      <c r="Q33" s="232"/>
-      <c r="R33" s="232"/>
-      <c r="S33" s="232"/>
-      <c r="T33" s="232"/>
-      <c r="U33" s="232"/>
-      <c r="V33" s="232"/>
-      <c r="W33" s="232"/>
-      <c r="X33" s="232"/>
-      <c r="Y33" s="232"/>
-      <c r="Z33" s="232"/>
-      <c r="AA33" s="232"/>
-      <c r="AB33" s="232"/>
-      <c r="AC33" s="232"/>
-      <c r="AD33" s="232"/>
-      <c r="AE33" s="232"/>
-      <c r="AF33" s="232"/>
-      <c r="AG33" s="232"/>
-      <c r="AH33" s="232"/>
-      <c r="AI33" s="232"/>
-      <c r="AJ33" s="232"/>
-      <c r="AK33" s="232"/>
-      <c r="AL33" s="232"/>
-      <c r="AM33" s="232"/>
-      <c r="AN33" s="232"/>
-      <c r="AO33" s="232"/>
-      <c r="AP33" s="232"/>
-      <c r="AQ33" s="232"/>
-      <c r="AR33" s="232"/>
-      <c r="AS33" s="232"/>
-      <c r="AT33" s="232"/>
-      <c r="AU33" s="232"/>
-      <c r="AV33" s="232"/>
-      <c r="AW33" s="232"/>
+      <c r="A33" s="236"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="236"/>
+      <c r="G33" s="236"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="236"/>
+      <c r="M33" s="236"/>
+      <c r="N33" s="236"/>
+      <c r="O33" s="236"/>
+      <c r="P33" s="236"/>
+      <c r="Q33" s="236"/>
+      <c r="R33" s="236"/>
+      <c r="S33" s="236"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="236"/>
+      <c r="X33" s="236"/>
+      <c r="Y33" s="236"/>
+      <c r="Z33" s="236"/>
+      <c r="AA33" s="236"/>
+      <c r="AB33" s="236"/>
+      <c r="AC33" s="236"/>
+      <c r="AD33" s="236"/>
+      <c r="AE33" s="236"/>
+      <c r="AF33" s="236"/>
+      <c r="AG33" s="236"/>
+      <c r="AH33" s="236"/>
+      <c r="AI33" s="236"/>
+      <c r="AJ33" s="236"/>
+      <c r="AK33" s="236"/>
+      <c r="AL33" s="236"/>
+      <c r="AM33" s="236"/>
+      <c r="AN33" s="236"/>
+      <c r="AO33" s="236"/>
+      <c r="AP33" s="236"/>
+      <c r="AQ33" s="236"/>
+      <c r="AR33" s="236"/>
+      <c r="AS33" s="236"/>
+      <c r="AT33" s="236"/>
+      <c r="AU33" s="236"/>
+      <c r="AV33" s="236"/>
+      <c r="AW33" s="236"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -7070,55 +7070,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="233"/>
-      <c r="B35" s="233"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="233"/>
-      <c r="E35" s="233"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="233"/>
-      <c r="M35" s="233"/>
-      <c r="N35" s="233"/>
-      <c r="O35" s="233"/>
-      <c r="P35" s="233"/>
-      <c r="Q35" s="233"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="233"/>
-      <c r="T35" s="233"/>
-      <c r="U35" s="233"/>
-      <c r="V35" s="233"/>
-      <c r="W35" s="233"/>
-      <c r="X35" s="233"/>
-      <c r="Y35" s="233"/>
-      <c r="Z35" s="233"/>
-      <c r="AA35" s="233"/>
-      <c r="AB35" s="233"/>
-      <c r="AC35" s="233"/>
-      <c r="AD35" s="233"/>
-      <c r="AE35" s="233"/>
-      <c r="AF35" s="233"/>
-      <c r="AG35" s="233"/>
-      <c r="AH35" s="233"/>
-      <c r="AI35" s="233"/>
-      <c r="AJ35" s="233"/>
-      <c r="AK35" s="233"/>
-      <c r="AL35" s="233"/>
-      <c r="AM35" s="233"/>
-      <c r="AN35" s="233"/>
-      <c r="AO35" s="233"/>
-      <c r="AP35" s="233"/>
-      <c r="AQ35" s="233"/>
-      <c r="AR35" s="233"/>
-      <c r="AS35" s="233"/>
-      <c r="AT35" s="233"/>
-      <c r="AU35" s="233"/>
-      <c r="AV35" s="233"/>
-      <c r="AW35" s="233"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="237"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="237"/>
+      <c r="F35" s="237"/>
+      <c r="G35" s="237"/>
+      <c r="H35" s="237"/>
+      <c r="I35" s="237"/>
+      <c r="J35" s="237"/>
+      <c r="K35" s="237"/>
+      <c r="L35" s="237"/>
+      <c r="M35" s="237"/>
+      <c r="N35" s="237"/>
+      <c r="O35" s="237"/>
+      <c r="P35" s="237"/>
+      <c r="Q35" s="237"/>
+      <c r="R35" s="237"/>
+      <c r="S35" s="237"/>
+      <c r="T35" s="237"/>
+      <c r="U35" s="237"/>
+      <c r="V35" s="237"/>
+      <c r="W35" s="237"/>
+      <c r="X35" s="237"/>
+      <c r="Y35" s="237"/>
+      <c r="Z35" s="237"/>
+      <c r="AA35" s="237"/>
+      <c r="AB35" s="237"/>
+      <c r="AC35" s="237"/>
+      <c r="AD35" s="237"/>
+      <c r="AE35" s="237"/>
+      <c r="AF35" s="237"/>
+      <c r="AG35" s="237"/>
+      <c r="AH35" s="237"/>
+      <c r="AI35" s="237"/>
+      <c r="AJ35" s="237"/>
+      <c r="AK35" s="237"/>
+      <c r="AL35" s="237"/>
+      <c r="AM35" s="237"/>
+      <c r="AN35" s="237"/>
+      <c r="AO35" s="237"/>
+      <c r="AP35" s="237"/>
+      <c r="AQ35" s="237"/>
+      <c r="AR35" s="237"/>
+      <c r="AS35" s="237"/>
+      <c r="AT35" s="237"/>
+      <c r="AU35" s="237"/>
+      <c r="AV35" s="237"/>
+      <c r="AW35" s="237"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -7153,280 +7153,280 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="265"/>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="265"/>
-      <c r="AA1" s="265"/>
-      <c r="AB1" s="265"/>
-      <c r="AC1" s="265"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="265"/>
-      <c r="AM1" s="265"/>
-      <c r="AN1" s="265"/>
-      <c r="AO1" s="265"/>
-      <c r="AP1" s="265"/>
-      <c r="AQ1" s="265"/>
-      <c r="AR1" s="265"/>
-      <c r="AS1" s="265"/>
-      <c r="AT1" s="265"/>
-      <c r="AU1" s="265"/>
-      <c r="AV1" s="265"/>
-      <c r="AW1" s="265"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="238"/>
+      <c r="AM1" s="238"/>
+      <c r="AN1" s="238"/>
+      <c r="AO1" s="238"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="238"/>
+      <c r="AR1" s="238"/>
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="238"/>
+      <c r="AU1" s="238"/>
+      <c r="AV1" s="238"/>
+      <c r="AW1" s="238"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="266"/>
-      <c r="L2" s="266"/>
-      <c r="M2" s="266"/>
-      <c r="N2" s="266"/>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="266"/>
-      <c r="Z2" s="266"/>
-      <c r="AA2" s="266"/>
-      <c r="AB2" s="266"/>
-      <c r="AC2" s="266"/>
-      <c r="AD2" s="266"/>
-      <c r="AE2" s="266"/>
-      <c r="AF2" s="266"/>
-      <c r="AG2" s="266"/>
-      <c r="AH2" s="266"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="266"/>
-      <c r="AK2" s="266"/>
-      <c r="AL2" s="266"/>
-      <c r="AM2" s="266"/>
-      <c r="AN2" s="266"/>
-      <c r="AO2" s="266"/>
-      <c r="AP2" s="266"/>
-      <c r="AQ2" s="266"/>
-      <c r="AR2" s="266"/>
-      <c r="AS2" s="266"/>
-      <c r="AT2" s="266"/>
-      <c r="AU2" s="266"/>
-      <c r="AV2" s="266"/>
-      <c r="AW2" s="266"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="239"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="239"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="239"/>
+      <c r="AJ2" s="239"/>
+      <c r="AK2" s="239"/>
+      <c r="AL2" s="239"/>
+      <c r="AM2" s="239"/>
+      <c r="AN2" s="239"/>
+      <c r="AO2" s="239"/>
+      <c r="AP2" s="239"/>
+      <c r="AQ2" s="239"/>
+      <c r="AR2" s="239"/>
+      <c r="AS2" s="239"/>
+      <c r="AT2" s="239"/>
+      <c r="AU2" s="239"/>
+      <c r="AV2" s="239"/>
+      <c r="AW2" s="239"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="267" t="s">
+      <c r="B3" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267" t="s">
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="268" t="s">
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="269"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="268" t="s">
+      <c r="K3" s="242"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="269"/>
-      <c r="O3" s="269"/>
-      <c r="P3" s="269"/>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="270"/>
-      <c r="S3" s="267" t="s">
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="267"/>
-      <c r="U3" s="267"/>
-      <c r="V3" s="267" t="s">
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="267"/>
-      <c r="X3" s="267"/>
-      <c r="Y3" s="267"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="267"/>
-      <c r="AB3" s="267"/>
-      <c r="AC3" s="267"/>
-      <c r="AD3" s="267"/>
-      <c r="AE3" s="267"/>
-      <c r="AF3" s="267"/>
-      <c r="AG3" s="267"/>
-      <c r="AH3" s="267"/>
-      <c r="AI3" s="267"/>
-      <c r="AJ3" s="267"/>
-      <c r="AK3" s="267"/>
-      <c r="AL3" s="267"/>
-      <c r="AM3" s="267"/>
-      <c r="AN3" s="267" t="s">
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="267"/>
-      <c r="AP3" s="267"/>
-      <c r="AQ3" s="267"/>
-      <c r="AR3" s="267"/>
-      <c r="AS3" s="267" t="s">
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="267"/>
-      <c r="AU3" s="267"/>
-      <c r="AV3" s="267"/>
-      <c r="AW3" s="267"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="271"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="273"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="267"/>
-      <c r="U4" s="267"/>
-      <c r="V4" s="267"/>
-      <c r="W4" s="267"/>
-      <c r="X4" s="267"/>
-      <c r="Y4" s="267"/>
-      <c r="Z4" s="267"/>
-      <c r="AA4" s="267"/>
-      <c r="AB4" s="267"/>
-      <c r="AC4" s="267"/>
-      <c r="AD4" s="267"/>
-      <c r="AE4" s="267"/>
-      <c r="AF4" s="267"/>
-      <c r="AG4" s="267"/>
-      <c r="AH4" s="267"/>
-      <c r="AI4" s="267"/>
-      <c r="AJ4" s="267"/>
-      <c r="AK4" s="267"/>
-      <c r="AL4" s="267"/>
-      <c r="AM4" s="267"/>
-      <c r="AN4" s="267"/>
-      <c r="AO4" s="267"/>
-      <c r="AP4" s="267"/>
-      <c r="AQ4" s="267"/>
-      <c r="AR4" s="267"/>
-      <c r="AS4" s="267"/>
-      <c r="AT4" s="267"/>
-      <c r="AU4" s="267"/>
-      <c r="AV4" s="267"/>
-      <c r="AW4" s="267"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="245"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="246"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="240"/>
+      <c r="V4" s="240"/>
+      <c r="W4" s="240"/>
+      <c r="X4" s="240"/>
+      <c r="Y4" s="240"/>
+      <c r="Z4" s="240"/>
+      <c r="AA4" s="240"/>
+      <c r="AB4" s="240"/>
+      <c r="AC4" s="240"/>
+      <c r="AD4" s="240"/>
+      <c r="AE4" s="240"/>
+      <c r="AF4" s="240"/>
+      <c r="AG4" s="240"/>
+      <c r="AH4" s="240"/>
+      <c r="AI4" s="240"/>
+      <c r="AJ4" s="240"/>
+      <c r="AK4" s="240"/>
+      <c r="AL4" s="240"/>
+      <c r="AM4" s="240"/>
+      <c r="AN4" s="240"/>
+      <c r="AO4" s="240"/>
+      <c r="AP4" s="240"/>
+      <c r="AQ4" s="240"/>
+      <c r="AR4" s="240"/>
+      <c r="AS4" s="240"/>
+      <c r="AT4" s="240"/>
+      <c r="AU4" s="240"/>
+      <c r="AV4" s="240"/>
+      <c r="AW4" s="240"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="259">
+      <c r="B5" s="248">
         <v>1</v>
       </c>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="240">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="249">
         <v>43735</v>
       </c>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="241" t="s">
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="242"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="241" t="s">
+      <c r="K5" s="251"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="242"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="243"/>
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="252"/>
       <c r="S5" s="247" t="s">
         <v>17</v>
       </c>
       <c r="T5" s="247"/>
       <c r="U5" s="247"/>
-      <c r="V5" s="258" t="s">
+      <c r="V5" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="258"/>
-      <c r="AB5" s="258"/>
-      <c r="AC5" s="258"/>
-      <c r="AD5" s="258"/>
-      <c r="AE5" s="258"/>
-      <c r="AF5" s="258"/>
-      <c r="AG5" s="258"/>
-      <c r="AH5" s="258"/>
-      <c r="AI5" s="258"/>
-      <c r="AJ5" s="258"/>
-      <c r="AK5" s="258"/>
-      <c r="AL5" s="258"/>
-      <c r="AM5" s="258"/>
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="256"/>
+      <c r="AB5" s="256"/>
+      <c r="AC5" s="256"/>
+      <c r="AD5" s="256"/>
+      <c r="AE5" s="256"/>
+      <c r="AF5" s="256"/>
+      <c r="AG5" s="256"/>
+      <c r="AH5" s="256"/>
+      <c r="AI5" s="256"/>
+      <c r="AJ5" s="256"/>
+      <c r="AK5" s="256"/>
+      <c r="AL5" s="256"/>
+      <c r="AM5" s="256"/>
       <c r="AN5" s="247" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AO5" s="247"/>
       <c r="AP5" s="247"/>
@@ -7440,44 +7440,44 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="259"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="264"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="255"/>
       <c r="S6" s="247"/>
       <c r="T6" s="247"/>
       <c r="U6" s="247"/>
-      <c r="V6" s="258"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="258"/>
-      <c r="Y6" s="258"/>
-      <c r="Z6" s="258"/>
-      <c r="AA6" s="258"/>
-      <c r="AB6" s="258"/>
-      <c r="AC6" s="258"/>
-      <c r="AD6" s="258"/>
-      <c r="AE6" s="258"/>
-      <c r="AF6" s="258"/>
-      <c r="AG6" s="258"/>
-      <c r="AH6" s="258"/>
-      <c r="AI6" s="258"/>
-      <c r="AJ6" s="258"/>
-      <c r="AK6" s="258"/>
-      <c r="AL6" s="258"/>
-      <c r="AM6" s="258"/>
+      <c r="V6" s="256"/>
+      <c r="W6" s="256"/>
+      <c r="X6" s="256"/>
+      <c r="Y6" s="256"/>
+      <c r="Z6" s="256"/>
+      <c r="AA6" s="256"/>
+      <c r="AB6" s="256"/>
+      <c r="AC6" s="256"/>
+      <c r="AD6" s="256"/>
+      <c r="AE6" s="256"/>
+      <c r="AF6" s="256"/>
+      <c r="AG6" s="256"/>
+      <c r="AH6" s="256"/>
+      <c r="AI6" s="256"/>
+      <c r="AJ6" s="256"/>
+      <c r="AK6" s="256"/>
+      <c r="AL6" s="256"/>
+      <c r="AM6" s="256"/>
       <c r="AN6" s="247"/>
       <c r="AO6" s="247"/>
       <c r="AP6" s="247"/>
@@ -7491,44 +7491,44 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="259"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="241"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="262"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="263"/>
-      <c r="P7" s="263"/>
-      <c r="Q7" s="263"/>
-      <c r="R7" s="264"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="255"/>
       <c r="S7" s="247"/>
       <c r="T7" s="247"/>
       <c r="U7" s="247"/>
-      <c r="V7" s="258"/>
-      <c r="W7" s="258"/>
-      <c r="X7" s="258"/>
-      <c r="Y7" s="258"/>
-      <c r="Z7" s="258"/>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="258"/>
-      <c r="AC7" s="258"/>
-      <c r="AD7" s="258"/>
-      <c r="AE7" s="258"/>
-      <c r="AF7" s="258"/>
-      <c r="AG7" s="258"/>
-      <c r="AH7" s="258"/>
-      <c r="AI7" s="258"/>
-      <c r="AJ7" s="258"/>
-      <c r="AK7" s="258"/>
-      <c r="AL7" s="258"/>
-      <c r="AM7" s="258"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="256"/>
+      <c r="Z7" s="256"/>
+      <c r="AA7" s="256"/>
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="256"/>
+      <c r="AF7" s="256"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="256"/>
+      <c r="AI7" s="256"/>
+      <c r="AJ7" s="256"/>
+      <c r="AK7" s="256"/>
+      <c r="AL7" s="256"/>
+      <c r="AM7" s="256"/>
       <c r="AN7" s="247"/>
       <c r="AO7" s="247"/>
       <c r="AP7" s="247"/>
@@ -7542,44 +7542,44 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="243"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="264"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="255"/>
       <c r="S8" s="247"/>
       <c r="T8" s="247"/>
       <c r="U8" s="247"/>
-      <c r="V8" s="258"/>
-      <c r="W8" s="258"/>
-      <c r="X8" s="258"/>
-      <c r="Y8" s="258"/>
-      <c r="Z8" s="258"/>
-      <c r="AA8" s="258"/>
-      <c r="AB8" s="258"/>
-      <c r="AC8" s="258"/>
-      <c r="AD8" s="258"/>
-      <c r="AE8" s="258"/>
-      <c r="AF8" s="258"/>
-      <c r="AG8" s="258"/>
-      <c r="AH8" s="258"/>
-      <c r="AI8" s="258"/>
-      <c r="AJ8" s="258"/>
-      <c r="AK8" s="258"/>
-      <c r="AL8" s="258"/>
-      <c r="AM8" s="258"/>
+      <c r="V8" s="256"/>
+      <c r="W8" s="256"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="256"/>
+      <c r="Z8" s="256"/>
+      <c r="AA8" s="256"/>
+      <c r="AB8" s="256"/>
+      <c r="AC8" s="256"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="256"/>
+      <c r="AF8" s="256"/>
+      <c r="AG8" s="256"/>
+      <c r="AH8" s="256"/>
+      <c r="AI8" s="256"/>
+      <c r="AJ8" s="256"/>
+      <c r="AK8" s="256"/>
+      <c r="AL8" s="256"/>
+      <c r="AM8" s="256"/>
       <c r="AN8" s="247"/>
       <c r="AO8" s="247"/>
       <c r="AP8" s="247"/>
@@ -7593,44 +7593,44 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="243"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="263"/>
-      <c r="P9" s="263"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="264"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="255"/>
       <c r="S9" s="247"/>
       <c r="T9" s="247"/>
       <c r="U9" s="247"/>
-      <c r="V9" s="258"/>
-      <c r="W9" s="258"/>
-      <c r="X9" s="258"/>
-      <c r="Y9" s="258"/>
-      <c r="Z9" s="258"/>
-      <c r="AA9" s="258"/>
-      <c r="AB9" s="258"/>
-      <c r="AC9" s="258"/>
-      <c r="AD9" s="258"/>
-      <c r="AE9" s="258"/>
-      <c r="AF9" s="258"/>
-      <c r="AG9" s="258"/>
-      <c r="AH9" s="258"/>
-      <c r="AI9" s="258"/>
-      <c r="AJ9" s="258"/>
-      <c r="AK9" s="258"/>
-      <c r="AL9" s="258"/>
-      <c r="AM9" s="258"/>
+      <c r="V9" s="256"/>
+      <c r="W9" s="256"/>
+      <c r="X9" s="256"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="256"/>
+      <c r="AA9" s="256"/>
+      <c r="AB9" s="256"/>
+      <c r="AC9" s="256"/>
+      <c r="AD9" s="256"/>
+      <c r="AE9" s="256"/>
+      <c r="AF9" s="256"/>
+      <c r="AG9" s="256"/>
+      <c r="AH9" s="256"/>
+      <c r="AI9" s="256"/>
+      <c r="AJ9" s="256"/>
+      <c r="AK9" s="256"/>
+      <c r="AL9" s="256"/>
+      <c r="AM9" s="256"/>
       <c r="AN9" s="247"/>
       <c r="AO9" s="247"/>
       <c r="AP9" s="247"/>
@@ -7644,44 +7644,44 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="263"/>
-      <c r="P10" s="263"/>
-      <c r="Q10" s="263"/>
-      <c r="R10" s="264"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="255"/>
       <c r="S10" s="247"/>
       <c r="T10" s="247"/>
       <c r="U10" s="247"/>
-      <c r="V10" s="258"/>
-      <c r="W10" s="258"/>
-      <c r="X10" s="258"/>
-      <c r="Y10" s="258"/>
-      <c r="Z10" s="258"/>
-      <c r="AA10" s="258"/>
-      <c r="AB10" s="258"/>
-      <c r="AC10" s="258"/>
-      <c r="AD10" s="258"/>
-      <c r="AE10" s="258"/>
-      <c r="AF10" s="258"/>
-      <c r="AG10" s="258"/>
-      <c r="AH10" s="258"/>
-      <c r="AI10" s="258"/>
-      <c r="AJ10" s="258"/>
-      <c r="AK10" s="258"/>
-      <c r="AL10" s="258"/>
-      <c r="AM10" s="258"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="256"/>
+      <c r="Y10" s="256"/>
+      <c r="Z10" s="256"/>
+      <c r="AA10" s="256"/>
+      <c r="AB10" s="256"/>
+      <c r="AC10" s="256"/>
+      <c r="AD10" s="256"/>
+      <c r="AE10" s="256"/>
+      <c r="AF10" s="256"/>
+      <c r="AG10" s="256"/>
+      <c r="AH10" s="256"/>
+      <c r="AI10" s="256"/>
+      <c r="AJ10" s="256"/>
+      <c r="AK10" s="256"/>
+      <c r="AL10" s="256"/>
+      <c r="AM10" s="256"/>
       <c r="AN10" s="247"/>
       <c r="AO10" s="247"/>
       <c r="AP10" s="247"/>
@@ -7695,44 +7695,44 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="252"/>
-      <c r="O11" s="252"/>
-      <c r="P11" s="252"/>
-      <c r="Q11" s="252"/>
-      <c r="R11" s="253"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="260"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262"/>
       <c r="S11" s="247"/>
       <c r="T11" s="247"/>
       <c r="U11" s="247"/>
-      <c r="V11" s="248"/>
-      <c r="W11" s="260"/>
-      <c r="X11" s="260"/>
-      <c r="Y11" s="260"/>
-      <c r="Z11" s="260"/>
-      <c r="AA11" s="260"/>
-      <c r="AB11" s="260"/>
-      <c r="AC11" s="260"/>
-      <c r="AD11" s="260"/>
-      <c r="AE11" s="260"/>
-      <c r="AF11" s="260"/>
-      <c r="AG11" s="260"/>
-      <c r="AH11" s="260"/>
-      <c r="AI11" s="260"/>
-      <c r="AJ11" s="260"/>
-      <c r="AK11" s="260"/>
-      <c r="AL11" s="260"/>
-      <c r="AM11" s="261"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="269"/>
+      <c r="AJ11" s="269"/>
+      <c r="AK11" s="269"/>
+      <c r="AL11" s="269"/>
+      <c r="AM11" s="270"/>
       <c r="AN11" s="247"/>
       <c r="AO11" s="247"/>
       <c r="AP11" s="247"/>
@@ -7746,1186 +7746,1401 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="237"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="240"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="252"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="253"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="260"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="262"/>
       <c r="S12" s="247"/>
       <c r="T12" s="247"/>
       <c r="U12" s="247"/>
-      <c r="V12" s="248"/>
-      <c r="W12" s="249"/>
-      <c r="X12" s="249"/>
-      <c r="Y12" s="249"/>
-      <c r="Z12" s="249"/>
-      <c r="AA12" s="249"/>
-      <c r="AB12" s="249"/>
-      <c r="AC12" s="249"/>
-      <c r="AD12" s="249"/>
-      <c r="AE12" s="249"/>
-      <c r="AF12" s="249"/>
-      <c r="AG12" s="249"/>
-      <c r="AH12" s="249"/>
-      <c r="AI12" s="249"/>
-      <c r="AJ12" s="249"/>
-      <c r="AK12" s="249"/>
-      <c r="AL12" s="249"/>
-      <c r="AM12" s="250"/>
-      <c r="AN12" s="234"/>
-      <c r="AO12" s="235"/>
-      <c r="AP12" s="235"/>
-      <c r="AQ12" s="235"/>
-      <c r="AR12" s="236"/>
-      <c r="AS12" s="234"/>
-      <c r="AT12" s="235"/>
-      <c r="AU12" s="235"/>
-      <c r="AV12" s="235"/>
-      <c r="AW12" s="236"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="264"/>
+      <c r="X12" s="264"/>
+      <c r="Y12" s="264"/>
+      <c r="Z12" s="264"/>
+      <c r="AA12" s="264"/>
+      <c r="AB12" s="264"/>
+      <c r="AC12" s="264"/>
+      <c r="AD12" s="264"/>
+      <c r="AE12" s="264"/>
+      <c r="AF12" s="264"/>
+      <c r="AG12" s="264"/>
+      <c r="AH12" s="264"/>
+      <c r="AI12" s="264"/>
+      <c r="AJ12" s="264"/>
+      <c r="AK12" s="264"/>
+      <c r="AL12" s="264"/>
+      <c r="AM12" s="265"/>
+      <c r="AN12" s="266"/>
+      <c r="AO12" s="267"/>
+      <c r="AP12" s="267"/>
+      <c r="AQ12" s="267"/>
+      <c r="AR12" s="268"/>
+      <c r="AS12" s="266"/>
+      <c r="AT12" s="267"/>
+      <c r="AU12" s="267"/>
+      <c r="AV12" s="267"/>
+      <c r="AW12" s="268"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="237"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="239"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="251"/>
-      <c r="N13" s="252"/>
-      <c r="O13" s="252"/>
-      <c r="P13" s="252"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="253"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="262"/>
       <c r="S13" s="247"/>
       <c r="T13" s="247"/>
       <c r="U13" s="247"/>
-      <c r="V13" s="248"/>
-      <c r="W13" s="249"/>
-      <c r="X13" s="249"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="249"/>
-      <c r="AC13" s="249"/>
-      <c r="AD13" s="249"/>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="249"/>
-      <c r="AG13" s="249"/>
-      <c r="AH13" s="249"/>
-      <c r="AI13" s="249"/>
-      <c r="AJ13" s="249"/>
-      <c r="AK13" s="249"/>
-      <c r="AL13" s="249"/>
-      <c r="AM13" s="250"/>
-      <c r="AN13" s="234"/>
-      <c r="AO13" s="235"/>
-      <c r="AP13" s="235"/>
-      <c r="AQ13" s="235"/>
-      <c r="AR13" s="236"/>
-      <c r="AS13" s="234"/>
-      <c r="AT13" s="235"/>
-      <c r="AU13" s="235"/>
-      <c r="AV13" s="235"/>
-      <c r="AW13" s="236"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="264"/>
+      <c r="X13" s="264"/>
+      <c r="Y13" s="264"/>
+      <c r="Z13" s="264"/>
+      <c r="AA13" s="264"/>
+      <c r="AB13" s="264"/>
+      <c r="AC13" s="264"/>
+      <c r="AD13" s="264"/>
+      <c r="AE13" s="264"/>
+      <c r="AF13" s="264"/>
+      <c r="AG13" s="264"/>
+      <c r="AH13" s="264"/>
+      <c r="AI13" s="264"/>
+      <c r="AJ13" s="264"/>
+      <c r="AK13" s="264"/>
+      <c r="AL13" s="264"/>
+      <c r="AM13" s="265"/>
+      <c r="AN13" s="266"/>
+      <c r="AO13" s="267"/>
+      <c r="AP13" s="267"/>
+      <c r="AQ13" s="267"/>
+      <c r="AR13" s="268"/>
+      <c r="AS13" s="266"/>
+      <c r="AT13" s="267"/>
+      <c r="AU13" s="267"/>
+      <c r="AV13" s="267"/>
+      <c r="AW13" s="268"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="237"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="240"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="251"/>
-      <c r="N14" s="252"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="252"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="253"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="262"/>
       <c r="S14" s="247"/>
       <c r="T14" s="247"/>
       <c r="U14" s="247"/>
-      <c r="V14" s="257"/>
-      <c r="W14" s="258"/>
-      <c r="X14" s="258"/>
-      <c r="Y14" s="258"/>
-      <c r="Z14" s="258"/>
-      <c r="AA14" s="258"/>
-      <c r="AB14" s="258"/>
-      <c r="AC14" s="258"/>
-      <c r="AD14" s="258"/>
-      <c r="AE14" s="258"/>
-      <c r="AF14" s="258"/>
-      <c r="AG14" s="258"/>
-      <c r="AH14" s="258"/>
-      <c r="AI14" s="258"/>
-      <c r="AJ14" s="258"/>
-      <c r="AK14" s="258"/>
-      <c r="AL14" s="258"/>
-      <c r="AM14" s="258"/>
+      <c r="V14" s="272"/>
+      <c r="W14" s="256"/>
+      <c r="X14" s="256"/>
+      <c r="Y14" s="256"/>
+      <c r="Z14" s="256"/>
+      <c r="AA14" s="256"/>
+      <c r="AB14" s="256"/>
+      <c r="AC14" s="256"/>
+      <c r="AD14" s="256"/>
+      <c r="AE14" s="256"/>
+      <c r="AF14" s="256"/>
+      <c r="AG14" s="256"/>
+      <c r="AH14" s="256"/>
+      <c r="AI14" s="256"/>
+      <c r="AJ14" s="256"/>
+      <c r="AK14" s="256"/>
+      <c r="AL14" s="256"/>
+      <c r="AM14" s="256"/>
       <c r="AN14" s="247"/>
       <c r="AO14" s="247"/>
       <c r="AP14" s="247"/>
       <c r="AQ14" s="247"/>
       <c r="AR14" s="247"/>
-      <c r="AS14" s="234"/>
-      <c r="AT14" s="235"/>
-      <c r="AU14" s="235"/>
-      <c r="AV14" s="235"/>
-      <c r="AW14" s="236"/>
+      <c r="AS14" s="266"/>
+      <c r="AT14" s="267"/>
+      <c r="AU14" s="267"/>
+      <c r="AV14" s="267"/>
+      <c r="AW14" s="268"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="254"/>
-      <c r="N15" s="252"/>
-      <c r="O15" s="252"/>
-      <c r="P15" s="252"/>
-      <c r="Q15" s="252"/>
-      <c r="R15" s="253"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="262"/>
       <c r="S15" s="247"/>
       <c r="T15" s="247"/>
       <c r="U15" s="247"/>
-      <c r="V15" s="248"/>
-      <c r="W15" s="249"/>
-      <c r="X15" s="249"/>
-      <c r="Y15" s="249"/>
-      <c r="Z15" s="249"/>
-      <c r="AA15" s="249"/>
-      <c r="AB15" s="249"/>
-      <c r="AC15" s="249"/>
-      <c r="AD15" s="249"/>
-      <c r="AE15" s="249"/>
-      <c r="AF15" s="249"/>
-      <c r="AG15" s="249"/>
-      <c r="AH15" s="249"/>
-      <c r="AI15" s="249"/>
-      <c r="AJ15" s="249"/>
-      <c r="AK15" s="249"/>
-      <c r="AL15" s="249"/>
-      <c r="AM15" s="250"/>
-      <c r="AN15" s="234"/>
-      <c r="AO15" s="235"/>
-      <c r="AP15" s="235"/>
-      <c r="AQ15" s="235"/>
-      <c r="AR15" s="236"/>
-      <c r="AS15" s="234"/>
-      <c r="AT15" s="235"/>
-      <c r="AU15" s="235"/>
-      <c r="AV15" s="235"/>
-      <c r="AW15" s="236"/>
+      <c r="V15" s="263"/>
+      <c r="W15" s="264"/>
+      <c r="X15" s="264"/>
+      <c r="Y15" s="264"/>
+      <c r="Z15" s="264"/>
+      <c r="AA15" s="264"/>
+      <c r="AB15" s="264"/>
+      <c r="AC15" s="264"/>
+      <c r="AD15" s="264"/>
+      <c r="AE15" s="264"/>
+      <c r="AF15" s="264"/>
+      <c r="AG15" s="264"/>
+      <c r="AH15" s="264"/>
+      <c r="AI15" s="264"/>
+      <c r="AJ15" s="264"/>
+      <c r="AK15" s="264"/>
+      <c r="AL15" s="264"/>
+      <c r="AM15" s="265"/>
+      <c r="AN15" s="266"/>
+      <c r="AO15" s="267"/>
+      <c r="AP15" s="267"/>
+      <c r="AQ15" s="267"/>
+      <c r="AR15" s="268"/>
+      <c r="AS15" s="266"/>
+      <c r="AT15" s="267"/>
+      <c r="AU15" s="267"/>
+      <c r="AV15" s="267"/>
+      <c r="AW15" s="268"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="237"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="239"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="240"/>
-      <c r="I16" s="240"/>
-      <c r="J16" s="241"/>
-      <c r="K16" s="242"/>
-      <c r="L16" s="243"/>
-      <c r="M16" s="254"/>
-      <c r="N16" s="252"/>
-      <c r="O16" s="252"/>
-      <c r="P16" s="252"/>
-      <c r="Q16" s="252"/>
-      <c r="R16" s="253"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="262"/>
       <c r="S16" s="247"/>
       <c r="T16" s="247"/>
       <c r="U16" s="247"/>
-      <c r="V16" s="248"/>
-      <c r="W16" s="249"/>
-      <c r="X16" s="249"/>
-      <c r="Y16" s="249"/>
-      <c r="Z16" s="249"/>
-      <c r="AA16" s="249"/>
-      <c r="AB16" s="249"/>
-      <c r="AC16" s="249"/>
-      <c r="AD16" s="249"/>
-      <c r="AE16" s="249"/>
-      <c r="AF16" s="249"/>
-      <c r="AG16" s="249"/>
-      <c r="AH16" s="249"/>
-      <c r="AI16" s="249"/>
-      <c r="AJ16" s="249"/>
-      <c r="AK16" s="249"/>
-      <c r="AL16" s="249"/>
-      <c r="AM16" s="250"/>
-      <c r="AN16" s="234"/>
-      <c r="AO16" s="235"/>
-      <c r="AP16" s="235"/>
-      <c r="AQ16" s="235"/>
-      <c r="AR16" s="236"/>
-      <c r="AS16" s="234"/>
-      <c r="AT16" s="235"/>
-      <c r="AU16" s="235"/>
-      <c r="AV16" s="235"/>
-      <c r="AW16" s="236"/>
+      <c r="V16" s="263"/>
+      <c r="W16" s="264"/>
+      <c r="X16" s="264"/>
+      <c r="Y16" s="264"/>
+      <c r="Z16" s="264"/>
+      <c r="AA16" s="264"/>
+      <c r="AB16" s="264"/>
+      <c r="AC16" s="264"/>
+      <c r="AD16" s="264"/>
+      <c r="AE16" s="264"/>
+      <c r="AF16" s="264"/>
+      <c r="AG16" s="264"/>
+      <c r="AH16" s="264"/>
+      <c r="AI16" s="264"/>
+      <c r="AJ16" s="264"/>
+      <c r="AK16" s="264"/>
+      <c r="AL16" s="264"/>
+      <c r="AM16" s="265"/>
+      <c r="AN16" s="266"/>
+      <c r="AO16" s="267"/>
+      <c r="AP16" s="267"/>
+      <c r="AQ16" s="267"/>
+      <c r="AR16" s="268"/>
+      <c r="AS16" s="266"/>
+      <c r="AT16" s="267"/>
+      <c r="AU16" s="267"/>
+      <c r="AV16" s="267"/>
+      <c r="AW16" s="268"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="237"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="239"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="240"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="243"/>
-      <c r="M17" s="254"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
-      <c r="R17" s="255"/>
-      <c r="S17" s="256"/>
-      <c r="T17" s="256"/>
-      <c r="U17" s="256"/>
-      <c r="V17" s="248"/>
-      <c r="W17" s="249"/>
-      <c r="X17" s="249"/>
-      <c r="Y17" s="249"/>
-      <c r="Z17" s="249"/>
-      <c r="AA17" s="249"/>
-      <c r="AB17" s="249"/>
-      <c r="AC17" s="249"/>
-      <c r="AD17" s="249"/>
-      <c r="AE17" s="249"/>
-      <c r="AF17" s="249"/>
-      <c r="AG17" s="249"/>
-      <c r="AH17" s="249"/>
-      <c r="AI17" s="249"/>
-      <c r="AJ17" s="249"/>
-      <c r="AK17" s="249"/>
-      <c r="AL17" s="249"/>
-      <c r="AM17" s="250"/>
-      <c r="AN17" s="234"/>
-      <c r="AO17" s="235"/>
-      <c r="AP17" s="235"/>
-      <c r="AQ17" s="235"/>
-      <c r="AR17" s="236"/>
-      <c r="AS17" s="234"/>
-      <c r="AT17" s="235"/>
-      <c r="AU17" s="235"/>
-      <c r="AV17" s="235"/>
-      <c r="AW17" s="236"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="260"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="273"/>
+      <c r="S17" s="274"/>
+      <c r="T17" s="274"/>
+      <c r="U17" s="274"/>
+      <c r="V17" s="263"/>
+      <c r="W17" s="264"/>
+      <c r="X17" s="264"/>
+      <c r="Y17" s="264"/>
+      <c r="Z17" s="264"/>
+      <c r="AA17" s="264"/>
+      <c r="AB17" s="264"/>
+      <c r="AC17" s="264"/>
+      <c r="AD17" s="264"/>
+      <c r="AE17" s="264"/>
+      <c r="AF17" s="264"/>
+      <c r="AG17" s="264"/>
+      <c r="AH17" s="264"/>
+      <c r="AI17" s="264"/>
+      <c r="AJ17" s="264"/>
+      <c r="AK17" s="264"/>
+      <c r="AL17" s="264"/>
+      <c r="AM17" s="265"/>
+      <c r="AN17" s="266"/>
+      <c r="AO17" s="267"/>
+      <c r="AP17" s="267"/>
+      <c r="AQ17" s="267"/>
+      <c r="AR17" s="268"/>
+      <c r="AS17" s="266"/>
+      <c r="AT17" s="267"/>
+      <c r="AU17" s="267"/>
+      <c r="AV17" s="267"/>
+      <c r="AW17" s="268"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="237"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="252"/>
-      <c r="Q18" s="252"/>
-      <c r="R18" s="253"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262"/>
       <c r="S18" s="247"/>
       <c r="T18" s="247"/>
       <c r="U18" s="247"/>
-      <c r="V18" s="248"/>
-      <c r="W18" s="249"/>
-      <c r="X18" s="249"/>
-      <c r="Y18" s="249"/>
-      <c r="Z18" s="249"/>
-      <c r="AA18" s="249"/>
-      <c r="AB18" s="249"/>
-      <c r="AC18" s="249"/>
-      <c r="AD18" s="249"/>
-      <c r="AE18" s="249"/>
-      <c r="AF18" s="249"/>
-      <c r="AG18" s="249"/>
-      <c r="AH18" s="249"/>
-      <c r="AI18" s="249"/>
-      <c r="AJ18" s="249"/>
-      <c r="AK18" s="249"/>
-      <c r="AL18" s="249"/>
-      <c r="AM18" s="250"/>
-      <c r="AN18" s="234"/>
-      <c r="AO18" s="235"/>
-      <c r="AP18" s="235"/>
-      <c r="AQ18" s="235"/>
-      <c r="AR18" s="236"/>
-      <c r="AS18" s="234"/>
-      <c r="AT18" s="235"/>
-      <c r="AU18" s="235"/>
-      <c r="AV18" s="235"/>
-      <c r="AW18" s="236"/>
+      <c r="V18" s="263"/>
+      <c r="W18" s="264"/>
+      <c r="X18" s="264"/>
+      <c r="Y18" s="264"/>
+      <c r="Z18" s="264"/>
+      <c r="AA18" s="264"/>
+      <c r="AB18" s="264"/>
+      <c r="AC18" s="264"/>
+      <c r="AD18" s="264"/>
+      <c r="AE18" s="264"/>
+      <c r="AF18" s="264"/>
+      <c r="AG18" s="264"/>
+      <c r="AH18" s="264"/>
+      <c r="AI18" s="264"/>
+      <c r="AJ18" s="264"/>
+      <c r="AK18" s="264"/>
+      <c r="AL18" s="264"/>
+      <c r="AM18" s="265"/>
+      <c r="AN18" s="266"/>
+      <c r="AO18" s="267"/>
+      <c r="AP18" s="267"/>
+      <c r="AQ18" s="267"/>
+      <c r="AR18" s="268"/>
+      <c r="AS18" s="266"/>
+      <c r="AT18" s="267"/>
+      <c r="AU18" s="267"/>
+      <c r="AV18" s="267"/>
+      <c r="AW18" s="268"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="239"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="240"/>
-      <c r="H19" s="240"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="243"/>
-      <c r="M19" s="254"/>
-      <c r="N19" s="252"/>
-      <c r="O19" s="252"/>
-      <c r="P19" s="252"/>
-      <c r="Q19" s="252"/>
-      <c r="R19" s="253"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="262"/>
       <c r="S19" s="247"/>
       <c r="T19" s="247"/>
       <c r="U19" s="247"/>
-      <c r="V19" s="248"/>
-      <c r="W19" s="249"/>
-      <c r="X19" s="249"/>
-      <c r="Y19" s="249"/>
-      <c r="Z19" s="249"/>
-      <c r="AA19" s="249"/>
-      <c r="AB19" s="249"/>
-      <c r="AC19" s="249"/>
-      <c r="AD19" s="249"/>
-      <c r="AE19" s="249"/>
-      <c r="AF19" s="249"/>
-      <c r="AG19" s="249"/>
-      <c r="AH19" s="249"/>
-      <c r="AI19" s="249"/>
-      <c r="AJ19" s="249"/>
-      <c r="AK19" s="249"/>
-      <c r="AL19" s="249"/>
-      <c r="AM19" s="250"/>
+      <c r="V19" s="263"/>
+      <c r="W19" s="264"/>
+      <c r="X19" s="264"/>
+      <c r="Y19" s="264"/>
+      <c r="Z19" s="264"/>
+      <c r="AA19" s="264"/>
+      <c r="AB19" s="264"/>
+      <c r="AC19" s="264"/>
+      <c r="AD19" s="264"/>
+      <c r="AE19" s="264"/>
+      <c r="AF19" s="264"/>
+      <c r="AG19" s="264"/>
+      <c r="AH19" s="264"/>
+      <c r="AI19" s="264"/>
+      <c r="AJ19" s="264"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="264"/>
+      <c r="AM19" s="265"/>
       <c r="AN19" s="247"/>
       <c r="AO19" s="247"/>
       <c r="AP19" s="247"/>
       <c r="AQ19" s="247"/>
       <c r="AR19" s="247"/>
-      <c r="AS19" s="234"/>
-      <c r="AT19" s="235"/>
-      <c r="AU19" s="235"/>
-      <c r="AV19" s="235"/>
-      <c r="AW19" s="236"/>
+      <c r="AS19" s="266"/>
+      <c r="AT19" s="267"/>
+      <c r="AU19" s="267"/>
+      <c r="AV19" s="267"/>
+      <c r="AW19" s="268"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="237"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="242"/>
-      <c r="L20" s="243"/>
-      <c r="M20" s="254"/>
-      <c r="N20" s="252"/>
-      <c r="O20" s="252"/>
-      <c r="P20" s="252"/>
-      <c r="Q20" s="252"/>
-      <c r="R20" s="253"/>
-      <c r="S20" s="234"/>
-      <c r="T20" s="235"/>
-      <c r="U20" s="236"/>
-      <c r="V20" s="248"/>
-      <c r="W20" s="249"/>
-      <c r="X20" s="249"/>
-      <c r="Y20" s="249"/>
-      <c r="Z20" s="249"/>
-      <c r="AA20" s="249"/>
-      <c r="AB20" s="249"/>
-      <c r="AC20" s="249"/>
-      <c r="AD20" s="249"/>
-      <c r="AE20" s="249"/>
-      <c r="AF20" s="249"/>
-      <c r="AG20" s="249"/>
-      <c r="AH20" s="249"/>
-      <c r="AI20" s="249"/>
-      <c r="AJ20" s="249"/>
-      <c r="AK20" s="249"/>
-      <c r="AL20" s="249"/>
-      <c r="AM20" s="250"/>
-      <c r="AN20" s="234"/>
-      <c r="AO20" s="235"/>
-      <c r="AP20" s="235"/>
-      <c r="AQ20" s="235"/>
-      <c r="AR20" s="236"/>
-      <c r="AS20" s="234"/>
-      <c r="AT20" s="235"/>
-      <c r="AU20" s="235"/>
-      <c r="AV20" s="235"/>
-      <c r="AW20" s="236"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="260"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="261"/>
+      <c r="P20" s="261"/>
+      <c r="Q20" s="261"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="266"/>
+      <c r="T20" s="267"/>
+      <c r="U20" s="268"/>
+      <c r="V20" s="263"/>
+      <c r="W20" s="264"/>
+      <c r="X20" s="264"/>
+      <c r="Y20" s="264"/>
+      <c r="Z20" s="264"/>
+      <c r="AA20" s="264"/>
+      <c r="AB20" s="264"/>
+      <c r="AC20" s="264"/>
+      <c r="AD20" s="264"/>
+      <c r="AE20" s="264"/>
+      <c r="AF20" s="264"/>
+      <c r="AG20" s="264"/>
+      <c r="AH20" s="264"/>
+      <c r="AI20" s="264"/>
+      <c r="AJ20" s="264"/>
+      <c r="AK20" s="264"/>
+      <c r="AL20" s="264"/>
+      <c r="AM20" s="265"/>
+      <c r="AN20" s="266"/>
+      <c r="AO20" s="267"/>
+      <c r="AP20" s="267"/>
+      <c r="AQ20" s="267"/>
+      <c r="AR20" s="268"/>
+      <c r="AS20" s="266"/>
+      <c r="AT20" s="267"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="267"/>
+      <c r="AW20" s="268"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="237"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="239"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="242"/>
-      <c r="L21" s="243"/>
-      <c r="M21" s="254"/>
-      <c r="N21" s="252"/>
-      <c r="O21" s="252"/>
-      <c r="P21" s="252"/>
-      <c r="Q21" s="252"/>
-      <c r="R21" s="253"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
+      <c r="R21" s="262"/>
       <c r="S21" s="247"/>
       <c r="T21" s="247"/>
       <c r="U21" s="247"/>
-      <c r="V21" s="248"/>
-      <c r="W21" s="249"/>
-      <c r="X21" s="249"/>
-      <c r="Y21" s="249"/>
-      <c r="Z21" s="249"/>
-      <c r="AA21" s="249"/>
-      <c r="AB21" s="249"/>
-      <c r="AC21" s="249"/>
-      <c r="AD21" s="249"/>
-      <c r="AE21" s="249"/>
-      <c r="AF21" s="249"/>
-      <c r="AG21" s="249"/>
-      <c r="AH21" s="249"/>
-      <c r="AI21" s="249"/>
-      <c r="AJ21" s="249"/>
-      <c r="AK21" s="249"/>
-      <c r="AL21" s="249"/>
-      <c r="AM21" s="250"/>
-      <c r="AN21" s="234"/>
-      <c r="AO21" s="235"/>
-      <c r="AP21" s="235"/>
-      <c r="AQ21" s="235"/>
-      <c r="AR21" s="236"/>
-      <c r="AS21" s="234"/>
-      <c r="AT21" s="235"/>
-      <c r="AU21" s="235"/>
-      <c r="AV21" s="235"/>
-      <c r="AW21" s="236"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="264"/>
+      <c r="X21" s="264"/>
+      <c r="Y21" s="264"/>
+      <c r="Z21" s="264"/>
+      <c r="AA21" s="264"/>
+      <c r="AB21" s="264"/>
+      <c r="AC21" s="264"/>
+      <c r="AD21" s="264"/>
+      <c r="AE21" s="264"/>
+      <c r="AF21" s="264"/>
+      <c r="AG21" s="264"/>
+      <c r="AH21" s="264"/>
+      <c r="AI21" s="264"/>
+      <c r="AJ21" s="264"/>
+      <c r="AK21" s="264"/>
+      <c r="AL21" s="264"/>
+      <c r="AM21" s="265"/>
+      <c r="AN21" s="266"/>
+      <c r="AO21" s="267"/>
+      <c r="AP21" s="267"/>
+      <c r="AQ21" s="267"/>
+      <c r="AR21" s="268"/>
+      <c r="AS21" s="266"/>
+      <c r="AT21" s="267"/>
+      <c r="AU21" s="267"/>
+      <c r="AV21" s="267"/>
+      <c r="AW21" s="268"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="237"/>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="242"/>
-      <c r="L22" s="243"/>
-      <c r="M22" s="254"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="252"/>
-      <c r="Q22" s="252"/>
-      <c r="R22" s="253"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="262"/>
       <c r="S22" s="247"/>
       <c r="T22" s="247"/>
       <c r="U22" s="247"/>
-      <c r="V22" s="248"/>
-      <c r="W22" s="249"/>
-      <c r="X22" s="249"/>
-      <c r="Y22" s="249"/>
-      <c r="Z22" s="249"/>
-      <c r="AA22" s="249"/>
-      <c r="AB22" s="249"/>
-      <c r="AC22" s="249"/>
-      <c r="AD22" s="249"/>
-      <c r="AE22" s="249"/>
-      <c r="AF22" s="249"/>
-      <c r="AG22" s="249"/>
-      <c r="AH22" s="249"/>
-      <c r="AI22" s="249"/>
-      <c r="AJ22" s="249"/>
-      <c r="AK22" s="249"/>
-      <c r="AL22" s="249"/>
-      <c r="AM22" s="250"/>
-      <c r="AN22" s="234"/>
-      <c r="AO22" s="235"/>
-      <c r="AP22" s="235"/>
-      <c r="AQ22" s="235"/>
-      <c r="AR22" s="236"/>
-      <c r="AS22" s="234"/>
-      <c r="AT22" s="235"/>
-      <c r="AU22" s="235"/>
-      <c r="AV22" s="235"/>
-      <c r="AW22" s="236"/>
+      <c r="V22" s="263"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264"/>
+      <c r="Y22" s="264"/>
+      <c r="Z22" s="264"/>
+      <c r="AA22" s="264"/>
+      <c r="AB22" s="264"/>
+      <c r="AC22" s="264"/>
+      <c r="AD22" s="264"/>
+      <c r="AE22" s="264"/>
+      <c r="AF22" s="264"/>
+      <c r="AG22" s="264"/>
+      <c r="AH22" s="264"/>
+      <c r="AI22" s="264"/>
+      <c r="AJ22" s="264"/>
+      <c r="AK22" s="264"/>
+      <c r="AL22" s="264"/>
+      <c r="AM22" s="265"/>
+      <c r="AN22" s="266"/>
+      <c r="AO22" s="267"/>
+      <c r="AP22" s="267"/>
+      <c r="AQ22" s="267"/>
+      <c r="AR22" s="268"/>
+      <c r="AS22" s="266"/>
+      <c r="AT22" s="267"/>
+      <c r="AU22" s="267"/>
+      <c r="AV22" s="267"/>
+      <c r="AW22" s="268"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="237"/>
-      <c r="C23" s="238"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="243"/>
-      <c r="M23" s="254"/>
-      <c r="N23" s="252"/>
-      <c r="O23" s="252"/>
-      <c r="P23" s="252"/>
-      <c r="Q23" s="252"/>
-      <c r="R23" s="253"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="262"/>
       <c r="S23" s="247"/>
       <c r="T23" s="247"/>
       <c r="U23" s="247"/>
-      <c r="V23" s="248"/>
-      <c r="W23" s="249"/>
-      <c r="X23" s="249"/>
-      <c r="Y23" s="249"/>
-      <c r="Z23" s="249"/>
-      <c r="AA23" s="249"/>
-      <c r="AB23" s="249"/>
-      <c r="AC23" s="249"/>
-      <c r="AD23" s="249"/>
-      <c r="AE23" s="249"/>
-      <c r="AF23" s="249"/>
-      <c r="AG23" s="249"/>
-      <c r="AH23" s="249"/>
-      <c r="AI23" s="249"/>
-      <c r="AJ23" s="249"/>
-      <c r="AK23" s="249"/>
-      <c r="AL23" s="249"/>
-      <c r="AM23" s="250"/>
-      <c r="AN23" s="234"/>
-      <c r="AO23" s="235"/>
-      <c r="AP23" s="235"/>
-      <c r="AQ23" s="235"/>
-      <c r="AR23" s="236"/>
-      <c r="AS23" s="234"/>
-      <c r="AT23" s="235"/>
-      <c r="AU23" s="235"/>
-      <c r="AV23" s="235"/>
-      <c r="AW23" s="236"/>
+      <c r="V23" s="263"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
+      <c r="Y23" s="264"/>
+      <c r="Z23" s="264"/>
+      <c r="AA23" s="264"/>
+      <c r="AB23" s="264"/>
+      <c r="AC23" s="264"/>
+      <c r="AD23" s="264"/>
+      <c r="AE23" s="264"/>
+      <c r="AF23" s="264"/>
+      <c r="AG23" s="264"/>
+      <c r="AH23" s="264"/>
+      <c r="AI23" s="264"/>
+      <c r="AJ23" s="264"/>
+      <c r="AK23" s="264"/>
+      <c r="AL23" s="264"/>
+      <c r="AM23" s="265"/>
+      <c r="AN23" s="266"/>
+      <c r="AO23" s="267"/>
+      <c r="AP23" s="267"/>
+      <c r="AQ23" s="267"/>
+      <c r="AR23" s="268"/>
+      <c r="AS23" s="266"/>
+      <c r="AT23" s="267"/>
+      <c r="AU23" s="267"/>
+      <c r="AV23" s="267"/>
+      <c r="AW23" s="268"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="240"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="240"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="242"/>
-      <c r="L24" s="243"/>
-      <c r="M24" s="254"/>
-      <c r="N24" s="252"/>
-      <c r="O24" s="252"/>
-      <c r="P24" s="252"/>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="253"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
       <c r="S24" s="247"/>
       <c r="T24" s="247"/>
       <c r="U24" s="247"/>
-      <c r="V24" s="248"/>
-      <c r="W24" s="249"/>
-      <c r="X24" s="249"/>
-      <c r="Y24" s="249"/>
-      <c r="Z24" s="249"/>
-      <c r="AA24" s="249"/>
-      <c r="AB24" s="249"/>
-      <c r="AC24" s="249"/>
-      <c r="AD24" s="249"/>
-      <c r="AE24" s="249"/>
-      <c r="AF24" s="249"/>
-      <c r="AG24" s="249"/>
-      <c r="AH24" s="249"/>
-      <c r="AI24" s="249"/>
-      <c r="AJ24" s="249"/>
-      <c r="AK24" s="249"/>
-      <c r="AL24" s="249"/>
-      <c r="AM24" s="250"/>
-      <c r="AN24" s="234"/>
-      <c r="AO24" s="235"/>
-      <c r="AP24" s="235"/>
-      <c r="AQ24" s="235"/>
-      <c r="AR24" s="236"/>
-      <c r="AS24" s="234"/>
-      <c r="AT24" s="235"/>
-      <c r="AU24" s="235"/>
-      <c r="AV24" s="235"/>
-      <c r="AW24" s="236"/>
+      <c r="V24" s="263"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
+      <c r="Y24" s="264"/>
+      <c r="Z24" s="264"/>
+      <c r="AA24" s="264"/>
+      <c r="AB24" s="264"/>
+      <c r="AC24" s="264"/>
+      <c r="AD24" s="264"/>
+      <c r="AE24" s="264"/>
+      <c r="AF24" s="264"/>
+      <c r="AG24" s="264"/>
+      <c r="AH24" s="264"/>
+      <c r="AI24" s="264"/>
+      <c r="AJ24" s="264"/>
+      <c r="AK24" s="264"/>
+      <c r="AL24" s="264"/>
+      <c r="AM24" s="265"/>
+      <c r="AN24" s="266"/>
+      <c r="AO24" s="267"/>
+      <c r="AP24" s="267"/>
+      <c r="AQ24" s="267"/>
+      <c r="AR24" s="268"/>
+      <c r="AS24" s="266"/>
+      <c r="AT24" s="267"/>
+      <c r="AU24" s="267"/>
+      <c r="AV24" s="267"/>
+      <c r="AW24" s="268"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="238"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="240"/>
-      <c r="F25" s="240"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="240"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="242"/>
-      <c r="L25" s="243"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="252"/>
-      <c r="O25" s="252"/>
-      <c r="P25" s="252"/>
-      <c r="Q25" s="252"/>
-      <c r="R25" s="253"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="262"/>
       <c r="S25" s="247"/>
       <c r="T25" s="247"/>
       <c r="U25" s="247"/>
-      <c r="V25" s="248"/>
-      <c r="W25" s="249"/>
-      <c r="X25" s="249"/>
-      <c r="Y25" s="249"/>
-      <c r="Z25" s="249"/>
-      <c r="AA25" s="249"/>
-      <c r="AB25" s="249"/>
-      <c r="AC25" s="249"/>
-      <c r="AD25" s="249"/>
-      <c r="AE25" s="249"/>
-      <c r="AF25" s="249"/>
-      <c r="AG25" s="249"/>
-      <c r="AH25" s="249"/>
-      <c r="AI25" s="249"/>
-      <c r="AJ25" s="249"/>
-      <c r="AK25" s="249"/>
-      <c r="AL25" s="249"/>
-      <c r="AM25" s="250"/>
-      <c r="AN25" s="234"/>
-      <c r="AO25" s="235"/>
-      <c r="AP25" s="235"/>
-      <c r="AQ25" s="235"/>
-      <c r="AR25" s="236"/>
-      <c r="AS25" s="234"/>
-      <c r="AT25" s="235"/>
-      <c r="AU25" s="235"/>
-      <c r="AV25" s="235"/>
-      <c r="AW25" s="236"/>
+      <c r="V25" s="263"/>
+      <c r="W25" s="264"/>
+      <c r="X25" s="264"/>
+      <c r="Y25" s="264"/>
+      <c r="Z25" s="264"/>
+      <c r="AA25" s="264"/>
+      <c r="AB25" s="264"/>
+      <c r="AC25" s="264"/>
+      <c r="AD25" s="264"/>
+      <c r="AE25" s="264"/>
+      <c r="AF25" s="264"/>
+      <c r="AG25" s="264"/>
+      <c r="AH25" s="264"/>
+      <c r="AI25" s="264"/>
+      <c r="AJ25" s="264"/>
+      <c r="AK25" s="264"/>
+      <c r="AL25" s="264"/>
+      <c r="AM25" s="265"/>
+      <c r="AN25" s="266"/>
+      <c r="AO25" s="267"/>
+      <c r="AP25" s="267"/>
+      <c r="AQ25" s="267"/>
+      <c r="AR25" s="268"/>
+      <c r="AS25" s="266"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="268"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="237"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="239"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="251"/>
-      <c r="N26" s="252"/>
-      <c r="O26" s="252"/>
-      <c r="P26" s="252"/>
-      <c r="Q26" s="252"/>
-      <c r="R26" s="253"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="262"/>
       <c r="S26" s="247"/>
       <c r="T26" s="247"/>
       <c r="U26" s="247"/>
-      <c r="V26" s="248"/>
-      <c r="W26" s="249"/>
-      <c r="X26" s="249"/>
-      <c r="Y26" s="249"/>
-      <c r="Z26" s="249"/>
-      <c r="AA26" s="249"/>
-      <c r="AB26" s="249"/>
-      <c r="AC26" s="249"/>
-      <c r="AD26" s="249"/>
-      <c r="AE26" s="249"/>
-      <c r="AF26" s="249"/>
-      <c r="AG26" s="249"/>
-      <c r="AH26" s="249"/>
-      <c r="AI26" s="249"/>
-      <c r="AJ26" s="249"/>
-      <c r="AK26" s="249"/>
-      <c r="AL26" s="249"/>
-      <c r="AM26" s="250"/>
-      <c r="AN26" s="234"/>
-      <c r="AO26" s="235"/>
-      <c r="AP26" s="235"/>
-      <c r="AQ26" s="235"/>
-      <c r="AR26" s="236"/>
-      <c r="AS26" s="234"/>
-      <c r="AT26" s="235"/>
-      <c r="AU26" s="235"/>
-      <c r="AV26" s="235"/>
-      <c r="AW26" s="236"/>
+      <c r="V26" s="263"/>
+      <c r="W26" s="264"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="264"/>
+      <c r="Z26" s="264"/>
+      <c r="AA26" s="264"/>
+      <c r="AB26" s="264"/>
+      <c r="AC26" s="264"/>
+      <c r="AD26" s="264"/>
+      <c r="AE26" s="264"/>
+      <c r="AF26" s="264"/>
+      <c r="AG26" s="264"/>
+      <c r="AH26" s="264"/>
+      <c r="AI26" s="264"/>
+      <c r="AJ26" s="264"/>
+      <c r="AK26" s="264"/>
+      <c r="AL26" s="264"/>
+      <c r="AM26" s="265"/>
+      <c r="AN26" s="266"/>
+      <c r="AO26" s="267"/>
+      <c r="AP26" s="267"/>
+      <c r="AQ26" s="267"/>
+      <c r="AR26" s="268"/>
+      <c r="AS26" s="266"/>
+      <c r="AT26" s="267"/>
+      <c r="AU26" s="267"/>
+      <c r="AV26" s="267"/>
+      <c r="AW26" s="268"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="242"/>
-      <c r="L27" s="243"/>
-      <c r="M27" s="251"/>
-      <c r="N27" s="252"/>
-      <c r="O27" s="252"/>
-      <c r="P27" s="252"/>
-      <c r="Q27" s="252"/>
-      <c r="R27" s="253"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="271"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="262"/>
       <c r="S27" s="247"/>
       <c r="T27" s="247"/>
       <c r="U27" s="247"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="249"/>
-      <c r="X27" s="249"/>
-      <c r="Y27" s="249"/>
-      <c r="Z27" s="249"/>
-      <c r="AA27" s="249"/>
-      <c r="AB27" s="249"/>
-      <c r="AC27" s="249"/>
-      <c r="AD27" s="249"/>
-      <c r="AE27" s="249"/>
-      <c r="AF27" s="249"/>
-      <c r="AG27" s="249"/>
-      <c r="AH27" s="249"/>
-      <c r="AI27" s="249"/>
-      <c r="AJ27" s="249"/>
-      <c r="AK27" s="249"/>
-      <c r="AL27" s="249"/>
-      <c r="AM27" s="250"/>
-      <c r="AN27" s="234"/>
-      <c r="AO27" s="235"/>
-      <c r="AP27" s="235"/>
-      <c r="AQ27" s="235"/>
-      <c r="AR27" s="236"/>
-      <c r="AS27" s="234"/>
-      <c r="AT27" s="235"/>
-      <c r="AU27" s="235"/>
-      <c r="AV27" s="235"/>
-      <c r="AW27" s="236"/>
+      <c r="V27" s="263"/>
+      <c r="W27" s="264"/>
+      <c r="X27" s="264"/>
+      <c r="Y27" s="264"/>
+      <c r="Z27" s="264"/>
+      <c r="AA27" s="264"/>
+      <c r="AB27" s="264"/>
+      <c r="AC27" s="264"/>
+      <c r="AD27" s="264"/>
+      <c r="AE27" s="264"/>
+      <c r="AF27" s="264"/>
+      <c r="AG27" s="264"/>
+      <c r="AH27" s="264"/>
+      <c r="AI27" s="264"/>
+      <c r="AJ27" s="264"/>
+      <c r="AK27" s="264"/>
+      <c r="AL27" s="264"/>
+      <c r="AM27" s="265"/>
+      <c r="AN27" s="266"/>
+      <c r="AO27" s="267"/>
+      <c r="AP27" s="267"/>
+      <c r="AQ27" s="267"/>
+      <c r="AR27" s="268"/>
+      <c r="AS27" s="266"/>
+      <c r="AT27" s="267"/>
+      <c r="AU27" s="267"/>
+      <c r="AV27" s="267"/>
+      <c r="AW27" s="268"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="242"/>
-      <c r="L28" s="243"/>
-      <c r="M28" s="254"/>
-      <c r="N28" s="252"/>
-      <c r="O28" s="252"/>
-      <c r="P28" s="252"/>
-      <c r="Q28" s="252"/>
-      <c r="R28" s="253"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="260"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="262"/>
       <c r="S28" s="247"/>
       <c r="T28" s="247"/>
       <c r="U28" s="247"/>
-      <c r="V28" s="248"/>
-      <c r="W28" s="249"/>
-      <c r="X28" s="249"/>
-      <c r="Y28" s="249"/>
-      <c r="Z28" s="249"/>
-      <c r="AA28" s="249"/>
-      <c r="AB28" s="249"/>
-      <c r="AC28" s="249"/>
-      <c r="AD28" s="249"/>
-      <c r="AE28" s="249"/>
-      <c r="AF28" s="249"/>
-      <c r="AG28" s="249"/>
-      <c r="AH28" s="249"/>
-      <c r="AI28" s="249"/>
-      <c r="AJ28" s="249"/>
-      <c r="AK28" s="249"/>
-      <c r="AL28" s="249"/>
-      <c r="AM28" s="250"/>
-      <c r="AN28" s="234"/>
-      <c r="AO28" s="235"/>
-      <c r="AP28" s="235"/>
-      <c r="AQ28" s="235"/>
-      <c r="AR28" s="236"/>
-      <c r="AS28" s="234"/>
-      <c r="AT28" s="235"/>
-      <c r="AU28" s="235"/>
-      <c r="AV28" s="235"/>
-      <c r="AW28" s="236"/>
+      <c r="V28" s="263"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="264"/>
+      <c r="Z28" s="264"/>
+      <c r="AA28" s="264"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="264"/>
+      <c r="AD28" s="264"/>
+      <c r="AE28" s="264"/>
+      <c r="AF28" s="264"/>
+      <c r="AG28" s="264"/>
+      <c r="AH28" s="264"/>
+      <c r="AI28" s="264"/>
+      <c r="AJ28" s="264"/>
+      <c r="AK28" s="264"/>
+      <c r="AL28" s="264"/>
+      <c r="AM28" s="265"/>
+      <c r="AN28" s="266"/>
+      <c r="AO28" s="267"/>
+      <c r="AP28" s="267"/>
+      <c r="AQ28" s="267"/>
+      <c r="AR28" s="268"/>
+      <c r="AS28" s="266"/>
+      <c r="AT28" s="267"/>
+      <c r="AU28" s="267"/>
+      <c r="AV28" s="267"/>
+      <c r="AW28" s="268"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="242"/>
-      <c r="L29" s="243"/>
-      <c r="M29" s="254"/>
-      <c r="N29" s="252"/>
-      <c r="O29" s="252"/>
-      <c r="P29" s="252"/>
-      <c r="Q29" s="252"/>
-      <c r="R29" s="253"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="260"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="262"/>
       <c r="S29" s="247"/>
       <c r="T29" s="247"/>
       <c r="U29" s="247"/>
-      <c r="V29" s="248"/>
-      <c r="W29" s="249"/>
-      <c r="X29" s="249"/>
-      <c r="Y29" s="249"/>
-      <c r="Z29" s="249"/>
-      <c r="AA29" s="249"/>
-      <c r="AB29" s="249"/>
-      <c r="AC29" s="249"/>
-      <c r="AD29" s="249"/>
-      <c r="AE29" s="249"/>
-      <c r="AF29" s="249"/>
-      <c r="AG29" s="249"/>
-      <c r="AH29" s="249"/>
-      <c r="AI29" s="249"/>
-      <c r="AJ29" s="249"/>
-      <c r="AK29" s="249"/>
-      <c r="AL29" s="249"/>
-      <c r="AM29" s="250"/>
-      <c r="AN29" s="234"/>
-      <c r="AO29" s="235"/>
-      <c r="AP29" s="235"/>
-      <c r="AQ29" s="235"/>
-      <c r="AR29" s="236"/>
-      <c r="AS29" s="234"/>
-      <c r="AT29" s="235"/>
-      <c r="AU29" s="235"/>
-      <c r="AV29" s="235"/>
-      <c r="AW29" s="236"/>
+      <c r="V29" s="263"/>
+      <c r="W29" s="264"/>
+      <c r="X29" s="264"/>
+      <c r="Y29" s="264"/>
+      <c r="Z29" s="264"/>
+      <c r="AA29" s="264"/>
+      <c r="AB29" s="264"/>
+      <c r="AC29" s="264"/>
+      <c r="AD29" s="264"/>
+      <c r="AE29" s="264"/>
+      <c r="AF29" s="264"/>
+      <c r="AG29" s="264"/>
+      <c r="AH29" s="264"/>
+      <c r="AI29" s="264"/>
+      <c r="AJ29" s="264"/>
+      <c r="AK29" s="264"/>
+      <c r="AL29" s="264"/>
+      <c r="AM29" s="265"/>
+      <c r="AN29" s="266"/>
+      <c r="AO29" s="267"/>
+      <c r="AP29" s="267"/>
+      <c r="AQ29" s="267"/>
+      <c r="AR29" s="268"/>
+      <c r="AS29" s="266"/>
+      <c r="AT29" s="267"/>
+      <c r="AU29" s="267"/>
+      <c r="AV29" s="267"/>
+      <c r="AW29" s="268"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="237"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="239"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="241"/>
-      <c r="K30" s="242"/>
-      <c r="L30" s="243"/>
-      <c r="M30" s="251"/>
-      <c r="N30" s="252"/>
-      <c r="O30" s="252"/>
-      <c r="P30" s="252"/>
-      <c r="Q30" s="252"/>
-      <c r="R30" s="253"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="271"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="262"/>
       <c r="S30" s="247"/>
       <c r="T30" s="247"/>
       <c r="U30" s="247"/>
-      <c r="V30" s="248"/>
-      <c r="W30" s="249"/>
-      <c r="X30" s="249"/>
-      <c r="Y30" s="249"/>
-      <c r="Z30" s="249"/>
-      <c r="AA30" s="249"/>
-      <c r="AB30" s="249"/>
-      <c r="AC30" s="249"/>
-      <c r="AD30" s="249"/>
-      <c r="AE30" s="249"/>
-      <c r="AF30" s="249"/>
-      <c r="AG30" s="249"/>
-      <c r="AH30" s="249"/>
-      <c r="AI30" s="249"/>
-      <c r="AJ30" s="249"/>
-      <c r="AK30" s="249"/>
-      <c r="AL30" s="249"/>
-      <c r="AM30" s="250"/>
-      <c r="AN30" s="234"/>
-      <c r="AO30" s="235"/>
-      <c r="AP30" s="235"/>
-      <c r="AQ30" s="235"/>
-      <c r="AR30" s="236"/>
-      <c r="AS30" s="234"/>
-      <c r="AT30" s="235"/>
-      <c r="AU30" s="235"/>
-      <c r="AV30" s="235"/>
-      <c r="AW30" s="236"/>
+      <c r="V30" s="263"/>
+      <c r="W30" s="264"/>
+      <c r="X30" s="264"/>
+      <c r="Y30" s="264"/>
+      <c r="Z30" s="264"/>
+      <c r="AA30" s="264"/>
+      <c r="AB30" s="264"/>
+      <c r="AC30" s="264"/>
+      <c r="AD30" s="264"/>
+      <c r="AE30" s="264"/>
+      <c r="AF30" s="264"/>
+      <c r="AG30" s="264"/>
+      <c r="AH30" s="264"/>
+      <c r="AI30" s="264"/>
+      <c r="AJ30" s="264"/>
+      <c r="AK30" s="264"/>
+      <c r="AL30" s="264"/>
+      <c r="AM30" s="265"/>
+      <c r="AN30" s="266"/>
+      <c r="AO30" s="267"/>
+      <c r="AP30" s="267"/>
+      <c r="AQ30" s="267"/>
+      <c r="AR30" s="268"/>
+      <c r="AS30" s="266"/>
+      <c r="AT30" s="267"/>
+      <c r="AU30" s="267"/>
+      <c r="AV30" s="267"/>
+      <c r="AW30" s="268"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="237"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
-      <c r="I31" s="240"/>
-      <c r="J31" s="241"/>
-      <c r="K31" s="242"/>
-      <c r="L31" s="243"/>
-      <c r="M31" s="251"/>
-      <c r="N31" s="252"/>
-      <c r="O31" s="252"/>
-      <c r="P31" s="252"/>
-      <c r="Q31" s="252"/>
-      <c r="R31" s="253"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
       <c r="S31" s="247"/>
       <c r="T31" s="247"/>
       <c r="U31" s="247"/>
-      <c r="V31" s="248"/>
-      <c r="W31" s="249"/>
-      <c r="X31" s="249"/>
-      <c r="Y31" s="249"/>
-      <c r="Z31" s="249"/>
-      <c r="AA31" s="249"/>
-      <c r="AB31" s="249"/>
-      <c r="AC31" s="249"/>
-      <c r="AD31" s="249"/>
-      <c r="AE31" s="249"/>
-      <c r="AF31" s="249"/>
-      <c r="AG31" s="249"/>
-      <c r="AH31" s="249"/>
-      <c r="AI31" s="249"/>
-      <c r="AJ31" s="249"/>
-      <c r="AK31" s="249"/>
-      <c r="AL31" s="249"/>
-      <c r="AM31" s="250"/>
-      <c r="AN31" s="234"/>
-      <c r="AO31" s="235"/>
-      <c r="AP31" s="235"/>
-      <c r="AQ31" s="235"/>
-      <c r="AR31" s="236"/>
-      <c r="AS31" s="234"/>
-      <c r="AT31" s="235"/>
-      <c r="AU31" s="235"/>
-      <c r="AV31" s="235"/>
-      <c r="AW31" s="236"/>
+      <c r="V31" s="263"/>
+      <c r="W31" s="264"/>
+      <c r="X31" s="264"/>
+      <c r="Y31" s="264"/>
+      <c r="Z31" s="264"/>
+      <c r="AA31" s="264"/>
+      <c r="AB31" s="264"/>
+      <c r="AC31" s="264"/>
+      <c r="AD31" s="264"/>
+      <c r="AE31" s="264"/>
+      <c r="AF31" s="264"/>
+      <c r="AG31" s="264"/>
+      <c r="AH31" s="264"/>
+      <c r="AI31" s="264"/>
+      <c r="AJ31" s="264"/>
+      <c r="AK31" s="264"/>
+      <c r="AL31" s="264"/>
+      <c r="AM31" s="265"/>
+      <c r="AN31" s="266"/>
+      <c r="AO31" s="267"/>
+      <c r="AP31" s="267"/>
+      <c r="AQ31" s="267"/>
+      <c r="AR31" s="268"/>
+      <c r="AS31" s="266"/>
+      <c r="AT31" s="267"/>
+      <c r="AU31" s="267"/>
+      <c r="AV31" s="267"/>
+      <c r="AW31" s="268"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="237"/>
-      <c r="C32" s="238"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="241"/>
-      <c r="K32" s="242"/>
-      <c r="L32" s="243"/>
-      <c r="M32" s="251"/>
-      <c r="N32" s="252"/>
-      <c r="O32" s="252"/>
-      <c r="P32" s="252"/>
-      <c r="Q32" s="252"/>
-      <c r="R32" s="253"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="271"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="262"/>
       <c r="S32" s="247"/>
       <c r="T32" s="247"/>
       <c r="U32" s="247"/>
-      <c r="V32" s="248"/>
-      <c r="W32" s="249"/>
-      <c r="X32" s="249"/>
-      <c r="Y32" s="249"/>
-      <c r="Z32" s="249"/>
-      <c r="AA32" s="249"/>
-      <c r="AB32" s="249"/>
-      <c r="AC32" s="249"/>
-      <c r="AD32" s="249"/>
-      <c r="AE32" s="249"/>
-      <c r="AF32" s="249"/>
-      <c r="AG32" s="249"/>
-      <c r="AH32" s="249"/>
-      <c r="AI32" s="249"/>
-      <c r="AJ32" s="249"/>
-      <c r="AK32" s="249"/>
-      <c r="AL32" s="249"/>
-      <c r="AM32" s="250"/>
-      <c r="AN32" s="234"/>
-      <c r="AO32" s="235"/>
-      <c r="AP32" s="235"/>
-      <c r="AQ32" s="235"/>
-      <c r="AR32" s="236"/>
-      <c r="AS32" s="234"/>
-      <c r="AT32" s="235"/>
-      <c r="AU32" s="235"/>
-      <c r="AV32" s="235"/>
-      <c r="AW32" s="236"/>
+      <c r="V32" s="263"/>
+      <c r="W32" s="264"/>
+      <c r="X32" s="264"/>
+      <c r="Y32" s="264"/>
+      <c r="Z32" s="264"/>
+      <c r="AA32" s="264"/>
+      <c r="AB32" s="264"/>
+      <c r="AC32" s="264"/>
+      <c r="AD32" s="264"/>
+      <c r="AE32" s="264"/>
+      <c r="AF32" s="264"/>
+      <c r="AG32" s="264"/>
+      <c r="AH32" s="264"/>
+      <c r="AI32" s="264"/>
+      <c r="AJ32" s="264"/>
+      <c r="AK32" s="264"/>
+      <c r="AL32" s="264"/>
+      <c r="AM32" s="265"/>
+      <c r="AN32" s="266"/>
+      <c r="AO32" s="267"/>
+      <c r="AP32" s="267"/>
+      <c r="AQ32" s="267"/>
+      <c r="AR32" s="268"/>
+      <c r="AS32" s="266"/>
+      <c r="AT32" s="267"/>
+      <c r="AU32" s="267"/>
+      <c r="AV32" s="267"/>
+      <c r="AW32" s="268"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="237"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="241"/>
-      <c r="K33" s="242"/>
-      <c r="L33" s="243"/>
-      <c r="M33" s="251"/>
-      <c r="N33" s="252"/>
-      <c r="O33" s="252"/>
-      <c r="P33" s="252"/>
-      <c r="Q33" s="252"/>
-      <c r="R33" s="253"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="258"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="262"/>
       <c r="S33" s="247"/>
       <c r="T33" s="247"/>
       <c r="U33" s="247"/>
-      <c r="V33" s="248"/>
-      <c r="W33" s="249"/>
-      <c r="X33" s="249"/>
-      <c r="Y33" s="249"/>
-      <c r="Z33" s="249"/>
-      <c r="AA33" s="249"/>
-      <c r="AB33" s="249"/>
-      <c r="AC33" s="249"/>
-      <c r="AD33" s="249"/>
-      <c r="AE33" s="249"/>
-      <c r="AF33" s="249"/>
-      <c r="AG33" s="249"/>
-      <c r="AH33" s="249"/>
-      <c r="AI33" s="249"/>
-      <c r="AJ33" s="249"/>
-      <c r="AK33" s="249"/>
-      <c r="AL33" s="249"/>
-      <c r="AM33" s="250"/>
-      <c r="AN33" s="234"/>
-      <c r="AO33" s="235"/>
-      <c r="AP33" s="235"/>
-      <c r="AQ33" s="235"/>
-      <c r="AR33" s="236"/>
-      <c r="AS33" s="234"/>
-      <c r="AT33" s="235"/>
-      <c r="AU33" s="235"/>
-      <c r="AV33" s="235"/>
-      <c r="AW33" s="236"/>
+      <c r="V33" s="263"/>
+      <c r="W33" s="264"/>
+      <c r="X33" s="264"/>
+      <c r="Y33" s="264"/>
+      <c r="Z33" s="264"/>
+      <c r="AA33" s="264"/>
+      <c r="AB33" s="264"/>
+      <c r="AC33" s="264"/>
+      <c r="AD33" s="264"/>
+      <c r="AE33" s="264"/>
+      <c r="AF33" s="264"/>
+      <c r="AG33" s="264"/>
+      <c r="AH33" s="264"/>
+      <c r="AI33" s="264"/>
+      <c r="AJ33" s="264"/>
+      <c r="AK33" s="264"/>
+      <c r="AL33" s="264"/>
+      <c r="AM33" s="265"/>
+      <c r="AN33" s="266"/>
+      <c r="AO33" s="267"/>
+      <c r="AP33" s="267"/>
+      <c r="AQ33" s="267"/>
+      <c r="AR33" s="268"/>
+      <c r="AS33" s="266"/>
+      <c r="AT33" s="267"/>
+      <c r="AU33" s="267"/>
+      <c r="AV33" s="267"/>
+      <c r="AW33" s="268"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="237"/>
-      <c r="C34" s="238"/>
-      <c r="D34" s="239"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="240"/>
-      <c r="H34" s="240"/>
-      <c r="I34" s="240"/>
-      <c r="J34" s="241"/>
-      <c r="K34" s="242"/>
-      <c r="L34" s="243"/>
-      <c r="M34" s="244"/>
-      <c r="N34" s="245"/>
-      <c r="O34" s="245"/>
-      <c r="P34" s="245"/>
-      <c r="Q34" s="245"/>
-      <c r="R34" s="246"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="276"/>
+      <c r="O34" s="276"/>
+      <c r="P34" s="276"/>
+      <c r="Q34" s="276"/>
+      <c r="R34" s="277"/>
       <c r="S34" s="247"/>
       <c r="T34" s="247"/>
       <c r="U34" s="247"/>
-      <c r="V34" s="248"/>
-      <c r="W34" s="249"/>
-      <c r="X34" s="249"/>
-      <c r="Y34" s="249"/>
-      <c r="Z34" s="249"/>
-      <c r="AA34" s="249"/>
-      <c r="AB34" s="249"/>
-      <c r="AC34" s="249"/>
-      <c r="AD34" s="249"/>
-      <c r="AE34" s="249"/>
-      <c r="AF34" s="249"/>
-      <c r="AG34" s="249"/>
-      <c r="AH34" s="249"/>
-      <c r="AI34" s="249"/>
-      <c r="AJ34" s="249"/>
-      <c r="AK34" s="249"/>
-      <c r="AL34" s="249"/>
-      <c r="AM34" s="250"/>
-      <c r="AN34" s="234"/>
-      <c r="AO34" s="235"/>
-      <c r="AP34" s="235"/>
-      <c r="AQ34" s="235"/>
-      <c r="AR34" s="236"/>
-      <c r="AS34" s="234"/>
-      <c r="AT34" s="235"/>
-      <c r="AU34" s="235"/>
-      <c r="AV34" s="235"/>
-      <c r="AW34" s="236"/>
+      <c r="V34" s="263"/>
+      <c r="W34" s="264"/>
+      <c r="X34" s="264"/>
+      <c r="Y34" s="264"/>
+      <c r="Z34" s="264"/>
+      <c r="AA34" s="264"/>
+      <c r="AB34" s="264"/>
+      <c r="AC34" s="264"/>
+      <c r="AD34" s="264"/>
+      <c r="AE34" s="264"/>
+      <c r="AF34" s="264"/>
+      <c r="AG34" s="264"/>
+      <c r="AH34" s="264"/>
+      <c r="AI34" s="264"/>
+      <c r="AJ34" s="264"/>
+      <c r="AK34" s="264"/>
+      <c r="AL34" s="264"/>
+      <c r="AM34" s="265"/>
+      <c r="AN34" s="266"/>
+      <c r="AO34" s="267"/>
+      <c r="AP34" s="267"/>
+      <c r="AQ34" s="267"/>
+      <c r="AR34" s="268"/>
+      <c r="AS34" s="266"/>
+      <c r="AT34" s="267"/>
+      <c r="AU34" s="267"/>
+      <c r="AV34" s="267"/>
+      <c r="AW34" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -8942,230 +9157,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9297,14 +9297,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="92"/>
       <c r="W2" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -9325,11 +9325,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="278"/>
-      <c r="AP2" s="279"/>
-      <c r="AQ2" s="279"/>
-      <c r="AR2" s="279"/>
-      <c r="AS2" s="280"/>
+      <c r="AO2" s="282"/>
+      <c r="AP2" s="283"/>
+      <c r="AQ2" s="283"/>
+      <c r="AR2" s="283"/>
+      <c r="AS2" s="284"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9338,14 +9338,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="281"/>
-      <c r="BA2" s="282"/>
-      <c r="BB2" s="282"/>
-      <c r="BC2" s="282"/>
-      <c r="BD2" s="282"/>
-      <c r="BE2" s="282"/>
-      <c r="BF2" s="282"/>
-      <c r="BG2" s="283"/>
+      <c r="AZ2" s="285"/>
+      <c r="BA2" s="286"/>
+      <c r="BB2" s="286"/>
+      <c r="BC2" s="286"/>
+      <c r="BD2" s="286"/>
+      <c r="BE2" s="286"/>
+      <c r="BF2" s="286"/>
+      <c r="BG2" s="287"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -9426,7 +9426,7 @@
     </row>
     <row r="8" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -11094,10 +11094,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="284" t="s">
+      <c r="B50" s="288" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="285"/>
+      <c r="C50" s="289"/>
       <c r="D50" s="72" t="s">
         <v>88</v>
       </c>
@@ -11180,10 +11180,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="274">
+      <c r="B51" s="278">
         <v>1</v>
       </c>
-      <c r="C51" s="275"/>
+      <c r="C51" s="279"/>
       <c r="D51" s="193" t="s">
         <v>103</v>
       </c>
@@ -11194,7 +11194,7 @@
       <c r="I51" s="194"/>
       <c r="J51" s="195"/>
       <c r="K51" s="193" t="s">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="L51" s="194"/>
       <c r="M51" s="194"/>
@@ -11215,18 +11215,18 @@
       <c r="AB51" s="194"/>
       <c r="AC51" s="194"/>
       <c r="AD51" s="195"/>
-      <c r="AE51" s="276" t="s">
+      <c r="AE51" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="AF51" s="277"/>
-      <c r="AG51" s="276"/>
-      <c r="AH51" s="277"/>
-      <c r="AI51" s="276"/>
-      <c r="AJ51" s="277"/>
-      <c r="AK51" s="276"/>
-      <c r="AL51" s="277"/>
+      <c r="AF51" s="281"/>
+      <c r="AG51" s="280"/>
+      <c r="AH51" s="281"/>
+      <c r="AI51" s="280"/>
+      <c r="AJ51" s="281"/>
+      <c r="AK51" s="280"/>
+      <c r="AL51" s="281"/>
       <c r="AM51" s="196" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="AN51" s="173"/>
       <c r="AO51" s="173"/>
@@ -11258,12 +11258,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="274">
+      <c r="B52" s="278">
         <v>2</v>
       </c>
-      <c r="C52" s="275"/>
+      <c r="C52" s="279"/>
       <c r="D52" s="193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E52" s="194"/>
       <c r="F52" s="194"/>
@@ -11272,7 +11272,7 @@
       <c r="I52" s="194"/>
       <c r="J52" s="195"/>
       <c r="K52" s="193" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L52" s="194"/>
       <c r="M52" s="194"/>
@@ -11293,10 +11293,10 @@
       <c r="AB52" s="194"/>
       <c r="AC52" s="194"/>
       <c r="AD52" s="195"/>
-      <c r="AE52" s="276" t="s">
+      <c r="AE52" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="AF52" s="277"/>
+      <c r="AF52" s="281"/>
       <c r="AG52" s="197"/>
       <c r="AH52" s="198"/>
       <c r="AI52" s="197"/>
@@ -11304,7 +11304,7 @@
       <c r="AK52" s="197"/>
       <c r="AL52" s="198"/>
       <c r="AM52" s="196" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN52" s="173"/>
       <c r="AO52" s="173"/>
@@ -11336,12 +11336,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="274">
+      <c r="B53" s="278">
         <v>3</v>
       </c>
-      <c r="C53" s="275"/>
+      <c r="C53" s="279"/>
       <c r="D53" s="193" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E53" s="194"/>
       <c r="F53" s="194"/>
@@ -11350,7 +11350,7 @@
       <c r="I53" s="194"/>
       <c r="J53" s="195"/>
       <c r="K53" s="193" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L53" s="194"/>
       <c r="M53" s="194"/>
@@ -11371,10 +11371,10 @@
       <c r="AB53" s="194"/>
       <c r="AC53" s="194"/>
       <c r="AD53" s="195"/>
-      <c r="AE53" s="276" t="s">
+      <c r="AE53" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="AF53" s="277"/>
+      <c r="AF53" s="281"/>
       <c r="AG53" s="212"/>
       <c r="AH53" s="213"/>
       <c r="AI53" s="212"/>
@@ -11382,7 +11382,7 @@
       <c r="AK53" s="212"/>
       <c r="AL53" s="213"/>
       <c r="AM53" s="196" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AN53" s="173"/>
       <c r="AO53" s="173"/>
@@ -11554,20 +11554,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="288">
+      <c r="CD1" s="292">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="CE1" s="289"/>
-      <c r="CF1" s="289"/>
-      <c r="CG1" s="289"/>
-      <c r="CH1" s="289"/>
-      <c r="CI1" s="289"/>
-      <c r="CJ1" s="289"/>
-      <c r="CK1" s="289"/>
-      <c r="CL1" s="289"/>
-      <c r="CM1" s="289"/>
-      <c r="CN1" s="290"/>
+      <c r="CE1" s="293"/>
+      <c r="CF1" s="293"/>
+      <c r="CG1" s="293"/>
+      <c r="CH1" s="293"/>
+      <c r="CI1" s="293"/>
+      <c r="CJ1" s="293"/>
+      <c r="CK1" s="293"/>
+      <c r="CL1" s="293"/>
+      <c r="CM1" s="293"/>
+      <c r="CN1" s="294"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -11576,23 +11576,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="281" t="str">
+      <c r="CU1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="286"/>
-      <c r="CW1" s="286"/>
-      <c r="CX1" s="286"/>
-      <c r="CY1" s="286"/>
-      <c r="CZ1" s="286"/>
-      <c r="DA1" s="286"/>
-      <c r="DB1" s="286"/>
-      <c r="DC1" s="286"/>
-      <c r="DD1" s="286"/>
-      <c r="DE1" s="286"/>
-      <c r="DF1" s="286"/>
-      <c r="DG1" s="286"/>
-      <c r="DH1" s="287"/>
+      <c r="CV1" s="290"/>
+      <c r="CW1" s="290"/>
+      <c r="CX1" s="290"/>
+      <c r="CY1" s="290"/>
+      <c r="CZ1" s="290"/>
+      <c r="DA1" s="290"/>
+      <c r="DB1" s="290"/>
+      <c r="DC1" s="290"/>
+      <c r="DD1" s="290"/>
+      <c r="DE1" s="290"/>
+      <c r="DF1" s="290"/>
+      <c r="DG1" s="290"/>
+      <c r="DH1" s="291"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -11647,39 +11647,39 @@
       <c r="AQ2" s="78"/>
       <c r="AR2" s="78"/>
       <c r="AS2" s="79"/>
-      <c r="AT2" s="292" t="str">
+      <c r="AT2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="AU2" s="293"/>
-      <c r="AV2" s="293"/>
-      <c r="AW2" s="293"/>
-      <c r="AX2" s="293"/>
-      <c r="AY2" s="293"/>
-      <c r="AZ2" s="293"/>
-      <c r="BA2" s="293"/>
-      <c r="BB2" s="293"/>
-      <c r="BC2" s="293"/>
-      <c r="BD2" s="293"/>
-      <c r="BE2" s="293"/>
-      <c r="BF2" s="293"/>
-      <c r="BG2" s="293"/>
-      <c r="BH2" s="293"/>
-      <c r="BI2" s="293"/>
-      <c r="BJ2" s="293"/>
-      <c r="BK2" s="293"/>
-      <c r="BL2" s="293"/>
-      <c r="BM2" s="293"/>
-      <c r="BN2" s="293"/>
-      <c r="BO2" s="293"/>
-      <c r="BP2" s="293"/>
-      <c r="BQ2" s="293"/>
-      <c r="BR2" s="293"/>
-      <c r="BS2" s="293"/>
-      <c r="BT2" s="293"/>
-      <c r="BU2" s="293"/>
-      <c r="BV2" s="293"/>
-      <c r="BW2" s="294"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="297"/>
+      <c r="BA2" s="297"/>
+      <c r="BB2" s="297"/>
+      <c r="BC2" s="297"/>
+      <c r="BD2" s="297"/>
+      <c r="BE2" s="297"/>
+      <c r="BF2" s="297"/>
+      <c r="BG2" s="297"/>
+      <c r="BH2" s="297"/>
+      <c r="BI2" s="297"/>
+      <c r="BJ2" s="297"/>
+      <c r="BK2" s="297"/>
+      <c r="BL2" s="297"/>
+      <c r="BM2" s="297"/>
+      <c r="BN2" s="297"/>
+      <c r="BO2" s="297"/>
+      <c r="BP2" s="297"/>
+      <c r="BQ2" s="297"/>
+      <c r="BR2" s="297"/>
+      <c r="BS2" s="297"/>
+      <c r="BT2" s="297"/>
+      <c r="BU2" s="297"/>
+      <c r="BV2" s="297"/>
+      <c r="BW2" s="298"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -11688,17 +11688,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="291"/>
-      <c r="CE2" s="286"/>
-      <c r="CF2" s="286"/>
-      <c r="CG2" s="286"/>
-      <c r="CH2" s="286"/>
-      <c r="CI2" s="286"/>
-      <c r="CJ2" s="286"/>
-      <c r="CK2" s="286"/>
-      <c r="CL2" s="286"/>
-      <c r="CM2" s="286"/>
-      <c r="CN2" s="287"/>
+      <c r="CD2" s="295"/>
+      <c r="CE2" s="290"/>
+      <c r="CF2" s="290"/>
+      <c r="CG2" s="290"/>
+      <c r="CH2" s="290"/>
+      <c r="CI2" s="290"/>
+      <c r="CJ2" s="290"/>
+      <c r="CK2" s="290"/>
+      <c r="CL2" s="290"/>
+      <c r="CM2" s="290"/>
+      <c r="CN2" s="291"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -11707,20 +11707,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="281"/>
-      <c r="CV2" s="286"/>
-      <c r="CW2" s="286"/>
-      <c r="CX2" s="286"/>
-      <c r="CY2" s="286"/>
-      <c r="CZ2" s="286"/>
-      <c r="DA2" s="286"/>
-      <c r="DB2" s="286"/>
-      <c r="DC2" s="286"/>
-      <c r="DD2" s="286"/>
-      <c r="DE2" s="286"/>
-      <c r="DF2" s="286"/>
-      <c r="DG2" s="286"/>
-      <c r="DH2" s="287"/>
+      <c r="CU2" s="285"/>
+      <c r="CV2" s="290"/>
+      <c r="CW2" s="290"/>
+      <c r="CX2" s="290"/>
+      <c r="CY2" s="290"/>
+      <c r="CZ2" s="290"/>
+      <c r="DA2" s="290"/>
+      <c r="DB2" s="290"/>
+      <c r="DC2" s="290"/>
+      <c r="DD2" s="290"/>
+      <c r="DE2" s="290"/>
+      <c r="DF2" s="290"/>
+      <c r="DG2" s="290"/>
+      <c r="DH2" s="291"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -11924,37 +11924,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="267" t="s">
+      <c r="D6" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="267" t="s">
+      <c r="E6" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="267" t="s">
+      <c r="F6" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="267" t="s">
+      <c r="G6" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="267" t="s">
+      <c r="H6" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="295" t="s">
+      <c r="I6" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="295" t="s">
+      <c r="J6" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="267" t="s">
+      <c r="K6" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="267" t="s">
+      <c r="L6" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="267" t="s">
+      <c r="M6" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -11962,24 +11962,24 @@
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
-      <c r="Q6" s="295" t="s">
+      <c r="Q6" s="299" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-      <c r="K7" s="267"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="267"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
       <c r="N7" s="43" t="s">
         <v>69</v>
       </c>
@@ -11989,7 +11989,7 @@
       <c r="P7" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="295"/>
+      <c r="Q7" s="299"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
@@ -11999,10 +11999,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>39</v>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -12044,10 +12044,10 @@
         <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>39</v>
@@ -12078,7 +12078,7 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -12094,7 +12094,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>39</v>
@@ -12141,37 +12141,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="267" t="s">
+      <c r="C13" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="267" t="s">
+      <c r="D13" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="267" t="s">
+      <c r="E13" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="267" t="s">
+      <c r="F13" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="267" t="s">
+      <c r="G13" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="267" t="s">
+      <c r="H13" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="296" t="s">
+      <c r="I13" s="300" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="295" t="s">
+      <c r="J13" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="267" t="s">
+      <c r="K13" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="267" t="s">
+      <c r="L13" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="267" t="s">
+      <c r="M13" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -12179,24 +12179,24 @@
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
-      <c r="Q13" s="296" t="s">
+      <c r="Q13" s="300" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="267"/>
-      <c r="D14" s="267"/>
-      <c r="E14" s="267"/>
-      <c r="F14" s="267"/>
-      <c r="G14" s="267"/>
-      <c r="H14" s="267"/>
-      <c r="I14" s="297"/>
-      <c r="J14" s="295"/>
-      <c r="K14" s="267"/>
-      <c r="L14" s="267"/>
-      <c r="M14" s="267"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
       <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
@@ -12206,7 +12206,7 @@
       <c r="P14" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="297"/>
+      <c r="Q14" s="301"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -12218,13 +12218,13 @@
         <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>44</v>
@@ -12236,7 +12236,7 @@
         <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -12251,7 +12251,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -12264,13 +12264,13 @@
         <v>101</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>44</v>
@@ -12297,7 +12297,7 @@
         <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="8"/>
     </row>
@@ -12307,16 +12307,16 @@
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>44</v>
@@ -12343,7 +12343,7 @@
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
@@ -12360,42 +12360,42 @@
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="95"/>
-      <c r="C21" s="267" t="s">
+      <c r="C21" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="267" t="s">
+      <c r="D21" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="267" t="s">
+      <c r="E21" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="267" t="s">
+      <c r="F21" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="267" t="s">
+      <c r="G21" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="267" t="s">
+      <c r="H21" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="295" t="s">
+      <c r="I21" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="295" t="s">
+      <c r="J21" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="267" t="s">
+      <c r="K21" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="267" t="s">
+      <c r="L21" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="267" t="s">
+      <c r="M21" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="65" t="s">
@@ -12403,23 +12403,23 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="295" t="s">
+      <c r="Q21" s="299" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="95"/>
-      <c r="C22" s="267"/>
-      <c r="D22" s="267"/>
-      <c r="E22" s="267"/>
-      <c r="F22" s="267"/>
-      <c r="G22" s="267"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="295"/>
-      <c r="J22" s="295"/>
-      <c r="K22" s="267"/>
-      <c r="L22" s="267"/>
-      <c r="M22" s="267"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="240"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="240"/>
+      <c r="M22" s="240"/>
       <c r="N22" s="183" t="s">
         <v>69</v>
       </c>
@@ -12429,7 +12429,7 @@
       <c r="P22" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" s="295"/>
+      <c r="Q22" s="299"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="95"/>
@@ -12440,10 +12440,10 @@
         <v>54</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>45</v>
@@ -12458,7 +12458,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>35</v>
@@ -12473,7 +12473,7 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="8"/>
     </row>
@@ -12486,10 +12486,10 @@
         <v>55</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G24" s="44" t="s">
         <v>45</v>
@@ -12504,7 +12504,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -12519,7 +12519,7 @@
         <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="8"/>
     </row>
@@ -12532,10 +12532,10 @@
         <v>56</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G25" s="44" t="s">
         <v>45</v>
@@ -12550,7 +12550,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>35</v>
@@ -12565,7 +12565,7 @@
         <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="8"/>
     </row>
@@ -12575,13 +12575,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>45</v>
@@ -12596,7 +12596,7 @@
         <v>35</v>
       </c>
       <c r="K26" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>35</v>
@@ -12611,7 +12611,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="8"/>
     </row>
@@ -12621,13 +12621,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>45</v>
@@ -12642,7 +12642,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>35</v>
@@ -12657,7 +12657,7 @@
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="8"/>
     </row>
@@ -12667,13 +12667,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>45</v>
@@ -12688,7 +12688,7 @@
         <v>35</v>
       </c>
       <c r="K28" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>35</v>
@@ -12703,49 +12703,49 @@
         <v>35</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="95"/>
-      <c r="C30" s="267" t="s">
+      <c r="C30" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="267" t="s">
+      <c r="D30" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="267" t="s">
+      <c r="E30" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="267" t="s">
+      <c r="F30" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="267" t="s">
+      <c r="G30" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="267" t="s">
+      <c r="H30" s="240" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="295" t="s">
+      <c r="I30" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="295" t="s">
+      <c r="J30" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="267" t="s">
+      <c r="K30" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="267" t="s">
+      <c r="L30" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="267" t="s">
+      <c r="M30" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -12753,23 +12753,23 @@
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="65"/>
-      <c r="Q30" s="295" t="s">
+      <c r="Q30" s="299" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="95"/>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="267"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="267"/>
-      <c r="H31" s="267"/>
-      <c r="I31" s="295"/>
-      <c r="J31" s="295"/>
-      <c r="K31" s="267"/>
-      <c r="L31" s="267"/>
-      <c r="M31" s="267"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="240"/>
+      <c r="I31" s="299"/>
+      <c r="J31" s="299"/>
+      <c r="K31" s="240"/>
+      <c r="L31" s="240"/>
+      <c r="M31" s="240"/>
       <c r="N31" s="93" t="s">
         <v>69</v>
       </c>
@@ -12779,7 +12779,7 @@
       <c r="P31" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="295"/>
+      <c r="Q31" s="299"/>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -12794,7 +12794,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>45</v>
@@ -12837,10 +12837,10 @@
         <v>55</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G33" s="44" t="s">
         <v>45</v>
@@ -12855,7 +12855,7 @@
         <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>35</v>
@@ -12870,7 +12870,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="217" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -12883,10 +12883,10 @@
         <v>56</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G34" s="44" t="s">
         <v>45</v>
@@ -12901,7 +12901,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -12916,7 +12916,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="217" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q34" s="8"/>
     </row>
@@ -12926,13 +12926,13 @@
         <v>4</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G35" s="44" t="s">
         <v>45</v>
@@ -12962,7 +12962,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="211" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q35" s="8"/>
     </row>
@@ -12972,13 +12972,13 @@
         <v>5</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>45</v>
@@ -12993,7 +12993,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>35</v>
@@ -13002,16 +13002,16 @@
         <v>34</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P36" s="211" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -13020,13 +13020,13 @@
         <v>6</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>45</v>
@@ -13041,7 +13041,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>35</v>
@@ -13050,16 +13050,16 @@
         <v>34</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P37" s="211" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q37" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -13068,13 +13068,13 @@
         <v>7</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G38" s="44" t="s">
         <v>45</v>
@@ -13089,7 +13089,7 @@
         <v>35</v>
       </c>
       <c r="K38" s="206" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>35</v>
@@ -13098,16 +13098,16 @@
         <v>34</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P38" s="211" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13159,16 +13159,34 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -13179,34 +13197,16 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13278,14 +13278,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="278">
+      <c r="AI1" s="282">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="AJ1" s="293"/>
-      <c r="AK1" s="293"/>
-      <c r="AL1" s="293"/>
-      <c r="AM1" s="294"/>
+      <c r="AJ1" s="297"/>
+      <c r="AK1" s="297"/>
+      <c r="AL1" s="297"/>
+      <c r="AM1" s="298"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -13294,16 +13294,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="281" t="str">
+      <c r="AT1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="286"/>
-      <c r="AV1" s="286"/>
-      <c r="AW1" s="286"/>
-      <c r="AX1" s="286"/>
-      <c r="AY1" s="286"/>
-      <c r="AZ1" s="287"/>
+      <c r="AU1" s="290"/>
+      <c r="AV1" s="290"/>
+      <c r="AW1" s="290"/>
+      <c r="AX1" s="290"/>
+      <c r="AY1" s="290"/>
+      <c r="AZ1" s="291"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -13331,32 +13331,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="292" t="str">
+      <c r="S2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="T2" s="293"/>
-      <c r="U2" s="293"/>
-      <c r="V2" s="293"/>
-      <c r="W2" s="293"/>
-      <c r="X2" s="293"/>
-      <c r="Y2" s="293"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="293"/>
-      <c r="AB2" s="293"/>
-      <c r="AC2" s="293"/>
-      <c r="AD2" s="294"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="298"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="291"/>
-      <c r="AJ2" s="286"/>
-      <c r="AK2" s="286"/>
-      <c r="AL2" s="286"/>
-      <c r="AM2" s="287"/>
+      <c r="AI2" s="295"/>
+      <c r="AJ2" s="290"/>
+      <c r="AK2" s="290"/>
+      <c r="AL2" s="290"/>
+      <c r="AM2" s="291"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -13365,13 +13365,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="281"/>
-      <c r="AU2" s="286"/>
-      <c r="AV2" s="286"/>
-      <c r="AW2" s="286"/>
-      <c r="AX2" s="286"/>
-      <c r="AY2" s="286"/>
-      <c r="AZ2" s="287"/>
+      <c r="AT2" s="285"/>
+      <c r="AU2" s="290"/>
+      <c r="AV2" s="290"/>
+      <c r="AW2" s="290"/>
+      <c r="AX2" s="290"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="291"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -13565,7 +13565,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -13616,7 +13616,7 @@
       <c r="J9" s="24"/>
       <c r="K9" s="68"/>
       <c r="L9" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -13668,7 +13668,7 @@
       <c r="K10" s="99"/>
       <c r="L10" s="98"/>
       <c r="M10" s="69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N10" s="69"/>
       <c r="O10" s="69"/>
@@ -13720,7 +13720,7 @@
       <c r="L11" s="98"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
@@ -13771,7 +13771,7 @@
       <c r="L12" s="98"/>
       <c r="M12" s="69"/>
       <c r="N12" s="69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
@@ -13822,7 +13822,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -13873,7 +13873,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -13924,7 +13924,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -13975,7 +13975,7 @@
       <c r="L16" s="98"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
@@ -14025,7 +14025,7 @@
       <c r="K17" s="99"/>
       <c r="L17" s="98"/>
       <c r="M17" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
@@ -14077,7 +14077,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
@@ -14179,7 +14179,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="69"/>
       <c r="N20" s="98" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O20" s="98"/>
       <c r="P20" s="98"/>
@@ -14197,7 +14197,7 @@
         <v>36</v>
       </c>
       <c r="AB20" s="96" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AC20" s="98"/>
       <c r="AD20" s="98"/>
@@ -14234,7 +14234,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="69"/>
       <c r="N21" s="199" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O21" s="199"/>
       <c r="P21" s="199"/>
@@ -14252,7 +14252,7 @@
         <v>36</v>
       </c>
       <c r="AB21" s="207" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AC21" s="199"/>
       <c r="AD21" s="199"/>
@@ -14289,7 +14289,7 @@
       <c r="L22" s="98"/>
       <c r="M22" s="69"/>
       <c r="N22" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O22" s="98"/>
       <c r="P22" s="98"/>
@@ -14307,7 +14307,7 @@
         <v>36</v>
       </c>
       <c r="AB22" s="96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC22" s="98"/>
       <c r="AD22" s="98"/>
@@ -14344,7 +14344,7 @@
       <c r="L23" s="98"/>
       <c r="M23" s="69"/>
       <c r="N23" s="98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O23" s="98"/>
       <c r="P23" s="98"/>
@@ -14362,7 +14362,7 @@
         <v>36</v>
       </c>
       <c r="AB23" s="96" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AC23" s="98"/>
       <c r="AD23" s="98"/>
@@ -14399,7 +14399,7 @@
       <c r="L24" s="227"/>
       <c r="M24" s="229"/>
       <c r="N24" s="227" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O24" s="227"/>
       <c r="P24" s="227"/>
@@ -14417,7 +14417,7 @@
         <v>36</v>
       </c>
       <c r="AB24" s="230" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AC24" s="227"/>
       <c r="AD24" s="227"/>
@@ -14505,7 +14505,7 @@
       <c r="L26" s="98"/>
       <c r="M26" s="98"/>
       <c r="N26" s="100" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
@@ -14602,7 +14602,7 @@
       <c r="J28" s="220"/>
       <c r="K28" s="221"/>
       <c r="L28" s="220" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M28" s="220"/>
       <c r="O28" s="220"/>
@@ -14653,7 +14653,7 @@
       <c r="K29" s="221"/>
       <c r="L29" s="220"/>
       <c r="M29" s="222" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N29" s="222"/>
       <c r="O29" s="222"/>
@@ -14705,7 +14705,7 @@
       <c r="L30" s="220"/>
       <c r="M30" s="222"/>
       <c r="N30" s="222" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O30" s="222"/>
       <c r="P30" s="222"/>
@@ -14756,7 +14756,7 @@
       <c r="L31" s="220"/>
       <c r="M31" s="222"/>
       <c r="N31" s="222" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O31" s="222"/>
       <c r="P31" s="222"/>
@@ -14807,7 +14807,7 @@
       <c r="L32" s="220"/>
       <c r="M32" s="222"/>
       <c r="N32" s="186" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O32" s="186"/>
       <c r="P32" s="186"/>
@@ -14858,7 +14858,7 @@
       <c r="L33" s="220"/>
       <c r="M33" s="222"/>
       <c r="N33" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O33" s="69"/>
       <c r="P33" s="69"/>
@@ -14903,7 +14903,7 @@
       <c r="K34" s="68"/>
       <c r="M34" s="214"/>
       <c r="N34" s="214" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O34" s="214"/>
       <c r="P34" s="214"/>
@@ -14941,7 +14941,7 @@
       <c r="K35" s="68"/>
       <c r="M35" s="214"/>
       <c r="N35" s="214" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O35" s="214"/>
       <c r="P35" s="214"/>
@@ -14979,7 +14979,7 @@
       <c r="K36" s="68"/>
       <c r="M36" s="214"/>
       <c r="N36" s="214" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O36" s="214"/>
       <c r="P36" s="214"/>
@@ -15018,7 +15018,7 @@
       <c r="M37" s="214"/>
       <c r="N37" s="214"/>
       <c r="O37" s="214" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P37" s="214"/>
       <c r="Q37" s="214"/>
@@ -15056,7 +15056,7 @@
       <c r="M38" s="214"/>
       <c r="N38" s="214"/>
       <c r="O38" s="214" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P38" s="214"/>
       <c r="Q38" s="214"/>
@@ -15093,7 +15093,7 @@
       <c r="K39" s="68"/>
       <c r="M39" s="214"/>
       <c r="N39" s="214" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O39" s="214"/>
       <c r="P39" s="214"/>
@@ -15136,7 +15136,7 @@
       <c r="K40" s="221"/>
       <c r="L40" s="220"/>
       <c r="M40" s="222" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N40" s="222"/>
       <c r="O40" s="222"/>
@@ -15188,7 +15188,7 @@
       <c r="L41" s="220"/>
       <c r="M41" s="222"/>
       <c r="N41" s="222" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O41" s="222"/>
       <c r="P41" s="222"/>
@@ -15233,7 +15233,7 @@
       <c r="K42" s="68"/>
       <c r="M42" s="214"/>
       <c r="N42" s="214" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O42" s="214"/>
       <c r="P42" s="214"/>
@@ -15265,13 +15265,13 @@
       <c r="K43" s="68"/>
       <c r="M43" s="214"/>
       <c r="N43" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AA43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB43" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG43" s="214"/>
       <c r="AV43" s="68"/>
@@ -15284,7 +15284,7 @@
       <c r="K44" s="68"/>
       <c r="M44" s="214"/>
       <c r="N44" s="208" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O44" s="208"/>
       <c r="P44" s="208"/>
@@ -15294,7 +15294,7 @@
         <v>36</v>
       </c>
       <c r="AB44" s="208" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AC44" s="208"/>
       <c r="AD44" s="208"/>
@@ -15311,13 +15311,13 @@
       <c r="K45" s="221"/>
       <c r="M45" s="224"/>
       <c r="N45" s="218" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AA45" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB45" s="218" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG45" s="224"/>
       <c r="AV45" s="221"/>
@@ -15330,33 +15330,33 @@
       <c r="K46" s="221"/>
       <c r="M46" s="224"/>
       <c r="N46" s="218" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA46" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB46" s="218" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG46" s="224"/>
       <c r="AV46" s="221"/>
     </row>
-    <row r="47" spans="2:48" s="304" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B47" s="305"/>
-      <c r="C47" s="305"/>
-      <c r="F47" s="306"/>
-      <c r="G47" s="305"/>
-      <c r="K47" s="306"/>
-      <c r="N47" s="304" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA47" s="304" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB47" s="304" t="s">
+    <row r="47" spans="2:48" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B47" s="232"/>
+      <c r="C47" s="232"/>
+      <c r="F47" s="233"/>
+      <c r="G47" s="232"/>
+      <c r="K47" s="233"/>
+      <c r="N47" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="AV47" s="306"/>
+      <c r="AA47" s="231" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB47" s="231" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV47" s="233"/>
     </row>
     <row r="48" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B48" s="67"/>
@@ -15365,14 +15365,14 @@
       <c r="G48" s="67"/>
       <c r="K48" s="68"/>
       <c r="M48" s="214"/>
-      <c r="N48" s="307" t="s">
-        <v>358</v>
+      <c r="N48" s="234" t="s">
+        <v>356</v>
       </c>
       <c r="AA48" s="214" t="s">
         <v>36</v>
       </c>
       <c r="AB48" s="216" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG48" s="214"/>
       <c r="AV48" s="68"/>
@@ -15385,7 +15385,7 @@
       <c r="K49" s="68"/>
       <c r="M49" s="214"/>
       <c r="N49" s="214" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O49" s="214"/>
       <c r="P49" s="214"/>
@@ -15417,13 +15417,13 @@
       <c r="K50" s="68"/>
       <c r="M50" s="214"/>
       <c r="N50" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AA50" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB50" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG50" s="214"/>
       <c r="AV50" s="68"/>
@@ -15436,7 +15436,7 @@
       <c r="K51" s="68"/>
       <c r="M51" s="214"/>
       <c r="N51" s="208" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O51" s="208"/>
       <c r="P51" s="208"/>
@@ -15446,7 +15446,7 @@
         <v>36</v>
       </c>
       <c r="AB51" s="208" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AC51" s="208"/>
       <c r="AD51" s="208"/>
@@ -15463,13 +15463,13 @@
       <c r="K52" s="221"/>
       <c r="M52" s="224"/>
       <c r="N52" s="218" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AA52" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB52" s="218" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG52" s="224"/>
       <c r="AV52" s="221"/>
@@ -15482,33 +15482,33 @@
       <c r="K53" s="221"/>
       <c r="M53" s="224"/>
       <c r="N53" s="218" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA53" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB53" s="218" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG53" s="224"/>
       <c r="AV53" s="221"/>
     </row>
-    <row r="54" spans="2:48" s="304" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B54" s="305"/>
-      <c r="C54" s="305"/>
-      <c r="F54" s="306"/>
-      <c r="G54" s="305"/>
-      <c r="K54" s="306"/>
-      <c r="N54" s="304" t="s">
+    <row r="54" spans="2:48" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B54" s="232"/>
+      <c r="C54" s="232"/>
+      <c r="F54" s="233"/>
+      <c r="G54" s="232"/>
+      <c r="K54" s="233"/>
+      <c r="N54" s="231" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA54" s="231" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB54" s="231" t="s">
         <v>351</v>
       </c>
-      <c r="AA54" s="304" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB54" s="304" t="s">
-        <v>353</v>
-      </c>
-      <c r="AV54" s="306"/>
+      <c r="AV54" s="233"/>
     </row>
     <row r="55" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B55" s="67"/>
@@ -15517,14 +15517,14 @@
       <c r="G55" s="67"/>
       <c r="K55" s="68"/>
       <c r="M55" s="214"/>
-      <c r="N55" s="307" t="s">
-        <v>359</v>
+      <c r="N55" s="234" t="s">
+        <v>357</v>
       </c>
       <c r="AA55" s="214" t="s">
         <v>36</v>
       </c>
       <c r="AB55" s="216" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG55" s="214"/>
       <c r="AV55" s="68"/>
@@ -15537,7 +15537,7 @@
       <c r="K56" s="68"/>
       <c r="M56" s="214"/>
       <c r="N56" s="214" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O56" s="214"/>
       <c r="P56" s="214"/>
@@ -15569,13 +15569,13 @@
       <c r="K57" s="68"/>
       <c r="M57" s="214"/>
       <c r="N57" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AA57" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB57" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AG57" s="214"/>
       <c r="AV57" s="68"/>
@@ -15588,7 +15588,7 @@
       <c r="K58" s="68"/>
       <c r="M58" s="214"/>
       <c r="N58" s="208" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O58" s="208"/>
       <c r="P58" s="208"/>
@@ -15598,7 +15598,7 @@
         <v>36</v>
       </c>
       <c r="AB58" s="208" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC58" s="208"/>
       <c r="AD58" s="208"/>
@@ -15615,13 +15615,13 @@
       <c r="K59" s="221"/>
       <c r="M59" s="224"/>
       <c r="N59" s="218" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AA59" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB59" s="218" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG59" s="224"/>
       <c r="AV59" s="221"/>
@@ -15634,33 +15634,33 @@
       <c r="K60" s="221"/>
       <c r="M60" s="224"/>
       <c r="N60" s="218" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AA60" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB60" s="218" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG60" s="224"/>
       <c r="AV60" s="221"/>
     </row>
-    <row r="61" spans="2:48" s="304" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B61" s="305"/>
-      <c r="C61" s="305"/>
-      <c r="F61" s="306"/>
-      <c r="G61" s="305"/>
-      <c r="K61" s="306"/>
-      <c r="N61" s="304" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA61" s="304" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB61" s="304" t="s">
-        <v>352</v>
-      </c>
-      <c r="AV61" s="306"/>
+    <row r="61" spans="2:48" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B61" s="232"/>
+      <c r="C61" s="232"/>
+      <c r="F61" s="233"/>
+      <c r="G61" s="232"/>
+      <c r="K61" s="233"/>
+      <c r="N61" s="231" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA61" s="231" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB61" s="231" t="s">
+        <v>350</v>
+      </c>
+      <c r="AV61" s="233"/>
     </row>
     <row r="62" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B62" s="67"/>
@@ -15669,11 +15669,11 @@
       <c r="G62" s="67"/>
       <c r="K62" s="68"/>
       <c r="M62" s="214"/>
-      <c r="N62" s="307" t="s">
-        <v>360</v>
+      <c r="N62" s="234" t="s">
+        <v>358</v>
       </c>
       <c r="AA62" s="214" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AB62" s="216"/>
       <c r="AG62" s="214"/>
@@ -15744,7 +15744,7 @@
       <c r="L64" s="98"/>
       <c r="M64" s="69"/>
       <c r="N64" s="98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O64" s="98"/>
       <c r="P64" s="98"/>
@@ -15762,7 +15762,7 @@
         <v>36</v>
       </c>
       <c r="AB64" s="96" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AC64" s="98"/>
       <c r="AD64" s="98"/>
@@ -15799,7 +15799,7 @@
       <c r="L65" s="98"/>
       <c r="M65" s="69"/>
       <c r="N65" s="199" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O65" s="199"/>
       <c r="P65" s="199"/>
@@ -15817,7 +15817,7 @@
         <v>36</v>
       </c>
       <c r="AB65" s="207" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AC65" s="199"/>
       <c r="AD65" s="199"/>
@@ -15854,7 +15854,7 @@
       <c r="L66" s="98"/>
       <c r="M66" s="69"/>
       <c r="N66" s="98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O66" s="98"/>
       <c r="P66" s="98"/>
@@ -15872,7 +15872,7 @@
         <v>36</v>
       </c>
       <c r="AB66" s="96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AC66" s="98"/>
       <c r="AD66" s="98"/>
@@ -15909,7 +15909,7 @@
       <c r="L67" s="98"/>
       <c r="M67" s="69"/>
       <c r="N67" s="98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O67" s="98"/>
       <c r="P67" s="98"/>
@@ -15927,7 +15927,7 @@
         <v>36</v>
       </c>
       <c r="AB67" s="96" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AC67" s="98"/>
       <c r="AD67" s="98"/>
@@ -15964,7 +15964,7 @@
       <c r="L68" s="227"/>
       <c r="M68" s="229"/>
       <c r="N68" s="227" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O68" s="227"/>
       <c r="P68" s="227"/>
@@ -15982,7 +15982,7 @@
         <v>36</v>
       </c>
       <c r="AB68" s="230" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AC68" s="227"/>
       <c r="AD68" s="227"/>
@@ -16012,7 +16012,7 @@
       <c r="G69" s="67"/>
       <c r="K69" s="68"/>
       <c r="M69" s="214" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA69" s="214"/>
       <c r="AB69" s="216"/>
@@ -16027,7 +16027,7 @@
       <c r="K70" s="68"/>
       <c r="M70" s="214"/>
       <c r="N70" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AA70" s="214"/>
       <c r="AB70" s="216"/>
@@ -16042,7 +16042,7 @@
       <c r="K71" s="68"/>
       <c r="M71" s="214"/>
       <c r="N71" s="218" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O71" s="218"/>
       <c r="P71" s="218"/>
@@ -16061,7 +16061,7 @@
       <c r="K72" s="68"/>
       <c r="M72" s="214"/>
       <c r="N72" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AA72" s="214"/>
       <c r="AB72" s="216"/>
@@ -16076,7 +16076,7 @@
       <c r="K73" s="68"/>
       <c r="M73" s="214"/>
       <c r="N73" s="69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AA73" s="214"/>
       <c r="AB73" s="216"/>
@@ -16148,7 +16148,7 @@
       <c r="L75" s="220"/>
       <c r="M75" s="220"/>
       <c r="N75" s="218" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O75" s="220"/>
       <c r="P75" s="220"/>
@@ -16199,7 +16199,7 @@
       <c r="L76" s="220"/>
       <c r="M76" s="220"/>
       <c r="N76" s="218" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O76" s="220"/>
       <c r="P76" s="220"/>
@@ -16290,20 +16290,20 @@
         <v>2</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="23"/>
       <c r="G78" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
       <c r="L78" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
@@ -16406,20 +16406,20 @@
         <v>3</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="23"/>
       <c r="G81" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
       <c r="L81" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
@@ -23906,14 +23906,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="278">
+      <c r="AI1" s="282">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="AJ1" s="293"/>
-      <c r="AK1" s="293"/>
-      <c r="AL1" s="293"/>
-      <c r="AM1" s="294"/>
+      <c r="AJ1" s="297"/>
+      <c r="AK1" s="297"/>
+      <c r="AL1" s="297"/>
+      <c r="AM1" s="298"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -23922,16 +23922,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="281" t="str">
+      <c r="AT1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="286"/>
-      <c r="AV1" s="286"/>
-      <c r="AW1" s="286"/>
-      <c r="AX1" s="286"/>
-      <c r="AY1" s="286"/>
-      <c r="AZ1" s="287"/>
+      <c r="AU1" s="290"/>
+      <c r="AV1" s="290"/>
+      <c r="AW1" s="290"/>
+      <c r="AX1" s="290"/>
+      <c r="AY1" s="290"/>
+      <c r="AZ1" s="291"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -23959,32 +23959,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="292" t="str">
+      <c r="S2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="T2" s="293"/>
-      <c r="U2" s="293"/>
-      <c r="V2" s="293"/>
-      <c r="W2" s="293"/>
-      <c r="X2" s="293"/>
-      <c r="Y2" s="293"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="293"/>
-      <c r="AB2" s="293"/>
-      <c r="AC2" s="293"/>
-      <c r="AD2" s="294"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="298"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="291"/>
-      <c r="AJ2" s="286"/>
-      <c r="AK2" s="286"/>
-      <c r="AL2" s="286"/>
-      <c r="AM2" s="287"/>
+      <c r="AI2" s="295"/>
+      <c r="AJ2" s="290"/>
+      <c r="AK2" s="290"/>
+      <c r="AL2" s="290"/>
+      <c r="AM2" s="291"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -23993,13 +23993,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="281"/>
-      <c r="AU2" s="286"/>
-      <c r="AV2" s="286"/>
-      <c r="AW2" s="286"/>
-      <c r="AX2" s="286"/>
-      <c r="AY2" s="286"/>
-      <c r="AZ2" s="287"/>
+      <c r="AT2" s="285"/>
+      <c r="AU2" s="290"/>
+      <c r="AV2" s="290"/>
+      <c r="AW2" s="290"/>
+      <c r="AX2" s="290"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="291"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -24241,7 +24241,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="J7" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -24265,7 +24265,7 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
@@ -24342,7 +24342,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -24446,7 +24446,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -28719,14 +28719,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="278">
+      <c r="AI1" s="282">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="AJ1" s="293"/>
-      <c r="AK1" s="293"/>
-      <c r="AL1" s="293"/>
-      <c r="AM1" s="294"/>
+      <c r="AJ1" s="297"/>
+      <c r="AK1" s="297"/>
+      <c r="AL1" s="297"/>
+      <c r="AM1" s="298"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -28735,16 +28735,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="281" t="str">
+      <c r="AT1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="286"/>
-      <c r="AV1" s="286"/>
-      <c r="AW1" s="286"/>
-      <c r="AX1" s="286"/>
-      <c r="AY1" s="286"/>
-      <c r="AZ1" s="287"/>
+      <c r="AU1" s="290"/>
+      <c r="AV1" s="290"/>
+      <c r="AW1" s="290"/>
+      <c r="AX1" s="290"/>
+      <c r="AY1" s="290"/>
+      <c r="AZ1" s="291"/>
     </row>
     <row r="2" spans="1:63" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -28772,32 +28772,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="292" t="str">
+      <c r="S2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="T2" s="293"/>
-      <c r="U2" s="293"/>
-      <c r="V2" s="293"/>
-      <c r="W2" s="293"/>
-      <c r="X2" s="293"/>
-      <c r="Y2" s="293"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="293"/>
-      <c r="AB2" s="293"/>
-      <c r="AC2" s="293"/>
-      <c r="AD2" s="294"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="298"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="291"/>
-      <c r="AJ2" s="286"/>
-      <c r="AK2" s="286"/>
-      <c r="AL2" s="286"/>
-      <c r="AM2" s="287"/>
+      <c r="AI2" s="295"/>
+      <c r="AJ2" s="290"/>
+      <c r="AK2" s="290"/>
+      <c r="AL2" s="290"/>
+      <c r="AM2" s="291"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -28806,13 +28806,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="281"/>
-      <c r="AU2" s="286"/>
-      <c r="AV2" s="286"/>
-      <c r="AW2" s="286"/>
-      <c r="AX2" s="286"/>
-      <c r="AY2" s="286"/>
-      <c r="AZ2" s="287"/>
+      <c r="AT2" s="285"/>
+      <c r="AU2" s="290"/>
+      <c r="AV2" s="290"/>
+      <c r="AW2" s="290"/>
+      <c r="AX2" s="290"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="291"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -29036,7 +29036,7 @@
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -41010,100 +41010,100 @@
       </c>
       <c r="CT2" s="105"/>
       <c r="CU2" s="106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="CV2" s="105"/>
       <c r="CW2" s="107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="CX2" s="108"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="298" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="299"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="299"/>
-      <c r="T3" s="299"/>
-      <c r="U3" s="299"/>
-      <c r="V3" s="299"/>
-      <c r="W3" s="299"/>
-      <c r="X3" s="299"/>
-      <c r="Y3" s="299"/>
-      <c r="Z3" s="299"/>
-      <c r="AA3" s="299"/>
-      <c r="AB3" s="299"/>
-      <c r="AC3" s="299"/>
-      <c r="AD3" s="299"/>
-      <c r="AE3" s="299"/>
-      <c r="AF3" s="299"/>
-      <c r="AG3" s="299"/>
-      <c r="AH3" s="299"/>
-      <c r="AI3" s="299"/>
-      <c r="AJ3" s="299"/>
-      <c r="AK3" s="299"/>
-      <c r="AL3" s="299"/>
-      <c r="AM3" s="299"/>
-      <c r="AN3" s="299"/>
-      <c r="AO3" s="299"/>
-      <c r="AP3" s="299"/>
-      <c r="AQ3" s="299"/>
-      <c r="AR3" s="299"/>
-      <c r="AS3" s="299"/>
-      <c r="AT3" s="299"/>
-      <c r="AU3" s="299"/>
-      <c r="AV3" s="299"/>
-      <c r="AW3" s="299"/>
-      <c r="AX3" s="299"/>
-      <c r="AY3" s="299"/>
-      <c r="AZ3" s="299"/>
-      <c r="BA3" s="299"/>
-      <c r="BB3" s="299"/>
-      <c r="BC3" s="299"/>
-      <c r="BD3" s="299"/>
-      <c r="BE3" s="299"/>
-      <c r="BF3" s="299"/>
-      <c r="BG3" s="299"/>
-      <c r="BH3" s="299"/>
-      <c r="BI3" s="299"/>
-      <c r="BJ3" s="299"/>
-      <c r="BK3" s="299"/>
-      <c r="BL3" s="299"/>
-      <c r="BM3" s="299"/>
-      <c r="BN3" s="299"/>
-      <c r="BO3" s="299"/>
-      <c r="BP3" s="299"/>
-      <c r="BQ3" s="299"/>
-      <c r="BR3" s="299"/>
-      <c r="BS3" s="299"/>
-      <c r="BT3" s="299"/>
-      <c r="BU3" s="299"/>
-      <c r="BV3" s="299"/>
-      <c r="BW3" s="299"/>
-      <c r="BX3" s="299"/>
-      <c r="BY3" s="299"/>
-      <c r="BZ3" s="299"/>
-      <c r="CA3" s="299"/>
-      <c r="CB3" s="299"/>
-      <c r="CC3" s="299"/>
-      <c r="CD3" s="300"/>
+      <c r="B3" s="302" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="303"/>
+      <c r="R3" s="303"/>
+      <c r="S3" s="303"/>
+      <c r="T3" s="303"/>
+      <c r="U3" s="303"/>
+      <c r="V3" s="303"/>
+      <c r="W3" s="303"/>
+      <c r="X3" s="303"/>
+      <c r="Y3" s="303"/>
+      <c r="Z3" s="303"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="303"/>
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="303"/>
+      <c r="AG3" s="303"/>
+      <c r="AH3" s="303"/>
+      <c r="AI3" s="303"/>
+      <c r="AJ3" s="303"/>
+      <c r="AK3" s="303"/>
+      <c r="AL3" s="303"/>
+      <c r="AM3" s="303"/>
+      <c r="AN3" s="303"/>
+      <c r="AO3" s="303"/>
+      <c r="AP3" s="303"/>
+      <c r="AQ3" s="303"/>
+      <c r="AR3" s="303"/>
+      <c r="AS3" s="303"/>
+      <c r="AT3" s="303"/>
+      <c r="AU3" s="303"/>
+      <c r="AV3" s="303"/>
+      <c r="AW3" s="303"/>
+      <c r="AX3" s="303"/>
+      <c r="AY3" s="303"/>
+      <c r="AZ3" s="303"/>
+      <c r="BA3" s="303"/>
+      <c r="BB3" s="303"/>
+      <c r="BC3" s="303"/>
+      <c r="BD3" s="303"/>
+      <c r="BE3" s="303"/>
+      <c r="BF3" s="303"/>
+      <c r="BG3" s="303"/>
+      <c r="BH3" s="303"/>
+      <c r="BI3" s="303"/>
+      <c r="BJ3" s="303"/>
+      <c r="BK3" s="303"/>
+      <c r="BL3" s="303"/>
+      <c r="BM3" s="303"/>
+      <c r="BN3" s="303"/>
+      <c r="BO3" s="303"/>
+      <c r="BP3" s="303"/>
+      <c r="BQ3" s="303"/>
+      <c r="BR3" s="303"/>
+      <c r="BS3" s="303"/>
+      <c r="BT3" s="303"/>
+      <c r="BU3" s="303"/>
+      <c r="BV3" s="303"/>
+      <c r="BW3" s="303"/>
+      <c r="BX3" s="303"/>
+      <c r="BY3" s="303"/>
+      <c r="BZ3" s="303"/>
+      <c r="CA3" s="303"/>
+      <c r="CB3" s="303"/>
+      <c r="CC3" s="303"/>
+      <c r="CD3" s="304"/>
       <c r="CE3" s="109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="CF3" s="110"/>
       <c r="CG3" s="110"/>
@@ -41115,7 +41115,7 @@
       <c r="CM3" s="110"/>
       <c r="CN3" s="111"/>
       <c r="CO3" s="112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="CP3" s="113"/>
       <c r="CQ3" s="113"/>
@@ -41128,89 +41128,89 @@
       <c r="CX3" s="114"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="301"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="302"/>
-      <c r="H4" s="302"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="302"/>
-      <c r="M4" s="302"/>
-      <c r="N4" s="302"/>
-      <c r="O4" s="302"/>
-      <c r="P4" s="302"/>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="302"/>
-      <c r="S4" s="302"/>
-      <c r="T4" s="302"/>
-      <c r="U4" s="302"/>
-      <c r="V4" s="302"/>
-      <c r="W4" s="302"/>
-      <c r="X4" s="302"/>
-      <c r="Y4" s="302"/>
-      <c r="Z4" s="302"/>
-      <c r="AA4" s="302"/>
-      <c r="AB4" s="302"/>
-      <c r="AC4" s="302"/>
-      <c r="AD4" s="302"/>
-      <c r="AE4" s="302"/>
-      <c r="AF4" s="302"/>
-      <c r="AG4" s="302"/>
-      <c r="AH4" s="302"/>
-      <c r="AI4" s="302"/>
-      <c r="AJ4" s="302"/>
-      <c r="AK4" s="302"/>
-      <c r="AL4" s="302"/>
-      <c r="AM4" s="302"/>
-      <c r="AN4" s="302"/>
-      <c r="AO4" s="302"/>
-      <c r="AP4" s="302"/>
-      <c r="AQ4" s="302"/>
-      <c r="AR4" s="302"/>
-      <c r="AS4" s="302"/>
-      <c r="AT4" s="302"/>
-      <c r="AU4" s="302"/>
-      <c r="AV4" s="302"/>
-      <c r="AW4" s="302"/>
-      <c r="AX4" s="302"/>
-      <c r="AY4" s="302"/>
-      <c r="AZ4" s="302"/>
-      <c r="BA4" s="302"/>
-      <c r="BB4" s="302"/>
-      <c r="BC4" s="302"/>
-      <c r="BD4" s="302"/>
-      <c r="BE4" s="302"/>
-      <c r="BF4" s="302"/>
-      <c r="BG4" s="302"/>
-      <c r="BH4" s="302"/>
-      <c r="BI4" s="302"/>
-      <c r="BJ4" s="302"/>
-      <c r="BK4" s="302"/>
-      <c r="BL4" s="302"/>
-      <c r="BM4" s="302"/>
-      <c r="BN4" s="302"/>
-      <c r="BO4" s="302"/>
-      <c r="BP4" s="302"/>
-      <c r="BQ4" s="302"/>
-      <c r="BR4" s="302"/>
-      <c r="BS4" s="302"/>
-      <c r="BT4" s="302"/>
-      <c r="BU4" s="302"/>
-      <c r="BV4" s="302"/>
-      <c r="BW4" s="302"/>
-      <c r="BX4" s="302"/>
-      <c r="BY4" s="302"/>
-      <c r="BZ4" s="302"/>
-      <c r="CA4" s="302"/>
-      <c r="CB4" s="302"/>
-      <c r="CC4" s="302"/>
-      <c r="CD4" s="303"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="306"/>
+      <c r="O4" s="306"/>
+      <c r="P4" s="306"/>
+      <c r="Q4" s="306"/>
+      <c r="R4" s="306"/>
+      <c r="S4" s="306"/>
+      <c r="T4" s="306"/>
+      <c r="U4" s="306"/>
+      <c r="V4" s="306"/>
+      <c r="W4" s="306"/>
+      <c r="X4" s="306"/>
+      <c r="Y4" s="306"/>
+      <c r="Z4" s="306"/>
+      <c r="AA4" s="306"/>
+      <c r="AB4" s="306"/>
+      <c r="AC4" s="306"/>
+      <c r="AD4" s="306"/>
+      <c r="AE4" s="306"/>
+      <c r="AF4" s="306"/>
+      <c r="AG4" s="306"/>
+      <c r="AH4" s="306"/>
+      <c r="AI4" s="306"/>
+      <c r="AJ4" s="306"/>
+      <c r="AK4" s="306"/>
+      <c r="AL4" s="306"/>
+      <c r="AM4" s="306"/>
+      <c r="AN4" s="306"/>
+      <c r="AO4" s="306"/>
+      <c r="AP4" s="306"/>
+      <c r="AQ4" s="306"/>
+      <c r="AR4" s="306"/>
+      <c r="AS4" s="306"/>
+      <c r="AT4" s="306"/>
+      <c r="AU4" s="306"/>
+      <c r="AV4" s="306"/>
+      <c r="AW4" s="306"/>
+      <c r="AX4" s="306"/>
+      <c r="AY4" s="306"/>
+      <c r="AZ4" s="306"/>
+      <c r="BA4" s="306"/>
+      <c r="BB4" s="306"/>
+      <c r="BC4" s="306"/>
+      <c r="BD4" s="306"/>
+      <c r="BE4" s="306"/>
+      <c r="BF4" s="306"/>
+      <c r="BG4" s="306"/>
+      <c r="BH4" s="306"/>
+      <c r="BI4" s="306"/>
+      <c r="BJ4" s="306"/>
+      <c r="BK4" s="306"/>
+      <c r="BL4" s="306"/>
+      <c r="BM4" s="306"/>
+      <c r="BN4" s="306"/>
+      <c r="BO4" s="306"/>
+      <c r="BP4" s="306"/>
+      <c r="BQ4" s="306"/>
+      <c r="BR4" s="306"/>
+      <c r="BS4" s="306"/>
+      <c r="BT4" s="306"/>
+      <c r="BU4" s="306"/>
+      <c r="BV4" s="306"/>
+      <c r="BW4" s="306"/>
+      <c r="BX4" s="306"/>
+      <c r="BY4" s="306"/>
+      <c r="BZ4" s="306"/>
+      <c r="CA4" s="306"/>
+      <c r="CB4" s="306"/>
+      <c r="CC4" s="306"/>
+      <c r="CD4" s="307"/>
       <c r="CE4" s="115" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="CF4" s="116"/>
       <c r="CG4" s="116"/>
@@ -41222,7 +41222,7 @@
       <c r="CM4" s="116"/>
       <c r="CN4" s="117"/>
       <c r="CO4" s="112" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="CP4" s="113"/>
       <c r="CQ4" s="113"/>
@@ -41953,7 +41953,7 @@
     </row>
     <row r="12" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="125" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -42058,7 +42058,7 @@
     </row>
     <row r="13" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="127" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="123"/>
       <c r="D13" s="123"/>
@@ -42165,7 +42165,7 @@
       <c r="B14" s="122"/>
       <c r="C14" s="123"/>
       <c r="D14" s="128" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="129"/>
       <c r="F14" s="129"/>
@@ -42184,7 +42184,7 @@
       <c r="S14" s="161"/>
       <c r="T14" s="123"/>
       <c r="U14" s="128" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V14" s="129"/>
       <c r="W14" s="129"/>
@@ -42203,7 +42203,7 @@
       <c r="AJ14" s="133"/>
       <c r="AK14" s="133"/>
       <c r="AL14" s="128" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AM14" s="129"/>
       <c r="AN14" s="129"/>
@@ -42274,7 +42274,7 @@
       <c r="B15" s="122"/>
       <c r="C15" s="168"/>
       <c r="D15" s="129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="129"/>
       <c r="F15" s="129"/>
@@ -42293,7 +42293,7 @@
       <c r="S15" s="161"/>
       <c r="T15" s="123"/>
       <c r="U15" s="129" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V15" s="129"/>
       <c r="W15" s="129"/>
@@ -42312,7 +42312,7 @@
       <c r="AJ15" s="133"/>
       <c r="AK15" s="133"/>
       <c r="AL15" s="129" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AM15" s="129"/>
       <c r="AN15" s="129"/>
@@ -42383,7 +42383,7 @@
       <c r="B16" s="122"/>
       <c r="C16" s="168"/>
       <c r="D16" s="200" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E16" s="201"/>
       <c r="F16" s="201"/>
@@ -42630,7 +42630,7 @@
       <c r="AO18" s="163"/>
       <c r="AP18" s="163"/>
       <c r="AQ18" s="138" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AR18" s="139"/>
       <c r="AS18" s="139"/>
@@ -42644,7 +42644,7 @@
       <c r="BA18" s="139"/>
       <c r="BB18" s="140"/>
       <c r="BC18" s="138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BD18" s="139"/>
       <c r="BE18" s="139"/>
@@ -42656,7 +42656,7 @@
       <c r="BK18" s="139"/>
       <c r="BL18" s="140"/>
       <c r="BM18" s="178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BN18" s="177"/>
       <c r="BO18" s="177"/>
@@ -42666,7 +42666,7 @@
       <c r="BS18" s="139"/>
       <c r="BT18" s="140"/>
       <c r="BU18" s="138" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BV18" s="139"/>
       <c r="BW18" s="139"/>
@@ -42676,7 +42676,7 @@
       <c r="CA18" s="139"/>
       <c r="CB18" s="140"/>
       <c r="CC18" s="138" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="CD18" s="139"/>
       <c r="CE18" s="139"/>
@@ -42686,7 +42686,7 @@
       <c r="CI18" s="139"/>
       <c r="CJ18" s="140"/>
       <c r="CK18" s="178" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="CL18" s="177"/>
       <c r="CM18" s="177"/>
@@ -42745,7 +42745,7 @@
       <c r="AO19" s="163"/>
       <c r="AP19" s="163"/>
       <c r="AQ19" s="179" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AR19" s="181"/>
       <c r="AS19" s="181"/>
@@ -42759,7 +42759,7 @@
       <c r="BA19" s="176"/>
       <c r="BB19" s="180"/>
       <c r="BC19" s="179" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BD19" s="181"/>
       <c r="BE19" s="181"/>
@@ -42771,7 +42771,7 @@
       <c r="BK19" s="176"/>
       <c r="BL19" s="180"/>
       <c r="BM19" s="179" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BN19" s="181"/>
       <c r="BO19" s="181"/>
@@ -42781,7 +42781,7 @@
       <c r="BS19" s="176"/>
       <c r="BT19" s="180"/>
       <c r="BU19" s="179" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="BV19" s="181"/>
       <c r="BW19" s="181"/>
@@ -42791,7 +42791,7 @@
       <c r="CA19" s="176"/>
       <c r="CB19" s="180"/>
       <c r="CC19" s="179" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="CD19" s="181"/>
       <c r="CE19" s="181"/>
@@ -42801,7 +42801,7 @@
       <c r="CI19" s="176"/>
       <c r="CJ19" s="180"/>
       <c r="CK19" s="179" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="CL19" s="181"/>
       <c r="CM19" s="181"/>
@@ -42871,7 +42871,7 @@
       <c r="AZ20" s="113"/>
       <c r="BA20" s="113"/>
       <c r="BB20" s="205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BC20" s="130"/>
       <c r="BD20" s="113"/>
@@ -42883,7 +42883,7 @@
       <c r="BJ20" s="113"/>
       <c r="BK20" s="113"/>
       <c r="BL20" s="205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BM20" s="130"/>
       <c r="BN20" s="113"/>
@@ -42893,7 +42893,7 @@
       <c r="BR20" s="113"/>
       <c r="BS20" s="113"/>
       <c r="BT20" s="205" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="BU20" s="130"/>
       <c r="BV20" s="113"/>
@@ -42903,7 +42903,7 @@
       <c r="BZ20" s="113"/>
       <c r="CA20" s="113"/>
       <c r="CB20" s="205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="CC20" s="130"/>
       <c r="CD20" s="113"/>
@@ -42913,7 +42913,7 @@
       <c r="CH20" s="113"/>
       <c r="CI20" s="113"/>
       <c r="CJ20" s="205" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="CK20" s="130"/>
       <c r="CL20" s="113"/>
@@ -42925,7 +42925,7 @@
       <c r="CR20" s="113"/>
       <c r="CS20" s="113"/>
       <c r="CT20" s="141" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="CU20" s="133"/>
       <c r="CV20" s="123"/>
@@ -43037,7 +43037,7 @@
     </row>
     <row r="22" spans="2:102" s="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
@@ -43142,7 +43142,7 @@
     </row>
     <row r="23" spans="2:102" s="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="123"/>
@@ -43214,7 +43214,7 @@
       <c r="BR23" s="133"/>
       <c r="BS23" s="133"/>
       <c r="BT23" s="128" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BU23" s="133"/>
       <c r="BV23" s="133"/>
@@ -43224,11 +43224,11 @@
       <c r="BZ23" s="133"/>
       <c r="CE23" s="133"/>
       <c r="CF23" s="133" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="CG23" s="133"/>
       <c r="CH23" s="123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CI23" s="133"/>
       <c r="CJ23" s="133"/>
@@ -43319,7 +43319,7 @@
       <c r="BR24" s="123"/>
       <c r="BS24" s="123"/>
       <c r="BT24" s="129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BU24" s="123"/>
       <c r="BV24" s="123"/>
@@ -43353,11 +43353,11 @@
       <c r="C25" s="123"/>
       <c r="D25" s="158"/>
       <c r="E25" s="139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" s="140"/>
       <c r="G25" s="138" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
@@ -43371,7 +43371,7 @@
       <c r="Q25" s="139"/>
       <c r="R25" s="140"/>
       <c r="S25" s="138" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T25" s="139"/>
       <c r="U25" s="139"/>
@@ -43388,7 +43388,7 @@
       <c r="AF25" s="139"/>
       <c r="AG25" s="140"/>
       <c r="AH25" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AI25" s="139"/>
       <c r="AJ25" s="139"/>
@@ -43407,7 +43407,7 @@
       <c r="AW25" s="139"/>
       <c r="AX25" s="140"/>
       <c r="AY25" s="138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AZ25" s="139"/>
       <c r="BA25" s="139"/>
@@ -43422,7 +43422,7 @@
       <c r="BJ25" s="139"/>
       <c r="BK25" s="140"/>
       <c r="BL25" s="138" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BM25" s="139"/>
       <c r="BN25" s="139"/>
@@ -43437,7 +43437,7 @@
       <c r="BW25" s="139"/>
       <c r="BX25" s="140"/>
       <c r="BY25" s="138" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BZ25" s="139"/>
       <c r="CA25" s="139"/>
@@ -43472,7 +43472,7 @@
       <c r="E26" s="175"/>
       <c r="F26" s="155"/>
       <c r="G26" s="156" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H26" s="175"/>
       <c r="I26" s="175"/>
@@ -43486,7 +43486,7 @@
       <c r="Q26" s="175"/>
       <c r="R26" s="155"/>
       <c r="S26" s="156" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T26" s="175"/>
       <c r="U26" s="175"/>
@@ -43503,7 +43503,7 @@
       <c r="AF26" s="175"/>
       <c r="AG26" s="155"/>
       <c r="AH26" s="156" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AI26" s="175"/>
       <c r="AJ26" s="175"/>
@@ -43522,7 +43522,7 @@
       <c r="AW26" s="175"/>
       <c r="AX26" s="155"/>
       <c r="AY26" s="156" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AZ26" s="175"/>
       <c r="BA26" s="175"/>
@@ -43537,7 +43537,7 @@
       <c r="BJ26" s="175"/>
       <c r="BK26" s="155"/>
       <c r="BL26" s="156" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BM26" s="175"/>
       <c r="BN26" s="175"/>
@@ -43552,7 +43552,7 @@
       <c r="BW26" s="175"/>
       <c r="BX26" s="155"/>
       <c r="BY26" s="156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BZ26" s="175"/>
       <c r="CA26" s="175"/>
@@ -43586,10 +43586,10 @@
       <c r="D27" s="130"/>
       <c r="E27" s="113"/>
       <c r="F27" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G27" s="203" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H27" s="182"/>
       <c r="I27" s="182"/>
@@ -43603,7 +43603,7 @@
       <c r="Q27" s="182"/>
       <c r="R27" s="182"/>
       <c r="S27" s="203" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T27" s="182"/>
       <c r="U27" s="182"/>
@@ -43620,7 +43620,7 @@
       <c r="AF27" s="182"/>
       <c r="AG27" s="204"/>
       <c r="AH27" s="203" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AI27" s="182"/>
       <c r="AJ27" s="182"/>
@@ -43664,7 +43664,7 @@
       <c r="BV27" s="113"/>
       <c r="BW27" s="113"/>
       <c r="BX27" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY27" s="130"/>
       <c r="BZ27" s="113"/>
@@ -43680,7 +43680,7 @@
       <c r="CJ27" s="113"/>
       <c r="CK27" s="205"/>
       <c r="CL27" s="131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CM27" s="132"/>
       <c r="CN27" s="209"/>
@@ -43701,10 +43701,10 @@
       <c r="D28" s="130"/>
       <c r="E28" s="113"/>
       <c r="F28" s="141" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G28" s="203" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H28" s="182"/>
       <c r="I28" s="182"/>
@@ -43718,7 +43718,7 @@
       <c r="Q28" s="182"/>
       <c r="R28" s="182"/>
       <c r="S28" s="203" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T28" s="182"/>
       <c r="U28" s="182"/>
@@ -43735,7 +43735,7 @@
       <c r="AF28" s="182"/>
       <c r="AG28" s="204"/>
       <c r="AH28" s="203" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI28" s="182"/>
       <c r="AJ28" s="182"/>
@@ -43779,7 +43779,7 @@
       <c r="BV28" s="113"/>
       <c r="BW28" s="113"/>
       <c r="BX28" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY28" s="130"/>
       <c r="BZ28" s="113"/>
@@ -43814,10 +43814,10 @@
       <c r="D29" s="130"/>
       <c r="E29" s="113"/>
       <c r="F29" s="141" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" s="203" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H29" s="182"/>
       <c r="I29" s="182"/>
@@ -43831,7 +43831,7 @@
       <c r="Q29" s="182"/>
       <c r="R29" s="182"/>
       <c r="S29" s="203" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T29" s="182"/>
       <c r="U29" s="182"/>
@@ -43848,7 +43848,7 @@
       <c r="AF29" s="182"/>
       <c r="AG29" s="204"/>
       <c r="AH29" s="203" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AI29" s="182"/>
       <c r="AJ29" s="182"/>
@@ -43879,7 +43879,7 @@
       <c r="BI29" s="113"/>
       <c r="BJ29" s="113"/>
       <c r="BK29" s="141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BL29" s="130"/>
       <c r="BM29" s="113"/>
@@ -43927,10 +43927,10 @@
       <c r="D30" s="130"/>
       <c r="E30" s="113"/>
       <c r="F30" s="141" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G30" s="203" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H30" s="182"/>
       <c r="I30" s="182"/>
@@ -43944,7 +43944,7 @@
       <c r="Q30" s="182"/>
       <c r="R30" s="182"/>
       <c r="S30" s="203" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T30" s="182"/>
       <c r="U30" s="182"/>
@@ -43961,7 +43961,7 @@
       <c r="AF30" s="182"/>
       <c r="AG30" s="204"/>
       <c r="AH30" s="203" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AI30" s="182"/>
       <c r="AJ30" s="182"/>
@@ -44005,7 +44005,7 @@
       <c r="BV30" s="113"/>
       <c r="BW30" s="113"/>
       <c r="BX30" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY30" s="130"/>
       <c r="BZ30" s="113"/>
@@ -44040,10 +44040,10 @@
       <c r="D31" s="130"/>
       <c r="E31" s="113"/>
       <c r="F31" s="141" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G31" s="203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H31" s="182"/>
       <c r="I31" s="182"/>
@@ -44057,7 +44057,7 @@
       <c r="Q31" s="182"/>
       <c r="R31" s="182"/>
       <c r="S31" s="203" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T31" s="182"/>
       <c r="U31" s="182"/>
@@ -44074,7 +44074,7 @@
       <c r="AF31" s="182"/>
       <c r="AG31" s="204"/>
       <c r="AH31" s="203" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AI31" s="182"/>
       <c r="AJ31" s="182"/>
@@ -44118,7 +44118,7 @@
       <c r="BV31" s="113"/>
       <c r="BW31" s="113"/>
       <c r="BX31" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY31" s="130"/>
       <c r="BZ31" s="113"/>
@@ -44153,10 +44153,10 @@
       <c r="D32" s="130"/>
       <c r="E32" s="113"/>
       <c r="F32" s="141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G32" s="203" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H32" s="182"/>
       <c r="I32" s="182"/>
@@ -44170,7 +44170,7 @@
       <c r="Q32" s="182"/>
       <c r="R32" s="182"/>
       <c r="S32" s="203" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="T32" s="182"/>
       <c r="U32" s="182"/>
@@ -44187,7 +44187,7 @@
       <c r="AF32" s="182"/>
       <c r="AG32" s="204"/>
       <c r="AH32" s="203" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AI32" s="182"/>
       <c r="AJ32" s="182"/>
@@ -44244,7 +44244,7 @@
       <c r="CI32" s="113"/>
       <c r="CJ32" s="113"/>
       <c r="CK32" s="205" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CL32" s="122"/>
       <c r="CM32" s="124"/>
@@ -44266,10 +44266,10 @@
       <c r="D33" s="130"/>
       <c r="E33" s="113"/>
       <c r="F33" s="141" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G33" s="203" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H33" s="182"/>
       <c r="I33" s="182"/>
@@ -44283,7 +44283,7 @@
       <c r="Q33" s="182"/>
       <c r="R33" s="182"/>
       <c r="S33" s="203" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T33" s="182"/>
       <c r="U33" s="182"/>
@@ -44300,7 +44300,7 @@
       <c r="AF33" s="182"/>
       <c r="AG33" s="204"/>
       <c r="AH33" s="203" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AI33" s="182"/>
       <c r="AJ33" s="182"/>
@@ -44357,7 +44357,7 @@
       <c r="CI33" s="113"/>
       <c r="CJ33" s="113"/>
       <c r="CK33" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CL33" s="122"/>
       <c r="CM33" s="124"/>
@@ -44379,10 +44379,10 @@
       <c r="D34" s="130"/>
       <c r="E34" s="113"/>
       <c r="F34" s="141" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G34" s="203" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H34" s="182"/>
       <c r="I34" s="182"/>
@@ -44396,7 +44396,7 @@
       <c r="Q34" s="182"/>
       <c r="R34" s="182"/>
       <c r="S34" s="203" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T34" s="182"/>
       <c r="U34" s="182"/>
@@ -44413,7 +44413,7 @@
       <c r="AF34" s="182"/>
       <c r="AG34" s="204"/>
       <c r="AH34" s="203" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AI34" s="182"/>
       <c r="AJ34" s="182"/>
@@ -44470,7 +44470,7 @@
       <c r="CI34" s="113"/>
       <c r="CJ34" s="113"/>
       <c r="CK34" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CL34" s="122"/>
       <c r="CM34" s="124"/>
@@ -44492,10 +44492,10 @@
       <c r="D35" s="130"/>
       <c r="E35" s="113"/>
       <c r="F35" s="141" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G35" s="203" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H35" s="182"/>
       <c r="I35" s="182"/>
@@ -44509,7 +44509,7 @@
       <c r="Q35" s="182"/>
       <c r="R35" s="182"/>
       <c r="S35" s="203" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T35" s="182"/>
       <c r="U35" s="182"/>
@@ -44526,7 +44526,7 @@
       <c r="AF35" s="182"/>
       <c r="AG35" s="204"/>
       <c r="AH35" s="203" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AI35" s="182"/>
       <c r="AJ35" s="182"/>
@@ -44583,7 +44583,7 @@
       <c r="CI35" s="113"/>
       <c r="CJ35" s="113"/>
       <c r="CK35" s="205" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CL35" s="122"/>
       <c r="CM35" s="124"/>
@@ -44605,10 +44605,10 @@
       <c r="D36" s="130"/>
       <c r="E36" s="113"/>
       <c r="F36" s="141" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G36" s="203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H36" s="182"/>
       <c r="I36" s="182"/>
@@ -44622,7 +44622,7 @@
       <c r="Q36" s="182"/>
       <c r="R36" s="182"/>
       <c r="S36" s="203" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T36" s="182"/>
       <c r="U36" s="182"/>
@@ -44639,7 +44639,7 @@
       <c r="AF36" s="182"/>
       <c r="AG36" s="204"/>
       <c r="AH36" s="203" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AI36" s="182"/>
       <c r="AJ36" s="182"/>
@@ -44696,7 +44696,7 @@
       <c r="CI36" s="113"/>
       <c r="CJ36" s="113"/>
       <c r="CK36" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CL36" s="122"/>
       <c r="CM36" s="124"/>
@@ -44718,10 +44718,10 @@
       <c r="D37" s="130"/>
       <c r="E37" s="113"/>
       <c r="F37" s="141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G37" s="203" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H37" s="182"/>
       <c r="I37" s="182"/>
@@ -44735,7 +44735,7 @@
       <c r="Q37" s="182"/>
       <c r="R37" s="182"/>
       <c r="S37" s="203" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T37" s="182"/>
       <c r="U37" s="182"/>
@@ -44752,7 +44752,7 @@
       <c r="AF37" s="182"/>
       <c r="AG37" s="204"/>
       <c r="AH37" s="203" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AI37" s="182"/>
       <c r="AJ37" s="182"/>
@@ -44809,7 +44809,7 @@
       <c r="CI37" s="113"/>
       <c r="CJ37" s="113"/>
       <c r="CK37" s="205" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CL37" s="122"/>
       <c r="CM37" s="124"/>
@@ -44831,10 +44831,10 @@
       <c r="D38" s="130"/>
       <c r="E38" s="113"/>
       <c r="F38" s="141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G38" s="203" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H38" s="182"/>
       <c r="I38" s="182"/>
@@ -44848,7 +44848,7 @@
       <c r="Q38" s="182"/>
       <c r="R38" s="182"/>
       <c r="S38" s="203" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T38" s="182"/>
       <c r="U38" s="182"/>
@@ -44865,7 +44865,7 @@
       <c r="AF38" s="182"/>
       <c r="AG38" s="204"/>
       <c r="AH38" s="203" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AI38" s="182"/>
       <c r="AJ38" s="182"/>
@@ -44909,7 +44909,7 @@
       <c r="BV38" s="113"/>
       <c r="BW38" s="113"/>
       <c r="BX38" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY38" s="130"/>
       <c r="BZ38" s="113"/>
@@ -44944,10 +44944,10 @@
       <c r="D39" s="130"/>
       <c r="E39" s="113"/>
       <c r="F39" s="141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G39" s="203" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H39" s="182"/>
       <c r="I39" s="182"/>
@@ -44961,7 +44961,7 @@
       <c r="Q39" s="182"/>
       <c r="R39" s="182"/>
       <c r="S39" s="203" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T39" s="182"/>
       <c r="U39" s="182"/>
@@ -44978,7 +44978,7 @@
       <c r="AF39" s="182"/>
       <c r="AG39" s="204"/>
       <c r="AH39" s="203" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AI39" s="182"/>
       <c r="AJ39" s="182"/>
@@ -45022,7 +45022,7 @@
       <c r="BV39" s="113"/>
       <c r="BW39" s="113"/>
       <c r="BX39" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY39" s="130"/>
       <c r="BZ39" s="113"/>
@@ -45057,10 +45057,10 @@
       <c r="D40" s="130"/>
       <c r="E40" s="113"/>
       <c r="F40" s="141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G40" s="203" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H40" s="182"/>
       <c r="I40" s="182"/>
@@ -45074,7 +45074,7 @@
       <c r="Q40" s="182"/>
       <c r="R40" s="182"/>
       <c r="S40" s="203" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T40" s="182"/>
       <c r="U40" s="182"/>
@@ -45091,7 +45091,7 @@
       <c r="AF40" s="182"/>
       <c r="AG40" s="204"/>
       <c r="AH40" s="203" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AI40" s="182"/>
       <c r="AJ40" s="182"/>
@@ -45122,7 +45122,7 @@
       <c r="BI40" s="113"/>
       <c r="BJ40" s="113"/>
       <c r="BK40" s="141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BL40" s="130"/>
       <c r="BM40" s="113"/>
@@ -45170,10 +45170,10 @@
       <c r="D41" s="130"/>
       <c r="E41" s="113"/>
       <c r="F41" s="141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G41" s="203" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H41" s="182"/>
       <c r="I41" s="182"/>
@@ -45187,7 +45187,7 @@
       <c r="Q41" s="182"/>
       <c r="R41" s="182"/>
       <c r="S41" s="203" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T41" s="182"/>
       <c r="U41" s="182"/>
@@ -45204,7 +45204,7 @@
       <c r="AF41" s="182"/>
       <c r="AG41" s="204"/>
       <c r="AH41" s="203" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AI41" s="182"/>
       <c r="AJ41" s="182"/>
@@ -45248,7 +45248,7 @@
       <c r="BV41" s="113"/>
       <c r="BW41" s="113"/>
       <c r="BX41" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY41" s="130"/>
       <c r="BZ41" s="113"/>
@@ -45283,10 +45283,10 @@
       <c r="D42" s="130"/>
       <c r="E42" s="113"/>
       <c r="F42" s="141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G42" s="203" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H42" s="182"/>
       <c r="I42" s="182"/>
@@ -45300,7 +45300,7 @@
       <c r="Q42" s="182"/>
       <c r="R42" s="182"/>
       <c r="S42" s="203" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T42" s="182"/>
       <c r="U42" s="182"/>
@@ -45317,7 +45317,7 @@
       <c r="AF42" s="182"/>
       <c r="AG42" s="204"/>
       <c r="AH42" s="203" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AI42" s="182"/>
       <c r="AJ42" s="182"/>
@@ -45361,7 +45361,7 @@
       <c r="BV42" s="113"/>
       <c r="BW42" s="113"/>
       <c r="BX42" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BY42" s="130"/>
       <c r="BZ42" s="113"/>
@@ -45377,7 +45377,7 @@
       <c r="CJ42" s="113"/>
       <c r="CK42" s="205"/>
       <c r="CL42" s="131" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="CM42" s="132"/>
       <c r="CN42" s="209"/>
@@ -45593,10 +45593,10 @@
       <c r="CR44" s="152"/>
       <c r="CS44" s="152"/>
       <c r="CT44" s="153" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="CU44" s="151" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CV44" s="152"/>
       <c r="CW44" s="152"/>
@@ -45620,15 +45620,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -45786,6 +45777,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -45803,14 +45803,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45826,4 +45818,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5710B-22D8-45C1-8406-0C8B2A29BCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D711BE04-8DF8-4526-8293-CEFBF82FFDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4387,6 +4387,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4413,91 +4498,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5548,7 +5548,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3587"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3589"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7153,1770 +7153,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="238"/>
-      <c r="AM1" s="238"/>
-      <c r="AN1" s="238"/>
-      <c r="AO1" s="238"/>
-      <c r="AP1" s="238"/>
-      <c r="AQ1" s="238"/>
-      <c r="AR1" s="238"/>
-      <c r="AS1" s="238"/>
-      <c r="AT1" s="238"/>
-      <c r="AU1" s="238"/>
-      <c r="AV1" s="238"/>
-      <c r="AW1" s="238"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="269"/>
+      <c r="AG1" s="269"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="269"/>
+      <c r="AL1" s="269"/>
+      <c r="AM1" s="269"/>
+      <c r="AN1" s="269"/>
+      <c r="AO1" s="269"/>
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="269"/>
+      <c r="AT1" s="269"/>
+      <c r="AU1" s="269"/>
+      <c r="AV1" s="269"/>
+      <c r="AW1" s="269"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="239"/>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="239"/>
-      <c r="AJ2" s="239"/>
-      <c r="AK2" s="239"/>
-      <c r="AL2" s="239"/>
-      <c r="AM2" s="239"/>
-      <c r="AN2" s="239"/>
-      <c r="AO2" s="239"/>
-      <c r="AP2" s="239"/>
-      <c r="AQ2" s="239"/>
-      <c r="AR2" s="239"/>
-      <c r="AS2" s="239"/>
-      <c r="AT2" s="239"/>
-      <c r="AU2" s="239"/>
-      <c r="AV2" s="239"/>
-      <c r="AW2" s="239"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="270"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="270"/>
+      <c r="W2" s="270"/>
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="270"/>
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="270"/>
+      <c r="AH2" s="270"/>
+      <c r="AI2" s="270"/>
+      <c r="AJ2" s="270"/>
+      <c r="AK2" s="270"/>
+      <c r="AL2" s="270"/>
+      <c r="AM2" s="270"/>
+      <c r="AN2" s="270"/>
+      <c r="AO2" s="270"/>
+      <c r="AP2" s="270"/>
+      <c r="AQ2" s="270"/>
+      <c r="AR2" s="270"/>
+      <c r="AS2" s="270"/>
+      <c r="AT2" s="270"/>
+      <c r="AU2" s="270"/>
+      <c r="AV2" s="270"/>
+      <c r="AW2" s="270"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240" t="s">
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="241" t="s">
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="242"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="241" t="s">
+      <c r="K3" s="273"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="240" t="s">
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240" t="s">
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240" t="s">
+      <c r="W3" s="271"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="271"/>
+      <c r="AA3" s="271"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="271"/>
+      <c r="AD3" s="271"/>
+      <c r="AE3" s="271"/>
+      <c r="AF3" s="271"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="271"/>
+      <c r="AJ3" s="271"/>
+      <c r="AK3" s="271"/>
+      <c r="AL3" s="271"/>
+      <c r="AM3" s="271"/>
+      <c r="AN3" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240" t="s">
+      <c r="AO3" s="271"/>
+      <c r="AP3" s="271"/>
+      <c r="AQ3" s="271"/>
+      <c r="AR3" s="271"/>
+      <c r="AS3" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
+      <c r="AT3" s="271"/>
+      <c r="AU3" s="271"/>
+      <c r="AV3" s="271"/>
+      <c r="AW3" s="271"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="246"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="240"/>
-      <c r="U4" s="240"/>
-      <c r="V4" s="240"/>
-      <c r="W4" s="240"/>
-      <c r="X4" s="240"/>
-      <c r="Y4" s="240"/>
-      <c r="Z4" s="240"/>
-      <c r="AA4" s="240"/>
-      <c r="AB4" s="240"/>
-      <c r="AC4" s="240"/>
-      <c r="AD4" s="240"/>
-      <c r="AE4" s="240"/>
-      <c r="AF4" s="240"/>
-      <c r="AG4" s="240"/>
-      <c r="AH4" s="240"/>
-      <c r="AI4" s="240"/>
-      <c r="AJ4" s="240"/>
-      <c r="AK4" s="240"/>
-      <c r="AL4" s="240"/>
-      <c r="AM4" s="240"/>
-      <c r="AN4" s="240"/>
-      <c r="AO4" s="240"/>
-      <c r="AP4" s="240"/>
-      <c r="AQ4" s="240"/>
-      <c r="AR4" s="240"/>
-      <c r="AS4" s="240"/>
-      <c r="AT4" s="240"/>
-      <c r="AU4" s="240"/>
-      <c r="AV4" s="240"/>
-      <c r="AW4" s="240"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="275"/>
+      <c r="N4" s="276"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="276"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="271"/>
+      <c r="T4" s="271"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="271"/>
+      <c r="W4" s="271"/>
+      <c r="X4" s="271"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="271"/>
+      <c r="AA4" s="271"/>
+      <c r="AB4" s="271"/>
+      <c r="AC4" s="271"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="271"/>
+      <c r="AF4" s="271"/>
+      <c r="AG4" s="271"/>
+      <c r="AH4" s="271"/>
+      <c r="AI4" s="271"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="271"/>
+      <c r="AL4" s="271"/>
+      <c r="AM4" s="271"/>
+      <c r="AN4" s="271"/>
+      <c r="AO4" s="271"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="271"/>
+      <c r="AR4" s="271"/>
+      <c r="AS4" s="271"/>
+      <c r="AT4" s="271"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="248">
+      <c r="B5" s="263">
         <v>1</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="249">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="244">
         <v>43735</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="250" t="s">
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="250" t="s">
+      <c r="K5" s="246"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="251"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="247" t="s">
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="246"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="256" t="s">
+      <c r="T5" s="251"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="256"/>
-      <c r="X5" s="256"/>
-      <c r="Y5" s="256"/>
-      <c r="Z5" s="256"/>
-      <c r="AA5" s="256"/>
-      <c r="AB5" s="256"/>
-      <c r="AC5" s="256"/>
-      <c r="AD5" s="256"/>
-      <c r="AE5" s="256"/>
-      <c r="AF5" s="256"/>
-      <c r="AG5" s="256"/>
-      <c r="AH5" s="256"/>
-      <c r="AI5" s="256"/>
-      <c r="AJ5" s="256"/>
-      <c r="AK5" s="256"/>
-      <c r="AL5" s="256"/>
-      <c r="AM5" s="256"/>
-      <c r="AN5" s="247" t="s">
+      <c r="W5" s="262"/>
+      <c r="X5" s="262"/>
+      <c r="Y5" s="262"/>
+      <c r="Z5" s="262"/>
+      <c r="AA5" s="262"/>
+      <c r="AB5" s="262"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="262"/>
+      <c r="AE5" s="262"/>
+      <c r="AF5" s="262"/>
+      <c r="AG5" s="262"/>
+      <c r="AH5" s="262"/>
+      <c r="AI5" s="262"/>
+      <c r="AJ5" s="262"/>
+      <c r="AK5" s="262"/>
+      <c r="AL5" s="262"/>
+      <c r="AM5" s="262"/>
+      <c r="AN5" s="251" t="s">
         <v>147</v>
       </c>
-      <c r="AO5" s="247"/>
-      <c r="AP5" s="247"/>
-      <c r="AQ5" s="247"/>
-      <c r="AR5" s="247"/>
-      <c r="AS5" s="247"/>
-      <c r="AT5" s="247"/>
-      <c r="AU5" s="247"/>
-      <c r="AV5" s="247"/>
-      <c r="AW5" s="247"/>
+      <c r="AO5" s="251"/>
+      <c r="AP5" s="251"/>
+      <c r="AQ5" s="251"/>
+      <c r="AR5" s="251"/>
+      <c r="AS5" s="251"/>
+      <c r="AT5" s="251"/>
+      <c r="AU5" s="251"/>
+      <c r="AV5" s="251"/>
+      <c r="AW5" s="251"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="247"/>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="256"/>
-      <c r="W6" s="256"/>
-      <c r="X6" s="256"/>
-      <c r="Y6" s="256"/>
-      <c r="Z6" s="256"/>
-      <c r="AA6" s="256"/>
-      <c r="AB6" s="256"/>
-      <c r="AC6" s="256"/>
-      <c r="AD6" s="256"/>
-      <c r="AE6" s="256"/>
-      <c r="AF6" s="256"/>
-      <c r="AG6" s="256"/>
-      <c r="AH6" s="256"/>
-      <c r="AI6" s="256"/>
-      <c r="AJ6" s="256"/>
-      <c r="AK6" s="256"/>
-      <c r="AL6" s="256"/>
-      <c r="AM6" s="256"/>
-      <c r="AN6" s="247"/>
-      <c r="AO6" s="247"/>
-      <c r="AP6" s="247"/>
-      <c r="AQ6" s="247"/>
-      <c r="AR6" s="247"/>
-      <c r="AS6" s="247"/>
-      <c r="AT6" s="247"/>
-      <c r="AU6" s="247"/>
-      <c r="AV6" s="247"/>
-      <c r="AW6" s="247"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="251"/>
+      <c r="T6" s="251"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="262"/>
+      <c r="W6" s="262"/>
+      <c r="X6" s="262"/>
+      <c r="Y6" s="262"/>
+      <c r="Z6" s="262"/>
+      <c r="AA6" s="262"/>
+      <c r="AB6" s="262"/>
+      <c r="AC6" s="262"/>
+      <c r="AD6" s="262"/>
+      <c r="AE6" s="262"/>
+      <c r="AF6" s="262"/>
+      <c r="AG6" s="262"/>
+      <c r="AH6" s="262"/>
+      <c r="AI6" s="262"/>
+      <c r="AJ6" s="262"/>
+      <c r="AK6" s="262"/>
+      <c r="AL6" s="262"/>
+      <c r="AM6" s="262"/>
+      <c r="AN6" s="251"/>
+      <c r="AO6" s="251"/>
+      <c r="AP6" s="251"/>
+      <c r="AQ6" s="251"/>
+      <c r="AR6" s="251"/>
+      <c r="AS6" s="251"/>
+      <c r="AT6" s="251"/>
+      <c r="AU6" s="251"/>
+      <c r="AV6" s="251"/>
+      <c r="AW6" s="251"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="256"/>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
-      <c r="AA7" s="256"/>
-      <c r="AB7" s="256"/>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="256"/>
-      <c r="AE7" s="256"/>
-      <c r="AF7" s="256"/>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="256"/>
-      <c r="AJ7" s="256"/>
-      <c r="AK7" s="256"/>
-      <c r="AL7" s="256"/>
-      <c r="AM7" s="256"/>
-      <c r="AN7" s="247"/>
-      <c r="AO7" s="247"/>
-      <c r="AP7" s="247"/>
-      <c r="AQ7" s="247"/>
-      <c r="AR7" s="247"/>
-      <c r="AS7" s="247"/>
-      <c r="AT7" s="247"/>
-      <c r="AU7" s="247"/>
-      <c r="AV7" s="247"/>
-      <c r="AW7" s="247"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="268"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="262"/>
+      <c r="Z7" s="262"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="262"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="262"/>
+      <c r="AK7" s="262"/>
+      <c r="AL7" s="262"/>
+      <c r="AM7" s="262"/>
+      <c r="AN7" s="251"/>
+      <c r="AO7" s="251"/>
+      <c r="AP7" s="251"/>
+      <c r="AQ7" s="251"/>
+      <c r="AR7" s="251"/>
+      <c r="AS7" s="251"/>
+      <c r="AT7" s="251"/>
+      <c r="AU7" s="251"/>
+      <c r="AV7" s="251"/>
+      <c r="AW7" s="251"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="247"/>
-      <c r="T8" s="247"/>
-      <c r="U8" s="247"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="256"/>
-      <c r="AG8" s="256"/>
-      <c r="AH8" s="256"/>
-      <c r="AI8" s="256"/>
-      <c r="AJ8" s="256"/>
-      <c r="AK8" s="256"/>
-      <c r="AL8" s="256"/>
-      <c r="AM8" s="256"/>
-      <c r="AN8" s="247"/>
-      <c r="AO8" s="247"/>
-      <c r="AP8" s="247"/>
-      <c r="AQ8" s="247"/>
-      <c r="AR8" s="247"/>
-      <c r="AS8" s="247"/>
-      <c r="AT8" s="247"/>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="247"/>
-      <c r="AW8" s="247"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="267"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="262"/>
+      <c r="AE8" s="262"/>
+      <c r="AF8" s="262"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="262"/>
+      <c r="AI8" s="262"/>
+      <c r="AJ8" s="262"/>
+      <c r="AK8" s="262"/>
+      <c r="AL8" s="262"/>
+      <c r="AM8" s="262"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="251"/>
+      <c r="AQ8" s="251"/>
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="251"/>
+      <c r="AV8" s="251"/>
+      <c r="AW8" s="251"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="248"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="248"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="251"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="254"/>
-      <c r="Q9" s="254"/>
-      <c r="R9" s="255"/>
-      <c r="S9" s="247"/>
-      <c r="T9" s="247"/>
-      <c r="U9" s="247"/>
-      <c r="V9" s="256"/>
-      <c r="W9" s="256"/>
-      <c r="X9" s="256"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
-      <c r="AA9" s="256"/>
-      <c r="AB9" s="256"/>
-      <c r="AC9" s="256"/>
-      <c r="AD9" s="256"/>
-      <c r="AE9" s="256"/>
-      <c r="AF9" s="256"/>
-      <c r="AG9" s="256"/>
-      <c r="AH9" s="256"/>
-      <c r="AI9" s="256"/>
-      <c r="AJ9" s="256"/>
-      <c r="AK9" s="256"/>
-      <c r="AL9" s="256"/>
-      <c r="AM9" s="256"/>
-      <c r="AN9" s="247"/>
-      <c r="AO9" s="247"/>
-      <c r="AP9" s="247"/>
-      <c r="AQ9" s="247"/>
-      <c r="AR9" s="247"/>
-      <c r="AS9" s="247"/>
-      <c r="AT9" s="247"/>
-      <c r="AU9" s="247"/>
-      <c r="AV9" s="247"/>
-      <c r="AW9" s="247"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="251"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="262"/>
+      <c r="AD9" s="262"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="262"/>
+      <c r="AH9" s="262"/>
+      <c r="AI9" s="262"/>
+      <c r="AJ9" s="262"/>
+      <c r="AK9" s="262"/>
+      <c r="AL9" s="262"/>
+      <c r="AM9" s="262"/>
+      <c r="AN9" s="251"/>
+      <c r="AO9" s="251"/>
+      <c r="AP9" s="251"/>
+      <c r="AQ9" s="251"/>
+      <c r="AR9" s="251"/>
+      <c r="AS9" s="251"/>
+      <c r="AT9" s="251"/>
+      <c r="AU9" s="251"/>
+      <c r="AV9" s="251"/>
+      <c r="AW9" s="251"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="248"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="250"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="247"/>
-      <c r="T10" s="247"/>
-      <c r="U10" s="247"/>
-      <c r="V10" s="256"/>
-      <c r="W10" s="256"/>
-      <c r="X10" s="256"/>
-      <c r="Y10" s="256"/>
-      <c r="Z10" s="256"/>
-      <c r="AA10" s="256"/>
-      <c r="AB10" s="256"/>
-      <c r="AC10" s="256"/>
-      <c r="AD10" s="256"/>
-      <c r="AE10" s="256"/>
-      <c r="AF10" s="256"/>
-      <c r="AG10" s="256"/>
-      <c r="AH10" s="256"/>
-      <c r="AI10" s="256"/>
-      <c r="AJ10" s="256"/>
-      <c r="AK10" s="256"/>
-      <c r="AL10" s="256"/>
-      <c r="AM10" s="256"/>
-      <c r="AN10" s="247"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="247"/>
-      <c r="AQ10" s="247"/>
-      <c r="AR10" s="247"/>
-      <c r="AS10" s="247"/>
-      <c r="AT10" s="247"/>
-      <c r="AU10" s="247"/>
-      <c r="AV10" s="247"/>
-      <c r="AW10" s="247"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="267"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="267"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="262"/>
+      <c r="W10" s="262"/>
+      <c r="X10" s="262"/>
+      <c r="Y10" s="262"/>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="262"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="262"/>
+      <c r="AH10" s="262"/>
+      <c r="AI10" s="262"/>
+      <c r="AJ10" s="262"/>
+      <c r="AK10" s="262"/>
+      <c r="AL10" s="262"/>
+      <c r="AM10" s="262"/>
+      <c r="AN10" s="251"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="251"/>
+      <c r="AQ10" s="251"/>
+      <c r="AR10" s="251"/>
+      <c r="AS10" s="251"/>
+      <c r="AT10" s="251"/>
+      <c r="AU10" s="251"/>
+      <c r="AV10" s="251"/>
+      <c r="AW10" s="251"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="260"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="247"/>
-      <c r="T11" s="247"/>
-      <c r="U11" s="247"/>
-      <c r="V11" s="263"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="269"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="269"/>
-      <c r="AJ11" s="269"/>
-      <c r="AK11" s="269"/>
-      <c r="AL11" s="269"/>
-      <c r="AM11" s="270"/>
-      <c r="AN11" s="247"/>
-      <c r="AO11" s="247"/>
-      <c r="AP11" s="247"/>
-      <c r="AQ11" s="247"/>
-      <c r="AR11" s="247"/>
-      <c r="AS11" s="247"/>
-      <c r="AT11" s="247"/>
-      <c r="AU11" s="247"/>
-      <c r="AV11" s="247"/>
-      <c r="AW11" s="247"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="252"/>
+      <c r="W11" s="264"/>
+      <c r="X11" s="264"/>
+      <c r="Y11" s="264"/>
+      <c r="Z11" s="264"/>
+      <c r="AA11" s="264"/>
+      <c r="AB11" s="264"/>
+      <c r="AC11" s="264"/>
+      <c r="AD11" s="264"/>
+      <c r="AE11" s="264"/>
+      <c r="AF11" s="264"/>
+      <c r="AG11" s="264"/>
+      <c r="AH11" s="264"/>
+      <c r="AI11" s="264"/>
+      <c r="AJ11" s="264"/>
+      <c r="AK11" s="264"/>
+      <c r="AL11" s="264"/>
+      <c r="AM11" s="265"/>
+      <c r="AN11" s="251"/>
+      <c r="AO11" s="251"/>
+      <c r="AP11" s="251"/>
+      <c r="AQ11" s="251"/>
+      <c r="AR11" s="251"/>
+      <c r="AS11" s="251"/>
+      <c r="AT11" s="251"/>
+      <c r="AU11" s="251"/>
+      <c r="AV11" s="251"/>
+      <c r="AW11" s="251"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="257"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="260"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="261"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="247"/>
-      <c r="U12" s="247"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="264"/>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="264"/>
-      <c r="Z12" s="264"/>
-      <c r="AA12" s="264"/>
-      <c r="AB12" s="264"/>
-      <c r="AC12" s="264"/>
-      <c r="AD12" s="264"/>
-      <c r="AE12" s="264"/>
-      <c r="AF12" s="264"/>
-      <c r="AG12" s="264"/>
-      <c r="AH12" s="264"/>
-      <c r="AI12" s="264"/>
-      <c r="AJ12" s="264"/>
-      <c r="AK12" s="264"/>
-      <c r="AL12" s="264"/>
-      <c r="AM12" s="265"/>
-      <c r="AN12" s="266"/>
-      <c r="AO12" s="267"/>
-      <c r="AP12" s="267"/>
-      <c r="AQ12" s="267"/>
-      <c r="AR12" s="268"/>
-      <c r="AS12" s="266"/>
-      <c r="AT12" s="267"/>
-      <c r="AU12" s="267"/>
-      <c r="AV12" s="267"/>
-      <c r="AW12" s="268"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="247"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="256"/>
+      <c r="Q12" s="256"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
+      <c r="AI12" s="253"/>
+      <c r="AJ12" s="253"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="254"/>
+      <c r="AN12" s="238"/>
+      <c r="AO12" s="239"/>
+      <c r="AP12" s="239"/>
+      <c r="AQ12" s="239"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="238"/>
+      <c r="AT12" s="239"/>
+      <c r="AU12" s="239"/>
+      <c r="AV12" s="239"/>
+      <c r="AW12" s="240"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="257"/>
-      <c r="C13" s="258"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="271"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="262"/>
-      <c r="S13" s="247"/>
-      <c r="T13" s="247"/>
-      <c r="U13" s="247"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="264"/>
-      <c r="X13" s="264"/>
-      <c r="Y13" s="264"/>
-      <c r="Z13" s="264"/>
-      <c r="AA13" s="264"/>
-      <c r="AB13" s="264"/>
-      <c r="AC13" s="264"/>
-      <c r="AD13" s="264"/>
-      <c r="AE13" s="264"/>
-      <c r="AF13" s="264"/>
-      <c r="AG13" s="264"/>
-      <c r="AH13" s="264"/>
-      <c r="AI13" s="264"/>
-      <c r="AJ13" s="264"/>
-      <c r="AK13" s="264"/>
-      <c r="AL13" s="264"/>
-      <c r="AM13" s="265"/>
-      <c r="AN13" s="266"/>
-      <c r="AO13" s="267"/>
-      <c r="AP13" s="267"/>
-      <c r="AQ13" s="267"/>
-      <c r="AR13" s="268"/>
-      <c r="AS13" s="266"/>
-      <c r="AT13" s="267"/>
-      <c r="AU13" s="267"/>
-      <c r="AV13" s="267"/>
-      <c r="AW13" s="268"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="244"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="256"/>
+      <c r="P13" s="256"/>
+      <c r="Q13" s="256"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
+      <c r="AI13" s="253"/>
+      <c r="AJ13" s="253"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="254"/>
+      <c r="AN13" s="238"/>
+      <c r="AO13" s="239"/>
+      <c r="AP13" s="239"/>
+      <c r="AQ13" s="239"/>
+      <c r="AR13" s="240"/>
+      <c r="AS13" s="238"/>
+      <c r="AT13" s="239"/>
+      <c r="AU13" s="239"/>
+      <c r="AV13" s="239"/>
+      <c r="AW13" s="240"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="257"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="271"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="261"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="247"/>
-      <c r="T14" s="247"/>
-      <c r="U14" s="247"/>
-      <c r="V14" s="272"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="256"/>
-      <c r="AB14" s="256"/>
-      <c r="AC14" s="256"/>
-      <c r="AD14" s="256"/>
-      <c r="AE14" s="256"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="256"/>
-      <c r="AH14" s="256"/>
-      <c r="AI14" s="256"/>
-      <c r="AJ14" s="256"/>
-      <c r="AK14" s="256"/>
-      <c r="AL14" s="256"/>
-      <c r="AM14" s="256"/>
-      <c r="AN14" s="247"/>
-      <c r="AO14" s="247"/>
-      <c r="AP14" s="247"/>
-      <c r="AQ14" s="247"/>
-      <c r="AR14" s="247"/>
-      <c r="AS14" s="266"/>
-      <c r="AT14" s="267"/>
-      <c r="AU14" s="267"/>
-      <c r="AV14" s="267"/>
-      <c r="AW14" s="268"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="245"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="247"/>
+      <c r="M14" s="255"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="257"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="262"/>
+      <c r="Y14" s="262"/>
+      <c r="Z14" s="262"/>
+      <c r="AA14" s="262"/>
+      <c r="AB14" s="262"/>
+      <c r="AC14" s="262"/>
+      <c r="AD14" s="262"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="262"/>
+      <c r="AH14" s="262"/>
+      <c r="AI14" s="262"/>
+      <c r="AJ14" s="262"/>
+      <c r="AK14" s="262"/>
+      <c r="AL14" s="262"/>
+      <c r="AM14" s="262"/>
+      <c r="AN14" s="251"/>
+      <c r="AO14" s="251"/>
+      <c r="AP14" s="251"/>
+      <c r="AQ14" s="251"/>
+      <c r="AR14" s="251"/>
+      <c r="AS14" s="238"/>
+      <c r="AT14" s="239"/>
+      <c r="AU14" s="239"/>
+      <c r="AV14" s="239"/>
+      <c r="AW14" s="240"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="257"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="249"/>
-      <c r="I15" s="249"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="260"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="261"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="247"/>
-      <c r="T15" s="247"/>
-      <c r="U15" s="247"/>
-      <c r="V15" s="263"/>
-      <c r="W15" s="264"/>
-      <c r="X15" s="264"/>
-      <c r="Y15" s="264"/>
-      <c r="Z15" s="264"/>
-      <c r="AA15" s="264"/>
-      <c r="AB15" s="264"/>
-      <c r="AC15" s="264"/>
-      <c r="AD15" s="264"/>
-      <c r="AE15" s="264"/>
-      <c r="AF15" s="264"/>
-      <c r="AG15" s="264"/>
-      <c r="AH15" s="264"/>
-      <c r="AI15" s="264"/>
-      <c r="AJ15" s="264"/>
-      <c r="AK15" s="264"/>
-      <c r="AL15" s="264"/>
-      <c r="AM15" s="265"/>
-      <c r="AN15" s="266"/>
-      <c r="AO15" s="267"/>
-      <c r="AP15" s="267"/>
-      <c r="AQ15" s="267"/>
-      <c r="AR15" s="268"/>
-      <c r="AS15" s="266"/>
-      <c r="AT15" s="267"/>
-      <c r="AU15" s="267"/>
-      <c r="AV15" s="267"/>
-      <c r="AW15" s="268"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="257"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="252"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="253"/>
+      <c r="AI15" s="253"/>
+      <c r="AJ15" s="253"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="254"/>
+      <c r="AN15" s="238"/>
+      <c r="AO15" s="239"/>
+      <c r="AP15" s="239"/>
+      <c r="AQ15" s="239"/>
+      <c r="AR15" s="240"/>
+      <c r="AS15" s="238"/>
+      <c r="AT15" s="239"/>
+      <c r="AU15" s="239"/>
+      <c r="AV15" s="239"/>
+      <c r="AW15" s="240"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="257"/>
-      <c r="C16" s="258"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="251"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="260"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
-      <c r="R16" s="262"/>
-      <c r="S16" s="247"/>
-      <c r="T16" s="247"/>
-      <c r="U16" s="247"/>
-      <c r="V16" s="263"/>
-      <c r="W16" s="264"/>
-      <c r="X16" s="264"/>
-      <c r="Y16" s="264"/>
-      <c r="Z16" s="264"/>
-      <c r="AA16" s="264"/>
-      <c r="AB16" s="264"/>
-      <c r="AC16" s="264"/>
-      <c r="AD16" s="264"/>
-      <c r="AE16" s="264"/>
-      <c r="AF16" s="264"/>
-      <c r="AG16" s="264"/>
-      <c r="AH16" s="264"/>
-      <c r="AI16" s="264"/>
-      <c r="AJ16" s="264"/>
-      <c r="AK16" s="264"/>
-      <c r="AL16" s="264"/>
-      <c r="AM16" s="265"/>
-      <c r="AN16" s="266"/>
-      <c r="AO16" s="267"/>
-      <c r="AP16" s="267"/>
-      <c r="AQ16" s="267"/>
-      <c r="AR16" s="268"/>
-      <c r="AS16" s="266"/>
-      <c r="AT16" s="267"/>
-      <c r="AU16" s="267"/>
-      <c r="AV16" s="267"/>
-      <c r="AW16" s="268"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="253"/>
+      <c r="AI16" s="253"/>
+      <c r="AJ16" s="253"/>
+      <c r="AK16" s="253"/>
+      <c r="AL16" s="253"/>
+      <c r="AM16" s="254"/>
+      <c r="AN16" s="238"/>
+      <c r="AO16" s="239"/>
+      <c r="AP16" s="239"/>
+      <c r="AQ16" s="239"/>
+      <c r="AR16" s="240"/>
+      <c r="AS16" s="238"/>
+      <c r="AT16" s="239"/>
+      <c r="AU16" s="239"/>
+      <c r="AV16" s="239"/>
+      <c r="AW16" s="240"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="257"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="251"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="260"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="274"/>
-      <c r="T17" s="274"/>
-      <c r="U17" s="274"/>
-      <c r="V17" s="263"/>
-      <c r="W17" s="264"/>
-      <c r="X17" s="264"/>
-      <c r="Y17" s="264"/>
-      <c r="Z17" s="264"/>
-      <c r="AA17" s="264"/>
-      <c r="AB17" s="264"/>
-      <c r="AC17" s="264"/>
-      <c r="AD17" s="264"/>
-      <c r="AE17" s="264"/>
-      <c r="AF17" s="264"/>
-      <c r="AG17" s="264"/>
-      <c r="AH17" s="264"/>
-      <c r="AI17" s="264"/>
-      <c r="AJ17" s="264"/>
-      <c r="AK17" s="264"/>
-      <c r="AL17" s="264"/>
-      <c r="AM17" s="265"/>
-      <c r="AN17" s="266"/>
-      <c r="AO17" s="267"/>
-      <c r="AP17" s="267"/>
-      <c r="AQ17" s="267"/>
-      <c r="AR17" s="268"/>
-      <c r="AS17" s="266"/>
-      <c r="AT17" s="267"/>
-      <c r="AU17" s="267"/>
-      <c r="AV17" s="267"/>
-      <c r="AW17" s="268"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="244"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="260"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="260"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="253"/>
+      <c r="AI17" s="253"/>
+      <c r="AJ17" s="253"/>
+      <c r="AK17" s="253"/>
+      <c r="AL17" s="253"/>
+      <c r="AM17" s="254"/>
+      <c r="AN17" s="238"/>
+      <c r="AO17" s="239"/>
+      <c r="AP17" s="239"/>
+      <c r="AQ17" s="239"/>
+      <c r="AR17" s="240"/>
+      <c r="AS17" s="238"/>
+      <c r="AT17" s="239"/>
+      <c r="AU17" s="239"/>
+      <c r="AV17" s="239"/>
+      <c r="AW17" s="240"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="257"/>
-      <c r="C18" s="258"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="271"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="262"/>
-      <c r="S18" s="247"/>
-      <c r="T18" s="247"/>
-      <c r="U18" s="247"/>
-      <c r="V18" s="263"/>
-      <c r="W18" s="264"/>
-      <c r="X18" s="264"/>
-      <c r="Y18" s="264"/>
-      <c r="Z18" s="264"/>
-      <c r="AA18" s="264"/>
-      <c r="AB18" s="264"/>
-      <c r="AC18" s="264"/>
-      <c r="AD18" s="264"/>
-      <c r="AE18" s="264"/>
-      <c r="AF18" s="264"/>
-      <c r="AG18" s="264"/>
-      <c r="AH18" s="264"/>
-      <c r="AI18" s="264"/>
-      <c r="AJ18" s="264"/>
-      <c r="AK18" s="264"/>
-      <c r="AL18" s="264"/>
-      <c r="AM18" s="265"/>
-      <c r="AN18" s="266"/>
-      <c r="AO18" s="267"/>
-      <c r="AP18" s="267"/>
-      <c r="AQ18" s="267"/>
-      <c r="AR18" s="268"/>
-      <c r="AS18" s="266"/>
-      <c r="AT18" s="267"/>
-      <c r="AU18" s="267"/>
-      <c r="AV18" s="267"/>
-      <c r="AW18" s="268"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="255"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="257"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="253"/>
+      <c r="AK18" s="253"/>
+      <c r="AL18" s="253"/>
+      <c r="AM18" s="254"/>
+      <c r="AN18" s="238"/>
+      <c r="AO18" s="239"/>
+      <c r="AP18" s="239"/>
+      <c r="AQ18" s="239"/>
+      <c r="AR18" s="240"/>
+      <c r="AS18" s="238"/>
+      <c r="AT18" s="239"/>
+      <c r="AU18" s="239"/>
+      <c r="AV18" s="239"/>
+      <c r="AW18" s="240"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="257"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="262"/>
-      <c r="S19" s="247"/>
-      <c r="T19" s="247"/>
-      <c r="U19" s="247"/>
-      <c r="V19" s="263"/>
-      <c r="W19" s="264"/>
-      <c r="X19" s="264"/>
-      <c r="Y19" s="264"/>
-      <c r="Z19" s="264"/>
-      <c r="AA19" s="264"/>
-      <c r="AB19" s="264"/>
-      <c r="AC19" s="264"/>
-      <c r="AD19" s="264"/>
-      <c r="AE19" s="264"/>
-      <c r="AF19" s="264"/>
-      <c r="AG19" s="264"/>
-      <c r="AH19" s="264"/>
-      <c r="AI19" s="264"/>
-      <c r="AJ19" s="264"/>
-      <c r="AK19" s="264"/>
-      <c r="AL19" s="264"/>
-      <c r="AM19" s="265"/>
-      <c r="AN19" s="247"/>
-      <c r="AO19" s="247"/>
-      <c r="AP19" s="247"/>
-      <c r="AQ19" s="247"/>
-      <c r="AR19" s="247"/>
-      <c r="AS19" s="266"/>
-      <c r="AT19" s="267"/>
-      <c r="AU19" s="267"/>
-      <c r="AV19" s="267"/>
-      <c r="AW19" s="268"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="247"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="256"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
+      <c r="R19" s="257"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+      <c r="AJ19" s="253"/>
+      <c r="AK19" s="253"/>
+      <c r="AL19" s="253"/>
+      <c r="AM19" s="254"/>
+      <c r="AN19" s="251"/>
+      <c r="AO19" s="251"/>
+      <c r="AP19" s="251"/>
+      <c r="AQ19" s="251"/>
+      <c r="AR19" s="251"/>
+      <c r="AS19" s="238"/>
+      <c r="AT19" s="239"/>
+      <c r="AU19" s="239"/>
+      <c r="AV19" s="239"/>
+      <c r="AW19" s="240"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="257"/>
-      <c r="C20" s="258"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="260"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="261"/>
-      <c r="P20" s="261"/>
-      <c r="Q20" s="261"/>
-      <c r="R20" s="262"/>
-      <c r="S20" s="266"/>
-      <c r="T20" s="267"/>
-      <c r="U20" s="268"/>
-      <c r="V20" s="263"/>
-      <c r="W20" s="264"/>
-      <c r="X20" s="264"/>
-      <c r="Y20" s="264"/>
-      <c r="Z20" s="264"/>
-      <c r="AA20" s="264"/>
-      <c r="AB20" s="264"/>
-      <c r="AC20" s="264"/>
-      <c r="AD20" s="264"/>
-      <c r="AE20" s="264"/>
-      <c r="AF20" s="264"/>
-      <c r="AG20" s="264"/>
-      <c r="AH20" s="264"/>
-      <c r="AI20" s="264"/>
-      <c r="AJ20" s="264"/>
-      <c r="AK20" s="264"/>
-      <c r="AL20" s="264"/>
-      <c r="AM20" s="265"/>
-      <c r="AN20" s="266"/>
-      <c r="AO20" s="267"/>
-      <c r="AP20" s="267"/>
-      <c r="AQ20" s="267"/>
-      <c r="AR20" s="268"/>
-      <c r="AS20" s="266"/>
-      <c r="AT20" s="267"/>
-      <c r="AU20" s="267"/>
-      <c r="AV20" s="267"/>
-      <c r="AW20" s="268"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="247"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="256"/>
+      <c r="O20" s="256"/>
+      <c r="P20" s="256"/>
+      <c r="Q20" s="256"/>
+      <c r="R20" s="257"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
+      <c r="AJ20" s="253"/>
+      <c r="AK20" s="253"/>
+      <c r="AL20" s="253"/>
+      <c r="AM20" s="254"/>
+      <c r="AN20" s="238"/>
+      <c r="AO20" s="239"/>
+      <c r="AP20" s="239"/>
+      <c r="AQ20" s="239"/>
+      <c r="AR20" s="240"/>
+      <c r="AS20" s="238"/>
+      <c r="AT20" s="239"/>
+      <c r="AU20" s="239"/>
+      <c r="AV20" s="239"/>
+      <c r="AW20" s="240"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="257"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="261"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="247"/>
-      <c r="T21" s="247"/>
-      <c r="U21" s="247"/>
-      <c r="V21" s="263"/>
-      <c r="W21" s="264"/>
-      <c r="X21" s="264"/>
-      <c r="Y21" s="264"/>
-      <c r="Z21" s="264"/>
-      <c r="AA21" s="264"/>
-      <c r="AB21" s="264"/>
-      <c r="AC21" s="264"/>
-      <c r="AD21" s="264"/>
-      <c r="AE21" s="264"/>
-      <c r="AF21" s="264"/>
-      <c r="AG21" s="264"/>
-      <c r="AH21" s="264"/>
-      <c r="AI21" s="264"/>
-      <c r="AJ21" s="264"/>
-      <c r="AK21" s="264"/>
-      <c r="AL21" s="264"/>
-      <c r="AM21" s="265"/>
-      <c r="AN21" s="266"/>
-      <c r="AO21" s="267"/>
-      <c r="AP21" s="267"/>
-      <c r="AQ21" s="267"/>
-      <c r="AR21" s="268"/>
-      <c r="AS21" s="266"/>
-      <c r="AT21" s="267"/>
-      <c r="AU21" s="267"/>
-      <c r="AV21" s="267"/>
-      <c r="AW21" s="268"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="245"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="247"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="256"/>
+      <c r="Q21" s="256"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="252"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="253"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
+      <c r="AJ21" s="253"/>
+      <c r="AK21" s="253"/>
+      <c r="AL21" s="253"/>
+      <c r="AM21" s="254"/>
+      <c r="AN21" s="238"/>
+      <c r="AO21" s="239"/>
+      <c r="AP21" s="239"/>
+      <c r="AQ21" s="239"/>
+      <c r="AR21" s="240"/>
+      <c r="AS21" s="238"/>
+      <c r="AT21" s="239"/>
+      <c r="AU21" s="239"/>
+      <c r="AV21" s="239"/>
+      <c r="AW21" s="240"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="257"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
-      <c r="J22" s="250"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="261"/>
-      <c r="P22" s="261"/>
-      <c r="Q22" s="261"/>
-      <c r="R22" s="262"/>
-      <c r="S22" s="247"/>
-      <c r="T22" s="247"/>
-      <c r="U22" s="247"/>
-      <c r="V22" s="263"/>
-      <c r="W22" s="264"/>
-      <c r="X22" s="264"/>
-      <c r="Y22" s="264"/>
-      <c r="Z22" s="264"/>
-      <c r="AA22" s="264"/>
-      <c r="AB22" s="264"/>
-      <c r="AC22" s="264"/>
-      <c r="AD22" s="264"/>
-      <c r="AE22" s="264"/>
-      <c r="AF22" s="264"/>
-      <c r="AG22" s="264"/>
-      <c r="AH22" s="264"/>
-      <c r="AI22" s="264"/>
-      <c r="AJ22" s="264"/>
-      <c r="AK22" s="264"/>
-      <c r="AL22" s="264"/>
-      <c r="AM22" s="265"/>
-      <c r="AN22" s="266"/>
-      <c r="AO22" s="267"/>
-      <c r="AP22" s="267"/>
-      <c r="AQ22" s="267"/>
-      <c r="AR22" s="268"/>
-      <c r="AS22" s="266"/>
-      <c r="AT22" s="267"/>
-      <c r="AU22" s="267"/>
-      <c r="AV22" s="267"/>
-      <c r="AW22" s="268"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="256"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="256"/>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="257"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="252"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="253"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
+      <c r="AJ22" s="253"/>
+      <c r="AK22" s="253"/>
+      <c r="AL22" s="253"/>
+      <c r="AM22" s="254"/>
+      <c r="AN22" s="238"/>
+      <c r="AO22" s="239"/>
+      <c r="AP22" s="239"/>
+      <c r="AQ22" s="239"/>
+      <c r="AR22" s="240"/>
+      <c r="AS22" s="238"/>
+      <c r="AT22" s="239"/>
+      <c r="AU22" s="239"/>
+      <c r="AV22" s="239"/>
+      <c r="AW22" s="240"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="257"/>
-      <c r="C23" s="258"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="261"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="261"/>
-      <c r="R23" s="262"/>
-      <c r="S23" s="247"/>
-      <c r="T23" s="247"/>
-      <c r="U23" s="247"/>
-      <c r="V23" s="263"/>
-      <c r="W23" s="264"/>
-      <c r="X23" s="264"/>
-      <c r="Y23" s="264"/>
-      <c r="Z23" s="264"/>
-      <c r="AA23" s="264"/>
-      <c r="AB23" s="264"/>
-      <c r="AC23" s="264"/>
-      <c r="AD23" s="264"/>
-      <c r="AE23" s="264"/>
-      <c r="AF23" s="264"/>
-      <c r="AG23" s="264"/>
-      <c r="AH23" s="264"/>
-      <c r="AI23" s="264"/>
-      <c r="AJ23" s="264"/>
-      <c r="AK23" s="264"/>
-      <c r="AL23" s="264"/>
-      <c r="AM23" s="265"/>
-      <c r="AN23" s="266"/>
-      <c r="AO23" s="267"/>
-      <c r="AP23" s="267"/>
-      <c r="AQ23" s="267"/>
-      <c r="AR23" s="268"/>
-      <c r="AS23" s="266"/>
-      <c r="AT23" s="267"/>
-      <c r="AU23" s="267"/>
-      <c r="AV23" s="267"/>
-      <c r="AW23" s="268"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="247"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="257"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="252"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="253"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
+      <c r="AJ23" s="253"/>
+      <c r="AK23" s="253"/>
+      <c r="AL23" s="253"/>
+      <c r="AM23" s="254"/>
+      <c r="AN23" s="238"/>
+      <c r="AO23" s="239"/>
+      <c r="AP23" s="239"/>
+      <c r="AQ23" s="239"/>
+      <c r="AR23" s="240"/>
+      <c r="AS23" s="238"/>
+      <c r="AT23" s="239"/>
+      <c r="AU23" s="239"/>
+      <c r="AV23" s="239"/>
+      <c r="AW23" s="240"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="257"/>
-      <c r="C24" s="258"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="261"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="261"/>
-      <c r="R24" s="262"/>
-      <c r="S24" s="247"/>
-      <c r="T24" s="247"/>
-      <c r="U24" s="247"/>
-      <c r="V24" s="263"/>
-      <c r="W24" s="264"/>
-      <c r="X24" s="264"/>
-      <c r="Y24" s="264"/>
-      <c r="Z24" s="264"/>
-      <c r="AA24" s="264"/>
-      <c r="AB24" s="264"/>
-      <c r="AC24" s="264"/>
-      <c r="AD24" s="264"/>
-      <c r="AE24" s="264"/>
-      <c r="AF24" s="264"/>
-      <c r="AG24" s="264"/>
-      <c r="AH24" s="264"/>
-      <c r="AI24" s="264"/>
-      <c r="AJ24" s="264"/>
-      <c r="AK24" s="264"/>
-      <c r="AL24" s="264"/>
-      <c r="AM24" s="265"/>
-      <c r="AN24" s="266"/>
-      <c r="AO24" s="267"/>
-      <c r="AP24" s="267"/>
-      <c r="AQ24" s="267"/>
-      <c r="AR24" s="268"/>
-      <c r="AS24" s="266"/>
-      <c r="AT24" s="267"/>
-      <c r="AU24" s="267"/>
-      <c r="AV24" s="267"/>
-      <c r="AW24" s="268"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="245"/>
+      <c r="K24" s="246"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="256"/>
+      <c r="P24" s="256"/>
+      <c r="Q24" s="256"/>
+      <c r="R24" s="257"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
+      <c r="AJ24" s="253"/>
+      <c r="AK24" s="253"/>
+      <c r="AL24" s="253"/>
+      <c r="AM24" s="254"/>
+      <c r="AN24" s="238"/>
+      <c r="AO24" s="239"/>
+      <c r="AP24" s="239"/>
+      <c r="AQ24" s="239"/>
+      <c r="AR24" s="240"/>
+      <c r="AS24" s="238"/>
+      <c r="AT24" s="239"/>
+      <c r="AU24" s="239"/>
+      <c r="AV24" s="239"/>
+      <c r="AW24" s="240"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="257"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="261"/>
-      <c r="R25" s="262"/>
-      <c r="S25" s="247"/>
-      <c r="T25" s="247"/>
-      <c r="U25" s="247"/>
-      <c r="V25" s="263"/>
-      <c r="W25" s="264"/>
-      <c r="X25" s="264"/>
-      <c r="Y25" s="264"/>
-      <c r="Z25" s="264"/>
-      <c r="AA25" s="264"/>
-      <c r="AB25" s="264"/>
-      <c r="AC25" s="264"/>
-      <c r="AD25" s="264"/>
-      <c r="AE25" s="264"/>
-      <c r="AF25" s="264"/>
-      <c r="AG25" s="264"/>
-      <c r="AH25" s="264"/>
-      <c r="AI25" s="264"/>
-      <c r="AJ25" s="264"/>
-      <c r="AK25" s="264"/>
-      <c r="AL25" s="264"/>
-      <c r="AM25" s="265"/>
-      <c r="AN25" s="266"/>
-      <c r="AO25" s="267"/>
-      <c r="AP25" s="267"/>
-      <c r="AQ25" s="267"/>
-      <c r="AR25" s="268"/>
-      <c r="AS25" s="266"/>
-      <c r="AT25" s="267"/>
-      <c r="AU25" s="267"/>
-      <c r="AV25" s="267"/>
-      <c r="AW25" s="268"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="245"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="255"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="256"/>
+      <c r="Q25" s="256"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="251"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="252"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AA25" s="253"/>
+      <c r="AB25" s="253"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="253"/>
+      <c r="AH25" s="253"/>
+      <c r="AI25" s="253"/>
+      <c r="AJ25" s="253"/>
+      <c r="AK25" s="253"/>
+      <c r="AL25" s="253"/>
+      <c r="AM25" s="254"/>
+      <c r="AN25" s="238"/>
+      <c r="AO25" s="239"/>
+      <c r="AP25" s="239"/>
+      <c r="AQ25" s="239"/>
+      <c r="AR25" s="240"/>
+      <c r="AS25" s="238"/>
+      <c r="AT25" s="239"/>
+      <c r="AU25" s="239"/>
+      <c r="AV25" s="239"/>
+      <c r="AW25" s="240"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="257"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="271"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="262"/>
-      <c r="S26" s="247"/>
-      <c r="T26" s="247"/>
-      <c r="U26" s="247"/>
-      <c r="V26" s="263"/>
-      <c r="W26" s="264"/>
-      <c r="X26" s="264"/>
-      <c r="Y26" s="264"/>
-      <c r="Z26" s="264"/>
-      <c r="AA26" s="264"/>
-      <c r="AB26" s="264"/>
-      <c r="AC26" s="264"/>
-      <c r="AD26" s="264"/>
-      <c r="AE26" s="264"/>
-      <c r="AF26" s="264"/>
-      <c r="AG26" s="264"/>
-      <c r="AH26" s="264"/>
-      <c r="AI26" s="264"/>
-      <c r="AJ26" s="264"/>
-      <c r="AK26" s="264"/>
-      <c r="AL26" s="264"/>
-      <c r="AM26" s="265"/>
-      <c r="AN26" s="266"/>
-      <c r="AO26" s="267"/>
-      <c r="AP26" s="267"/>
-      <c r="AQ26" s="267"/>
-      <c r="AR26" s="268"/>
-      <c r="AS26" s="266"/>
-      <c r="AT26" s="267"/>
-      <c r="AU26" s="267"/>
-      <c r="AV26" s="267"/>
-      <c r="AW26" s="268"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="245"/>
+      <c r="K26" s="246"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="255"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="256"/>
+      <c r="P26" s="256"/>
+      <c r="Q26" s="256"/>
+      <c r="R26" s="257"/>
+      <c r="S26" s="251"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="252"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="253"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="253"/>
+      <c r="AK26" s="253"/>
+      <c r="AL26" s="253"/>
+      <c r="AM26" s="254"/>
+      <c r="AN26" s="238"/>
+      <c r="AO26" s="239"/>
+      <c r="AP26" s="239"/>
+      <c r="AQ26" s="239"/>
+      <c r="AR26" s="240"/>
+      <c r="AS26" s="238"/>
+      <c r="AT26" s="239"/>
+      <c r="AU26" s="239"/>
+      <c r="AV26" s="239"/>
+      <c r="AW26" s="240"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="257"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="262"/>
-      <c r="S27" s="247"/>
-      <c r="T27" s="247"/>
-      <c r="U27" s="247"/>
-      <c r="V27" s="263"/>
-      <c r="W27" s="264"/>
-      <c r="X27" s="264"/>
-      <c r="Y27" s="264"/>
-      <c r="Z27" s="264"/>
-      <c r="AA27" s="264"/>
-      <c r="AB27" s="264"/>
-      <c r="AC27" s="264"/>
-      <c r="AD27" s="264"/>
-      <c r="AE27" s="264"/>
-      <c r="AF27" s="264"/>
-      <c r="AG27" s="264"/>
-      <c r="AH27" s="264"/>
-      <c r="AI27" s="264"/>
-      <c r="AJ27" s="264"/>
-      <c r="AK27" s="264"/>
-      <c r="AL27" s="264"/>
-      <c r="AM27" s="265"/>
-      <c r="AN27" s="266"/>
-      <c r="AO27" s="267"/>
-      <c r="AP27" s="267"/>
-      <c r="AQ27" s="267"/>
-      <c r="AR27" s="268"/>
-      <c r="AS27" s="266"/>
-      <c r="AT27" s="267"/>
-      <c r="AU27" s="267"/>
-      <c r="AV27" s="267"/>
-      <c r="AW27" s="268"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="255"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="256"/>
+      <c r="Q27" s="256"/>
+      <c r="R27" s="257"/>
+      <c r="S27" s="251"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="251"/>
+      <c r="V27" s="252"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="253"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="253"/>
+      <c r="AH27" s="253"/>
+      <c r="AI27" s="253"/>
+      <c r="AJ27" s="253"/>
+      <c r="AK27" s="253"/>
+      <c r="AL27" s="253"/>
+      <c r="AM27" s="254"/>
+      <c r="AN27" s="238"/>
+      <c r="AO27" s="239"/>
+      <c r="AP27" s="239"/>
+      <c r="AQ27" s="239"/>
+      <c r="AR27" s="240"/>
+      <c r="AS27" s="238"/>
+      <c r="AT27" s="239"/>
+      <c r="AU27" s="239"/>
+      <c r="AV27" s="239"/>
+      <c r="AW27" s="240"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="257"/>
-      <c r="C28" s="258"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="260"/>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
-      <c r="P28" s="261"/>
-      <c r="Q28" s="261"/>
-      <c r="R28" s="262"/>
-      <c r="S28" s="247"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="247"/>
-      <c r="V28" s="263"/>
-      <c r="W28" s="264"/>
-      <c r="X28" s="264"/>
-      <c r="Y28" s="264"/>
-      <c r="Z28" s="264"/>
-      <c r="AA28" s="264"/>
-      <c r="AB28" s="264"/>
-      <c r="AC28" s="264"/>
-      <c r="AD28" s="264"/>
-      <c r="AE28" s="264"/>
-      <c r="AF28" s="264"/>
-      <c r="AG28" s="264"/>
-      <c r="AH28" s="264"/>
-      <c r="AI28" s="264"/>
-      <c r="AJ28" s="264"/>
-      <c r="AK28" s="264"/>
-      <c r="AL28" s="264"/>
-      <c r="AM28" s="265"/>
-      <c r="AN28" s="266"/>
-      <c r="AO28" s="267"/>
-      <c r="AP28" s="267"/>
-      <c r="AQ28" s="267"/>
-      <c r="AR28" s="268"/>
-      <c r="AS28" s="266"/>
-      <c r="AT28" s="267"/>
-      <c r="AU28" s="267"/>
-      <c r="AV28" s="267"/>
-      <c r="AW28" s="268"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="256"/>
+      <c r="O28" s="256"/>
+      <c r="P28" s="256"/>
+      <c r="Q28" s="256"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="251"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="251"/>
+      <c r="V28" s="252"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="253"/>
+      <c r="Y28" s="253"/>
+      <c r="Z28" s="253"/>
+      <c r="AA28" s="253"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="253"/>
+      <c r="AE28" s="253"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="253"/>
+      <c r="AH28" s="253"/>
+      <c r="AI28" s="253"/>
+      <c r="AJ28" s="253"/>
+      <c r="AK28" s="253"/>
+      <c r="AL28" s="253"/>
+      <c r="AM28" s="254"/>
+      <c r="AN28" s="238"/>
+      <c r="AO28" s="239"/>
+      <c r="AP28" s="239"/>
+      <c r="AQ28" s="239"/>
+      <c r="AR28" s="240"/>
+      <c r="AS28" s="238"/>
+      <c r="AT28" s="239"/>
+      <c r="AU28" s="239"/>
+      <c r="AV28" s="239"/>
+      <c r="AW28" s="240"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="257"/>
-      <c r="C29" s="258"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
-      <c r="I29" s="249"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="252"/>
-      <c r="M29" s="260"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="261"/>
-      <c r="Q29" s="261"/>
-      <c r="R29" s="262"/>
-      <c r="S29" s="247"/>
-      <c r="T29" s="247"/>
-      <c r="U29" s="247"/>
-      <c r="V29" s="263"/>
-      <c r="W29" s="264"/>
-      <c r="X29" s="264"/>
-      <c r="Y29" s="264"/>
-      <c r="Z29" s="264"/>
-      <c r="AA29" s="264"/>
-      <c r="AB29" s="264"/>
-      <c r="AC29" s="264"/>
-      <c r="AD29" s="264"/>
-      <c r="AE29" s="264"/>
-      <c r="AF29" s="264"/>
-      <c r="AG29" s="264"/>
-      <c r="AH29" s="264"/>
-      <c r="AI29" s="264"/>
-      <c r="AJ29" s="264"/>
-      <c r="AK29" s="264"/>
-      <c r="AL29" s="264"/>
-      <c r="AM29" s="265"/>
-      <c r="AN29" s="266"/>
-      <c r="AO29" s="267"/>
-      <c r="AP29" s="267"/>
-      <c r="AQ29" s="267"/>
-      <c r="AR29" s="268"/>
-      <c r="AS29" s="266"/>
-      <c r="AT29" s="267"/>
-      <c r="AU29" s="267"/>
-      <c r="AV29" s="267"/>
-      <c r="AW29" s="268"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="256"/>
+      <c r="P29" s="256"/>
+      <c r="Q29" s="256"/>
+      <c r="R29" s="257"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="252"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="253"/>
+      <c r="Y29" s="253"/>
+      <c r="Z29" s="253"/>
+      <c r="AA29" s="253"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="253"/>
+      <c r="AD29" s="253"/>
+      <c r="AE29" s="253"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="253"/>
+      <c r="AH29" s="253"/>
+      <c r="AI29" s="253"/>
+      <c r="AJ29" s="253"/>
+      <c r="AK29" s="253"/>
+      <c r="AL29" s="253"/>
+      <c r="AM29" s="254"/>
+      <c r="AN29" s="238"/>
+      <c r="AO29" s="239"/>
+      <c r="AP29" s="239"/>
+      <c r="AQ29" s="239"/>
+      <c r="AR29" s="240"/>
+      <c r="AS29" s="238"/>
+      <c r="AT29" s="239"/>
+      <c r="AU29" s="239"/>
+      <c r="AV29" s="239"/>
+      <c r="AW29" s="240"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="257"/>
-      <c r="C30" s="258"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="249"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="251"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="271"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="261"/>
-      <c r="R30" s="262"/>
-      <c r="S30" s="247"/>
-      <c r="T30" s="247"/>
-      <c r="U30" s="247"/>
-      <c r="V30" s="263"/>
-      <c r="W30" s="264"/>
-      <c r="X30" s="264"/>
-      <c r="Y30" s="264"/>
-      <c r="Z30" s="264"/>
-      <c r="AA30" s="264"/>
-      <c r="AB30" s="264"/>
-      <c r="AC30" s="264"/>
-      <c r="AD30" s="264"/>
-      <c r="AE30" s="264"/>
-      <c r="AF30" s="264"/>
-      <c r="AG30" s="264"/>
-      <c r="AH30" s="264"/>
-      <c r="AI30" s="264"/>
-      <c r="AJ30" s="264"/>
-      <c r="AK30" s="264"/>
-      <c r="AL30" s="264"/>
-      <c r="AM30" s="265"/>
-      <c r="AN30" s="266"/>
-      <c r="AO30" s="267"/>
-      <c r="AP30" s="267"/>
-      <c r="AQ30" s="267"/>
-      <c r="AR30" s="268"/>
-      <c r="AS30" s="266"/>
-      <c r="AT30" s="267"/>
-      <c r="AU30" s="267"/>
-      <c r="AV30" s="267"/>
-      <c r="AW30" s="268"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="247"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256"/>
+      <c r="P30" s="256"/>
+      <c r="Q30" s="256"/>
+      <c r="R30" s="257"/>
+      <c r="S30" s="251"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="251"/>
+      <c r="V30" s="252"/>
+      <c r="W30" s="253"/>
+      <c r="X30" s="253"/>
+      <c r="Y30" s="253"/>
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="253"/>
+      <c r="AB30" s="253"/>
+      <c r="AC30" s="253"/>
+      <c r="AD30" s="253"/>
+      <c r="AE30" s="253"/>
+      <c r="AF30" s="253"/>
+      <c r="AG30" s="253"/>
+      <c r="AH30" s="253"/>
+      <c r="AI30" s="253"/>
+      <c r="AJ30" s="253"/>
+      <c r="AK30" s="253"/>
+      <c r="AL30" s="253"/>
+      <c r="AM30" s="254"/>
+      <c r="AN30" s="238"/>
+      <c r="AO30" s="239"/>
+      <c r="AP30" s="239"/>
+      <c r="AQ30" s="239"/>
+      <c r="AR30" s="240"/>
+      <c r="AS30" s="238"/>
+      <c r="AT30" s="239"/>
+      <c r="AU30" s="239"/>
+      <c r="AV30" s="239"/>
+      <c r="AW30" s="240"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="257"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="259"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="251"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="261"/>
-      <c r="Q31" s="261"/>
-      <c r="R31" s="262"/>
-      <c r="S31" s="247"/>
-      <c r="T31" s="247"/>
-      <c r="U31" s="247"/>
-      <c r="V31" s="263"/>
-      <c r="W31" s="264"/>
-      <c r="X31" s="264"/>
-      <c r="Y31" s="264"/>
-      <c r="Z31" s="264"/>
-      <c r="AA31" s="264"/>
-      <c r="AB31" s="264"/>
-      <c r="AC31" s="264"/>
-      <c r="AD31" s="264"/>
-      <c r="AE31" s="264"/>
-      <c r="AF31" s="264"/>
-      <c r="AG31" s="264"/>
-      <c r="AH31" s="264"/>
-      <c r="AI31" s="264"/>
-      <c r="AJ31" s="264"/>
-      <c r="AK31" s="264"/>
-      <c r="AL31" s="264"/>
-      <c r="AM31" s="265"/>
-      <c r="AN31" s="266"/>
-      <c r="AO31" s="267"/>
-      <c r="AP31" s="267"/>
-      <c r="AQ31" s="267"/>
-      <c r="AR31" s="268"/>
-      <c r="AS31" s="266"/>
-      <c r="AT31" s="267"/>
-      <c r="AU31" s="267"/>
-      <c r="AV31" s="267"/>
-      <c r="AW31" s="268"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="246"/>
+      <c r="L31" s="247"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="256"/>
+      <c r="P31" s="256"/>
+      <c r="Q31" s="256"/>
+      <c r="R31" s="257"/>
+      <c r="S31" s="251"/>
+      <c r="T31" s="251"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="252"/>
+      <c r="W31" s="253"/>
+      <c r="X31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="253"/>
+      <c r="AA31" s="253"/>
+      <c r="AB31" s="253"/>
+      <c r="AC31" s="253"/>
+      <c r="AD31" s="253"/>
+      <c r="AE31" s="253"/>
+      <c r="AF31" s="253"/>
+      <c r="AG31" s="253"/>
+      <c r="AH31" s="253"/>
+      <c r="AI31" s="253"/>
+      <c r="AJ31" s="253"/>
+      <c r="AK31" s="253"/>
+      <c r="AL31" s="253"/>
+      <c r="AM31" s="254"/>
+      <c r="AN31" s="238"/>
+      <c r="AO31" s="239"/>
+      <c r="AP31" s="239"/>
+      <c r="AQ31" s="239"/>
+      <c r="AR31" s="240"/>
+      <c r="AS31" s="238"/>
+      <c r="AT31" s="239"/>
+      <c r="AU31" s="239"/>
+      <c r="AV31" s="239"/>
+      <c r="AW31" s="240"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="257"/>
-      <c r="C32" s="258"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="252"/>
-      <c r="M32" s="271"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="247"/>
-      <c r="T32" s="247"/>
-      <c r="U32" s="247"/>
-      <c r="V32" s="263"/>
-      <c r="W32" s="264"/>
-      <c r="X32" s="264"/>
-      <c r="Y32" s="264"/>
-      <c r="Z32" s="264"/>
-      <c r="AA32" s="264"/>
-      <c r="AB32" s="264"/>
-      <c r="AC32" s="264"/>
-      <c r="AD32" s="264"/>
-      <c r="AE32" s="264"/>
-      <c r="AF32" s="264"/>
-      <c r="AG32" s="264"/>
-      <c r="AH32" s="264"/>
-      <c r="AI32" s="264"/>
-      <c r="AJ32" s="264"/>
-      <c r="AK32" s="264"/>
-      <c r="AL32" s="264"/>
-      <c r="AM32" s="265"/>
-      <c r="AN32" s="266"/>
-      <c r="AO32" s="267"/>
-      <c r="AP32" s="267"/>
-      <c r="AQ32" s="267"/>
-      <c r="AR32" s="268"/>
-      <c r="AS32" s="266"/>
-      <c r="AT32" s="267"/>
-      <c r="AU32" s="267"/>
-      <c r="AV32" s="267"/>
-      <c r="AW32" s="268"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="245"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="247"/>
+      <c r="M32" s="255"/>
+      <c r="N32" s="256"/>
+      <c r="O32" s="256"/>
+      <c r="P32" s="256"/>
+      <c r="Q32" s="256"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="251"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="252"/>
+      <c r="W32" s="253"/>
+      <c r="X32" s="253"/>
+      <c r="Y32" s="253"/>
+      <c r="Z32" s="253"/>
+      <c r="AA32" s="253"/>
+      <c r="AB32" s="253"/>
+      <c r="AC32" s="253"/>
+      <c r="AD32" s="253"/>
+      <c r="AE32" s="253"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="253"/>
+      <c r="AH32" s="253"/>
+      <c r="AI32" s="253"/>
+      <c r="AJ32" s="253"/>
+      <c r="AK32" s="253"/>
+      <c r="AL32" s="253"/>
+      <c r="AM32" s="254"/>
+      <c r="AN32" s="238"/>
+      <c r="AO32" s="239"/>
+      <c r="AP32" s="239"/>
+      <c r="AQ32" s="239"/>
+      <c r="AR32" s="240"/>
+      <c r="AS32" s="238"/>
+      <c r="AT32" s="239"/>
+      <c r="AU32" s="239"/>
+      <c r="AV32" s="239"/>
+      <c r="AW32" s="240"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="257"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="251"/>
-      <c r="L33" s="252"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
-      <c r="R33" s="262"/>
-      <c r="S33" s="247"/>
-      <c r="T33" s="247"/>
-      <c r="U33" s="247"/>
-      <c r="V33" s="263"/>
-      <c r="W33" s="264"/>
-      <c r="X33" s="264"/>
-      <c r="Y33" s="264"/>
-      <c r="Z33" s="264"/>
-      <c r="AA33" s="264"/>
-      <c r="AB33" s="264"/>
-      <c r="AC33" s="264"/>
-      <c r="AD33" s="264"/>
-      <c r="AE33" s="264"/>
-      <c r="AF33" s="264"/>
-      <c r="AG33" s="264"/>
-      <c r="AH33" s="264"/>
-      <c r="AI33" s="264"/>
-      <c r="AJ33" s="264"/>
-      <c r="AK33" s="264"/>
-      <c r="AL33" s="264"/>
-      <c r="AM33" s="265"/>
-      <c r="AN33" s="266"/>
-      <c r="AO33" s="267"/>
-      <c r="AP33" s="267"/>
-      <c r="AQ33" s="267"/>
-      <c r="AR33" s="268"/>
-      <c r="AS33" s="266"/>
-      <c r="AT33" s="267"/>
-      <c r="AU33" s="267"/>
-      <c r="AV33" s="267"/>
-      <c r="AW33" s="268"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="245"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="247"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="256"/>
+      <c r="P33" s="256"/>
+      <c r="Q33" s="256"/>
+      <c r="R33" s="257"/>
+      <c r="S33" s="251"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="253"/>
+      <c r="X33" s="253"/>
+      <c r="Y33" s="253"/>
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="253"/>
+      <c r="AH33" s="253"/>
+      <c r="AI33" s="253"/>
+      <c r="AJ33" s="253"/>
+      <c r="AK33" s="253"/>
+      <c r="AL33" s="253"/>
+      <c r="AM33" s="254"/>
+      <c r="AN33" s="238"/>
+      <c r="AO33" s="239"/>
+      <c r="AP33" s="239"/>
+      <c r="AQ33" s="239"/>
+      <c r="AR33" s="240"/>
+      <c r="AS33" s="238"/>
+      <c r="AT33" s="239"/>
+      <c r="AU33" s="239"/>
+      <c r="AV33" s="239"/>
+      <c r="AW33" s="240"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="257"/>
-      <c r="C34" s="258"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="249"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="251"/>
-      <c r="L34" s="252"/>
-      <c r="M34" s="275"/>
-      <c r="N34" s="276"/>
-      <c r="O34" s="276"/>
-      <c r="P34" s="276"/>
-      <c r="Q34" s="276"/>
-      <c r="R34" s="277"/>
-      <c r="S34" s="247"/>
-      <c r="T34" s="247"/>
-      <c r="U34" s="247"/>
-      <c r="V34" s="263"/>
-      <c r="W34" s="264"/>
-      <c r="X34" s="264"/>
-      <c r="Y34" s="264"/>
-      <c r="Z34" s="264"/>
-      <c r="AA34" s="264"/>
-      <c r="AB34" s="264"/>
-      <c r="AC34" s="264"/>
-      <c r="AD34" s="264"/>
-      <c r="AE34" s="264"/>
-      <c r="AF34" s="264"/>
-      <c r="AG34" s="264"/>
-      <c r="AH34" s="264"/>
-      <c r="AI34" s="264"/>
-      <c r="AJ34" s="264"/>
-      <c r="AK34" s="264"/>
-      <c r="AL34" s="264"/>
-      <c r="AM34" s="265"/>
-      <c r="AN34" s="266"/>
-      <c r="AO34" s="267"/>
-      <c r="AP34" s="267"/>
-      <c r="AQ34" s="267"/>
-      <c r="AR34" s="268"/>
-      <c r="AS34" s="266"/>
-      <c r="AT34" s="267"/>
-      <c r="AU34" s="267"/>
-      <c r="AV34" s="267"/>
-      <c r="AW34" s="268"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="245"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="247"/>
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="249"/>
+      <c r="P34" s="249"/>
+      <c r="Q34" s="249"/>
+      <c r="R34" s="250"/>
+      <c r="S34" s="251"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="252"/>
+      <c r="W34" s="253"/>
+      <c r="X34" s="253"/>
+      <c r="Y34" s="253"/>
+      <c r="Z34" s="253"/>
+      <c r="AA34" s="253"/>
+      <c r="AB34" s="253"/>
+      <c r="AC34" s="253"/>
+      <c r="AD34" s="253"/>
+      <c r="AE34" s="253"/>
+      <c r="AF34" s="253"/>
+      <c r="AG34" s="253"/>
+      <c r="AH34" s="253"/>
+      <c r="AI34" s="253"/>
+      <c r="AJ34" s="253"/>
+      <c r="AK34" s="253"/>
+      <c r="AL34" s="253"/>
+      <c r="AM34" s="254"/>
+      <c r="AN34" s="238"/>
+      <c r="AO34" s="239"/>
+      <c r="AP34" s="239"/>
+      <c r="AQ34" s="239"/>
+      <c r="AR34" s="240"/>
+      <c r="AS34" s="238"/>
+      <c r="AT34" s="239"/>
+      <c r="AU34" s="239"/>
+      <c r="AV34" s="239"/>
+      <c r="AW34" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8933,239 +9166,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11924,22 +11924,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="240" t="s">
+      <c r="D6" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="240" t="s">
+      <c r="E6" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="240" t="s">
+      <c r="F6" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="240" t="s">
+      <c r="H6" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="299" t="s">
@@ -11948,13 +11948,13 @@
       <c r="J6" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="240" t="s">
+      <c r="K6" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="240" t="s">
+      <c r="L6" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="240" t="s">
+      <c r="M6" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -11969,17 +11969,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="299"/>
       <c r="J7" s="299"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
+      <c r="K7" s="271"/>
+      <c r="L7" s="271"/>
+      <c r="M7" s="271"/>
       <c r="N7" s="43" t="s">
         <v>69</v>
       </c>
@@ -12141,22 +12141,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="240" t="s">
+      <c r="C13" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="240" t="s">
+      <c r="D13" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="240" t="s">
+      <c r="E13" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="240" t="s">
+      <c r="F13" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="240" t="s">
+      <c r="G13" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="300" t="s">
@@ -12165,13 +12165,13 @@
       <c r="J13" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="240" t="s">
+      <c r="K13" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="240" t="s">
+      <c r="L13" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="240" t="s">
+      <c r="M13" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -12186,17 +12186,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="240"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="301"/>
       <c r="J14" s="299"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
       <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
@@ -12365,22 +12365,22 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="95"/>
-      <c r="C21" s="240" t="s">
+      <c r="C21" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="240" t="s">
+      <c r="D21" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="240" t="s">
+      <c r="E21" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="240" t="s">
+      <c r="F21" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="240" t="s">
+      <c r="G21" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="240" t="s">
+      <c r="H21" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="299" t="s">
@@ -12389,13 +12389,13 @@
       <c r="J21" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="240" t="s">
+      <c r="K21" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="240" t="s">
+      <c r="L21" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="240" t="s">
+      <c r="M21" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="65" t="s">
@@ -12409,17 +12409,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="95"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="271"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="299"/>
       <c r="J22" s="299"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="240"/>
-      <c r="M22" s="240"/>
+      <c r="K22" s="271"/>
+      <c r="L22" s="271"/>
+      <c r="M22" s="271"/>
       <c r="N22" s="183" t="s">
         <v>69</v>
       </c>
@@ -12715,22 +12715,22 @@
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="95"/>
-      <c r="C30" s="240" t="s">
+      <c r="C30" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="240" t="s">
+      <c r="D30" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="240" t="s">
+      <c r="E30" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="240" t="s">
+      <c r="F30" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="240" t="s">
+      <c r="G30" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="240" t="s">
+      <c r="H30" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="299" t="s">
@@ -12739,13 +12739,13 @@
       <c r="J30" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="240" t="s">
+      <c r="K30" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="240" t="s">
+      <c r="L30" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="240" t="s">
+      <c r="M30" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -12759,17 +12759,17 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="95"/>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="271"/>
       <c r="I31" s="299"/>
       <c r="J31" s="299"/>
-      <c r="K31" s="240"/>
-      <c r="L31" s="240"/>
-      <c r="M31" s="240"/>
+      <c r="K31" s="271"/>
+      <c r="L31" s="271"/>
+      <c r="M31" s="271"/>
       <c r="N31" s="93" t="s">
         <v>69</v>
       </c>
@@ -13159,34 +13159,16 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -13197,16 +13179,34 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -15264,7 +15264,8 @@
       <c r="G43" s="67"/>
       <c r="K43" s="68"/>
       <c r="M43" s="214"/>
-      <c r="N43" s="17" t="s">
+      <c r="N43" s="214"/>
+      <c r="O43" s="17" t="s">
         <v>352</v>
       </c>
       <c r="AA43" s="17" t="s">
@@ -15283,10 +15284,10 @@
       <c r="G44" s="67"/>
       <c r="K44" s="68"/>
       <c r="M44" s="214"/>
-      <c r="N44" s="208" t="s">
+      <c r="N44" s="214"/>
+      <c r="O44" s="208" t="s">
         <v>326</v>
       </c>
-      <c r="O44" s="208"/>
       <c r="P44" s="208"/>
       <c r="Q44" s="208"/>
       <c r="R44" s="208"/>
@@ -15310,7 +15311,8 @@
       <c r="G45" s="219"/>
       <c r="K45" s="221"/>
       <c r="M45" s="224"/>
-      <c r="N45" s="218" t="s">
+      <c r="N45" s="224"/>
+      <c r="O45" s="218" t="s">
         <v>311</v>
       </c>
       <c r="AA45" s="218" t="s">
@@ -15329,7 +15331,8 @@
       <c r="G46" s="219"/>
       <c r="K46" s="221"/>
       <c r="M46" s="224"/>
-      <c r="N46" s="218" t="s">
+      <c r="N46" s="224"/>
+      <c r="O46" s="218" t="s">
         <v>348</v>
       </c>
       <c r="AA46" s="218" t="s">
@@ -15347,7 +15350,7 @@
       <c r="F47" s="233"/>
       <c r="G47" s="232"/>
       <c r="K47" s="233"/>
-      <c r="N47" s="231" t="s">
+      <c r="O47" s="231" t="s">
         <v>349</v>
       </c>
       <c r="AA47" s="231" t="s">
@@ -15365,7 +15368,8 @@
       <c r="G48" s="67"/>
       <c r="K48" s="68"/>
       <c r="M48" s="214"/>
-      <c r="N48" s="234" t="s">
+      <c r="N48" s="214"/>
+      <c r="O48" s="234" t="s">
         <v>356</v>
       </c>
       <c r="AA48" s="214" t="s">
@@ -15416,7 +15420,8 @@
       <c r="G50" s="67"/>
       <c r="K50" s="68"/>
       <c r="M50" s="214"/>
-      <c r="N50" s="17" t="s">
+      <c r="N50" s="214"/>
+      <c r="O50" s="17" t="s">
         <v>352</v>
       </c>
       <c r="AA50" s="17" t="s">
@@ -15435,10 +15440,10 @@
       <c r="G51" s="67"/>
       <c r="K51" s="68"/>
       <c r="M51" s="214"/>
-      <c r="N51" s="208" t="s">
+      <c r="N51" s="214"/>
+      <c r="O51" s="208" t="s">
         <v>326</v>
       </c>
-      <c r="O51" s="208"/>
       <c r="P51" s="208"/>
       <c r="Q51" s="208"/>
       <c r="R51" s="208"/>
@@ -15462,7 +15467,8 @@
       <c r="G52" s="219"/>
       <c r="K52" s="221"/>
       <c r="M52" s="224"/>
-      <c r="N52" s="218" t="s">
+      <c r="N52" s="224"/>
+      <c r="O52" s="218" t="s">
         <v>311</v>
       </c>
       <c r="AA52" s="218" t="s">
@@ -15481,7 +15487,8 @@
       <c r="G53" s="219"/>
       <c r="K53" s="221"/>
       <c r="M53" s="224"/>
-      <c r="N53" s="218" t="s">
+      <c r="N53" s="224"/>
+      <c r="O53" s="218" t="s">
         <v>312</v>
       </c>
       <c r="AA53" s="218" t="s">
@@ -15499,7 +15506,7 @@
       <c r="F54" s="233"/>
       <c r="G54" s="232"/>
       <c r="K54" s="233"/>
-      <c r="N54" s="231" t="s">
+      <c r="O54" s="231" t="s">
         <v>349</v>
       </c>
       <c r="AA54" s="231" t="s">
@@ -15517,7 +15524,8 @@
       <c r="G55" s="67"/>
       <c r="K55" s="68"/>
       <c r="M55" s="214"/>
-      <c r="N55" s="234" t="s">
+      <c r="N55" s="214"/>
+      <c r="O55" s="234" t="s">
         <v>357</v>
       </c>
       <c r="AA55" s="214" t="s">
@@ -15568,7 +15576,8 @@
       <c r="G57" s="67"/>
       <c r="K57" s="68"/>
       <c r="M57" s="214"/>
-      <c r="N57" s="17" t="s">
+      <c r="N57" s="214"/>
+      <c r="O57" s="17" t="s">
         <v>352</v>
       </c>
       <c r="AA57" s="17" t="s">
@@ -15587,10 +15596,10 @@
       <c r="G58" s="67"/>
       <c r="K58" s="68"/>
       <c r="M58" s="214"/>
-      <c r="N58" s="208" t="s">
+      <c r="N58" s="214"/>
+      <c r="O58" s="208" t="s">
         <v>326</v>
       </c>
-      <c r="O58" s="208"/>
       <c r="P58" s="208"/>
       <c r="Q58" s="208"/>
       <c r="R58" s="208"/>
@@ -15614,7 +15623,8 @@
       <c r="G59" s="219"/>
       <c r="K59" s="221"/>
       <c r="M59" s="224"/>
-      <c r="N59" s="218" t="s">
+      <c r="N59" s="224"/>
+      <c r="O59" s="218" t="s">
         <v>311</v>
       </c>
       <c r="AA59" s="218" t="s">
@@ -15633,7 +15643,8 @@
       <c r="G60" s="219"/>
       <c r="K60" s="221"/>
       <c r="M60" s="224"/>
-      <c r="N60" s="218" t="s">
+      <c r="N60" s="224"/>
+      <c r="O60" s="218" t="s">
         <v>312</v>
       </c>
       <c r="AA60" s="218" t="s">
@@ -15651,7 +15662,7 @@
       <c r="F61" s="233"/>
       <c r="G61" s="232"/>
       <c r="K61" s="233"/>
-      <c r="N61" s="231" t="s">
+      <c r="O61" s="231" t="s">
         <v>349</v>
       </c>
       <c r="AA61" s="231" t="s">
@@ -15669,7 +15680,8 @@
       <c r="G62" s="67"/>
       <c r="K62" s="68"/>
       <c r="M62" s="214"/>
-      <c r="N62" s="234" t="s">
+      <c r="N62" s="214"/>
+      <c r="O62" s="234" t="s">
         <v>358</v>
       </c>
       <c r="AA62" s="214" t="s">
@@ -45620,6 +45632,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -45777,15 +45798,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -45803,6 +45815,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45818,12 +45838,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D711BE04-8DF8-4526-8293-CEFBF82FFDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5BD5CF-9E61-4E8D-95A6-C516BCCA0E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,10 +905,6 @@
     <rPh sb="3" eb="5">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Search condition</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2998,6 +2994,23 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>criteria</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -3007,7 +3020,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3375,6 +3388,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -4387,91 +4408,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4498,6 +4434,91 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5548,7 +5569,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3589"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3591"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6932,7 +6953,7 @@
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="235" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32" s="235"/>
       <c r="C32" s="235"/>
@@ -7153,1779 +7174,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
-      <c r="S1" s="269"/>
-      <c r="T1" s="269"/>
-      <c r="U1" s="269"/>
-      <c r="V1" s="269"/>
-      <c r="W1" s="269"/>
-      <c r="X1" s="269"/>
-      <c r="Y1" s="269"/>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="269"/>
-      <c r="AB1" s="269"/>
-      <c r="AC1" s="269"/>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="269"/>
-      <c r="AF1" s="269"/>
-      <c r="AG1" s="269"/>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="269"/>
-      <c r="AJ1" s="269"/>
-      <c r="AK1" s="269"/>
-      <c r="AL1" s="269"/>
-      <c r="AM1" s="269"/>
-      <c r="AN1" s="269"/>
-      <c r="AO1" s="269"/>
-      <c r="AP1" s="269"/>
-      <c r="AQ1" s="269"/>
-      <c r="AR1" s="269"/>
-      <c r="AS1" s="269"/>
-      <c r="AT1" s="269"/>
-      <c r="AU1" s="269"/>
-      <c r="AV1" s="269"/>
-      <c r="AW1" s="269"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="238"/>
+      <c r="AM1" s="238"/>
+      <c r="AN1" s="238"/>
+      <c r="AO1" s="238"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="238"/>
+      <c r="AR1" s="238"/>
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="238"/>
+      <c r="AU1" s="238"/>
+      <c r="AV1" s="238"/>
+      <c r="AW1" s="238"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="270"/>
-      <c r="V2" s="270"/>
-      <c r="W2" s="270"/>
-      <c r="X2" s="270"/>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="270"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="270"/>
-      <c r="AM2" s="270"/>
-      <c r="AN2" s="270"/>
-      <c r="AO2" s="270"/>
-      <c r="AP2" s="270"/>
-      <c r="AQ2" s="270"/>
-      <c r="AR2" s="270"/>
-      <c r="AS2" s="270"/>
-      <c r="AT2" s="270"/>
-      <c r="AU2" s="270"/>
-      <c r="AV2" s="270"/>
-      <c r="AW2" s="270"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="239"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="239"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="239"/>
+      <c r="AJ2" s="239"/>
+      <c r="AK2" s="239"/>
+      <c r="AL2" s="239"/>
+      <c r="AM2" s="239"/>
+      <c r="AN2" s="239"/>
+      <c r="AO2" s="239"/>
+      <c r="AP2" s="239"/>
+      <c r="AQ2" s="239"/>
+      <c r="AR2" s="239"/>
+      <c r="AS2" s="239"/>
+      <c r="AT2" s="239"/>
+      <c r="AU2" s="239"/>
+      <c r="AV2" s="239"/>
+      <c r="AW2" s="239"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271" t="s">
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="272" t="s">
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="273"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="272" t="s">
+      <c r="K3" s="242"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="274"/>
-      <c r="S3" s="271" t="s">
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271" t="s">
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="271"/>
-      <c r="AA3" s="271"/>
-      <c r="AB3" s="271"/>
-      <c r="AC3" s="271"/>
-      <c r="AD3" s="271"/>
-      <c r="AE3" s="271"/>
-      <c r="AF3" s="271"/>
-      <c r="AG3" s="271"/>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="271"/>
-      <c r="AJ3" s="271"/>
-      <c r="AK3" s="271"/>
-      <c r="AL3" s="271"/>
-      <c r="AM3" s="271"/>
-      <c r="AN3" s="271" t="s">
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="271"/>
-      <c r="AP3" s="271"/>
-      <c r="AQ3" s="271"/>
-      <c r="AR3" s="271"/>
-      <c r="AS3" s="271" t="s">
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="271"/>
-      <c r="AU3" s="271"/>
-      <c r="AV3" s="271"/>
-      <c r="AW3" s="271"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="275"/>
-      <c r="N4" s="276"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="276"/>
-      <c r="Q4" s="276"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="271"/>
-      <c r="T4" s="271"/>
-      <c r="U4" s="271"/>
-      <c r="V4" s="271"/>
-      <c r="W4" s="271"/>
-      <c r="X4" s="271"/>
-      <c r="Y4" s="271"/>
-      <c r="Z4" s="271"/>
-      <c r="AA4" s="271"/>
-      <c r="AB4" s="271"/>
-      <c r="AC4" s="271"/>
-      <c r="AD4" s="271"/>
-      <c r="AE4" s="271"/>
-      <c r="AF4" s="271"/>
-      <c r="AG4" s="271"/>
-      <c r="AH4" s="271"/>
-      <c r="AI4" s="271"/>
-      <c r="AJ4" s="271"/>
-      <c r="AK4" s="271"/>
-      <c r="AL4" s="271"/>
-      <c r="AM4" s="271"/>
-      <c r="AN4" s="271"/>
-      <c r="AO4" s="271"/>
-      <c r="AP4" s="271"/>
-      <c r="AQ4" s="271"/>
-      <c r="AR4" s="271"/>
-      <c r="AS4" s="271"/>
-      <c r="AT4" s="271"/>
-      <c r="AU4" s="271"/>
-      <c r="AV4" s="271"/>
-      <c r="AW4" s="271"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="245"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="246"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="240"/>
+      <c r="V4" s="240"/>
+      <c r="W4" s="240"/>
+      <c r="X4" s="240"/>
+      <c r="Y4" s="240"/>
+      <c r="Z4" s="240"/>
+      <c r="AA4" s="240"/>
+      <c r="AB4" s="240"/>
+      <c r="AC4" s="240"/>
+      <c r="AD4" s="240"/>
+      <c r="AE4" s="240"/>
+      <c r="AF4" s="240"/>
+      <c r="AG4" s="240"/>
+      <c r="AH4" s="240"/>
+      <c r="AI4" s="240"/>
+      <c r="AJ4" s="240"/>
+      <c r="AK4" s="240"/>
+      <c r="AL4" s="240"/>
+      <c r="AM4" s="240"/>
+      <c r="AN4" s="240"/>
+      <c r="AO4" s="240"/>
+      <c r="AP4" s="240"/>
+      <c r="AQ4" s="240"/>
+      <c r="AR4" s="240"/>
+      <c r="AS4" s="240"/>
+      <c r="AT4" s="240"/>
+      <c r="AU4" s="240"/>
+      <c r="AV4" s="240"/>
+      <c r="AW4" s="240"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="263">
+      <c r="B5" s="248">
         <v>1</v>
       </c>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="244">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="249">
         <v>43735</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="245" t="s">
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="246"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="245" t="s">
+      <c r="K5" s="251"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="251" t="s">
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="251"/>
-      <c r="U5" s="251"/>
-      <c r="V5" s="262" t="s">
+      <c r="T5" s="247"/>
+      <c r="U5" s="247"/>
+      <c r="V5" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="262"/>
-      <c r="X5" s="262"/>
-      <c r="Y5" s="262"/>
-      <c r="Z5" s="262"/>
-      <c r="AA5" s="262"/>
-      <c r="AB5" s="262"/>
-      <c r="AC5" s="262"/>
-      <c r="AD5" s="262"/>
-      <c r="AE5" s="262"/>
-      <c r="AF5" s="262"/>
-      <c r="AG5" s="262"/>
-      <c r="AH5" s="262"/>
-      <c r="AI5" s="262"/>
-      <c r="AJ5" s="262"/>
-      <c r="AK5" s="262"/>
-      <c r="AL5" s="262"/>
-      <c r="AM5" s="262"/>
-      <c r="AN5" s="251" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO5" s="251"/>
-      <c r="AP5" s="251"/>
-      <c r="AQ5" s="251"/>
-      <c r="AR5" s="251"/>
-      <c r="AS5" s="251"/>
-      <c r="AT5" s="251"/>
-      <c r="AU5" s="251"/>
-      <c r="AV5" s="251"/>
-      <c r="AW5" s="251"/>
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="256"/>
+      <c r="AB5" s="256"/>
+      <c r="AC5" s="256"/>
+      <c r="AD5" s="256"/>
+      <c r="AE5" s="256"/>
+      <c r="AF5" s="256"/>
+      <c r="AG5" s="256"/>
+      <c r="AH5" s="256"/>
+      <c r="AI5" s="256"/>
+      <c r="AJ5" s="256"/>
+      <c r="AK5" s="256"/>
+      <c r="AL5" s="256"/>
+      <c r="AM5" s="256"/>
+      <c r="AN5" s="247" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO5" s="247"/>
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="247"/>
+      <c r="AR5" s="247"/>
+      <c r="AS5" s="247"/>
+      <c r="AT5" s="247"/>
+      <c r="AU5" s="247"/>
+      <c r="AV5" s="247"/>
+      <c r="AW5" s="247"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="247"/>
-      <c r="M6" s="266"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="267"/>
-      <c r="P6" s="267"/>
-      <c r="Q6" s="267"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="251"/>
-      <c r="T6" s="251"/>
-      <c r="U6" s="251"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="262"/>
-      <c r="AA6" s="262"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="262"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="262"/>
-      <c r="AH6" s="262"/>
-      <c r="AI6" s="262"/>
-      <c r="AJ6" s="262"/>
-      <c r="AK6" s="262"/>
-      <c r="AL6" s="262"/>
-      <c r="AM6" s="262"/>
-      <c r="AN6" s="251"/>
-      <c r="AO6" s="251"/>
-      <c r="AP6" s="251"/>
-      <c r="AQ6" s="251"/>
-      <c r="AR6" s="251"/>
-      <c r="AS6" s="251"/>
-      <c r="AT6" s="251"/>
-      <c r="AU6" s="251"/>
-      <c r="AV6" s="251"/>
-      <c r="AW6" s="251"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="247"/>
+      <c r="T6" s="247"/>
+      <c r="U6" s="247"/>
+      <c r="V6" s="256"/>
+      <c r="W6" s="256"/>
+      <c r="X6" s="256"/>
+      <c r="Y6" s="256"/>
+      <c r="Z6" s="256"/>
+      <c r="AA6" s="256"/>
+      <c r="AB6" s="256"/>
+      <c r="AC6" s="256"/>
+      <c r="AD6" s="256"/>
+      <c r="AE6" s="256"/>
+      <c r="AF6" s="256"/>
+      <c r="AG6" s="256"/>
+      <c r="AH6" s="256"/>
+      <c r="AI6" s="256"/>
+      <c r="AJ6" s="256"/>
+      <c r="AK6" s="256"/>
+      <c r="AL6" s="256"/>
+      <c r="AM6" s="256"/>
+      <c r="AN6" s="247"/>
+      <c r="AO6" s="247"/>
+      <c r="AP6" s="247"/>
+      <c r="AQ6" s="247"/>
+      <c r="AR6" s="247"/>
+      <c r="AS6" s="247"/>
+      <c r="AT6" s="247"/>
+      <c r="AU6" s="247"/>
+      <c r="AV6" s="247"/>
+      <c r="AW6" s="247"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="266"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="268"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="251"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="262"/>
-      <c r="W7" s="262"/>
-      <c r="X7" s="262"/>
-      <c r="Y7" s="262"/>
-      <c r="Z7" s="262"/>
-      <c r="AA7" s="262"/>
-      <c r="AB7" s="262"/>
-      <c r="AC7" s="262"/>
-      <c r="AD7" s="262"/>
-      <c r="AE7" s="262"/>
-      <c r="AF7" s="262"/>
-      <c r="AG7" s="262"/>
-      <c r="AH7" s="262"/>
-      <c r="AI7" s="262"/>
-      <c r="AJ7" s="262"/>
-      <c r="AK7" s="262"/>
-      <c r="AL7" s="262"/>
-      <c r="AM7" s="262"/>
-      <c r="AN7" s="251"/>
-      <c r="AO7" s="251"/>
-      <c r="AP7" s="251"/>
-      <c r="AQ7" s="251"/>
-      <c r="AR7" s="251"/>
-      <c r="AS7" s="251"/>
-      <c r="AT7" s="251"/>
-      <c r="AU7" s="251"/>
-      <c r="AV7" s="251"/>
-      <c r="AW7" s="251"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="256"/>
+      <c r="Z7" s="256"/>
+      <c r="AA7" s="256"/>
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="256"/>
+      <c r="AF7" s="256"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="256"/>
+      <c r="AI7" s="256"/>
+      <c r="AJ7" s="256"/>
+      <c r="AK7" s="256"/>
+      <c r="AL7" s="256"/>
+      <c r="AM7" s="256"/>
+      <c r="AN7" s="247"/>
+      <c r="AO7" s="247"/>
+      <c r="AP7" s="247"/>
+      <c r="AQ7" s="247"/>
+      <c r="AR7" s="247"/>
+      <c r="AS7" s="247"/>
+      <c r="AT7" s="247"/>
+      <c r="AU7" s="247"/>
+      <c r="AV7" s="247"/>
+      <c r="AW7" s="247"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="245"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="267"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="251"/>
-      <c r="T8" s="251"/>
-      <c r="U8" s="251"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="262"/>
-      <c r="Z8" s="262"/>
-      <c r="AA8" s="262"/>
-      <c r="AB8" s="262"/>
-      <c r="AC8" s="262"/>
-      <c r="AD8" s="262"/>
-      <c r="AE8" s="262"/>
-      <c r="AF8" s="262"/>
-      <c r="AG8" s="262"/>
-      <c r="AH8" s="262"/>
-      <c r="AI8" s="262"/>
-      <c r="AJ8" s="262"/>
-      <c r="AK8" s="262"/>
-      <c r="AL8" s="262"/>
-      <c r="AM8" s="262"/>
-      <c r="AN8" s="251"/>
-      <c r="AO8" s="251"/>
-      <c r="AP8" s="251"/>
-      <c r="AQ8" s="251"/>
-      <c r="AR8" s="251"/>
-      <c r="AS8" s="251"/>
-      <c r="AT8" s="251"/>
-      <c r="AU8" s="251"/>
-      <c r="AV8" s="251"/>
-      <c r="AW8" s="251"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="255"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="256"/>
+      <c r="W8" s="256"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="256"/>
+      <c r="Z8" s="256"/>
+      <c r="AA8" s="256"/>
+      <c r="AB8" s="256"/>
+      <c r="AC8" s="256"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="256"/>
+      <c r="AF8" s="256"/>
+      <c r="AG8" s="256"/>
+      <c r="AH8" s="256"/>
+      <c r="AI8" s="256"/>
+      <c r="AJ8" s="256"/>
+      <c r="AK8" s="256"/>
+      <c r="AL8" s="256"/>
+      <c r="AM8" s="256"/>
+      <c r="AN8" s="247"/>
+      <c r="AO8" s="247"/>
+      <c r="AP8" s="247"/>
+      <c r="AQ8" s="247"/>
+      <c r="AR8" s="247"/>
+      <c r="AS8" s="247"/>
+      <c r="AT8" s="247"/>
+      <c r="AU8" s="247"/>
+      <c r="AV8" s="247"/>
+      <c r="AW8" s="247"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="263"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="247"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="251"/>
-      <c r="T9" s="251"/>
-      <c r="U9" s="251"/>
-      <c r="V9" s="262"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="262"/>
-      <c r="Y9" s="262"/>
-      <c r="Z9" s="262"/>
-      <c r="AA9" s="262"/>
-      <c r="AB9" s="262"/>
-      <c r="AC9" s="262"/>
-      <c r="AD9" s="262"/>
-      <c r="AE9" s="262"/>
-      <c r="AF9" s="262"/>
-      <c r="AG9" s="262"/>
-      <c r="AH9" s="262"/>
-      <c r="AI9" s="262"/>
-      <c r="AJ9" s="262"/>
-      <c r="AK9" s="262"/>
-      <c r="AL9" s="262"/>
-      <c r="AM9" s="262"/>
-      <c r="AN9" s="251"/>
-      <c r="AO9" s="251"/>
-      <c r="AP9" s="251"/>
-      <c r="AQ9" s="251"/>
-      <c r="AR9" s="251"/>
-      <c r="AS9" s="251"/>
-      <c r="AT9" s="251"/>
-      <c r="AU9" s="251"/>
-      <c r="AV9" s="251"/>
-      <c r="AW9" s="251"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="247"/>
+      <c r="T9" s="247"/>
+      <c r="U9" s="247"/>
+      <c r="V9" s="256"/>
+      <c r="W9" s="256"/>
+      <c r="X9" s="256"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="256"/>
+      <c r="AA9" s="256"/>
+      <c r="AB9" s="256"/>
+      <c r="AC9" s="256"/>
+      <c r="AD9" s="256"/>
+      <c r="AE9" s="256"/>
+      <c r="AF9" s="256"/>
+      <c r="AG9" s="256"/>
+      <c r="AH9" s="256"/>
+      <c r="AI9" s="256"/>
+      <c r="AJ9" s="256"/>
+      <c r="AK9" s="256"/>
+      <c r="AL9" s="256"/>
+      <c r="AM9" s="256"/>
+      <c r="AN9" s="247"/>
+      <c r="AO9" s="247"/>
+      <c r="AP9" s="247"/>
+      <c r="AQ9" s="247"/>
+      <c r="AR9" s="247"/>
+      <c r="AS9" s="247"/>
+      <c r="AT9" s="247"/>
+      <c r="AU9" s="247"/>
+      <c r="AV9" s="247"/>
+      <c r="AW9" s="247"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="247"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="267"/>
-      <c r="O10" s="267"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="251"/>
-      <c r="T10" s="251"/>
-      <c r="U10" s="251"/>
-      <c r="V10" s="262"/>
-      <c r="W10" s="262"/>
-      <c r="X10" s="262"/>
-      <c r="Y10" s="262"/>
-      <c r="Z10" s="262"/>
-      <c r="AA10" s="262"/>
-      <c r="AB10" s="262"/>
-      <c r="AC10" s="262"/>
-      <c r="AD10" s="262"/>
-      <c r="AE10" s="262"/>
-      <c r="AF10" s="262"/>
-      <c r="AG10" s="262"/>
-      <c r="AH10" s="262"/>
-      <c r="AI10" s="262"/>
-      <c r="AJ10" s="262"/>
-      <c r="AK10" s="262"/>
-      <c r="AL10" s="262"/>
-      <c r="AM10" s="262"/>
-      <c r="AN10" s="251"/>
-      <c r="AO10" s="251"/>
-      <c r="AP10" s="251"/>
-      <c r="AQ10" s="251"/>
-      <c r="AR10" s="251"/>
-      <c r="AS10" s="251"/>
-      <c r="AT10" s="251"/>
-      <c r="AU10" s="251"/>
-      <c r="AV10" s="251"/>
-      <c r="AW10" s="251"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="247"/>
+      <c r="T10" s="247"/>
+      <c r="U10" s="247"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="256"/>
+      <c r="Y10" s="256"/>
+      <c r="Z10" s="256"/>
+      <c r="AA10" s="256"/>
+      <c r="AB10" s="256"/>
+      <c r="AC10" s="256"/>
+      <c r="AD10" s="256"/>
+      <c r="AE10" s="256"/>
+      <c r="AF10" s="256"/>
+      <c r="AG10" s="256"/>
+      <c r="AH10" s="256"/>
+      <c r="AI10" s="256"/>
+      <c r="AJ10" s="256"/>
+      <c r="AK10" s="256"/>
+      <c r="AL10" s="256"/>
+      <c r="AM10" s="256"/>
+      <c r="AN10" s="247"/>
+      <c r="AO10" s="247"/>
+      <c r="AP10" s="247"/>
+      <c r="AQ10" s="247"/>
+      <c r="AR10" s="247"/>
+      <c r="AS10" s="247"/>
+      <c r="AT10" s="247"/>
+      <c r="AU10" s="247"/>
+      <c r="AV10" s="247"/>
+      <c r="AW10" s="247"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="263"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="256"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="251"/>
-      <c r="T11" s="251"/>
-      <c r="U11" s="251"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="264"/>
-      <c r="X11" s="264"/>
-      <c r="Y11" s="264"/>
-      <c r="Z11" s="264"/>
-      <c r="AA11" s="264"/>
-      <c r="AB11" s="264"/>
-      <c r="AC11" s="264"/>
-      <c r="AD11" s="264"/>
-      <c r="AE11" s="264"/>
-      <c r="AF11" s="264"/>
-      <c r="AG11" s="264"/>
-      <c r="AH11" s="264"/>
-      <c r="AI11" s="264"/>
-      <c r="AJ11" s="264"/>
-      <c r="AK11" s="264"/>
-      <c r="AL11" s="264"/>
-      <c r="AM11" s="265"/>
-      <c r="AN11" s="251"/>
-      <c r="AO11" s="251"/>
-      <c r="AP11" s="251"/>
-      <c r="AQ11" s="251"/>
-      <c r="AR11" s="251"/>
-      <c r="AS11" s="251"/>
-      <c r="AT11" s="251"/>
-      <c r="AU11" s="251"/>
-      <c r="AV11" s="251"/>
-      <c r="AW11" s="251"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="260"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="247"/>
+      <c r="T11" s="247"/>
+      <c r="U11" s="247"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="269"/>
+      <c r="AJ11" s="269"/>
+      <c r="AK11" s="269"/>
+      <c r="AL11" s="269"/>
+      <c r="AM11" s="270"/>
+      <c r="AN11" s="247"/>
+      <c r="AO11" s="247"/>
+      <c r="AP11" s="247"/>
+      <c r="AQ11" s="247"/>
+      <c r="AR11" s="247"/>
+      <c r="AS11" s="247"/>
+      <c r="AT11" s="247"/>
+      <c r="AU11" s="247"/>
+      <c r="AV11" s="247"/>
+      <c r="AW11" s="247"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="251"/>
-      <c r="T12" s="251"/>
-      <c r="U12" s="251"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="253"/>
-      <c r="X12" s="253"/>
-      <c r="Y12" s="253"/>
-      <c r="Z12" s="253"/>
-      <c r="AA12" s="253"/>
-      <c r="AB12" s="253"/>
-      <c r="AC12" s="253"/>
-      <c r="AD12" s="253"/>
-      <c r="AE12" s="253"/>
-      <c r="AF12" s="253"/>
-      <c r="AG12" s="253"/>
-      <c r="AH12" s="253"/>
-      <c r="AI12" s="253"/>
-      <c r="AJ12" s="253"/>
-      <c r="AK12" s="253"/>
-      <c r="AL12" s="253"/>
-      <c r="AM12" s="254"/>
-      <c r="AN12" s="238"/>
-      <c r="AO12" s="239"/>
-      <c r="AP12" s="239"/>
-      <c r="AQ12" s="239"/>
-      <c r="AR12" s="240"/>
-      <c r="AS12" s="238"/>
-      <c r="AT12" s="239"/>
-      <c r="AU12" s="239"/>
-      <c r="AV12" s="239"/>
-      <c r="AW12" s="240"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="260"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="247"/>
+      <c r="T12" s="247"/>
+      <c r="U12" s="247"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="264"/>
+      <c r="X12" s="264"/>
+      <c r="Y12" s="264"/>
+      <c r="Z12" s="264"/>
+      <c r="AA12" s="264"/>
+      <c r="AB12" s="264"/>
+      <c r="AC12" s="264"/>
+      <c r="AD12" s="264"/>
+      <c r="AE12" s="264"/>
+      <c r="AF12" s="264"/>
+      <c r="AG12" s="264"/>
+      <c r="AH12" s="264"/>
+      <c r="AI12" s="264"/>
+      <c r="AJ12" s="264"/>
+      <c r="AK12" s="264"/>
+      <c r="AL12" s="264"/>
+      <c r="AM12" s="265"/>
+      <c r="AN12" s="266"/>
+      <c r="AO12" s="267"/>
+      <c r="AP12" s="267"/>
+      <c r="AQ12" s="267"/>
+      <c r="AR12" s="268"/>
+      <c r="AS12" s="266"/>
+      <c r="AT12" s="267"/>
+      <c r="AU12" s="267"/>
+      <c r="AV12" s="267"/>
+      <c r="AW12" s="268"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="244"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="256"/>
-      <c r="Q13" s="256"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="251"/>
-      <c r="T13" s="251"/>
-      <c r="U13" s="251"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="253"/>
-      <c r="X13" s="253"/>
-      <c r="Y13" s="253"/>
-      <c r="Z13" s="253"/>
-      <c r="AA13" s="253"/>
-      <c r="AB13" s="253"/>
-      <c r="AC13" s="253"/>
-      <c r="AD13" s="253"/>
-      <c r="AE13" s="253"/>
-      <c r="AF13" s="253"/>
-      <c r="AG13" s="253"/>
-      <c r="AH13" s="253"/>
-      <c r="AI13" s="253"/>
-      <c r="AJ13" s="253"/>
-      <c r="AK13" s="253"/>
-      <c r="AL13" s="253"/>
-      <c r="AM13" s="254"/>
-      <c r="AN13" s="238"/>
-      <c r="AO13" s="239"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="240"/>
-      <c r="AS13" s="238"/>
-      <c r="AT13" s="239"/>
-      <c r="AU13" s="239"/>
-      <c r="AV13" s="239"/>
-      <c r="AW13" s="240"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="247"/>
+      <c r="T13" s="247"/>
+      <c r="U13" s="247"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="264"/>
+      <c r="X13" s="264"/>
+      <c r="Y13" s="264"/>
+      <c r="Z13" s="264"/>
+      <c r="AA13" s="264"/>
+      <c r="AB13" s="264"/>
+      <c r="AC13" s="264"/>
+      <c r="AD13" s="264"/>
+      <c r="AE13" s="264"/>
+      <c r="AF13" s="264"/>
+      <c r="AG13" s="264"/>
+      <c r="AH13" s="264"/>
+      <c r="AI13" s="264"/>
+      <c r="AJ13" s="264"/>
+      <c r="AK13" s="264"/>
+      <c r="AL13" s="264"/>
+      <c r="AM13" s="265"/>
+      <c r="AN13" s="266"/>
+      <c r="AO13" s="267"/>
+      <c r="AP13" s="267"/>
+      <c r="AQ13" s="267"/>
+      <c r="AR13" s="268"/>
+      <c r="AS13" s="266"/>
+      <c r="AT13" s="267"/>
+      <c r="AU13" s="267"/>
+      <c r="AV13" s="267"/>
+      <c r="AW13" s="268"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="241"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="247"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="251"/>
-      <c r="T14" s="251"/>
-      <c r="U14" s="251"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="262"/>
-      <c r="X14" s="262"/>
-      <c r="Y14" s="262"/>
-      <c r="Z14" s="262"/>
-      <c r="AA14" s="262"/>
-      <c r="AB14" s="262"/>
-      <c r="AC14" s="262"/>
-      <c r="AD14" s="262"/>
-      <c r="AE14" s="262"/>
-      <c r="AF14" s="262"/>
-      <c r="AG14" s="262"/>
-      <c r="AH14" s="262"/>
-      <c r="AI14" s="262"/>
-      <c r="AJ14" s="262"/>
-      <c r="AK14" s="262"/>
-      <c r="AL14" s="262"/>
-      <c r="AM14" s="262"/>
-      <c r="AN14" s="251"/>
-      <c r="AO14" s="251"/>
-      <c r="AP14" s="251"/>
-      <c r="AQ14" s="251"/>
-      <c r="AR14" s="251"/>
-      <c r="AS14" s="238"/>
-      <c r="AT14" s="239"/>
-      <c r="AU14" s="239"/>
-      <c r="AV14" s="239"/>
-      <c r="AW14" s="240"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="247"/>
+      <c r="T14" s="247"/>
+      <c r="U14" s="247"/>
+      <c r="V14" s="272"/>
+      <c r="W14" s="256"/>
+      <c r="X14" s="256"/>
+      <c r="Y14" s="256"/>
+      <c r="Z14" s="256"/>
+      <c r="AA14" s="256"/>
+      <c r="AB14" s="256"/>
+      <c r="AC14" s="256"/>
+      <c r="AD14" s="256"/>
+      <c r="AE14" s="256"/>
+      <c r="AF14" s="256"/>
+      <c r="AG14" s="256"/>
+      <c r="AH14" s="256"/>
+      <c r="AI14" s="256"/>
+      <c r="AJ14" s="256"/>
+      <c r="AK14" s="256"/>
+      <c r="AL14" s="256"/>
+      <c r="AM14" s="256"/>
+      <c r="AN14" s="247"/>
+      <c r="AO14" s="247"/>
+      <c r="AP14" s="247"/>
+      <c r="AQ14" s="247"/>
+      <c r="AR14" s="247"/>
+      <c r="AS14" s="266"/>
+      <c r="AT14" s="267"/>
+      <c r="AU14" s="267"/>
+      <c r="AV14" s="267"/>
+      <c r="AW14" s="268"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="251"/>
-      <c r="T15" s="251"/>
-      <c r="U15" s="251"/>
-      <c r="V15" s="252"/>
-      <c r="W15" s="253"/>
-      <c r="X15" s="253"/>
-      <c r="Y15" s="253"/>
-      <c r="Z15" s="253"/>
-      <c r="AA15" s="253"/>
-      <c r="AB15" s="253"/>
-      <c r="AC15" s="253"/>
-      <c r="AD15" s="253"/>
-      <c r="AE15" s="253"/>
-      <c r="AF15" s="253"/>
-      <c r="AG15" s="253"/>
-      <c r="AH15" s="253"/>
-      <c r="AI15" s="253"/>
-      <c r="AJ15" s="253"/>
-      <c r="AK15" s="253"/>
-      <c r="AL15" s="253"/>
-      <c r="AM15" s="254"/>
-      <c r="AN15" s="238"/>
-      <c r="AO15" s="239"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="240"/>
-      <c r="AS15" s="238"/>
-      <c r="AT15" s="239"/>
-      <c r="AU15" s="239"/>
-      <c r="AV15" s="239"/>
-      <c r="AW15" s="240"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="262"/>
+      <c r="S15" s="247"/>
+      <c r="T15" s="247"/>
+      <c r="U15" s="247"/>
+      <c r="V15" s="263"/>
+      <c r="W15" s="264"/>
+      <c r="X15" s="264"/>
+      <c r="Y15" s="264"/>
+      <c r="Z15" s="264"/>
+      <c r="AA15" s="264"/>
+      <c r="AB15" s="264"/>
+      <c r="AC15" s="264"/>
+      <c r="AD15" s="264"/>
+      <c r="AE15" s="264"/>
+      <c r="AF15" s="264"/>
+      <c r="AG15" s="264"/>
+      <c r="AH15" s="264"/>
+      <c r="AI15" s="264"/>
+      <c r="AJ15" s="264"/>
+      <c r="AK15" s="264"/>
+      <c r="AL15" s="264"/>
+      <c r="AM15" s="265"/>
+      <c r="AN15" s="266"/>
+      <c r="AO15" s="267"/>
+      <c r="AP15" s="267"/>
+      <c r="AQ15" s="267"/>
+      <c r="AR15" s="268"/>
+      <c r="AS15" s="266"/>
+      <c r="AT15" s="267"/>
+      <c r="AU15" s="267"/>
+      <c r="AV15" s="267"/>
+      <c r="AW15" s="268"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="251"/>
-      <c r="T16" s="251"/>
-      <c r="U16" s="251"/>
-      <c r="V16" s="252"/>
-      <c r="W16" s="253"/>
-      <c r="X16" s="253"/>
-      <c r="Y16" s="253"/>
-      <c r="Z16" s="253"/>
-      <c r="AA16" s="253"/>
-      <c r="AB16" s="253"/>
-      <c r="AC16" s="253"/>
-      <c r="AD16" s="253"/>
-      <c r="AE16" s="253"/>
-      <c r="AF16" s="253"/>
-      <c r="AG16" s="253"/>
-      <c r="AH16" s="253"/>
-      <c r="AI16" s="253"/>
-      <c r="AJ16" s="253"/>
-      <c r="AK16" s="253"/>
-      <c r="AL16" s="253"/>
-      <c r="AM16" s="254"/>
-      <c r="AN16" s="238"/>
-      <c r="AO16" s="239"/>
-      <c r="AP16" s="239"/>
-      <c r="AQ16" s="239"/>
-      <c r="AR16" s="240"/>
-      <c r="AS16" s="238"/>
-      <c r="AT16" s="239"/>
-      <c r="AU16" s="239"/>
-      <c r="AV16" s="239"/>
-      <c r="AW16" s="240"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="247"/>
+      <c r="T16" s="247"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="263"/>
+      <c r="W16" s="264"/>
+      <c r="X16" s="264"/>
+      <c r="Y16" s="264"/>
+      <c r="Z16" s="264"/>
+      <c r="AA16" s="264"/>
+      <c r="AB16" s="264"/>
+      <c r="AC16" s="264"/>
+      <c r="AD16" s="264"/>
+      <c r="AE16" s="264"/>
+      <c r="AF16" s="264"/>
+      <c r="AG16" s="264"/>
+      <c r="AH16" s="264"/>
+      <c r="AI16" s="264"/>
+      <c r="AJ16" s="264"/>
+      <c r="AK16" s="264"/>
+      <c r="AL16" s="264"/>
+      <c r="AM16" s="265"/>
+      <c r="AN16" s="266"/>
+      <c r="AO16" s="267"/>
+      <c r="AP16" s="267"/>
+      <c r="AQ16" s="267"/>
+      <c r="AR16" s="268"/>
+      <c r="AS16" s="266"/>
+      <c r="AT16" s="267"/>
+      <c r="AU16" s="267"/>
+      <c r="AV16" s="267"/>
+      <c r="AW16" s="268"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="244"/>
-      <c r="I17" s="244"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="260"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="253"/>
-      <c r="Z17" s="253"/>
-      <c r="AA17" s="253"/>
-      <c r="AB17" s="253"/>
-      <c r="AC17" s="253"/>
-      <c r="AD17" s="253"/>
-      <c r="AE17" s="253"/>
-      <c r="AF17" s="253"/>
-      <c r="AG17" s="253"/>
-      <c r="AH17" s="253"/>
-      <c r="AI17" s="253"/>
-      <c r="AJ17" s="253"/>
-      <c r="AK17" s="253"/>
-      <c r="AL17" s="253"/>
-      <c r="AM17" s="254"/>
-      <c r="AN17" s="238"/>
-      <c r="AO17" s="239"/>
-      <c r="AP17" s="239"/>
-      <c r="AQ17" s="239"/>
-      <c r="AR17" s="240"/>
-      <c r="AS17" s="238"/>
-      <c r="AT17" s="239"/>
-      <c r="AU17" s="239"/>
-      <c r="AV17" s="239"/>
-      <c r="AW17" s="240"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="260"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="273"/>
+      <c r="S17" s="274"/>
+      <c r="T17" s="274"/>
+      <c r="U17" s="274"/>
+      <c r="V17" s="263"/>
+      <c r="W17" s="264"/>
+      <c r="X17" s="264"/>
+      <c r="Y17" s="264"/>
+      <c r="Z17" s="264"/>
+      <c r="AA17" s="264"/>
+      <c r="AB17" s="264"/>
+      <c r="AC17" s="264"/>
+      <c r="AD17" s="264"/>
+      <c r="AE17" s="264"/>
+      <c r="AF17" s="264"/>
+      <c r="AG17" s="264"/>
+      <c r="AH17" s="264"/>
+      <c r="AI17" s="264"/>
+      <c r="AJ17" s="264"/>
+      <c r="AK17" s="264"/>
+      <c r="AL17" s="264"/>
+      <c r="AM17" s="265"/>
+      <c r="AN17" s="266"/>
+      <c r="AO17" s="267"/>
+      <c r="AP17" s="267"/>
+      <c r="AQ17" s="267"/>
+      <c r="AR17" s="268"/>
+      <c r="AS17" s="266"/>
+      <c r="AT17" s="267"/>
+      <c r="AU17" s="267"/>
+      <c r="AV17" s="267"/>
+      <c r="AW17" s="268"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="247"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="257"/>
-      <c r="S18" s="251"/>
-      <c r="T18" s="251"/>
-      <c r="U18" s="251"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="253"/>
-      <c r="X18" s="253"/>
-      <c r="Y18" s="253"/>
-      <c r="Z18" s="253"/>
-      <c r="AA18" s="253"/>
-      <c r="AB18" s="253"/>
-      <c r="AC18" s="253"/>
-      <c r="AD18" s="253"/>
-      <c r="AE18" s="253"/>
-      <c r="AF18" s="253"/>
-      <c r="AG18" s="253"/>
-      <c r="AH18" s="253"/>
-      <c r="AI18" s="253"/>
-      <c r="AJ18" s="253"/>
-      <c r="AK18" s="253"/>
-      <c r="AL18" s="253"/>
-      <c r="AM18" s="254"/>
-      <c r="AN18" s="238"/>
-      <c r="AO18" s="239"/>
-      <c r="AP18" s="239"/>
-      <c r="AQ18" s="239"/>
-      <c r="AR18" s="240"/>
-      <c r="AS18" s="238"/>
-      <c r="AT18" s="239"/>
-      <c r="AU18" s="239"/>
-      <c r="AV18" s="239"/>
-      <c r="AW18" s="240"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="247"/>
+      <c r="T18" s="247"/>
+      <c r="U18" s="247"/>
+      <c r="V18" s="263"/>
+      <c r="W18" s="264"/>
+      <c r="X18" s="264"/>
+      <c r="Y18" s="264"/>
+      <c r="Z18" s="264"/>
+      <c r="AA18" s="264"/>
+      <c r="AB18" s="264"/>
+      <c r="AC18" s="264"/>
+      <c r="AD18" s="264"/>
+      <c r="AE18" s="264"/>
+      <c r="AF18" s="264"/>
+      <c r="AG18" s="264"/>
+      <c r="AH18" s="264"/>
+      <c r="AI18" s="264"/>
+      <c r="AJ18" s="264"/>
+      <c r="AK18" s="264"/>
+      <c r="AL18" s="264"/>
+      <c r="AM18" s="265"/>
+      <c r="AN18" s="266"/>
+      <c r="AO18" s="267"/>
+      <c r="AP18" s="267"/>
+      <c r="AQ18" s="267"/>
+      <c r="AR18" s="268"/>
+      <c r="AS18" s="266"/>
+      <c r="AT18" s="267"/>
+      <c r="AU18" s="267"/>
+      <c r="AV18" s="267"/>
+      <c r="AW18" s="268"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="244"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
-      <c r="I19" s="244"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="257"/>
-      <c r="S19" s="251"/>
-      <c r="T19" s="251"/>
-      <c r="U19" s="251"/>
-      <c r="V19" s="252"/>
-      <c r="W19" s="253"/>
-      <c r="X19" s="253"/>
-      <c r="Y19" s="253"/>
-      <c r="Z19" s="253"/>
-      <c r="AA19" s="253"/>
-      <c r="AB19" s="253"/>
-      <c r="AC19" s="253"/>
-      <c r="AD19" s="253"/>
-      <c r="AE19" s="253"/>
-      <c r="AF19" s="253"/>
-      <c r="AG19" s="253"/>
-      <c r="AH19" s="253"/>
-      <c r="AI19" s="253"/>
-      <c r="AJ19" s="253"/>
-      <c r="AK19" s="253"/>
-      <c r="AL19" s="253"/>
-      <c r="AM19" s="254"/>
-      <c r="AN19" s="251"/>
-      <c r="AO19" s="251"/>
-      <c r="AP19" s="251"/>
-      <c r="AQ19" s="251"/>
-      <c r="AR19" s="251"/>
-      <c r="AS19" s="238"/>
-      <c r="AT19" s="239"/>
-      <c r="AU19" s="239"/>
-      <c r="AV19" s="239"/>
-      <c r="AW19" s="240"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="247"/>
+      <c r="T19" s="247"/>
+      <c r="U19" s="247"/>
+      <c r="V19" s="263"/>
+      <c r="W19" s="264"/>
+      <c r="X19" s="264"/>
+      <c r="Y19" s="264"/>
+      <c r="Z19" s="264"/>
+      <c r="AA19" s="264"/>
+      <c r="AB19" s="264"/>
+      <c r="AC19" s="264"/>
+      <c r="AD19" s="264"/>
+      <c r="AE19" s="264"/>
+      <c r="AF19" s="264"/>
+      <c r="AG19" s="264"/>
+      <c r="AH19" s="264"/>
+      <c r="AI19" s="264"/>
+      <c r="AJ19" s="264"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="264"/>
+      <c r="AM19" s="265"/>
+      <c r="AN19" s="247"/>
+      <c r="AO19" s="247"/>
+      <c r="AP19" s="247"/>
+      <c r="AQ19" s="247"/>
+      <c r="AR19" s="247"/>
+      <c r="AS19" s="266"/>
+      <c r="AT19" s="267"/>
+      <c r="AU19" s="267"/>
+      <c r="AV19" s="267"/>
+      <c r="AW19" s="268"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="241"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="244"/>
-      <c r="J20" s="245"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="247"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
-      <c r="R20" s="257"/>
-      <c r="S20" s="238"/>
-      <c r="T20" s="239"/>
-      <c r="U20" s="240"/>
-      <c r="V20" s="252"/>
-      <c r="W20" s="253"/>
-      <c r="X20" s="253"/>
-      <c r="Y20" s="253"/>
-      <c r="Z20" s="253"/>
-      <c r="AA20" s="253"/>
-      <c r="AB20" s="253"/>
-      <c r="AC20" s="253"/>
-      <c r="AD20" s="253"/>
-      <c r="AE20" s="253"/>
-      <c r="AF20" s="253"/>
-      <c r="AG20" s="253"/>
-      <c r="AH20" s="253"/>
-      <c r="AI20" s="253"/>
-      <c r="AJ20" s="253"/>
-      <c r="AK20" s="253"/>
-      <c r="AL20" s="253"/>
-      <c r="AM20" s="254"/>
-      <c r="AN20" s="238"/>
-      <c r="AO20" s="239"/>
-      <c r="AP20" s="239"/>
-      <c r="AQ20" s="239"/>
-      <c r="AR20" s="240"/>
-      <c r="AS20" s="238"/>
-      <c r="AT20" s="239"/>
-      <c r="AU20" s="239"/>
-      <c r="AV20" s="239"/>
-      <c r="AW20" s="240"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="260"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="261"/>
+      <c r="P20" s="261"/>
+      <c r="Q20" s="261"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="266"/>
+      <c r="T20" s="267"/>
+      <c r="U20" s="268"/>
+      <c r="V20" s="263"/>
+      <c r="W20" s="264"/>
+      <c r="X20" s="264"/>
+      <c r="Y20" s="264"/>
+      <c r="Z20" s="264"/>
+      <c r="AA20" s="264"/>
+      <c r="AB20" s="264"/>
+      <c r="AC20" s="264"/>
+      <c r="AD20" s="264"/>
+      <c r="AE20" s="264"/>
+      <c r="AF20" s="264"/>
+      <c r="AG20" s="264"/>
+      <c r="AH20" s="264"/>
+      <c r="AI20" s="264"/>
+      <c r="AJ20" s="264"/>
+      <c r="AK20" s="264"/>
+      <c r="AL20" s="264"/>
+      <c r="AM20" s="265"/>
+      <c r="AN20" s="266"/>
+      <c r="AO20" s="267"/>
+      <c r="AP20" s="267"/>
+      <c r="AQ20" s="267"/>
+      <c r="AR20" s="268"/>
+      <c r="AS20" s="266"/>
+      <c r="AT20" s="267"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="267"/>
+      <c r="AW20" s="268"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="241"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="244"/>
-      <c r="J21" s="245"/>
-      <c r="K21" s="246"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
-      <c r="R21" s="257"/>
-      <c r="S21" s="251"/>
-      <c r="T21" s="251"/>
-      <c r="U21" s="251"/>
-      <c r="V21" s="252"/>
-      <c r="W21" s="253"/>
-      <c r="X21" s="253"/>
-      <c r="Y21" s="253"/>
-      <c r="Z21" s="253"/>
-      <c r="AA21" s="253"/>
-      <c r="AB21" s="253"/>
-      <c r="AC21" s="253"/>
-      <c r="AD21" s="253"/>
-      <c r="AE21" s="253"/>
-      <c r="AF21" s="253"/>
-      <c r="AG21" s="253"/>
-      <c r="AH21" s="253"/>
-      <c r="AI21" s="253"/>
-      <c r="AJ21" s="253"/>
-      <c r="AK21" s="253"/>
-      <c r="AL21" s="253"/>
-      <c r="AM21" s="254"/>
-      <c r="AN21" s="238"/>
-      <c r="AO21" s="239"/>
-      <c r="AP21" s="239"/>
-      <c r="AQ21" s="239"/>
-      <c r="AR21" s="240"/>
-      <c r="AS21" s="238"/>
-      <c r="AT21" s="239"/>
-      <c r="AU21" s="239"/>
-      <c r="AV21" s="239"/>
-      <c r="AW21" s="240"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="247"/>
+      <c r="T21" s="247"/>
+      <c r="U21" s="247"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="264"/>
+      <c r="X21" s="264"/>
+      <c r="Y21" s="264"/>
+      <c r="Z21" s="264"/>
+      <c r="AA21" s="264"/>
+      <c r="AB21" s="264"/>
+      <c r="AC21" s="264"/>
+      <c r="AD21" s="264"/>
+      <c r="AE21" s="264"/>
+      <c r="AF21" s="264"/>
+      <c r="AG21" s="264"/>
+      <c r="AH21" s="264"/>
+      <c r="AI21" s="264"/>
+      <c r="AJ21" s="264"/>
+      <c r="AK21" s="264"/>
+      <c r="AL21" s="264"/>
+      <c r="AM21" s="265"/>
+      <c r="AN21" s="266"/>
+      <c r="AO21" s="267"/>
+      <c r="AP21" s="267"/>
+      <c r="AQ21" s="267"/>
+      <c r="AR21" s="268"/>
+      <c r="AS21" s="266"/>
+      <c r="AT21" s="267"/>
+      <c r="AU21" s="267"/>
+      <c r="AV21" s="267"/>
+      <c r="AW21" s="268"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="241"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="246"/>
-      <c r="L22" s="247"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
-      <c r="R22" s="257"/>
-      <c r="S22" s="251"/>
-      <c r="T22" s="251"/>
-      <c r="U22" s="251"/>
-      <c r="V22" s="252"/>
-      <c r="W22" s="253"/>
-      <c r="X22" s="253"/>
-      <c r="Y22" s="253"/>
-      <c r="Z22" s="253"/>
-      <c r="AA22" s="253"/>
-      <c r="AB22" s="253"/>
-      <c r="AC22" s="253"/>
-      <c r="AD22" s="253"/>
-      <c r="AE22" s="253"/>
-      <c r="AF22" s="253"/>
-      <c r="AG22" s="253"/>
-      <c r="AH22" s="253"/>
-      <c r="AI22" s="253"/>
-      <c r="AJ22" s="253"/>
-      <c r="AK22" s="253"/>
-      <c r="AL22" s="253"/>
-      <c r="AM22" s="254"/>
-      <c r="AN22" s="238"/>
-      <c r="AO22" s="239"/>
-      <c r="AP22" s="239"/>
-      <c r="AQ22" s="239"/>
-      <c r="AR22" s="240"/>
-      <c r="AS22" s="238"/>
-      <c r="AT22" s="239"/>
-      <c r="AU22" s="239"/>
-      <c r="AV22" s="239"/>
-      <c r="AW22" s="240"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="247"/>
+      <c r="T22" s="247"/>
+      <c r="U22" s="247"/>
+      <c r="V22" s="263"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264"/>
+      <c r="Y22" s="264"/>
+      <c r="Z22" s="264"/>
+      <c r="AA22" s="264"/>
+      <c r="AB22" s="264"/>
+      <c r="AC22" s="264"/>
+      <c r="AD22" s="264"/>
+      <c r="AE22" s="264"/>
+      <c r="AF22" s="264"/>
+      <c r="AG22" s="264"/>
+      <c r="AH22" s="264"/>
+      <c r="AI22" s="264"/>
+      <c r="AJ22" s="264"/>
+      <c r="AK22" s="264"/>
+      <c r="AL22" s="264"/>
+      <c r="AM22" s="265"/>
+      <c r="AN22" s="266"/>
+      <c r="AO22" s="267"/>
+      <c r="AP22" s="267"/>
+      <c r="AQ22" s="267"/>
+      <c r="AR22" s="268"/>
+      <c r="AS22" s="266"/>
+      <c r="AT22" s="267"/>
+      <c r="AU22" s="267"/>
+      <c r="AV22" s="267"/>
+      <c r="AW22" s="268"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="241"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="251"/>
-      <c r="T23" s="251"/>
-      <c r="U23" s="251"/>
-      <c r="V23" s="252"/>
-      <c r="W23" s="253"/>
-      <c r="X23" s="253"/>
-      <c r="Y23" s="253"/>
-      <c r="Z23" s="253"/>
-      <c r="AA23" s="253"/>
-      <c r="AB23" s="253"/>
-      <c r="AC23" s="253"/>
-      <c r="AD23" s="253"/>
-      <c r="AE23" s="253"/>
-      <c r="AF23" s="253"/>
-      <c r="AG23" s="253"/>
-      <c r="AH23" s="253"/>
-      <c r="AI23" s="253"/>
-      <c r="AJ23" s="253"/>
-      <c r="AK23" s="253"/>
-      <c r="AL23" s="253"/>
-      <c r="AM23" s="254"/>
-      <c r="AN23" s="238"/>
-      <c r="AO23" s="239"/>
-      <c r="AP23" s="239"/>
-      <c r="AQ23" s="239"/>
-      <c r="AR23" s="240"/>
-      <c r="AS23" s="238"/>
-      <c r="AT23" s="239"/>
-      <c r="AU23" s="239"/>
-      <c r="AV23" s="239"/>
-      <c r="AW23" s="240"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="247"/>
+      <c r="T23" s="247"/>
+      <c r="U23" s="247"/>
+      <c r="V23" s="263"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
+      <c r="Y23" s="264"/>
+      <c r="Z23" s="264"/>
+      <c r="AA23" s="264"/>
+      <c r="AB23" s="264"/>
+      <c r="AC23" s="264"/>
+      <c r="AD23" s="264"/>
+      <c r="AE23" s="264"/>
+      <c r="AF23" s="264"/>
+      <c r="AG23" s="264"/>
+      <c r="AH23" s="264"/>
+      <c r="AI23" s="264"/>
+      <c r="AJ23" s="264"/>
+      <c r="AK23" s="264"/>
+      <c r="AL23" s="264"/>
+      <c r="AM23" s="265"/>
+      <c r="AN23" s="266"/>
+      <c r="AO23" s="267"/>
+      <c r="AP23" s="267"/>
+      <c r="AQ23" s="267"/>
+      <c r="AR23" s="268"/>
+      <c r="AS23" s="266"/>
+      <c r="AT23" s="267"/>
+      <c r="AU23" s="267"/>
+      <c r="AV23" s="267"/>
+      <c r="AW23" s="268"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="241"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="246"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="256"/>
-      <c r="P24" s="256"/>
-      <c r="Q24" s="256"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="251"/>
-      <c r="T24" s="251"/>
-      <c r="U24" s="251"/>
-      <c r="V24" s="252"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="253"/>
-      <c r="Y24" s="253"/>
-      <c r="Z24" s="253"/>
-      <c r="AA24" s="253"/>
-      <c r="AB24" s="253"/>
-      <c r="AC24" s="253"/>
-      <c r="AD24" s="253"/>
-      <c r="AE24" s="253"/>
-      <c r="AF24" s="253"/>
-      <c r="AG24" s="253"/>
-      <c r="AH24" s="253"/>
-      <c r="AI24" s="253"/>
-      <c r="AJ24" s="253"/>
-      <c r="AK24" s="253"/>
-      <c r="AL24" s="253"/>
-      <c r="AM24" s="254"/>
-      <c r="AN24" s="238"/>
-      <c r="AO24" s="239"/>
-      <c r="AP24" s="239"/>
-      <c r="AQ24" s="239"/>
-      <c r="AR24" s="240"/>
-      <c r="AS24" s="238"/>
-      <c r="AT24" s="239"/>
-      <c r="AU24" s="239"/>
-      <c r="AV24" s="239"/>
-      <c r="AW24" s="240"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="247"/>
+      <c r="T24" s="247"/>
+      <c r="U24" s="247"/>
+      <c r="V24" s="263"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
+      <c r="Y24" s="264"/>
+      <c r="Z24" s="264"/>
+      <c r="AA24" s="264"/>
+      <c r="AB24" s="264"/>
+      <c r="AC24" s="264"/>
+      <c r="AD24" s="264"/>
+      <c r="AE24" s="264"/>
+      <c r="AF24" s="264"/>
+      <c r="AG24" s="264"/>
+      <c r="AH24" s="264"/>
+      <c r="AI24" s="264"/>
+      <c r="AJ24" s="264"/>
+      <c r="AK24" s="264"/>
+      <c r="AL24" s="264"/>
+      <c r="AM24" s="265"/>
+      <c r="AN24" s="266"/>
+      <c r="AO24" s="267"/>
+      <c r="AP24" s="267"/>
+      <c r="AQ24" s="267"/>
+      <c r="AR24" s="268"/>
+      <c r="AS24" s="266"/>
+      <c r="AT24" s="267"/>
+      <c r="AU24" s="267"/>
+      <c r="AV24" s="267"/>
+      <c r="AW24" s="268"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="241"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="244"/>
-      <c r="H25" s="244"/>
-      <c r="I25" s="244"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="246"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="255"/>
-      <c r="N25" s="256"/>
-      <c r="O25" s="256"/>
-      <c r="P25" s="256"/>
-      <c r="Q25" s="256"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="251"/>
-      <c r="T25" s="251"/>
-      <c r="U25" s="251"/>
-      <c r="V25" s="252"/>
-      <c r="W25" s="253"/>
-      <c r="X25" s="253"/>
-      <c r="Y25" s="253"/>
-      <c r="Z25" s="253"/>
-      <c r="AA25" s="253"/>
-      <c r="AB25" s="253"/>
-      <c r="AC25" s="253"/>
-      <c r="AD25" s="253"/>
-      <c r="AE25" s="253"/>
-      <c r="AF25" s="253"/>
-      <c r="AG25" s="253"/>
-      <c r="AH25" s="253"/>
-      <c r="AI25" s="253"/>
-      <c r="AJ25" s="253"/>
-      <c r="AK25" s="253"/>
-      <c r="AL25" s="253"/>
-      <c r="AM25" s="254"/>
-      <c r="AN25" s="238"/>
-      <c r="AO25" s="239"/>
-      <c r="AP25" s="239"/>
-      <c r="AQ25" s="239"/>
-      <c r="AR25" s="240"/>
-      <c r="AS25" s="238"/>
-      <c r="AT25" s="239"/>
-      <c r="AU25" s="239"/>
-      <c r="AV25" s="239"/>
-      <c r="AW25" s="240"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="247"/>
+      <c r="T25" s="247"/>
+      <c r="U25" s="247"/>
+      <c r="V25" s="263"/>
+      <c r="W25" s="264"/>
+      <c r="X25" s="264"/>
+      <c r="Y25" s="264"/>
+      <c r="Z25" s="264"/>
+      <c r="AA25" s="264"/>
+      <c r="AB25" s="264"/>
+      <c r="AC25" s="264"/>
+      <c r="AD25" s="264"/>
+      <c r="AE25" s="264"/>
+      <c r="AF25" s="264"/>
+      <c r="AG25" s="264"/>
+      <c r="AH25" s="264"/>
+      <c r="AI25" s="264"/>
+      <c r="AJ25" s="264"/>
+      <c r="AK25" s="264"/>
+      <c r="AL25" s="264"/>
+      <c r="AM25" s="265"/>
+      <c r="AN25" s="266"/>
+      <c r="AO25" s="267"/>
+      <c r="AP25" s="267"/>
+      <c r="AQ25" s="267"/>
+      <c r="AR25" s="268"/>
+      <c r="AS25" s="266"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="268"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="244"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="255"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="256"/>
-      <c r="P26" s="256"/>
-      <c r="Q26" s="256"/>
-      <c r="R26" s="257"/>
-      <c r="S26" s="251"/>
-      <c r="T26" s="251"/>
-      <c r="U26" s="251"/>
-      <c r="V26" s="252"/>
-      <c r="W26" s="253"/>
-      <c r="X26" s="253"/>
-      <c r="Y26" s="253"/>
-      <c r="Z26" s="253"/>
-      <c r="AA26" s="253"/>
-      <c r="AB26" s="253"/>
-      <c r="AC26" s="253"/>
-      <c r="AD26" s="253"/>
-      <c r="AE26" s="253"/>
-      <c r="AF26" s="253"/>
-      <c r="AG26" s="253"/>
-      <c r="AH26" s="253"/>
-      <c r="AI26" s="253"/>
-      <c r="AJ26" s="253"/>
-      <c r="AK26" s="253"/>
-      <c r="AL26" s="253"/>
-      <c r="AM26" s="254"/>
-      <c r="AN26" s="238"/>
-      <c r="AO26" s="239"/>
-      <c r="AP26" s="239"/>
-      <c r="AQ26" s="239"/>
-      <c r="AR26" s="240"/>
-      <c r="AS26" s="238"/>
-      <c r="AT26" s="239"/>
-      <c r="AU26" s="239"/>
-      <c r="AV26" s="239"/>
-      <c r="AW26" s="240"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="262"/>
+      <c r="S26" s="247"/>
+      <c r="T26" s="247"/>
+      <c r="U26" s="247"/>
+      <c r="V26" s="263"/>
+      <c r="W26" s="264"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="264"/>
+      <c r="Z26" s="264"/>
+      <c r="AA26" s="264"/>
+      <c r="AB26" s="264"/>
+      <c r="AC26" s="264"/>
+      <c r="AD26" s="264"/>
+      <c r="AE26" s="264"/>
+      <c r="AF26" s="264"/>
+      <c r="AG26" s="264"/>
+      <c r="AH26" s="264"/>
+      <c r="AI26" s="264"/>
+      <c r="AJ26" s="264"/>
+      <c r="AK26" s="264"/>
+      <c r="AL26" s="264"/>
+      <c r="AM26" s="265"/>
+      <c r="AN26" s="266"/>
+      <c r="AO26" s="267"/>
+      <c r="AP26" s="267"/>
+      <c r="AQ26" s="267"/>
+      <c r="AR26" s="268"/>
+      <c r="AS26" s="266"/>
+      <c r="AT26" s="267"/>
+      <c r="AU26" s="267"/>
+      <c r="AV26" s="267"/>
+      <c r="AW26" s="268"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="255"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="256"/>
-      <c r="Q27" s="256"/>
-      <c r="R27" s="257"/>
-      <c r="S27" s="251"/>
-      <c r="T27" s="251"/>
-      <c r="U27" s="251"/>
-      <c r="V27" s="252"/>
-      <c r="W27" s="253"/>
-      <c r="X27" s="253"/>
-      <c r="Y27" s="253"/>
-      <c r="Z27" s="253"/>
-      <c r="AA27" s="253"/>
-      <c r="AB27" s="253"/>
-      <c r="AC27" s="253"/>
-      <c r="AD27" s="253"/>
-      <c r="AE27" s="253"/>
-      <c r="AF27" s="253"/>
-      <c r="AG27" s="253"/>
-      <c r="AH27" s="253"/>
-      <c r="AI27" s="253"/>
-      <c r="AJ27" s="253"/>
-      <c r="AK27" s="253"/>
-      <c r="AL27" s="253"/>
-      <c r="AM27" s="254"/>
-      <c r="AN27" s="238"/>
-      <c r="AO27" s="239"/>
-      <c r="AP27" s="239"/>
-      <c r="AQ27" s="239"/>
-      <c r="AR27" s="240"/>
-      <c r="AS27" s="238"/>
-      <c r="AT27" s="239"/>
-      <c r="AU27" s="239"/>
-      <c r="AV27" s="239"/>
-      <c r="AW27" s="240"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="271"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="262"/>
+      <c r="S27" s="247"/>
+      <c r="T27" s="247"/>
+      <c r="U27" s="247"/>
+      <c r="V27" s="263"/>
+      <c r="W27" s="264"/>
+      <c r="X27" s="264"/>
+      <c r="Y27" s="264"/>
+      <c r="Z27" s="264"/>
+      <c r="AA27" s="264"/>
+      <c r="AB27" s="264"/>
+      <c r="AC27" s="264"/>
+      <c r="AD27" s="264"/>
+      <c r="AE27" s="264"/>
+      <c r="AF27" s="264"/>
+      <c r="AG27" s="264"/>
+      <c r="AH27" s="264"/>
+      <c r="AI27" s="264"/>
+      <c r="AJ27" s="264"/>
+      <c r="AK27" s="264"/>
+      <c r="AL27" s="264"/>
+      <c r="AM27" s="265"/>
+      <c r="AN27" s="266"/>
+      <c r="AO27" s="267"/>
+      <c r="AP27" s="267"/>
+      <c r="AQ27" s="267"/>
+      <c r="AR27" s="268"/>
+      <c r="AS27" s="266"/>
+      <c r="AT27" s="267"/>
+      <c r="AU27" s="267"/>
+      <c r="AV27" s="267"/>
+      <c r="AW27" s="268"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="241"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="258"/>
-      <c r="N28" s="256"/>
-      <c r="O28" s="256"/>
-      <c r="P28" s="256"/>
-      <c r="Q28" s="256"/>
-      <c r="R28" s="257"/>
-      <c r="S28" s="251"/>
-      <c r="T28" s="251"/>
-      <c r="U28" s="251"/>
-      <c r="V28" s="252"/>
-      <c r="W28" s="253"/>
-      <c r="X28" s="253"/>
-      <c r="Y28" s="253"/>
-      <c r="Z28" s="253"/>
-      <c r="AA28" s="253"/>
-      <c r="AB28" s="253"/>
-      <c r="AC28" s="253"/>
-      <c r="AD28" s="253"/>
-      <c r="AE28" s="253"/>
-      <c r="AF28" s="253"/>
-      <c r="AG28" s="253"/>
-      <c r="AH28" s="253"/>
-      <c r="AI28" s="253"/>
-      <c r="AJ28" s="253"/>
-      <c r="AK28" s="253"/>
-      <c r="AL28" s="253"/>
-      <c r="AM28" s="254"/>
-      <c r="AN28" s="238"/>
-      <c r="AO28" s="239"/>
-      <c r="AP28" s="239"/>
-      <c r="AQ28" s="239"/>
-      <c r="AR28" s="240"/>
-      <c r="AS28" s="238"/>
-      <c r="AT28" s="239"/>
-      <c r="AU28" s="239"/>
-      <c r="AV28" s="239"/>
-      <c r="AW28" s="240"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="260"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="262"/>
+      <c r="S28" s="247"/>
+      <c r="T28" s="247"/>
+      <c r="U28" s="247"/>
+      <c r="V28" s="263"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="264"/>
+      <c r="Z28" s="264"/>
+      <c r="AA28" s="264"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="264"/>
+      <c r="AD28" s="264"/>
+      <c r="AE28" s="264"/>
+      <c r="AF28" s="264"/>
+      <c r="AG28" s="264"/>
+      <c r="AH28" s="264"/>
+      <c r="AI28" s="264"/>
+      <c r="AJ28" s="264"/>
+      <c r="AK28" s="264"/>
+      <c r="AL28" s="264"/>
+      <c r="AM28" s="265"/>
+      <c r="AN28" s="266"/>
+      <c r="AO28" s="267"/>
+      <c r="AP28" s="267"/>
+      <c r="AQ28" s="267"/>
+      <c r="AR28" s="268"/>
+      <c r="AS28" s="266"/>
+      <c r="AT28" s="267"/>
+      <c r="AU28" s="267"/>
+      <c r="AV28" s="267"/>
+      <c r="AW28" s="268"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="244"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="258"/>
-      <c r="N29" s="256"/>
-      <c r="O29" s="256"/>
-      <c r="P29" s="256"/>
-      <c r="Q29" s="256"/>
-      <c r="R29" s="257"/>
-      <c r="S29" s="251"/>
-      <c r="T29" s="251"/>
-      <c r="U29" s="251"/>
-      <c r="V29" s="252"/>
-      <c r="W29" s="253"/>
-      <c r="X29" s="253"/>
-      <c r="Y29" s="253"/>
-      <c r="Z29" s="253"/>
-      <c r="AA29" s="253"/>
-      <c r="AB29" s="253"/>
-      <c r="AC29" s="253"/>
-      <c r="AD29" s="253"/>
-      <c r="AE29" s="253"/>
-      <c r="AF29" s="253"/>
-      <c r="AG29" s="253"/>
-      <c r="AH29" s="253"/>
-      <c r="AI29" s="253"/>
-      <c r="AJ29" s="253"/>
-      <c r="AK29" s="253"/>
-      <c r="AL29" s="253"/>
-      <c r="AM29" s="254"/>
-      <c r="AN29" s="238"/>
-      <c r="AO29" s="239"/>
-      <c r="AP29" s="239"/>
-      <c r="AQ29" s="239"/>
-      <c r="AR29" s="240"/>
-      <c r="AS29" s="238"/>
-      <c r="AT29" s="239"/>
-      <c r="AU29" s="239"/>
-      <c r="AV29" s="239"/>
-      <c r="AW29" s="240"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="260"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="247"/>
+      <c r="T29" s="247"/>
+      <c r="U29" s="247"/>
+      <c r="V29" s="263"/>
+      <c r="W29" s="264"/>
+      <c r="X29" s="264"/>
+      <c r="Y29" s="264"/>
+      <c r="Z29" s="264"/>
+      <c r="AA29" s="264"/>
+      <c r="AB29" s="264"/>
+      <c r="AC29" s="264"/>
+      <c r="AD29" s="264"/>
+      <c r="AE29" s="264"/>
+      <c r="AF29" s="264"/>
+      <c r="AG29" s="264"/>
+      <c r="AH29" s="264"/>
+      <c r="AI29" s="264"/>
+      <c r="AJ29" s="264"/>
+      <c r="AK29" s="264"/>
+      <c r="AL29" s="264"/>
+      <c r="AM29" s="265"/>
+      <c r="AN29" s="266"/>
+      <c r="AO29" s="267"/>
+      <c r="AP29" s="267"/>
+      <c r="AQ29" s="267"/>
+      <c r="AR29" s="268"/>
+      <c r="AS29" s="266"/>
+      <c r="AT29" s="267"/>
+      <c r="AU29" s="267"/>
+      <c r="AV29" s="267"/>
+      <c r="AW29" s="268"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="241"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
-      <c r="J30" s="245"/>
-      <c r="K30" s="246"/>
-      <c r="L30" s="247"/>
-      <c r="M30" s="255"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256"/>
-      <c r="P30" s="256"/>
-      <c r="Q30" s="256"/>
-      <c r="R30" s="257"/>
-      <c r="S30" s="251"/>
-      <c r="T30" s="251"/>
-      <c r="U30" s="251"/>
-      <c r="V30" s="252"/>
-      <c r="W30" s="253"/>
-      <c r="X30" s="253"/>
-      <c r="Y30" s="253"/>
-      <c r="Z30" s="253"/>
-      <c r="AA30" s="253"/>
-      <c r="AB30" s="253"/>
-      <c r="AC30" s="253"/>
-      <c r="AD30" s="253"/>
-      <c r="AE30" s="253"/>
-      <c r="AF30" s="253"/>
-      <c r="AG30" s="253"/>
-      <c r="AH30" s="253"/>
-      <c r="AI30" s="253"/>
-      <c r="AJ30" s="253"/>
-      <c r="AK30" s="253"/>
-      <c r="AL30" s="253"/>
-      <c r="AM30" s="254"/>
-      <c r="AN30" s="238"/>
-      <c r="AO30" s="239"/>
-      <c r="AP30" s="239"/>
-      <c r="AQ30" s="239"/>
-      <c r="AR30" s="240"/>
-      <c r="AS30" s="238"/>
-      <c r="AT30" s="239"/>
-      <c r="AU30" s="239"/>
-      <c r="AV30" s="239"/>
-      <c r="AW30" s="240"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="271"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="247"/>
+      <c r="T30" s="247"/>
+      <c r="U30" s="247"/>
+      <c r="V30" s="263"/>
+      <c r="W30" s="264"/>
+      <c r="X30" s="264"/>
+      <c r="Y30" s="264"/>
+      <c r="Z30" s="264"/>
+      <c r="AA30" s="264"/>
+      <c r="AB30" s="264"/>
+      <c r="AC30" s="264"/>
+      <c r="AD30" s="264"/>
+      <c r="AE30" s="264"/>
+      <c r="AF30" s="264"/>
+      <c r="AG30" s="264"/>
+      <c r="AH30" s="264"/>
+      <c r="AI30" s="264"/>
+      <c r="AJ30" s="264"/>
+      <c r="AK30" s="264"/>
+      <c r="AL30" s="264"/>
+      <c r="AM30" s="265"/>
+      <c r="AN30" s="266"/>
+      <c r="AO30" s="267"/>
+      <c r="AP30" s="267"/>
+      <c r="AQ30" s="267"/>
+      <c r="AR30" s="268"/>
+      <c r="AS30" s="266"/>
+      <c r="AT30" s="267"/>
+      <c r="AU30" s="267"/>
+      <c r="AV30" s="267"/>
+      <c r="AW30" s="268"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="246"/>
-      <c r="L31" s="247"/>
-      <c r="M31" s="255"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="256"/>
-      <c r="P31" s="256"/>
-      <c r="Q31" s="256"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="251"/>
-      <c r="T31" s="251"/>
-      <c r="U31" s="251"/>
-      <c r="V31" s="252"/>
-      <c r="W31" s="253"/>
-      <c r="X31" s="253"/>
-      <c r="Y31" s="253"/>
-      <c r="Z31" s="253"/>
-      <c r="AA31" s="253"/>
-      <c r="AB31" s="253"/>
-      <c r="AC31" s="253"/>
-      <c r="AD31" s="253"/>
-      <c r="AE31" s="253"/>
-      <c r="AF31" s="253"/>
-      <c r="AG31" s="253"/>
-      <c r="AH31" s="253"/>
-      <c r="AI31" s="253"/>
-      <c r="AJ31" s="253"/>
-      <c r="AK31" s="253"/>
-      <c r="AL31" s="253"/>
-      <c r="AM31" s="254"/>
-      <c r="AN31" s="238"/>
-      <c r="AO31" s="239"/>
-      <c r="AP31" s="239"/>
-      <c r="AQ31" s="239"/>
-      <c r="AR31" s="240"/>
-      <c r="AS31" s="238"/>
-      <c r="AT31" s="239"/>
-      <c r="AU31" s="239"/>
-      <c r="AV31" s="239"/>
-      <c r="AW31" s="240"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="247"/>
+      <c r="T31" s="247"/>
+      <c r="U31" s="247"/>
+      <c r="V31" s="263"/>
+      <c r="W31" s="264"/>
+      <c r="X31" s="264"/>
+      <c r="Y31" s="264"/>
+      <c r="Z31" s="264"/>
+      <c r="AA31" s="264"/>
+      <c r="AB31" s="264"/>
+      <c r="AC31" s="264"/>
+      <c r="AD31" s="264"/>
+      <c r="AE31" s="264"/>
+      <c r="AF31" s="264"/>
+      <c r="AG31" s="264"/>
+      <c r="AH31" s="264"/>
+      <c r="AI31" s="264"/>
+      <c r="AJ31" s="264"/>
+      <c r="AK31" s="264"/>
+      <c r="AL31" s="264"/>
+      <c r="AM31" s="265"/>
+      <c r="AN31" s="266"/>
+      <c r="AO31" s="267"/>
+      <c r="AP31" s="267"/>
+      <c r="AQ31" s="267"/>
+      <c r="AR31" s="268"/>
+      <c r="AS31" s="266"/>
+      <c r="AT31" s="267"/>
+      <c r="AU31" s="267"/>
+      <c r="AV31" s="267"/>
+      <c r="AW31" s="268"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="241"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="245"/>
-      <c r="K32" s="246"/>
-      <c r="L32" s="247"/>
-      <c r="M32" s="255"/>
-      <c r="N32" s="256"/>
-      <c r="O32" s="256"/>
-      <c r="P32" s="256"/>
-      <c r="Q32" s="256"/>
-      <c r="R32" s="257"/>
-      <c r="S32" s="251"/>
-      <c r="T32" s="251"/>
-      <c r="U32" s="251"/>
-      <c r="V32" s="252"/>
-      <c r="W32" s="253"/>
-      <c r="X32" s="253"/>
-      <c r="Y32" s="253"/>
-      <c r="Z32" s="253"/>
-      <c r="AA32" s="253"/>
-      <c r="AB32" s="253"/>
-      <c r="AC32" s="253"/>
-      <c r="AD32" s="253"/>
-      <c r="AE32" s="253"/>
-      <c r="AF32" s="253"/>
-      <c r="AG32" s="253"/>
-      <c r="AH32" s="253"/>
-      <c r="AI32" s="253"/>
-      <c r="AJ32" s="253"/>
-      <c r="AK32" s="253"/>
-      <c r="AL32" s="253"/>
-      <c r="AM32" s="254"/>
-      <c r="AN32" s="238"/>
-      <c r="AO32" s="239"/>
-      <c r="AP32" s="239"/>
-      <c r="AQ32" s="239"/>
-      <c r="AR32" s="240"/>
-      <c r="AS32" s="238"/>
-      <c r="AT32" s="239"/>
-      <c r="AU32" s="239"/>
-      <c r="AV32" s="239"/>
-      <c r="AW32" s="240"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="271"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="247"/>
+      <c r="T32" s="247"/>
+      <c r="U32" s="247"/>
+      <c r="V32" s="263"/>
+      <c r="W32" s="264"/>
+      <c r="X32" s="264"/>
+      <c r="Y32" s="264"/>
+      <c r="Z32" s="264"/>
+      <c r="AA32" s="264"/>
+      <c r="AB32" s="264"/>
+      <c r="AC32" s="264"/>
+      <c r="AD32" s="264"/>
+      <c r="AE32" s="264"/>
+      <c r="AF32" s="264"/>
+      <c r="AG32" s="264"/>
+      <c r="AH32" s="264"/>
+      <c r="AI32" s="264"/>
+      <c r="AJ32" s="264"/>
+      <c r="AK32" s="264"/>
+      <c r="AL32" s="264"/>
+      <c r="AM32" s="265"/>
+      <c r="AN32" s="266"/>
+      <c r="AO32" s="267"/>
+      <c r="AP32" s="267"/>
+      <c r="AQ32" s="267"/>
+      <c r="AR32" s="268"/>
+      <c r="AS32" s="266"/>
+      <c r="AT32" s="267"/>
+      <c r="AU32" s="267"/>
+      <c r="AV32" s="267"/>
+      <c r="AW32" s="268"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="241"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="244"/>
-      <c r="J33" s="245"/>
-      <c r="K33" s="246"/>
-      <c r="L33" s="247"/>
-      <c r="M33" s="255"/>
-      <c r="N33" s="256"/>
-      <c r="O33" s="256"/>
-      <c r="P33" s="256"/>
-      <c r="Q33" s="256"/>
-      <c r="R33" s="257"/>
-      <c r="S33" s="251"/>
-      <c r="T33" s="251"/>
-      <c r="U33" s="251"/>
-      <c r="V33" s="252"/>
-      <c r="W33" s="253"/>
-      <c r="X33" s="253"/>
-      <c r="Y33" s="253"/>
-      <c r="Z33" s="253"/>
-      <c r="AA33" s="253"/>
-      <c r="AB33" s="253"/>
-      <c r="AC33" s="253"/>
-      <c r="AD33" s="253"/>
-      <c r="AE33" s="253"/>
-      <c r="AF33" s="253"/>
-      <c r="AG33" s="253"/>
-      <c r="AH33" s="253"/>
-      <c r="AI33" s="253"/>
-      <c r="AJ33" s="253"/>
-      <c r="AK33" s="253"/>
-      <c r="AL33" s="253"/>
-      <c r="AM33" s="254"/>
-      <c r="AN33" s="238"/>
-      <c r="AO33" s="239"/>
-      <c r="AP33" s="239"/>
-      <c r="AQ33" s="239"/>
-      <c r="AR33" s="240"/>
-      <c r="AS33" s="238"/>
-      <c r="AT33" s="239"/>
-      <c r="AU33" s="239"/>
-      <c r="AV33" s="239"/>
-      <c r="AW33" s="240"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="258"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="247"/>
+      <c r="T33" s="247"/>
+      <c r="U33" s="247"/>
+      <c r="V33" s="263"/>
+      <c r="W33" s="264"/>
+      <c r="X33" s="264"/>
+      <c r="Y33" s="264"/>
+      <c r="Z33" s="264"/>
+      <c r="AA33" s="264"/>
+      <c r="AB33" s="264"/>
+      <c r="AC33" s="264"/>
+      <c r="AD33" s="264"/>
+      <c r="AE33" s="264"/>
+      <c r="AF33" s="264"/>
+      <c r="AG33" s="264"/>
+      <c r="AH33" s="264"/>
+      <c r="AI33" s="264"/>
+      <c r="AJ33" s="264"/>
+      <c r="AK33" s="264"/>
+      <c r="AL33" s="264"/>
+      <c r="AM33" s="265"/>
+      <c r="AN33" s="266"/>
+      <c r="AO33" s="267"/>
+      <c r="AP33" s="267"/>
+      <c r="AQ33" s="267"/>
+      <c r="AR33" s="268"/>
+      <c r="AS33" s="266"/>
+      <c r="AT33" s="267"/>
+      <c r="AU33" s="267"/>
+      <c r="AV33" s="267"/>
+      <c r="AW33" s="268"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="244"/>
-      <c r="J34" s="245"/>
-      <c r="K34" s="246"/>
-      <c r="L34" s="247"/>
-      <c r="M34" s="248"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="249"/>
-      <c r="P34" s="249"/>
-      <c r="Q34" s="249"/>
-      <c r="R34" s="250"/>
-      <c r="S34" s="251"/>
-      <c r="T34" s="251"/>
-      <c r="U34" s="251"/>
-      <c r="V34" s="252"/>
-      <c r="W34" s="253"/>
-      <c r="X34" s="253"/>
-      <c r="Y34" s="253"/>
-      <c r="Z34" s="253"/>
-      <c r="AA34" s="253"/>
-      <c r="AB34" s="253"/>
-      <c r="AC34" s="253"/>
-      <c r="AD34" s="253"/>
-      <c r="AE34" s="253"/>
-      <c r="AF34" s="253"/>
-      <c r="AG34" s="253"/>
-      <c r="AH34" s="253"/>
-      <c r="AI34" s="253"/>
-      <c r="AJ34" s="253"/>
-      <c r="AK34" s="253"/>
-      <c r="AL34" s="253"/>
-      <c r="AM34" s="254"/>
-      <c r="AN34" s="238"/>
-      <c r="AO34" s="239"/>
-      <c r="AP34" s="239"/>
-      <c r="AQ34" s="239"/>
-      <c r="AR34" s="240"/>
-      <c r="AS34" s="238"/>
-      <c r="AT34" s="239"/>
-      <c r="AU34" s="239"/>
-      <c r="AV34" s="239"/>
-      <c r="AW34" s="240"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="276"/>
+      <c r="O34" s="276"/>
+      <c r="P34" s="276"/>
+      <c r="Q34" s="276"/>
+      <c r="R34" s="277"/>
+      <c r="S34" s="247"/>
+      <c r="T34" s="247"/>
+      <c r="U34" s="247"/>
+      <c r="V34" s="263"/>
+      <c r="W34" s="264"/>
+      <c r="X34" s="264"/>
+      <c r="Y34" s="264"/>
+      <c r="Z34" s="264"/>
+      <c r="AA34" s="264"/>
+      <c r="AB34" s="264"/>
+      <c r="AC34" s="264"/>
+      <c r="AD34" s="264"/>
+      <c r="AE34" s="264"/>
+      <c r="AF34" s="264"/>
+      <c r="AG34" s="264"/>
+      <c r="AH34" s="264"/>
+      <c r="AI34" s="264"/>
+      <c r="AJ34" s="264"/>
+      <c r="AK34" s="264"/>
+      <c r="AL34" s="264"/>
+      <c r="AM34" s="265"/>
+      <c r="AN34" s="266"/>
+      <c r="AO34" s="267"/>
+      <c r="AP34" s="267"/>
+      <c r="AQ34" s="267"/>
+      <c r="AR34" s="268"/>
+      <c r="AS34" s="266"/>
+      <c r="AT34" s="267"/>
+      <c r="AU34" s="267"/>
+      <c r="AV34" s="267"/>
+      <c r="AW34" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -8942,230 +9178,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9297,14 +9318,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="92"/>
       <c r="W2" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -9426,7 +9447,7 @@
     </row>
     <row r="8" spans="1:59" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -11194,7 +11215,7 @@
       <c r="I51" s="194"/>
       <c r="J51" s="195"/>
       <c r="K51" s="193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L51" s="194"/>
       <c r="M51" s="194"/>
@@ -11226,7 +11247,7 @@
       <c r="AK51" s="280"/>
       <c r="AL51" s="281"/>
       <c r="AM51" s="196" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN51" s="173"/>
       <c r="AO51" s="173"/>
@@ -11263,7 +11284,7 @@
       </c>
       <c r="C52" s="279"/>
       <c r="D52" s="193" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E52" s="194"/>
       <c r="F52" s="194"/>
@@ -11272,7 +11293,7 @@
       <c r="I52" s="194"/>
       <c r="J52" s="195"/>
       <c r="K52" s="193" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L52" s="194"/>
       <c r="M52" s="194"/>
@@ -11304,7 +11325,7 @@
       <c r="AK52" s="197"/>
       <c r="AL52" s="198"/>
       <c r="AM52" s="196" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN52" s="173"/>
       <c r="AO52" s="173"/>
@@ -11341,7 +11362,7 @@
       </c>
       <c r="C53" s="279"/>
       <c r="D53" s="193" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" s="194"/>
       <c r="F53" s="194"/>
@@ -11350,7 +11371,7 @@
       <c r="I53" s="194"/>
       <c r="J53" s="195"/>
       <c r="K53" s="193" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L53" s="194"/>
       <c r="M53" s="194"/>
@@ -11382,7 +11403,7 @@
       <c r="AK53" s="212"/>
       <c r="AL53" s="213"/>
       <c r="AM53" s="196" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN53" s="173"/>
       <c r="AO53" s="173"/>
@@ -11924,22 +11945,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="271" t="s">
+      <c r="C6" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="271" t="s">
+      <c r="D6" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="271" t="s">
+      <c r="E6" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="271" t="s">
+      <c r="G6" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="299" t="s">
@@ -11948,13 +11969,13 @@
       <c r="J6" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="271" t="s">
+      <c r="K6" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="271" t="s">
+      <c r="L6" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="271" t="s">
+      <c r="M6" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -11969,17 +11990,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="271"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="271"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
       <c r="I7" s="299"/>
       <c r="J7" s="299"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="271"/>
-      <c r="M7" s="271"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
       <c r="N7" s="43" t="s">
         <v>69</v>
       </c>
@@ -11999,10 +12020,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>39</v>
@@ -12033,7 +12054,7 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -12044,10 +12065,10 @@
         <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>39</v>
@@ -12078,7 +12099,7 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
@@ -12094,7 +12115,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>39</v>
@@ -12141,22 +12162,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="271" t="s">
+      <c r="D13" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="271" t="s">
+      <c r="E13" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="271" t="s">
+      <c r="F13" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="271" t="s">
+      <c r="G13" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="271" t="s">
+      <c r="H13" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="300" t="s">
@@ -12165,13 +12186,13 @@
       <c r="J13" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="271" t="s">
+      <c r="K13" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="271" t="s">
+      <c r="L13" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="271" t="s">
+      <c r="M13" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -12186,17 +12207,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="271"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
       <c r="I14" s="301"/>
       <c r="J14" s="299"/>
-      <c r="K14" s="271"/>
-      <c r="L14" s="271"/>
-      <c r="M14" s="271"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
       <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
@@ -12224,7 +12245,7 @@
         <v>106</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>44</v>
@@ -12236,7 +12257,7 @@
         <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -12251,7 +12272,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -12264,13 +12285,13 @@
         <v>101</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>44</v>
@@ -12297,7 +12318,7 @@
         <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="8"/>
     </row>
@@ -12310,13 +12331,13 @@
         <v>105</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="G17" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>44</v>
@@ -12343,7 +12364,7 @@
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
@@ -12360,27 +12381,27 @@
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="95"/>
-      <c r="C21" s="271" t="s">
+      <c r="C21" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="271" t="s">
+      <c r="D21" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="271" t="s">
+      <c r="E21" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="271" t="s">
+      <c r="F21" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="271" t="s">
+      <c r="G21" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="271" t="s">
+      <c r="H21" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="299" t="s">
@@ -12389,13 +12410,13 @@
       <c r="J21" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="271" t="s">
+      <c r="K21" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="271" t="s">
+      <c r="L21" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="271" t="s">
+      <c r="M21" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="65" t="s">
@@ -12409,17 +12430,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="95"/>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="271"/>
-      <c r="H22" s="271"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="240"/>
       <c r="I22" s="299"/>
       <c r="J22" s="299"/>
-      <c r="K22" s="271"/>
-      <c r="L22" s="271"/>
-      <c r="M22" s="271"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="240"/>
+      <c r="M22" s="240"/>
       <c r="N22" s="183" t="s">
         <v>69</v>
       </c>
@@ -12440,10 +12461,10 @@
         <v>54</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>45</v>
@@ -12458,7 +12479,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>35</v>
@@ -12473,7 +12494,7 @@
         <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="8"/>
     </row>
@@ -12486,10 +12507,10 @@
         <v>55</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="44" t="s">
         <v>45</v>
@@ -12504,7 +12525,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -12519,7 +12540,7 @@
         <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="8"/>
     </row>
@@ -12532,10 +12553,10 @@
         <v>56</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="44" t="s">
         <v>45</v>
@@ -12550,7 +12571,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>35</v>
@@ -12565,7 +12586,7 @@
         <v>34</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="8"/>
     </row>
@@ -12575,13 +12596,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>45</v>
@@ -12596,7 +12617,7 @@
         <v>35</v>
       </c>
       <c r="K26" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>35</v>
@@ -12611,7 +12632,7 @@
         <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="8"/>
     </row>
@@ -12624,10 +12645,10 @@
         <v>107</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>45</v>
@@ -12642,7 +12663,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>35</v>
@@ -12657,7 +12678,7 @@
         <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="8"/>
     </row>
@@ -12667,13 +12688,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>45</v>
@@ -12688,7 +12709,7 @@
         <v>35</v>
       </c>
       <c r="K28" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>35</v>
@@ -12703,34 +12724,34 @@
         <v>35</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="95"/>
-      <c r="C30" s="271" t="s">
+      <c r="C30" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="271" t="s">
+      <c r="D30" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="271" t="s">
+      <c r="E30" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="271" t="s">
+      <c r="F30" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="271" t="s">
+      <c r="G30" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="271" t="s">
+      <c r="H30" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="299" t="s">
@@ -12739,13 +12760,13 @@
       <c r="J30" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="271" t="s">
+      <c r="K30" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="271" t="s">
+      <c r="L30" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="271" t="s">
+      <c r="M30" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -12759,17 +12780,17 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="95"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="271"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="240"/>
       <c r="I31" s="299"/>
       <c r="J31" s="299"/>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
+      <c r="K31" s="240"/>
+      <c r="L31" s="240"/>
+      <c r="M31" s="240"/>
       <c r="N31" s="93" t="s">
         <v>69</v>
       </c>
@@ -12794,7 +12815,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>45</v>
@@ -12837,10 +12858,10 @@
         <v>55</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G33" s="44" t="s">
         <v>45</v>
@@ -12855,7 +12876,7 @@
         <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>35</v>
@@ -12870,7 +12891,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="217" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -12883,10 +12904,10 @@
         <v>56</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="44" t="s">
         <v>45</v>
@@ -12901,7 +12922,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -12916,7 +12937,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="217" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q34" s="8"/>
     </row>
@@ -12926,13 +12947,13 @@
         <v>4</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G35" s="44" t="s">
         <v>45</v>
@@ -12962,7 +12983,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="211" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q35" s="8"/>
     </row>
@@ -12975,10 +12996,10 @@
         <v>107</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>45</v>
@@ -12993,7 +13014,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>35</v>
@@ -13002,16 +13023,16 @@
         <v>34</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P36" s="211" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q36" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -13020,13 +13041,13 @@
         <v>6</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>45</v>
@@ -13041,7 +13062,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>35</v>
@@ -13050,16 +13071,16 @@
         <v>34</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P37" s="211" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -13068,13 +13089,13 @@
         <v>7</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G38" s="44" t="s">
         <v>45</v>
@@ -13089,7 +13110,7 @@
         <v>35</v>
       </c>
       <c r="K38" s="206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>35</v>
@@ -13098,16 +13119,16 @@
         <v>34</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P38" s="211" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13159,16 +13180,34 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -13179,34 +13218,16 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13565,7 +13586,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -13616,7 +13637,7 @@
       <c r="J9" s="24"/>
       <c r="K9" s="68"/>
       <c r="L9" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -13720,7 +13741,7 @@
       <c r="L11" s="98"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
@@ -13771,7 +13792,7 @@
       <c r="L12" s="98"/>
       <c r="M12" s="69"/>
       <c r="N12" s="69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
@@ -13822,7 +13843,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -13873,7 +13894,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -13924,7 +13945,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -13975,7 +13996,7 @@
       <c r="L16" s="98"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
@@ -14077,7 +14098,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
@@ -14179,7 +14200,7 @@
       <c r="L20" s="98"/>
       <c r="M20" s="69"/>
       <c r="N20" s="98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O20" s="98"/>
       <c r="P20" s="98"/>
@@ -14197,7 +14218,7 @@
         <v>36</v>
       </c>
       <c r="AB20" s="96" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AC20" s="98"/>
       <c r="AD20" s="98"/>
@@ -14234,7 +14255,7 @@
       <c r="L21" s="98"/>
       <c r="M21" s="69"/>
       <c r="N21" s="199" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O21" s="199"/>
       <c r="P21" s="199"/>
@@ -14252,7 +14273,7 @@
         <v>36</v>
       </c>
       <c r="AB21" s="207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC21" s="199"/>
       <c r="AD21" s="199"/>
@@ -14289,7 +14310,7 @@
       <c r="L22" s="98"/>
       <c r="M22" s="69"/>
       <c r="N22" s="98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O22" s="98"/>
       <c r="P22" s="98"/>
@@ -14307,7 +14328,7 @@
         <v>36</v>
       </c>
       <c r="AB22" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AC22" s="98"/>
       <c r="AD22" s="98"/>
@@ -14344,7 +14365,7 @@
       <c r="L23" s="98"/>
       <c r="M23" s="69"/>
       <c r="N23" s="98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O23" s="98"/>
       <c r="P23" s="98"/>
@@ -14362,7 +14383,7 @@
         <v>36</v>
       </c>
       <c r="AB23" s="96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC23" s="98"/>
       <c r="AD23" s="98"/>
@@ -14399,7 +14420,7 @@
       <c r="L24" s="227"/>
       <c r="M24" s="229"/>
       <c r="N24" s="227" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O24" s="227"/>
       <c r="P24" s="227"/>
@@ -14417,7 +14438,7 @@
         <v>36</v>
       </c>
       <c r="AB24" s="230" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AC24" s="227"/>
       <c r="AD24" s="227"/>
@@ -14505,7 +14526,7 @@
       <c r="L26" s="98"/>
       <c r="M26" s="98"/>
       <c r="N26" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
@@ -14602,7 +14623,7 @@
       <c r="J28" s="220"/>
       <c r="K28" s="221"/>
       <c r="L28" s="220" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M28" s="220"/>
       <c r="O28" s="220"/>
@@ -14705,7 +14726,7 @@
       <c r="L30" s="220"/>
       <c r="M30" s="222"/>
       <c r="N30" s="222" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O30" s="222"/>
       <c r="P30" s="222"/>
@@ -14756,7 +14777,7 @@
       <c r="L31" s="220"/>
       <c r="M31" s="222"/>
       <c r="N31" s="222" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O31" s="222"/>
       <c r="P31" s="222"/>
@@ -14807,7 +14828,7 @@
       <c r="L32" s="220"/>
       <c r="M32" s="222"/>
       <c r="N32" s="186" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O32" s="186"/>
       <c r="P32" s="186"/>
@@ -14858,7 +14879,7 @@
       <c r="L33" s="220"/>
       <c r="M33" s="222"/>
       <c r="N33" s="69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O33" s="69"/>
       <c r="P33" s="69"/>
@@ -14903,7 +14924,7 @@
       <c r="K34" s="68"/>
       <c r="M34" s="214"/>
       <c r="N34" s="214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O34" s="214"/>
       <c r="P34" s="214"/>
@@ -14941,7 +14962,7 @@
       <c r="K35" s="68"/>
       <c r="M35" s="214"/>
       <c r="N35" s="214" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O35" s="214"/>
       <c r="P35" s="214"/>
@@ -14979,7 +15000,7 @@
       <c r="K36" s="68"/>
       <c r="M36" s="214"/>
       <c r="N36" s="214" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O36" s="214"/>
       <c r="P36" s="214"/>
@@ -15018,7 +15039,7 @@
       <c r="M37" s="214"/>
       <c r="N37" s="214"/>
       <c r="O37" s="214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P37" s="214"/>
       <c r="Q37" s="214"/>
@@ -15056,7 +15077,7 @@
       <c r="M38" s="214"/>
       <c r="N38" s="214"/>
       <c r="O38" s="214" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P38" s="214"/>
       <c r="Q38" s="214"/>
@@ -15093,7 +15114,7 @@
       <c r="K39" s="68"/>
       <c r="M39" s="214"/>
       <c r="N39" s="214" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O39" s="214"/>
       <c r="P39" s="214"/>
@@ -15188,7 +15209,7 @@
       <c r="L41" s="220"/>
       <c r="M41" s="222"/>
       <c r="N41" s="222" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O41" s="222"/>
       <c r="P41" s="222"/>
@@ -15233,7 +15254,7 @@
       <c r="K42" s="68"/>
       <c r="M42" s="214"/>
       <c r="N42" s="214" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O42" s="214"/>
       <c r="P42" s="214"/>
@@ -15266,13 +15287,13 @@
       <c r="M43" s="214"/>
       <c r="N43" s="214"/>
       <c r="O43" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB43" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG43" s="214"/>
       <c r="AV43" s="68"/>
@@ -15286,7 +15307,7 @@
       <c r="M44" s="214"/>
       <c r="N44" s="214"/>
       <c r="O44" s="208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P44" s="208"/>
       <c r="Q44" s="208"/>
@@ -15295,7 +15316,7 @@
         <v>36</v>
       </c>
       <c r="AB44" s="208" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC44" s="208"/>
       <c r="AD44" s="208"/>
@@ -15313,13 +15334,13 @@
       <c r="M45" s="224"/>
       <c r="N45" s="224"/>
       <c r="O45" s="218" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA45" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB45" s="218" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG45" s="224"/>
       <c r="AV45" s="221"/>
@@ -15333,13 +15354,13 @@
       <c r="M46" s="224"/>
       <c r="N46" s="224"/>
       <c r="O46" s="218" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA46" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB46" s="218" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG46" s="224"/>
       <c r="AV46" s="221"/>
@@ -15351,13 +15372,13 @@
       <c r="G47" s="232"/>
       <c r="K47" s="233"/>
       <c r="O47" s="231" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA47" s="231" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB47" s="231" t="s">
         <v>346</v>
-      </c>
-      <c r="AB47" s="231" t="s">
-        <v>347</v>
       </c>
       <c r="AV47" s="233"/>
     </row>
@@ -15370,13 +15391,13 @@
       <c r="M48" s="214"/>
       <c r="N48" s="214"/>
       <c r="O48" s="234" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AA48" s="214" t="s">
         <v>36</v>
       </c>
       <c r="AB48" s="216" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG48" s="214"/>
       <c r="AV48" s="68"/>
@@ -15389,7 +15410,7 @@
       <c r="K49" s="68"/>
       <c r="M49" s="214"/>
       <c r="N49" s="214" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O49" s="214"/>
       <c r="P49" s="214"/>
@@ -15422,13 +15443,13 @@
       <c r="M50" s="214"/>
       <c r="N50" s="214"/>
       <c r="O50" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA50" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB50" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG50" s="214"/>
       <c r="AV50" s="68"/>
@@ -15442,7 +15463,7 @@
       <c r="M51" s="214"/>
       <c r="N51" s="214"/>
       <c r="O51" s="208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P51" s="208"/>
       <c r="Q51" s="208"/>
@@ -15451,7 +15472,7 @@
         <v>36</v>
       </c>
       <c r="AB51" s="208" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AC51" s="208"/>
       <c r="AD51" s="208"/>
@@ -15469,13 +15490,13 @@
       <c r="M52" s="224"/>
       <c r="N52" s="224"/>
       <c r="O52" s="218" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA52" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB52" s="218" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG52" s="224"/>
       <c r="AV52" s="221"/>
@@ -15489,13 +15510,13 @@
       <c r="M53" s="224"/>
       <c r="N53" s="224"/>
       <c r="O53" s="218" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA53" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB53" s="218" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG53" s="224"/>
       <c r="AV53" s="221"/>
@@ -15507,13 +15528,13 @@
       <c r="G54" s="232"/>
       <c r="K54" s="233"/>
       <c r="O54" s="231" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA54" s="231" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AB54" s="231" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AV54" s="233"/>
     </row>
@@ -15526,13 +15547,13 @@
       <c r="M55" s="214"/>
       <c r="N55" s="214"/>
       <c r="O55" s="234" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AA55" s="214" t="s">
         <v>36</v>
       </c>
       <c r="AB55" s="216" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG55" s="214"/>
       <c r="AV55" s="68"/>
@@ -15545,7 +15566,7 @@
       <c r="K56" s="68"/>
       <c r="M56" s="214"/>
       <c r="N56" s="214" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O56" s="214"/>
       <c r="P56" s="214"/>
@@ -15578,13 +15599,13 @@
       <c r="M57" s="214"/>
       <c r="N57" s="214"/>
       <c r="O57" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA57" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB57" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG57" s="214"/>
       <c r="AV57" s="68"/>
@@ -15598,7 +15619,7 @@
       <c r="M58" s="214"/>
       <c r="N58" s="214"/>
       <c r="O58" s="208" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P58" s="208"/>
       <c r="Q58" s="208"/>
@@ -15607,7 +15628,7 @@
         <v>36</v>
       </c>
       <c r="AB58" s="208" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AC58" s="208"/>
       <c r="AD58" s="208"/>
@@ -15625,13 +15646,13 @@
       <c r="M59" s="224"/>
       <c r="N59" s="224"/>
       <c r="O59" s="218" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA59" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB59" s="218" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG59" s="224"/>
       <c r="AV59" s="221"/>
@@ -15645,13 +15666,13 @@
       <c r="M60" s="224"/>
       <c r="N60" s="224"/>
       <c r="O60" s="218" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA60" s="218" t="s">
         <v>36</v>
       </c>
       <c r="AB60" s="218" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG60" s="224"/>
       <c r="AV60" s="221"/>
@@ -15663,13 +15684,13 @@
       <c r="G61" s="232"/>
       <c r="K61" s="233"/>
       <c r="O61" s="231" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA61" s="231" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB61" s="231" t="s">
         <v>349</v>
-      </c>
-      <c r="AA61" s="231" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB61" s="231" t="s">
-        <v>350</v>
       </c>
       <c r="AV61" s="233"/>
     </row>
@@ -15682,10 +15703,10 @@
       <c r="M62" s="214"/>
       <c r="N62" s="214"/>
       <c r="O62" s="234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA62" s="214" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB62" s="216"/>
       <c r="AG62" s="214"/>
@@ -15756,7 +15777,7 @@
       <c r="L64" s="98"/>
       <c r="M64" s="69"/>
       <c r="N64" s="98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O64" s="98"/>
       <c r="P64" s="98"/>
@@ -15774,7 +15795,7 @@
         <v>36</v>
       </c>
       <c r="AB64" s="96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC64" s="98"/>
       <c r="AD64" s="98"/>
@@ -15811,7 +15832,7 @@
       <c r="L65" s="98"/>
       <c r="M65" s="69"/>
       <c r="N65" s="199" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O65" s="199"/>
       <c r="P65" s="199"/>
@@ -15829,7 +15850,7 @@
         <v>36</v>
       </c>
       <c r="AB65" s="207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC65" s="199"/>
       <c r="AD65" s="199"/>
@@ -15866,7 +15887,7 @@
       <c r="L66" s="98"/>
       <c r="M66" s="69"/>
       <c r="N66" s="98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O66" s="98"/>
       <c r="P66" s="98"/>
@@ -15884,7 +15905,7 @@
         <v>36</v>
       </c>
       <c r="AB66" s="96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AC66" s="98"/>
       <c r="AD66" s="98"/>
@@ -15921,7 +15942,7 @@
       <c r="L67" s="98"/>
       <c r="M67" s="69"/>
       <c r="N67" s="98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O67" s="98"/>
       <c r="P67" s="98"/>
@@ -15939,7 +15960,7 @@
         <v>36</v>
       </c>
       <c r="AB67" s="96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC67" s="98"/>
       <c r="AD67" s="98"/>
@@ -15976,7 +15997,7 @@
       <c r="L68" s="227"/>
       <c r="M68" s="229"/>
       <c r="N68" s="227" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O68" s="227"/>
       <c r="P68" s="227"/>
@@ -15994,7 +16015,7 @@
         <v>36</v>
       </c>
       <c r="AB68" s="230" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AC68" s="227"/>
       <c r="AD68" s="227"/>
@@ -16024,7 +16045,7 @@
       <c r="G69" s="67"/>
       <c r="K69" s="68"/>
       <c r="M69" s="214" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA69" s="214"/>
       <c r="AB69" s="216"/>
@@ -16039,7 +16060,7 @@
       <c r="K70" s="68"/>
       <c r="M70" s="214"/>
       <c r="N70" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AA70" s="214"/>
       <c r="AB70" s="216"/>
@@ -16054,7 +16075,7 @@
       <c r="K71" s="68"/>
       <c r="M71" s="214"/>
       <c r="N71" s="218" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O71" s="218"/>
       <c r="P71" s="218"/>
@@ -16073,7 +16094,7 @@
       <c r="K72" s="68"/>
       <c r="M72" s="214"/>
       <c r="N72" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA72" s="214"/>
       <c r="AB72" s="216"/>
@@ -16088,7 +16109,7 @@
       <c r="K73" s="68"/>
       <c r="M73" s="214"/>
       <c r="N73" s="69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA73" s="214"/>
       <c r="AB73" s="216"/>
@@ -16160,7 +16181,7 @@
       <c r="L75" s="220"/>
       <c r="M75" s="220"/>
       <c r="N75" s="218" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O75" s="220"/>
       <c r="P75" s="220"/>
@@ -16211,7 +16232,7 @@
       <c r="L76" s="220"/>
       <c r="M76" s="220"/>
       <c r="N76" s="218" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O76" s="220"/>
       <c r="P76" s="220"/>
@@ -16302,20 +16323,20 @@
         <v>2</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="23"/>
       <c r="G78" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
       <c r="L78" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
@@ -16418,20 +16439,20 @@
         <v>3</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="23"/>
       <c r="G81" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
       <c r="L81" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
@@ -24277,7 +24298,7 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
@@ -24354,7 +24375,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -24458,7 +24479,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -29048,7 +29069,7 @@
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -41032,7 +41053,7 @@
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="302" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="303"/>
       <c r="D3" s="303"/>
@@ -41965,7 +41986,7 @@
     </row>
     <row r="12" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="125" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -42070,7 +42091,7 @@
     </row>
     <row r="13" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="123"/>
       <c r="D13" s="123"/>
@@ -42196,7 +42217,7 @@
       <c r="S14" s="161"/>
       <c r="T14" s="123"/>
       <c r="U14" s="128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V14" s="129"/>
       <c r="W14" s="129"/>
@@ -42215,7 +42236,7 @@
       <c r="AJ14" s="133"/>
       <c r="AK14" s="133"/>
       <c r="AL14" s="128" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM14" s="129"/>
       <c r="AN14" s="129"/>
@@ -42286,7 +42307,7 @@
       <c r="B15" s="122"/>
       <c r="C15" s="168"/>
       <c r="D15" s="129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="129"/>
       <c r="F15" s="129"/>
@@ -42305,7 +42326,7 @@
       <c r="S15" s="161"/>
       <c r="T15" s="123"/>
       <c r="U15" s="129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V15" s="129"/>
       <c r="W15" s="129"/>
@@ -42324,7 +42345,7 @@
       <c r="AJ15" s="133"/>
       <c r="AK15" s="133"/>
       <c r="AL15" s="129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM15" s="129"/>
       <c r="AN15" s="129"/>
@@ -42395,7 +42416,7 @@
       <c r="B16" s="122"/>
       <c r="C16" s="168"/>
       <c r="D16" s="200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="201"/>
       <c r="F16" s="201"/>
@@ -42642,7 +42663,7 @@
       <c r="AO18" s="163"/>
       <c r="AP18" s="163"/>
       <c r="AQ18" s="138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AR18" s="139"/>
       <c r="AS18" s="139"/>
@@ -42656,7 +42677,7 @@
       <c r="BA18" s="139"/>
       <c r="BB18" s="140"/>
       <c r="BC18" s="138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BD18" s="139"/>
       <c r="BE18" s="139"/>
@@ -42668,7 +42689,7 @@
       <c r="BK18" s="139"/>
       <c r="BL18" s="140"/>
       <c r="BM18" s="178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BN18" s="177"/>
       <c r="BO18" s="177"/>
@@ -42678,7 +42699,7 @@
       <c r="BS18" s="139"/>
       <c r="BT18" s="140"/>
       <c r="BU18" s="138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BV18" s="139"/>
       <c r="BW18" s="139"/>
@@ -42688,7 +42709,7 @@
       <c r="CA18" s="139"/>
       <c r="CB18" s="140"/>
       <c r="CC18" s="138" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CD18" s="139"/>
       <c r="CE18" s="139"/>
@@ -42698,7 +42719,7 @@
       <c r="CI18" s="139"/>
       <c r="CJ18" s="140"/>
       <c r="CK18" s="178" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CL18" s="177"/>
       <c r="CM18" s="177"/>
@@ -42757,7 +42778,7 @@
       <c r="AO19" s="163"/>
       <c r="AP19" s="163"/>
       <c r="AQ19" s="179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR19" s="181"/>
       <c r="AS19" s="181"/>
@@ -42771,7 +42792,7 @@
       <c r="BA19" s="176"/>
       <c r="BB19" s="180"/>
       <c r="BC19" s="179" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BD19" s="181"/>
       <c r="BE19" s="181"/>
@@ -42783,7 +42804,7 @@
       <c r="BK19" s="176"/>
       <c r="BL19" s="180"/>
       <c r="BM19" s="179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BN19" s="181"/>
       <c r="BO19" s="181"/>
@@ -42793,7 +42814,7 @@
       <c r="BS19" s="176"/>
       <c r="BT19" s="180"/>
       <c r="BU19" s="179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BV19" s="181"/>
       <c r="BW19" s="181"/>
@@ -42803,7 +42824,7 @@
       <c r="CA19" s="176"/>
       <c r="CB19" s="180"/>
       <c r="CC19" s="179" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CD19" s="181"/>
       <c r="CE19" s="181"/>
@@ -42813,7 +42834,7 @@
       <c r="CI19" s="176"/>
       <c r="CJ19" s="180"/>
       <c r="CK19" s="179" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CL19" s="181"/>
       <c r="CM19" s="181"/>
@@ -42883,7 +42904,7 @@
       <c r="AZ20" s="113"/>
       <c r="BA20" s="113"/>
       <c r="BB20" s="205" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BC20" s="130"/>
       <c r="BD20" s="113"/>
@@ -42895,7 +42916,7 @@
       <c r="BJ20" s="113"/>
       <c r="BK20" s="113"/>
       <c r="BL20" s="205" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BM20" s="130"/>
       <c r="BN20" s="113"/>
@@ -42905,7 +42926,7 @@
       <c r="BR20" s="113"/>
       <c r="BS20" s="113"/>
       <c r="BT20" s="205" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BU20" s="130"/>
       <c r="BV20" s="113"/>
@@ -42915,7 +42936,7 @@
       <c r="BZ20" s="113"/>
       <c r="CA20" s="113"/>
       <c r="CB20" s="205" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CC20" s="130"/>
       <c r="CD20" s="113"/>
@@ -42925,7 +42946,7 @@
       <c r="CH20" s="113"/>
       <c r="CI20" s="113"/>
       <c r="CJ20" s="205" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="CK20" s="130"/>
       <c r="CL20" s="113"/>
@@ -42937,7 +42958,7 @@
       <c r="CR20" s="113"/>
       <c r="CS20" s="113"/>
       <c r="CT20" s="141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CU20" s="133"/>
       <c r="CV20" s="123"/>
@@ -43049,7 +43070,7 @@
     </row>
     <row r="22" spans="2:102" s="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
@@ -43154,7 +43175,7 @@
     </row>
     <row r="23" spans="2:102" s="164" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="123"/>
@@ -43226,7 +43247,7 @@
       <c r="BR23" s="133"/>
       <c r="BS23" s="133"/>
       <c r="BT23" s="128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BU23" s="133"/>
       <c r="BV23" s="133"/>
@@ -43236,11 +43257,11 @@
       <c r="BZ23" s="133"/>
       <c r="CE23" s="133"/>
       <c r="CF23" s="133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CG23" s="133"/>
       <c r="CH23" s="123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CI23" s="133"/>
       <c r="CJ23" s="133"/>
@@ -43331,7 +43352,7 @@
       <c r="BR24" s="123"/>
       <c r="BS24" s="123"/>
       <c r="BT24" s="129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU24" s="123"/>
       <c r="BV24" s="123"/>
@@ -43365,11 +43386,11 @@
       <c r="C25" s="123"/>
       <c r="D25" s="158"/>
       <c r="E25" s="139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25" s="140"/>
       <c r="G25" s="138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
@@ -43383,7 +43404,7 @@
       <c r="Q25" s="139"/>
       <c r="R25" s="140"/>
       <c r="S25" s="138" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T25" s="139"/>
       <c r="U25" s="139"/>
@@ -43400,7 +43421,7 @@
       <c r="AF25" s="139"/>
       <c r="AG25" s="140"/>
       <c r="AH25" s="138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AI25" s="139"/>
       <c r="AJ25" s="139"/>
@@ -43419,7 +43440,7 @@
       <c r="AW25" s="139"/>
       <c r="AX25" s="140"/>
       <c r="AY25" s="138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ25" s="139"/>
       <c r="BA25" s="139"/>
@@ -43434,7 +43455,7 @@
       <c r="BJ25" s="139"/>
       <c r="BK25" s="140"/>
       <c r="BL25" s="138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BM25" s="139"/>
       <c r="BN25" s="139"/>
@@ -43449,7 +43470,7 @@
       <c r="BW25" s="139"/>
       <c r="BX25" s="140"/>
       <c r="BY25" s="138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BZ25" s="139"/>
       <c r="CA25" s="139"/>
@@ -43484,7 +43505,7 @@
       <c r="E26" s="175"/>
       <c r="F26" s="155"/>
       <c r="G26" s="156" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H26" s="175"/>
       <c r="I26" s="175"/>
@@ -43498,7 +43519,7 @@
       <c r="Q26" s="175"/>
       <c r="R26" s="155"/>
       <c r="S26" s="156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T26" s="175"/>
       <c r="U26" s="175"/>
@@ -43515,7 +43536,7 @@
       <c r="AF26" s="175"/>
       <c r="AG26" s="155"/>
       <c r="AH26" s="156" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI26" s="175"/>
       <c r="AJ26" s="175"/>
@@ -43534,7 +43555,7 @@
       <c r="AW26" s="175"/>
       <c r="AX26" s="155"/>
       <c r="AY26" s="156" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AZ26" s="175"/>
       <c r="BA26" s="175"/>
@@ -43549,7 +43570,7 @@
       <c r="BJ26" s="175"/>
       <c r="BK26" s="155"/>
       <c r="BL26" s="156" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BM26" s="175"/>
       <c r="BN26" s="175"/>
@@ -43564,7 +43585,7 @@
       <c r="BW26" s="175"/>
       <c r="BX26" s="155"/>
       <c r="BY26" s="156" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BZ26" s="175"/>
       <c r="CA26" s="175"/>
@@ -43598,10 +43619,10 @@
       <c r="D27" s="130"/>
       <c r="E27" s="113"/>
       <c r="F27" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H27" s="182"/>
       <c r="I27" s="182"/>
@@ -43615,7 +43636,7 @@
       <c r="Q27" s="182"/>
       <c r="R27" s="182"/>
       <c r="S27" s="203" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T27" s="182"/>
       <c r="U27" s="182"/>
@@ -43632,7 +43653,7 @@
       <c r="AF27" s="182"/>
       <c r="AG27" s="204"/>
       <c r="AH27" s="203" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI27" s="182"/>
       <c r="AJ27" s="182"/>
@@ -43676,7 +43697,7 @@
       <c r="BV27" s="113"/>
       <c r="BW27" s="113"/>
       <c r="BX27" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY27" s="130"/>
       <c r="BZ27" s="113"/>
@@ -43692,7 +43713,7 @@
       <c r="CJ27" s="113"/>
       <c r="CK27" s="205"/>
       <c r="CL27" s="131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM27" s="132"/>
       <c r="CN27" s="209"/>
@@ -43713,10 +43734,10 @@
       <c r="D28" s="130"/>
       <c r="E28" s="113"/>
       <c r="F28" s="141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G28" s="203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H28" s="182"/>
       <c r="I28" s="182"/>
@@ -43730,7 +43751,7 @@
       <c r="Q28" s="182"/>
       <c r="R28" s="182"/>
       <c r="S28" s="203" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T28" s="182"/>
       <c r="U28" s="182"/>
@@ -43747,7 +43768,7 @@
       <c r="AF28" s="182"/>
       <c r="AG28" s="204"/>
       <c r="AH28" s="203" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AI28" s="182"/>
       <c r="AJ28" s="182"/>
@@ -43791,7 +43812,7 @@
       <c r="BV28" s="113"/>
       <c r="BW28" s="113"/>
       <c r="BX28" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY28" s="130"/>
       <c r="BZ28" s="113"/>
@@ -43826,10 +43847,10 @@
       <c r="D29" s="130"/>
       <c r="E29" s="113"/>
       <c r="F29" s="141" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="203" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" s="182"/>
       <c r="I29" s="182"/>
@@ -43843,7 +43864,7 @@
       <c r="Q29" s="182"/>
       <c r="R29" s="182"/>
       <c r="S29" s="203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T29" s="182"/>
       <c r="U29" s="182"/>
@@ -43860,7 +43881,7 @@
       <c r="AF29" s="182"/>
       <c r="AG29" s="204"/>
       <c r="AH29" s="203" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI29" s="182"/>
       <c r="AJ29" s="182"/>
@@ -43891,7 +43912,7 @@
       <c r="BI29" s="113"/>
       <c r="BJ29" s="113"/>
       <c r="BK29" s="141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BL29" s="130"/>
       <c r="BM29" s="113"/>
@@ -43939,10 +43960,10 @@
       <c r="D30" s="130"/>
       <c r="E30" s="113"/>
       <c r="F30" s="141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="203" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H30" s="182"/>
       <c r="I30" s="182"/>
@@ -43956,7 +43977,7 @@
       <c r="Q30" s="182"/>
       <c r="R30" s="182"/>
       <c r="S30" s="203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T30" s="182"/>
       <c r="U30" s="182"/>
@@ -43973,7 +43994,7 @@
       <c r="AF30" s="182"/>
       <c r="AG30" s="204"/>
       <c r="AH30" s="203" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI30" s="182"/>
       <c r="AJ30" s="182"/>
@@ -44017,7 +44038,7 @@
       <c r="BV30" s="113"/>
       <c r="BW30" s="113"/>
       <c r="BX30" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY30" s="130"/>
       <c r="BZ30" s="113"/>
@@ -44052,10 +44073,10 @@
       <c r="D31" s="130"/>
       <c r="E31" s="113"/>
       <c r="F31" s="141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="203" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H31" s="182"/>
       <c r="I31" s="182"/>
@@ -44069,7 +44090,7 @@
       <c r="Q31" s="182"/>
       <c r="R31" s="182"/>
       <c r="S31" s="203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T31" s="182"/>
       <c r="U31" s="182"/>
@@ -44086,7 +44107,7 @@
       <c r="AF31" s="182"/>
       <c r="AG31" s="204"/>
       <c r="AH31" s="203" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI31" s="182"/>
       <c r="AJ31" s="182"/>
@@ -44130,7 +44151,7 @@
       <c r="BV31" s="113"/>
       <c r="BW31" s="113"/>
       <c r="BX31" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY31" s="130"/>
       <c r="BZ31" s="113"/>
@@ -44165,10 +44186,10 @@
       <c r="D32" s="130"/>
       <c r="E32" s="113"/>
       <c r="F32" s="141" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" s="203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H32" s="182"/>
       <c r="I32" s="182"/>
@@ -44182,7 +44203,7 @@
       <c r="Q32" s="182"/>
       <c r="R32" s="182"/>
       <c r="S32" s="203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T32" s="182"/>
       <c r="U32" s="182"/>
@@ -44199,7 +44220,7 @@
       <c r="AF32" s="182"/>
       <c r="AG32" s="204"/>
       <c r="AH32" s="203" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AI32" s="182"/>
       <c r="AJ32" s="182"/>
@@ -44256,7 +44277,7 @@
       <c r="CI32" s="113"/>
       <c r="CJ32" s="113"/>
       <c r="CK32" s="205" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CL32" s="122"/>
       <c r="CM32" s="124"/>
@@ -44278,10 +44299,10 @@
       <c r="D33" s="130"/>
       <c r="E33" s="113"/>
       <c r="F33" s="141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="182"/>
       <c r="I33" s="182"/>
@@ -44295,7 +44316,7 @@
       <c r="Q33" s="182"/>
       <c r="R33" s="182"/>
       <c r="S33" s="203" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T33" s="182"/>
       <c r="U33" s="182"/>
@@ -44312,7 +44333,7 @@
       <c r="AF33" s="182"/>
       <c r="AG33" s="204"/>
       <c r="AH33" s="203" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AI33" s="182"/>
       <c r="AJ33" s="182"/>
@@ -44369,7 +44390,7 @@
       <c r="CI33" s="113"/>
       <c r="CJ33" s="113"/>
       <c r="CK33" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CL33" s="122"/>
       <c r="CM33" s="124"/>
@@ -44391,10 +44412,10 @@
       <c r="D34" s="130"/>
       <c r="E34" s="113"/>
       <c r="F34" s="141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H34" s="182"/>
       <c r="I34" s="182"/>
@@ -44408,7 +44429,7 @@
       <c r="Q34" s="182"/>
       <c r="R34" s="182"/>
       <c r="S34" s="203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T34" s="182"/>
       <c r="U34" s="182"/>
@@ -44425,7 +44446,7 @@
       <c r="AF34" s="182"/>
       <c r="AG34" s="204"/>
       <c r="AH34" s="203" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI34" s="182"/>
       <c r="AJ34" s="182"/>
@@ -44482,7 +44503,7 @@
       <c r="CI34" s="113"/>
       <c r="CJ34" s="113"/>
       <c r="CK34" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CL34" s="122"/>
       <c r="CM34" s="124"/>
@@ -44504,10 +44525,10 @@
       <c r="D35" s="130"/>
       <c r="E35" s="113"/>
       <c r="F35" s="141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" s="203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" s="182"/>
       <c r="I35" s="182"/>
@@ -44521,7 +44542,7 @@
       <c r="Q35" s="182"/>
       <c r="R35" s="182"/>
       <c r="S35" s="203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T35" s="182"/>
       <c r="U35" s="182"/>
@@ -44538,7 +44559,7 @@
       <c r="AF35" s="182"/>
       <c r="AG35" s="204"/>
       <c r="AH35" s="203" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AI35" s="182"/>
       <c r="AJ35" s="182"/>
@@ -44595,7 +44616,7 @@
       <c r="CI35" s="113"/>
       <c r="CJ35" s="113"/>
       <c r="CK35" s="205" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CL35" s="122"/>
       <c r="CM35" s="124"/>
@@ -44617,10 +44638,10 @@
       <c r="D36" s="130"/>
       <c r="E36" s="113"/>
       <c r="F36" s="141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H36" s="182"/>
       <c r="I36" s="182"/>
@@ -44634,7 +44655,7 @@
       <c r="Q36" s="182"/>
       <c r="R36" s="182"/>
       <c r="S36" s="203" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T36" s="182"/>
       <c r="U36" s="182"/>
@@ -44651,7 +44672,7 @@
       <c r="AF36" s="182"/>
       <c r="AG36" s="204"/>
       <c r="AH36" s="203" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AI36" s="182"/>
       <c r="AJ36" s="182"/>
@@ -44708,7 +44729,7 @@
       <c r="CI36" s="113"/>
       <c r="CJ36" s="113"/>
       <c r="CK36" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CL36" s="122"/>
       <c r="CM36" s="124"/>
@@ -44730,10 +44751,10 @@
       <c r="D37" s="130"/>
       <c r="E37" s="113"/>
       <c r="F37" s="141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" s="203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H37" s="182"/>
       <c r="I37" s="182"/>
@@ -44747,7 +44768,7 @@
       <c r="Q37" s="182"/>
       <c r="R37" s="182"/>
       <c r="S37" s="203" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T37" s="182"/>
       <c r="U37" s="182"/>
@@ -44764,7 +44785,7 @@
       <c r="AF37" s="182"/>
       <c r="AG37" s="204"/>
       <c r="AH37" s="203" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI37" s="182"/>
       <c r="AJ37" s="182"/>
@@ -44821,7 +44842,7 @@
       <c r="CI37" s="113"/>
       <c r="CJ37" s="113"/>
       <c r="CK37" s="205" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CL37" s="122"/>
       <c r="CM37" s="124"/>
@@ -44843,10 +44864,10 @@
       <c r="D38" s="130"/>
       <c r="E38" s="113"/>
       <c r="F38" s="141" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" s="203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H38" s="182"/>
       <c r="I38" s="182"/>
@@ -44860,7 +44881,7 @@
       <c r="Q38" s="182"/>
       <c r="R38" s="182"/>
       <c r="S38" s="203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T38" s="182"/>
       <c r="U38" s="182"/>
@@ -44877,7 +44898,7 @@
       <c r="AF38" s="182"/>
       <c r="AG38" s="204"/>
       <c r="AH38" s="203" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AI38" s="182"/>
       <c r="AJ38" s="182"/>
@@ -44921,7 +44942,7 @@
       <c r="BV38" s="113"/>
       <c r="BW38" s="113"/>
       <c r="BX38" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY38" s="130"/>
       <c r="BZ38" s="113"/>
@@ -44956,10 +44977,10 @@
       <c r="D39" s="130"/>
       <c r="E39" s="113"/>
       <c r="F39" s="141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H39" s="182"/>
       <c r="I39" s="182"/>
@@ -44973,7 +44994,7 @@
       <c r="Q39" s="182"/>
       <c r="R39" s="182"/>
       <c r="S39" s="203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T39" s="182"/>
       <c r="U39" s="182"/>
@@ -44990,7 +45011,7 @@
       <c r="AF39" s="182"/>
       <c r="AG39" s="204"/>
       <c r="AH39" s="203" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI39" s="182"/>
       <c r="AJ39" s="182"/>
@@ -45034,7 +45055,7 @@
       <c r="BV39" s="113"/>
       <c r="BW39" s="113"/>
       <c r="BX39" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY39" s="130"/>
       <c r="BZ39" s="113"/>
@@ -45069,10 +45090,10 @@
       <c r="D40" s="130"/>
       <c r="E40" s="113"/>
       <c r="F40" s="141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G40" s="203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H40" s="182"/>
       <c r="I40" s="182"/>
@@ -45086,7 +45107,7 @@
       <c r="Q40" s="182"/>
       <c r="R40" s="182"/>
       <c r="S40" s="203" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T40" s="182"/>
       <c r="U40" s="182"/>
@@ -45103,7 +45124,7 @@
       <c r="AF40" s="182"/>
       <c r="AG40" s="204"/>
       <c r="AH40" s="203" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI40" s="182"/>
       <c r="AJ40" s="182"/>
@@ -45134,7 +45155,7 @@
       <c r="BI40" s="113"/>
       <c r="BJ40" s="113"/>
       <c r="BK40" s="141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BL40" s="130"/>
       <c r="BM40" s="113"/>
@@ -45182,10 +45203,10 @@
       <c r="D41" s="130"/>
       <c r="E41" s="113"/>
       <c r="F41" s="141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H41" s="182"/>
       <c r="I41" s="182"/>
@@ -45199,7 +45220,7 @@
       <c r="Q41" s="182"/>
       <c r="R41" s="182"/>
       <c r="S41" s="203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T41" s="182"/>
       <c r="U41" s="182"/>
@@ -45216,7 +45237,7 @@
       <c r="AF41" s="182"/>
       <c r="AG41" s="204"/>
       <c r="AH41" s="203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI41" s="182"/>
       <c r="AJ41" s="182"/>
@@ -45260,7 +45281,7 @@
       <c r="BV41" s="113"/>
       <c r="BW41" s="113"/>
       <c r="BX41" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY41" s="130"/>
       <c r="BZ41" s="113"/>
@@ -45295,10 +45316,10 @@
       <c r="D42" s="130"/>
       <c r="E42" s="113"/>
       <c r="F42" s="141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G42" s="203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H42" s="182"/>
       <c r="I42" s="182"/>
@@ -45312,7 +45333,7 @@
       <c r="Q42" s="182"/>
       <c r="R42" s="182"/>
       <c r="S42" s="203" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T42" s="182"/>
       <c r="U42" s="182"/>
@@ -45329,7 +45350,7 @@
       <c r="AF42" s="182"/>
       <c r="AG42" s="204"/>
       <c r="AH42" s="203" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AI42" s="182"/>
       <c r="AJ42" s="182"/>
@@ -45373,7 +45394,7 @@
       <c r="BV42" s="113"/>
       <c r="BW42" s="113"/>
       <c r="BX42" s="205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BY42" s="130"/>
       <c r="BZ42" s="113"/>
@@ -45389,7 +45410,7 @@
       <c r="CJ42" s="113"/>
       <c r="CK42" s="205"/>
       <c r="CL42" s="131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CM42" s="132"/>
       <c r="CN42" s="209"/>
@@ -45605,10 +45626,10 @@
       <c r="CR44" s="152"/>
       <c r="CS44" s="152"/>
       <c r="CT44" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="CU44" s="151" t="s">
         <v>141</v>
-      </c>
-      <c r="CU44" s="151" t="s">
-        <v>142</v>
       </c>
       <c r="CV44" s="152"/>
       <c r="CW44" s="152"/>
@@ -45626,21 +45647,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -45798,31 +45804,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45838,4 +45835,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5BD5CF-9E61-4E8D-95A6-C516BCCA0E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AABBBD-EA19-4F4F-BDA5-6359A7FB8D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="369">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -3011,6 +3011,10 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>複数列選択時は左から順に並び替えの優先度が高い。</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -4408,6 +4412,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4434,91 +4523,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5569,7 +5573,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3591"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3594"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7174,1770 +7178,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="238"/>
-      <c r="AB1" s="238"/>
-      <c r="AC1" s="238"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="238"/>
-      <c r="AF1" s="238"/>
-      <c r="AG1" s="238"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="238"/>
-      <c r="AJ1" s="238"/>
-      <c r="AK1" s="238"/>
-      <c r="AL1" s="238"/>
-      <c r="AM1" s="238"/>
-      <c r="AN1" s="238"/>
-      <c r="AO1" s="238"/>
-      <c r="AP1" s="238"/>
-      <c r="AQ1" s="238"/>
-      <c r="AR1" s="238"/>
-      <c r="AS1" s="238"/>
-      <c r="AT1" s="238"/>
-      <c r="AU1" s="238"/>
-      <c r="AV1" s="238"/>
-      <c r="AW1" s="238"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="269"/>
+      <c r="AG1" s="269"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="269"/>
+      <c r="AL1" s="269"/>
+      <c r="AM1" s="269"/>
+      <c r="AN1" s="269"/>
+      <c r="AO1" s="269"/>
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="269"/>
+      <c r="AT1" s="269"/>
+      <c r="AU1" s="269"/>
+      <c r="AV1" s="269"/>
+      <c r="AW1" s="269"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="239"/>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="239"/>
-      <c r="AJ2" s="239"/>
-      <c r="AK2" s="239"/>
-      <c r="AL2" s="239"/>
-      <c r="AM2" s="239"/>
-      <c r="AN2" s="239"/>
-      <c r="AO2" s="239"/>
-      <c r="AP2" s="239"/>
-      <c r="AQ2" s="239"/>
-      <c r="AR2" s="239"/>
-      <c r="AS2" s="239"/>
-      <c r="AT2" s="239"/>
-      <c r="AU2" s="239"/>
-      <c r="AV2" s="239"/>
-      <c r="AW2" s="239"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="270"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="270"/>
+      <c r="W2" s="270"/>
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="270"/>
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="270"/>
+      <c r="AH2" s="270"/>
+      <c r="AI2" s="270"/>
+      <c r="AJ2" s="270"/>
+      <c r="AK2" s="270"/>
+      <c r="AL2" s="270"/>
+      <c r="AM2" s="270"/>
+      <c r="AN2" s="270"/>
+      <c r="AO2" s="270"/>
+      <c r="AP2" s="270"/>
+      <c r="AQ2" s="270"/>
+      <c r="AR2" s="270"/>
+      <c r="AS2" s="270"/>
+      <c r="AT2" s="270"/>
+      <c r="AU2" s="270"/>
+      <c r="AV2" s="270"/>
+      <c r="AW2" s="270"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240" t="s">
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
-      <c r="J3" s="241" t="s">
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="242"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="241" t="s">
+      <c r="K3" s="273"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="240" t="s">
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240" t="s">
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="240"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="240"/>
-      <c r="AD3" s="240"/>
-      <c r="AE3" s="240"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="240"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="240"/>
-      <c r="AJ3" s="240"/>
-      <c r="AK3" s="240"/>
-      <c r="AL3" s="240"/>
-      <c r="AM3" s="240"/>
-      <c r="AN3" s="240" t="s">
+      <c r="W3" s="271"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="271"/>
+      <c r="AA3" s="271"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="271"/>
+      <c r="AD3" s="271"/>
+      <c r="AE3" s="271"/>
+      <c r="AF3" s="271"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="271"/>
+      <c r="AJ3" s="271"/>
+      <c r="AK3" s="271"/>
+      <c r="AL3" s="271"/>
+      <c r="AM3" s="271"/>
+      <c r="AN3" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="240"/>
-      <c r="AP3" s="240"/>
-      <c r="AQ3" s="240"/>
-      <c r="AR3" s="240"/>
-      <c r="AS3" s="240" t="s">
+      <c r="AO3" s="271"/>
+      <c r="AP3" s="271"/>
+      <c r="AQ3" s="271"/>
+      <c r="AR3" s="271"/>
+      <c r="AS3" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="240"/>
-      <c r="AU3" s="240"/>
-      <c r="AV3" s="240"/>
-      <c r="AW3" s="240"/>
+      <c r="AT3" s="271"/>
+      <c r="AU3" s="271"/>
+      <c r="AV3" s="271"/>
+      <c r="AW3" s="271"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="246"/>
-      <c r="S4" s="240"/>
-      <c r="T4" s="240"/>
-      <c r="U4" s="240"/>
-      <c r="V4" s="240"/>
-      <c r="W4" s="240"/>
-      <c r="X4" s="240"/>
-      <c r="Y4" s="240"/>
-      <c r="Z4" s="240"/>
-      <c r="AA4" s="240"/>
-      <c r="AB4" s="240"/>
-      <c r="AC4" s="240"/>
-      <c r="AD4" s="240"/>
-      <c r="AE4" s="240"/>
-      <c r="AF4" s="240"/>
-      <c r="AG4" s="240"/>
-      <c r="AH4" s="240"/>
-      <c r="AI4" s="240"/>
-      <c r="AJ4" s="240"/>
-      <c r="AK4" s="240"/>
-      <c r="AL4" s="240"/>
-      <c r="AM4" s="240"/>
-      <c r="AN4" s="240"/>
-      <c r="AO4" s="240"/>
-      <c r="AP4" s="240"/>
-      <c r="AQ4" s="240"/>
-      <c r="AR4" s="240"/>
-      <c r="AS4" s="240"/>
-      <c r="AT4" s="240"/>
-      <c r="AU4" s="240"/>
-      <c r="AV4" s="240"/>
-      <c r="AW4" s="240"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="275"/>
+      <c r="N4" s="276"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="276"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="271"/>
+      <c r="T4" s="271"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="271"/>
+      <c r="W4" s="271"/>
+      <c r="X4" s="271"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="271"/>
+      <c r="AA4" s="271"/>
+      <c r="AB4" s="271"/>
+      <c r="AC4" s="271"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="271"/>
+      <c r="AF4" s="271"/>
+      <c r="AG4" s="271"/>
+      <c r="AH4" s="271"/>
+      <c r="AI4" s="271"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="271"/>
+      <c r="AL4" s="271"/>
+      <c r="AM4" s="271"/>
+      <c r="AN4" s="271"/>
+      <c r="AO4" s="271"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="271"/>
+      <c r="AR4" s="271"/>
+      <c r="AS4" s="271"/>
+      <c r="AT4" s="271"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="248">
+      <c r="B5" s="263">
         <v>1</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="249">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="244">
         <v>43735</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="250" t="s">
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="251"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="250" t="s">
+      <c r="K5" s="246"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="251"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="251"/>
-      <c r="R5" s="252"/>
-      <c r="S5" s="247" t="s">
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="246"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="256" t="s">
+      <c r="T5" s="251"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="256"/>
-      <c r="X5" s="256"/>
-      <c r="Y5" s="256"/>
-      <c r="Z5" s="256"/>
-      <c r="AA5" s="256"/>
-      <c r="AB5" s="256"/>
-      <c r="AC5" s="256"/>
-      <c r="AD5" s="256"/>
-      <c r="AE5" s="256"/>
-      <c r="AF5" s="256"/>
-      <c r="AG5" s="256"/>
-      <c r="AH5" s="256"/>
-      <c r="AI5" s="256"/>
-      <c r="AJ5" s="256"/>
-      <c r="AK5" s="256"/>
-      <c r="AL5" s="256"/>
-      <c r="AM5" s="256"/>
-      <c r="AN5" s="247" t="s">
+      <c r="W5" s="262"/>
+      <c r="X5" s="262"/>
+      <c r="Y5" s="262"/>
+      <c r="Z5" s="262"/>
+      <c r="AA5" s="262"/>
+      <c r="AB5" s="262"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="262"/>
+      <c r="AE5" s="262"/>
+      <c r="AF5" s="262"/>
+      <c r="AG5" s="262"/>
+      <c r="AH5" s="262"/>
+      <c r="AI5" s="262"/>
+      <c r="AJ5" s="262"/>
+      <c r="AK5" s="262"/>
+      <c r="AL5" s="262"/>
+      <c r="AM5" s="262"/>
+      <c r="AN5" s="251" t="s">
         <v>146</v>
       </c>
-      <c r="AO5" s="247"/>
-      <c r="AP5" s="247"/>
-      <c r="AQ5" s="247"/>
-      <c r="AR5" s="247"/>
-      <c r="AS5" s="247"/>
-      <c r="AT5" s="247"/>
-      <c r="AU5" s="247"/>
-      <c r="AV5" s="247"/>
-      <c r="AW5" s="247"/>
+      <c r="AO5" s="251"/>
+      <c r="AP5" s="251"/>
+      <c r="AQ5" s="251"/>
+      <c r="AR5" s="251"/>
+      <c r="AS5" s="251"/>
+      <c r="AT5" s="251"/>
+      <c r="AU5" s="251"/>
+      <c r="AV5" s="251"/>
+      <c r="AW5" s="251"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="251"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="254"/>
-      <c r="Q6" s="254"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="247"/>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="256"/>
-      <c r="W6" s="256"/>
-      <c r="X6" s="256"/>
-      <c r="Y6" s="256"/>
-      <c r="Z6" s="256"/>
-      <c r="AA6" s="256"/>
-      <c r="AB6" s="256"/>
-      <c r="AC6" s="256"/>
-      <c r="AD6" s="256"/>
-      <c r="AE6" s="256"/>
-      <c r="AF6" s="256"/>
-      <c r="AG6" s="256"/>
-      <c r="AH6" s="256"/>
-      <c r="AI6" s="256"/>
-      <c r="AJ6" s="256"/>
-      <c r="AK6" s="256"/>
-      <c r="AL6" s="256"/>
-      <c r="AM6" s="256"/>
-      <c r="AN6" s="247"/>
-      <c r="AO6" s="247"/>
-      <c r="AP6" s="247"/>
-      <c r="AQ6" s="247"/>
-      <c r="AR6" s="247"/>
-      <c r="AS6" s="247"/>
-      <c r="AT6" s="247"/>
-      <c r="AU6" s="247"/>
-      <c r="AV6" s="247"/>
-      <c r="AW6" s="247"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="251"/>
+      <c r="T6" s="251"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="262"/>
+      <c r="W6" s="262"/>
+      <c r="X6" s="262"/>
+      <c r="Y6" s="262"/>
+      <c r="Z6" s="262"/>
+      <c r="AA6" s="262"/>
+      <c r="AB6" s="262"/>
+      <c r="AC6" s="262"/>
+      <c r="AD6" s="262"/>
+      <c r="AE6" s="262"/>
+      <c r="AF6" s="262"/>
+      <c r="AG6" s="262"/>
+      <c r="AH6" s="262"/>
+      <c r="AI6" s="262"/>
+      <c r="AJ6" s="262"/>
+      <c r="AK6" s="262"/>
+      <c r="AL6" s="262"/>
+      <c r="AM6" s="262"/>
+      <c r="AN6" s="251"/>
+      <c r="AO6" s="251"/>
+      <c r="AP6" s="251"/>
+      <c r="AQ6" s="251"/>
+      <c r="AR6" s="251"/>
+      <c r="AS6" s="251"/>
+      <c r="AT6" s="251"/>
+      <c r="AU6" s="251"/>
+      <c r="AV6" s="251"/>
+      <c r="AW6" s="251"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="253"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="247"/>
-      <c r="T7" s="247"/>
-      <c r="U7" s="247"/>
-      <c r="V7" s="256"/>
-      <c r="W7" s="256"/>
-      <c r="X7" s="256"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="256"/>
-      <c r="AA7" s="256"/>
-      <c r="AB7" s="256"/>
-      <c r="AC7" s="256"/>
-      <c r="AD7" s="256"/>
-      <c r="AE7" s="256"/>
-      <c r="AF7" s="256"/>
-      <c r="AG7" s="256"/>
-      <c r="AH7" s="256"/>
-      <c r="AI7" s="256"/>
-      <c r="AJ7" s="256"/>
-      <c r="AK7" s="256"/>
-      <c r="AL7" s="256"/>
-      <c r="AM7" s="256"/>
-      <c r="AN7" s="247"/>
-      <c r="AO7" s="247"/>
-      <c r="AP7" s="247"/>
-      <c r="AQ7" s="247"/>
-      <c r="AR7" s="247"/>
-      <c r="AS7" s="247"/>
-      <c r="AT7" s="247"/>
-      <c r="AU7" s="247"/>
-      <c r="AV7" s="247"/>
-      <c r="AW7" s="247"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="268"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="262"/>
+      <c r="Z7" s="262"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="262"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="262"/>
+      <c r="AK7" s="262"/>
+      <c r="AL7" s="262"/>
+      <c r="AM7" s="262"/>
+      <c r="AN7" s="251"/>
+      <c r="AO7" s="251"/>
+      <c r="AP7" s="251"/>
+      <c r="AQ7" s="251"/>
+      <c r="AR7" s="251"/>
+      <c r="AS7" s="251"/>
+      <c r="AT7" s="251"/>
+      <c r="AU7" s="251"/>
+      <c r="AV7" s="251"/>
+      <c r="AW7" s="251"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="248"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="255"/>
-      <c r="S8" s="247"/>
-      <c r="T8" s="247"/>
-      <c r="U8" s="247"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="256"/>
-      <c r="AG8" s="256"/>
-      <c r="AH8" s="256"/>
-      <c r="AI8" s="256"/>
-      <c r="AJ8" s="256"/>
-      <c r="AK8" s="256"/>
-      <c r="AL8" s="256"/>
-      <c r="AM8" s="256"/>
-      <c r="AN8" s="247"/>
-      <c r="AO8" s="247"/>
-      <c r="AP8" s="247"/>
-      <c r="AQ8" s="247"/>
-      <c r="AR8" s="247"/>
-      <c r="AS8" s="247"/>
-      <c r="AT8" s="247"/>
-      <c r="AU8" s="247"/>
-      <c r="AV8" s="247"/>
-      <c r="AW8" s="247"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="267"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="262"/>
+      <c r="AE8" s="262"/>
+      <c r="AF8" s="262"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="262"/>
+      <c r="AI8" s="262"/>
+      <c r="AJ8" s="262"/>
+      <c r="AK8" s="262"/>
+      <c r="AL8" s="262"/>
+      <c r="AM8" s="262"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="251"/>
+      <c r="AQ8" s="251"/>
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="251"/>
+      <c r="AV8" s="251"/>
+      <c r="AW8" s="251"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="248"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="248"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="251"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="254"/>
-      <c r="Q9" s="254"/>
-      <c r="R9" s="255"/>
-      <c r="S9" s="247"/>
-      <c r="T9" s="247"/>
-      <c r="U9" s="247"/>
-      <c r="V9" s="256"/>
-      <c r="W9" s="256"/>
-      <c r="X9" s="256"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
-      <c r="AA9" s="256"/>
-      <c r="AB9" s="256"/>
-      <c r="AC9" s="256"/>
-      <c r="AD9" s="256"/>
-      <c r="AE9" s="256"/>
-      <c r="AF9" s="256"/>
-      <c r="AG9" s="256"/>
-      <c r="AH9" s="256"/>
-      <c r="AI9" s="256"/>
-      <c r="AJ9" s="256"/>
-      <c r="AK9" s="256"/>
-      <c r="AL9" s="256"/>
-      <c r="AM9" s="256"/>
-      <c r="AN9" s="247"/>
-      <c r="AO9" s="247"/>
-      <c r="AP9" s="247"/>
-      <c r="AQ9" s="247"/>
-      <c r="AR9" s="247"/>
-      <c r="AS9" s="247"/>
-      <c r="AT9" s="247"/>
-      <c r="AU9" s="247"/>
-      <c r="AV9" s="247"/>
-      <c r="AW9" s="247"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="251"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="262"/>
+      <c r="AD9" s="262"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="262"/>
+      <c r="AH9" s="262"/>
+      <c r="AI9" s="262"/>
+      <c r="AJ9" s="262"/>
+      <c r="AK9" s="262"/>
+      <c r="AL9" s="262"/>
+      <c r="AM9" s="262"/>
+      <c r="AN9" s="251"/>
+      <c r="AO9" s="251"/>
+      <c r="AP9" s="251"/>
+      <c r="AQ9" s="251"/>
+      <c r="AR9" s="251"/>
+      <c r="AS9" s="251"/>
+      <c r="AT9" s="251"/>
+      <c r="AU9" s="251"/>
+      <c r="AV9" s="251"/>
+      <c r="AW9" s="251"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="248"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="250"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="247"/>
-      <c r="T10" s="247"/>
-      <c r="U10" s="247"/>
-      <c r="V10" s="256"/>
-      <c r="W10" s="256"/>
-      <c r="X10" s="256"/>
-      <c r="Y10" s="256"/>
-      <c r="Z10" s="256"/>
-      <c r="AA10" s="256"/>
-      <c r="AB10" s="256"/>
-      <c r="AC10" s="256"/>
-      <c r="AD10" s="256"/>
-      <c r="AE10" s="256"/>
-      <c r="AF10" s="256"/>
-      <c r="AG10" s="256"/>
-      <c r="AH10" s="256"/>
-      <c r="AI10" s="256"/>
-      <c r="AJ10" s="256"/>
-      <c r="AK10" s="256"/>
-      <c r="AL10" s="256"/>
-      <c r="AM10" s="256"/>
-      <c r="AN10" s="247"/>
-      <c r="AO10" s="247"/>
-      <c r="AP10" s="247"/>
-      <c r="AQ10" s="247"/>
-      <c r="AR10" s="247"/>
-      <c r="AS10" s="247"/>
-      <c r="AT10" s="247"/>
-      <c r="AU10" s="247"/>
-      <c r="AV10" s="247"/>
-      <c r="AW10" s="247"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="267"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="267"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="262"/>
+      <c r="W10" s="262"/>
+      <c r="X10" s="262"/>
+      <c r="Y10" s="262"/>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="262"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="262"/>
+      <c r="AH10" s="262"/>
+      <c r="AI10" s="262"/>
+      <c r="AJ10" s="262"/>
+      <c r="AK10" s="262"/>
+      <c r="AL10" s="262"/>
+      <c r="AM10" s="262"/>
+      <c r="AN10" s="251"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="251"/>
+      <c r="AQ10" s="251"/>
+      <c r="AR10" s="251"/>
+      <c r="AS10" s="251"/>
+      <c r="AT10" s="251"/>
+      <c r="AU10" s="251"/>
+      <c r="AV10" s="251"/>
+      <c r="AW10" s="251"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="260"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="261"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="247"/>
-      <c r="T11" s="247"/>
-      <c r="U11" s="247"/>
-      <c r="V11" s="263"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="269"/>
-      <c r="Y11" s="269"/>
-      <c r="Z11" s="269"/>
-      <c r="AA11" s="269"/>
-      <c r="AB11" s="269"/>
-      <c r="AC11" s="269"/>
-      <c r="AD11" s="269"/>
-      <c r="AE11" s="269"/>
-      <c r="AF11" s="269"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="269"/>
-      <c r="AJ11" s="269"/>
-      <c r="AK11" s="269"/>
-      <c r="AL11" s="269"/>
-      <c r="AM11" s="270"/>
-      <c r="AN11" s="247"/>
-      <c r="AO11" s="247"/>
-      <c r="AP11" s="247"/>
-      <c r="AQ11" s="247"/>
-      <c r="AR11" s="247"/>
-      <c r="AS11" s="247"/>
-      <c r="AT11" s="247"/>
-      <c r="AU11" s="247"/>
-      <c r="AV11" s="247"/>
-      <c r="AW11" s="247"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="252"/>
+      <c r="W11" s="264"/>
+      <c r="X11" s="264"/>
+      <c r="Y11" s="264"/>
+      <c r="Z11" s="264"/>
+      <c r="AA11" s="264"/>
+      <c r="AB11" s="264"/>
+      <c r="AC11" s="264"/>
+      <c r="AD11" s="264"/>
+      <c r="AE11" s="264"/>
+      <c r="AF11" s="264"/>
+      <c r="AG11" s="264"/>
+      <c r="AH11" s="264"/>
+      <c r="AI11" s="264"/>
+      <c r="AJ11" s="264"/>
+      <c r="AK11" s="264"/>
+      <c r="AL11" s="264"/>
+      <c r="AM11" s="265"/>
+      <c r="AN11" s="251"/>
+      <c r="AO11" s="251"/>
+      <c r="AP11" s="251"/>
+      <c r="AQ11" s="251"/>
+      <c r="AR11" s="251"/>
+      <c r="AS11" s="251"/>
+      <c r="AT11" s="251"/>
+      <c r="AU11" s="251"/>
+      <c r="AV11" s="251"/>
+      <c r="AW11" s="251"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="257"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="260"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="261"/>
-      <c r="Q12" s="261"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="247"/>
-      <c r="U12" s="247"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="264"/>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="264"/>
-      <c r="Z12" s="264"/>
-      <c r="AA12" s="264"/>
-      <c r="AB12" s="264"/>
-      <c r="AC12" s="264"/>
-      <c r="AD12" s="264"/>
-      <c r="AE12" s="264"/>
-      <c r="AF12" s="264"/>
-      <c r="AG12" s="264"/>
-      <c r="AH12" s="264"/>
-      <c r="AI12" s="264"/>
-      <c r="AJ12" s="264"/>
-      <c r="AK12" s="264"/>
-      <c r="AL12" s="264"/>
-      <c r="AM12" s="265"/>
-      <c r="AN12" s="266"/>
-      <c r="AO12" s="267"/>
-      <c r="AP12" s="267"/>
-      <c r="AQ12" s="267"/>
-      <c r="AR12" s="268"/>
-      <c r="AS12" s="266"/>
-      <c r="AT12" s="267"/>
-      <c r="AU12" s="267"/>
-      <c r="AV12" s="267"/>
-      <c r="AW12" s="268"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="247"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="256"/>
+      <c r="Q12" s="256"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
+      <c r="AI12" s="253"/>
+      <c r="AJ12" s="253"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="254"/>
+      <c r="AN12" s="238"/>
+      <c r="AO12" s="239"/>
+      <c r="AP12" s="239"/>
+      <c r="AQ12" s="239"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="238"/>
+      <c r="AT12" s="239"/>
+      <c r="AU12" s="239"/>
+      <c r="AV12" s="239"/>
+      <c r="AW12" s="240"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="257"/>
-      <c r="C13" s="258"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="271"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="262"/>
-      <c r="S13" s="247"/>
-      <c r="T13" s="247"/>
-      <c r="U13" s="247"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="264"/>
-      <c r="X13" s="264"/>
-      <c r="Y13" s="264"/>
-      <c r="Z13" s="264"/>
-      <c r="AA13" s="264"/>
-      <c r="AB13" s="264"/>
-      <c r="AC13" s="264"/>
-      <c r="AD13" s="264"/>
-      <c r="AE13" s="264"/>
-      <c r="AF13" s="264"/>
-      <c r="AG13" s="264"/>
-      <c r="AH13" s="264"/>
-      <c r="AI13" s="264"/>
-      <c r="AJ13" s="264"/>
-      <c r="AK13" s="264"/>
-      <c r="AL13" s="264"/>
-      <c r="AM13" s="265"/>
-      <c r="AN13" s="266"/>
-      <c r="AO13" s="267"/>
-      <c r="AP13" s="267"/>
-      <c r="AQ13" s="267"/>
-      <c r="AR13" s="268"/>
-      <c r="AS13" s="266"/>
-      <c r="AT13" s="267"/>
-      <c r="AU13" s="267"/>
-      <c r="AV13" s="267"/>
-      <c r="AW13" s="268"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="244"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="256"/>
+      <c r="P13" s="256"/>
+      <c r="Q13" s="256"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
+      <c r="AI13" s="253"/>
+      <c r="AJ13" s="253"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="254"/>
+      <c r="AN13" s="238"/>
+      <c r="AO13" s="239"/>
+      <c r="AP13" s="239"/>
+      <c r="AQ13" s="239"/>
+      <c r="AR13" s="240"/>
+      <c r="AS13" s="238"/>
+      <c r="AT13" s="239"/>
+      <c r="AU13" s="239"/>
+      <c r="AV13" s="239"/>
+      <c r="AW13" s="240"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="257"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="271"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="261"/>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="261"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="247"/>
-      <c r="T14" s="247"/>
-      <c r="U14" s="247"/>
-      <c r="V14" s="272"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="256"/>
-      <c r="AB14" s="256"/>
-      <c r="AC14" s="256"/>
-      <c r="AD14" s="256"/>
-      <c r="AE14" s="256"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="256"/>
-      <c r="AH14" s="256"/>
-      <c r="AI14" s="256"/>
-      <c r="AJ14" s="256"/>
-      <c r="AK14" s="256"/>
-      <c r="AL14" s="256"/>
-      <c r="AM14" s="256"/>
-      <c r="AN14" s="247"/>
-      <c r="AO14" s="247"/>
-      <c r="AP14" s="247"/>
-      <c r="AQ14" s="247"/>
-      <c r="AR14" s="247"/>
-      <c r="AS14" s="266"/>
-      <c r="AT14" s="267"/>
-      <c r="AU14" s="267"/>
-      <c r="AV14" s="267"/>
-      <c r="AW14" s="268"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="245"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="247"/>
+      <c r="M14" s="255"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="257"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="262"/>
+      <c r="Y14" s="262"/>
+      <c r="Z14" s="262"/>
+      <c r="AA14" s="262"/>
+      <c r="AB14" s="262"/>
+      <c r="AC14" s="262"/>
+      <c r="AD14" s="262"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="262"/>
+      <c r="AH14" s="262"/>
+      <c r="AI14" s="262"/>
+      <c r="AJ14" s="262"/>
+      <c r="AK14" s="262"/>
+      <c r="AL14" s="262"/>
+      <c r="AM14" s="262"/>
+      <c r="AN14" s="251"/>
+      <c r="AO14" s="251"/>
+      <c r="AP14" s="251"/>
+      <c r="AQ14" s="251"/>
+      <c r="AR14" s="251"/>
+      <c r="AS14" s="238"/>
+      <c r="AT14" s="239"/>
+      <c r="AU14" s="239"/>
+      <c r="AV14" s="239"/>
+      <c r="AW14" s="240"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="257"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="249"/>
-      <c r="I15" s="249"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="251"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="260"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="261"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="247"/>
-      <c r="T15" s="247"/>
-      <c r="U15" s="247"/>
-      <c r="V15" s="263"/>
-      <c r="W15" s="264"/>
-      <c r="X15" s="264"/>
-      <c r="Y15" s="264"/>
-      <c r="Z15" s="264"/>
-      <c r="AA15" s="264"/>
-      <c r="AB15" s="264"/>
-      <c r="AC15" s="264"/>
-      <c r="AD15" s="264"/>
-      <c r="AE15" s="264"/>
-      <c r="AF15" s="264"/>
-      <c r="AG15" s="264"/>
-      <c r="AH15" s="264"/>
-      <c r="AI15" s="264"/>
-      <c r="AJ15" s="264"/>
-      <c r="AK15" s="264"/>
-      <c r="AL15" s="264"/>
-      <c r="AM15" s="265"/>
-      <c r="AN15" s="266"/>
-      <c r="AO15" s="267"/>
-      <c r="AP15" s="267"/>
-      <c r="AQ15" s="267"/>
-      <c r="AR15" s="268"/>
-      <c r="AS15" s="266"/>
-      <c r="AT15" s="267"/>
-      <c r="AU15" s="267"/>
-      <c r="AV15" s="267"/>
-      <c r="AW15" s="268"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="257"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="252"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="253"/>
+      <c r="AI15" s="253"/>
+      <c r="AJ15" s="253"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="254"/>
+      <c r="AN15" s="238"/>
+      <c r="AO15" s="239"/>
+      <c r="AP15" s="239"/>
+      <c r="AQ15" s="239"/>
+      <c r="AR15" s="240"/>
+      <c r="AS15" s="238"/>
+      <c r="AT15" s="239"/>
+      <c r="AU15" s="239"/>
+      <c r="AV15" s="239"/>
+      <c r="AW15" s="240"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="257"/>
-      <c r="C16" s="258"/>
-      <c r="D16" s="259"/>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="251"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="260"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="261"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="261"/>
-      <c r="R16" s="262"/>
-      <c r="S16" s="247"/>
-      <c r="T16" s="247"/>
-      <c r="U16" s="247"/>
-      <c r="V16" s="263"/>
-      <c r="W16" s="264"/>
-      <c r="X16" s="264"/>
-      <c r="Y16" s="264"/>
-      <c r="Z16" s="264"/>
-      <c r="AA16" s="264"/>
-      <c r="AB16" s="264"/>
-      <c r="AC16" s="264"/>
-      <c r="AD16" s="264"/>
-      <c r="AE16" s="264"/>
-      <c r="AF16" s="264"/>
-      <c r="AG16" s="264"/>
-      <c r="AH16" s="264"/>
-      <c r="AI16" s="264"/>
-      <c r="AJ16" s="264"/>
-      <c r="AK16" s="264"/>
-      <c r="AL16" s="264"/>
-      <c r="AM16" s="265"/>
-      <c r="AN16" s="266"/>
-      <c r="AO16" s="267"/>
-      <c r="AP16" s="267"/>
-      <c r="AQ16" s="267"/>
-      <c r="AR16" s="268"/>
-      <c r="AS16" s="266"/>
-      <c r="AT16" s="267"/>
-      <c r="AU16" s="267"/>
-      <c r="AV16" s="267"/>
-      <c r="AW16" s="268"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="253"/>
+      <c r="AI16" s="253"/>
+      <c r="AJ16" s="253"/>
+      <c r="AK16" s="253"/>
+      <c r="AL16" s="253"/>
+      <c r="AM16" s="254"/>
+      <c r="AN16" s="238"/>
+      <c r="AO16" s="239"/>
+      <c r="AP16" s="239"/>
+      <c r="AQ16" s="239"/>
+      <c r="AR16" s="240"/>
+      <c r="AS16" s="238"/>
+      <c r="AT16" s="239"/>
+      <c r="AU16" s="239"/>
+      <c r="AV16" s="239"/>
+      <c r="AW16" s="240"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="257"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="259"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="251"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="260"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="261"/>
-      <c r="P17" s="261"/>
-      <c r="Q17" s="261"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="274"/>
-      <c r="T17" s="274"/>
-      <c r="U17" s="274"/>
-      <c r="V17" s="263"/>
-      <c r="W17" s="264"/>
-      <c r="X17" s="264"/>
-      <c r="Y17" s="264"/>
-      <c r="Z17" s="264"/>
-      <c r="AA17" s="264"/>
-      <c r="AB17" s="264"/>
-      <c r="AC17" s="264"/>
-      <c r="AD17" s="264"/>
-      <c r="AE17" s="264"/>
-      <c r="AF17" s="264"/>
-      <c r="AG17" s="264"/>
-      <c r="AH17" s="264"/>
-      <c r="AI17" s="264"/>
-      <c r="AJ17" s="264"/>
-      <c r="AK17" s="264"/>
-      <c r="AL17" s="264"/>
-      <c r="AM17" s="265"/>
-      <c r="AN17" s="266"/>
-      <c r="AO17" s="267"/>
-      <c r="AP17" s="267"/>
-      <c r="AQ17" s="267"/>
-      <c r="AR17" s="268"/>
-      <c r="AS17" s="266"/>
-      <c r="AT17" s="267"/>
-      <c r="AU17" s="267"/>
-      <c r="AV17" s="267"/>
-      <c r="AW17" s="268"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="244"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="260"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="260"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="253"/>
+      <c r="AI17" s="253"/>
+      <c r="AJ17" s="253"/>
+      <c r="AK17" s="253"/>
+      <c r="AL17" s="253"/>
+      <c r="AM17" s="254"/>
+      <c r="AN17" s="238"/>
+      <c r="AO17" s="239"/>
+      <c r="AP17" s="239"/>
+      <c r="AQ17" s="239"/>
+      <c r="AR17" s="240"/>
+      <c r="AS17" s="238"/>
+      <c r="AT17" s="239"/>
+      <c r="AU17" s="239"/>
+      <c r="AV17" s="239"/>
+      <c r="AW17" s="240"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="257"/>
-      <c r="C18" s="258"/>
-      <c r="D18" s="259"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="271"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="262"/>
-      <c r="S18" s="247"/>
-      <c r="T18" s="247"/>
-      <c r="U18" s="247"/>
-      <c r="V18" s="263"/>
-      <c r="W18" s="264"/>
-      <c r="X18" s="264"/>
-      <c r="Y18" s="264"/>
-      <c r="Z18" s="264"/>
-      <c r="AA18" s="264"/>
-      <c r="AB18" s="264"/>
-      <c r="AC18" s="264"/>
-      <c r="AD18" s="264"/>
-      <c r="AE18" s="264"/>
-      <c r="AF18" s="264"/>
-      <c r="AG18" s="264"/>
-      <c r="AH18" s="264"/>
-      <c r="AI18" s="264"/>
-      <c r="AJ18" s="264"/>
-      <c r="AK18" s="264"/>
-      <c r="AL18" s="264"/>
-      <c r="AM18" s="265"/>
-      <c r="AN18" s="266"/>
-      <c r="AO18" s="267"/>
-      <c r="AP18" s="267"/>
-      <c r="AQ18" s="267"/>
-      <c r="AR18" s="268"/>
-      <c r="AS18" s="266"/>
-      <c r="AT18" s="267"/>
-      <c r="AU18" s="267"/>
-      <c r="AV18" s="267"/>
-      <c r="AW18" s="268"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="255"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="257"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="253"/>
+      <c r="AK18" s="253"/>
+      <c r="AL18" s="253"/>
+      <c r="AM18" s="254"/>
+      <c r="AN18" s="238"/>
+      <c r="AO18" s="239"/>
+      <c r="AP18" s="239"/>
+      <c r="AQ18" s="239"/>
+      <c r="AR18" s="240"/>
+      <c r="AS18" s="238"/>
+      <c r="AT18" s="239"/>
+      <c r="AU18" s="239"/>
+      <c r="AV18" s="239"/>
+      <c r="AW18" s="240"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="257"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="262"/>
-      <c r="S19" s="247"/>
-      <c r="T19" s="247"/>
-      <c r="U19" s="247"/>
-      <c r="V19" s="263"/>
-      <c r="W19" s="264"/>
-      <c r="X19" s="264"/>
-      <c r="Y19" s="264"/>
-      <c r="Z19" s="264"/>
-      <c r="AA19" s="264"/>
-      <c r="AB19" s="264"/>
-      <c r="AC19" s="264"/>
-      <c r="AD19" s="264"/>
-      <c r="AE19" s="264"/>
-      <c r="AF19" s="264"/>
-      <c r="AG19" s="264"/>
-      <c r="AH19" s="264"/>
-      <c r="AI19" s="264"/>
-      <c r="AJ19" s="264"/>
-      <c r="AK19" s="264"/>
-      <c r="AL19" s="264"/>
-      <c r="AM19" s="265"/>
-      <c r="AN19" s="247"/>
-      <c r="AO19" s="247"/>
-      <c r="AP19" s="247"/>
-      <c r="AQ19" s="247"/>
-      <c r="AR19" s="247"/>
-      <c r="AS19" s="266"/>
-      <c r="AT19" s="267"/>
-      <c r="AU19" s="267"/>
-      <c r="AV19" s="267"/>
-      <c r="AW19" s="268"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="247"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="256"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
+      <c r="R19" s="257"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+      <c r="AJ19" s="253"/>
+      <c r="AK19" s="253"/>
+      <c r="AL19" s="253"/>
+      <c r="AM19" s="254"/>
+      <c r="AN19" s="251"/>
+      <c r="AO19" s="251"/>
+      <c r="AP19" s="251"/>
+      <c r="AQ19" s="251"/>
+      <c r="AR19" s="251"/>
+      <c r="AS19" s="238"/>
+      <c r="AT19" s="239"/>
+      <c r="AU19" s="239"/>
+      <c r="AV19" s="239"/>
+      <c r="AW19" s="240"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="257"/>
-      <c r="C20" s="258"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="249"/>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="250"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="260"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="261"/>
-      <c r="P20" s="261"/>
-      <c r="Q20" s="261"/>
-      <c r="R20" s="262"/>
-      <c r="S20" s="266"/>
-      <c r="T20" s="267"/>
-      <c r="U20" s="268"/>
-      <c r="V20" s="263"/>
-      <c r="W20" s="264"/>
-      <c r="X20" s="264"/>
-      <c r="Y20" s="264"/>
-      <c r="Z20" s="264"/>
-      <c r="AA20" s="264"/>
-      <c r="AB20" s="264"/>
-      <c r="AC20" s="264"/>
-      <c r="AD20" s="264"/>
-      <c r="AE20" s="264"/>
-      <c r="AF20" s="264"/>
-      <c r="AG20" s="264"/>
-      <c r="AH20" s="264"/>
-      <c r="AI20" s="264"/>
-      <c r="AJ20" s="264"/>
-      <c r="AK20" s="264"/>
-      <c r="AL20" s="264"/>
-      <c r="AM20" s="265"/>
-      <c r="AN20" s="266"/>
-      <c r="AO20" s="267"/>
-      <c r="AP20" s="267"/>
-      <c r="AQ20" s="267"/>
-      <c r="AR20" s="268"/>
-      <c r="AS20" s="266"/>
-      <c r="AT20" s="267"/>
-      <c r="AU20" s="267"/>
-      <c r="AV20" s="267"/>
-      <c r="AW20" s="268"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="247"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="256"/>
+      <c r="O20" s="256"/>
+      <c r="P20" s="256"/>
+      <c r="Q20" s="256"/>
+      <c r="R20" s="257"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
+      <c r="AJ20" s="253"/>
+      <c r="AK20" s="253"/>
+      <c r="AL20" s="253"/>
+      <c r="AM20" s="254"/>
+      <c r="AN20" s="238"/>
+      <c r="AO20" s="239"/>
+      <c r="AP20" s="239"/>
+      <c r="AQ20" s="239"/>
+      <c r="AR20" s="240"/>
+      <c r="AS20" s="238"/>
+      <c r="AT20" s="239"/>
+      <c r="AU20" s="239"/>
+      <c r="AV20" s="239"/>
+      <c r="AW20" s="240"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="257"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
-      <c r="P21" s="261"/>
-      <c r="Q21" s="261"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="247"/>
-      <c r="T21" s="247"/>
-      <c r="U21" s="247"/>
-      <c r="V21" s="263"/>
-      <c r="W21" s="264"/>
-      <c r="X21" s="264"/>
-      <c r="Y21" s="264"/>
-      <c r="Z21" s="264"/>
-      <c r="AA21" s="264"/>
-      <c r="AB21" s="264"/>
-      <c r="AC21" s="264"/>
-      <c r="AD21" s="264"/>
-      <c r="AE21" s="264"/>
-      <c r="AF21" s="264"/>
-      <c r="AG21" s="264"/>
-      <c r="AH21" s="264"/>
-      <c r="AI21" s="264"/>
-      <c r="AJ21" s="264"/>
-      <c r="AK21" s="264"/>
-      <c r="AL21" s="264"/>
-      <c r="AM21" s="265"/>
-      <c r="AN21" s="266"/>
-      <c r="AO21" s="267"/>
-      <c r="AP21" s="267"/>
-      <c r="AQ21" s="267"/>
-      <c r="AR21" s="268"/>
-      <c r="AS21" s="266"/>
-      <c r="AT21" s="267"/>
-      <c r="AU21" s="267"/>
-      <c r="AV21" s="267"/>
-      <c r="AW21" s="268"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="245"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="247"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="256"/>
+      <c r="Q21" s="256"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="252"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="253"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
+      <c r="AJ21" s="253"/>
+      <c r="AK21" s="253"/>
+      <c r="AL21" s="253"/>
+      <c r="AM21" s="254"/>
+      <c r="AN21" s="238"/>
+      <c r="AO21" s="239"/>
+      <c r="AP21" s="239"/>
+      <c r="AQ21" s="239"/>
+      <c r="AR21" s="240"/>
+      <c r="AS21" s="238"/>
+      <c r="AT21" s="239"/>
+      <c r="AU21" s="239"/>
+      <c r="AV21" s="239"/>
+      <c r="AW21" s="240"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="257"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
-      <c r="H22" s="249"/>
-      <c r="I22" s="249"/>
-      <c r="J22" s="250"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="261"/>
-      <c r="P22" s="261"/>
-      <c r="Q22" s="261"/>
-      <c r="R22" s="262"/>
-      <c r="S22" s="247"/>
-      <c r="T22" s="247"/>
-      <c r="U22" s="247"/>
-      <c r="V22" s="263"/>
-      <c r="W22" s="264"/>
-      <c r="X22" s="264"/>
-      <c r="Y22" s="264"/>
-      <c r="Z22" s="264"/>
-      <c r="AA22" s="264"/>
-      <c r="AB22" s="264"/>
-      <c r="AC22" s="264"/>
-      <c r="AD22" s="264"/>
-      <c r="AE22" s="264"/>
-      <c r="AF22" s="264"/>
-      <c r="AG22" s="264"/>
-      <c r="AH22" s="264"/>
-      <c r="AI22" s="264"/>
-      <c r="AJ22" s="264"/>
-      <c r="AK22" s="264"/>
-      <c r="AL22" s="264"/>
-      <c r="AM22" s="265"/>
-      <c r="AN22" s="266"/>
-      <c r="AO22" s="267"/>
-      <c r="AP22" s="267"/>
-      <c r="AQ22" s="267"/>
-      <c r="AR22" s="268"/>
-      <c r="AS22" s="266"/>
-      <c r="AT22" s="267"/>
-      <c r="AU22" s="267"/>
-      <c r="AV22" s="267"/>
-      <c r="AW22" s="268"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="256"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="256"/>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="257"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="252"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="253"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
+      <c r="AJ22" s="253"/>
+      <c r="AK22" s="253"/>
+      <c r="AL22" s="253"/>
+      <c r="AM22" s="254"/>
+      <c r="AN22" s="238"/>
+      <c r="AO22" s="239"/>
+      <c r="AP22" s="239"/>
+      <c r="AQ22" s="239"/>
+      <c r="AR22" s="240"/>
+      <c r="AS22" s="238"/>
+      <c r="AT22" s="239"/>
+      <c r="AU22" s="239"/>
+      <c r="AV22" s="239"/>
+      <c r="AW22" s="240"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="257"/>
-      <c r="C23" s="258"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="261"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="261"/>
-      <c r="R23" s="262"/>
-      <c r="S23" s="247"/>
-      <c r="T23" s="247"/>
-      <c r="U23" s="247"/>
-      <c r="V23" s="263"/>
-      <c r="W23" s="264"/>
-      <c r="X23" s="264"/>
-      <c r="Y23" s="264"/>
-      <c r="Z23" s="264"/>
-      <c r="AA23" s="264"/>
-      <c r="AB23" s="264"/>
-      <c r="AC23" s="264"/>
-      <c r="AD23" s="264"/>
-      <c r="AE23" s="264"/>
-      <c r="AF23" s="264"/>
-      <c r="AG23" s="264"/>
-      <c r="AH23" s="264"/>
-      <c r="AI23" s="264"/>
-      <c r="AJ23" s="264"/>
-      <c r="AK23" s="264"/>
-      <c r="AL23" s="264"/>
-      <c r="AM23" s="265"/>
-      <c r="AN23" s="266"/>
-      <c r="AO23" s="267"/>
-      <c r="AP23" s="267"/>
-      <c r="AQ23" s="267"/>
-      <c r="AR23" s="268"/>
-      <c r="AS23" s="266"/>
-      <c r="AT23" s="267"/>
-      <c r="AU23" s="267"/>
-      <c r="AV23" s="267"/>
-      <c r="AW23" s="268"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="247"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="257"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="252"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="253"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
+      <c r="AJ23" s="253"/>
+      <c r="AK23" s="253"/>
+      <c r="AL23" s="253"/>
+      <c r="AM23" s="254"/>
+      <c r="AN23" s="238"/>
+      <c r="AO23" s="239"/>
+      <c r="AP23" s="239"/>
+      <c r="AQ23" s="239"/>
+      <c r="AR23" s="240"/>
+      <c r="AS23" s="238"/>
+      <c r="AT23" s="239"/>
+      <c r="AU23" s="239"/>
+      <c r="AV23" s="239"/>
+      <c r="AW23" s="240"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="257"/>
-      <c r="C24" s="258"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="251"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="261"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="261"/>
-      <c r="R24" s="262"/>
-      <c r="S24" s="247"/>
-      <c r="T24" s="247"/>
-      <c r="U24" s="247"/>
-      <c r="V24" s="263"/>
-      <c r="W24" s="264"/>
-      <c r="X24" s="264"/>
-      <c r="Y24" s="264"/>
-      <c r="Z24" s="264"/>
-      <c r="AA24" s="264"/>
-      <c r="AB24" s="264"/>
-      <c r="AC24" s="264"/>
-      <c r="AD24" s="264"/>
-      <c r="AE24" s="264"/>
-      <c r="AF24" s="264"/>
-      <c r="AG24" s="264"/>
-      <c r="AH24" s="264"/>
-      <c r="AI24" s="264"/>
-      <c r="AJ24" s="264"/>
-      <c r="AK24" s="264"/>
-      <c r="AL24" s="264"/>
-      <c r="AM24" s="265"/>
-      <c r="AN24" s="266"/>
-      <c r="AO24" s="267"/>
-      <c r="AP24" s="267"/>
-      <c r="AQ24" s="267"/>
-      <c r="AR24" s="268"/>
-      <c r="AS24" s="266"/>
-      <c r="AT24" s="267"/>
-      <c r="AU24" s="267"/>
-      <c r="AV24" s="267"/>
-      <c r="AW24" s="268"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="245"/>
+      <c r="K24" s="246"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="256"/>
+      <c r="P24" s="256"/>
+      <c r="Q24" s="256"/>
+      <c r="R24" s="257"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
+      <c r="AJ24" s="253"/>
+      <c r="AK24" s="253"/>
+      <c r="AL24" s="253"/>
+      <c r="AM24" s="254"/>
+      <c r="AN24" s="238"/>
+      <c r="AO24" s="239"/>
+      <c r="AP24" s="239"/>
+      <c r="AQ24" s="239"/>
+      <c r="AR24" s="240"/>
+      <c r="AS24" s="238"/>
+      <c r="AT24" s="239"/>
+      <c r="AU24" s="239"/>
+      <c r="AV24" s="239"/>
+      <c r="AW24" s="240"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="257"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="261"/>
-      <c r="R25" s="262"/>
-      <c r="S25" s="247"/>
-      <c r="T25" s="247"/>
-      <c r="U25" s="247"/>
-      <c r="V25" s="263"/>
-      <c r="W25" s="264"/>
-      <c r="X25" s="264"/>
-      <c r="Y25" s="264"/>
-      <c r="Z25" s="264"/>
-      <c r="AA25" s="264"/>
-      <c r="AB25" s="264"/>
-      <c r="AC25" s="264"/>
-      <c r="AD25" s="264"/>
-      <c r="AE25" s="264"/>
-      <c r="AF25" s="264"/>
-      <c r="AG25" s="264"/>
-      <c r="AH25" s="264"/>
-      <c r="AI25" s="264"/>
-      <c r="AJ25" s="264"/>
-      <c r="AK25" s="264"/>
-      <c r="AL25" s="264"/>
-      <c r="AM25" s="265"/>
-      <c r="AN25" s="266"/>
-      <c r="AO25" s="267"/>
-      <c r="AP25" s="267"/>
-      <c r="AQ25" s="267"/>
-      <c r="AR25" s="268"/>
-      <c r="AS25" s="266"/>
-      <c r="AT25" s="267"/>
-      <c r="AU25" s="267"/>
-      <c r="AV25" s="267"/>
-      <c r="AW25" s="268"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="245"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="255"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="256"/>
+      <c r="Q25" s="256"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="251"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="252"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AA25" s="253"/>
+      <c r="AB25" s="253"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="253"/>
+      <c r="AH25" s="253"/>
+      <c r="AI25" s="253"/>
+      <c r="AJ25" s="253"/>
+      <c r="AK25" s="253"/>
+      <c r="AL25" s="253"/>
+      <c r="AM25" s="254"/>
+      <c r="AN25" s="238"/>
+      <c r="AO25" s="239"/>
+      <c r="AP25" s="239"/>
+      <c r="AQ25" s="239"/>
+      <c r="AR25" s="240"/>
+      <c r="AS25" s="238"/>
+      <c r="AT25" s="239"/>
+      <c r="AU25" s="239"/>
+      <c r="AV25" s="239"/>
+      <c r="AW25" s="240"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="257"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="249"/>
-      <c r="H26" s="249"/>
-      <c r="I26" s="249"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="271"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="262"/>
-      <c r="S26" s="247"/>
-      <c r="T26" s="247"/>
-      <c r="U26" s="247"/>
-      <c r="V26" s="263"/>
-      <c r="W26" s="264"/>
-      <c r="X26" s="264"/>
-      <c r="Y26" s="264"/>
-      <c r="Z26" s="264"/>
-      <c r="AA26" s="264"/>
-      <c r="AB26" s="264"/>
-      <c r="AC26" s="264"/>
-      <c r="AD26" s="264"/>
-      <c r="AE26" s="264"/>
-      <c r="AF26" s="264"/>
-      <c r="AG26" s="264"/>
-      <c r="AH26" s="264"/>
-      <c r="AI26" s="264"/>
-      <c r="AJ26" s="264"/>
-      <c r="AK26" s="264"/>
-      <c r="AL26" s="264"/>
-      <c r="AM26" s="265"/>
-      <c r="AN26" s="266"/>
-      <c r="AO26" s="267"/>
-      <c r="AP26" s="267"/>
-      <c r="AQ26" s="267"/>
-      <c r="AR26" s="268"/>
-      <c r="AS26" s="266"/>
-      <c r="AT26" s="267"/>
-      <c r="AU26" s="267"/>
-      <c r="AV26" s="267"/>
-      <c r="AW26" s="268"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="245"/>
+      <c r="K26" s="246"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="255"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="256"/>
+      <c r="P26" s="256"/>
+      <c r="Q26" s="256"/>
+      <c r="R26" s="257"/>
+      <c r="S26" s="251"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="252"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="253"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="253"/>
+      <c r="AK26" s="253"/>
+      <c r="AL26" s="253"/>
+      <c r="AM26" s="254"/>
+      <c r="AN26" s="238"/>
+      <c r="AO26" s="239"/>
+      <c r="AP26" s="239"/>
+      <c r="AQ26" s="239"/>
+      <c r="AR26" s="240"/>
+      <c r="AS26" s="238"/>
+      <c r="AT26" s="239"/>
+      <c r="AU26" s="239"/>
+      <c r="AV26" s="239"/>
+      <c r="AW26" s="240"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="257"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="262"/>
-      <c r="S27" s="247"/>
-      <c r="T27" s="247"/>
-      <c r="U27" s="247"/>
-      <c r="V27" s="263"/>
-      <c r="W27" s="264"/>
-      <c r="X27" s="264"/>
-      <c r="Y27" s="264"/>
-      <c r="Z27" s="264"/>
-      <c r="AA27" s="264"/>
-      <c r="AB27" s="264"/>
-      <c r="AC27" s="264"/>
-      <c r="AD27" s="264"/>
-      <c r="AE27" s="264"/>
-      <c r="AF27" s="264"/>
-      <c r="AG27" s="264"/>
-      <c r="AH27" s="264"/>
-      <c r="AI27" s="264"/>
-      <c r="AJ27" s="264"/>
-      <c r="AK27" s="264"/>
-      <c r="AL27" s="264"/>
-      <c r="AM27" s="265"/>
-      <c r="AN27" s="266"/>
-      <c r="AO27" s="267"/>
-      <c r="AP27" s="267"/>
-      <c r="AQ27" s="267"/>
-      <c r="AR27" s="268"/>
-      <c r="AS27" s="266"/>
-      <c r="AT27" s="267"/>
-      <c r="AU27" s="267"/>
-      <c r="AV27" s="267"/>
-      <c r="AW27" s="268"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="255"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="256"/>
+      <c r="Q27" s="256"/>
+      <c r="R27" s="257"/>
+      <c r="S27" s="251"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="251"/>
+      <c r="V27" s="252"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="253"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="253"/>
+      <c r="AH27" s="253"/>
+      <c r="AI27" s="253"/>
+      <c r="AJ27" s="253"/>
+      <c r="AK27" s="253"/>
+      <c r="AL27" s="253"/>
+      <c r="AM27" s="254"/>
+      <c r="AN27" s="238"/>
+      <c r="AO27" s="239"/>
+      <c r="AP27" s="239"/>
+      <c r="AQ27" s="239"/>
+      <c r="AR27" s="240"/>
+      <c r="AS27" s="238"/>
+      <c r="AT27" s="239"/>
+      <c r="AU27" s="239"/>
+      <c r="AV27" s="239"/>
+      <c r="AW27" s="240"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="257"/>
-      <c r="C28" s="258"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="260"/>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
-      <c r="P28" s="261"/>
-      <c r="Q28" s="261"/>
-      <c r="R28" s="262"/>
-      <c r="S28" s="247"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="247"/>
-      <c r="V28" s="263"/>
-      <c r="W28" s="264"/>
-      <c r="X28" s="264"/>
-      <c r="Y28" s="264"/>
-      <c r="Z28" s="264"/>
-      <c r="AA28" s="264"/>
-      <c r="AB28" s="264"/>
-      <c r="AC28" s="264"/>
-      <c r="AD28" s="264"/>
-      <c r="AE28" s="264"/>
-      <c r="AF28" s="264"/>
-      <c r="AG28" s="264"/>
-      <c r="AH28" s="264"/>
-      <c r="AI28" s="264"/>
-      <c r="AJ28" s="264"/>
-      <c r="AK28" s="264"/>
-      <c r="AL28" s="264"/>
-      <c r="AM28" s="265"/>
-      <c r="AN28" s="266"/>
-      <c r="AO28" s="267"/>
-      <c r="AP28" s="267"/>
-      <c r="AQ28" s="267"/>
-      <c r="AR28" s="268"/>
-      <c r="AS28" s="266"/>
-      <c r="AT28" s="267"/>
-      <c r="AU28" s="267"/>
-      <c r="AV28" s="267"/>
-      <c r="AW28" s="268"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="256"/>
+      <c r="O28" s="256"/>
+      <c r="P28" s="256"/>
+      <c r="Q28" s="256"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="251"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="251"/>
+      <c r="V28" s="252"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="253"/>
+      <c r="Y28" s="253"/>
+      <c r="Z28" s="253"/>
+      <c r="AA28" s="253"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="253"/>
+      <c r="AE28" s="253"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="253"/>
+      <c r="AH28" s="253"/>
+      <c r="AI28" s="253"/>
+      <c r="AJ28" s="253"/>
+      <c r="AK28" s="253"/>
+      <c r="AL28" s="253"/>
+      <c r="AM28" s="254"/>
+      <c r="AN28" s="238"/>
+      <c r="AO28" s="239"/>
+      <c r="AP28" s="239"/>
+      <c r="AQ28" s="239"/>
+      <c r="AR28" s="240"/>
+      <c r="AS28" s="238"/>
+      <c r="AT28" s="239"/>
+      <c r="AU28" s="239"/>
+      <c r="AV28" s="239"/>
+      <c r="AW28" s="240"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="257"/>
-      <c r="C29" s="258"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="249"/>
-      <c r="H29" s="249"/>
-      <c r="I29" s="249"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="252"/>
-      <c r="M29" s="260"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="261"/>
-      <c r="Q29" s="261"/>
-      <c r="R29" s="262"/>
-      <c r="S29" s="247"/>
-      <c r="T29" s="247"/>
-      <c r="U29" s="247"/>
-      <c r="V29" s="263"/>
-      <c r="W29" s="264"/>
-      <c r="X29" s="264"/>
-      <c r="Y29" s="264"/>
-      <c r="Z29" s="264"/>
-      <c r="AA29" s="264"/>
-      <c r="AB29" s="264"/>
-      <c r="AC29" s="264"/>
-      <c r="AD29" s="264"/>
-      <c r="AE29" s="264"/>
-      <c r="AF29" s="264"/>
-      <c r="AG29" s="264"/>
-      <c r="AH29" s="264"/>
-      <c r="AI29" s="264"/>
-      <c r="AJ29" s="264"/>
-      <c r="AK29" s="264"/>
-      <c r="AL29" s="264"/>
-      <c r="AM29" s="265"/>
-      <c r="AN29" s="266"/>
-      <c r="AO29" s="267"/>
-      <c r="AP29" s="267"/>
-      <c r="AQ29" s="267"/>
-      <c r="AR29" s="268"/>
-      <c r="AS29" s="266"/>
-      <c r="AT29" s="267"/>
-      <c r="AU29" s="267"/>
-      <c r="AV29" s="267"/>
-      <c r="AW29" s="268"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="256"/>
+      <c r="P29" s="256"/>
+      <c r="Q29" s="256"/>
+      <c r="R29" s="257"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="252"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="253"/>
+      <c r="Y29" s="253"/>
+      <c r="Z29" s="253"/>
+      <c r="AA29" s="253"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="253"/>
+      <c r="AD29" s="253"/>
+      <c r="AE29" s="253"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="253"/>
+      <c r="AH29" s="253"/>
+      <c r="AI29" s="253"/>
+      <c r="AJ29" s="253"/>
+      <c r="AK29" s="253"/>
+      <c r="AL29" s="253"/>
+      <c r="AM29" s="254"/>
+      <c r="AN29" s="238"/>
+      <c r="AO29" s="239"/>
+      <c r="AP29" s="239"/>
+      <c r="AQ29" s="239"/>
+      <c r="AR29" s="240"/>
+      <c r="AS29" s="238"/>
+      <c r="AT29" s="239"/>
+      <c r="AU29" s="239"/>
+      <c r="AV29" s="239"/>
+      <c r="AW29" s="240"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="257"/>
-      <c r="C30" s="258"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="249"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="251"/>
-      <c r="L30" s="252"/>
-      <c r="M30" s="271"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="261"/>
-      <c r="R30" s="262"/>
-      <c r="S30" s="247"/>
-      <c r="T30" s="247"/>
-      <c r="U30" s="247"/>
-      <c r="V30" s="263"/>
-      <c r="W30" s="264"/>
-      <c r="X30" s="264"/>
-      <c r="Y30" s="264"/>
-      <c r="Z30" s="264"/>
-      <c r="AA30" s="264"/>
-      <c r="AB30" s="264"/>
-      <c r="AC30" s="264"/>
-      <c r="AD30" s="264"/>
-      <c r="AE30" s="264"/>
-      <c r="AF30" s="264"/>
-      <c r="AG30" s="264"/>
-      <c r="AH30" s="264"/>
-      <c r="AI30" s="264"/>
-      <c r="AJ30" s="264"/>
-      <c r="AK30" s="264"/>
-      <c r="AL30" s="264"/>
-      <c r="AM30" s="265"/>
-      <c r="AN30" s="266"/>
-      <c r="AO30" s="267"/>
-      <c r="AP30" s="267"/>
-      <c r="AQ30" s="267"/>
-      <c r="AR30" s="268"/>
-      <c r="AS30" s="266"/>
-      <c r="AT30" s="267"/>
-      <c r="AU30" s="267"/>
-      <c r="AV30" s="267"/>
-      <c r="AW30" s="268"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="247"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256"/>
+      <c r="P30" s="256"/>
+      <c r="Q30" s="256"/>
+      <c r="R30" s="257"/>
+      <c r="S30" s="251"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="251"/>
+      <c r="V30" s="252"/>
+      <c r="W30" s="253"/>
+      <c r="X30" s="253"/>
+      <c r="Y30" s="253"/>
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="253"/>
+      <c r="AB30" s="253"/>
+      <c r="AC30" s="253"/>
+      <c r="AD30" s="253"/>
+      <c r="AE30" s="253"/>
+      <c r="AF30" s="253"/>
+      <c r="AG30" s="253"/>
+      <c r="AH30" s="253"/>
+      <c r="AI30" s="253"/>
+      <c r="AJ30" s="253"/>
+      <c r="AK30" s="253"/>
+      <c r="AL30" s="253"/>
+      <c r="AM30" s="254"/>
+      <c r="AN30" s="238"/>
+      <c r="AO30" s="239"/>
+      <c r="AP30" s="239"/>
+      <c r="AQ30" s="239"/>
+      <c r="AR30" s="240"/>
+      <c r="AS30" s="238"/>
+      <c r="AT30" s="239"/>
+      <c r="AU30" s="239"/>
+      <c r="AV30" s="239"/>
+      <c r="AW30" s="240"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="257"/>
-      <c r="C31" s="258"/>
-      <c r="D31" s="259"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="249"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="251"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="261"/>
-      <c r="Q31" s="261"/>
-      <c r="R31" s="262"/>
-      <c r="S31" s="247"/>
-      <c r="T31" s="247"/>
-      <c r="U31" s="247"/>
-      <c r="V31" s="263"/>
-      <c r="W31" s="264"/>
-      <c r="X31" s="264"/>
-      <c r="Y31" s="264"/>
-      <c r="Z31" s="264"/>
-      <c r="AA31" s="264"/>
-      <c r="AB31" s="264"/>
-      <c r="AC31" s="264"/>
-      <c r="AD31" s="264"/>
-      <c r="AE31" s="264"/>
-      <c r="AF31" s="264"/>
-      <c r="AG31" s="264"/>
-      <c r="AH31" s="264"/>
-      <c r="AI31" s="264"/>
-      <c r="AJ31" s="264"/>
-      <c r="AK31" s="264"/>
-      <c r="AL31" s="264"/>
-      <c r="AM31" s="265"/>
-      <c r="AN31" s="266"/>
-      <c r="AO31" s="267"/>
-      <c r="AP31" s="267"/>
-      <c r="AQ31" s="267"/>
-      <c r="AR31" s="268"/>
-      <c r="AS31" s="266"/>
-      <c r="AT31" s="267"/>
-      <c r="AU31" s="267"/>
-      <c r="AV31" s="267"/>
-      <c r="AW31" s="268"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="246"/>
+      <c r="L31" s="247"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="256"/>
+      <c r="P31" s="256"/>
+      <c r="Q31" s="256"/>
+      <c r="R31" s="257"/>
+      <c r="S31" s="251"/>
+      <c r="T31" s="251"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="252"/>
+      <c r="W31" s="253"/>
+      <c r="X31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="253"/>
+      <c r="AA31" s="253"/>
+      <c r="AB31" s="253"/>
+      <c r="AC31" s="253"/>
+      <c r="AD31" s="253"/>
+      <c r="AE31" s="253"/>
+      <c r="AF31" s="253"/>
+      <c r="AG31" s="253"/>
+      <c r="AH31" s="253"/>
+      <c r="AI31" s="253"/>
+      <c r="AJ31" s="253"/>
+      <c r="AK31" s="253"/>
+      <c r="AL31" s="253"/>
+      <c r="AM31" s="254"/>
+      <c r="AN31" s="238"/>
+      <c r="AO31" s="239"/>
+      <c r="AP31" s="239"/>
+      <c r="AQ31" s="239"/>
+      <c r="AR31" s="240"/>
+      <c r="AS31" s="238"/>
+      <c r="AT31" s="239"/>
+      <c r="AU31" s="239"/>
+      <c r="AV31" s="239"/>
+      <c r="AW31" s="240"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="257"/>
-      <c r="C32" s="258"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="249"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="249"/>
-      <c r="I32" s="249"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="252"/>
-      <c r="M32" s="271"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="247"/>
-      <c r="T32" s="247"/>
-      <c r="U32" s="247"/>
-      <c r="V32" s="263"/>
-      <c r="W32" s="264"/>
-      <c r="X32" s="264"/>
-      <c r="Y32" s="264"/>
-      <c r="Z32" s="264"/>
-      <c r="AA32" s="264"/>
-      <c r="AB32" s="264"/>
-      <c r="AC32" s="264"/>
-      <c r="AD32" s="264"/>
-      <c r="AE32" s="264"/>
-      <c r="AF32" s="264"/>
-      <c r="AG32" s="264"/>
-      <c r="AH32" s="264"/>
-      <c r="AI32" s="264"/>
-      <c r="AJ32" s="264"/>
-      <c r="AK32" s="264"/>
-      <c r="AL32" s="264"/>
-      <c r="AM32" s="265"/>
-      <c r="AN32" s="266"/>
-      <c r="AO32" s="267"/>
-      <c r="AP32" s="267"/>
-      <c r="AQ32" s="267"/>
-      <c r="AR32" s="268"/>
-      <c r="AS32" s="266"/>
-      <c r="AT32" s="267"/>
-      <c r="AU32" s="267"/>
-      <c r="AV32" s="267"/>
-      <c r="AW32" s="268"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="245"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="247"/>
+      <c r="M32" s="255"/>
+      <c r="N32" s="256"/>
+      <c r="O32" s="256"/>
+      <c r="P32" s="256"/>
+      <c r="Q32" s="256"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="251"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="252"/>
+      <c r="W32" s="253"/>
+      <c r="X32" s="253"/>
+      <c r="Y32" s="253"/>
+      <c r="Z32" s="253"/>
+      <c r="AA32" s="253"/>
+      <c r="AB32" s="253"/>
+      <c r="AC32" s="253"/>
+      <c r="AD32" s="253"/>
+      <c r="AE32" s="253"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="253"/>
+      <c r="AH32" s="253"/>
+      <c r="AI32" s="253"/>
+      <c r="AJ32" s="253"/>
+      <c r="AK32" s="253"/>
+      <c r="AL32" s="253"/>
+      <c r="AM32" s="254"/>
+      <c r="AN32" s="238"/>
+      <c r="AO32" s="239"/>
+      <c r="AP32" s="239"/>
+      <c r="AQ32" s="239"/>
+      <c r="AR32" s="240"/>
+      <c r="AS32" s="238"/>
+      <c r="AT32" s="239"/>
+      <c r="AU32" s="239"/>
+      <c r="AV32" s="239"/>
+      <c r="AW32" s="240"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="257"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="251"/>
-      <c r="L33" s="252"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
-      <c r="R33" s="262"/>
-      <c r="S33" s="247"/>
-      <c r="T33" s="247"/>
-      <c r="U33" s="247"/>
-      <c r="V33" s="263"/>
-      <c r="W33" s="264"/>
-      <c r="X33" s="264"/>
-      <c r="Y33" s="264"/>
-      <c r="Z33" s="264"/>
-      <c r="AA33" s="264"/>
-      <c r="AB33" s="264"/>
-      <c r="AC33" s="264"/>
-      <c r="AD33" s="264"/>
-      <c r="AE33" s="264"/>
-      <c r="AF33" s="264"/>
-      <c r="AG33" s="264"/>
-      <c r="AH33" s="264"/>
-      <c r="AI33" s="264"/>
-      <c r="AJ33" s="264"/>
-      <c r="AK33" s="264"/>
-      <c r="AL33" s="264"/>
-      <c r="AM33" s="265"/>
-      <c r="AN33" s="266"/>
-      <c r="AO33" s="267"/>
-      <c r="AP33" s="267"/>
-      <c r="AQ33" s="267"/>
-      <c r="AR33" s="268"/>
-      <c r="AS33" s="266"/>
-      <c r="AT33" s="267"/>
-      <c r="AU33" s="267"/>
-      <c r="AV33" s="267"/>
-      <c r="AW33" s="268"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="245"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="247"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="256"/>
+      <c r="P33" s="256"/>
+      <c r="Q33" s="256"/>
+      <c r="R33" s="257"/>
+      <c r="S33" s="251"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="253"/>
+      <c r="X33" s="253"/>
+      <c r="Y33" s="253"/>
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="253"/>
+      <c r="AH33" s="253"/>
+      <c r="AI33" s="253"/>
+      <c r="AJ33" s="253"/>
+      <c r="AK33" s="253"/>
+      <c r="AL33" s="253"/>
+      <c r="AM33" s="254"/>
+      <c r="AN33" s="238"/>
+      <c r="AO33" s="239"/>
+      <c r="AP33" s="239"/>
+      <c r="AQ33" s="239"/>
+      <c r="AR33" s="240"/>
+      <c r="AS33" s="238"/>
+      <c r="AT33" s="239"/>
+      <c r="AU33" s="239"/>
+      <c r="AV33" s="239"/>
+      <c r="AW33" s="240"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="257"/>
-      <c r="C34" s="258"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="249"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="249"/>
-      <c r="H34" s="249"/>
-      <c r="I34" s="249"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="251"/>
-      <c r="L34" s="252"/>
-      <c r="M34" s="275"/>
-      <c r="N34" s="276"/>
-      <c r="O34" s="276"/>
-      <c r="P34" s="276"/>
-      <c r="Q34" s="276"/>
-      <c r="R34" s="277"/>
-      <c r="S34" s="247"/>
-      <c r="T34" s="247"/>
-      <c r="U34" s="247"/>
-      <c r="V34" s="263"/>
-      <c r="W34" s="264"/>
-      <c r="X34" s="264"/>
-      <c r="Y34" s="264"/>
-      <c r="Z34" s="264"/>
-      <c r="AA34" s="264"/>
-      <c r="AB34" s="264"/>
-      <c r="AC34" s="264"/>
-      <c r="AD34" s="264"/>
-      <c r="AE34" s="264"/>
-      <c r="AF34" s="264"/>
-      <c r="AG34" s="264"/>
-      <c r="AH34" s="264"/>
-      <c r="AI34" s="264"/>
-      <c r="AJ34" s="264"/>
-      <c r="AK34" s="264"/>
-      <c r="AL34" s="264"/>
-      <c r="AM34" s="265"/>
-      <c r="AN34" s="266"/>
-      <c r="AO34" s="267"/>
-      <c r="AP34" s="267"/>
-      <c r="AQ34" s="267"/>
-      <c r="AR34" s="268"/>
-      <c r="AS34" s="266"/>
-      <c r="AT34" s="267"/>
-      <c r="AU34" s="267"/>
-      <c r="AV34" s="267"/>
-      <c r="AW34" s="268"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="245"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="247"/>
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="249"/>
+      <c r="P34" s="249"/>
+      <c r="Q34" s="249"/>
+      <c r="R34" s="250"/>
+      <c r="S34" s="251"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="252"/>
+      <c r="W34" s="253"/>
+      <c r="X34" s="253"/>
+      <c r="Y34" s="253"/>
+      <c r="Z34" s="253"/>
+      <c r="AA34" s="253"/>
+      <c r="AB34" s="253"/>
+      <c r="AC34" s="253"/>
+      <c r="AD34" s="253"/>
+      <c r="AE34" s="253"/>
+      <c r="AF34" s="253"/>
+      <c r="AG34" s="253"/>
+      <c r="AH34" s="253"/>
+      <c r="AI34" s="253"/>
+      <c r="AJ34" s="253"/>
+      <c r="AK34" s="253"/>
+      <c r="AL34" s="253"/>
+      <c r="AM34" s="254"/>
+      <c r="AN34" s="238"/>
+      <c r="AO34" s="239"/>
+      <c r="AP34" s="239"/>
+      <c r="AQ34" s="239"/>
+      <c r="AR34" s="240"/>
+      <c r="AS34" s="238"/>
+      <c r="AT34" s="239"/>
+      <c r="AU34" s="239"/>
+      <c r="AV34" s="239"/>
+      <c r="AW34" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8954,239 +9191,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11945,22 +11949,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="240" t="s">
+      <c r="D6" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="240" t="s">
+      <c r="E6" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="240" t="s">
+      <c r="F6" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="240" t="s">
+      <c r="H6" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="299" t="s">
@@ -11969,13 +11973,13 @@
       <c r="J6" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="240" t="s">
+      <c r="K6" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="240" t="s">
+      <c r="L6" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="240" t="s">
+      <c r="M6" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -11990,17 +11994,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
       <c r="I7" s="299"/>
       <c r="J7" s="299"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
+      <c r="K7" s="271"/>
+      <c r="L7" s="271"/>
+      <c r="M7" s="271"/>
       <c r="N7" s="43" t="s">
         <v>69</v>
       </c>
@@ -12162,22 +12166,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="240" t="s">
+      <c r="C13" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="240" t="s">
+      <c r="D13" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="240" t="s">
+      <c r="E13" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="240" t="s">
+      <c r="F13" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="240" t="s">
+      <c r="G13" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="300" t="s">
@@ -12186,13 +12190,13 @@
       <c r="J13" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="240" t="s">
+      <c r="K13" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="240" t="s">
+      <c r="L13" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="240" t="s">
+      <c r="M13" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -12207,17 +12211,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="240"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="240"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="271"/>
       <c r="I14" s="301"/>
       <c r="J14" s="299"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
       <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
@@ -12386,22 +12390,22 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="95"/>
-      <c r="C21" s="240" t="s">
+      <c r="C21" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="240" t="s">
+      <c r="D21" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="240" t="s">
+      <c r="E21" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="240" t="s">
+      <c r="F21" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="240" t="s">
+      <c r="G21" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="240" t="s">
+      <c r="H21" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="299" t="s">
@@ -12410,13 +12414,13 @@
       <c r="J21" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="240" t="s">
+      <c r="K21" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="240" t="s">
+      <c r="L21" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="240" t="s">
+      <c r="M21" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="65" t="s">
@@ -12430,17 +12434,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="95"/>
-      <c r="C22" s="240"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="271"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="271"/>
       <c r="I22" s="299"/>
       <c r="J22" s="299"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="240"/>
-      <c r="M22" s="240"/>
+      <c r="K22" s="271"/>
+      <c r="L22" s="271"/>
+      <c r="M22" s="271"/>
       <c r="N22" s="183" t="s">
         <v>69</v>
       </c>
@@ -12736,22 +12740,22 @@
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="95"/>
-      <c r="C30" s="240" t="s">
+      <c r="C30" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="240" t="s">
+      <c r="D30" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="240" t="s">
+      <c r="E30" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="240" t="s">
+      <c r="F30" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="240" t="s">
+      <c r="G30" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="240" t="s">
+      <c r="H30" s="271" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="299" t="s">
@@ -12760,13 +12764,13 @@
       <c r="J30" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="240" t="s">
+      <c r="K30" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="240" t="s">
+      <c r="L30" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="240" t="s">
+      <c r="M30" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -12780,17 +12784,17 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="95"/>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="271"/>
       <c r="I31" s="299"/>
       <c r="J31" s="299"/>
-      <c r="K31" s="240"/>
-      <c r="L31" s="240"/>
-      <c r="M31" s="240"/>
+      <c r="K31" s="271"/>
+      <c r="L31" s="271"/>
+      <c r="M31" s="271"/>
       <c r="N31" s="93" t="s">
         <v>69</v>
       </c>
@@ -13180,34 +13184,16 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -13218,16 +13204,34 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16383,6 +16387,9 @@
         <v>86</v>
       </c>
       <c r="K79" s="68"/>
+      <c r="L79" s="234" t="s">
+        <v>368</v>
+      </c>
       <c r="AV79" s="68"/>
     </row>
     <row r="80" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -16499,6 +16506,9 @@
         <v>86</v>
       </c>
       <c r="K82" s="68"/>
+      <c r="L82" s="234" t="s">
+        <v>368</v>
+      </c>
       <c r="AV82" s="68"/>
     </row>
     <row r="83" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -45647,6 +45657,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -45804,22 +45829,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45835,28 +45869,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3439352-8213-40DB-939F-4ED3607C23ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1D3BE-A558-48D7-9E35-0BF59AC843F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4265,6 +4265,30 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4274,6 +4298,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4300,91 +4409,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4475,30 +4499,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="9" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -5459,7 +5459,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3597"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3599"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5821,11 +5821,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Close</a:t>
+            <a:t>Return</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5840,11 +5843,14 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>終了</a:t>
+            <a:t>戻る</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
@@ -6842,108 +6848,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="227" t="s">
+      <c r="A32" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="227"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="227"/>
-      <c r="Q32" s="227"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="227"/>
-      <c r="V32" s="227"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="227"/>
-      <c r="Y32" s="227"/>
-      <c r="Z32" s="227"/>
-      <c r="AA32" s="227"/>
-      <c r="AB32" s="227"/>
-      <c r="AC32" s="227"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="227"/>
-      <c r="AF32" s="227"/>
-      <c r="AG32" s="227"/>
-      <c r="AH32" s="227"/>
-      <c r="AI32" s="227"/>
-      <c r="AJ32" s="227"/>
-      <c r="AK32" s="227"/>
-      <c r="AL32" s="227"/>
-      <c r="AM32" s="227"/>
-      <c r="AN32" s="227"/>
-      <c r="AO32" s="227"/>
-      <c r="AP32" s="227"/>
-      <c r="AQ32" s="227"/>
-      <c r="AR32" s="227"/>
-      <c r="AS32" s="227"/>
-      <c r="AT32" s="227"/>
-      <c r="AU32" s="227"/>
-      <c r="AV32" s="227"/>
-      <c r="AW32" s="227"/>
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="235"/>
+      <c r="M32" s="235"/>
+      <c r="N32" s="235"/>
+      <c r="O32" s="235"/>
+      <c r="P32" s="235"/>
+      <c r="Q32" s="235"/>
+      <c r="R32" s="235"/>
+      <c r="S32" s="235"/>
+      <c r="T32" s="235"/>
+      <c r="U32" s="235"/>
+      <c r="V32" s="235"/>
+      <c r="W32" s="235"/>
+      <c r="X32" s="235"/>
+      <c r="Y32" s="235"/>
+      <c r="Z32" s="235"/>
+      <c r="AA32" s="235"/>
+      <c r="AB32" s="235"/>
+      <c r="AC32" s="235"/>
+      <c r="AD32" s="235"/>
+      <c r="AE32" s="235"/>
+      <c r="AF32" s="235"/>
+      <c r="AG32" s="235"/>
+      <c r="AH32" s="235"/>
+      <c r="AI32" s="235"/>
+      <c r="AJ32" s="235"/>
+      <c r="AK32" s="235"/>
+      <c r="AL32" s="235"/>
+      <c r="AM32" s="235"/>
+      <c r="AN32" s="235"/>
+      <c r="AO32" s="235"/>
+      <c r="AP32" s="235"/>
+      <c r="AQ32" s="235"/>
+      <c r="AR32" s="235"/>
+      <c r="AS32" s="235"/>
+      <c r="AT32" s="235"/>
+      <c r="AU32" s="235"/>
+      <c r="AV32" s="235"/>
+      <c r="AW32" s="235"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="228"/>
-      <c r="B33" s="228"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="228"/>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="228"/>
-      <c r="W33" s="228"/>
-      <c r="X33" s="228"/>
-      <c r="Y33" s="228"/>
-      <c r="Z33" s="228"/>
-      <c r="AA33" s="228"/>
-      <c r="AB33" s="228"/>
-      <c r="AC33" s="228"/>
-      <c r="AD33" s="228"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="228"/>
-      <c r="AG33" s="228"/>
-      <c r="AH33" s="228"/>
-      <c r="AI33" s="228"/>
-      <c r="AJ33" s="228"/>
-      <c r="AK33" s="228"/>
-      <c r="AL33" s="228"/>
-      <c r="AM33" s="228"/>
-      <c r="AN33" s="228"/>
-      <c r="AO33" s="228"/>
-      <c r="AP33" s="228"/>
-      <c r="AQ33" s="228"/>
-      <c r="AR33" s="228"/>
-      <c r="AS33" s="228"/>
-      <c r="AT33" s="228"/>
-      <c r="AU33" s="228"/>
-      <c r="AV33" s="228"/>
-      <c r="AW33" s="228"/>
+      <c r="A33" s="236"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="236"/>
+      <c r="G33" s="236"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="236"/>
+      <c r="M33" s="236"/>
+      <c r="N33" s="236"/>
+      <c r="O33" s="236"/>
+      <c r="P33" s="236"/>
+      <c r="Q33" s="236"/>
+      <c r="R33" s="236"/>
+      <c r="S33" s="236"/>
+      <c r="T33" s="236"/>
+      <c r="U33" s="236"/>
+      <c r="V33" s="236"/>
+      <c r="W33" s="236"/>
+      <c r="X33" s="236"/>
+      <c r="Y33" s="236"/>
+      <c r="Z33" s="236"/>
+      <c r="AA33" s="236"/>
+      <c r="AB33" s="236"/>
+      <c r="AC33" s="236"/>
+      <c r="AD33" s="236"/>
+      <c r="AE33" s="236"/>
+      <c r="AF33" s="236"/>
+      <c r="AG33" s="236"/>
+      <c r="AH33" s="236"/>
+      <c r="AI33" s="236"/>
+      <c r="AJ33" s="236"/>
+      <c r="AK33" s="236"/>
+      <c r="AL33" s="236"/>
+      <c r="AM33" s="236"/>
+      <c r="AN33" s="236"/>
+      <c r="AO33" s="236"/>
+      <c r="AP33" s="236"/>
+      <c r="AQ33" s="236"/>
+      <c r="AR33" s="236"/>
+      <c r="AS33" s="236"/>
+      <c r="AT33" s="236"/>
+      <c r="AU33" s="236"/>
+      <c r="AV33" s="236"/>
+      <c r="AW33" s="236"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -6981,55 +6987,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="229"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="229"/>
-      <c r="J35" s="229"/>
-      <c r="K35" s="229"/>
-      <c r="L35" s="229"/>
-      <c r="M35" s="229"/>
-      <c r="N35" s="229"/>
-      <c r="O35" s="229"/>
-      <c r="P35" s="229"/>
-      <c r="Q35" s="229"/>
-      <c r="R35" s="229"/>
-      <c r="S35" s="229"/>
-      <c r="T35" s="229"/>
-      <c r="U35" s="229"/>
-      <c r="V35" s="229"/>
-      <c r="W35" s="229"/>
-      <c r="X35" s="229"/>
-      <c r="Y35" s="229"/>
-      <c r="Z35" s="229"/>
-      <c r="AA35" s="229"/>
-      <c r="AB35" s="229"/>
-      <c r="AC35" s="229"/>
-      <c r="AD35" s="229"/>
-      <c r="AE35" s="229"/>
-      <c r="AF35" s="229"/>
-      <c r="AG35" s="229"/>
-      <c r="AH35" s="229"/>
-      <c r="AI35" s="229"/>
-      <c r="AJ35" s="229"/>
-      <c r="AK35" s="229"/>
-      <c r="AL35" s="229"/>
-      <c r="AM35" s="229"/>
-      <c r="AN35" s="229"/>
-      <c r="AO35" s="229"/>
-      <c r="AP35" s="229"/>
-      <c r="AQ35" s="229"/>
-      <c r="AR35" s="229"/>
-      <c r="AS35" s="229"/>
-      <c r="AT35" s="229"/>
-      <c r="AU35" s="229"/>
-      <c r="AV35" s="229"/>
-      <c r="AW35" s="229"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="237"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="237"/>
+      <c r="F35" s="237"/>
+      <c r="G35" s="237"/>
+      <c r="H35" s="237"/>
+      <c r="I35" s="237"/>
+      <c r="J35" s="237"/>
+      <c r="K35" s="237"/>
+      <c r="L35" s="237"/>
+      <c r="M35" s="237"/>
+      <c r="N35" s="237"/>
+      <c r="O35" s="237"/>
+      <c r="P35" s="237"/>
+      <c r="Q35" s="237"/>
+      <c r="R35" s="237"/>
+      <c r="S35" s="237"/>
+      <c r="T35" s="237"/>
+      <c r="U35" s="237"/>
+      <c r="V35" s="237"/>
+      <c r="W35" s="237"/>
+      <c r="X35" s="237"/>
+      <c r="Y35" s="237"/>
+      <c r="Z35" s="237"/>
+      <c r="AA35" s="237"/>
+      <c r="AB35" s="237"/>
+      <c r="AC35" s="237"/>
+      <c r="AD35" s="237"/>
+      <c r="AE35" s="237"/>
+      <c r="AF35" s="237"/>
+      <c r="AG35" s="237"/>
+      <c r="AH35" s="237"/>
+      <c r="AI35" s="237"/>
+      <c r="AJ35" s="237"/>
+      <c r="AK35" s="237"/>
+      <c r="AL35" s="237"/>
+      <c r="AM35" s="237"/>
+      <c r="AN35" s="237"/>
+      <c r="AO35" s="237"/>
+      <c r="AP35" s="237"/>
+      <c r="AQ35" s="237"/>
+      <c r="AR35" s="237"/>
+      <c r="AS35" s="237"/>
+      <c r="AT35" s="237"/>
+      <c r="AU35" s="237"/>
+      <c r="AV35" s="237"/>
+      <c r="AW35" s="237"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -7064,1770 +7070,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="230"/>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="230"/>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="230"/>
-      <c r="AJ1" s="230"/>
-      <c r="AK1" s="230"/>
-      <c r="AL1" s="230"/>
-      <c r="AM1" s="230"/>
-      <c r="AN1" s="230"/>
-      <c r="AO1" s="230"/>
-      <c r="AP1" s="230"/>
-      <c r="AQ1" s="230"/>
-      <c r="AR1" s="230"/>
-      <c r="AS1" s="230"/>
-      <c r="AT1" s="230"/>
-      <c r="AU1" s="230"/>
-      <c r="AV1" s="230"/>
-      <c r="AW1" s="230"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="269"/>
+      <c r="T1" s="269"/>
+      <c r="U1" s="269"/>
+      <c r="V1" s="269"/>
+      <c r="W1" s="269"/>
+      <c r="X1" s="269"/>
+      <c r="Y1" s="269"/>
+      <c r="Z1" s="269"/>
+      <c r="AA1" s="269"/>
+      <c r="AB1" s="269"/>
+      <c r="AC1" s="269"/>
+      <c r="AD1" s="269"/>
+      <c r="AE1" s="269"/>
+      <c r="AF1" s="269"/>
+      <c r="AG1" s="269"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="269"/>
+      <c r="AJ1" s="269"/>
+      <c r="AK1" s="269"/>
+      <c r="AL1" s="269"/>
+      <c r="AM1" s="269"/>
+      <c r="AN1" s="269"/>
+      <c r="AO1" s="269"/>
+      <c r="AP1" s="269"/>
+      <c r="AQ1" s="269"/>
+      <c r="AR1" s="269"/>
+      <c r="AS1" s="269"/>
+      <c r="AT1" s="269"/>
+      <c r="AU1" s="269"/>
+      <c r="AV1" s="269"/>
+      <c r="AW1" s="269"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231"/>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="231"/>
-      <c r="AB2" s="231"/>
-      <c r="AC2" s="231"/>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="231"/>
-      <c r="AG2" s="231"/>
-      <c r="AH2" s="231"/>
-      <c r="AI2" s="231"/>
-      <c r="AJ2" s="231"/>
-      <c r="AK2" s="231"/>
-      <c r="AL2" s="231"/>
-      <c r="AM2" s="231"/>
-      <c r="AN2" s="231"/>
-      <c r="AO2" s="231"/>
-      <c r="AP2" s="231"/>
-      <c r="AQ2" s="231"/>
-      <c r="AR2" s="231"/>
-      <c r="AS2" s="231"/>
-      <c r="AT2" s="231"/>
-      <c r="AU2" s="231"/>
-      <c r="AV2" s="231"/>
-      <c r="AW2" s="231"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="270"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="270"/>
+      <c r="W2" s="270"/>
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="270"/>
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="270"/>
+      <c r="AH2" s="270"/>
+      <c r="AI2" s="270"/>
+      <c r="AJ2" s="270"/>
+      <c r="AK2" s="270"/>
+      <c r="AL2" s="270"/>
+      <c r="AM2" s="270"/>
+      <c r="AN2" s="270"/>
+      <c r="AO2" s="270"/>
+      <c r="AP2" s="270"/>
+      <c r="AQ2" s="270"/>
+      <c r="AR2" s="270"/>
+      <c r="AS2" s="270"/>
+      <c r="AT2" s="270"/>
+      <c r="AU2" s="270"/>
+      <c r="AV2" s="270"/>
+      <c r="AW2" s="270"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232" t="s">
+      <c r="C3" s="271"/>
+      <c r="D3" s="271"/>
+      <c r="E3" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="233" t="s">
+      <c r="F3" s="271"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="271"/>
+      <c r="J3" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="234"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="233" t="s">
+      <c r="K3" s="273"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="232" t="s">
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="273"/>
+      <c r="R3" s="274"/>
+      <c r="S3" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232" t="s">
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="232"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="232"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="232"/>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="232"/>
-      <c r="AJ3" s="232"/>
-      <c r="AK3" s="232"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="232"/>
-      <c r="AN3" s="232" t="s">
+      <c r="W3" s="271"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="271"/>
+      <c r="AA3" s="271"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="271"/>
+      <c r="AD3" s="271"/>
+      <c r="AE3" s="271"/>
+      <c r="AF3" s="271"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="271"/>
+      <c r="AJ3" s="271"/>
+      <c r="AK3" s="271"/>
+      <c r="AL3" s="271"/>
+      <c r="AM3" s="271"/>
+      <c r="AN3" s="271" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="232"/>
-      <c r="AP3" s="232"/>
-      <c r="AQ3" s="232"/>
-      <c r="AR3" s="232"/>
-      <c r="AS3" s="232" t="s">
+      <c r="AO3" s="271"/>
+      <c r="AP3" s="271"/>
+      <c r="AQ3" s="271"/>
+      <c r="AR3" s="271"/>
+      <c r="AS3" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="232"/>
-      <c r="AU3" s="232"/>
-      <c r="AV3" s="232"/>
-      <c r="AW3" s="232"/>
+      <c r="AT3" s="271"/>
+      <c r="AU3" s="271"/>
+      <c r="AV3" s="271"/>
+      <c r="AW3" s="271"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="232"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="238"/>
-      <c r="S4" s="232"/>
-      <c r="T4" s="232"/>
-      <c r="U4" s="232"/>
-      <c r="V4" s="232"/>
-      <c r="W4" s="232"/>
-      <c r="X4" s="232"/>
-      <c r="Y4" s="232"/>
-      <c r="Z4" s="232"/>
-      <c r="AA4" s="232"/>
-      <c r="AB4" s="232"/>
-      <c r="AC4" s="232"/>
-      <c r="AD4" s="232"/>
-      <c r="AE4" s="232"/>
-      <c r="AF4" s="232"/>
-      <c r="AG4" s="232"/>
-      <c r="AH4" s="232"/>
-      <c r="AI4" s="232"/>
-      <c r="AJ4" s="232"/>
-      <c r="AK4" s="232"/>
-      <c r="AL4" s="232"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="232"/>
-      <c r="AO4" s="232"/>
-      <c r="AP4" s="232"/>
-      <c r="AQ4" s="232"/>
-      <c r="AR4" s="232"/>
-      <c r="AS4" s="232"/>
-      <c r="AT4" s="232"/>
-      <c r="AU4" s="232"/>
-      <c r="AV4" s="232"/>
-      <c r="AW4" s="232"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="271"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="275"/>
+      <c r="N4" s="276"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="276"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="271"/>
+      <c r="T4" s="271"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="271"/>
+      <c r="W4" s="271"/>
+      <c r="X4" s="271"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="271"/>
+      <c r="AA4" s="271"/>
+      <c r="AB4" s="271"/>
+      <c r="AC4" s="271"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="271"/>
+      <c r="AF4" s="271"/>
+      <c r="AG4" s="271"/>
+      <c r="AH4" s="271"/>
+      <c r="AI4" s="271"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="271"/>
+      <c r="AL4" s="271"/>
+      <c r="AM4" s="271"/>
+      <c r="AN4" s="271"/>
+      <c r="AO4" s="271"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="271"/>
+      <c r="AR4" s="271"/>
+      <c r="AS4" s="271"/>
+      <c r="AT4" s="271"/>
+      <c r="AU4" s="271"/>
+      <c r="AV4" s="271"/>
+      <c r="AW4" s="271"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="240">
+      <c r="B5" s="263">
         <v>1</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="241">
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="244">
         <v>43735</v>
       </c>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="242" t="s">
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="243"/>
-      <c r="L5" s="244"/>
-      <c r="M5" s="242" t="s">
+      <c r="K5" s="246"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="243"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="243"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="239" t="s">
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="246"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="248" t="s">
+      <c r="T5" s="251"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="248"/>
-      <c r="X5" s="248"/>
-      <c r="Y5" s="248"/>
-      <c r="Z5" s="248"/>
-      <c r="AA5" s="248"/>
-      <c r="AB5" s="248"/>
-      <c r="AC5" s="248"/>
-      <c r="AD5" s="248"/>
-      <c r="AE5" s="248"/>
-      <c r="AF5" s="248"/>
-      <c r="AG5" s="248"/>
-      <c r="AH5" s="248"/>
-      <c r="AI5" s="248"/>
-      <c r="AJ5" s="248"/>
-      <c r="AK5" s="248"/>
-      <c r="AL5" s="248"/>
-      <c r="AM5" s="248"/>
-      <c r="AN5" s="239" t="s">
+      <c r="W5" s="262"/>
+      <c r="X5" s="262"/>
+      <c r="Y5" s="262"/>
+      <c r="Z5" s="262"/>
+      <c r="AA5" s="262"/>
+      <c r="AB5" s="262"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="262"/>
+      <c r="AE5" s="262"/>
+      <c r="AF5" s="262"/>
+      <c r="AG5" s="262"/>
+      <c r="AH5" s="262"/>
+      <c r="AI5" s="262"/>
+      <c r="AJ5" s="262"/>
+      <c r="AK5" s="262"/>
+      <c r="AL5" s="262"/>
+      <c r="AM5" s="262"/>
+      <c r="AN5" s="251" t="s">
         <v>146</v>
       </c>
-      <c r="AO5" s="239"/>
-      <c r="AP5" s="239"/>
-      <c r="AQ5" s="239"/>
-      <c r="AR5" s="239"/>
-      <c r="AS5" s="239"/>
-      <c r="AT5" s="239"/>
-      <c r="AU5" s="239"/>
-      <c r="AV5" s="239"/>
-      <c r="AW5" s="239"/>
+      <c r="AO5" s="251"/>
+      <c r="AP5" s="251"/>
+      <c r="AQ5" s="251"/>
+      <c r="AR5" s="251"/>
+      <c r="AS5" s="251"/>
+      <c r="AT5" s="251"/>
+      <c r="AU5" s="251"/>
+      <c r="AV5" s="251"/>
+      <c r="AW5" s="251"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="240"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="244"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="246"/>
-      <c r="P6" s="246"/>
-      <c r="Q6" s="246"/>
-      <c r="R6" s="247"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="239"/>
-      <c r="U6" s="239"/>
-      <c r="V6" s="248"/>
-      <c r="W6" s="248"/>
-      <c r="X6" s="248"/>
-      <c r="Y6" s="248"/>
-      <c r="Z6" s="248"/>
-      <c r="AA6" s="248"/>
-      <c r="AB6" s="248"/>
-      <c r="AC6" s="248"/>
-      <c r="AD6" s="248"/>
-      <c r="AE6" s="248"/>
-      <c r="AF6" s="248"/>
-      <c r="AG6" s="248"/>
-      <c r="AH6" s="248"/>
-      <c r="AI6" s="248"/>
-      <c r="AJ6" s="248"/>
-      <c r="AK6" s="248"/>
-      <c r="AL6" s="248"/>
-      <c r="AM6" s="248"/>
-      <c r="AN6" s="239"/>
-      <c r="AO6" s="239"/>
-      <c r="AP6" s="239"/>
-      <c r="AQ6" s="239"/>
-      <c r="AR6" s="239"/>
-      <c r="AS6" s="239"/>
-      <c r="AT6" s="239"/>
-      <c r="AU6" s="239"/>
-      <c r="AV6" s="239"/>
-      <c r="AW6" s="239"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="245"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="268"/>
+      <c r="S6" s="251"/>
+      <c r="T6" s="251"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="262"/>
+      <c r="W6" s="262"/>
+      <c r="X6" s="262"/>
+      <c r="Y6" s="262"/>
+      <c r="Z6" s="262"/>
+      <c r="AA6" s="262"/>
+      <c r="AB6" s="262"/>
+      <c r="AC6" s="262"/>
+      <c r="AD6" s="262"/>
+      <c r="AE6" s="262"/>
+      <c r="AF6" s="262"/>
+      <c r="AG6" s="262"/>
+      <c r="AH6" s="262"/>
+      <c r="AI6" s="262"/>
+      <c r="AJ6" s="262"/>
+      <c r="AK6" s="262"/>
+      <c r="AL6" s="262"/>
+      <c r="AM6" s="262"/>
+      <c r="AN6" s="251"/>
+      <c r="AO6" s="251"/>
+      <c r="AP6" s="251"/>
+      <c r="AQ6" s="251"/>
+      <c r="AR6" s="251"/>
+      <c r="AS6" s="251"/>
+      <c r="AT6" s="251"/>
+      <c r="AU6" s="251"/>
+      <c r="AV6" s="251"/>
+      <c r="AW6" s="251"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="241"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="241"/>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="244"/>
-      <c r="M7" s="245"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="247"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="239"/>
-      <c r="U7" s="239"/>
-      <c r="V7" s="248"/>
-      <c r="W7" s="248"/>
-      <c r="X7" s="248"/>
-      <c r="Y7" s="248"/>
-      <c r="Z7" s="248"/>
-      <c r="AA7" s="248"/>
-      <c r="AB7" s="248"/>
-      <c r="AC7" s="248"/>
-      <c r="AD7" s="248"/>
-      <c r="AE7" s="248"/>
-      <c r="AF7" s="248"/>
-      <c r="AG7" s="248"/>
-      <c r="AH7" s="248"/>
-      <c r="AI7" s="248"/>
-      <c r="AJ7" s="248"/>
-      <c r="AK7" s="248"/>
-      <c r="AL7" s="248"/>
-      <c r="AM7" s="248"/>
-      <c r="AN7" s="239"/>
-      <c r="AO7" s="239"/>
-      <c r="AP7" s="239"/>
-      <c r="AQ7" s="239"/>
-      <c r="AR7" s="239"/>
-      <c r="AS7" s="239"/>
-      <c r="AT7" s="239"/>
-      <c r="AU7" s="239"/>
-      <c r="AV7" s="239"/>
-      <c r="AW7" s="239"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="247"/>
+      <c r="M7" s="266"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="267"/>
+      <c r="R7" s="268"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="262"/>
+      <c r="Z7" s="262"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="262"/>
+      <c r="AF7" s="262"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="262"/>
+      <c r="AJ7" s="262"/>
+      <c r="AK7" s="262"/>
+      <c r="AL7" s="262"/>
+      <c r="AM7" s="262"/>
+      <c r="AN7" s="251"/>
+      <c r="AO7" s="251"/>
+      <c r="AP7" s="251"/>
+      <c r="AQ7" s="251"/>
+      <c r="AR7" s="251"/>
+      <c r="AS7" s="251"/>
+      <c r="AT7" s="251"/>
+      <c r="AU7" s="251"/>
+      <c r="AV7" s="251"/>
+      <c r="AW7" s="251"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="240"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
-      <c r="L8" s="244"/>
-      <c r="M8" s="245"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="247"/>
-      <c r="S8" s="239"/>
-      <c r="T8" s="239"/>
-      <c r="U8" s="239"/>
-      <c r="V8" s="248"/>
-      <c r="W8" s="248"/>
-      <c r="X8" s="248"/>
-      <c r="Y8" s="248"/>
-      <c r="Z8" s="248"/>
-      <c r="AA8" s="248"/>
-      <c r="AB8" s="248"/>
-      <c r="AC8" s="248"/>
-      <c r="AD8" s="248"/>
-      <c r="AE8" s="248"/>
-      <c r="AF8" s="248"/>
-      <c r="AG8" s="248"/>
-      <c r="AH8" s="248"/>
-      <c r="AI8" s="248"/>
-      <c r="AJ8" s="248"/>
-      <c r="AK8" s="248"/>
-      <c r="AL8" s="248"/>
-      <c r="AM8" s="248"/>
-      <c r="AN8" s="239"/>
-      <c r="AO8" s="239"/>
-      <c r="AP8" s="239"/>
-      <c r="AQ8" s="239"/>
-      <c r="AR8" s="239"/>
-      <c r="AS8" s="239"/>
-      <c r="AT8" s="239"/>
-      <c r="AU8" s="239"/>
-      <c r="AV8" s="239"/>
-      <c r="AW8" s="239"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="267"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="262"/>
+      <c r="AE8" s="262"/>
+      <c r="AF8" s="262"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="262"/>
+      <c r="AI8" s="262"/>
+      <c r="AJ8" s="262"/>
+      <c r="AK8" s="262"/>
+      <c r="AL8" s="262"/>
+      <c r="AM8" s="262"/>
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="251"/>
+      <c r="AQ8" s="251"/>
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="251"/>
+      <c r="AV8" s="251"/>
+      <c r="AW8" s="251"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="243"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="247"/>
-      <c r="S9" s="239"/>
-      <c r="T9" s="239"/>
-      <c r="U9" s="239"/>
-      <c r="V9" s="248"/>
-      <c r="W9" s="248"/>
-      <c r="X9" s="248"/>
-      <c r="Y9" s="248"/>
-      <c r="Z9" s="248"/>
-      <c r="AA9" s="248"/>
-      <c r="AB9" s="248"/>
-      <c r="AC9" s="248"/>
-      <c r="AD9" s="248"/>
-      <c r="AE9" s="248"/>
-      <c r="AF9" s="248"/>
-      <c r="AG9" s="248"/>
-      <c r="AH9" s="248"/>
-      <c r="AI9" s="248"/>
-      <c r="AJ9" s="248"/>
-      <c r="AK9" s="248"/>
-      <c r="AL9" s="248"/>
-      <c r="AM9" s="248"/>
-      <c r="AN9" s="239"/>
-      <c r="AO9" s="239"/>
-      <c r="AP9" s="239"/>
-      <c r="AQ9" s="239"/>
-      <c r="AR9" s="239"/>
-      <c r="AS9" s="239"/>
-      <c r="AT9" s="239"/>
-      <c r="AU9" s="239"/>
-      <c r="AV9" s="239"/>
-      <c r="AW9" s="239"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="251"/>
+      <c r="T9" s="251"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="262"/>
+      <c r="AD9" s="262"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="262"/>
+      <c r="AH9" s="262"/>
+      <c r="AI9" s="262"/>
+      <c r="AJ9" s="262"/>
+      <c r="AK9" s="262"/>
+      <c r="AL9" s="262"/>
+      <c r="AM9" s="262"/>
+      <c r="AN9" s="251"/>
+      <c r="AO9" s="251"/>
+      <c r="AP9" s="251"/>
+      <c r="AQ9" s="251"/>
+      <c r="AR9" s="251"/>
+      <c r="AS9" s="251"/>
+      <c r="AT9" s="251"/>
+      <c r="AU9" s="251"/>
+      <c r="AV9" s="251"/>
+      <c r="AW9" s="251"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="240"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="245"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="247"/>
-      <c r="S10" s="239"/>
-      <c r="T10" s="239"/>
-      <c r="U10" s="239"/>
-      <c r="V10" s="248"/>
-      <c r="W10" s="248"/>
-      <c r="X10" s="248"/>
-      <c r="Y10" s="248"/>
-      <c r="Z10" s="248"/>
-      <c r="AA10" s="248"/>
-      <c r="AB10" s="248"/>
-      <c r="AC10" s="248"/>
-      <c r="AD10" s="248"/>
-      <c r="AE10" s="248"/>
-      <c r="AF10" s="248"/>
-      <c r="AG10" s="248"/>
-      <c r="AH10" s="248"/>
-      <c r="AI10" s="248"/>
-      <c r="AJ10" s="248"/>
-      <c r="AK10" s="248"/>
-      <c r="AL10" s="248"/>
-      <c r="AM10" s="248"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="239"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="239"/>
-      <c r="AT10" s="239"/>
-      <c r="AU10" s="239"/>
-      <c r="AV10" s="239"/>
-      <c r="AW10" s="239"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="267"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="267"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="251"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="251"/>
+      <c r="V10" s="262"/>
+      <c r="W10" s="262"/>
+      <c r="X10" s="262"/>
+      <c r="Y10" s="262"/>
+      <c r="Z10" s="262"/>
+      <c r="AA10" s="262"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="262"/>
+      <c r="AH10" s="262"/>
+      <c r="AI10" s="262"/>
+      <c r="AJ10" s="262"/>
+      <c r="AK10" s="262"/>
+      <c r="AL10" s="262"/>
+      <c r="AM10" s="262"/>
+      <c r="AN10" s="251"/>
+      <c r="AO10" s="251"/>
+      <c r="AP10" s="251"/>
+      <c r="AQ10" s="251"/>
+      <c r="AR10" s="251"/>
+      <c r="AS10" s="251"/>
+      <c r="AT10" s="251"/>
+      <c r="AU10" s="251"/>
+      <c r="AV10" s="251"/>
+      <c r="AW10" s="251"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="252"/>
-      <c r="N11" s="253"/>
-      <c r="O11" s="253"/>
-      <c r="P11" s="253"/>
-      <c r="Q11" s="253"/>
-      <c r="R11" s="254"/>
-      <c r="S11" s="239"/>
-      <c r="T11" s="239"/>
-      <c r="U11" s="239"/>
-      <c r="V11" s="255"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="261"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="261"/>
-      <c r="AF11" s="261"/>
-      <c r="AG11" s="261"/>
-      <c r="AH11" s="261"/>
-      <c r="AI11" s="261"/>
-      <c r="AJ11" s="261"/>
-      <c r="AK11" s="261"/>
-      <c r="AL11" s="261"/>
-      <c r="AM11" s="262"/>
-      <c r="AN11" s="239"/>
-      <c r="AO11" s="239"/>
-      <c r="AP11" s="239"/>
-      <c r="AQ11" s="239"/>
-      <c r="AR11" s="239"/>
-      <c r="AS11" s="239"/>
-      <c r="AT11" s="239"/>
-      <c r="AU11" s="239"/>
-      <c r="AV11" s="239"/>
-      <c r="AW11" s="239"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="252"/>
+      <c r="W11" s="264"/>
+      <c r="X11" s="264"/>
+      <c r="Y11" s="264"/>
+      <c r="Z11" s="264"/>
+      <c r="AA11" s="264"/>
+      <c r="AB11" s="264"/>
+      <c r="AC11" s="264"/>
+      <c r="AD11" s="264"/>
+      <c r="AE11" s="264"/>
+      <c r="AF11" s="264"/>
+      <c r="AG11" s="264"/>
+      <c r="AH11" s="264"/>
+      <c r="AI11" s="264"/>
+      <c r="AJ11" s="264"/>
+      <c r="AK11" s="264"/>
+      <c r="AL11" s="264"/>
+      <c r="AM11" s="265"/>
+      <c r="AN11" s="251"/>
+      <c r="AO11" s="251"/>
+      <c r="AP11" s="251"/>
+      <c r="AQ11" s="251"/>
+      <c r="AR11" s="251"/>
+      <c r="AS11" s="251"/>
+      <c r="AT11" s="251"/>
+      <c r="AU11" s="251"/>
+      <c r="AV11" s="251"/>
+      <c r="AW11" s="251"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="250"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="243"/>
-      <c r="L12" s="244"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="253"/>
-      <c r="O12" s="253"/>
-      <c r="P12" s="253"/>
-      <c r="Q12" s="253"/>
-      <c r="R12" s="254"/>
-      <c r="S12" s="239"/>
-      <c r="T12" s="239"/>
-      <c r="U12" s="239"/>
-      <c r="V12" s="255"/>
-      <c r="W12" s="256"/>
-      <c r="X12" s="256"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="256"/>
-      <c r="AA12" s="256"/>
-      <c r="AB12" s="256"/>
-      <c r="AC12" s="256"/>
-      <c r="AD12" s="256"/>
-      <c r="AE12" s="256"/>
-      <c r="AF12" s="256"/>
-      <c r="AG12" s="256"/>
-      <c r="AH12" s="256"/>
-      <c r="AI12" s="256"/>
-      <c r="AJ12" s="256"/>
-      <c r="AK12" s="256"/>
-      <c r="AL12" s="256"/>
-      <c r="AM12" s="257"/>
-      <c r="AN12" s="258"/>
-      <c r="AO12" s="259"/>
-      <c r="AP12" s="259"/>
-      <c r="AQ12" s="259"/>
-      <c r="AR12" s="260"/>
-      <c r="AS12" s="258"/>
-      <c r="AT12" s="259"/>
-      <c r="AU12" s="259"/>
-      <c r="AV12" s="259"/>
-      <c r="AW12" s="260"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="245"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="247"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="256"/>
+      <c r="Q12" s="256"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
+      <c r="AI12" s="253"/>
+      <c r="AJ12" s="253"/>
+      <c r="AK12" s="253"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="254"/>
+      <c r="AN12" s="238"/>
+      <c r="AO12" s="239"/>
+      <c r="AP12" s="239"/>
+      <c r="AQ12" s="239"/>
+      <c r="AR12" s="240"/>
+      <c r="AS12" s="238"/>
+      <c r="AT12" s="239"/>
+      <c r="AU12" s="239"/>
+      <c r="AV12" s="239"/>
+      <c r="AW12" s="240"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="250"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="243"/>
-      <c r="L13" s="244"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="253"/>
-      <c r="O13" s="253"/>
-      <c r="P13" s="253"/>
-      <c r="Q13" s="253"/>
-      <c r="R13" s="254"/>
-      <c r="S13" s="239"/>
-      <c r="T13" s="239"/>
-      <c r="U13" s="239"/>
-      <c r="V13" s="255"/>
-      <c r="W13" s="256"/>
-      <c r="X13" s="256"/>
-      <c r="Y13" s="256"/>
-      <c r="Z13" s="256"/>
-      <c r="AA13" s="256"/>
-      <c r="AB13" s="256"/>
-      <c r="AC13" s="256"/>
-      <c r="AD13" s="256"/>
-      <c r="AE13" s="256"/>
-      <c r="AF13" s="256"/>
-      <c r="AG13" s="256"/>
-      <c r="AH13" s="256"/>
-      <c r="AI13" s="256"/>
-      <c r="AJ13" s="256"/>
-      <c r="AK13" s="256"/>
-      <c r="AL13" s="256"/>
-      <c r="AM13" s="257"/>
-      <c r="AN13" s="258"/>
-      <c r="AO13" s="259"/>
-      <c r="AP13" s="259"/>
-      <c r="AQ13" s="259"/>
-      <c r="AR13" s="260"/>
-      <c r="AS13" s="258"/>
-      <c r="AT13" s="259"/>
-      <c r="AU13" s="259"/>
-      <c r="AV13" s="259"/>
-      <c r="AW13" s="260"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="244"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="256"/>
+      <c r="P13" s="256"/>
+      <c r="Q13" s="256"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
+      <c r="AI13" s="253"/>
+      <c r="AJ13" s="253"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="254"/>
+      <c r="AN13" s="238"/>
+      <c r="AO13" s="239"/>
+      <c r="AP13" s="239"/>
+      <c r="AQ13" s="239"/>
+      <c r="AR13" s="240"/>
+      <c r="AS13" s="238"/>
+      <c r="AT13" s="239"/>
+      <c r="AU13" s="239"/>
+      <c r="AV13" s="239"/>
+      <c r="AW13" s="240"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="249"/>
-      <c r="C14" s="250"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="243"/>
-      <c r="L14" s="244"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="253"/>
-      <c r="O14" s="253"/>
-      <c r="P14" s="253"/>
-      <c r="Q14" s="253"/>
-      <c r="R14" s="254"/>
-      <c r="S14" s="239"/>
-      <c r="T14" s="239"/>
-      <c r="U14" s="239"/>
-      <c r="V14" s="264"/>
-      <c r="W14" s="248"/>
-      <c r="X14" s="248"/>
-      <c r="Y14" s="248"/>
-      <c r="Z14" s="248"/>
-      <c r="AA14" s="248"/>
-      <c r="AB14" s="248"/>
-      <c r="AC14" s="248"/>
-      <c r="AD14" s="248"/>
-      <c r="AE14" s="248"/>
-      <c r="AF14" s="248"/>
-      <c r="AG14" s="248"/>
-      <c r="AH14" s="248"/>
-      <c r="AI14" s="248"/>
-      <c r="AJ14" s="248"/>
-      <c r="AK14" s="248"/>
-      <c r="AL14" s="248"/>
-      <c r="AM14" s="248"/>
-      <c r="AN14" s="239"/>
-      <c r="AO14" s="239"/>
-      <c r="AP14" s="239"/>
-      <c r="AQ14" s="239"/>
-      <c r="AR14" s="239"/>
-      <c r="AS14" s="258"/>
-      <c r="AT14" s="259"/>
-      <c r="AU14" s="259"/>
-      <c r="AV14" s="259"/>
-      <c r="AW14" s="260"/>
+      <c r="B14" s="241"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="245"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="247"/>
+      <c r="M14" s="255"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="257"/>
+      <c r="S14" s="251"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="251"/>
+      <c r="V14" s="261"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="262"/>
+      <c r="Y14" s="262"/>
+      <c r="Z14" s="262"/>
+      <c r="AA14" s="262"/>
+      <c r="AB14" s="262"/>
+      <c r="AC14" s="262"/>
+      <c r="AD14" s="262"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="262"/>
+      <c r="AH14" s="262"/>
+      <c r="AI14" s="262"/>
+      <c r="AJ14" s="262"/>
+      <c r="AK14" s="262"/>
+      <c r="AL14" s="262"/>
+      <c r="AM14" s="262"/>
+      <c r="AN14" s="251"/>
+      <c r="AO14" s="251"/>
+      <c r="AP14" s="251"/>
+      <c r="AQ14" s="251"/>
+      <c r="AR14" s="251"/>
+      <c r="AS14" s="238"/>
+      <c r="AT14" s="239"/>
+      <c r="AU14" s="239"/>
+      <c r="AV14" s="239"/>
+      <c r="AW14" s="240"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="250"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="243"/>
-      <c r="L15" s="244"/>
-      <c r="M15" s="252"/>
-      <c r="N15" s="253"/>
-      <c r="O15" s="253"/>
-      <c r="P15" s="253"/>
-      <c r="Q15" s="253"/>
-      <c r="R15" s="254"/>
-      <c r="S15" s="239"/>
-      <c r="T15" s="239"/>
-      <c r="U15" s="239"/>
-      <c r="V15" s="255"/>
-      <c r="W15" s="256"/>
-      <c r="X15" s="256"/>
-      <c r="Y15" s="256"/>
-      <c r="Z15" s="256"/>
-      <c r="AA15" s="256"/>
-      <c r="AB15" s="256"/>
-      <c r="AC15" s="256"/>
-      <c r="AD15" s="256"/>
-      <c r="AE15" s="256"/>
-      <c r="AF15" s="256"/>
-      <c r="AG15" s="256"/>
-      <c r="AH15" s="256"/>
-      <c r="AI15" s="256"/>
-      <c r="AJ15" s="256"/>
-      <c r="AK15" s="256"/>
-      <c r="AL15" s="256"/>
-      <c r="AM15" s="257"/>
-      <c r="AN15" s="258"/>
-      <c r="AO15" s="259"/>
-      <c r="AP15" s="259"/>
-      <c r="AQ15" s="259"/>
-      <c r="AR15" s="260"/>
-      <c r="AS15" s="258"/>
-      <c r="AT15" s="259"/>
-      <c r="AU15" s="259"/>
-      <c r="AV15" s="259"/>
-      <c r="AW15" s="260"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="247"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="257"/>
+      <c r="S15" s="251"/>
+      <c r="T15" s="251"/>
+      <c r="U15" s="251"/>
+      <c r="V15" s="252"/>
+      <c r="W15" s="253"/>
+      <c r="X15" s="253"/>
+      <c r="Y15" s="253"/>
+      <c r="Z15" s="253"/>
+      <c r="AA15" s="253"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="253"/>
+      <c r="AD15" s="253"/>
+      <c r="AE15" s="253"/>
+      <c r="AF15" s="253"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="253"/>
+      <c r="AI15" s="253"/>
+      <c r="AJ15" s="253"/>
+      <c r="AK15" s="253"/>
+      <c r="AL15" s="253"/>
+      <c r="AM15" s="254"/>
+      <c r="AN15" s="238"/>
+      <c r="AO15" s="239"/>
+      <c r="AP15" s="239"/>
+      <c r="AQ15" s="239"/>
+      <c r="AR15" s="240"/>
+      <c r="AS15" s="238"/>
+      <c r="AT15" s="239"/>
+      <c r="AU15" s="239"/>
+      <c r="AV15" s="239"/>
+      <c r="AW15" s="240"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="249"/>
-      <c r="C16" s="250"/>
-      <c r="D16" s="251"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="241"/>
-      <c r="I16" s="241"/>
-      <c r="J16" s="242"/>
-      <c r="K16" s="243"/>
-      <c r="L16" s="244"/>
-      <c r="M16" s="252"/>
-      <c r="N16" s="253"/>
-      <c r="O16" s="253"/>
-      <c r="P16" s="253"/>
-      <c r="Q16" s="253"/>
-      <c r="R16" s="254"/>
-      <c r="S16" s="239"/>
-      <c r="T16" s="239"/>
-      <c r="U16" s="239"/>
-      <c r="V16" s="255"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="256"/>
-      <c r="Z16" s="256"/>
-      <c r="AA16" s="256"/>
-      <c r="AB16" s="256"/>
-      <c r="AC16" s="256"/>
-      <c r="AD16" s="256"/>
-      <c r="AE16" s="256"/>
-      <c r="AF16" s="256"/>
-      <c r="AG16" s="256"/>
-      <c r="AH16" s="256"/>
-      <c r="AI16" s="256"/>
-      <c r="AJ16" s="256"/>
-      <c r="AK16" s="256"/>
-      <c r="AL16" s="256"/>
-      <c r="AM16" s="257"/>
-      <c r="AN16" s="258"/>
-      <c r="AO16" s="259"/>
-      <c r="AP16" s="259"/>
-      <c r="AQ16" s="259"/>
-      <c r="AR16" s="260"/>
-      <c r="AS16" s="258"/>
-      <c r="AT16" s="259"/>
-      <c r="AU16" s="259"/>
-      <c r="AV16" s="259"/>
-      <c r="AW16" s="260"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="247"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="251"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="251"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
+      <c r="AF16" s="253"/>
+      <c r="AG16" s="253"/>
+      <c r="AH16" s="253"/>
+      <c r="AI16" s="253"/>
+      <c r="AJ16" s="253"/>
+      <c r="AK16" s="253"/>
+      <c r="AL16" s="253"/>
+      <c r="AM16" s="254"/>
+      <c r="AN16" s="238"/>
+      <c r="AO16" s="239"/>
+      <c r="AP16" s="239"/>
+      <c r="AQ16" s="239"/>
+      <c r="AR16" s="240"/>
+      <c r="AS16" s="238"/>
+      <c r="AT16" s="239"/>
+      <c r="AU16" s="239"/>
+      <c r="AV16" s="239"/>
+      <c r="AW16" s="240"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="241"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="242"/>
-      <c r="K17" s="243"/>
-      <c r="L17" s="244"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="253"/>
-      <c r="O17" s="253"/>
-      <c r="P17" s="253"/>
-      <c r="Q17" s="253"/>
-      <c r="R17" s="265"/>
-      <c r="S17" s="266"/>
-      <c r="T17" s="266"/>
-      <c r="U17" s="266"/>
-      <c r="V17" s="255"/>
-      <c r="W17" s="256"/>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="256"/>
-      <c r="Z17" s="256"/>
-      <c r="AA17" s="256"/>
-      <c r="AB17" s="256"/>
-      <c r="AC17" s="256"/>
-      <c r="AD17" s="256"/>
-      <c r="AE17" s="256"/>
-      <c r="AF17" s="256"/>
-      <c r="AG17" s="256"/>
-      <c r="AH17" s="256"/>
-      <c r="AI17" s="256"/>
-      <c r="AJ17" s="256"/>
-      <c r="AK17" s="256"/>
-      <c r="AL17" s="256"/>
-      <c r="AM17" s="257"/>
-      <c r="AN17" s="258"/>
-      <c r="AO17" s="259"/>
-      <c r="AP17" s="259"/>
-      <c r="AQ17" s="259"/>
-      <c r="AR17" s="260"/>
-      <c r="AS17" s="258"/>
-      <c r="AT17" s="259"/>
-      <c r="AU17" s="259"/>
-      <c r="AV17" s="259"/>
-      <c r="AW17" s="260"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="244"/>
+      <c r="J17" s="245"/>
+      <c r="K17" s="246"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="260"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="260"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
+      <c r="AF17" s="253"/>
+      <c r="AG17" s="253"/>
+      <c r="AH17" s="253"/>
+      <c r="AI17" s="253"/>
+      <c r="AJ17" s="253"/>
+      <c r="AK17" s="253"/>
+      <c r="AL17" s="253"/>
+      <c r="AM17" s="254"/>
+      <c r="AN17" s="238"/>
+      <c r="AO17" s="239"/>
+      <c r="AP17" s="239"/>
+      <c r="AQ17" s="239"/>
+      <c r="AR17" s="240"/>
+      <c r="AS17" s="238"/>
+      <c r="AT17" s="239"/>
+      <c r="AU17" s="239"/>
+      <c r="AV17" s="239"/>
+      <c r="AW17" s="240"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="249"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="244"/>
-      <c r="M18" s="263"/>
-      <c r="N18" s="253"/>
-      <c r="O18" s="253"/>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="253"/>
-      <c r="R18" s="254"/>
-      <c r="S18" s="239"/>
-      <c r="T18" s="239"/>
-      <c r="U18" s="239"/>
-      <c r="V18" s="255"/>
-      <c r="W18" s="256"/>
-      <c r="X18" s="256"/>
-      <c r="Y18" s="256"/>
-      <c r="Z18" s="256"/>
-      <c r="AA18" s="256"/>
-      <c r="AB18" s="256"/>
-      <c r="AC18" s="256"/>
-      <c r="AD18" s="256"/>
-      <c r="AE18" s="256"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="256"/>
-      <c r="AH18" s="256"/>
-      <c r="AI18" s="256"/>
-      <c r="AJ18" s="256"/>
-      <c r="AK18" s="256"/>
-      <c r="AL18" s="256"/>
-      <c r="AM18" s="257"/>
-      <c r="AN18" s="258"/>
-      <c r="AO18" s="259"/>
-      <c r="AP18" s="259"/>
-      <c r="AQ18" s="259"/>
-      <c r="AR18" s="260"/>
-      <c r="AS18" s="258"/>
-      <c r="AT18" s="259"/>
-      <c r="AU18" s="259"/>
-      <c r="AV18" s="259"/>
-      <c r="AW18" s="260"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="245"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="255"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="257"/>
+      <c r="S18" s="251"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="251"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="253"/>
+      <c r="AI18" s="253"/>
+      <c r="AJ18" s="253"/>
+      <c r="AK18" s="253"/>
+      <c r="AL18" s="253"/>
+      <c r="AM18" s="254"/>
+      <c r="AN18" s="238"/>
+      <c r="AO18" s="239"/>
+      <c r="AP18" s="239"/>
+      <c r="AQ18" s="239"/>
+      <c r="AR18" s="240"/>
+      <c r="AS18" s="238"/>
+      <c r="AT18" s="239"/>
+      <c r="AU18" s="239"/>
+      <c r="AV18" s="239"/>
+      <c r="AW18" s="240"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="251"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="243"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="252"/>
-      <c r="N19" s="253"/>
-      <c r="O19" s="253"/>
-      <c r="P19" s="253"/>
-      <c r="Q19" s="253"/>
-      <c r="R19" s="254"/>
-      <c r="S19" s="239"/>
-      <c r="T19" s="239"/>
-      <c r="U19" s="239"/>
-      <c r="V19" s="255"/>
-      <c r="W19" s="256"/>
-      <c r="X19" s="256"/>
-      <c r="Y19" s="256"/>
-      <c r="Z19" s="256"/>
-      <c r="AA19" s="256"/>
-      <c r="AB19" s="256"/>
-      <c r="AC19" s="256"/>
-      <c r="AD19" s="256"/>
-      <c r="AE19" s="256"/>
-      <c r="AF19" s="256"/>
-      <c r="AG19" s="256"/>
-      <c r="AH19" s="256"/>
-      <c r="AI19" s="256"/>
-      <c r="AJ19" s="256"/>
-      <c r="AK19" s="256"/>
-      <c r="AL19" s="256"/>
-      <c r="AM19" s="257"/>
-      <c r="AN19" s="239"/>
-      <c r="AO19" s="239"/>
-      <c r="AP19" s="239"/>
-      <c r="AQ19" s="239"/>
-      <c r="AR19" s="239"/>
-      <c r="AS19" s="258"/>
-      <c r="AT19" s="259"/>
-      <c r="AU19" s="259"/>
-      <c r="AV19" s="259"/>
-      <c r="AW19" s="260"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="243"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="247"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="256"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
+      <c r="R19" s="257"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+      <c r="AJ19" s="253"/>
+      <c r="AK19" s="253"/>
+      <c r="AL19" s="253"/>
+      <c r="AM19" s="254"/>
+      <c r="AN19" s="251"/>
+      <c r="AO19" s="251"/>
+      <c r="AP19" s="251"/>
+      <c r="AQ19" s="251"/>
+      <c r="AR19" s="251"/>
+      <c r="AS19" s="238"/>
+      <c r="AT19" s="239"/>
+      <c r="AU19" s="239"/>
+      <c r="AV19" s="239"/>
+      <c r="AW19" s="240"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="249"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="251"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="242"/>
-      <c r="K20" s="243"/>
-      <c r="L20" s="244"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="253"/>
-      <c r="O20" s="253"/>
-      <c r="P20" s="253"/>
-      <c r="Q20" s="253"/>
-      <c r="R20" s="254"/>
-      <c r="S20" s="258"/>
-      <c r="T20" s="259"/>
-      <c r="U20" s="260"/>
-      <c r="V20" s="255"/>
-      <c r="W20" s="256"/>
-      <c r="X20" s="256"/>
-      <c r="Y20" s="256"/>
-      <c r="Z20" s="256"/>
-      <c r="AA20" s="256"/>
-      <c r="AB20" s="256"/>
-      <c r="AC20" s="256"/>
-      <c r="AD20" s="256"/>
-      <c r="AE20" s="256"/>
-      <c r="AF20" s="256"/>
-      <c r="AG20" s="256"/>
-      <c r="AH20" s="256"/>
-      <c r="AI20" s="256"/>
-      <c r="AJ20" s="256"/>
-      <c r="AK20" s="256"/>
-      <c r="AL20" s="256"/>
-      <c r="AM20" s="257"/>
-      <c r="AN20" s="258"/>
-      <c r="AO20" s="259"/>
-      <c r="AP20" s="259"/>
-      <c r="AQ20" s="259"/>
-      <c r="AR20" s="260"/>
-      <c r="AS20" s="258"/>
-      <c r="AT20" s="259"/>
-      <c r="AU20" s="259"/>
-      <c r="AV20" s="259"/>
-      <c r="AW20" s="260"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="247"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="256"/>
+      <c r="O20" s="256"/>
+      <c r="P20" s="256"/>
+      <c r="Q20" s="256"/>
+      <c r="R20" s="257"/>
+      <c r="S20" s="238"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="253"/>
+      <c r="X20" s="253"/>
+      <c r="Y20" s="253"/>
+      <c r="Z20" s="253"/>
+      <c r="AA20" s="253"/>
+      <c r="AB20" s="253"/>
+      <c r="AC20" s="253"/>
+      <c r="AD20" s="253"/>
+      <c r="AE20" s="253"/>
+      <c r="AF20" s="253"/>
+      <c r="AG20" s="253"/>
+      <c r="AH20" s="253"/>
+      <c r="AI20" s="253"/>
+      <c r="AJ20" s="253"/>
+      <c r="AK20" s="253"/>
+      <c r="AL20" s="253"/>
+      <c r="AM20" s="254"/>
+      <c r="AN20" s="238"/>
+      <c r="AO20" s="239"/>
+      <c r="AP20" s="239"/>
+      <c r="AQ20" s="239"/>
+      <c r="AR20" s="240"/>
+      <c r="AS20" s="238"/>
+      <c r="AT20" s="239"/>
+      <c r="AU20" s="239"/>
+      <c r="AV20" s="239"/>
+      <c r="AW20" s="240"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="249"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="241"/>
-      <c r="G21" s="241"/>
-      <c r="H21" s="241"/>
-      <c r="I21" s="241"/>
-      <c r="J21" s="242"/>
-      <c r="K21" s="243"/>
-      <c r="L21" s="244"/>
-      <c r="M21" s="252"/>
-      <c r="N21" s="253"/>
-      <c r="O21" s="253"/>
-      <c r="P21" s="253"/>
-      <c r="Q21" s="253"/>
-      <c r="R21" s="254"/>
-      <c r="S21" s="239"/>
-      <c r="T21" s="239"/>
-      <c r="U21" s="239"/>
-      <c r="V21" s="255"/>
-      <c r="W21" s="256"/>
-      <c r="X21" s="256"/>
-      <c r="Y21" s="256"/>
-      <c r="Z21" s="256"/>
-      <c r="AA21" s="256"/>
-      <c r="AB21" s="256"/>
-      <c r="AC21" s="256"/>
-      <c r="AD21" s="256"/>
-      <c r="AE21" s="256"/>
-      <c r="AF21" s="256"/>
-      <c r="AG21" s="256"/>
-      <c r="AH21" s="256"/>
-      <c r="AI21" s="256"/>
-      <c r="AJ21" s="256"/>
-      <c r="AK21" s="256"/>
-      <c r="AL21" s="256"/>
-      <c r="AM21" s="257"/>
-      <c r="AN21" s="258"/>
-      <c r="AO21" s="259"/>
-      <c r="AP21" s="259"/>
-      <c r="AQ21" s="259"/>
-      <c r="AR21" s="260"/>
-      <c r="AS21" s="258"/>
-      <c r="AT21" s="259"/>
-      <c r="AU21" s="259"/>
-      <c r="AV21" s="259"/>
-      <c r="AW21" s="260"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="245"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="247"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="256"/>
+      <c r="Q21" s="256"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="251"/>
+      <c r="T21" s="251"/>
+      <c r="U21" s="251"/>
+      <c r="V21" s="252"/>
+      <c r="W21" s="253"/>
+      <c r="X21" s="253"/>
+      <c r="Y21" s="253"/>
+      <c r="Z21" s="253"/>
+      <c r="AA21" s="253"/>
+      <c r="AB21" s="253"/>
+      <c r="AC21" s="253"/>
+      <c r="AD21" s="253"/>
+      <c r="AE21" s="253"/>
+      <c r="AF21" s="253"/>
+      <c r="AG21" s="253"/>
+      <c r="AH21" s="253"/>
+      <c r="AI21" s="253"/>
+      <c r="AJ21" s="253"/>
+      <c r="AK21" s="253"/>
+      <c r="AL21" s="253"/>
+      <c r="AM21" s="254"/>
+      <c r="AN21" s="238"/>
+      <c r="AO21" s="239"/>
+      <c r="AP21" s="239"/>
+      <c r="AQ21" s="239"/>
+      <c r="AR21" s="240"/>
+      <c r="AS21" s="238"/>
+      <c r="AT21" s="239"/>
+      <c r="AU21" s="239"/>
+      <c r="AV21" s="239"/>
+      <c r="AW21" s="240"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="249"/>
-      <c r="C22" s="250"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
-      <c r="G22" s="241"/>
-      <c r="H22" s="241"/>
-      <c r="I22" s="241"/>
-      <c r="J22" s="242"/>
-      <c r="K22" s="243"/>
-      <c r="L22" s="244"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="253"/>
-      <c r="O22" s="253"/>
-      <c r="P22" s="253"/>
-      <c r="Q22" s="253"/>
-      <c r="R22" s="254"/>
-      <c r="S22" s="239"/>
-      <c r="T22" s="239"/>
-      <c r="U22" s="239"/>
-      <c r="V22" s="255"/>
-      <c r="W22" s="256"/>
-      <c r="X22" s="256"/>
-      <c r="Y22" s="256"/>
-      <c r="Z22" s="256"/>
-      <c r="AA22" s="256"/>
-      <c r="AB22" s="256"/>
-      <c r="AC22" s="256"/>
-      <c r="AD22" s="256"/>
-      <c r="AE22" s="256"/>
-      <c r="AF22" s="256"/>
-      <c r="AG22" s="256"/>
-      <c r="AH22" s="256"/>
-      <c r="AI22" s="256"/>
-      <c r="AJ22" s="256"/>
-      <c r="AK22" s="256"/>
-      <c r="AL22" s="256"/>
-      <c r="AM22" s="257"/>
-      <c r="AN22" s="258"/>
-      <c r="AO22" s="259"/>
-      <c r="AP22" s="259"/>
-      <c r="AQ22" s="259"/>
-      <c r="AR22" s="260"/>
-      <c r="AS22" s="258"/>
-      <c r="AT22" s="259"/>
-      <c r="AU22" s="259"/>
-      <c r="AV22" s="259"/>
-      <c r="AW22" s="260"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="242"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="246"/>
+      <c r="L22" s="247"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="256"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="256"/>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="257"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="251"/>
+      <c r="U22" s="251"/>
+      <c r="V22" s="252"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="253"/>
+      <c r="Y22" s="253"/>
+      <c r="Z22" s="253"/>
+      <c r="AA22" s="253"/>
+      <c r="AB22" s="253"/>
+      <c r="AC22" s="253"/>
+      <c r="AD22" s="253"/>
+      <c r="AE22" s="253"/>
+      <c r="AF22" s="253"/>
+      <c r="AG22" s="253"/>
+      <c r="AH22" s="253"/>
+      <c r="AI22" s="253"/>
+      <c r="AJ22" s="253"/>
+      <c r="AK22" s="253"/>
+      <c r="AL22" s="253"/>
+      <c r="AM22" s="254"/>
+      <c r="AN22" s="238"/>
+      <c r="AO22" s="239"/>
+      <c r="AP22" s="239"/>
+      <c r="AQ22" s="239"/>
+      <c r="AR22" s="240"/>
+      <c r="AS22" s="238"/>
+      <c r="AT22" s="239"/>
+      <c r="AU22" s="239"/>
+      <c r="AV22" s="239"/>
+      <c r="AW22" s="240"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="243"/>
-      <c r="L23" s="244"/>
-      <c r="M23" s="252"/>
-      <c r="N23" s="253"/>
-      <c r="O23" s="253"/>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253"/>
-      <c r="R23" s="254"/>
-      <c r="S23" s="239"/>
-      <c r="T23" s="239"/>
-      <c r="U23" s="239"/>
-      <c r="V23" s="255"/>
-      <c r="W23" s="256"/>
-      <c r="X23" s="256"/>
-      <c r="Y23" s="256"/>
-      <c r="Z23" s="256"/>
-      <c r="AA23" s="256"/>
-      <c r="AB23" s="256"/>
-      <c r="AC23" s="256"/>
-      <c r="AD23" s="256"/>
-      <c r="AE23" s="256"/>
-      <c r="AF23" s="256"/>
-      <c r="AG23" s="256"/>
-      <c r="AH23" s="256"/>
-      <c r="AI23" s="256"/>
-      <c r="AJ23" s="256"/>
-      <c r="AK23" s="256"/>
-      <c r="AL23" s="256"/>
-      <c r="AM23" s="257"/>
-      <c r="AN23" s="258"/>
-      <c r="AO23" s="259"/>
-      <c r="AP23" s="259"/>
-      <c r="AQ23" s="259"/>
-      <c r="AR23" s="260"/>
-      <c r="AS23" s="258"/>
-      <c r="AT23" s="259"/>
-      <c r="AU23" s="259"/>
-      <c r="AV23" s="259"/>
-      <c r="AW23" s="260"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="247"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="257"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="251"/>
+      <c r="V23" s="252"/>
+      <c r="W23" s="253"/>
+      <c r="X23" s="253"/>
+      <c r="Y23" s="253"/>
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="253"/>
+      <c r="AH23" s="253"/>
+      <c r="AI23" s="253"/>
+      <c r="AJ23" s="253"/>
+      <c r="AK23" s="253"/>
+      <c r="AL23" s="253"/>
+      <c r="AM23" s="254"/>
+      <c r="AN23" s="238"/>
+      <c r="AO23" s="239"/>
+      <c r="AP23" s="239"/>
+      <c r="AQ23" s="239"/>
+      <c r="AR23" s="240"/>
+      <c r="AS23" s="238"/>
+      <c r="AT23" s="239"/>
+      <c r="AU23" s="239"/>
+      <c r="AV23" s="239"/>
+      <c r="AW23" s="240"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="249"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="251"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="241"/>
-      <c r="G24" s="241"/>
-      <c r="H24" s="241"/>
-      <c r="I24" s="241"/>
-      <c r="J24" s="242"/>
-      <c r="K24" s="243"/>
-      <c r="L24" s="244"/>
-      <c r="M24" s="252"/>
-      <c r="N24" s="253"/>
-      <c r="O24" s="253"/>
-      <c r="P24" s="253"/>
-      <c r="Q24" s="253"/>
-      <c r="R24" s="254"/>
-      <c r="S24" s="239"/>
-      <c r="T24" s="239"/>
-      <c r="U24" s="239"/>
-      <c r="V24" s="255"/>
-      <c r="W24" s="256"/>
-      <c r="X24" s="256"/>
-      <c r="Y24" s="256"/>
-      <c r="Z24" s="256"/>
-      <c r="AA24" s="256"/>
-      <c r="AB24" s="256"/>
-      <c r="AC24" s="256"/>
-      <c r="AD24" s="256"/>
-      <c r="AE24" s="256"/>
-      <c r="AF24" s="256"/>
-      <c r="AG24" s="256"/>
-      <c r="AH24" s="256"/>
-      <c r="AI24" s="256"/>
-      <c r="AJ24" s="256"/>
-      <c r="AK24" s="256"/>
-      <c r="AL24" s="256"/>
-      <c r="AM24" s="257"/>
-      <c r="AN24" s="258"/>
-      <c r="AO24" s="259"/>
-      <c r="AP24" s="259"/>
-      <c r="AQ24" s="259"/>
-      <c r="AR24" s="260"/>
-      <c r="AS24" s="258"/>
-      <c r="AT24" s="259"/>
-      <c r="AU24" s="259"/>
-      <c r="AV24" s="259"/>
-      <c r="AW24" s="260"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="245"/>
+      <c r="K24" s="246"/>
+      <c r="L24" s="247"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="256"/>
+      <c r="P24" s="256"/>
+      <c r="Q24" s="256"/>
+      <c r="R24" s="257"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="251"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
+      <c r="Y24" s="253"/>
+      <c r="Z24" s="253"/>
+      <c r="AA24" s="253"/>
+      <c r="AB24" s="253"/>
+      <c r="AC24" s="253"/>
+      <c r="AD24" s="253"/>
+      <c r="AE24" s="253"/>
+      <c r="AF24" s="253"/>
+      <c r="AG24" s="253"/>
+      <c r="AH24" s="253"/>
+      <c r="AI24" s="253"/>
+      <c r="AJ24" s="253"/>
+      <c r="AK24" s="253"/>
+      <c r="AL24" s="253"/>
+      <c r="AM24" s="254"/>
+      <c r="AN24" s="238"/>
+      <c r="AO24" s="239"/>
+      <c r="AP24" s="239"/>
+      <c r="AQ24" s="239"/>
+      <c r="AR24" s="240"/>
+      <c r="AS24" s="238"/>
+      <c r="AT24" s="239"/>
+      <c r="AU24" s="239"/>
+      <c r="AV24" s="239"/>
+      <c r="AW24" s="240"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="249"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="241"/>
-      <c r="H25" s="241"/>
-      <c r="I25" s="241"/>
-      <c r="J25" s="242"/>
-      <c r="K25" s="243"/>
-      <c r="L25" s="244"/>
-      <c r="M25" s="263"/>
-      <c r="N25" s="253"/>
-      <c r="O25" s="253"/>
-      <c r="P25" s="253"/>
-      <c r="Q25" s="253"/>
-      <c r="R25" s="254"/>
-      <c r="S25" s="239"/>
-      <c r="T25" s="239"/>
-      <c r="U25" s="239"/>
-      <c r="V25" s="255"/>
-      <c r="W25" s="256"/>
-      <c r="X25" s="256"/>
-      <c r="Y25" s="256"/>
-      <c r="Z25" s="256"/>
-      <c r="AA25" s="256"/>
-      <c r="AB25" s="256"/>
-      <c r="AC25" s="256"/>
-      <c r="AD25" s="256"/>
-      <c r="AE25" s="256"/>
-      <c r="AF25" s="256"/>
-      <c r="AG25" s="256"/>
-      <c r="AH25" s="256"/>
-      <c r="AI25" s="256"/>
-      <c r="AJ25" s="256"/>
-      <c r="AK25" s="256"/>
-      <c r="AL25" s="256"/>
-      <c r="AM25" s="257"/>
-      <c r="AN25" s="258"/>
-      <c r="AO25" s="259"/>
-      <c r="AP25" s="259"/>
-      <c r="AQ25" s="259"/>
-      <c r="AR25" s="260"/>
-      <c r="AS25" s="258"/>
-      <c r="AT25" s="259"/>
-      <c r="AU25" s="259"/>
-      <c r="AV25" s="259"/>
-      <c r="AW25" s="260"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="245"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="255"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="256"/>
+      <c r="P25" s="256"/>
+      <c r="Q25" s="256"/>
+      <c r="R25" s="257"/>
+      <c r="S25" s="251"/>
+      <c r="T25" s="251"/>
+      <c r="U25" s="251"/>
+      <c r="V25" s="252"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
+      <c r="Z25" s="253"/>
+      <c r="AA25" s="253"/>
+      <c r="AB25" s="253"/>
+      <c r="AC25" s="253"/>
+      <c r="AD25" s="253"/>
+      <c r="AE25" s="253"/>
+      <c r="AF25" s="253"/>
+      <c r="AG25" s="253"/>
+      <c r="AH25" s="253"/>
+      <c r="AI25" s="253"/>
+      <c r="AJ25" s="253"/>
+      <c r="AK25" s="253"/>
+      <c r="AL25" s="253"/>
+      <c r="AM25" s="254"/>
+      <c r="AN25" s="238"/>
+      <c r="AO25" s="239"/>
+      <c r="AP25" s="239"/>
+      <c r="AQ25" s="239"/>
+      <c r="AR25" s="240"/>
+      <c r="AS25" s="238"/>
+      <c r="AT25" s="239"/>
+      <c r="AU25" s="239"/>
+      <c r="AV25" s="239"/>
+      <c r="AW25" s="240"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="249"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="251"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="241"/>
-      <c r="H26" s="241"/>
-      <c r="I26" s="241"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="243"/>
-      <c r="L26" s="244"/>
-      <c r="M26" s="263"/>
-      <c r="N26" s="253"/>
-      <c r="O26" s="253"/>
-      <c r="P26" s="253"/>
-      <c r="Q26" s="253"/>
-      <c r="R26" s="254"/>
-      <c r="S26" s="239"/>
-      <c r="T26" s="239"/>
-      <c r="U26" s="239"/>
-      <c r="V26" s="255"/>
-      <c r="W26" s="256"/>
-      <c r="X26" s="256"/>
-      <c r="Y26" s="256"/>
-      <c r="Z26" s="256"/>
-      <c r="AA26" s="256"/>
-      <c r="AB26" s="256"/>
-      <c r="AC26" s="256"/>
-      <c r="AD26" s="256"/>
-      <c r="AE26" s="256"/>
-      <c r="AF26" s="256"/>
-      <c r="AG26" s="256"/>
-      <c r="AH26" s="256"/>
-      <c r="AI26" s="256"/>
-      <c r="AJ26" s="256"/>
-      <c r="AK26" s="256"/>
-      <c r="AL26" s="256"/>
-      <c r="AM26" s="257"/>
-      <c r="AN26" s="258"/>
-      <c r="AO26" s="259"/>
-      <c r="AP26" s="259"/>
-      <c r="AQ26" s="259"/>
-      <c r="AR26" s="260"/>
-      <c r="AS26" s="258"/>
-      <c r="AT26" s="259"/>
-      <c r="AU26" s="259"/>
-      <c r="AV26" s="259"/>
-      <c r="AW26" s="260"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="245"/>
+      <c r="K26" s="246"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="255"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="256"/>
+      <c r="P26" s="256"/>
+      <c r="Q26" s="256"/>
+      <c r="R26" s="257"/>
+      <c r="S26" s="251"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="251"/>
+      <c r="V26" s="252"/>
+      <c r="W26" s="253"/>
+      <c r="X26" s="253"/>
+      <c r="Y26" s="253"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="253"/>
+      <c r="AB26" s="253"/>
+      <c r="AC26" s="253"/>
+      <c r="AD26" s="253"/>
+      <c r="AE26" s="253"/>
+      <c r="AF26" s="253"/>
+      <c r="AG26" s="253"/>
+      <c r="AH26" s="253"/>
+      <c r="AI26" s="253"/>
+      <c r="AJ26" s="253"/>
+      <c r="AK26" s="253"/>
+      <c r="AL26" s="253"/>
+      <c r="AM26" s="254"/>
+      <c r="AN26" s="238"/>
+      <c r="AO26" s="239"/>
+      <c r="AP26" s="239"/>
+      <c r="AQ26" s="239"/>
+      <c r="AR26" s="240"/>
+      <c r="AS26" s="238"/>
+      <c r="AT26" s="239"/>
+      <c r="AU26" s="239"/>
+      <c r="AV26" s="239"/>
+      <c r="AW26" s="240"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="249"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="241"/>
-      <c r="G27" s="241"/>
-      <c r="H27" s="241"/>
-      <c r="I27" s="241"/>
-      <c r="J27" s="242"/>
-      <c r="K27" s="243"/>
-      <c r="L27" s="244"/>
-      <c r="M27" s="263"/>
-      <c r="N27" s="253"/>
-      <c r="O27" s="253"/>
-      <c r="P27" s="253"/>
-      <c r="Q27" s="253"/>
-      <c r="R27" s="254"/>
-      <c r="S27" s="239"/>
-      <c r="T27" s="239"/>
-      <c r="U27" s="239"/>
-      <c r="V27" s="255"/>
-      <c r="W27" s="256"/>
-      <c r="X27" s="256"/>
-      <c r="Y27" s="256"/>
-      <c r="Z27" s="256"/>
-      <c r="AA27" s="256"/>
-      <c r="AB27" s="256"/>
-      <c r="AC27" s="256"/>
-      <c r="AD27" s="256"/>
-      <c r="AE27" s="256"/>
-      <c r="AF27" s="256"/>
-      <c r="AG27" s="256"/>
-      <c r="AH27" s="256"/>
-      <c r="AI27" s="256"/>
-      <c r="AJ27" s="256"/>
-      <c r="AK27" s="256"/>
-      <c r="AL27" s="256"/>
-      <c r="AM27" s="257"/>
-      <c r="AN27" s="258"/>
-      <c r="AO27" s="259"/>
-      <c r="AP27" s="259"/>
-      <c r="AQ27" s="259"/>
-      <c r="AR27" s="260"/>
-      <c r="AS27" s="258"/>
-      <c r="AT27" s="259"/>
-      <c r="AU27" s="259"/>
-      <c r="AV27" s="259"/>
-      <c r="AW27" s="260"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="255"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="256"/>
+      <c r="P27" s="256"/>
+      <c r="Q27" s="256"/>
+      <c r="R27" s="257"/>
+      <c r="S27" s="251"/>
+      <c r="T27" s="251"/>
+      <c r="U27" s="251"/>
+      <c r="V27" s="252"/>
+      <c r="W27" s="253"/>
+      <c r="X27" s="253"/>
+      <c r="Y27" s="253"/>
+      <c r="Z27" s="253"/>
+      <c r="AA27" s="253"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="253"/>
+      <c r="AD27" s="253"/>
+      <c r="AE27" s="253"/>
+      <c r="AF27" s="253"/>
+      <c r="AG27" s="253"/>
+      <c r="AH27" s="253"/>
+      <c r="AI27" s="253"/>
+      <c r="AJ27" s="253"/>
+      <c r="AK27" s="253"/>
+      <c r="AL27" s="253"/>
+      <c r="AM27" s="254"/>
+      <c r="AN27" s="238"/>
+      <c r="AO27" s="239"/>
+      <c r="AP27" s="239"/>
+      <c r="AQ27" s="239"/>
+      <c r="AR27" s="240"/>
+      <c r="AS27" s="238"/>
+      <c r="AT27" s="239"/>
+      <c r="AU27" s="239"/>
+      <c r="AV27" s="239"/>
+      <c r="AW27" s="240"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="249"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="241"/>
-      <c r="I28" s="241"/>
-      <c r="J28" s="242"/>
-      <c r="K28" s="243"/>
-      <c r="L28" s="244"/>
-      <c r="M28" s="252"/>
-      <c r="N28" s="253"/>
-      <c r="O28" s="253"/>
-      <c r="P28" s="253"/>
-      <c r="Q28" s="253"/>
-      <c r="R28" s="254"/>
-      <c r="S28" s="239"/>
-      <c r="T28" s="239"/>
-      <c r="U28" s="239"/>
-      <c r="V28" s="255"/>
-      <c r="W28" s="256"/>
-      <c r="X28" s="256"/>
-      <c r="Y28" s="256"/>
-      <c r="Z28" s="256"/>
-      <c r="AA28" s="256"/>
-      <c r="AB28" s="256"/>
-      <c r="AC28" s="256"/>
-      <c r="AD28" s="256"/>
-      <c r="AE28" s="256"/>
-      <c r="AF28" s="256"/>
-      <c r="AG28" s="256"/>
-      <c r="AH28" s="256"/>
-      <c r="AI28" s="256"/>
-      <c r="AJ28" s="256"/>
-      <c r="AK28" s="256"/>
-      <c r="AL28" s="256"/>
-      <c r="AM28" s="257"/>
-      <c r="AN28" s="258"/>
-      <c r="AO28" s="259"/>
-      <c r="AP28" s="259"/>
-      <c r="AQ28" s="259"/>
-      <c r="AR28" s="260"/>
-      <c r="AS28" s="258"/>
-      <c r="AT28" s="259"/>
-      <c r="AU28" s="259"/>
-      <c r="AV28" s="259"/>
-      <c r="AW28" s="260"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="256"/>
+      <c r="O28" s="256"/>
+      <c r="P28" s="256"/>
+      <c r="Q28" s="256"/>
+      <c r="R28" s="257"/>
+      <c r="S28" s="251"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="251"/>
+      <c r="V28" s="252"/>
+      <c r="W28" s="253"/>
+      <c r="X28" s="253"/>
+      <c r="Y28" s="253"/>
+      <c r="Z28" s="253"/>
+      <c r="AA28" s="253"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="253"/>
+      <c r="AD28" s="253"/>
+      <c r="AE28" s="253"/>
+      <c r="AF28" s="253"/>
+      <c r="AG28" s="253"/>
+      <c r="AH28" s="253"/>
+      <c r="AI28" s="253"/>
+      <c r="AJ28" s="253"/>
+      <c r="AK28" s="253"/>
+      <c r="AL28" s="253"/>
+      <c r="AM28" s="254"/>
+      <c r="AN28" s="238"/>
+      <c r="AO28" s="239"/>
+      <c r="AP28" s="239"/>
+      <c r="AQ28" s="239"/>
+      <c r="AR28" s="240"/>
+      <c r="AS28" s="238"/>
+      <c r="AT28" s="239"/>
+      <c r="AU28" s="239"/>
+      <c r="AV28" s="239"/>
+      <c r="AW28" s="240"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="249"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="251"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="242"/>
-      <c r="K29" s="243"/>
-      <c r="L29" s="244"/>
-      <c r="M29" s="252"/>
-      <c r="N29" s="253"/>
-      <c r="O29" s="253"/>
-      <c r="P29" s="253"/>
-      <c r="Q29" s="253"/>
-      <c r="R29" s="254"/>
-      <c r="S29" s="239"/>
-      <c r="T29" s="239"/>
-      <c r="U29" s="239"/>
-      <c r="V29" s="255"/>
-      <c r="W29" s="256"/>
-      <c r="X29" s="256"/>
-      <c r="Y29" s="256"/>
-      <c r="Z29" s="256"/>
-      <c r="AA29" s="256"/>
-      <c r="AB29" s="256"/>
-      <c r="AC29" s="256"/>
-      <c r="AD29" s="256"/>
-      <c r="AE29" s="256"/>
-      <c r="AF29" s="256"/>
-      <c r="AG29" s="256"/>
-      <c r="AH29" s="256"/>
-      <c r="AI29" s="256"/>
-      <c r="AJ29" s="256"/>
-      <c r="AK29" s="256"/>
-      <c r="AL29" s="256"/>
-      <c r="AM29" s="257"/>
-      <c r="AN29" s="258"/>
-      <c r="AO29" s="259"/>
-      <c r="AP29" s="259"/>
-      <c r="AQ29" s="259"/>
-      <c r="AR29" s="260"/>
-      <c r="AS29" s="258"/>
-      <c r="AT29" s="259"/>
-      <c r="AU29" s="259"/>
-      <c r="AV29" s="259"/>
-      <c r="AW29" s="260"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="256"/>
+      <c r="P29" s="256"/>
+      <c r="Q29" s="256"/>
+      <c r="R29" s="257"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="251"/>
+      <c r="U29" s="251"/>
+      <c r="V29" s="252"/>
+      <c r="W29" s="253"/>
+      <c r="X29" s="253"/>
+      <c r="Y29" s="253"/>
+      <c r="Z29" s="253"/>
+      <c r="AA29" s="253"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="253"/>
+      <c r="AD29" s="253"/>
+      <c r="AE29" s="253"/>
+      <c r="AF29" s="253"/>
+      <c r="AG29" s="253"/>
+      <c r="AH29" s="253"/>
+      <c r="AI29" s="253"/>
+      <c r="AJ29" s="253"/>
+      <c r="AK29" s="253"/>
+      <c r="AL29" s="253"/>
+      <c r="AM29" s="254"/>
+      <c r="AN29" s="238"/>
+      <c r="AO29" s="239"/>
+      <c r="AP29" s="239"/>
+      <c r="AQ29" s="239"/>
+      <c r="AR29" s="240"/>
+      <c r="AS29" s="238"/>
+      <c r="AT29" s="239"/>
+      <c r="AU29" s="239"/>
+      <c r="AV29" s="239"/>
+      <c r="AW29" s="240"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="249"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="251"/>
-      <c r="E30" s="241"/>
-      <c r="F30" s="241"/>
-      <c r="G30" s="241"/>
-      <c r="H30" s="241"/>
-      <c r="I30" s="241"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="243"/>
-      <c r="L30" s="244"/>
-      <c r="M30" s="263"/>
-      <c r="N30" s="253"/>
-      <c r="O30" s="253"/>
-      <c r="P30" s="253"/>
-      <c r="Q30" s="253"/>
-      <c r="R30" s="254"/>
-      <c r="S30" s="239"/>
-      <c r="T30" s="239"/>
-      <c r="U30" s="239"/>
-      <c r="V30" s="255"/>
-      <c r="W30" s="256"/>
-      <c r="X30" s="256"/>
-      <c r="Y30" s="256"/>
-      <c r="Z30" s="256"/>
-      <c r="AA30" s="256"/>
-      <c r="AB30" s="256"/>
-      <c r="AC30" s="256"/>
-      <c r="AD30" s="256"/>
-      <c r="AE30" s="256"/>
-      <c r="AF30" s="256"/>
-      <c r="AG30" s="256"/>
-      <c r="AH30" s="256"/>
-      <c r="AI30" s="256"/>
-      <c r="AJ30" s="256"/>
-      <c r="AK30" s="256"/>
-      <c r="AL30" s="256"/>
-      <c r="AM30" s="257"/>
-      <c r="AN30" s="258"/>
-      <c r="AO30" s="259"/>
-      <c r="AP30" s="259"/>
-      <c r="AQ30" s="259"/>
-      <c r="AR30" s="260"/>
-      <c r="AS30" s="258"/>
-      <c r="AT30" s="259"/>
-      <c r="AU30" s="259"/>
-      <c r="AV30" s="259"/>
-      <c r="AW30" s="260"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="247"/>
+      <c r="M30" s="255"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256"/>
+      <c r="P30" s="256"/>
+      <c r="Q30" s="256"/>
+      <c r="R30" s="257"/>
+      <c r="S30" s="251"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="251"/>
+      <c r="V30" s="252"/>
+      <c r="W30" s="253"/>
+      <c r="X30" s="253"/>
+      <c r="Y30" s="253"/>
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="253"/>
+      <c r="AB30" s="253"/>
+      <c r="AC30" s="253"/>
+      <c r="AD30" s="253"/>
+      <c r="AE30" s="253"/>
+      <c r="AF30" s="253"/>
+      <c r="AG30" s="253"/>
+      <c r="AH30" s="253"/>
+      <c r="AI30" s="253"/>
+      <c r="AJ30" s="253"/>
+      <c r="AK30" s="253"/>
+      <c r="AL30" s="253"/>
+      <c r="AM30" s="254"/>
+      <c r="AN30" s="238"/>
+      <c r="AO30" s="239"/>
+      <c r="AP30" s="239"/>
+      <c r="AQ30" s="239"/>
+      <c r="AR30" s="240"/>
+      <c r="AS30" s="238"/>
+      <c r="AT30" s="239"/>
+      <c r="AU30" s="239"/>
+      <c r="AV30" s="239"/>
+      <c r="AW30" s="240"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="249"/>
-      <c r="C31" s="250"/>
-      <c r="D31" s="251"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="242"/>
-      <c r="K31" s="243"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="263"/>
-      <c r="N31" s="253"/>
-      <c r="O31" s="253"/>
-      <c r="P31" s="253"/>
-      <c r="Q31" s="253"/>
-      <c r="R31" s="254"/>
-      <c r="S31" s="239"/>
-      <c r="T31" s="239"/>
-      <c r="U31" s="239"/>
-      <c r="V31" s="255"/>
-      <c r="W31" s="256"/>
-      <c r="X31" s="256"/>
-      <c r="Y31" s="256"/>
-      <c r="Z31" s="256"/>
-      <c r="AA31" s="256"/>
-      <c r="AB31" s="256"/>
-      <c r="AC31" s="256"/>
-      <c r="AD31" s="256"/>
-      <c r="AE31" s="256"/>
-      <c r="AF31" s="256"/>
-      <c r="AG31" s="256"/>
-      <c r="AH31" s="256"/>
-      <c r="AI31" s="256"/>
-      <c r="AJ31" s="256"/>
-      <c r="AK31" s="256"/>
-      <c r="AL31" s="256"/>
-      <c r="AM31" s="257"/>
-      <c r="AN31" s="258"/>
-      <c r="AO31" s="259"/>
-      <c r="AP31" s="259"/>
-      <c r="AQ31" s="259"/>
-      <c r="AR31" s="260"/>
-      <c r="AS31" s="258"/>
-      <c r="AT31" s="259"/>
-      <c r="AU31" s="259"/>
-      <c r="AV31" s="259"/>
-      <c r="AW31" s="260"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="246"/>
+      <c r="L31" s="247"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="256"/>
+      <c r="P31" s="256"/>
+      <c r="Q31" s="256"/>
+      <c r="R31" s="257"/>
+      <c r="S31" s="251"/>
+      <c r="T31" s="251"/>
+      <c r="U31" s="251"/>
+      <c r="V31" s="252"/>
+      <c r="W31" s="253"/>
+      <c r="X31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="253"/>
+      <c r="AA31" s="253"/>
+      <c r="AB31" s="253"/>
+      <c r="AC31" s="253"/>
+      <c r="AD31" s="253"/>
+      <c r="AE31" s="253"/>
+      <c r="AF31" s="253"/>
+      <c r="AG31" s="253"/>
+      <c r="AH31" s="253"/>
+      <c r="AI31" s="253"/>
+      <c r="AJ31" s="253"/>
+      <c r="AK31" s="253"/>
+      <c r="AL31" s="253"/>
+      <c r="AM31" s="254"/>
+      <c r="AN31" s="238"/>
+      <c r="AO31" s="239"/>
+      <c r="AP31" s="239"/>
+      <c r="AQ31" s="239"/>
+      <c r="AR31" s="240"/>
+      <c r="AS31" s="238"/>
+      <c r="AT31" s="239"/>
+      <c r="AU31" s="239"/>
+      <c r="AV31" s="239"/>
+      <c r="AW31" s="240"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="249"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="251"/>
-      <c r="E32" s="241"/>
-      <c r="F32" s="241"/>
-      <c r="G32" s="241"/>
-      <c r="H32" s="241"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="242"/>
-      <c r="K32" s="243"/>
-      <c r="L32" s="244"/>
-      <c r="M32" s="263"/>
-      <c r="N32" s="253"/>
-      <c r="O32" s="253"/>
-      <c r="P32" s="253"/>
-      <c r="Q32" s="253"/>
-      <c r="R32" s="254"/>
-      <c r="S32" s="239"/>
-      <c r="T32" s="239"/>
-      <c r="U32" s="239"/>
-      <c r="V32" s="255"/>
-      <c r="W32" s="256"/>
-      <c r="X32" s="256"/>
-      <c r="Y32" s="256"/>
-      <c r="Z32" s="256"/>
-      <c r="AA32" s="256"/>
-      <c r="AB32" s="256"/>
-      <c r="AC32" s="256"/>
-      <c r="AD32" s="256"/>
-      <c r="AE32" s="256"/>
-      <c r="AF32" s="256"/>
-      <c r="AG32" s="256"/>
-      <c r="AH32" s="256"/>
-      <c r="AI32" s="256"/>
-      <c r="AJ32" s="256"/>
-      <c r="AK32" s="256"/>
-      <c r="AL32" s="256"/>
-      <c r="AM32" s="257"/>
-      <c r="AN32" s="258"/>
-      <c r="AO32" s="259"/>
-      <c r="AP32" s="259"/>
-      <c r="AQ32" s="259"/>
-      <c r="AR32" s="260"/>
-      <c r="AS32" s="258"/>
-      <c r="AT32" s="259"/>
-      <c r="AU32" s="259"/>
-      <c r="AV32" s="259"/>
-      <c r="AW32" s="260"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="245"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="247"/>
+      <c r="M32" s="255"/>
+      <c r="N32" s="256"/>
+      <c r="O32" s="256"/>
+      <c r="P32" s="256"/>
+      <c r="Q32" s="256"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="251"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="251"/>
+      <c r="V32" s="252"/>
+      <c r="W32" s="253"/>
+      <c r="X32" s="253"/>
+      <c r="Y32" s="253"/>
+      <c r="Z32" s="253"/>
+      <c r="AA32" s="253"/>
+      <c r="AB32" s="253"/>
+      <c r="AC32" s="253"/>
+      <c r="AD32" s="253"/>
+      <c r="AE32" s="253"/>
+      <c r="AF32" s="253"/>
+      <c r="AG32" s="253"/>
+      <c r="AH32" s="253"/>
+      <c r="AI32" s="253"/>
+      <c r="AJ32" s="253"/>
+      <c r="AK32" s="253"/>
+      <c r="AL32" s="253"/>
+      <c r="AM32" s="254"/>
+      <c r="AN32" s="238"/>
+      <c r="AO32" s="239"/>
+      <c r="AP32" s="239"/>
+      <c r="AQ32" s="239"/>
+      <c r="AR32" s="240"/>
+      <c r="AS32" s="238"/>
+      <c r="AT32" s="239"/>
+      <c r="AU32" s="239"/>
+      <c r="AV32" s="239"/>
+      <c r="AW32" s="240"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="249"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="251"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="242"/>
-      <c r="K33" s="243"/>
-      <c r="L33" s="244"/>
-      <c r="M33" s="263"/>
-      <c r="N33" s="253"/>
-      <c r="O33" s="253"/>
-      <c r="P33" s="253"/>
-      <c r="Q33" s="253"/>
-      <c r="R33" s="254"/>
-      <c r="S33" s="239"/>
-      <c r="T33" s="239"/>
-      <c r="U33" s="239"/>
-      <c r="V33" s="255"/>
-      <c r="W33" s="256"/>
-      <c r="X33" s="256"/>
-      <c r="Y33" s="256"/>
-      <c r="Z33" s="256"/>
-      <c r="AA33" s="256"/>
-      <c r="AB33" s="256"/>
-      <c r="AC33" s="256"/>
-      <c r="AD33" s="256"/>
-      <c r="AE33" s="256"/>
-      <c r="AF33" s="256"/>
-      <c r="AG33" s="256"/>
-      <c r="AH33" s="256"/>
-      <c r="AI33" s="256"/>
-      <c r="AJ33" s="256"/>
-      <c r="AK33" s="256"/>
-      <c r="AL33" s="256"/>
-      <c r="AM33" s="257"/>
-      <c r="AN33" s="258"/>
-      <c r="AO33" s="259"/>
-      <c r="AP33" s="259"/>
-      <c r="AQ33" s="259"/>
-      <c r="AR33" s="260"/>
-      <c r="AS33" s="258"/>
-      <c r="AT33" s="259"/>
-      <c r="AU33" s="259"/>
-      <c r="AV33" s="259"/>
-      <c r="AW33" s="260"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="245"/>
+      <c r="K33" s="246"/>
+      <c r="L33" s="247"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="256"/>
+      <c r="P33" s="256"/>
+      <c r="Q33" s="256"/>
+      <c r="R33" s="257"/>
+      <c r="S33" s="251"/>
+      <c r="T33" s="251"/>
+      <c r="U33" s="251"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="253"/>
+      <c r="X33" s="253"/>
+      <c r="Y33" s="253"/>
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="253"/>
+      <c r="AH33" s="253"/>
+      <c r="AI33" s="253"/>
+      <c r="AJ33" s="253"/>
+      <c r="AK33" s="253"/>
+      <c r="AL33" s="253"/>
+      <c r="AM33" s="254"/>
+      <c r="AN33" s="238"/>
+      <c r="AO33" s="239"/>
+      <c r="AP33" s="239"/>
+      <c r="AQ33" s="239"/>
+      <c r="AR33" s="240"/>
+      <c r="AS33" s="238"/>
+      <c r="AT33" s="239"/>
+      <c r="AU33" s="239"/>
+      <c r="AV33" s="239"/>
+      <c r="AW33" s="240"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="249"/>
-      <c r="C34" s="250"/>
-      <c r="D34" s="251"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="241"/>
-      <c r="G34" s="241"/>
-      <c r="H34" s="241"/>
-      <c r="I34" s="241"/>
-      <c r="J34" s="242"/>
-      <c r="K34" s="243"/>
-      <c r="L34" s="244"/>
-      <c r="M34" s="267"/>
-      <c r="N34" s="268"/>
-      <c r="O34" s="268"/>
-      <c r="P34" s="268"/>
-      <c r="Q34" s="268"/>
-      <c r="R34" s="269"/>
-      <c r="S34" s="239"/>
-      <c r="T34" s="239"/>
-      <c r="U34" s="239"/>
-      <c r="V34" s="255"/>
-      <c r="W34" s="256"/>
-      <c r="X34" s="256"/>
-      <c r="Y34" s="256"/>
-      <c r="Z34" s="256"/>
-      <c r="AA34" s="256"/>
-      <c r="AB34" s="256"/>
-      <c r="AC34" s="256"/>
-      <c r="AD34" s="256"/>
-      <c r="AE34" s="256"/>
-      <c r="AF34" s="256"/>
-      <c r="AG34" s="256"/>
-      <c r="AH34" s="256"/>
-      <c r="AI34" s="256"/>
-      <c r="AJ34" s="256"/>
-      <c r="AK34" s="256"/>
-      <c r="AL34" s="256"/>
-      <c r="AM34" s="257"/>
-      <c r="AN34" s="258"/>
-      <c r="AO34" s="259"/>
-      <c r="AP34" s="259"/>
-      <c r="AQ34" s="259"/>
-      <c r="AR34" s="260"/>
-      <c r="AS34" s="258"/>
-      <c r="AT34" s="259"/>
-      <c r="AU34" s="259"/>
-      <c r="AV34" s="259"/>
-      <c r="AW34" s="260"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="245"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="247"/>
+      <c r="M34" s="248"/>
+      <c r="N34" s="249"/>
+      <c r="O34" s="249"/>
+      <c r="P34" s="249"/>
+      <c r="Q34" s="249"/>
+      <c r="R34" s="250"/>
+      <c r="S34" s="251"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="252"/>
+      <c r="W34" s="253"/>
+      <c r="X34" s="253"/>
+      <c r="Y34" s="253"/>
+      <c r="Z34" s="253"/>
+      <c r="AA34" s="253"/>
+      <c r="AB34" s="253"/>
+      <c r="AC34" s="253"/>
+      <c r="AD34" s="253"/>
+      <c r="AE34" s="253"/>
+      <c r="AF34" s="253"/>
+      <c r="AG34" s="253"/>
+      <c r="AH34" s="253"/>
+      <c r="AI34" s="253"/>
+      <c r="AJ34" s="253"/>
+      <c r="AK34" s="253"/>
+      <c r="AL34" s="253"/>
+      <c r="AM34" s="254"/>
+      <c r="AN34" s="238"/>
+      <c r="AO34" s="239"/>
+      <c r="AP34" s="239"/>
+      <c r="AQ34" s="239"/>
+      <c r="AR34" s="240"/>
+      <c r="AS34" s="238"/>
+      <c r="AT34" s="239"/>
+      <c r="AU34" s="239"/>
+      <c r="AV34" s="239"/>
+      <c r="AW34" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8844,239 +9083,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9236,11 +9242,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="274"/>
-      <c r="AP2" s="275"/>
-      <c r="AQ2" s="275"/>
-      <c r="AR2" s="275"/>
-      <c r="AS2" s="276"/>
+      <c r="AO2" s="282"/>
+      <c r="AP2" s="283"/>
+      <c r="AQ2" s="283"/>
+      <c r="AR2" s="283"/>
+      <c r="AS2" s="284"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9249,14 +9255,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="277"/>
-      <c r="BA2" s="278"/>
-      <c r="BB2" s="278"/>
-      <c r="BC2" s="278"/>
-      <c r="BD2" s="278"/>
-      <c r="BE2" s="278"/>
-      <c r="BF2" s="278"/>
-      <c r="BG2" s="279"/>
+      <c r="AZ2" s="285"/>
+      <c r="BA2" s="286"/>
+      <c r="BB2" s="286"/>
+      <c r="BC2" s="286"/>
+      <c r="BD2" s="286"/>
+      <c r="BE2" s="286"/>
+      <c r="BF2" s="286"/>
+      <c r="BG2" s="287"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -11005,10 +11011,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="280" t="s">
+      <c r="B50" s="288" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="281"/>
+      <c r="C50" s="289"/>
       <c r="D50" s="72" t="s">
         <v>88</v>
       </c>
@@ -11091,10 +11097,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="270">
+      <c r="B51" s="278">
         <v>1</v>
       </c>
-      <c r="C51" s="271"/>
+      <c r="C51" s="279"/>
       <c r="D51" s="193" t="s">
         <v>103</v>
       </c>
@@ -11126,16 +11132,16 @@
       <c r="AB51" s="194"/>
       <c r="AC51" s="194"/>
       <c r="AD51" s="195"/>
-      <c r="AE51" s="272" t="s">
+      <c r="AE51" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="AF51" s="273"/>
-      <c r="AG51" s="272"/>
-      <c r="AH51" s="273"/>
-      <c r="AI51" s="272"/>
-      <c r="AJ51" s="273"/>
-      <c r="AK51" s="272"/>
-      <c r="AL51" s="273"/>
+      <c r="AF51" s="281"/>
+      <c r="AG51" s="280"/>
+      <c r="AH51" s="281"/>
+      <c r="AI51" s="280"/>
+      <c r="AJ51" s="281"/>
+      <c r="AK51" s="280"/>
+      <c r="AL51" s="281"/>
       <c r="AM51" s="196" t="s">
         <v>353</v>
       </c>
@@ -11169,10 +11175,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
-      <c r="B52" s="270">
+      <c r="B52" s="278">
         <v>2</v>
       </c>
-      <c r="C52" s="271"/>
+      <c r="C52" s="279"/>
       <c r="D52" s="193" t="s">
         <v>171</v>
       </c>
@@ -11204,10 +11210,10 @@
       <c r="AB52" s="194"/>
       <c r="AC52" s="194"/>
       <c r="AD52" s="195"/>
-      <c r="AE52" s="272" t="s">
+      <c r="AE52" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="AF52" s="273"/>
+      <c r="AF52" s="281"/>
       <c r="AG52" s="197"/>
       <c r="AH52" s="198"/>
       <c r="AI52" s="197"/>
@@ -11247,10 +11253,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
-      <c r="B53" s="270">
+      <c r="B53" s="278">
         <v>3</v>
       </c>
-      <c r="C53" s="271"/>
+      <c r="C53" s="279"/>
       <c r="D53" s="193" t="s">
         <v>171</v>
       </c>
@@ -11282,10 +11288,10 @@
       <c r="AB53" s="194"/>
       <c r="AC53" s="194"/>
       <c r="AD53" s="195"/>
-      <c r="AE53" s="272" t="s">
+      <c r="AE53" s="280" t="s">
         <v>97</v>
       </c>
-      <c r="AF53" s="273"/>
+      <c r="AF53" s="281"/>
       <c r="AG53" s="210"/>
       <c r="AH53" s="211"/>
       <c r="AI53" s="210"/>
@@ -11465,20 +11471,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="284">
+      <c r="CD1" s="292">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="CE1" s="285"/>
-      <c r="CF1" s="285"/>
-      <c r="CG1" s="285"/>
-      <c r="CH1" s="285"/>
-      <c r="CI1" s="285"/>
-      <c r="CJ1" s="285"/>
-      <c r="CK1" s="285"/>
-      <c r="CL1" s="285"/>
-      <c r="CM1" s="285"/>
-      <c r="CN1" s="286"/>
+      <c r="CE1" s="293"/>
+      <c r="CF1" s="293"/>
+      <c r="CG1" s="293"/>
+      <c r="CH1" s="293"/>
+      <c r="CI1" s="293"/>
+      <c r="CJ1" s="293"/>
+      <c r="CK1" s="293"/>
+      <c r="CL1" s="293"/>
+      <c r="CM1" s="293"/>
+      <c r="CN1" s="294"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -11487,23 +11493,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="277" t="str">
+      <c r="CU1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="CV1" s="282"/>
-      <c r="CW1" s="282"/>
-      <c r="CX1" s="282"/>
-      <c r="CY1" s="282"/>
-      <c r="CZ1" s="282"/>
-      <c r="DA1" s="282"/>
-      <c r="DB1" s="282"/>
-      <c r="DC1" s="282"/>
-      <c r="DD1" s="282"/>
-      <c r="DE1" s="282"/>
-      <c r="DF1" s="282"/>
-      <c r="DG1" s="282"/>
-      <c r="DH1" s="283"/>
+      <c r="CV1" s="290"/>
+      <c r="CW1" s="290"/>
+      <c r="CX1" s="290"/>
+      <c r="CY1" s="290"/>
+      <c r="CZ1" s="290"/>
+      <c r="DA1" s="290"/>
+      <c r="DB1" s="290"/>
+      <c r="DC1" s="290"/>
+      <c r="DD1" s="290"/>
+      <c r="DE1" s="290"/>
+      <c r="DF1" s="290"/>
+      <c r="DG1" s="290"/>
+      <c r="DH1" s="291"/>
     </row>
     <row r="2" spans="1:113" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -11558,39 +11564,39 @@
       <c r="AQ2" s="78"/>
       <c r="AR2" s="78"/>
       <c r="AS2" s="79"/>
-      <c r="AT2" s="288" t="str">
+      <c r="AT2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="AU2" s="289"/>
-      <c r="AV2" s="289"/>
-      <c r="AW2" s="289"/>
-      <c r="AX2" s="289"/>
-      <c r="AY2" s="289"/>
-      <c r="AZ2" s="289"/>
-      <c r="BA2" s="289"/>
-      <c r="BB2" s="289"/>
-      <c r="BC2" s="289"/>
-      <c r="BD2" s="289"/>
-      <c r="BE2" s="289"/>
-      <c r="BF2" s="289"/>
-      <c r="BG2" s="289"/>
-      <c r="BH2" s="289"/>
-      <c r="BI2" s="289"/>
-      <c r="BJ2" s="289"/>
-      <c r="BK2" s="289"/>
-      <c r="BL2" s="289"/>
-      <c r="BM2" s="289"/>
-      <c r="BN2" s="289"/>
-      <c r="BO2" s="289"/>
-      <c r="BP2" s="289"/>
-      <c r="BQ2" s="289"/>
-      <c r="BR2" s="289"/>
-      <c r="BS2" s="289"/>
-      <c r="BT2" s="289"/>
-      <c r="BU2" s="289"/>
-      <c r="BV2" s="289"/>
-      <c r="BW2" s="290"/>
+      <c r="AU2" s="297"/>
+      <c r="AV2" s="297"/>
+      <c r="AW2" s="297"/>
+      <c r="AX2" s="297"/>
+      <c r="AY2" s="297"/>
+      <c r="AZ2" s="297"/>
+      <c r="BA2" s="297"/>
+      <c r="BB2" s="297"/>
+      <c r="BC2" s="297"/>
+      <c r="BD2" s="297"/>
+      <c r="BE2" s="297"/>
+      <c r="BF2" s="297"/>
+      <c r="BG2" s="297"/>
+      <c r="BH2" s="297"/>
+      <c r="BI2" s="297"/>
+      <c r="BJ2" s="297"/>
+      <c r="BK2" s="297"/>
+      <c r="BL2" s="297"/>
+      <c r="BM2" s="297"/>
+      <c r="BN2" s="297"/>
+      <c r="BO2" s="297"/>
+      <c r="BP2" s="297"/>
+      <c r="BQ2" s="297"/>
+      <c r="BR2" s="297"/>
+      <c r="BS2" s="297"/>
+      <c r="BT2" s="297"/>
+      <c r="BU2" s="297"/>
+      <c r="BV2" s="297"/>
+      <c r="BW2" s="298"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -11599,17 +11605,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="287"/>
-      <c r="CE2" s="282"/>
-      <c r="CF2" s="282"/>
-      <c r="CG2" s="282"/>
-      <c r="CH2" s="282"/>
-      <c r="CI2" s="282"/>
-      <c r="CJ2" s="282"/>
-      <c r="CK2" s="282"/>
-      <c r="CL2" s="282"/>
-      <c r="CM2" s="282"/>
-      <c r="CN2" s="283"/>
+      <c r="CD2" s="295"/>
+      <c r="CE2" s="290"/>
+      <c r="CF2" s="290"/>
+      <c r="CG2" s="290"/>
+      <c r="CH2" s="290"/>
+      <c r="CI2" s="290"/>
+      <c r="CJ2" s="290"/>
+      <c r="CK2" s="290"/>
+      <c r="CL2" s="290"/>
+      <c r="CM2" s="290"/>
+      <c r="CN2" s="291"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -11618,20 +11624,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="277"/>
-      <c r="CV2" s="282"/>
-      <c r="CW2" s="282"/>
-      <c r="CX2" s="282"/>
-      <c r="CY2" s="282"/>
-      <c r="CZ2" s="282"/>
-      <c r="DA2" s="282"/>
-      <c r="DB2" s="282"/>
-      <c r="DC2" s="282"/>
-      <c r="DD2" s="282"/>
-      <c r="DE2" s="282"/>
-      <c r="DF2" s="282"/>
-      <c r="DG2" s="282"/>
-      <c r="DH2" s="283"/>
+      <c r="CU2" s="285"/>
+      <c r="CV2" s="290"/>
+      <c r="CW2" s="290"/>
+      <c r="CX2" s="290"/>
+      <c r="CY2" s="290"/>
+      <c r="CZ2" s="290"/>
+      <c r="DA2" s="290"/>
+      <c r="DB2" s="290"/>
+      <c r="DC2" s="290"/>
+      <c r="DD2" s="290"/>
+      <c r="DE2" s="290"/>
+      <c r="DF2" s="290"/>
+      <c r="DG2" s="290"/>
+      <c r="DH2" s="291"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="50"/>
@@ -11835,37 +11841,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="232" t="s">
+      <c r="D6" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="232" t="s">
+      <c r="F6" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="232" t="s">
+      <c r="G6" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="232" t="s">
+      <c r="H6" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="291" t="s">
+      <c r="I6" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="291" t="s">
+      <c r="J6" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="232" t="s">
+      <c r="K6" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="232" t="s">
+      <c r="L6" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="232" t="s">
+      <c r="M6" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -11873,24 +11879,24 @@
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="65"/>
-      <c r="Q6" s="291" t="s">
+      <c r="Q6" s="299" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="232"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="271"/>
+      <c r="L7" s="271"/>
+      <c r="M7" s="271"/>
       <c r="N7" s="43" t="s">
         <v>69</v>
       </c>
@@ -11900,7 +11906,7 @@
       <c r="P7" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="291"/>
+      <c r="Q7" s="299"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
@@ -12052,37 +12058,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="232" t="s">
+      <c r="C13" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="232" t="s">
+      <c r="D13" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="232" t="s">
+      <c r="E13" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="232" t="s">
+      <c r="F13" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="232" t="s">
+      <c r="G13" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="232" t="s">
+      <c r="H13" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="292" t="s">
+      <c r="I13" s="300" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="291" t="s">
+      <c r="J13" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="232" t="s">
+      <c r="K13" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="232" t="s">
+      <c r="L13" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="232" t="s">
+      <c r="M13" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -12090,24 +12096,24 @@
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
-      <c r="Q13" s="292" t="s">
+      <c r="Q13" s="300" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="293"/>
-      <c r="J14" s="291"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
       <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
@@ -12117,7 +12123,7 @@
       <c r="P14" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="293"/>
+      <c r="Q14" s="301"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -12276,37 +12282,37 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="95"/>
-      <c r="C21" s="232" t="s">
+      <c r="C21" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="232" t="s">
+      <c r="D21" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="232" t="s">
+      <c r="E21" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="232" t="s">
+      <c r="F21" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="232" t="s">
+      <c r="G21" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="232" t="s">
+      <c r="H21" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="291" t="s">
+      <c r="I21" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="291" t="s">
+      <c r="J21" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="232" t="s">
+      <c r="K21" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="232" t="s">
+      <c r="L21" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="232" t="s">
+      <c r="M21" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="65" t="s">
@@ -12314,23 +12320,23 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65"/>
-      <c r="Q21" s="291" t="s">
+      <c r="Q21" s="299" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="95"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="232"/>
-      <c r="I22" s="291"/>
-      <c r="J22" s="291"/>
-      <c r="K22" s="232"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="271"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="271"/>
+      <c r="I22" s="299"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="271"/>
+      <c r="L22" s="271"/>
+      <c r="M22" s="271"/>
       <c r="N22" s="183" t="s">
         <v>69</v>
       </c>
@@ -12340,7 +12346,7 @@
       <c r="P22" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="Q22" s="291"/>
+      <c r="Q22" s="299"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="95"/>
@@ -12626,37 +12632,37 @@
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="95"/>
-      <c r="C30" s="232" t="s">
+      <c r="C30" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="232" t="s">
+      <c r="D30" s="271" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="232" t="s">
+      <c r="E30" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="232" t="s">
+      <c r="F30" s="271" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="232" t="s">
+      <c r="G30" s="271" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="232" t="s">
+      <c r="H30" s="271" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="291" t="s">
+      <c r="I30" s="299" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="291" t="s">
+      <c r="J30" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="232" t="s">
+      <c r="K30" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="232" t="s">
+      <c r="L30" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="232" t="s">
+      <c r="M30" s="271" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -12664,23 +12670,23 @@
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="65"/>
-      <c r="Q30" s="291" t="s">
+      <c r="Q30" s="299" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="95"/>
-      <c r="C31" s="232"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="232"/>
-      <c r="F31" s="232"/>
-      <c r="G31" s="232"/>
-      <c r="H31" s="232"/>
-      <c r="I31" s="291"/>
-      <c r="J31" s="291"/>
-      <c r="K31" s="232"/>
-      <c r="L31" s="232"/>
-      <c r="M31" s="232"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="271"/>
+      <c r="I31" s="299"/>
+      <c r="J31" s="299"/>
+      <c r="K31" s="271"/>
+      <c r="L31" s="271"/>
+      <c r="M31" s="271"/>
       <c r="N31" s="93" t="s">
         <v>69</v>
       </c>
@@ -12690,7 +12696,7 @@
       <c r="P31" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="291"/>
+      <c r="Q31" s="299"/>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -13070,34 +13076,16 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -13108,16 +13096,34 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13189,14 +13195,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="274">
+      <c r="AI1" s="282">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="AJ1" s="289"/>
-      <c r="AK1" s="289"/>
-      <c r="AL1" s="289"/>
-      <c r="AM1" s="290"/>
+      <c r="AJ1" s="297"/>
+      <c r="AK1" s="297"/>
+      <c r="AL1" s="297"/>
+      <c r="AM1" s="298"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -13205,16 +13211,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="277" t="str">
+      <c r="AT1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="282"/>
-      <c r="AV1" s="282"/>
-      <c r="AW1" s="282"/>
-      <c r="AX1" s="282"/>
-      <c r="AY1" s="282"/>
-      <c r="AZ1" s="283"/>
+      <c r="AU1" s="290"/>
+      <c r="AV1" s="290"/>
+      <c r="AW1" s="290"/>
+      <c r="AX1" s="290"/>
+      <c r="AY1" s="290"/>
+      <c r="AZ1" s="291"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -13242,32 +13248,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="288" t="str">
+      <c r="S2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289"/>
-      <c r="W2" s="289"/>
-      <c r="X2" s="289"/>
-      <c r="Y2" s="289"/>
-      <c r="Z2" s="289"/>
-      <c r="AA2" s="289"/>
-      <c r="AB2" s="289"/>
-      <c r="AC2" s="289"/>
-      <c r="AD2" s="290"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="298"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="287"/>
-      <c r="AJ2" s="282"/>
-      <c r="AK2" s="282"/>
-      <c r="AL2" s="282"/>
-      <c r="AM2" s="283"/>
+      <c r="AI2" s="295"/>
+      <c r="AJ2" s="290"/>
+      <c r="AK2" s="290"/>
+      <c r="AL2" s="290"/>
+      <c r="AM2" s="291"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -13276,13 +13282,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="282"/>
-      <c r="AV2" s="282"/>
-      <c r="AW2" s="282"/>
-      <c r="AX2" s="282"/>
-      <c r="AY2" s="282"/>
-      <c r="AZ2" s="283"/>
+      <c r="AT2" s="285"/>
+      <c r="AU2" s="290"/>
+      <c r="AV2" s="290"/>
+      <c r="AW2" s="290"/>
+      <c r="AX2" s="290"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="291"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -14076,107 +14082,107 @@
       <c r="AU19" s="98"/>
       <c r="AV19" s="99"/>
     </row>
-    <row r="20" spans="2:48" s="300" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="301"/>
-      <c r="C20" s="301"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="301"/>
-      <c r="K20" s="302"/>
-      <c r="N20" s="300" t="s">
+    <row r="20" spans="2:48" s="227" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="228"/>
+      <c r="C20" s="228"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="228"/>
+      <c r="K20" s="229"/>
+      <c r="N20" s="227" t="s">
         <v>361</v>
       </c>
-      <c r="AA20" s="300" t="s">
+      <c r="AA20" s="227" t="s">
         <v>333</v>
       </c>
-      <c r="AB20" s="300" t="s">
+      <c r="AB20" s="227" t="s">
         <v>356</v>
       </c>
-      <c r="AV20" s="302"/>
-    </row>
-    <row r="21" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="304"/>
-      <c r="C21" s="304"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="304"/>
-      <c r="K21" s="305"/>
-      <c r="N21" s="306" t="s">
+      <c r="AV20" s="229"/>
+    </row>
+    <row r="21" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="231"/>
+      <c r="C21" s="231"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="231"/>
+      <c r="K21" s="232"/>
+      <c r="N21" s="233" t="s">
         <v>362</v>
       </c>
-      <c r="AA21" s="306" t="s">
+      <c r="AA21" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB21" s="307" t="s">
+      <c r="AB21" s="234" t="s">
         <v>357</v>
       </c>
-      <c r="AV21" s="305"/>
-    </row>
-    <row r="22" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="304"/>
-      <c r="C22" s="304"/>
-      <c r="F22" s="305"/>
-      <c r="G22" s="304"/>
-      <c r="K22" s="305"/>
-      <c r="N22" s="306" t="s">
+      <c r="AV21" s="232"/>
+    </row>
+    <row r="22" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="231"/>
+      <c r="C22" s="231"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="231"/>
+      <c r="K22" s="232"/>
+      <c r="N22" s="233" t="s">
         <v>315</v>
       </c>
-      <c r="AA22" s="306" t="s">
+      <c r="AA22" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB22" s="307" t="s">
+      <c r="AB22" s="234" t="s">
         <v>316</v>
       </c>
-      <c r="AV22" s="305"/>
-    </row>
-    <row r="23" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="304"/>
-      <c r="C23" s="304"/>
-      <c r="F23" s="305"/>
-      <c r="G23" s="304"/>
-      <c r="K23" s="305"/>
-      <c r="N23" s="306" t="s">
+      <c r="AV22" s="232"/>
+    </row>
+    <row r="23" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B23" s="231"/>
+      <c r="C23" s="231"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="231"/>
+      <c r="K23" s="232"/>
+      <c r="N23" s="233" t="s">
         <v>363</v>
       </c>
-      <c r="AA23" s="306" t="s">
+      <c r="AA23" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB23" s="307" t="s">
+      <c r="AB23" s="234" t="s">
         <v>358</v>
       </c>
-      <c r="AV23" s="305"/>
-    </row>
-    <row r="24" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="304"/>
-      <c r="C24" s="304"/>
-      <c r="F24" s="305"/>
-      <c r="G24" s="304"/>
-      <c r="K24" s="305"/>
-      <c r="N24" s="306" t="s">
+      <c r="AV23" s="232"/>
+    </row>
+    <row r="24" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B24" s="231"/>
+      <c r="C24" s="231"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="231"/>
+      <c r="K24" s="232"/>
+      <c r="N24" s="233" t="s">
         <v>364</v>
       </c>
-      <c r="AA24" s="306" t="s">
+      <c r="AA24" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB24" s="307" t="s">
+      <c r="AB24" s="234" t="s">
         <v>359</v>
       </c>
-      <c r="AV24" s="305"/>
-    </row>
-    <row r="25" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="304"/>
-      <c r="C25" s="304"/>
-      <c r="F25" s="305"/>
-      <c r="G25" s="304"/>
-      <c r="K25" s="305"/>
-      <c r="N25" s="306" t="s">
+      <c r="AV24" s="232"/>
+    </row>
+    <row r="25" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B25" s="231"/>
+      <c r="C25" s="231"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="231"/>
+      <c r="K25" s="232"/>
+      <c r="N25" s="233" t="s">
         <v>365</v>
       </c>
-      <c r="AA25" s="306" t="s">
+      <c r="AA25" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB25" s="307" t="s">
+      <c r="AB25" s="234" t="s">
         <v>360</v>
       </c>
-      <c r="AV25" s="305"/>
+      <c r="AV25" s="232"/>
     </row>
     <row r="26" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="97"/>
@@ -15480,107 +15486,107 @@
       <c r="AU64" s="218"/>
       <c r="AV64" s="219"/>
     </row>
-    <row r="65" spans="2:48" s="300" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B65" s="301"/>
-      <c r="C65" s="301"/>
-      <c r="F65" s="302"/>
-      <c r="G65" s="301"/>
-      <c r="K65" s="302"/>
-      <c r="N65" s="300" t="s">
+    <row r="65" spans="2:48" s="227" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B65" s="228"/>
+      <c r="C65" s="228"/>
+      <c r="F65" s="229"/>
+      <c r="G65" s="228"/>
+      <c r="K65" s="229"/>
+      <c r="N65" s="227" t="s">
         <v>366</v>
       </c>
-      <c r="AA65" s="300" t="s">
+      <c r="AA65" s="227" t="s">
         <v>333</v>
       </c>
-      <c r="AB65" s="300" t="s">
+      <c r="AB65" s="227" t="s">
         <v>356</v>
       </c>
-      <c r="AV65" s="302"/>
-    </row>
-    <row r="66" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="304"/>
-      <c r="C66" s="304"/>
-      <c r="F66" s="305"/>
-      <c r="G66" s="304"/>
-      <c r="K66" s="305"/>
-      <c r="N66" s="306" t="s">
+      <c r="AV65" s="229"/>
+    </row>
+    <row r="66" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
+      <c r="F66" s="232"/>
+      <c r="G66" s="231"/>
+      <c r="K66" s="232"/>
+      <c r="N66" s="233" t="s">
         <v>367</v>
       </c>
-      <c r="AA66" s="306" t="s">
+      <c r="AA66" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB66" s="307" t="s">
+      <c r="AB66" s="234" t="s">
         <v>357</v>
       </c>
-      <c r="AV66" s="305"/>
-    </row>
-    <row r="67" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B67" s="304"/>
-      <c r="C67" s="304"/>
-      <c r="F67" s="305"/>
-      <c r="G67" s="304"/>
-      <c r="K67" s="305"/>
-      <c r="N67" s="306" t="s">
+      <c r="AV66" s="232"/>
+    </row>
+    <row r="67" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="231"/>
+      <c r="C67" s="231"/>
+      <c r="F67" s="232"/>
+      <c r="G67" s="231"/>
+      <c r="K67" s="232"/>
+      <c r="N67" s="233" t="s">
         <v>321</v>
       </c>
-      <c r="AA67" s="306" t="s">
+      <c r="AA67" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB67" s="307" t="s">
+      <c r="AB67" s="234" t="s">
         <v>316</v>
       </c>
-      <c r="AV67" s="305"/>
-    </row>
-    <row r="68" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B68" s="304"/>
-      <c r="C68" s="304"/>
-      <c r="F68" s="305"/>
-      <c r="G68" s="304"/>
-      <c r="K68" s="305"/>
-      <c r="N68" s="306" t="s">
+      <c r="AV67" s="232"/>
+    </row>
+    <row r="68" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B68" s="231"/>
+      <c r="C68" s="231"/>
+      <c r="F68" s="232"/>
+      <c r="G68" s="231"/>
+      <c r="K68" s="232"/>
+      <c r="N68" s="233" t="s">
         <v>368</v>
       </c>
-      <c r="AA68" s="306" t="s">
+      <c r="AA68" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB68" s="307" t="s">
+      <c r="AB68" s="234" t="s">
         <v>358</v>
       </c>
-      <c r="AV68" s="305"/>
-    </row>
-    <row r="69" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B69" s="304"/>
-      <c r="C69" s="304"/>
-      <c r="F69" s="305"/>
-      <c r="G69" s="304"/>
-      <c r="K69" s="305"/>
-      <c r="N69" s="306" t="s">
+      <c r="AV68" s="232"/>
+    </row>
+    <row r="69" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B69" s="231"/>
+      <c r="C69" s="231"/>
+      <c r="F69" s="232"/>
+      <c r="G69" s="231"/>
+      <c r="K69" s="232"/>
+      <c r="N69" s="233" t="s">
         <v>369</v>
       </c>
-      <c r="AA69" s="306" t="s">
+      <c r="AA69" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB69" s="307" t="s">
+      <c r="AB69" s="234" t="s">
         <v>359</v>
       </c>
-      <c r="AV69" s="305"/>
-    </row>
-    <row r="70" spans="2:48" s="303" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B70" s="304"/>
-      <c r="C70" s="304"/>
-      <c r="F70" s="305"/>
-      <c r="G70" s="304"/>
-      <c r="K70" s="305"/>
-      <c r="N70" s="306" t="s">
+      <c r="AV69" s="232"/>
+    </row>
+    <row r="70" spans="2:48" s="230" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B70" s="231"/>
+      <c r="C70" s="231"/>
+      <c r="F70" s="232"/>
+      <c r="G70" s="231"/>
+      <c r="K70" s="232"/>
+      <c r="N70" s="233" t="s">
         <v>370</v>
       </c>
-      <c r="AA70" s="306" t="s">
+      <c r="AA70" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="AB70" s="307" t="s">
+      <c r="AB70" s="234" t="s">
         <v>360</v>
       </c>
-      <c r="AV70" s="305"/>
+      <c r="AV70" s="232"/>
     </row>
     <row r="71" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B71" s="67"/>
@@ -23489,14 +23495,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="274">
+      <c r="AI1" s="282">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="AJ1" s="289"/>
-      <c r="AK1" s="289"/>
-      <c r="AL1" s="289"/>
-      <c r="AM1" s="290"/>
+      <c r="AJ1" s="297"/>
+      <c r="AK1" s="297"/>
+      <c r="AL1" s="297"/>
+      <c r="AM1" s="298"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -23505,16 +23511,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="277" t="str">
+      <c r="AT1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="282"/>
-      <c r="AV1" s="282"/>
-      <c r="AW1" s="282"/>
-      <c r="AX1" s="282"/>
-      <c r="AY1" s="282"/>
-      <c r="AZ1" s="283"/>
+      <c r="AU1" s="290"/>
+      <c r="AV1" s="290"/>
+      <c r="AW1" s="290"/>
+      <c r="AX1" s="290"/>
+      <c r="AY1" s="290"/>
+      <c r="AZ1" s="291"/>
     </row>
     <row r="2" spans="1:52" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -23542,32 +23548,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="288" t="str">
+      <c r="S2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289"/>
-      <c r="W2" s="289"/>
-      <c r="X2" s="289"/>
-      <c r="Y2" s="289"/>
-      <c r="Z2" s="289"/>
-      <c r="AA2" s="289"/>
-      <c r="AB2" s="289"/>
-      <c r="AC2" s="289"/>
-      <c r="AD2" s="290"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="298"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="287"/>
-      <c r="AJ2" s="282"/>
-      <c r="AK2" s="282"/>
-      <c r="AL2" s="282"/>
-      <c r="AM2" s="283"/>
+      <c r="AI2" s="295"/>
+      <c r="AJ2" s="290"/>
+      <c r="AK2" s="290"/>
+      <c r="AL2" s="290"/>
+      <c r="AM2" s="291"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -23576,13 +23582,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="282"/>
-      <c r="AV2" s="282"/>
-      <c r="AW2" s="282"/>
-      <c r="AX2" s="282"/>
-      <c r="AY2" s="282"/>
-      <c r="AZ2" s="283"/>
+      <c r="AT2" s="285"/>
+      <c r="AU2" s="290"/>
+      <c r="AV2" s="290"/>
+      <c r="AW2" s="290"/>
+      <c r="AX2" s="290"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="291"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -28302,14 +28308,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="274">
+      <c r="AI1" s="282">
         <f>変更履歴!E5</f>
         <v>43735</v>
       </c>
-      <c r="AJ1" s="289"/>
-      <c r="AK1" s="289"/>
-      <c r="AL1" s="289"/>
-      <c r="AM1" s="290"/>
+      <c r="AJ1" s="297"/>
+      <c r="AK1" s="297"/>
+      <c r="AL1" s="297"/>
+      <c r="AM1" s="298"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -28318,16 +28324,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="277" t="str">
+      <c r="AT1" s="285" t="str">
         <f>変更履歴!AN5</f>
         <v>王</v>
       </c>
-      <c r="AU1" s="282"/>
-      <c r="AV1" s="282"/>
-      <c r="AW1" s="282"/>
-      <c r="AX1" s="282"/>
-      <c r="AY1" s="282"/>
-      <c r="AZ1" s="283"/>
+      <c r="AU1" s="290"/>
+      <c r="AV1" s="290"/>
+      <c r="AW1" s="290"/>
+      <c r="AX1" s="290"/>
+      <c r="AY1" s="290"/>
+      <c r="AZ1" s="291"/>
     </row>
     <row r="2" spans="1:63" s="48" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -28355,32 +28361,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="288" t="str">
+      <c r="S2" s="296" t="str">
         <f>'１．機能概要'!W2</f>
         <v>入出庫来歴照会</v>
       </c>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289"/>
-      <c r="W2" s="289"/>
-      <c r="X2" s="289"/>
-      <c r="Y2" s="289"/>
-      <c r="Z2" s="289"/>
-      <c r="AA2" s="289"/>
-      <c r="AB2" s="289"/>
-      <c r="AC2" s="289"/>
-      <c r="AD2" s="290"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="297"/>
+      <c r="AA2" s="297"/>
+      <c r="AB2" s="297"/>
+      <c r="AC2" s="297"/>
+      <c r="AD2" s="298"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="287"/>
-      <c r="AJ2" s="282"/>
-      <c r="AK2" s="282"/>
-      <c r="AL2" s="282"/>
-      <c r="AM2" s="283"/>
+      <c r="AI2" s="295"/>
+      <c r="AJ2" s="290"/>
+      <c r="AK2" s="290"/>
+      <c r="AL2" s="290"/>
+      <c r="AM2" s="291"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -28389,13 +28395,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="277"/>
-      <c r="AU2" s="282"/>
-      <c r="AV2" s="282"/>
-      <c r="AW2" s="282"/>
-      <c r="AX2" s="282"/>
-      <c r="AY2" s="282"/>
-      <c r="AZ2" s="283"/>
+      <c r="AT2" s="285"/>
+      <c r="AU2" s="290"/>
+      <c r="AV2" s="290"/>
+      <c r="AW2" s="290"/>
+      <c r="AX2" s="290"/>
+      <c r="AY2" s="290"/>
+      <c r="AZ2" s="291"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.15">
       <c r="A3" s="57"/>
@@ -40602,89 +40608,89 @@
       <c r="CX2" s="108"/>
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="302" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-      <c r="N3" s="295"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="295"/>
-      <c r="Q3" s="295"/>
-      <c r="R3" s="295"/>
-      <c r="S3" s="295"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="295"/>
-      <c r="AA3" s="295"/>
-      <c r="AB3" s="295"/>
-      <c r="AC3" s="295"/>
-      <c r="AD3" s="295"/>
-      <c r="AE3" s="295"/>
-      <c r="AF3" s="295"/>
-      <c r="AG3" s="295"/>
-      <c r="AH3" s="295"/>
-      <c r="AI3" s="295"/>
-      <c r="AJ3" s="295"/>
-      <c r="AK3" s="295"/>
-      <c r="AL3" s="295"/>
-      <c r="AM3" s="295"/>
-      <c r="AN3" s="295"/>
-      <c r="AO3" s="295"/>
-      <c r="AP3" s="295"/>
-      <c r="AQ3" s="295"/>
-      <c r="AR3" s="295"/>
-      <c r="AS3" s="295"/>
-      <c r="AT3" s="295"/>
-      <c r="AU3" s="295"/>
-      <c r="AV3" s="295"/>
-      <c r="AW3" s="295"/>
-      <c r="AX3" s="295"/>
-      <c r="AY3" s="295"/>
-      <c r="AZ3" s="295"/>
-      <c r="BA3" s="295"/>
-      <c r="BB3" s="295"/>
-      <c r="BC3" s="295"/>
-      <c r="BD3" s="295"/>
-      <c r="BE3" s="295"/>
-      <c r="BF3" s="295"/>
-      <c r="BG3" s="295"/>
-      <c r="BH3" s="295"/>
-      <c r="BI3" s="295"/>
-      <c r="BJ3" s="295"/>
-      <c r="BK3" s="295"/>
-      <c r="BL3" s="295"/>
-      <c r="BM3" s="295"/>
-      <c r="BN3" s="295"/>
-      <c r="BO3" s="295"/>
-      <c r="BP3" s="295"/>
-      <c r="BQ3" s="295"/>
-      <c r="BR3" s="295"/>
-      <c r="BS3" s="295"/>
-      <c r="BT3" s="295"/>
-      <c r="BU3" s="295"/>
-      <c r="BV3" s="295"/>
-      <c r="BW3" s="295"/>
-      <c r="BX3" s="295"/>
-      <c r="BY3" s="295"/>
-      <c r="BZ3" s="295"/>
-      <c r="CA3" s="295"/>
-      <c r="CB3" s="295"/>
-      <c r="CC3" s="295"/>
-      <c r="CD3" s="296"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="303"/>
+      <c r="R3" s="303"/>
+      <c r="S3" s="303"/>
+      <c r="T3" s="303"/>
+      <c r="U3" s="303"/>
+      <c r="V3" s="303"/>
+      <c r="W3" s="303"/>
+      <c r="X3" s="303"/>
+      <c r="Y3" s="303"/>
+      <c r="Z3" s="303"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="303"/>
+      <c r="AC3" s="303"/>
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="303"/>
+      <c r="AG3" s="303"/>
+      <c r="AH3" s="303"/>
+      <c r="AI3" s="303"/>
+      <c r="AJ3" s="303"/>
+      <c r="AK3" s="303"/>
+      <c r="AL3" s="303"/>
+      <c r="AM3" s="303"/>
+      <c r="AN3" s="303"/>
+      <c r="AO3" s="303"/>
+      <c r="AP3" s="303"/>
+      <c r="AQ3" s="303"/>
+      <c r="AR3" s="303"/>
+      <c r="AS3" s="303"/>
+      <c r="AT3" s="303"/>
+      <c r="AU3" s="303"/>
+      <c r="AV3" s="303"/>
+      <c r="AW3" s="303"/>
+      <c r="AX3" s="303"/>
+      <c r="AY3" s="303"/>
+      <c r="AZ3" s="303"/>
+      <c r="BA3" s="303"/>
+      <c r="BB3" s="303"/>
+      <c r="BC3" s="303"/>
+      <c r="BD3" s="303"/>
+      <c r="BE3" s="303"/>
+      <c r="BF3" s="303"/>
+      <c r="BG3" s="303"/>
+      <c r="BH3" s="303"/>
+      <c r="BI3" s="303"/>
+      <c r="BJ3" s="303"/>
+      <c r="BK3" s="303"/>
+      <c r="BL3" s="303"/>
+      <c r="BM3" s="303"/>
+      <c r="BN3" s="303"/>
+      <c r="BO3" s="303"/>
+      <c r="BP3" s="303"/>
+      <c r="BQ3" s="303"/>
+      <c r="BR3" s="303"/>
+      <c r="BS3" s="303"/>
+      <c r="BT3" s="303"/>
+      <c r="BU3" s="303"/>
+      <c r="BV3" s="303"/>
+      <c r="BW3" s="303"/>
+      <c r="BX3" s="303"/>
+      <c r="BY3" s="303"/>
+      <c r="BZ3" s="303"/>
+      <c r="CA3" s="303"/>
+      <c r="CB3" s="303"/>
+      <c r="CC3" s="303"/>
+      <c r="CD3" s="304"/>
       <c r="CE3" s="109" t="s">
         <v>113</v>
       </c>
@@ -40711,87 +40717,87 @@
       <c r="CX3" s="114"/>
     </row>
     <row r="4" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="297"/>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="298"/>
-      <c r="H4" s="298"/>
-      <c r="I4" s="298"/>
-      <c r="J4" s="298"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="298"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="298"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="298"/>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="298"/>
-      <c r="Z4" s="298"/>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="298"/>
-      <c r="AE4" s="298"/>
-      <c r="AF4" s="298"/>
-      <c r="AG4" s="298"/>
-      <c r="AH4" s="298"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="298"/>
-      <c r="AK4" s="298"/>
-      <c r="AL4" s="298"/>
-      <c r="AM4" s="298"/>
-      <c r="AN4" s="298"/>
-      <c r="AO4" s="298"/>
-      <c r="AP4" s="298"/>
-      <c r="AQ4" s="298"/>
-      <c r="AR4" s="298"/>
-      <c r="AS4" s="298"/>
-      <c r="AT4" s="298"/>
-      <c r="AU4" s="298"/>
-      <c r="AV4" s="298"/>
-      <c r="AW4" s="298"/>
-      <c r="AX4" s="298"/>
-      <c r="AY4" s="298"/>
-      <c r="AZ4" s="298"/>
-      <c r="BA4" s="298"/>
-      <c r="BB4" s="298"/>
-      <c r="BC4" s="298"/>
-      <c r="BD4" s="298"/>
-      <c r="BE4" s="298"/>
-      <c r="BF4" s="298"/>
-      <c r="BG4" s="298"/>
-      <c r="BH4" s="298"/>
-      <c r="BI4" s="298"/>
-      <c r="BJ4" s="298"/>
-      <c r="BK4" s="298"/>
-      <c r="BL4" s="298"/>
-      <c r="BM4" s="298"/>
-      <c r="BN4" s="298"/>
-      <c r="BO4" s="298"/>
-      <c r="BP4" s="298"/>
-      <c r="BQ4" s="298"/>
-      <c r="BR4" s="298"/>
-      <c r="BS4" s="298"/>
-      <c r="BT4" s="298"/>
-      <c r="BU4" s="298"/>
-      <c r="BV4" s="298"/>
-      <c r="BW4" s="298"/>
-      <c r="BX4" s="298"/>
-      <c r="BY4" s="298"/>
-      <c r="BZ4" s="298"/>
-      <c r="CA4" s="298"/>
-      <c r="CB4" s="298"/>
-      <c r="CC4" s="298"/>
-      <c r="CD4" s="299"/>
+      <c r="B4" s="305"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="306"/>
+      <c r="O4" s="306"/>
+      <c r="P4" s="306"/>
+      <c r="Q4" s="306"/>
+      <c r="R4" s="306"/>
+      <c r="S4" s="306"/>
+      <c r="T4" s="306"/>
+      <c r="U4" s="306"/>
+      <c r="V4" s="306"/>
+      <c r="W4" s="306"/>
+      <c r="X4" s="306"/>
+      <c r="Y4" s="306"/>
+      <c r="Z4" s="306"/>
+      <c r="AA4" s="306"/>
+      <c r="AB4" s="306"/>
+      <c r="AC4" s="306"/>
+      <c r="AD4" s="306"/>
+      <c r="AE4" s="306"/>
+      <c r="AF4" s="306"/>
+      <c r="AG4" s="306"/>
+      <c r="AH4" s="306"/>
+      <c r="AI4" s="306"/>
+      <c r="AJ4" s="306"/>
+      <c r="AK4" s="306"/>
+      <c r="AL4" s="306"/>
+      <c r="AM4" s="306"/>
+      <c r="AN4" s="306"/>
+      <c r="AO4" s="306"/>
+      <c r="AP4" s="306"/>
+      <c r="AQ4" s="306"/>
+      <c r="AR4" s="306"/>
+      <c r="AS4" s="306"/>
+      <c r="AT4" s="306"/>
+      <c r="AU4" s="306"/>
+      <c r="AV4" s="306"/>
+      <c r="AW4" s="306"/>
+      <c r="AX4" s="306"/>
+      <c r="AY4" s="306"/>
+      <c r="AZ4" s="306"/>
+      <c r="BA4" s="306"/>
+      <c r="BB4" s="306"/>
+      <c r="BC4" s="306"/>
+      <c r="BD4" s="306"/>
+      <c r="BE4" s="306"/>
+      <c r="BF4" s="306"/>
+      <c r="BG4" s="306"/>
+      <c r="BH4" s="306"/>
+      <c r="BI4" s="306"/>
+      <c r="BJ4" s="306"/>
+      <c r="BK4" s="306"/>
+      <c r="BL4" s="306"/>
+      <c r="BM4" s="306"/>
+      <c r="BN4" s="306"/>
+      <c r="BO4" s="306"/>
+      <c r="BP4" s="306"/>
+      <c r="BQ4" s="306"/>
+      <c r="BR4" s="306"/>
+      <c r="BS4" s="306"/>
+      <c r="BT4" s="306"/>
+      <c r="BU4" s="306"/>
+      <c r="BV4" s="306"/>
+      <c r="BW4" s="306"/>
+      <c r="BX4" s="306"/>
+      <c r="BY4" s="306"/>
+      <c r="BZ4" s="306"/>
+      <c r="CA4" s="306"/>
+      <c r="CB4" s="306"/>
+      <c r="CC4" s="306"/>
+      <c r="CD4" s="307"/>
       <c r="CE4" s="115" t="s">
         <v>115</v>
       </c>
@@ -45197,9 +45203,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45361,26 +45370,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45404,9 +45402,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1D3BE-A558-48D7-9E35-0BF59AC843F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8247BD-25D2-4B0F-BF70-81C64C6B5C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -130,12 +130,14 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1252,10 +1254,6 @@
   </si>
   <si>
     <t>入出庫来歴の照会を行う画面。</t>
-  </si>
-  <si>
-    <t>SC-Z01A</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>入出庫来歴照会</t>
@@ -2894,6 +2892,10 @@
   <si>
     <t>・受払データ.製品半製品区分</t>
   </si>
+  <si>
+    <t>Z-01A</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -4298,91 +4300,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4409,6 +4326,91 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5459,7 +5461,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3599"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3600"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7070,1779 +7072,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
-      <c r="M1" s="269"/>
-      <c r="N1" s="269"/>
-      <c r="O1" s="269"/>
-      <c r="P1" s="269"/>
-      <c r="Q1" s="269"/>
-      <c r="R1" s="269"/>
-      <c r="S1" s="269"/>
-      <c r="T1" s="269"/>
-      <c r="U1" s="269"/>
-      <c r="V1" s="269"/>
-      <c r="W1" s="269"/>
-      <c r="X1" s="269"/>
-      <c r="Y1" s="269"/>
-      <c r="Z1" s="269"/>
-      <c r="AA1" s="269"/>
-      <c r="AB1" s="269"/>
-      <c r="AC1" s="269"/>
-      <c r="AD1" s="269"/>
-      <c r="AE1" s="269"/>
-      <c r="AF1" s="269"/>
-      <c r="AG1" s="269"/>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="269"/>
-      <c r="AJ1" s="269"/>
-      <c r="AK1" s="269"/>
-      <c r="AL1" s="269"/>
-      <c r="AM1" s="269"/>
-      <c r="AN1" s="269"/>
-      <c r="AO1" s="269"/>
-      <c r="AP1" s="269"/>
-      <c r="AQ1" s="269"/>
-      <c r="AR1" s="269"/>
-      <c r="AS1" s="269"/>
-      <c r="AT1" s="269"/>
-      <c r="AU1" s="269"/>
-      <c r="AV1" s="269"/>
-      <c r="AW1" s="269"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="238"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="238"/>
+      <c r="AJ1" s="238"/>
+      <c r="AK1" s="238"/>
+      <c r="AL1" s="238"/>
+      <c r="AM1" s="238"/>
+      <c r="AN1" s="238"/>
+      <c r="AO1" s="238"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="238"/>
+      <c r="AR1" s="238"/>
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="238"/>
+      <c r="AU1" s="238"/>
+      <c r="AV1" s="238"/>
+      <c r="AW1" s="238"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="270"/>
-      <c r="V2" s="270"/>
-      <c r="W2" s="270"/>
-      <c r="X2" s="270"/>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="270"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="270"/>
-      <c r="AM2" s="270"/>
-      <c r="AN2" s="270"/>
-      <c r="AO2" s="270"/>
-      <c r="AP2" s="270"/>
-      <c r="AQ2" s="270"/>
-      <c r="AR2" s="270"/>
-      <c r="AS2" s="270"/>
-      <c r="AT2" s="270"/>
-      <c r="AU2" s="270"/>
-      <c r="AV2" s="270"/>
-      <c r="AW2" s="270"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
+      <c r="N2" s="239"/>
+      <c r="O2" s="239"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="239"/>
+      <c r="AD2" s="239"/>
+      <c r="AE2" s="239"/>
+      <c r="AF2" s="239"/>
+      <c r="AG2" s="239"/>
+      <c r="AH2" s="239"/>
+      <c r="AI2" s="239"/>
+      <c r="AJ2" s="239"/>
+      <c r="AK2" s="239"/>
+      <c r="AL2" s="239"/>
+      <c r="AM2" s="239"/>
+      <c r="AN2" s="239"/>
+      <c r="AO2" s="239"/>
+      <c r="AP2" s="239"/>
+      <c r="AQ2" s="239"/>
+      <c r="AR2" s="239"/>
+      <c r="AS2" s="239"/>
+      <c r="AT2" s="239"/>
+      <c r="AU2" s="239"/>
+      <c r="AV2" s="239"/>
+      <c r="AW2" s="239"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271" t="s">
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="272" t="s">
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="273"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="272" t="s">
+      <c r="K3" s="242"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="273"/>
-      <c r="R3" s="274"/>
-      <c r="S3" s="271" t="s">
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271" t="s">
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="271"/>
-      <c r="AA3" s="271"/>
-      <c r="AB3" s="271"/>
-      <c r="AC3" s="271"/>
-      <c r="AD3" s="271"/>
-      <c r="AE3" s="271"/>
-      <c r="AF3" s="271"/>
-      <c r="AG3" s="271"/>
-      <c r="AH3" s="271"/>
-      <c r="AI3" s="271"/>
-      <c r="AJ3" s="271"/>
-      <c r="AK3" s="271"/>
-      <c r="AL3" s="271"/>
-      <c r="AM3" s="271"/>
-      <c r="AN3" s="271" t="s">
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="240"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="240"/>
+      <c r="AE3" s="240"/>
+      <c r="AF3" s="240"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="240"/>
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="240"/>
+      <c r="AM3" s="240"/>
+      <c r="AN3" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="271"/>
-      <c r="AP3" s="271"/>
-      <c r="AQ3" s="271"/>
-      <c r="AR3" s="271"/>
-      <c r="AS3" s="271" t="s">
+      <c r="AO3" s="240"/>
+      <c r="AP3" s="240"/>
+      <c r="AQ3" s="240"/>
+      <c r="AR3" s="240"/>
+      <c r="AS3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="271"/>
-      <c r="AU3" s="271"/>
-      <c r="AV3" s="271"/>
-      <c r="AW3" s="271"/>
+      <c r="AT3" s="240"/>
+      <c r="AU3" s="240"/>
+      <c r="AV3" s="240"/>
+      <c r="AW3" s="240"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="275"/>
-      <c r="N4" s="276"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="276"/>
-      <c r="Q4" s="276"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="271"/>
-      <c r="T4" s="271"/>
-      <c r="U4" s="271"/>
-      <c r="V4" s="271"/>
-      <c r="W4" s="271"/>
-      <c r="X4" s="271"/>
-      <c r="Y4" s="271"/>
-      <c r="Z4" s="271"/>
-      <c r="AA4" s="271"/>
-      <c r="AB4" s="271"/>
-      <c r="AC4" s="271"/>
-      <c r="AD4" s="271"/>
-      <c r="AE4" s="271"/>
-      <c r="AF4" s="271"/>
-      <c r="AG4" s="271"/>
-      <c r="AH4" s="271"/>
-      <c r="AI4" s="271"/>
-      <c r="AJ4" s="271"/>
-      <c r="AK4" s="271"/>
-      <c r="AL4" s="271"/>
-      <c r="AM4" s="271"/>
-      <c r="AN4" s="271"/>
-      <c r="AO4" s="271"/>
-      <c r="AP4" s="271"/>
-      <c r="AQ4" s="271"/>
-      <c r="AR4" s="271"/>
-      <c r="AS4" s="271"/>
-      <c r="AT4" s="271"/>
-      <c r="AU4" s="271"/>
-      <c r="AV4" s="271"/>
-      <c r="AW4" s="271"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="245"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="244"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="246"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="240"/>
+      <c r="V4" s="240"/>
+      <c r="W4" s="240"/>
+      <c r="X4" s="240"/>
+      <c r="Y4" s="240"/>
+      <c r="Z4" s="240"/>
+      <c r="AA4" s="240"/>
+      <c r="AB4" s="240"/>
+      <c r="AC4" s="240"/>
+      <c r="AD4" s="240"/>
+      <c r="AE4" s="240"/>
+      <c r="AF4" s="240"/>
+      <c r="AG4" s="240"/>
+      <c r="AH4" s="240"/>
+      <c r="AI4" s="240"/>
+      <c r="AJ4" s="240"/>
+      <c r="AK4" s="240"/>
+      <c r="AL4" s="240"/>
+      <c r="AM4" s="240"/>
+      <c r="AN4" s="240"/>
+      <c r="AO4" s="240"/>
+      <c r="AP4" s="240"/>
+      <c r="AQ4" s="240"/>
+      <c r="AR4" s="240"/>
+      <c r="AS4" s="240"/>
+      <c r="AT4" s="240"/>
+      <c r="AU4" s="240"/>
+      <c r="AV4" s="240"/>
+      <c r="AW4" s="240"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="263">
+      <c r="B5" s="248">
         <v>1</v>
       </c>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="244">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="249">
         <v>43735</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="245" t="s">
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="246"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="245" t="s">
+      <c r="K5" s="251"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="246"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="251" t="s">
+      <c r="N5" s="251"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="251"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="251"/>
-      <c r="U5" s="251"/>
-      <c r="V5" s="262" t="s">
+      <c r="T5" s="247"/>
+      <c r="U5" s="247"/>
+      <c r="V5" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="262"/>
-      <c r="X5" s="262"/>
-      <c r="Y5" s="262"/>
-      <c r="Z5" s="262"/>
-      <c r="AA5" s="262"/>
-      <c r="AB5" s="262"/>
-      <c r="AC5" s="262"/>
-      <c r="AD5" s="262"/>
-      <c r="AE5" s="262"/>
-      <c r="AF5" s="262"/>
-      <c r="AG5" s="262"/>
-      <c r="AH5" s="262"/>
-      <c r="AI5" s="262"/>
-      <c r="AJ5" s="262"/>
-      <c r="AK5" s="262"/>
-      <c r="AL5" s="262"/>
-      <c r="AM5" s="262"/>
-      <c r="AN5" s="251" t="s">
+      <c r="W5" s="256"/>
+      <c r="X5" s="256"/>
+      <c r="Y5" s="256"/>
+      <c r="Z5" s="256"/>
+      <c r="AA5" s="256"/>
+      <c r="AB5" s="256"/>
+      <c r="AC5" s="256"/>
+      <c r="AD5" s="256"/>
+      <c r="AE5" s="256"/>
+      <c r="AF5" s="256"/>
+      <c r="AG5" s="256"/>
+      <c r="AH5" s="256"/>
+      <c r="AI5" s="256"/>
+      <c r="AJ5" s="256"/>
+      <c r="AK5" s="256"/>
+      <c r="AL5" s="256"/>
+      <c r="AM5" s="256"/>
+      <c r="AN5" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="AO5" s="251"/>
-      <c r="AP5" s="251"/>
-      <c r="AQ5" s="251"/>
-      <c r="AR5" s="251"/>
-      <c r="AS5" s="251"/>
-      <c r="AT5" s="251"/>
-      <c r="AU5" s="251"/>
-      <c r="AV5" s="251"/>
-      <c r="AW5" s="251"/>
+      <c r="AO5" s="247"/>
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="247"/>
+      <c r="AR5" s="247"/>
+      <c r="AS5" s="247"/>
+      <c r="AT5" s="247"/>
+      <c r="AU5" s="247"/>
+      <c r="AV5" s="247"/>
+      <c r="AW5" s="247"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="263"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="247"/>
-      <c r="M6" s="266"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="267"/>
-      <c r="P6" s="267"/>
-      <c r="Q6" s="267"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="251"/>
-      <c r="T6" s="251"/>
-      <c r="U6" s="251"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="262"/>
-      <c r="AA6" s="262"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="262"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="262"/>
-      <c r="AH6" s="262"/>
-      <c r="AI6" s="262"/>
-      <c r="AJ6" s="262"/>
-      <c r="AK6" s="262"/>
-      <c r="AL6" s="262"/>
-      <c r="AM6" s="262"/>
-      <c r="AN6" s="251"/>
-      <c r="AO6" s="251"/>
-      <c r="AP6" s="251"/>
-      <c r="AQ6" s="251"/>
-      <c r="AR6" s="251"/>
-      <c r="AS6" s="251"/>
-      <c r="AT6" s="251"/>
-      <c r="AU6" s="251"/>
-      <c r="AV6" s="251"/>
-      <c r="AW6" s="251"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="252"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="247"/>
+      <c r="T6" s="247"/>
+      <c r="U6" s="247"/>
+      <c r="V6" s="256"/>
+      <c r="W6" s="256"/>
+      <c r="X6" s="256"/>
+      <c r="Y6" s="256"/>
+      <c r="Z6" s="256"/>
+      <c r="AA6" s="256"/>
+      <c r="AB6" s="256"/>
+      <c r="AC6" s="256"/>
+      <c r="AD6" s="256"/>
+      <c r="AE6" s="256"/>
+      <c r="AF6" s="256"/>
+      <c r="AG6" s="256"/>
+      <c r="AH6" s="256"/>
+      <c r="AI6" s="256"/>
+      <c r="AJ6" s="256"/>
+      <c r="AK6" s="256"/>
+      <c r="AL6" s="256"/>
+      <c r="AM6" s="256"/>
+      <c r="AN6" s="247"/>
+      <c r="AO6" s="247"/>
+      <c r="AP6" s="247"/>
+      <c r="AQ6" s="247"/>
+      <c r="AR6" s="247"/>
+      <c r="AS6" s="247"/>
+      <c r="AT6" s="247"/>
+      <c r="AU6" s="247"/>
+      <c r="AV6" s="247"/>
+      <c r="AW6" s="247"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="247"/>
-      <c r="M7" s="266"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="268"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="251"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="262"/>
-      <c r="W7" s="262"/>
-      <c r="X7" s="262"/>
-      <c r="Y7" s="262"/>
-      <c r="Z7" s="262"/>
-      <c r="AA7" s="262"/>
-      <c r="AB7" s="262"/>
-      <c r="AC7" s="262"/>
-      <c r="AD7" s="262"/>
-      <c r="AE7" s="262"/>
-      <c r="AF7" s="262"/>
-      <c r="AG7" s="262"/>
-      <c r="AH7" s="262"/>
-      <c r="AI7" s="262"/>
-      <c r="AJ7" s="262"/>
-      <c r="AK7" s="262"/>
-      <c r="AL7" s="262"/>
-      <c r="AM7" s="262"/>
-      <c r="AN7" s="251"/>
-      <c r="AO7" s="251"/>
-      <c r="AP7" s="251"/>
-      <c r="AQ7" s="251"/>
-      <c r="AR7" s="251"/>
-      <c r="AS7" s="251"/>
-      <c r="AT7" s="251"/>
-      <c r="AU7" s="251"/>
-      <c r="AV7" s="251"/>
-      <c r="AW7" s="251"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="256"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="256"/>
+      <c r="Z7" s="256"/>
+      <c r="AA7" s="256"/>
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="256"/>
+      <c r="AF7" s="256"/>
+      <c r="AG7" s="256"/>
+      <c r="AH7" s="256"/>
+      <c r="AI7" s="256"/>
+      <c r="AJ7" s="256"/>
+      <c r="AK7" s="256"/>
+      <c r="AL7" s="256"/>
+      <c r="AM7" s="256"/>
+      <c r="AN7" s="247"/>
+      <c r="AO7" s="247"/>
+      <c r="AP7" s="247"/>
+      <c r="AQ7" s="247"/>
+      <c r="AR7" s="247"/>
+      <c r="AS7" s="247"/>
+      <c r="AT7" s="247"/>
+      <c r="AU7" s="247"/>
+      <c r="AV7" s="247"/>
+      <c r="AW7" s="247"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="245"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="267"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="251"/>
-      <c r="T8" s="251"/>
-      <c r="U8" s="251"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="262"/>
-      <c r="Z8" s="262"/>
-      <c r="AA8" s="262"/>
-      <c r="AB8" s="262"/>
-      <c r="AC8" s="262"/>
-      <c r="AD8" s="262"/>
-      <c r="AE8" s="262"/>
-      <c r="AF8" s="262"/>
-      <c r="AG8" s="262"/>
-      <c r="AH8" s="262"/>
-      <c r="AI8" s="262"/>
-      <c r="AJ8" s="262"/>
-      <c r="AK8" s="262"/>
-      <c r="AL8" s="262"/>
-      <c r="AM8" s="262"/>
-      <c r="AN8" s="251"/>
-      <c r="AO8" s="251"/>
-      <c r="AP8" s="251"/>
-      <c r="AQ8" s="251"/>
-      <c r="AR8" s="251"/>
-      <c r="AS8" s="251"/>
-      <c r="AT8" s="251"/>
-      <c r="AU8" s="251"/>
-      <c r="AV8" s="251"/>
-      <c r="AW8" s="251"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="249"/>
+      <c r="I8" s="249"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="253"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="255"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="256"/>
+      <c r="W8" s="256"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="256"/>
+      <c r="Z8" s="256"/>
+      <c r="AA8" s="256"/>
+      <c r="AB8" s="256"/>
+      <c r="AC8" s="256"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="256"/>
+      <c r="AF8" s="256"/>
+      <c r="AG8" s="256"/>
+      <c r="AH8" s="256"/>
+      <c r="AI8" s="256"/>
+      <c r="AJ8" s="256"/>
+      <c r="AK8" s="256"/>
+      <c r="AL8" s="256"/>
+      <c r="AM8" s="256"/>
+      <c r="AN8" s="247"/>
+      <c r="AO8" s="247"/>
+      <c r="AP8" s="247"/>
+      <c r="AQ8" s="247"/>
+      <c r="AR8" s="247"/>
+      <c r="AS8" s="247"/>
+      <c r="AT8" s="247"/>
+      <c r="AU8" s="247"/>
+      <c r="AV8" s="247"/>
+      <c r="AW8" s="247"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="263"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="247"/>
-      <c r="M9" s="266"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="251"/>
-      <c r="T9" s="251"/>
-      <c r="U9" s="251"/>
-      <c r="V9" s="262"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="262"/>
-      <c r="Y9" s="262"/>
-      <c r="Z9" s="262"/>
-      <c r="AA9" s="262"/>
-      <c r="AB9" s="262"/>
-      <c r="AC9" s="262"/>
-      <c r="AD9" s="262"/>
-      <c r="AE9" s="262"/>
-      <c r="AF9" s="262"/>
-      <c r="AG9" s="262"/>
-      <c r="AH9" s="262"/>
-      <c r="AI9" s="262"/>
-      <c r="AJ9" s="262"/>
-      <c r="AK9" s="262"/>
-      <c r="AL9" s="262"/>
-      <c r="AM9" s="262"/>
-      <c r="AN9" s="251"/>
-      <c r="AO9" s="251"/>
-      <c r="AP9" s="251"/>
-      <c r="AQ9" s="251"/>
-      <c r="AR9" s="251"/>
-      <c r="AS9" s="251"/>
-      <c r="AT9" s="251"/>
-      <c r="AU9" s="251"/>
-      <c r="AV9" s="251"/>
-      <c r="AW9" s="251"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="248"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="255"/>
+      <c r="S9" s="247"/>
+      <c r="T9" s="247"/>
+      <c r="U9" s="247"/>
+      <c r="V9" s="256"/>
+      <c r="W9" s="256"/>
+      <c r="X9" s="256"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="256"/>
+      <c r="AA9" s="256"/>
+      <c r="AB9" s="256"/>
+      <c r="AC9" s="256"/>
+      <c r="AD9" s="256"/>
+      <c r="AE9" s="256"/>
+      <c r="AF9" s="256"/>
+      <c r="AG9" s="256"/>
+      <c r="AH9" s="256"/>
+      <c r="AI9" s="256"/>
+      <c r="AJ9" s="256"/>
+      <c r="AK9" s="256"/>
+      <c r="AL9" s="256"/>
+      <c r="AM9" s="256"/>
+      <c r="AN9" s="247"/>
+      <c r="AO9" s="247"/>
+      <c r="AP9" s="247"/>
+      <c r="AQ9" s="247"/>
+      <c r="AR9" s="247"/>
+      <c r="AS9" s="247"/>
+      <c r="AT9" s="247"/>
+      <c r="AU9" s="247"/>
+      <c r="AV9" s="247"/>
+      <c r="AW9" s="247"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="247"/>
-      <c r="M10" s="266"/>
-      <c r="N10" s="267"/>
-      <c r="O10" s="267"/>
-      <c r="P10" s="267"/>
-      <c r="Q10" s="267"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="251"/>
-      <c r="T10" s="251"/>
-      <c r="U10" s="251"/>
-      <c r="V10" s="262"/>
-      <c r="W10" s="262"/>
-      <c r="X10" s="262"/>
-      <c r="Y10" s="262"/>
-      <c r="Z10" s="262"/>
-      <c r="AA10" s="262"/>
-      <c r="AB10" s="262"/>
-      <c r="AC10" s="262"/>
-      <c r="AD10" s="262"/>
-      <c r="AE10" s="262"/>
-      <c r="AF10" s="262"/>
-      <c r="AG10" s="262"/>
-      <c r="AH10" s="262"/>
-      <c r="AI10" s="262"/>
-      <c r="AJ10" s="262"/>
-      <c r="AK10" s="262"/>
-      <c r="AL10" s="262"/>
-      <c r="AM10" s="262"/>
-      <c r="AN10" s="251"/>
-      <c r="AO10" s="251"/>
-      <c r="AP10" s="251"/>
-      <c r="AQ10" s="251"/>
-      <c r="AR10" s="251"/>
-      <c r="AS10" s="251"/>
-      <c r="AT10" s="251"/>
-      <c r="AU10" s="251"/>
-      <c r="AV10" s="251"/>
-      <c r="AW10" s="251"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="247"/>
+      <c r="T10" s="247"/>
+      <c r="U10" s="247"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="256"/>
+      <c r="Y10" s="256"/>
+      <c r="Z10" s="256"/>
+      <c r="AA10" s="256"/>
+      <c r="AB10" s="256"/>
+      <c r="AC10" s="256"/>
+      <c r="AD10" s="256"/>
+      <c r="AE10" s="256"/>
+      <c r="AF10" s="256"/>
+      <c r="AG10" s="256"/>
+      <c r="AH10" s="256"/>
+      <c r="AI10" s="256"/>
+      <c r="AJ10" s="256"/>
+      <c r="AK10" s="256"/>
+      <c r="AL10" s="256"/>
+      <c r="AM10" s="256"/>
+      <c r="AN10" s="247"/>
+      <c r="AO10" s="247"/>
+      <c r="AP10" s="247"/>
+      <c r="AQ10" s="247"/>
+      <c r="AR10" s="247"/>
+      <c r="AS10" s="247"/>
+      <c r="AT10" s="247"/>
+      <c r="AU10" s="247"/>
+      <c r="AV10" s="247"/>
+      <c r="AW10" s="247"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="263"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="246"/>
-      <c r="L11" s="247"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="256"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="251"/>
-      <c r="T11" s="251"/>
-      <c r="U11" s="251"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="264"/>
-      <c r="X11" s="264"/>
-      <c r="Y11" s="264"/>
-      <c r="Z11" s="264"/>
-      <c r="AA11" s="264"/>
-      <c r="AB11" s="264"/>
-      <c r="AC11" s="264"/>
-      <c r="AD11" s="264"/>
-      <c r="AE11" s="264"/>
-      <c r="AF11" s="264"/>
-      <c r="AG11" s="264"/>
-      <c r="AH11" s="264"/>
-      <c r="AI11" s="264"/>
-      <c r="AJ11" s="264"/>
-      <c r="AK11" s="264"/>
-      <c r="AL11" s="264"/>
-      <c r="AM11" s="265"/>
-      <c r="AN11" s="251"/>
-      <c r="AO11" s="251"/>
-      <c r="AP11" s="251"/>
-      <c r="AQ11" s="251"/>
-      <c r="AR11" s="251"/>
-      <c r="AS11" s="251"/>
-      <c r="AT11" s="251"/>
-      <c r="AU11" s="251"/>
-      <c r="AV11" s="251"/>
-      <c r="AW11" s="251"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="249"/>
+      <c r="I11" s="249"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="260"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="261"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="261"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="247"/>
+      <c r="T11" s="247"/>
+      <c r="U11" s="247"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="269"/>
+      <c r="AF11" s="269"/>
+      <c r="AG11" s="269"/>
+      <c r="AH11" s="269"/>
+      <c r="AI11" s="269"/>
+      <c r="AJ11" s="269"/>
+      <c r="AK11" s="269"/>
+      <c r="AL11" s="269"/>
+      <c r="AM11" s="270"/>
+      <c r="AN11" s="247"/>
+      <c r="AO11" s="247"/>
+      <c r="AP11" s="247"/>
+      <c r="AQ11" s="247"/>
+      <c r="AR11" s="247"/>
+      <c r="AS11" s="247"/>
+      <c r="AT11" s="247"/>
+      <c r="AU11" s="247"/>
+      <c r="AV11" s="247"/>
+      <c r="AW11" s="247"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="243"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="251"/>
-      <c r="T12" s="251"/>
-      <c r="U12" s="251"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="253"/>
-      <c r="X12" s="253"/>
-      <c r="Y12" s="253"/>
-      <c r="Z12" s="253"/>
-      <c r="AA12" s="253"/>
-      <c r="AB12" s="253"/>
-      <c r="AC12" s="253"/>
-      <c r="AD12" s="253"/>
-      <c r="AE12" s="253"/>
-      <c r="AF12" s="253"/>
-      <c r="AG12" s="253"/>
-      <c r="AH12" s="253"/>
-      <c r="AI12" s="253"/>
-      <c r="AJ12" s="253"/>
-      <c r="AK12" s="253"/>
-      <c r="AL12" s="253"/>
-      <c r="AM12" s="254"/>
-      <c r="AN12" s="238"/>
-      <c r="AO12" s="239"/>
-      <c r="AP12" s="239"/>
-      <c r="AQ12" s="239"/>
-      <c r="AR12" s="240"/>
-      <c r="AS12" s="238"/>
-      <c r="AT12" s="239"/>
-      <c r="AU12" s="239"/>
-      <c r="AV12" s="239"/>
-      <c r="AW12" s="240"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="260"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="261"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="261"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="247"/>
+      <c r="T12" s="247"/>
+      <c r="U12" s="247"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="264"/>
+      <c r="X12" s="264"/>
+      <c r="Y12" s="264"/>
+      <c r="Z12" s="264"/>
+      <c r="AA12" s="264"/>
+      <c r="AB12" s="264"/>
+      <c r="AC12" s="264"/>
+      <c r="AD12" s="264"/>
+      <c r="AE12" s="264"/>
+      <c r="AF12" s="264"/>
+      <c r="AG12" s="264"/>
+      <c r="AH12" s="264"/>
+      <c r="AI12" s="264"/>
+      <c r="AJ12" s="264"/>
+      <c r="AK12" s="264"/>
+      <c r="AL12" s="264"/>
+      <c r="AM12" s="265"/>
+      <c r="AN12" s="266"/>
+      <c r="AO12" s="267"/>
+      <c r="AP12" s="267"/>
+      <c r="AQ12" s="267"/>
+      <c r="AR12" s="268"/>
+      <c r="AS12" s="266"/>
+      <c r="AT12" s="267"/>
+      <c r="AU12" s="267"/>
+      <c r="AV12" s="267"/>
+      <c r="AW12" s="268"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="244"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="244"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="256"/>
-      <c r="Q13" s="256"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="251"/>
-      <c r="T13" s="251"/>
-      <c r="U13" s="251"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="253"/>
-      <c r="X13" s="253"/>
-      <c r="Y13" s="253"/>
-      <c r="Z13" s="253"/>
-      <c r="AA13" s="253"/>
-      <c r="AB13" s="253"/>
-      <c r="AC13" s="253"/>
-      <c r="AD13" s="253"/>
-      <c r="AE13" s="253"/>
-      <c r="AF13" s="253"/>
-      <c r="AG13" s="253"/>
-      <c r="AH13" s="253"/>
-      <c r="AI13" s="253"/>
-      <c r="AJ13" s="253"/>
-      <c r="AK13" s="253"/>
-      <c r="AL13" s="253"/>
-      <c r="AM13" s="254"/>
-      <c r="AN13" s="238"/>
-      <c r="AO13" s="239"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="240"/>
-      <c r="AS13" s="238"/>
-      <c r="AT13" s="239"/>
-      <c r="AU13" s="239"/>
-      <c r="AV13" s="239"/>
-      <c r="AW13" s="240"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="261"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="261"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="247"/>
+      <c r="T13" s="247"/>
+      <c r="U13" s="247"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="264"/>
+      <c r="X13" s="264"/>
+      <c r="Y13" s="264"/>
+      <c r="Z13" s="264"/>
+      <c r="AA13" s="264"/>
+      <c r="AB13" s="264"/>
+      <c r="AC13" s="264"/>
+      <c r="AD13" s="264"/>
+      <c r="AE13" s="264"/>
+      <c r="AF13" s="264"/>
+      <c r="AG13" s="264"/>
+      <c r="AH13" s="264"/>
+      <c r="AI13" s="264"/>
+      <c r="AJ13" s="264"/>
+      <c r="AK13" s="264"/>
+      <c r="AL13" s="264"/>
+      <c r="AM13" s="265"/>
+      <c r="AN13" s="266"/>
+      <c r="AO13" s="267"/>
+      <c r="AP13" s="267"/>
+      <c r="AQ13" s="267"/>
+      <c r="AR13" s="268"/>
+      <c r="AS13" s="266"/>
+      <c r="AT13" s="267"/>
+      <c r="AU13" s="267"/>
+      <c r="AV13" s="267"/>
+      <c r="AW13" s="268"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="241"/>
-      <c r="C14" s="242"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="247"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="251"/>
-      <c r="T14" s="251"/>
-      <c r="U14" s="251"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="262"/>
-      <c r="X14" s="262"/>
-      <c r="Y14" s="262"/>
-      <c r="Z14" s="262"/>
-      <c r="AA14" s="262"/>
-      <c r="AB14" s="262"/>
-      <c r="AC14" s="262"/>
-      <c r="AD14" s="262"/>
-      <c r="AE14" s="262"/>
-      <c r="AF14" s="262"/>
-      <c r="AG14" s="262"/>
-      <c r="AH14" s="262"/>
-      <c r="AI14" s="262"/>
-      <c r="AJ14" s="262"/>
-      <c r="AK14" s="262"/>
-      <c r="AL14" s="262"/>
-      <c r="AM14" s="262"/>
-      <c r="AN14" s="251"/>
-      <c r="AO14" s="251"/>
-      <c r="AP14" s="251"/>
-      <c r="AQ14" s="251"/>
-      <c r="AR14" s="251"/>
-      <c r="AS14" s="238"/>
-      <c r="AT14" s="239"/>
-      <c r="AU14" s="239"/>
-      <c r="AV14" s="239"/>
-      <c r="AW14" s="240"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="261"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="247"/>
+      <c r="T14" s="247"/>
+      <c r="U14" s="247"/>
+      <c r="V14" s="272"/>
+      <c r="W14" s="256"/>
+      <c r="X14" s="256"/>
+      <c r="Y14" s="256"/>
+      <c r="Z14" s="256"/>
+      <c r="AA14" s="256"/>
+      <c r="AB14" s="256"/>
+      <c r="AC14" s="256"/>
+      <c r="AD14" s="256"/>
+      <c r="AE14" s="256"/>
+      <c r="AF14" s="256"/>
+      <c r="AG14" s="256"/>
+      <c r="AH14" s="256"/>
+      <c r="AI14" s="256"/>
+      <c r="AJ14" s="256"/>
+      <c r="AK14" s="256"/>
+      <c r="AL14" s="256"/>
+      <c r="AM14" s="256"/>
+      <c r="AN14" s="247"/>
+      <c r="AO14" s="247"/>
+      <c r="AP14" s="247"/>
+      <c r="AQ14" s="247"/>
+      <c r="AR14" s="247"/>
+      <c r="AS14" s="266"/>
+      <c r="AT14" s="267"/>
+      <c r="AU14" s="267"/>
+      <c r="AV14" s="267"/>
+      <c r="AW14" s="268"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="241"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="243"/>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="247"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="251"/>
-      <c r="T15" s="251"/>
-      <c r="U15" s="251"/>
-      <c r="V15" s="252"/>
-      <c r="W15" s="253"/>
-      <c r="X15" s="253"/>
-      <c r="Y15" s="253"/>
-      <c r="Z15" s="253"/>
-      <c r="AA15" s="253"/>
-      <c r="AB15" s="253"/>
-      <c r="AC15" s="253"/>
-      <c r="AD15" s="253"/>
-      <c r="AE15" s="253"/>
-      <c r="AF15" s="253"/>
-      <c r="AG15" s="253"/>
-      <c r="AH15" s="253"/>
-      <c r="AI15" s="253"/>
-      <c r="AJ15" s="253"/>
-      <c r="AK15" s="253"/>
-      <c r="AL15" s="253"/>
-      <c r="AM15" s="254"/>
-      <c r="AN15" s="238"/>
-      <c r="AO15" s="239"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="240"/>
-      <c r="AS15" s="238"/>
-      <c r="AT15" s="239"/>
-      <c r="AU15" s="239"/>
-      <c r="AV15" s="239"/>
-      <c r="AW15" s="240"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="250"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="261"/>
+      <c r="R15" s="262"/>
+      <c r="S15" s="247"/>
+      <c r="T15" s="247"/>
+      <c r="U15" s="247"/>
+      <c r="V15" s="263"/>
+      <c r="W15" s="264"/>
+      <c r="X15" s="264"/>
+      <c r="Y15" s="264"/>
+      <c r="Z15" s="264"/>
+      <c r="AA15" s="264"/>
+      <c r="AB15" s="264"/>
+      <c r="AC15" s="264"/>
+      <c r="AD15" s="264"/>
+      <c r="AE15" s="264"/>
+      <c r="AF15" s="264"/>
+      <c r="AG15" s="264"/>
+      <c r="AH15" s="264"/>
+      <c r="AI15" s="264"/>
+      <c r="AJ15" s="264"/>
+      <c r="AK15" s="264"/>
+      <c r="AL15" s="264"/>
+      <c r="AM15" s="265"/>
+      <c r="AN15" s="266"/>
+      <c r="AO15" s="267"/>
+      <c r="AP15" s="267"/>
+      <c r="AQ15" s="267"/>
+      <c r="AR15" s="268"/>
+      <c r="AS15" s="266"/>
+      <c r="AT15" s="267"/>
+      <c r="AU15" s="267"/>
+      <c r="AV15" s="267"/>
+      <c r="AW15" s="268"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="241"/>
-      <c r="C16" s="242"/>
-      <c r="D16" s="243"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="247"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="257"/>
-      <c r="S16" s="251"/>
-      <c r="T16" s="251"/>
-      <c r="U16" s="251"/>
-      <c r="V16" s="252"/>
-      <c r="W16" s="253"/>
-      <c r="X16" s="253"/>
-      <c r="Y16" s="253"/>
-      <c r="Z16" s="253"/>
-      <c r="AA16" s="253"/>
-      <c r="AB16" s="253"/>
-      <c r="AC16" s="253"/>
-      <c r="AD16" s="253"/>
-      <c r="AE16" s="253"/>
-      <c r="AF16" s="253"/>
-      <c r="AG16" s="253"/>
-      <c r="AH16" s="253"/>
-      <c r="AI16" s="253"/>
-      <c r="AJ16" s="253"/>
-      <c r="AK16" s="253"/>
-      <c r="AL16" s="253"/>
-      <c r="AM16" s="254"/>
-      <c r="AN16" s="238"/>
-      <c r="AO16" s="239"/>
-      <c r="AP16" s="239"/>
-      <c r="AQ16" s="239"/>
-      <c r="AR16" s="240"/>
-      <c r="AS16" s="238"/>
-      <c r="AT16" s="239"/>
-      <c r="AU16" s="239"/>
-      <c r="AV16" s="239"/>
-      <c r="AW16" s="240"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="261"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="247"/>
+      <c r="T16" s="247"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="263"/>
+      <c r="W16" s="264"/>
+      <c r="X16" s="264"/>
+      <c r="Y16" s="264"/>
+      <c r="Z16" s="264"/>
+      <c r="AA16" s="264"/>
+      <c r="AB16" s="264"/>
+      <c r="AC16" s="264"/>
+      <c r="AD16" s="264"/>
+      <c r="AE16" s="264"/>
+      <c r="AF16" s="264"/>
+      <c r="AG16" s="264"/>
+      <c r="AH16" s="264"/>
+      <c r="AI16" s="264"/>
+      <c r="AJ16" s="264"/>
+      <c r="AK16" s="264"/>
+      <c r="AL16" s="264"/>
+      <c r="AM16" s="265"/>
+      <c r="AN16" s="266"/>
+      <c r="AO16" s="267"/>
+      <c r="AP16" s="267"/>
+      <c r="AQ16" s="267"/>
+      <c r="AR16" s="268"/>
+      <c r="AS16" s="266"/>
+      <c r="AT16" s="267"/>
+      <c r="AU16" s="267"/>
+      <c r="AV16" s="267"/>
+      <c r="AW16" s="268"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="244"/>
-      <c r="I17" s="244"/>
-      <c r="J17" s="245"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="260"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="253"/>
-      <c r="Z17" s="253"/>
-      <c r="AA17" s="253"/>
-      <c r="AB17" s="253"/>
-      <c r="AC17" s="253"/>
-      <c r="AD17" s="253"/>
-      <c r="AE17" s="253"/>
-      <c r="AF17" s="253"/>
-      <c r="AG17" s="253"/>
-      <c r="AH17" s="253"/>
-      <c r="AI17" s="253"/>
-      <c r="AJ17" s="253"/>
-      <c r="AK17" s="253"/>
-      <c r="AL17" s="253"/>
-      <c r="AM17" s="254"/>
-      <c r="AN17" s="238"/>
-      <c r="AO17" s="239"/>
-      <c r="AP17" s="239"/>
-      <c r="AQ17" s="239"/>
-      <c r="AR17" s="240"/>
-      <c r="AS17" s="238"/>
-      <c r="AT17" s="239"/>
-      <c r="AU17" s="239"/>
-      <c r="AV17" s="239"/>
-      <c r="AW17" s="240"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="252"/>
+      <c r="M17" s="260"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="261"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="261"/>
+      <c r="R17" s="273"/>
+      <c r="S17" s="274"/>
+      <c r="T17" s="274"/>
+      <c r="U17" s="274"/>
+      <c r="V17" s="263"/>
+      <c r="W17" s="264"/>
+      <c r="X17" s="264"/>
+      <c r="Y17" s="264"/>
+      <c r="Z17" s="264"/>
+      <c r="AA17" s="264"/>
+      <c r="AB17" s="264"/>
+      <c r="AC17" s="264"/>
+      <c r="AD17" s="264"/>
+      <c r="AE17" s="264"/>
+      <c r="AF17" s="264"/>
+      <c r="AG17" s="264"/>
+      <c r="AH17" s="264"/>
+      <c r="AI17" s="264"/>
+      <c r="AJ17" s="264"/>
+      <c r="AK17" s="264"/>
+      <c r="AL17" s="264"/>
+      <c r="AM17" s="265"/>
+      <c r="AN17" s="266"/>
+      <c r="AO17" s="267"/>
+      <c r="AP17" s="267"/>
+      <c r="AQ17" s="267"/>
+      <c r="AR17" s="268"/>
+      <c r="AS17" s="266"/>
+      <c r="AT17" s="267"/>
+      <c r="AU17" s="267"/>
+      <c r="AV17" s="267"/>
+      <c r="AW17" s="268"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="241"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="247"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="257"/>
-      <c r="S18" s="251"/>
-      <c r="T18" s="251"/>
-      <c r="U18" s="251"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="253"/>
-      <c r="X18" s="253"/>
-      <c r="Y18" s="253"/>
-      <c r="Z18" s="253"/>
-      <c r="AA18" s="253"/>
-      <c r="AB18" s="253"/>
-      <c r="AC18" s="253"/>
-      <c r="AD18" s="253"/>
-      <c r="AE18" s="253"/>
-      <c r="AF18" s="253"/>
-      <c r="AG18" s="253"/>
-      <c r="AH18" s="253"/>
-      <c r="AI18" s="253"/>
-      <c r="AJ18" s="253"/>
-      <c r="AK18" s="253"/>
-      <c r="AL18" s="253"/>
-      <c r="AM18" s="254"/>
-      <c r="AN18" s="238"/>
-      <c r="AO18" s="239"/>
-      <c r="AP18" s="239"/>
-      <c r="AQ18" s="239"/>
-      <c r="AR18" s="240"/>
-      <c r="AS18" s="238"/>
-      <c r="AT18" s="239"/>
-      <c r="AU18" s="239"/>
-      <c r="AV18" s="239"/>
-      <c r="AW18" s="240"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="271"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="261"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="261"/>
+      <c r="R18" s="262"/>
+      <c r="S18" s="247"/>
+      <c r="T18" s="247"/>
+      <c r="U18" s="247"/>
+      <c r="V18" s="263"/>
+      <c r="W18" s="264"/>
+      <c r="X18" s="264"/>
+      <c r="Y18" s="264"/>
+      <c r="Z18" s="264"/>
+      <c r="AA18" s="264"/>
+      <c r="AB18" s="264"/>
+      <c r="AC18" s="264"/>
+      <c r="AD18" s="264"/>
+      <c r="AE18" s="264"/>
+      <c r="AF18" s="264"/>
+      <c r="AG18" s="264"/>
+      <c r="AH18" s="264"/>
+      <c r="AI18" s="264"/>
+      <c r="AJ18" s="264"/>
+      <c r="AK18" s="264"/>
+      <c r="AL18" s="264"/>
+      <c r="AM18" s="265"/>
+      <c r="AN18" s="266"/>
+      <c r="AO18" s="267"/>
+      <c r="AP18" s="267"/>
+      <c r="AQ18" s="267"/>
+      <c r="AR18" s="268"/>
+      <c r="AS18" s="266"/>
+      <c r="AT18" s="267"/>
+      <c r="AU18" s="267"/>
+      <c r="AV18" s="267"/>
+      <c r="AW18" s="268"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="243"/>
-      <c r="E19" s="244"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
-      <c r="I19" s="244"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="247"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="257"/>
-      <c r="S19" s="251"/>
-      <c r="T19" s="251"/>
-      <c r="U19" s="251"/>
-      <c r="V19" s="252"/>
-      <c r="W19" s="253"/>
-      <c r="X19" s="253"/>
-      <c r="Y19" s="253"/>
-      <c r="Z19" s="253"/>
-      <c r="AA19" s="253"/>
-      <c r="AB19" s="253"/>
-      <c r="AC19" s="253"/>
-      <c r="AD19" s="253"/>
-      <c r="AE19" s="253"/>
-      <c r="AF19" s="253"/>
-      <c r="AG19" s="253"/>
-      <c r="AH19" s="253"/>
-      <c r="AI19" s="253"/>
-      <c r="AJ19" s="253"/>
-      <c r="AK19" s="253"/>
-      <c r="AL19" s="253"/>
-      <c r="AM19" s="254"/>
-      <c r="AN19" s="251"/>
-      <c r="AO19" s="251"/>
-      <c r="AP19" s="251"/>
-      <c r="AQ19" s="251"/>
-      <c r="AR19" s="251"/>
-      <c r="AS19" s="238"/>
-      <c r="AT19" s="239"/>
-      <c r="AU19" s="239"/>
-      <c r="AV19" s="239"/>
-      <c r="AW19" s="240"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="262"/>
+      <c r="S19" s="247"/>
+      <c r="T19" s="247"/>
+      <c r="U19" s="247"/>
+      <c r="V19" s="263"/>
+      <c r="W19" s="264"/>
+      <c r="X19" s="264"/>
+      <c r="Y19" s="264"/>
+      <c r="Z19" s="264"/>
+      <c r="AA19" s="264"/>
+      <c r="AB19" s="264"/>
+      <c r="AC19" s="264"/>
+      <c r="AD19" s="264"/>
+      <c r="AE19" s="264"/>
+      <c r="AF19" s="264"/>
+      <c r="AG19" s="264"/>
+      <c r="AH19" s="264"/>
+      <c r="AI19" s="264"/>
+      <c r="AJ19" s="264"/>
+      <c r="AK19" s="264"/>
+      <c r="AL19" s="264"/>
+      <c r="AM19" s="265"/>
+      <c r="AN19" s="247"/>
+      <c r="AO19" s="247"/>
+      <c r="AP19" s="247"/>
+      <c r="AQ19" s="247"/>
+      <c r="AR19" s="247"/>
+      <c r="AS19" s="266"/>
+      <c r="AT19" s="267"/>
+      <c r="AU19" s="267"/>
+      <c r="AV19" s="267"/>
+      <c r="AW19" s="268"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="241"/>
-      <c r="C20" s="242"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="244"/>
-      <c r="J20" s="245"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="247"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
-      <c r="R20" s="257"/>
-      <c r="S20" s="238"/>
-      <c r="T20" s="239"/>
-      <c r="U20" s="240"/>
-      <c r="V20" s="252"/>
-      <c r="W20" s="253"/>
-      <c r="X20" s="253"/>
-      <c r="Y20" s="253"/>
-      <c r="Z20" s="253"/>
-      <c r="AA20" s="253"/>
-      <c r="AB20" s="253"/>
-      <c r="AC20" s="253"/>
-      <c r="AD20" s="253"/>
-      <c r="AE20" s="253"/>
-      <c r="AF20" s="253"/>
-      <c r="AG20" s="253"/>
-      <c r="AH20" s="253"/>
-      <c r="AI20" s="253"/>
-      <c r="AJ20" s="253"/>
-      <c r="AK20" s="253"/>
-      <c r="AL20" s="253"/>
-      <c r="AM20" s="254"/>
-      <c r="AN20" s="238"/>
-      <c r="AO20" s="239"/>
-      <c r="AP20" s="239"/>
-      <c r="AQ20" s="239"/>
-      <c r="AR20" s="240"/>
-      <c r="AS20" s="238"/>
-      <c r="AT20" s="239"/>
-      <c r="AU20" s="239"/>
-      <c r="AV20" s="239"/>
-      <c r="AW20" s="240"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="258"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="251"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="260"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="261"/>
+      <c r="P20" s="261"/>
+      <c r="Q20" s="261"/>
+      <c r="R20" s="262"/>
+      <c r="S20" s="266"/>
+      <c r="T20" s="267"/>
+      <c r="U20" s="268"/>
+      <c r="V20" s="263"/>
+      <c r="W20" s="264"/>
+      <c r="X20" s="264"/>
+      <c r="Y20" s="264"/>
+      <c r="Z20" s="264"/>
+      <c r="AA20" s="264"/>
+      <c r="AB20" s="264"/>
+      <c r="AC20" s="264"/>
+      <c r="AD20" s="264"/>
+      <c r="AE20" s="264"/>
+      <c r="AF20" s="264"/>
+      <c r="AG20" s="264"/>
+      <c r="AH20" s="264"/>
+      <c r="AI20" s="264"/>
+      <c r="AJ20" s="264"/>
+      <c r="AK20" s="264"/>
+      <c r="AL20" s="264"/>
+      <c r="AM20" s="265"/>
+      <c r="AN20" s="266"/>
+      <c r="AO20" s="267"/>
+      <c r="AP20" s="267"/>
+      <c r="AQ20" s="267"/>
+      <c r="AR20" s="268"/>
+      <c r="AS20" s="266"/>
+      <c r="AT20" s="267"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="267"/>
+      <c r="AW20" s="268"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="241"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="244"/>
-      <c r="J21" s="245"/>
-      <c r="K21" s="246"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
-      <c r="R21" s="257"/>
-      <c r="S21" s="251"/>
-      <c r="T21" s="251"/>
-      <c r="U21" s="251"/>
-      <c r="V21" s="252"/>
-      <c r="W21" s="253"/>
-      <c r="X21" s="253"/>
-      <c r="Y21" s="253"/>
-      <c r="Z21" s="253"/>
-      <c r="AA21" s="253"/>
-      <c r="AB21" s="253"/>
-      <c r="AC21" s="253"/>
-      <c r="AD21" s="253"/>
-      <c r="AE21" s="253"/>
-      <c r="AF21" s="253"/>
-      <c r="AG21" s="253"/>
-      <c r="AH21" s="253"/>
-      <c r="AI21" s="253"/>
-      <c r="AJ21" s="253"/>
-      <c r="AK21" s="253"/>
-      <c r="AL21" s="253"/>
-      <c r="AM21" s="254"/>
-      <c r="AN21" s="238"/>
-      <c r="AO21" s="239"/>
-      <c r="AP21" s="239"/>
-      <c r="AQ21" s="239"/>
-      <c r="AR21" s="240"/>
-      <c r="AS21" s="238"/>
-      <c r="AT21" s="239"/>
-      <c r="AU21" s="239"/>
-      <c r="AV21" s="239"/>
-      <c r="AW21" s="240"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249"/>
+      <c r="I21" s="249"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="251"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="261"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="261"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="247"/>
+      <c r="T21" s="247"/>
+      <c r="U21" s="247"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="264"/>
+      <c r="X21" s="264"/>
+      <c r="Y21" s="264"/>
+      <c r="Z21" s="264"/>
+      <c r="AA21" s="264"/>
+      <c r="AB21" s="264"/>
+      <c r="AC21" s="264"/>
+      <c r="AD21" s="264"/>
+      <c r="AE21" s="264"/>
+      <c r="AF21" s="264"/>
+      <c r="AG21" s="264"/>
+      <c r="AH21" s="264"/>
+      <c r="AI21" s="264"/>
+      <c r="AJ21" s="264"/>
+      <c r="AK21" s="264"/>
+      <c r="AL21" s="264"/>
+      <c r="AM21" s="265"/>
+      <c r="AN21" s="266"/>
+      <c r="AO21" s="267"/>
+      <c r="AP21" s="267"/>
+      <c r="AQ21" s="267"/>
+      <c r="AR21" s="268"/>
+      <c r="AS21" s="266"/>
+      <c r="AT21" s="267"/>
+      <c r="AU21" s="267"/>
+      <c r="AV21" s="267"/>
+      <c r="AW21" s="268"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="241"/>
-      <c r="C22" s="242"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="246"/>
-      <c r="L22" s="247"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
-      <c r="R22" s="257"/>
-      <c r="S22" s="251"/>
-      <c r="T22" s="251"/>
-      <c r="U22" s="251"/>
-      <c r="V22" s="252"/>
-      <c r="W22" s="253"/>
-      <c r="X22" s="253"/>
-      <c r="Y22" s="253"/>
-      <c r="Z22" s="253"/>
-      <c r="AA22" s="253"/>
-      <c r="AB22" s="253"/>
-      <c r="AC22" s="253"/>
-      <c r="AD22" s="253"/>
-      <c r="AE22" s="253"/>
-      <c r="AF22" s="253"/>
-      <c r="AG22" s="253"/>
-      <c r="AH22" s="253"/>
-      <c r="AI22" s="253"/>
-      <c r="AJ22" s="253"/>
-      <c r="AK22" s="253"/>
-      <c r="AL22" s="253"/>
-      <c r="AM22" s="254"/>
-      <c r="AN22" s="238"/>
-      <c r="AO22" s="239"/>
-      <c r="AP22" s="239"/>
-      <c r="AQ22" s="239"/>
-      <c r="AR22" s="240"/>
-      <c r="AS22" s="238"/>
-      <c r="AT22" s="239"/>
-      <c r="AU22" s="239"/>
-      <c r="AV22" s="239"/>
-      <c r="AW22" s="240"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="250"/>
+      <c r="K22" s="251"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="247"/>
+      <c r="T22" s="247"/>
+      <c r="U22" s="247"/>
+      <c r="V22" s="263"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264"/>
+      <c r="Y22" s="264"/>
+      <c r="Z22" s="264"/>
+      <c r="AA22" s="264"/>
+      <c r="AB22" s="264"/>
+      <c r="AC22" s="264"/>
+      <c r="AD22" s="264"/>
+      <c r="AE22" s="264"/>
+      <c r="AF22" s="264"/>
+      <c r="AG22" s="264"/>
+      <c r="AH22" s="264"/>
+      <c r="AI22" s="264"/>
+      <c r="AJ22" s="264"/>
+      <c r="AK22" s="264"/>
+      <c r="AL22" s="264"/>
+      <c r="AM22" s="265"/>
+      <c r="AN22" s="266"/>
+      <c r="AO22" s="267"/>
+      <c r="AP22" s="267"/>
+      <c r="AQ22" s="267"/>
+      <c r="AR22" s="268"/>
+      <c r="AS22" s="266"/>
+      <c r="AT22" s="267"/>
+      <c r="AU22" s="267"/>
+      <c r="AV22" s="267"/>
+      <c r="AW22" s="268"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="241"/>
-      <c r="C23" s="242"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="251"/>
-      <c r="T23" s="251"/>
-      <c r="U23" s="251"/>
-      <c r="V23" s="252"/>
-      <c r="W23" s="253"/>
-      <c r="X23" s="253"/>
-      <c r="Y23" s="253"/>
-      <c r="Z23" s="253"/>
-      <c r="AA23" s="253"/>
-      <c r="AB23" s="253"/>
-      <c r="AC23" s="253"/>
-      <c r="AD23" s="253"/>
-      <c r="AE23" s="253"/>
-      <c r="AF23" s="253"/>
-      <c r="AG23" s="253"/>
-      <c r="AH23" s="253"/>
-      <c r="AI23" s="253"/>
-      <c r="AJ23" s="253"/>
-      <c r="AK23" s="253"/>
-      <c r="AL23" s="253"/>
-      <c r="AM23" s="254"/>
-      <c r="AN23" s="238"/>
-      <c r="AO23" s="239"/>
-      <c r="AP23" s="239"/>
-      <c r="AQ23" s="239"/>
-      <c r="AR23" s="240"/>
-      <c r="AS23" s="238"/>
-      <c r="AT23" s="239"/>
-      <c r="AU23" s="239"/>
-      <c r="AV23" s="239"/>
-      <c r="AW23" s="240"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="251"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="261"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="247"/>
+      <c r="T23" s="247"/>
+      <c r="U23" s="247"/>
+      <c r="V23" s="263"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
+      <c r="Y23" s="264"/>
+      <c r="Z23" s="264"/>
+      <c r="AA23" s="264"/>
+      <c r="AB23" s="264"/>
+      <c r="AC23" s="264"/>
+      <c r="AD23" s="264"/>
+      <c r="AE23" s="264"/>
+      <c r="AF23" s="264"/>
+      <c r="AG23" s="264"/>
+      <c r="AH23" s="264"/>
+      <c r="AI23" s="264"/>
+      <c r="AJ23" s="264"/>
+      <c r="AK23" s="264"/>
+      <c r="AL23" s="264"/>
+      <c r="AM23" s="265"/>
+      <c r="AN23" s="266"/>
+      <c r="AO23" s="267"/>
+      <c r="AP23" s="267"/>
+      <c r="AQ23" s="267"/>
+      <c r="AR23" s="268"/>
+      <c r="AS23" s="266"/>
+      <c r="AT23" s="267"/>
+      <c r="AU23" s="267"/>
+      <c r="AV23" s="267"/>
+      <c r="AW23" s="268"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="241"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="244"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="244"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="246"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="256"/>
-      <c r="P24" s="256"/>
-      <c r="Q24" s="256"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="251"/>
-      <c r="T24" s="251"/>
-      <c r="U24" s="251"/>
-      <c r="V24" s="252"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="253"/>
-      <c r="Y24" s="253"/>
-      <c r="Z24" s="253"/>
-      <c r="AA24" s="253"/>
-      <c r="AB24" s="253"/>
-      <c r="AC24" s="253"/>
-      <c r="AD24" s="253"/>
-      <c r="AE24" s="253"/>
-      <c r="AF24" s="253"/>
-      <c r="AG24" s="253"/>
-      <c r="AH24" s="253"/>
-      <c r="AI24" s="253"/>
-      <c r="AJ24" s="253"/>
-      <c r="AK24" s="253"/>
-      <c r="AL24" s="253"/>
-      <c r="AM24" s="254"/>
-      <c r="AN24" s="238"/>
-      <c r="AO24" s="239"/>
-      <c r="AP24" s="239"/>
-      <c r="AQ24" s="239"/>
-      <c r="AR24" s="240"/>
-      <c r="AS24" s="238"/>
-      <c r="AT24" s="239"/>
-      <c r="AU24" s="239"/>
-      <c r="AV24" s="239"/>
-      <c r="AW24" s="240"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="258"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="249"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="251"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="247"/>
+      <c r="T24" s="247"/>
+      <c r="U24" s="247"/>
+      <c r="V24" s="263"/>
+      <c r="W24" s="264"/>
+      <c r="X24" s="264"/>
+      <c r="Y24" s="264"/>
+      <c r="Z24" s="264"/>
+      <c r="AA24" s="264"/>
+      <c r="AB24" s="264"/>
+      <c r="AC24" s="264"/>
+      <c r="AD24" s="264"/>
+      <c r="AE24" s="264"/>
+      <c r="AF24" s="264"/>
+      <c r="AG24" s="264"/>
+      <c r="AH24" s="264"/>
+      <c r="AI24" s="264"/>
+      <c r="AJ24" s="264"/>
+      <c r="AK24" s="264"/>
+      <c r="AL24" s="264"/>
+      <c r="AM24" s="265"/>
+      <c r="AN24" s="266"/>
+      <c r="AO24" s="267"/>
+      <c r="AP24" s="267"/>
+      <c r="AQ24" s="267"/>
+      <c r="AR24" s="268"/>
+      <c r="AS24" s="266"/>
+      <c r="AT24" s="267"/>
+      <c r="AU24" s="267"/>
+      <c r="AV24" s="267"/>
+      <c r="AW24" s="268"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="241"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="244"/>
-      <c r="H25" s="244"/>
-      <c r="I25" s="244"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="246"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="255"/>
-      <c r="N25" s="256"/>
-      <c r="O25" s="256"/>
-      <c r="P25" s="256"/>
-      <c r="Q25" s="256"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="251"/>
-      <c r="T25" s="251"/>
-      <c r="U25" s="251"/>
-      <c r="V25" s="252"/>
-      <c r="W25" s="253"/>
-      <c r="X25" s="253"/>
-      <c r="Y25" s="253"/>
-      <c r="Z25" s="253"/>
-      <c r="AA25" s="253"/>
-      <c r="AB25" s="253"/>
-      <c r="AC25" s="253"/>
-      <c r="AD25" s="253"/>
-      <c r="AE25" s="253"/>
-      <c r="AF25" s="253"/>
-      <c r="AG25" s="253"/>
-      <c r="AH25" s="253"/>
-      <c r="AI25" s="253"/>
-      <c r="AJ25" s="253"/>
-      <c r="AK25" s="253"/>
-      <c r="AL25" s="253"/>
-      <c r="AM25" s="254"/>
-      <c r="AN25" s="238"/>
-      <c r="AO25" s="239"/>
-      <c r="AP25" s="239"/>
-      <c r="AQ25" s="239"/>
-      <c r="AR25" s="240"/>
-      <c r="AS25" s="238"/>
-      <c r="AT25" s="239"/>
-      <c r="AU25" s="239"/>
-      <c r="AV25" s="239"/>
-      <c r="AW25" s="240"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="247"/>
+      <c r="T25" s="247"/>
+      <c r="U25" s="247"/>
+      <c r="V25" s="263"/>
+      <c r="W25" s="264"/>
+      <c r="X25" s="264"/>
+      <c r="Y25" s="264"/>
+      <c r="Z25" s="264"/>
+      <c r="AA25" s="264"/>
+      <c r="AB25" s="264"/>
+      <c r="AC25" s="264"/>
+      <c r="AD25" s="264"/>
+      <c r="AE25" s="264"/>
+      <c r="AF25" s="264"/>
+      <c r="AG25" s="264"/>
+      <c r="AH25" s="264"/>
+      <c r="AI25" s="264"/>
+      <c r="AJ25" s="264"/>
+      <c r="AK25" s="264"/>
+      <c r="AL25" s="264"/>
+      <c r="AM25" s="265"/>
+      <c r="AN25" s="266"/>
+      <c r="AO25" s="267"/>
+      <c r="AP25" s="267"/>
+      <c r="AQ25" s="267"/>
+      <c r="AR25" s="268"/>
+      <c r="AS25" s="266"/>
+      <c r="AT25" s="267"/>
+      <c r="AU25" s="267"/>
+      <c r="AV25" s="267"/>
+      <c r="AW25" s="268"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="244"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="246"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="255"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="256"/>
-      <c r="P26" s="256"/>
-      <c r="Q26" s="256"/>
-      <c r="R26" s="257"/>
-      <c r="S26" s="251"/>
-      <c r="T26" s="251"/>
-      <c r="U26" s="251"/>
-      <c r="V26" s="252"/>
-      <c r="W26" s="253"/>
-      <c r="X26" s="253"/>
-      <c r="Y26" s="253"/>
-      <c r="Z26" s="253"/>
-      <c r="AA26" s="253"/>
-      <c r="AB26" s="253"/>
-      <c r="AC26" s="253"/>
-      <c r="AD26" s="253"/>
-      <c r="AE26" s="253"/>
-      <c r="AF26" s="253"/>
-      <c r="AG26" s="253"/>
-      <c r="AH26" s="253"/>
-      <c r="AI26" s="253"/>
-      <c r="AJ26" s="253"/>
-      <c r="AK26" s="253"/>
-      <c r="AL26" s="253"/>
-      <c r="AM26" s="254"/>
-      <c r="AN26" s="238"/>
-      <c r="AO26" s="239"/>
-      <c r="AP26" s="239"/>
-      <c r="AQ26" s="239"/>
-      <c r="AR26" s="240"/>
-      <c r="AS26" s="238"/>
-      <c r="AT26" s="239"/>
-      <c r="AU26" s="239"/>
-      <c r="AV26" s="239"/>
-      <c r="AW26" s="240"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="262"/>
+      <c r="S26" s="247"/>
+      <c r="T26" s="247"/>
+      <c r="U26" s="247"/>
+      <c r="V26" s="263"/>
+      <c r="W26" s="264"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="264"/>
+      <c r="Z26" s="264"/>
+      <c r="AA26" s="264"/>
+      <c r="AB26" s="264"/>
+      <c r="AC26" s="264"/>
+      <c r="AD26" s="264"/>
+      <c r="AE26" s="264"/>
+      <c r="AF26" s="264"/>
+      <c r="AG26" s="264"/>
+      <c r="AH26" s="264"/>
+      <c r="AI26" s="264"/>
+      <c r="AJ26" s="264"/>
+      <c r="AK26" s="264"/>
+      <c r="AL26" s="264"/>
+      <c r="AM26" s="265"/>
+      <c r="AN26" s="266"/>
+      <c r="AO26" s="267"/>
+      <c r="AP26" s="267"/>
+      <c r="AQ26" s="267"/>
+      <c r="AR26" s="268"/>
+      <c r="AS26" s="266"/>
+      <c r="AT26" s="267"/>
+      <c r="AU26" s="267"/>
+      <c r="AV26" s="267"/>
+      <c r="AW26" s="268"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="247"/>
-      <c r="M27" s="255"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="256"/>
-      <c r="Q27" s="256"/>
-      <c r="R27" s="257"/>
-      <c r="S27" s="251"/>
-      <c r="T27" s="251"/>
-      <c r="U27" s="251"/>
-      <c r="V27" s="252"/>
-      <c r="W27" s="253"/>
-      <c r="X27" s="253"/>
-      <c r="Y27" s="253"/>
-      <c r="Z27" s="253"/>
-      <c r="AA27" s="253"/>
-      <c r="AB27" s="253"/>
-      <c r="AC27" s="253"/>
-      <c r="AD27" s="253"/>
-      <c r="AE27" s="253"/>
-      <c r="AF27" s="253"/>
-      <c r="AG27" s="253"/>
-      <c r="AH27" s="253"/>
-      <c r="AI27" s="253"/>
-      <c r="AJ27" s="253"/>
-      <c r="AK27" s="253"/>
-      <c r="AL27" s="253"/>
-      <c r="AM27" s="254"/>
-      <c r="AN27" s="238"/>
-      <c r="AO27" s="239"/>
-      <c r="AP27" s="239"/>
-      <c r="AQ27" s="239"/>
-      <c r="AR27" s="240"/>
-      <c r="AS27" s="238"/>
-      <c r="AT27" s="239"/>
-      <c r="AU27" s="239"/>
-      <c r="AV27" s="239"/>
-      <c r="AW27" s="240"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="258"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="271"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="262"/>
+      <c r="S27" s="247"/>
+      <c r="T27" s="247"/>
+      <c r="U27" s="247"/>
+      <c r="V27" s="263"/>
+      <c r="W27" s="264"/>
+      <c r="X27" s="264"/>
+      <c r="Y27" s="264"/>
+      <c r="Z27" s="264"/>
+      <c r="AA27" s="264"/>
+      <c r="AB27" s="264"/>
+      <c r="AC27" s="264"/>
+      <c r="AD27" s="264"/>
+      <c r="AE27" s="264"/>
+      <c r="AF27" s="264"/>
+      <c r="AG27" s="264"/>
+      <c r="AH27" s="264"/>
+      <c r="AI27" s="264"/>
+      <c r="AJ27" s="264"/>
+      <c r="AK27" s="264"/>
+      <c r="AL27" s="264"/>
+      <c r="AM27" s="265"/>
+      <c r="AN27" s="266"/>
+      <c r="AO27" s="267"/>
+      <c r="AP27" s="267"/>
+      <c r="AQ27" s="267"/>
+      <c r="AR27" s="268"/>
+      <c r="AS27" s="266"/>
+      <c r="AT27" s="267"/>
+      <c r="AU27" s="267"/>
+      <c r="AV27" s="267"/>
+      <c r="AW27" s="268"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="241"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="258"/>
-      <c r="N28" s="256"/>
-      <c r="O28" s="256"/>
-      <c r="P28" s="256"/>
-      <c r="Q28" s="256"/>
-      <c r="R28" s="257"/>
-      <c r="S28" s="251"/>
-      <c r="T28" s="251"/>
-      <c r="U28" s="251"/>
-      <c r="V28" s="252"/>
-      <c r="W28" s="253"/>
-      <c r="X28" s="253"/>
-      <c r="Y28" s="253"/>
-      <c r="Z28" s="253"/>
-      <c r="AA28" s="253"/>
-      <c r="AB28" s="253"/>
-      <c r="AC28" s="253"/>
-      <c r="AD28" s="253"/>
-      <c r="AE28" s="253"/>
-      <c r="AF28" s="253"/>
-      <c r="AG28" s="253"/>
-      <c r="AH28" s="253"/>
-      <c r="AI28" s="253"/>
-      <c r="AJ28" s="253"/>
-      <c r="AK28" s="253"/>
-      <c r="AL28" s="253"/>
-      <c r="AM28" s="254"/>
-      <c r="AN28" s="238"/>
-      <c r="AO28" s="239"/>
-      <c r="AP28" s="239"/>
-      <c r="AQ28" s="239"/>
-      <c r="AR28" s="240"/>
-      <c r="AS28" s="238"/>
-      <c r="AT28" s="239"/>
-      <c r="AU28" s="239"/>
-      <c r="AV28" s="239"/>
-      <c r="AW28" s="240"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="258"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="260"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="262"/>
+      <c r="S28" s="247"/>
+      <c r="T28" s="247"/>
+      <c r="U28" s="247"/>
+      <c r="V28" s="263"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="264"/>
+      <c r="Z28" s="264"/>
+      <c r="AA28" s="264"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="264"/>
+      <c r="AD28" s="264"/>
+      <c r="AE28" s="264"/>
+      <c r="AF28" s="264"/>
+      <c r="AG28" s="264"/>
+      <c r="AH28" s="264"/>
+      <c r="AI28" s="264"/>
+      <c r="AJ28" s="264"/>
+      <c r="AK28" s="264"/>
+      <c r="AL28" s="264"/>
+      <c r="AM28" s="265"/>
+      <c r="AN28" s="266"/>
+      <c r="AO28" s="267"/>
+      <c r="AP28" s="267"/>
+      <c r="AQ28" s="267"/>
+      <c r="AR28" s="268"/>
+      <c r="AS28" s="266"/>
+      <c r="AT28" s="267"/>
+      <c r="AU28" s="267"/>
+      <c r="AV28" s="267"/>
+      <c r="AW28" s="268"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="244"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="258"/>
-      <c r="N29" s="256"/>
-      <c r="O29" s="256"/>
-      <c r="P29" s="256"/>
-      <c r="Q29" s="256"/>
-      <c r="R29" s="257"/>
-      <c r="S29" s="251"/>
-      <c r="T29" s="251"/>
-      <c r="U29" s="251"/>
-      <c r="V29" s="252"/>
-      <c r="W29" s="253"/>
-      <c r="X29" s="253"/>
-      <c r="Y29" s="253"/>
-      <c r="Z29" s="253"/>
-      <c r="AA29" s="253"/>
-      <c r="AB29" s="253"/>
-      <c r="AC29" s="253"/>
-      <c r="AD29" s="253"/>
-      <c r="AE29" s="253"/>
-      <c r="AF29" s="253"/>
-      <c r="AG29" s="253"/>
-      <c r="AH29" s="253"/>
-      <c r="AI29" s="253"/>
-      <c r="AJ29" s="253"/>
-      <c r="AK29" s="253"/>
-      <c r="AL29" s="253"/>
-      <c r="AM29" s="254"/>
-      <c r="AN29" s="238"/>
-      <c r="AO29" s="239"/>
-      <c r="AP29" s="239"/>
-      <c r="AQ29" s="239"/>
-      <c r="AR29" s="240"/>
-      <c r="AS29" s="238"/>
-      <c r="AT29" s="239"/>
-      <c r="AU29" s="239"/>
-      <c r="AV29" s="239"/>
-      <c r="AW29" s="240"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="258"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="260"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="247"/>
+      <c r="T29" s="247"/>
+      <c r="U29" s="247"/>
+      <c r="V29" s="263"/>
+      <c r="W29" s="264"/>
+      <c r="X29" s="264"/>
+      <c r="Y29" s="264"/>
+      <c r="Z29" s="264"/>
+      <c r="AA29" s="264"/>
+      <c r="AB29" s="264"/>
+      <c r="AC29" s="264"/>
+      <c r="AD29" s="264"/>
+      <c r="AE29" s="264"/>
+      <c r="AF29" s="264"/>
+      <c r="AG29" s="264"/>
+      <c r="AH29" s="264"/>
+      <c r="AI29" s="264"/>
+      <c r="AJ29" s="264"/>
+      <c r="AK29" s="264"/>
+      <c r="AL29" s="264"/>
+      <c r="AM29" s="265"/>
+      <c r="AN29" s="266"/>
+      <c r="AO29" s="267"/>
+      <c r="AP29" s="267"/>
+      <c r="AQ29" s="267"/>
+      <c r="AR29" s="268"/>
+      <c r="AS29" s="266"/>
+      <c r="AT29" s="267"/>
+      <c r="AU29" s="267"/>
+      <c r="AV29" s="267"/>
+      <c r="AW29" s="268"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="241"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
-      <c r="J30" s="245"/>
-      <c r="K30" s="246"/>
-      <c r="L30" s="247"/>
-      <c r="M30" s="255"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256"/>
-      <c r="P30" s="256"/>
-      <c r="Q30" s="256"/>
-      <c r="R30" s="257"/>
-      <c r="S30" s="251"/>
-      <c r="T30" s="251"/>
-      <c r="U30" s="251"/>
-      <c r="V30" s="252"/>
-      <c r="W30" s="253"/>
-      <c r="X30" s="253"/>
-      <c r="Y30" s="253"/>
-      <c r="Z30" s="253"/>
-      <c r="AA30" s="253"/>
-      <c r="AB30" s="253"/>
-      <c r="AC30" s="253"/>
-      <c r="AD30" s="253"/>
-      <c r="AE30" s="253"/>
-      <c r="AF30" s="253"/>
-      <c r="AG30" s="253"/>
-      <c r="AH30" s="253"/>
-      <c r="AI30" s="253"/>
-      <c r="AJ30" s="253"/>
-      <c r="AK30" s="253"/>
-      <c r="AL30" s="253"/>
-      <c r="AM30" s="254"/>
-      <c r="AN30" s="238"/>
-      <c r="AO30" s="239"/>
-      <c r="AP30" s="239"/>
-      <c r="AQ30" s="239"/>
-      <c r="AR30" s="240"/>
-      <c r="AS30" s="238"/>
-      <c r="AT30" s="239"/>
-      <c r="AU30" s="239"/>
-      <c r="AV30" s="239"/>
-      <c r="AW30" s="240"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="271"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="262"/>
+      <c r="S30" s="247"/>
+      <c r="T30" s="247"/>
+      <c r="U30" s="247"/>
+      <c r="V30" s="263"/>
+      <c r="W30" s="264"/>
+      <c r="X30" s="264"/>
+      <c r="Y30" s="264"/>
+      <c r="Z30" s="264"/>
+      <c r="AA30" s="264"/>
+      <c r="AB30" s="264"/>
+      <c r="AC30" s="264"/>
+      <c r="AD30" s="264"/>
+      <c r="AE30" s="264"/>
+      <c r="AF30" s="264"/>
+      <c r="AG30" s="264"/>
+      <c r="AH30" s="264"/>
+      <c r="AI30" s="264"/>
+      <c r="AJ30" s="264"/>
+      <c r="AK30" s="264"/>
+      <c r="AL30" s="264"/>
+      <c r="AM30" s="265"/>
+      <c r="AN30" s="266"/>
+      <c r="AO30" s="267"/>
+      <c r="AP30" s="267"/>
+      <c r="AQ30" s="267"/>
+      <c r="AR30" s="268"/>
+      <c r="AS30" s="266"/>
+      <c r="AT30" s="267"/>
+      <c r="AU30" s="267"/>
+      <c r="AV30" s="267"/>
+      <c r="AW30" s="268"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="243"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="246"/>
-      <c r="L31" s="247"/>
-      <c r="M31" s="255"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="256"/>
-      <c r="P31" s="256"/>
-      <c r="Q31" s="256"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="251"/>
-      <c r="T31" s="251"/>
-      <c r="U31" s="251"/>
-      <c r="V31" s="252"/>
-      <c r="W31" s="253"/>
-      <c r="X31" s="253"/>
-      <c r="Y31" s="253"/>
-      <c r="Z31" s="253"/>
-      <c r="AA31" s="253"/>
-      <c r="AB31" s="253"/>
-      <c r="AC31" s="253"/>
-      <c r="AD31" s="253"/>
-      <c r="AE31" s="253"/>
-      <c r="AF31" s="253"/>
-      <c r="AG31" s="253"/>
-      <c r="AH31" s="253"/>
-      <c r="AI31" s="253"/>
-      <c r="AJ31" s="253"/>
-      <c r="AK31" s="253"/>
-      <c r="AL31" s="253"/>
-      <c r="AM31" s="254"/>
-      <c r="AN31" s="238"/>
-      <c r="AO31" s="239"/>
-      <c r="AP31" s="239"/>
-      <c r="AQ31" s="239"/>
-      <c r="AR31" s="240"/>
-      <c r="AS31" s="238"/>
-      <c r="AT31" s="239"/>
-      <c r="AU31" s="239"/>
-      <c r="AV31" s="239"/>
-      <c r="AW31" s="240"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="258"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="251"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="271"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="262"/>
+      <c r="S31" s="247"/>
+      <c r="T31" s="247"/>
+      <c r="U31" s="247"/>
+      <c r="V31" s="263"/>
+      <c r="W31" s="264"/>
+      <c r="X31" s="264"/>
+      <c r="Y31" s="264"/>
+      <c r="Z31" s="264"/>
+      <c r="AA31" s="264"/>
+      <c r="AB31" s="264"/>
+      <c r="AC31" s="264"/>
+      <c r="AD31" s="264"/>
+      <c r="AE31" s="264"/>
+      <c r="AF31" s="264"/>
+      <c r="AG31" s="264"/>
+      <c r="AH31" s="264"/>
+      <c r="AI31" s="264"/>
+      <c r="AJ31" s="264"/>
+      <c r="AK31" s="264"/>
+      <c r="AL31" s="264"/>
+      <c r="AM31" s="265"/>
+      <c r="AN31" s="266"/>
+      <c r="AO31" s="267"/>
+      <c r="AP31" s="267"/>
+      <c r="AQ31" s="267"/>
+      <c r="AR31" s="268"/>
+      <c r="AS31" s="266"/>
+      <c r="AT31" s="267"/>
+      <c r="AU31" s="267"/>
+      <c r="AV31" s="267"/>
+      <c r="AW31" s="268"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="241"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="245"/>
-      <c r="K32" s="246"/>
-      <c r="L32" s="247"/>
-      <c r="M32" s="255"/>
-      <c r="N32" s="256"/>
-      <c r="O32" s="256"/>
-      <c r="P32" s="256"/>
-      <c r="Q32" s="256"/>
-      <c r="R32" s="257"/>
-      <c r="S32" s="251"/>
-      <c r="T32" s="251"/>
-      <c r="U32" s="251"/>
-      <c r="V32" s="252"/>
-      <c r="W32" s="253"/>
-      <c r="X32" s="253"/>
-      <c r="Y32" s="253"/>
-      <c r="Z32" s="253"/>
-      <c r="AA32" s="253"/>
-      <c r="AB32" s="253"/>
-      <c r="AC32" s="253"/>
-      <c r="AD32" s="253"/>
-      <c r="AE32" s="253"/>
-      <c r="AF32" s="253"/>
-      <c r="AG32" s="253"/>
-      <c r="AH32" s="253"/>
-      <c r="AI32" s="253"/>
-      <c r="AJ32" s="253"/>
-      <c r="AK32" s="253"/>
-      <c r="AL32" s="253"/>
-      <c r="AM32" s="254"/>
-      <c r="AN32" s="238"/>
-      <c r="AO32" s="239"/>
-      <c r="AP32" s="239"/>
-      <c r="AQ32" s="239"/>
-      <c r="AR32" s="240"/>
-      <c r="AS32" s="238"/>
-      <c r="AT32" s="239"/>
-      <c r="AU32" s="239"/>
-      <c r="AV32" s="239"/>
-      <c r="AW32" s="240"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="271"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="247"/>
+      <c r="T32" s="247"/>
+      <c r="U32" s="247"/>
+      <c r="V32" s="263"/>
+      <c r="W32" s="264"/>
+      <c r="X32" s="264"/>
+      <c r="Y32" s="264"/>
+      <c r="Z32" s="264"/>
+      <c r="AA32" s="264"/>
+      <c r="AB32" s="264"/>
+      <c r="AC32" s="264"/>
+      <c r="AD32" s="264"/>
+      <c r="AE32" s="264"/>
+      <c r="AF32" s="264"/>
+      <c r="AG32" s="264"/>
+      <c r="AH32" s="264"/>
+      <c r="AI32" s="264"/>
+      <c r="AJ32" s="264"/>
+      <c r="AK32" s="264"/>
+      <c r="AL32" s="264"/>
+      <c r="AM32" s="265"/>
+      <c r="AN32" s="266"/>
+      <c r="AO32" s="267"/>
+      <c r="AP32" s="267"/>
+      <c r="AQ32" s="267"/>
+      <c r="AR32" s="268"/>
+      <c r="AS32" s="266"/>
+      <c r="AT32" s="267"/>
+      <c r="AU32" s="267"/>
+      <c r="AV32" s="267"/>
+      <c r="AW32" s="268"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="241"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="244"/>
-      <c r="J33" s="245"/>
-      <c r="K33" s="246"/>
-      <c r="L33" s="247"/>
-      <c r="M33" s="255"/>
-      <c r="N33" s="256"/>
-      <c r="O33" s="256"/>
-      <c r="P33" s="256"/>
-      <c r="Q33" s="256"/>
-      <c r="R33" s="257"/>
-      <c r="S33" s="251"/>
-      <c r="T33" s="251"/>
-      <c r="U33" s="251"/>
-      <c r="V33" s="252"/>
-      <c r="W33" s="253"/>
-      <c r="X33" s="253"/>
-      <c r="Y33" s="253"/>
-      <c r="Z33" s="253"/>
-      <c r="AA33" s="253"/>
-      <c r="AB33" s="253"/>
-      <c r="AC33" s="253"/>
-      <c r="AD33" s="253"/>
-      <c r="AE33" s="253"/>
-      <c r="AF33" s="253"/>
-      <c r="AG33" s="253"/>
-      <c r="AH33" s="253"/>
-      <c r="AI33" s="253"/>
-      <c r="AJ33" s="253"/>
-      <c r="AK33" s="253"/>
-      <c r="AL33" s="253"/>
-      <c r="AM33" s="254"/>
-      <c r="AN33" s="238"/>
-      <c r="AO33" s="239"/>
-      <c r="AP33" s="239"/>
-      <c r="AQ33" s="239"/>
-      <c r="AR33" s="240"/>
-      <c r="AS33" s="238"/>
-      <c r="AT33" s="239"/>
-      <c r="AU33" s="239"/>
-      <c r="AV33" s="239"/>
-      <c r="AW33" s="240"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="258"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="251"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="247"/>
+      <c r="T33" s="247"/>
+      <c r="U33" s="247"/>
+      <c r="V33" s="263"/>
+      <c r="W33" s="264"/>
+      <c r="X33" s="264"/>
+      <c r="Y33" s="264"/>
+      <c r="Z33" s="264"/>
+      <c r="AA33" s="264"/>
+      <c r="AB33" s="264"/>
+      <c r="AC33" s="264"/>
+      <c r="AD33" s="264"/>
+      <c r="AE33" s="264"/>
+      <c r="AF33" s="264"/>
+      <c r="AG33" s="264"/>
+      <c r="AH33" s="264"/>
+      <c r="AI33" s="264"/>
+      <c r="AJ33" s="264"/>
+      <c r="AK33" s="264"/>
+      <c r="AL33" s="264"/>
+      <c r="AM33" s="265"/>
+      <c r="AN33" s="266"/>
+      <c r="AO33" s="267"/>
+      <c r="AP33" s="267"/>
+      <c r="AQ33" s="267"/>
+      <c r="AR33" s="268"/>
+      <c r="AS33" s="266"/>
+      <c r="AT33" s="267"/>
+      <c r="AU33" s="267"/>
+      <c r="AV33" s="267"/>
+      <c r="AW33" s="268"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="244"/>
-      <c r="J34" s="245"/>
-      <c r="K34" s="246"/>
-      <c r="L34" s="247"/>
-      <c r="M34" s="248"/>
-      <c r="N34" s="249"/>
-      <c r="O34" s="249"/>
-      <c r="P34" s="249"/>
-      <c r="Q34" s="249"/>
-      <c r="R34" s="250"/>
-      <c r="S34" s="251"/>
-      <c r="T34" s="251"/>
-      <c r="U34" s="251"/>
-      <c r="V34" s="252"/>
-      <c r="W34" s="253"/>
-      <c r="X34" s="253"/>
-      <c r="Y34" s="253"/>
-      <c r="Z34" s="253"/>
-      <c r="AA34" s="253"/>
-      <c r="AB34" s="253"/>
-      <c r="AC34" s="253"/>
-      <c r="AD34" s="253"/>
-      <c r="AE34" s="253"/>
-      <c r="AF34" s="253"/>
-      <c r="AG34" s="253"/>
-      <c r="AH34" s="253"/>
-      <c r="AI34" s="253"/>
-      <c r="AJ34" s="253"/>
-      <c r="AK34" s="253"/>
-      <c r="AL34" s="253"/>
-      <c r="AM34" s="254"/>
-      <c r="AN34" s="238"/>
-      <c r="AO34" s="239"/>
-      <c r="AP34" s="239"/>
-      <c r="AQ34" s="239"/>
-      <c r="AR34" s="240"/>
-      <c r="AS34" s="238"/>
-      <c r="AT34" s="239"/>
-      <c r="AU34" s="239"/>
-      <c r="AV34" s="239"/>
-      <c r="AW34" s="240"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="252"/>
+      <c r="M34" s="275"/>
+      <c r="N34" s="276"/>
+      <c r="O34" s="276"/>
+      <c r="P34" s="276"/>
+      <c r="Q34" s="276"/>
+      <c r="R34" s="277"/>
+      <c r="S34" s="247"/>
+      <c r="T34" s="247"/>
+      <c r="U34" s="247"/>
+      <c r="V34" s="263"/>
+      <c r="W34" s="264"/>
+      <c r="X34" s="264"/>
+      <c r="Y34" s="264"/>
+      <c r="Z34" s="264"/>
+      <c r="AA34" s="264"/>
+      <c r="AB34" s="264"/>
+      <c r="AC34" s="264"/>
+      <c r="AD34" s="264"/>
+      <c r="AE34" s="264"/>
+      <c r="AF34" s="264"/>
+      <c r="AG34" s="264"/>
+      <c r="AH34" s="264"/>
+      <c r="AI34" s="264"/>
+      <c r="AJ34" s="264"/>
+      <c r="AK34" s="264"/>
+      <c r="AL34" s="264"/>
+      <c r="AM34" s="265"/>
+      <c r="AN34" s="266"/>
+      <c r="AO34" s="267"/>
+      <c r="AP34" s="267"/>
+      <c r="AQ34" s="267"/>
+      <c r="AR34" s="268"/>
+      <c r="AS34" s="266"/>
+      <c r="AT34" s="267"/>
+      <c r="AU34" s="267"/>
+      <c r="AV34" s="267"/>
+      <c r="AW34" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -8859,230 +9076,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9092,7 +9094,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN54"/>
@@ -9214,14 +9216,14 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="39"/>
       <c r="R2" s="90" t="s">
-        <v>174</v>
+        <v>370</v>
       </c>
       <c r="S2" s="91"/>
       <c r="T2" s="91"/>
       <c r="U2" s="91"/>
       <c r="V2" s="92"/>
       <c r="W2" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X2" s="40"/>
       <c r="Y2" s="40"/>
@@ -11111,7 +11113,7 @@
       <c r="I51" s="194"/>
       <c r="J51" s="195"/>
       <c r="K51" s="193" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L51" s="194"/>
       <c r="M51" s="194"/>
@@ -11143,7 +11145,7 @@
       <c r="AK51" s="280"/>
       <c r="AL51" s="281"/>
       <c r="AM51" s="196" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AN51" s="173"/>
       <c r="AO51" s="173"/>
@@ -11221,7 +11223,7 @@
       <c r="AK52" s="197"/>
       <c r="AL52" s="198"/>
       <c r="AM52" s="196" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN52" s="173"/>
       <c r="AO52" s="173"/>
@@ -11267,7 +11269,7 @@
       <c r="I53" s="194"/>
       <c r="J53" s="195"/>
       <c r="K53" s="193" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L53" s="194"/>
       <c r="M53" s="194"/>
@@ -11299,7 +11301,7 @@
       <c r="AK53" s="210"/>
       <c r="AL53" s="211"/>
       <c r="AM53" s="196" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN53" s="173"/>
       <c r="AO53" s="173"/>
@@ -11352,7 +11354,7 @@
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -11551,7 +11553,7 @@
       <c r="AG2" s="39"/>
       <c r="AH2" s="77" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01A</v>
+        <v>Z-01A</v>
       </c>
       <c r="AI2" s="78"/>
       <c r="AJ2" s="78"/>
@@ -11799,7 +11801,7 @@
       </c>
       <c r="F2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01A</v>
+        <v>Z-01A</v>
       </c>
       <c r="G2" s="37" t="str">
         <f>'１．機能概要'!W2</f>
@@ -11841,22 +11843,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="271" t="s">
+      <c r="C6" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="271" t="s">
+      <c r="D6" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="271" t="s">
+      <c r="E6" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="271" t="s">
+      <c r="F6" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="271" t="s">
+      <c r="G6" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="271" t="s">
+      <c r="H6" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="299" t="s">
@@ -11865,13 +11867,13 @@
       <c r="J6" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="271" t="s">
+      <c r="K6" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="271" t="s">
+      <c r="L6" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="271" t="s">
+      <c r="M6" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -11886,17 +11888,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="271"/>
-      <c r="D7" s="271"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="271"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
       <c r="I7" s="299"/>
       <c r="J7" s="299"/>
-      <c r="K7" s="271"/>
-      <c r="L7" s="271"/>
-      <c r="M7" s="271"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
       <c r="N7" s="43" t="s">
         <v>69</v>
       </c>
@@ -12058,22 +12060,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="271" t="s">
+      <c r="C13" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="271" t="s">
+      <c r="D13" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="271" t="s">
+      <c r="E13" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="271" t="s">
+      <c r="F13" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="271" t="s">
+      <c r="G13" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="271" t="s">
+      <c r="H13" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="300" t="s">
@@ -12082,13 +12084,13 @@
       <c r="J13" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="271" t="s">
+      <c r="K13" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="271" t="s">
+      <c r="L13" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="271" t="s">
+      <c r="M13" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -12103,17 +12105,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="271"/>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="271"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
       <c r="I14" s="301"/>
       <c r="J14" s="299"/>
-      <c r="K14" s="271"/>
-      <c r="L14" s="271"/>
-      <c r="M14" s="271"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
       <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
@@ -12141,7 +12143,7 @@
         <v>106</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>44</v>
@@ -12153,7 +12155,7 @@
         <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>34</v>
@@ -12168,7 +12170,7 @@
         <v>34</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q15" s="8"/>
     </row>
@@ -12181,13 +12183,13 @@
         <v>101</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>44</v>
@@ -12214,7 +12216,7 @@
         <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="8"/>
     </row>
@@ -12233,7 +12235,7 @@
         <v>149</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>44</v>
@@ -12260,7 +12262,7 @@
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="8"/>
     </row>
@@ -12277,27 +12279,27 @@
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="95"/>
-      <c r="C21" s="271" t="s">
+      <c r="C21" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="271" t="s">
+      <c r="D21" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="271" t="s">
+      <c r="E21" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="271" t="s">
+      <c r="F21" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="271" t="s">
+      <c r="G21" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="271" t="s">
+      <c r="H21" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="299" t="s">
@@ -12306,13 +12308,13 @@
       <c r="J21" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="271" t="s">
+      <c r="K21" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="271" t="s">
+      <c r="L21" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="271" t="s">
+      <c r="M21" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="65" t="s">
@@ -12326,17 +12328,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="95"/>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="271"/>
-      <c r="H22" s="271"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="240"/>
       <c r="I22" s="299"/>
       <c r="J22" s="299"/>
-      <c r="K22" s="271"/>
-      <c r="L22" s="271"/>
-      <c r="M22" s="271"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="240"/>
+      <c r="M22" s="240"/>
       <c r="N22" s="183" t="s">
         <v>69</v>
       </c>
@@ -12357,10 +12359,10 @@
         <v>54</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>45</v>
@@ -12375,7 +12377,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>35</v>
@@ -12403,10 +12405,10 @@
         <v>55</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24" s="44" t="s">
         <v>45</v>
@@ -12421,7 +12423,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -12449,10 +12451,10 @@
         <v>56</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G25" s="44" t="s">
         <v>45</v>
@@ -12467,7 +12469,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>35</v>
@@ -12492,13 +12494,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>45</v>
@@ -12513,7 +12515,7 @@
         <v>35</v>
       </c>
       <c r="K26" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>35</v>
@@ -12541,10 +12543,10 @@
         <v>107</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>45</v>
@@ -12559,7 +12561,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>35</v>
@@ -12587,10 +12589,10 @@
         <v>150</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>45</v>
@@ -12605,7 +12607,7 @@
         <v>35</v>
       </c>
       <c r="K28" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>35</v>
@@ -12620,34 +12622,34 @@
         <v>35</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="95"/>
-      <c r="C30" s="271" t="s">
+      <c r="C30" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="271" t="s">
+      <c r="D30" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="271" t="s">
+      <c r="E30" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="271" t="s">
+      <c r="F30" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="271" t="s">
+      <c r="G30" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="271" t="s">
+      <c r="H30" s="240" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="299" t="s">
@@ -12656,13 +12658,13 @@
       <c r="J30" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="271" t="s">
+      <c r="K30" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="271" t="s">
+      <c r="L30" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="271" t="s">
+      <c r="M30" s="240" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -12676,17 +12678,17 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="95"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="271"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="240"/>
       <c r="I31" s="299"/>
       <c r="J31" s="299"/>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
+      <c r="K31" s="240"/>
+      <c r="L31" s="240"/>
+      <c r="M31" s="240"/>
       <c r="N31" s="93" t="s">
         <v>69</v>
       </c>
@@ -12754,10 +12756,10 @@
         <v>55</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G33" s="44" t="s">
         <v>45</v>
@@ -12772,7 +12774,7 @@
         <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>35</v>
@@ -12787,7 +12789,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="215" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -12800,10 +12802,10 @@
         <v>56</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G34" s="44" t="s">
         <v>45</v>
@@ -12818,7 +12820,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>35</v>
@@ -12833,7 +12835,7 @@
         <v>35</v>
       </c>
       <c r="P34" s="215" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q34" s="8"/>
     </row>
@@ -12843,13 +12845,13 @@
         <v>4</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G35" s="44" t="s">
         <v>45</v>
@@ -12879,7 +12881,7 @@
         <v>35</v>
       </c>
       <c r="P35" s="209" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q35" s="8"/>
     </row>
@@ -12892,10 +12894,10 @@
         <v>107</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>45</v>
@@ -12910,7 +12912,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>35</v>
@@ -12919,16 +12921,16 @@
         <v>34</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P36" s="209" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q36" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12940,10 +12942,10 @@
         <v>150</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G37" s="44" t="s">
         <v>45</v>
@@ -12958,7 +12960,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>35</v>
@@ -12967,16 +12969,16 @@
         <v>34</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P37" s="209" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -12988,10 +12990,10 @@
         <v>151</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G38" s="44" t="s">
         <v>45</v>
@@ -13006,7 +13008,7 @@
         <v>35</v>
       </c>
       <c r="K38" s="205" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>35</v>
@@ -13015,16 +13017,16 @@
         <v>34</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P38" s="209" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -13076,16 +13078,34 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -13096,34 +13116,16 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13136,7 +13138,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ224"/>
@@ -13242,7 +13244,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01A</v>
+        <v>Z-01A</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -13482,7 +13484,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -13533,7 +13535,7 @@
       <c r="J9" s="24"/>
       <c r="K9" s="68"/>
       <c r="L9" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -13637,7 +13639,7 @@
       <c r="L11" s="98"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O11" s="69"/>
       <c r="P11" s="69"/>
@@ -13688,7 +13690,7 @@
       <c r="L12" s="98"/>
       <c r="M12" s="69"/>
       <c r="N12" s="69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O12" s="69"/>
       <c r="P12" s="69"/>
@@ -13739,7 +13741,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O13" s="69"/>
       <c r="P13" s="69"/>
@@ -13790,7 +13792,7 @@
       <c r="L14" s="98"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
@@ -13841,7 +13843,7 @@
       <c r="L15" s="98"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O15" s="69"/>
       <c r="P15" s="69"/>
@@ -13892,7 +13894,7 @@
       <c r="L16" s="98"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
@@ -13994,7 +13996,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
@@ -14089,13 +14091,13 @@
       <c r="G20" s="228"/>
       <c r="K20" s="229"/>
       <c r="N20" s="227" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AA20" s="227" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB20" s="227" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AV20" s="229"/>
     </row>
@@ -14106,13 +14108,13 @@
       <c r="G21" s="231"/>
       <c r="K21" s="232"/>
       <c r="N21" s="233" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AA21" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB21" s="234" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AV21" s="232"/>
     </row>
@@ -14123,13 +14125,13 @@
       <c r="G22" s="231"/>
       <c r="K22" s="232"/>
       <c r="N22" s="233" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA22" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB22" s="234" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AV22" s="232"/>
     </row>
@@ -14140,13 +14142,13 @@
       <c r="G23" s="231"/>
       <c r="K23" s="232"/>
       <c r="N23" s="233" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AA23" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB23" s="234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AV23" s="232"/>
     </row>
@@ -14157,13 +14159,13 @@
       <c r="G24" s="231"/>
       <c r="K24" s="232"/>
       <c r="N24" s="233" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA24" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB24" s="234" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AV24" s="232"/>
     </row>
@@ -14174,13 +14176,13 @@
       <c r="G25" s="231"/>
       <c r="K25" s="232"/>
       <c r="N25" s="233" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA25" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB25" s="234" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AV25" s="232"/>
     </row>
@@ -14249,7 +14251,7 @@
       <c r="L27" s="98"/>
       <c r="M27" s="98"/>
       <c r="N27" s="100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O27" s="98"/>
       <c r="P27" s="98"/>
@@ -14346,7 +14348,7 @@
       <c r="J29" s="218"/>
       <c r="K29" s="219"/>
       <c r="L29" s="218" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M29" s="218"/>
       <c r="O29" s="218"/>
@@ -14449,7 +14451,7 @@
       <c r="L31" s="218"/>
       <c r="M31" s="220"/>
       <c r="N31" s="220" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O31" s="220"/>
       <c r="P31" s="220"/>
@@ -14500,7 +14502,7 @@
       <c r="L32" s="218"/>
       <c r="M32" s="220"/>
       <c r="N32" s="220" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O32" s="220"/>
       <c r="P32" s="220"/>
@@ -14551,7 +14553,7 @@
       <c r="L33" s="218"/>
       <c r="M33" s="220"/>
       <c r="N33" s="186" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O33" s="186"/>
       <c r="P33" s="186"/>
@@ -14602,7 +14604,7 @@
       <c r="L34" s="218"/>
       <c r="M34" s="220"/>
       <c r="N34" s="69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O34" s="69"/>
       <c r="P34" s="69"/>
@@ -14647,7 +14649,7 @@
       <c r="K35" s="68"/>
       <c r="M35" s="212"/>
       <c r="N35" s="212" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O35" s="212"/>
       <c r="P35" s="212"/>
@@ -14685,7 +14687,7 @@
       <c r="K36" s="68"/>
       <c r="M36" s="212"/>
       <c r="N36" s="212" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O36" s="212"/>
       <c r="P36" s="212"/>
@@ -14723,7 +14725,7 @@
       <c r="K37" s="68"/>
       <c r="M37" s="212"/>
       <c r="N37" s="212" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O37" s="212"/>
       <c r="P37" s="212"/>
@@ -14762,7 +14764,7 @@
       <c r="M38" s="212"/>
       <c r="N38" s="212"/>
       <c r="O38" s="212" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P38" s="212"/>
       <c r="Q38" s="212"/>
@@ -14800,7 +14802,7 @@
       <c r="M39" s="212"/>
       <c r="N39" s="212"/>
       <c r="O39" s="212" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P39" s="212"/>
       <c r="Q39" s="212"/>
@@ -14837,7 +14839,7 @@
       <c r="K40" s="68"/>
       <c r="M40" s="212"/>
       <c r="N40" s="212" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O40" s="212"/>
       <c r="P40" s="212"/>
@@ -14932,7 +14934,7 @@
       <c r="L42" s="218"/>
       <c r="M42" s="220"/>
       <c r="N42" s="220" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O42" s="220"/>
       <c r="P42" s="220"/>
@@ -14977,7 +14979,7 @@
       <c r="K43" s="68"/>
       <c r="M43" s="212"/>
       <c r="N43" s="212" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O43" s="212"/>
       <c r="P43" s="212"/>
@@ -15010,13 +15012,13 @@
       <c r="M44" s="212"/>
       <c r="N44" s="212"/>
       <c r="O44" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA44" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB44" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG44" s="212"/>
       <c r="AV44" s="68"/>
@@ -15030,7 +15032,7 @@
       <c r="M45" s="212"/>
       <c r="N45" s="212"/>
       <c r="O45" s="206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P45" s="206"/>
       <c r="Q45" s="206"/>
@@ -15039,7 +15041,7 @@
         <v>36</v>
       </c>
       <c r="AB45" s="206" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC45" s="206"/>
       <c r="AD45" s="206"/>
@@ -15057,13 +15059,13 @@
       <c r="M46" s="222"/>
       <c r="N46" s="222"/>
       <c r="O46" s="216" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA46" s="216" t="s">
         <v>36</v>
       </c>
       <c r="AB46" s="216" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG46" s="222"/>
       <c r="AV46" s="219"/>
@@ -15077,13 +15079,13 @@
       <c r="M47" s="222"/>
       <c r="N47" s="222"/>
       <c r="O47" s="216" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA47" s="216" t="s">
         <v>36</v>
       </c>
       <c r="AB47" s="216" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG47" s="222"/>
       <c r="AV47" s="219"/>
@@ -15095,13 +15097,13 @@
       <c r="G48" s="224"/>
       <c r="K48" s="225"/>
       <c r="O48" s="223" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA48" s="223" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB48" s="223" t="s">
         <v>333</v>
-      </c>
-      <c r="AB48" s="223" t="s">
-        <v>334</v>
       </c>
       <c r="AV48" s="225"/>
     </row>
@@ -15114,13 +15116,13 @@
       <c r="M49" s="212"/>
       <c r="N49" s="212"/>
       <c r="O49" s="226" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AA49" s="212" t="s">
         <v>36</v>
       </c>
       <c r="AB49" s="214" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG49" s="212"/>
       <c r="AV49" s="68"/>
@@ -15133,7 +15135,7 @@
       <c r="K50" s="68"/>
       <c r="M50" s="212"/>
       <c r="N50" s="212" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O50" s="212"/>
       <c r="P50" s="212"/>
@@ -15166,13 +15168,13 @@
       <c r="M51" s="212"/>
       <c r="N51" s="212"/>
       <c r="O51" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA51" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB51" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG51" s="212"/>
       <c r="AV51" s="68"/>
@@ -15186,7 +15188,7 @@
       <c r="M52" s="212"/>
       <c r="N52" s="212"/>
       <c r="O52" s="206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P52" s="206"/>
       <c r="Q52" s="206"/>
@@ -15195,7 +15197,7 @@
         <v>36</v>
       </c>
       <c r="AB52" s="206" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC52" s="206"/>
       <c r="AD52" s="206"/>
@@ -15213,13 +15215,13 @@
       <c r="M53" s="222"/>
       <c r="N53" s="222"/>
       <c r="O53" s="216" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA53" s="216" t="s">
         <v>36</v>
       </c>
       <c r="AB53" s="216" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG53" s="222"/>
       <c r="AV53" s="219"/>
@@ -15233,13 +15235,13 @@
       <c r="M54" s="222"/>
       <c r="N54" s="222"/>
       <c r="O54" s="216" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA54" s="216" t="s">
         <v>36</v>
       </c>
       <c r="AB54" s="216" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG54" s="222"/>
       <c r="AV54" s="219"/>
@@ -15251,13 +15253,13 @@
       <c r="G55" s="224"/>
       <c r="K55" s="225"/>
       <c r="O55" s="223" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA55" s="223" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB55" s="223" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AV55" s="225"/>
     </row>
@@ -15270,13 +15272,13 @@
       <c r="M56" s="212"/>
       <c r="N56" s="212"/>
       <c r="O56" s="226" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA56" s="212" t="s">
         <v>36</v>
       </c>
       <c r="AB56" s="214" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG56" s="212"/>
       <c r="AV56" s="68"/>
@@ -15289,7 +15291,7 @@
       <c r="K57" s="68"/>
       <c r="M57" s="212"/>
       <c r="N57" s="212" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O57" s="212"/>
       <c r="P57" s="212"/>
@@ -15322,13 +15324,13 @@
       <c r="M58" s="212"/>
       <c r="N58" s="212"/>
       <c r="O58" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA58" s="17" t="s">
         <v>36</v>
       </c>
       <c r="AB58" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG58" s="212"/>
       <c r="AV58" s="68"/>
@@ -15342,7 +15344,7 @@
       <c r="M59" s="212"/>
       <c r="N59" s="212"/>
       <c r="O59" s="206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P59" s="206"/>
       <c r="Q59" s="206"/>
@@ -15351,7 +15353,7 @@
         <v>36</v>
       </c>
       <c r="AB59" s="206" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC59" s="206"/>
       <c r="AD59" s="206"/>
@@ -15369,13 +15371,13 @@
       <c r="M60" s="222"/>
       <c r="N60" s="222"/>
       <c r="O60" s="216" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA60" s="216" t="s">
         <v>36</v>
       </c>
       <c r="AB60" s="216" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG60" s="222"/>
       <c r="AV60" s="219"/>
@@ -15389,13 +15391,13 @@
       <c r="M61" s="222"/>
       <c r="N61" s="222"/>
       <c r="O61" s="216" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA61" s="216" t="s">
         <v>36</v>
       </c>
       <c r="AB61" s="216" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG61" s="222"/>
       <c r="AV61" s="219"/>
@@ -15407,13 +15409,13 @@
       <c r="G62" s="224"/>
       <c r="K62" s="225"/>
       <c r="O62" s="223" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA62" s="223" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB62" s="223" t="s">
         <v>336</v>
-      </c>
-      <c r="AA62" s="223" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB62" s="223" t="s">
-        <v>337</v>
       </c>
       <c r="AV62" s="225"/>
     </row>
@@ -15426,10 +15428,10 @@
       <c r="M63" s="212"/>
       <c r="N63" s="212"/>
       <c r="O63" s="226" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA63" s="212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB63" s="214"/>
       <c r="AG63" s="212"/>
@@ -15493,13 +15495,13 @@
       <c r="G65" s="228"/>
       <c r="K65" s="229"/>
       <c r="N65" s="227" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AA65" s="227" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AB65" s="227" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AV65" s="229"/>
     </row>
@@ -15510,13 +15512,13 @@
       <c r="G66" s="231"/>
       <c r="K66" s="232"/>
       <c r="N66" s="233" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA66" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB66" s="234" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AV66" s="232"/>
     </row>
@@ -15527,13 +15529,13 @@
       <c r="G67" s="231"/>
       <c r="K67" s="232"/>
       <c r="N67" s="233" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA67" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB67" s="234" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AV67" s="232"/>
     </row>
@@ -15544,13 +15546,13 @@
       <c r="G68" s="231"/>
       <c r="K68" s="232"/>
       <c r="N68" s="233" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA68" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB68" s="234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AV68" s="232"/>
     </row>
@@ -15561,13 +15563,13 @@
       <c r="G69" s="231"/>
       <c r="K69" s="232"/>
       <c r="N69" s="233" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA69" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB69" s="234" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AV69" s="232"/>
     </row>
@@ -15578,13 +15580,13 @@
       <c r="G70" s="231"/>
       <c r="K70" s="232"/>
       <c r="N70" s="233" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA70" s="233" t="s">
         <v>36</v>
       </c>
       <c r="AB70" s="234" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AV70" s="232"/>
     </row>
@@ -15595,7 +15597,7 @@
       <c r="G71" s="67"/>
       <c r="K71" s="68"/>
       <c r="M71" s="212" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA71" s="212"/>
       <c r="AB71" s="214"/>
@@ -15610,7 +15612,7 @@
       <c r="K72" s="68"/>
       <c r="M72" s="212"/>
       <c r="N72" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA72" s="212"/>
       <c r="AB72" s="214"/>
@@ -15625,7 +15627,7 @@
       <c r="K73" s="68"/>
       <c r="M73" s="212"/>
       <c r="N73" s="216" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="216"/>
@@ -15644,7 +15646,7 @@
       <c r="K74" s="68"/>
       <c r="M74" s="212"/>
       <c r="N74" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA74" s="212"/>
       <c r="AB74" s="214"/>
@@ -15659,7 +15661,7 @@
       <c r="K75" s="68"/>
       <c r="M75" s="212"/>
       <c r="N75" s="69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA75" s="212"/>
       <c r="AB75" s="214"/>
@@ -15731,7 +15733,7 @@
       <c r="L77" s="218"/>
       <c r="M77" s="218"/>
       <c r="N77" s="216" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O77" s="218"/>
       <c r="P77" s="218"/>
@@ -15782,7 +15784,7 @@
       <c r="L78" s="218"/>
       <c r="M78" s="218"/>
       <c r="N78" s="216" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O78" s="218"/>
       <c r="P78" s="218"/>
@@ -15934,7 +15936,7 @@
       </c>
       <c r="K81" s="68"/>
       <c r="L81" s="226" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AV81" s="68"/>
     </row>
@@ -16053,7 +16055,7 @@
       </c>
       <c r="K84" s="68"/>
       <c r="L84" s="226" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AV84" s="68"/>
     </row>
@@ -23434,7 +23436,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ88"/>
@@ -23542,7 +23544,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01A</v>
+        <v>Z-01A</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -23854,7 +23856,7 @@
       <c r="AB7" s="22"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
@@ -28247,7 +28249,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK222"/>
@@ -28355,7 +28357,7 @@
       <c r="M2" s="39"/>
       <c r="N2" s="37" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-Z01A</v>
+        <v>Z-01A</v>
       </c>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
@@ -40473,7 +40475,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4FDC77-BE9D-4F29-A191-EDC6FB9C3BD6}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -40609,7 +40611,7 @@
     </row>
     <row r="3" spans="2:102" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="302" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="303"/>
       <c r="D3" s="303"/>
@@ -41542,7 +41544,7 @@
     </row>
     <row r="12" spans="2:102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
@@ -41773,7 +41775,7 @@
       <c r="S14" s="161"/>
       <c r="T14" s="123"/>
       <c r="U14" s="128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V14" s="129"/>
       <c r="W14" s="129"/>
@@ -41882,7 +41884,7 @@
       <c r="S15" s="161"/>
       <c r="T15" s="123"/>
       <c r="U15" s="129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V15" s="129"/>
       <c r="W15" s="129"/>
@@ -41901,7 +41903,7 @@
       <c r="AJ15" s="133"/>
       <c r="AK15" s="133"/>
       <c r="AL15" s="129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM15" s="129"/>
       <c r="AN15" s="129"/>
@@ -42219,7 +42221,7 @@
       <c r="AO18" s="163"/>
       <c r="AP18" s="163"/>
       <c r="AQ18" s="138" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR18" s="139"/>
       <c r="AS18" s="139"/>
@@ -42233,7 +42235,7 @@
       <c r="BA18" s="139"/>
       <c r="BB18" s="140"/>
       <c r="BC18" s="138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BD18" s="139"/>
       <c r="BE18" s="139"/>
@@ -42245,7 +42247,7 @@
       <c r="BK18" s="139"/>
       <c r="BL18" s="140"/>
       <c r="BM18" s="178" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BN18" s="177"/>
       <c r="BO18" s="177"/>
@@ -42255,7 +42257,7 @@
       <c r="BS18" s="139"/>
       <c r="BT18" s="140"/>
       <c r="BU18" s="138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BV18" s="139"/>
       <c r="BW18" s="139"/>
@@ -42265,7 +42267,7 @@
       <c r="CA18" s="139"/>
       <c r="CB18" s="140"/>
       <c r="CC18" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CD18" s="139"/>
       <c r="CE18" s="139"/>
@@ -42275,7 +42277,7 @@
       <c r="CI18" s="139"/>
       <c r="CJ18" s="140"/>
       <c r="CK18" s="178" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CL18" s="177"/>
       <c r="CM18" s="177"/>
@@ -42334,7 +42336,7 @@
       <c r="AO19" s="163"/>
       <c r="AP19" s="163"/>
       <c r="AQ19" s="179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AR19" s="181"/>
       <c r="AS19" s="181"/>
@@ -42348,7 +42350,7 @@
       <c r="BA19" s="176"/>
       <c r="BB19" s="180"/>
       <c r="BC19" s="179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BD19" s="181"/>
       <c r="BE19" s="181"/>
@@ -42360,7 +42362,7 @@
       <c r="BK19" s="176"/>
       <c r="BL19" s="180"/>
       <c r="BM19" s="179" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BN19" s="181"/>
       <c r="BO19" s="181"/>
@@ -42370,7 +42372,7 @@
       <c r="BS19" s="176"/>
       <c r="BT19" s="180"/>
       <c r="BU19" s="179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BV19" s="181"/>
       <c r="BW19" s="181"/>
@@ -42380,7 +42382,7 @@
       <c r="CA19" s="176"/>
       <c r="CB19" s="180"/>
       <c r="CC19" s="179" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CD19" s="181"/>
       <c r="CE19" s="181"/>
@@ -42390,7 +42392,7 @@
       <c r="CI19" s="176"/>
       <c r="CJ19" s="180"/>
       <c r="CK19" s="179" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CL19" s="181"/>
       <c r="CM19" s="181"/>
@@ -42460,7 +42462,7 @@
       <c r="AZ20" s="113"/>
       <c r="BA20" s="113"/>
       <c r="BB20" s="204" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BC20" s="130"/>
       <c r="BD20" s="113"/>
@@ -42472,7 +42474,7 @@
       <c r="BJ20" s="113"/>
       <c r="BK20" s="113"/>
       <c r="BL20" s="204" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BM20" s="130"/>
       <c r="BN20" s="113"/>
@@ -42482,7 +42484,7 @@
       <c r="BR20" s="113"/>
       <c r="BS20" s="113"/>
       <c r="BT20" s="204" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BU20" s="130"/>
       <c r="BV20" s="113"/>
@@ -42492,7 +42494,7 @@
       <c r="BZ20" s="113"/>
       <c r="CA20" s="113"/>
       <c r="CB20" s="204" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CC20" s="130"/>
       <c r="CD20" s="113"/>
@@ -42502,7 +42504,7 @@
       <c r="CH20" s="113"/>
       <c r="CI20" s="113"/>
       <c r="CJ20" s="204" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CK20" s="130"/>
       <c r="CL20" s="113"/>
@@ -42514,7 +42516,7 @@
       <c r="CR20" s="113"/>
       <c r="CS20" s="113"/>
       <c r="CT20" s="141" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CU20" s="133"/>
       <c r="CV20" s="123"/>
@@ -42946,7 +42948,7 @@
       </c>
       <c r="F25" s="140"/>
       <c r="G25" s="138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H25" s="139"/>
       <c r="I25" s="139"/>
@@ -42960,7 +42962,7 @@
       <c r="Q25" s="139"/>
       <c r="R25" s="140"/>
       <c r="S25" s="138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T25" s="139"/>
       <c r="U25" s="139"/>
@@ -42977,7 +42979,7 @@
       <c r="AF25" s="139"/>
       <c r="AG25" s="140"/>
       <c r="AH25" s="138" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI25" s="139"/>
       <c r="AJ25" s="139"/>
@@ -42996,7 +42998,7 @@
       <c r="AW25" s="139"/>
       <c r="AX25" s="140"/>
       <c r="AY25" s="138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ25" s="139"/>
       <c r="BA25" s="139"/>
@@ -43011,7 +43013,7 @@
       <c r="BJ25" s="139"/>
       <c r="BK25" s="140"/>
       <c r="BL25" s="138" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BM25" s="139"/>
       <c r="BN25" s="139"/>
@@ -43026,7 +43028,7 @@
       <c r="BW25" s="139"/>
       <c r="BX25" s="140"/>
       <c r="BY25" s="138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BZ25" s="139"/>
       <c r="CA25" s="139"/>
@@ -43061,7 +43063,7 @@
       <c r="E26" s="175"/>
       <c r="F26" s="155"/>
       <c r="G26" s="156" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H26" s="175"/>
       <c r="I26" s="175"/>
@@ -43075,7 +43077,7 @@
       <c r="Q26" s="175"/>
       <c r="R26" s="155"/>
       <c r="S26" s="156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T26" s="175"/>
       <c r="U26" s="175"/>
@@ -43092,7 +43094,7 @@
       <c r="AF26" s="175"/>
       <c r="AG26" s="155"/>
       <c r="AH26" s="156" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AI26" s="175"/>
       <c r="AJ26" s="175"/>
@@ -43111,7 +43113,7 @@
       <c r="AW26" s="175"/>
       <c r="AX26" s="155"/>
       <c r="AY26" s="156" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AZ26" s="175"/>
       <c r="BA26" s="175"/>
@@ -43126,7 +43128,7 @@
       <c r="BJ26" s="175"/>
       <c r="BK26" s="155"/>
       <c r="BL26" s="156" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BM26" s="175"/>
       <c r="BN26" s="175"/>
@@ -43141,7 +43143,7 @@
       <c r="BW26" s="175"/>
       <c r="BX26" s="155"/>
       <c r="BY26" s="156" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BZ26" s="175"/>
       <c r="CA26" s="175"/>
@@ -43178,7 +43180,7 @@
         <v>125</v>
       </c>
       <c r="G27" s="202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H27" s="182"/>
       <c r="I27" s="182"/>
@@ -43192,7 +43194,7 @@
       <c r="Q27" s="182"/>
       <c r="R27" s="182"/>
       <c r="S27" s="202" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T27" s="182"/>
       <c r="U27" s="182"/>
@@ -43209,7 +43211,7 @@
       <c r="AF27" s="182"/>
       <c r="AG27" s="203"/>
       <c r="AH27" s="202" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AI27" s="182"/>
       <c r="AJ27" s="182"/>
@@ -43253,7 +43255,7 @@
       <c r="BV27" s="113"/>
       <c r="BW27" s="113"/>
       <c r="BX27" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY27" s="130"/>
       <c r="BZ27" s="113"/>
@@ -43293,7 +43295,7 @@
         <v>145</v>
       </c>
       <c r="G28" s="202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H28" s="182"/>
       <c r="I28" s="182"/>
@@ -43307,7 +43309,7 @@
       <c r="Q28" s="182"/>
       <c r="R28" s="182"/>
       <c r="S28" s="202" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T28" s="182"/>
       <c r="U28" s="182"/>
@@ -43324,7 +43326,7 @@
       <c r="AF28" s="182"/>
       <c r="AG28" s="203"/>
       <c r="AH28" s="202" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI28" s="182"/>
       <c r="AJ28" s="182"/>
@@ -43368,7 +43370,7 @@
       <c r="BV28" s="113"/>
       <c r="BW28" s="113"/>
       <c r="BX28" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY28" s="130"/>
       <c r="BZ28" s="113"/>
@@ -43406,7 +43408,7 @@
         <v>127</v>
       </c>
       <c r="G29" s="202" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H29" s="182"/>
       <c r="I29" s="182"/>
@@ -43420,7 +43422,7 @@
       <c r="Q29" s="182"/>
       <c r="R29" s="182"/>
       <c r="S29" s="202" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T29" s="182"/>
       <c r="U29" s="182"/>
@@ -43437,7 +43439,7 @@
       <c r="AF29" s="182"/>
       <c r="AG29" s="203"/>
       <c r="AH29" s="202" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AI29" s="182"/>
       <c r="AJ29" s="182"/>
@@ -43468,7 +43470,7 @@
       <c r="BI29" s="113"/>
       <c r="BJ29" s="113"/>
       <c r="BK29" s="141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BL29" s="130"/>
       <c r="BM29" s="113"/>
@@ -43519,7 +43521,7 @@
         <v>128</v>
       </c>
       <c r="G30" s="202" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H30" s="182"/>
       <c r="I30" s="182"/>
@@ -43533,7 +43535,7 @@
       <c r="Q30" s="182"/>
       <c r="R30" s="182"/>
       <c r="S30" s="202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T30" s="182"/>
       <c r="U30" s="182"/>
@@ -43550,7 +43552,7 @@
       <c r="AF30" s="182"/>
       <c r="AG30" s="203"/>
       <c r="AH30" s="202" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI30" s="182"/>
       <c r="AJ30" s="182"/>
@@ -43594,7 +43596,7 @@
       <c r="BV30" s="113"/>
       <c r="BW30" s="113"/>
       <c r="BX30" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY30" s="130"/>
       <c r="BZ30" s="113"/>
@@ -43632,7 +43634,7 @@
         <v>129</v>
       </c>
       <c r="G31" s="202" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H31" s="182"/>
       <c r="I31" s="182"/>
@@ -43646,7 +43648,7 @@
       <c r="Q31" s="182"/>
       <c r="R31" s="182"/>
       <c r="S31" s="202" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T31" s="182"/>
       <c r="U31" s="182"/>
@@ -43663,7 +43665,7 @@
       <c r="AF31" s="182"/>
       <c r="AG31" s="203"/>
       <c r="AH31" s="202" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI31" s="182"/>
       <c r="AJ31" s="182"/>
@@ -43707,7 +43709,7 @@
       <c r="BV31" s="113"/>
       <c r="BW31" s="113"/>
       <c r="BX31" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY31" s="130"/>
       <c r="BZ31" s="113"/>
@@ -43745,7 +43747,7 @@
         <v>130</v>
       </c>
       <c r="G32" s="202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H32" s="182"/>
       <c r="I32" s="182"/>
@@ -43759,7 +43761,7 @@
       <c r="Q32" s="182"/>
       <c r="R32" s="182"/>
       <c r="S32" s="202" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T32" s="182"/>
       <c r="U32" s="182"/>
@@ -43776,7 +43778,7 @@
       <c r="AF32" s="182"/>
       <c r="AG32" s="203"/>
       <c r="AH32" s="202" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI32" s="182"/>
       <c r="AJ32" s="182"/>
@@ -43833,7 +43835,7 @@
       <c r="CI32" s="113"/>
       <c r="CJ32" s="113"/>
       <c r="CK32" s="204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL32" s="122"/>
       <c r="CM32" s="124"/>
@@ -43858,7 +43860,7 @@
         <v>131</v>
       </c>
       <c r="G33" s="202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H33" s="182"/>
       <c r="I33" s="182"/>
@@ -43872,7 +43874,7 @@
       <c r="Q33" s="182"/>
       <c r="R33" s="182"/>
       <c r="S33" s="202" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T33" s="182"/>
       <c r="U33" s="182"/>
@@ -43889,7 +43891,7 @@
       <c r="AF33" s="182"/>
       <c r="AG33" s="203"/>
       <c r="AH33" s="202" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AI33" s="182"/>
       <c r="AJ33" s="182"/>
@@ -43946,7 +43948,7 @@
       <c r="CI33" s="113"/>
       <c r="CJ33" s="113"/>
       <c r="CK33" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CL33" s="122"/>
       <c r="CM33" s="124"/>
@@ -43971,7 +43973,7 @@
         <v>132</v>
       </c>
       <c r="G34" s="202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H34" s="182"/>
       <c r="I34" s="182"/>
@@ -43985,7 +43987,7 @@
       <c r="Q34" s="182"/>
       <c r="R34" s="182"/>
       <c r="S34" s="202" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T34" s="182"/>
       <c r="U34" s="182"/>
@@ -44002,7 +44004,7 @@
       <c r="AF34" s="182"/>
       <c r="AG34" s="203"/>
       <c r="AH34" s="202" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AI34" s="182"/>
       <c r="AJ34" s="182"/>
@@ -44059,7 +44061,7 @@
       <c r="CI34" s="113"/>
       <c r="CJ34" s="113"/>
       <c r="CK34" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CL34" s="122"/>
       <c r="CM34" s="124"/>
@@ -44084,7 +44086,7 @@
         <v>133</v>
       </c>
       <c r="G35" s="202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H35" s="182"/>
       <c r="I35" s="182"/>
@@ -44098,7 +44100,7 @@
       <c r="Q35" s="182"/>
       <c r="R35" s="182"/>
       <c r="S35" s="202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T35" s="182"/>
       <c r="U35" s="182"/>
@@ -44115,7 +44117,7 @@
       <c r="AF35" s="182"/>
       <c r="AG35" s="203"/>
       <c r="AH35" s="202" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI35" s="182"/>
       <c r="AJ35" s="182"/>
@@ -44172,7 +44174,7 @@
       <c r="CI35" s="113"/>
       <c r="CJ35" s="113"/>
       <c r="CK35" s="204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL35" s="122"/>
       <c r="CM35" s="124"/>
@@ -44197,7 +44199,7 @@
         <v>134</v>
       </c>
       <c r="G36" s="202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H36" s="182"/>
       <c r="I36" s="182"/>
@@ -44211,7 +44213,7 @@
       <c r="Q36" s="182"/>
       <c r="R36" s="182"/>
       <c r="S36" s="202" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T36" s="182"/>
       <c r="U36" s="182"/>
@@ -44228,7 +44230,7 @@
       <c r="AF36" s="182"/>
       <c r="AG36" s="203"/>
       <c r="AH36" s="202" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AI36" s="182"/>
       <c r="AJ36" s="182"/>
@@ -44285,7 +44287,7 @@
       <c r="CI36" s="113"/>
       <c r="CJ36" s="113"/>
       <c r="CK36" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CL36" s="122"/>
       <c r="CM36" s="124"/>
@@ -44310,7 +44312,7 @@
         <v>135</v>
       </c>
       <c r="G37" s="202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H37" s="182"/>
       <c r="I37" s="182"/>
@@ -44324,7 +44326,7 @@
       <c r="Q37" s="182"/>
       <c r="R37" s="182"/>
       <c r="S37" s="202" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T37" s="182"/>
       <c r="U37" s="182"/>
@@ -44341,7 +44343,7 @@
       <c r="AF37" s="182"/>
       <c r="AG37" s="203"/>
       <c r="AH37" s="202" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AI37" s="182"/>
       <c r="AJ37" s="182"/>
@@ -44398,7 +44400,7 @@
       <c r="CI37" s="113"/>
       <c r="CJ37" s="113"/>
       <c r="CK37" s="204" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CL37" s="122"/>
       <c r="CM37" s="124"/>
@@ -44423,7 +44425,7 @@
         <v>136</v>
       </c>
       <c r="G38" s="202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H38" s="182"/>
       <c r="I38" s="182"/>
@@ -44437,7 +44439,7 @@
       <c r="Q38" s="182"/>
       <c r="R38" s="182"/>
       <c r="S38" s="202" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T38" s="182"/>
       <c r="U38" s="182"/>
@@ -44454,7 +44456,7 @@
       <c r="AF38" s="182"/>
       <c r="AG38" s="203"/>
       <c r="AH38" s="202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI38" s="182"/>
       <c r="AJ38" s="182"/>
@@ -44498,7 +44500,7 @@
       <c r="BV38" s="113"/>
       <c r="BW38" s="113"/>
       <c r="BX38" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY38" s="130"/>
       <c r="BZ38" s="113"/>
@@ -44536,7 +44538,7 @@
         <v>137</v>
       </c>
       <c r="G39" s="202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H39" s="182"/>
       <c r="I39" s="182"/>
@@ -44550,7 +44552,7 @@
       <c r="Q39" s="182"/>
       <c r="R39" s="182"/>
       <c r="S39" s="202" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T39" s="182"/>
       <c r="U39" s="182"/>
@@ -44567,7 +44569,7 @@
       <c r="AF39" s="182"/>
       <c r="AG39" s="203"/>
       <c r="AH39" s="202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AI39" s="182"/>
       <c r="AJ39" s="182"/>
@@ -44611,7 +44613,7 @@
       <c r="BV39" s="113"/>
       <c r="BW39" s="113"/>
       <c r="BX39" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY39" s="130"/>
       <c r="BZ39" s="113"/>
@@ -44649,7 +44651,7 @@
         <v>138</v>
       </c>
       <c r="G40" s="202" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H40" s="182"/>
       <c r="I40" s="182"/>
@@ -44663,7 +44665,7 @@
       <c r="Q40" s="182"/>
       <c r="R40" s="182"/>
       <c r="S40" s="202" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T40" s="182"/>
       <c r="U40" s="182"/>
@@ -44680,7 +44682,7 @@
       <c r="AF40" s="182"/>
       <c r="AG40" s="203"/>
       <c r="AH40" s="202" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI40" s="182"/>
       <c r="AJ40" s="182"/>
@@ -44711,7 +44713,7 @@
       <c r="BI40" s="113"/>
       <c r="BJ40" s="113"/>
       <c r="BK40" s="141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BL40" s="130"/>
       <c r="BM40" s="113"/>
@@ -44762,7 +44764,7 @@
         <v>139</v>
       </c>
       <c r="G41" s="202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H41" s="182"/>
       <c r="I41" s="182"/>
@@ -44776,7 +44778,7 @@
       <c r="Q41" s="182"/>
       <c r="R41" s="182"/>
       <c r="S41" s="202" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T41" s="182"/>
       <c r="U41" s="182"/>
@@ -44793,7 +44795,7 @@
       <c r="AF41" s="182"/>
       <c r="AG41" s="203"/>
       <c r="AH41" s="202" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI41" s="182"/>
       <c r="AJ41" s="182"/>
@@ -44837,7 +44839,7 @@
       <c r="BV41" s="113"/>
       <c r="BW41" s="113"/>
       <c r="BX41" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY41" s="130"/>
       <c r="BZ41" s="113"/>
@@ -44875,7 +44877,7 @@
         <v>153</v>
       </c>
       <c r="G42" s="202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H42" s="182"/>
       <c r="I42" s="182"/>
@@ -44889,7 +44891,7 @@
       <c r="Q42" s="182"/>
       <c r="R42" s="182"/>
       <c r="S42" s="202" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T42" s="182"/>
       <c r="U42" s="182"/>
@@ -44906,7 +44908,7 @@
       <c r="AF42" s="182"/>
       <c r="AG42" s="203"/>
       <c r="AH42" s="202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI42" s="182"/>
       <c r="AJ42" s="182"/>
@@ -44950,7 +44952,7 @@
       <c r="BV42" s="113"/>
       <c r="BW42" s="113"/>
       <c r="BX42" s="204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BY42" s="130"/>
       <c r="BZ42" s="113"/>
@@ -45203,12 +45205,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45370,15 +45369,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45402,17 +45412,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
+++ b/01_基本設計書/20200220リリース/SC-Z01A_入出庫来歴照会.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C2CEB-24A4-4989-833C-6BCF5C6B9DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0588B-41F3-40BA-8BB6-CC185AD720D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="344">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -2446,46 +2446,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>CASE 受払データ.受払区分</t>
-    <rPh sb="11" eb="12">
-      <t>ウケ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>バライ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>SUM(CASE 受払データ.受払区分</t>
-    <rPh sb="15" eb="16">
-      <t>ウケ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>バライ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>SUM(CASE 受払データ.受払区分 WHEN '01' THEN 1 ELSE 0 END) AS 当日受入数量</t>
-    <rPh sb="15" eb="16">
-      <t>ウケ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>バライ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>SUM(CASE 受払データ.受払区分 WHEN '02' THEN 1 ELSE 0 END) AS 当日払出数量</t>
     <rPh sb="15" eb="16">
       <t>ウケ</t>
     </rPh>
@@ -2506,31 +2467,58 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ELSE 0</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>END) AS 当日その他払出数量</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>END</t>
+    <t>SUM(CASE 受払データ.受払区分 WHEN '01' THEN 1 ELSE NULL END) AS 当日受入数量</t>
+    <rPh sb="15" eb="16">
+      <t>ウケ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バライ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クブン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>WHEN '01' THEN 1</t>
+    <t>SUM(CASE 受払データ.受払区分 WHEN '02' THEN 1 ELSE NULL END) AS 当日払出数量</t>
+    <rPh sb="15" eb="16">
+      <t>ウケ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バライ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クブン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>WHEN '02' THEN 2</t>
+    <t>ELSE NULL</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>WHEN '08' THEN 3</t>
+    <t>受払データ.受払区分</t>
+    <rPh sb="6" eb="7">
+      <t>ウケ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バライ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クブン</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>WHEN '0A' THEN 3</t>
+    <t>・受払データ.受払区分</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IN ('01','02','08','0A')</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3931,6 +3919,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3957,91 +4030,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5092,7 +5080,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3605"/>
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CX$44" spid="_x0000_s3607"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6283,7 +6271,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AW42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6703,1770 +6691,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="236" t="s">
+      <c r="B1" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="236"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236"/>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="236"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
+      <c r="N1" s="267"/>
+      <c r="O1" s="267"/>
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
+      <c r="R1" s="267"/>
+      <c r="S1" s="267"/>
+      <c r="T1" s="267"/>
+      <c r="U1" s="267"/>
+      <c r="V1" s="267"/>
+      <c r="W1" s="267"/>
+      <c r="X1" s="267"/>
+      <c r="Y1" s="267"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="267"/>
+      <c r="AB1" s="267"/>
+      <c r="AC1" s="267"/>
+      <c r="AD1" s="267"/>
+      <c r="AE1" s="267"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="267"/>
+      <c r="AH1" s="267"/>
+      <c r="AI1" s="267"/>
+      <c r="AJ1" s="267"/>
+      <c r="AK1" s="267"/>
+      <c r="AL1" s="267"/>
+      <c r="AM1" s="267"/>
+      <c r="AN1" s="267"/>
+      <c r="AO1" s="267"/>
+      <c r="AP1" s="267"/>
+      <c r="AQ1" s="267"/>
+      <c r="AR1" s="267"/>
+      <c r="AS1" s="267"/>
+      <c r="AT1" s="267"/>
+      <c r="AU1" s="267"/>
+      <c r="AV1" s="267"/>
+      <c r="AW1" s="267"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="237"/>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="237"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="237"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="237"/>
-      <c r="AJ2" s="237"/>
-      <c r="AK2" s="237"/>
-      <c r="AL2" s="237"/>
-      <c r="AM2" s="237"/>
-      <c r="AN2" s="237"/>
-      <c r="AO2" s="237"/>
-      <c r="AP2" s="237"/>
-      <c r="AQ2" s="237"/>
-      <c r="AR2" s="237"/>
-      <c r="AS2" s="237"/>
-      <c r="AT2" s="237"/>
-      <c r="AU2" s="237"/>
-      <c r="AV2" s="237"/>
-      <c r="AW2" s="237"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="268"/>
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="268"/>
+      <c r="X2" s="268"/>
+      <c r="Y2" s="268"/>
+      <c r="Z2" s="268"/>
+      <c r="AA2" s="268"/>
+      <c r="AB2" s="268"/>
+      <c r="AC2" s="268"/>
+      <c r="AD2" s="268"/>
+      <c r="AE2" s="268"/>
+      <c r="AF2" s="268"/>
+      <c r="AG2" s="268"/>
+      <c r="AH2" s="268"/>
+      <c r="AI2" s="268"/>
+      <c r="AJ2" s="268"/>
+      <c r="AK2" s="268"/>
+      <c r="AL2" s="268"/>
+      <c r="AM2" s="268"/>
+      <c r="AN2" s="268"/>
+      <c r="AO2" s="268"/>
+      <c r="AP2" s="268"/>
+      <c r="AQ2" s="268"/>
+      <c r="AR2" s="268"/>
+      <c r="AS2" s="268"/>
+      <c r="AT2" s="268"/>
+      <c r="AU2" s="268"/>
+      <c r="AV2" s="268"/>
+      <c r="AW2" s="268"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="238" t="s">
+      <c r="B3" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238" t="s">
+      <c r="C3" s="269"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="239" t="s">
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="240"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="239" t="s">
+      <c r="K3" s="271"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="240"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="240"/>
-      <c r="R3" s="241"/>
-      <c r="S3" s="238" t="s">
+      <c r="N3" s="271"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="271"/>
+      <c r="Q3" s="271"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="238"/>
-      <c r="U3" s="238"/>
-      <c r="V3" s="238" t="s">
+      <c r="T3" s="269"/>
+      <c r="U3" s="269"/>
+      <c r="V3" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="238"/>
-      <c r="X3" s="238"/>
-      <c r="Y3" s="238"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="238"/>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="238"/>
-      <c r="AF3" s="238"/>
-      <c r="AG3" s="238"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="238"/>
-      <c r="AJ3" s="238"/>
-      <c r="AK3" s="238"/>
-      <c r="AL3" s="238"/>
-      <c r="AM3" s="238"/>
-      <c r="AN3" s="238" t="s">
+      <c r="W3" s="269"/>
+      <c r="X3" s="269"/>
+      <c r="Y3" s="269"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="269"/>
+      <c r="AB3" s="269"/>
+      <c r="AC3" s="269"/>
+      <c r="AD3" s="269"/>
+      <c r="AE3" s="269"/>
+      <c r="AF3" s="269"/>
+      <c r="AG3" s="269"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="269"/>
+      <c r="AJ3" s="269"/>
+      <c r="AK3" s="269"/>
+      <c r="AL3" s="269"/>
+      <c r="AM3" s="269"/>
+      <c r="AN3" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="238"/>
-      <c r="AP3" s="238"/>
-      <c r="AQ3" s="238"/>
-      <c r="AR3" s="238"/>
-      <c r="AS3" s="238" t="s">
+      <c r="AO3" s="269"/>
+      <c r="AP3" s="269"/>
+      <c r="AQ3" s="269"/>
+      <c r="AR3" s="269"/>
+      <c r="AS3" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="238"/>
-      <c r="AU3" s="238"/>
-      <c r="AV3" s="238"/>
-      <c r="AW3" s="238"/>
+      <c r="AT3" s="269"/>
+      <c r="AU3" s="269"/>
+      <c r="AV3" s="269"/>
+      <c r="AW3" s="269"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="238"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="238"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="243"/>
-      <c r="P4" s="243"/>
-      <c r="Q4" s="243"/>
-      <c r="R4" s="244"/>
-      <c r="S4" s="238"/>
-      <c r="T4" s="238"/>
-      <c r="U4" s="238"/>
-      <c r="V4" s="238"/>
-      <c r="W4" s="238"/>
-      <c r="X4" s="238"/>
-      <c r="Y4" s="238"/>
-      <c r="Z4" s="238"/>
-      <c r="AA4" s="238"/>
-      <c r="AB4" s="238"/>
-      <c r="AC4" s="238"/>
-      <c r="AD4" s="238"/>
-      <c r="AE4" s="238"/>
-      <c r="AF4" s="238"/>
-      <c r="AG4" s="238"/>
-      <c r="AH4" s="238"/>
-      <c r="AI4" s="238"/>
-      <c r="AJ4" s="238"/>
-      <c r="AK4" s="238"/>
-      <c r="AL4" s="238"/>
-      <c r="AM4" s="238"/>
-      <c r="AN4" s="238"/>
-      <c r="AO4" s="238"/>
-      <c r="AP4" s="238"/>
-      <c r="AQ4" s="238"/>
-      <c r="AR4" s="238"/>
-      <c r="AS4" s="238"/>
-      <c r="AT4" s="238"/>
-      <c r="AU4" s="238"/>
-      <c r="AV4" s="238"/>
-      <c r="AW4" s="238"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="275"/>
+      <c r="S4" s="269"/>
+      <c r="T4" s="269"/>
+      <c r="U4" s="269"/>
+      <c r="V4" s="269"/>
+      <c r="W4" s="269"/>
+      <c r="X4" s="269"/>
+      <c r="Y4" s="269"/>
+      <c r="Z4" s="269"/>
+      <c r="AA4" s="269"/>
+      <c r="AB4" s="269"/>
+      <c r="AC4" s="269"/>
+      <c r="AD4" s="269"/>
+      <c r="AE4" s="269"/>
+      <c r="AF4" s="269"/>
+      <c r="AG4" s="269"/>
+      <c r="AH4" s="269"/>
+      <c r="AI4" s="269"/>
+      <c r="AJ4" s="269"/>
+      <c r="AK4" s="269"/>
+      <c r="AL4" s="269"/>
+      <c r="AM4" s="269"/>
+      <c r="AN4" s="269"/>
+      <c r="AO4" s="269"/>
+      <c r="AP4" s="269"/>
+      <c r="AQ4" s="269"/>
+      <c r="AR4" s="269"/>
+      <c r="AS4" s="269"/>
+      <c r="AT4" s="269"/>
+      <c r="AU4" s="269"/>
+      <c r="AV4" s="269"/>
+      <c r="AW4" s="269"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="246">
+      <c r="B5" s="261">
         <v>1</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="247">
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="242">
         <v>43735</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="248" t="s">
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="249"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="248" t="s">
+      <c r="K5" s="244"/>
+      <c r="L5" s="245"/>
+      <c r="M5" s="243" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="249"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="249"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="245" t="s">
+      <c r="N5" s="244"/>
+      <c r="O5" s="244"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="245"/>
+      <c r="S5" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="245"/>
-      <c r="U5" s="245"/>
-      <c r="V5" s="254" t="s">
+      <c r="T5" s="249"/>
+      <c r="U5" s="249"/>
+      <c r="V5" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="254"/>
-      <c r="X5" s="254"/>
-      <c r="Y5" s="254"/>
-      <c r="Z5" s="254"/>
-      <c r="AA5" s="254"/>
-      <c r="AB5" s="254"/>
-      <c r="AC5" s="254"/>
-      <c r="AD5" s="254"/>
-      <c r="AE5" s="254"/>
-      <c r="AF5" s="254"/>
-      <c r="AG5" s="254"/>
-      <c r="AH5" s="254"/>
-      <c r="AI5" s="254"/>
-      <c r="AJ5" s="254"/>
-      <c r="AK5" s="254"/>
-      <c r="AL5" s="254"/>
-      <c r="AM5" s="254"/>
-      <c r="AN5" s="245" t="s">
+      <c r="W5" s="260"/>
+      <c r="X5" s="260"/>
+      <c r="Y5" s="260"/>
+      <c r="Z5" s="260"/>
+      <c r="AA5" s="260"/>
+      <c r="AB5" s="260"/>
+      <c r="AC5" s="260"/>
+      <c r="AD5" s="260"/>
+      <c r="AE5" s="260"/>
+      <c r="AF5" s="260"/>
+      <c r="AG5" s="260"/>
+      <c r="AH5" s="260"/>
+      <c r="AI5" s="260"/>
+      <c r="AJ5" s="260"/>
+      <c r="AK5" s="260"/>
+      <c r="AL5" s="260"/>
+      <c r="AM5" s="260"/>
+      <c r="AN5" s="249" t="s">
         <v>146</v>
       </c>
-      <c r="AO5" s="245"/>
-      <c r="AP5" s="245"/>
-      <c r="AQ5" s="245"/>
-      <c r="AR5" s="245"/>
-      <c r="AS5" s="245"/>
-      <c r="AT5" s="245"/>
-      <c r="AU5" s="245"/>
-      <c r="AV5" s="245"/>
-      <c r="AW5" s="245"/>
+      <c r="AO5" s="249"/>
+      <c r="AP5" s="249"/>
+      <c r="AQ5" s="249"/>
+      <c r="AR5" s="249"/>
+      <c r="AS5" s="249"/>
+      <c r="AT5" s="249"/>
+      <c r="AU5" s="249"/>
+      <c r="AV5" s="249"/>
+      <c r="AW5" s="249"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="247"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="247"/>
-      <c r="H6" s="247"/>
-      <c r="I6" s="247"/>
-      <c r="J6" s="248"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="250"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="252"/>
-      <c r="O6" s="252"/>
-      <c r="P6" s="252"/>
-      <c r="Q6" s="252"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="245"/>
-      <c r="T6" s="245"/>
-      <c r="U6" s="245"/>
-      <c r="V6" s="254"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="254"/>
-      <c r="Z6" s="254"/>
-      <c r="AA6" s="254"/>
-      <c r="AB6" s="254"/>
-      <c r="AC6" s="254"/>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="254"/>
-      <c r="AF6" s="254"/>
-      <c r="AG6" s="254"/>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="254"/>
-      <c r="AJ6" s="254"/>
-      <c r="AK6" s="254"/>
-      <c r="AL6" s="254"/>
-      <c r="AM6" s="254"/>
-      <c r="AN6" s="245"/>
-      <c r="AO6" s="245"/>
-      <c r="AP6" s="245"/>
-      <c r="AQ6" s="245"/>
-      <c r="AR6" s="245"/>
-      <c r="AS6" s="245"/>
-      <c r="AT6" s="245"/>
-      <c r="AU6" s="245"/>
-      <c r="AV6" s="245"/>
-      <c r="AW6" s="245"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="265"/>
+      <c r="P6" s="265"/>
+      <c r="Q6" s="265"/>
+      <c r="R6" s="266"/>
+      <c r="S6" s="249"/>
+      <c r="T6" s="249"/>
+      <c r="U6" s="249"/>
+      <c r="V6" s="260"/>
+      <c r="W6" s="260"/>
+      <c r="X6" s="260"/>
+      <c r="Y6" s="260"/>
+      <c r="Z6" s="260"/>
+      <c r="AA6" s="260"/>
+      <c r="AB6" s="260"/>
+      <c r="AC6" s="260"/>
+      <c r="AD6" s="260"/>
+      <c r="AE6" s="260"/>
+      <c r="AF6" s="260"/>
+      <c r="AG6" s="260"/>
+      <c r="AH6" s="260"/>
+      <c r="AI6" s="260"/>
+      <c r="AJ6" s="260"/>
+      <c r="AK6" s="260"/>
+      <c r="AL6" s="260"/>
+      <c r="AM6" s="260"/>
+      <c r="AN6" s="249"/>
+      <c r="AO6" s="249"/>
+      <c r="AP6" s="249"/>
+      <c r="AQ6" s="249"/>
+      <c r="AR6" s="249"/>
+      <c r="AS6" s="249"/>
+      <c r="AT6" s="249"/>
+      <c r="AU6" s="249"/>
+      <c r="AV6" s="249"/>
+      <c r="AW6" s="249"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="248"/>
-      <c r="K7" s="249"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="252"/>
-      <c r="O7" s="252"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="252"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="245"/>
-      <c r="T7" s="245"/>
-      <c r="U7" s="245"/>
-      <c r="V7" s="254"/>
-      <c r="W7" s="254"/>
-      <c r="X7" s="254"/>
-      <c r="Y7" s="254"/>
-      <c r="Z7" s="254"/>
-      <c r="AA7" s="254"/>
-      <c r="AB7" s="254"/>
-      <c r="AC7" s="254"/>
-      <c r="AD7" s="254"/>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="254"/>
-      <c r="AG7" s="254"/>
-      <c r="AH7" s="254"/>
-      <c r="AI7" s="254"/>
-      <c r="AJ7" s="254"/>
-      <c r="AK7" s="254"/>
-      <c r="AL7" s="254"/>
-      <c r="AM7" s="254"/>
-      <c r="AN7" s="245"/>
-      <c r="AO7" s="245"/>
-      <c r="AP7" s="245"/>
-      <c r="AQ7" s="245"/>
-      <c r="AR7" s="245"/>
-      <c r="AS7" s="245"/>
-      <c r="AT7" s="245"/>
-      <c r="AU7" s="245"/>
-      <c r="AV7" s="245"/>
-      <c r="AW7" s="245"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="265"/>
+      <c r="Q7" s="265"/>
+      <c r="R7" s="266"/>
+      <c r="S7" s="249"/>
+      <c r="T7" s="249"/>
+      <c r="U7" s="249"/>
+      <c r="V7" s="260"/>
+      <c r="W7" s="260"/>
+      <c r="X7" s="260"/>
+      <c r="Y7" s="260"/>
+      <c r="Z7" s="260"/>
+      <c r="AA7" s="260"/>
+      <c r="AB7" s="260"/>
+      <c r="AC7" s="260"/>
+      <c r="AD7" s="260"/>
+      <c r="AE7" s="260"/>
+      <c r="AF7" s="260"/>
+      <c r="AG7" s="260"/>
+      <c r="AH7" s="260"/>
+      <c r="AI7" s="260"/>
+      <c r="AJ7" s="260"/>
+      <c r="AK7" s="260"/>
+      <c r="AL7" s="260"/>
+      <c r="AM7" s="260"/>
+      <c r="AN7" s="249"/>
+      <c r="AO7" s="249"/>
+      <c r="AP7" s="249"/>
+      <c r="AQ7" s="249"/>
+      <c r="AR7" s="249"/>
+      <c r="AS7" s="249"/>
+      <c r="AT7" s="249"/>
+      <c r="AU7" s="249"/>
+      <c r="AV7" s="249"/>
+      <c r="AW7" s="249"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="251"/>
-      <c r="N8" s="252"/>
-      <c r="O8" s="252"/>
-      <c r="P8" s="252"/>
-      <c r="Q8" s="252"/>
-      <c r="R8" s="253"/>
-      <c r="S8" s="245"/>
-      <c r="T8" s="245"/>
-      <c r="U8" s="245"/>
-      <c r="V8" s="254"/>
-      <c r="W8" s="254"/>
-      <c r="X8" s="254"/>
-      <c r="Y8" s="254"/>
-      <c r="Z8" s="254"/>
-      <c r="AA8" s="254"/>
-      <c r="AB8" s="254"/>
-      <c r="AC8" s="254"/>
-      <c r="AD8" s="254"/>
-      <c r="AE8" s="254"/>
-      <c r="AF8" s="254"/>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="254"/>
-      <c r="AJ8" s="254"/>
-      <c r="AK8" s="254"/>
-      <c r="AL8" s="254"/>
-      <c r="AM8" s="254"/>
-      <c r="AN8" s="245"/>
-      <c r="AO8" s="245"/>
-      <c r="AP8" s="245"/>
-      <c r="AQ8" s="245"/>
-      <c r="AR8" s="245"/>
-      <c r="AS8" s="245"/>
-      <c r="AT8" s="245"/>
-      <c r="AU8" s="245"/>
-      <c r="AV8" s="245"/>
-      <c r="AW8" s="245"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="249"/>
+      <c r="T8" s="249"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="260"/>
+      <c r="W8" s="260"/>
+      <c r="X8" s="260"/>
+      <c r="Y8" s="260"/>
+      <c r="Z8" s="260"/>
+      <c r="AA8" s="260"/>
+      <c r="AB8" s="260"/>
+      <c r="AC8" s="260"/>
+      <c r="AD8" s="260"/>
+      <c r="AE8" s="260"/>
+      <c r="AF8" s="260"/>
+      <c r="AG8" s="260"/>
+      <c r="AH8" s="260"/>
+      <c r="AI8" s="260"/>
+      <c r="AJ8" s="260"/>
+      <c r="AK8" s="260"/>
+      <c r="AL8" s="260"/>
+      <c r="AM8" s="260"/>
+      <c r="AN8" s="249"/>
+      <c r="AO8" s="249"/>
+      <c r="AP8" s="249"/>
+      <c r="AQ8" s="249"/>
+      <c r="AR8" s="249"/>
+      <c r="AS8" s="249"/>
+      <c r="AT8" s="249"/>
+      <c r="AU8" s="249"/>
+      <c r="AV8" s="249"/>
+      <c r="AW8" s="249"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="250"/>
-      <c r="M9" s="251"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="252"/>
-      <c r="P9" s="252"/>
-      <c r="Q9" s="252"/>
-      <c r="R9" s="253"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-      <c r="U9" s="245"/>
-      <c r="V9" s="254"/>
-      <c r="W9" s="254"/>
-      <c r="X9" s="254"/>
-      <c r="Y9" s="254"/>
-      <c r="Z9" s="254"/>
-      <c r="AA9" s="254"/>
-      <c r="AB9" s="254"/>
-      <c r="AC9" s="254"/>
-      <c r="AD9" s="254"/>
-      <c r="AE9" s="254"/>
-      <c r="AF9" s="254"/>
-      <c r="AG9" s="254"/>
-      <c r="AH9" s="254"/>
-      <c r="AI9" s="254"/>
-      <c r="AJ9" s="254"/>
-      <c r="AK9" s="254"/>
-      <c r="AL9" s="254"/>
-      <c r="AM9" s="254"/>
-      <c r="AN9" s="245"/>
-      <c r="AO9" s="245"/>
-      <c r="AP9" s="245"/>
-      <c r="AQ9" s="245"/>
-      <c r="AR9" s="245"/>
-      <c r="AS9" s="245"/>
-      <c r="AT9" s="245"/>
-      <c r="AU9" s="245"/>
-      <c r="AV9" s="245"/>
-      <c r="AW9" s="245"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="261"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="245"/>
+      <c r="M9" s="264"/>
+      <c r="N9" s="265"/>
+      <c r="O9" s="265"/>
+      <c r="P9" s="265"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="249"/>
+      <c r="T9" s="249"/>
+      <c r="U9" s="249"/>
+      <c r="V9" s="260"/>
+      <c r="W9" s="260"/>
+      <c r="X9" s="260"/>
+      <c r="Y9" s="260"/>
+      <c r="Z9" s="260"/>
+      <c r="AA9" s="260"/>
+      <c r="AB9" s="260"/>
+      <c r="AC9" s="260"/>
+      <c r="AD9" s="260"/>
+      <c r="AE9" s="260"/>
+      <c r="AF9" s="260"/>
+      <c r="AG9" s="260"/>
+      <c r="AH9" s="260"/>
+      <c r="AI9" s="260"/>
+      <c r="AJ9" s="260"/>
+      <c r="AK9" s="260"/>
+      <c r="AL9" s="260"/>
+      <c r="AM9" s="260"/>
+      <c r="AN9" s="249"/>
+      <c r="AO9" s="249"/>
+      <c r="AP9" s="249"/>
+      <c r="AQ9" s="249"/>
+      <c r="AR9" s="249"/>
+      <c r="AS9" s="249"/>
+      <c r="AT9" s="249"/>
+      <c r="AU9" s="249"/>
+      <c r="AV9" s="249"/>
+      <c r="AW9" s="249"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="248"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="250"/>
-      <c r="M10" s="251"/>
-      <c r="N10" s="252"/>
-      <c r="O10" s="252"/>
-      <c r="P10" s="252"/>
-      <c r="Q10" s="252"/>
-      <c r="R10" s="253"/>
-      <c r="S10" s="245"/>
-      <c r="T10" s="245"/>
-      <c r="U10" s="245"/>
-      <c r="V10" s="254"/>
-      <c r="W10" s="254"/>
-      <c r="X10" s="254"/>
-      <c r="Y10" s="254"/>
-      <c r="Z10" s="254"/>
-      <c r="AA10" s="254"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="254"/>
-      <c r="AD10" s="254"/>
-      <c r="AE10" s="254"/>
-      <c r="AF10" s="254"/>
-      <c r="AG10" s="254"/>
-      <c r="AH10" s="254"/>
-      <c r="AI10" s="254"/>
-      <c r="AJ10" s="254"/>
-      <c r="AK10" s="254"/>
-      <c r="AL10" s="254"/>
-      <c r="AM10" s="254"/>
-      <c r="AN10" s="245"/>
-      <c r="AO10" s="245"/>
-      <c r="AP10" s="245"/>
-      <c r="AQ10" s="245"/>
-      <c r="AR10" s="245"/>
-      <c r="AS10" s="245"/>
-      <c r="AT10" s="245"/>
-      <c r="AU10" s="245"/>
-      <c r="AV10" s="245"/>
-      <c r="AW10" s="245"/>
+      <c r="B10" s="261"/>
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="245"/>
+      <c r="M10" s="264"/>
+      <c r="N10" s="265"/>
+      <c r="O10" s="265"/>
+      <c r="P10" s="265"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="249"/>
+      <c r="T10" s="249"/>
+      <c r="U10" s="249"/>
+      <c r="V10" s="260"/>
+      <c r="W10" s="260"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="260"/>
+      <c r="Z10" s="260"/>
+      <c r="AA10" s="260"/>
+      <c r="AB10" s="260"/>
+      <c r="AC10" s="260"/>
+      <c r="AD10" s="260"/>
+      <c r="AE10" s="260"/>
+      <c r="AF10" s="260"/>
+      <c r="AG10" s="260"/>
+      <c r="AH10" s="260"/>
+      <c r="AI10" s="260"/>
+      <c r="AJ10" s="260"/>
+      <c r="AK10" s="260"/>
+      <c r="AL10" s="260"/>
+      <c r="AM10" s="260"/>
+      <c r="AN10" s="249"/>
+      <c r="AO10" s="249"/>
+      <c r="AP10" s="249"/>
+      <c r="AQ10" s="249"/>
+      <c r="AR10" s="249"/>
+      <c r="AS10" s="249"/>
+      <c r="AT10" s="249"/>
+      <c r="AU10" s="249"/>
+      <c r="AV10" s="249"/>
+      <c r="AW10" s="249"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="248"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="245"/>
-      <c r="T11" s="245"/>
-      <c r="U11" s="245"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="267"/>
-      <c r="X11" s="267"/>
-      <c r="Y11" s="267"/>
-      <c r="Z11" s="267"/>
-      <c r="AA11" s="267"/>
-      <c r="AB11" s="267"/>
-      <c r="AC11" s="267"/>
-      <c r="AD11" s="267"/>
-      <c r="AE11" s="267"/>
-      <c r="AF11" s="267"/>
-      <c r="AG11" s="267"/>
-      <c r="AH11" s="267"/>
-      <c r="AI11" s="267"/>
-      <c r="AJ11" s="267"/>
-      <c r="AK11" s="267"/>
-      <c r="AL11" s="267"/>
-      <c r="AM11" s="268"/>
-      <c r="AN11" s="245"/>
-      <c r="AO11" s="245"/>
-      <c r="AP11" s="245"/>
-      <c r="AQ11" s="245"/>
-      <c r="AR11" s="245"/>
-      <c r="AS11" s="245"/>
-      <c r="AT11" s="245"/>
-      <c r="AU11" s="245"/>
-      <c r="AV11" s="245"/>
-      <c r="AW11" s="245"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="254"/>
+      <c r="O11" s="254"/>
+      <c r="P11" s="254"/>
+      <c r="Q11" s="254"/>
+      <c r="R11" s="255"/>
+      <c r="S11" s="249"/>
+      <c r="T11" s="249"/>
+      <c r="U11" s="249"/>
+      <c r="V11" s="250"/>
+      <c r="W11" s="262"/>
+      <c r="X11" s="262"/>
+      <c r="Y11" s="262"/>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="262"/>
+      <c r="AD11" s="262"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="262"/>
+      <c r="AH11" s="262"/>
+      <c r="AI11" s="262"/>
+      <c r="AJ11" s="262"/>
+      <c r="AK11" s="262"/>
+      <c r="AL11" s="262"/>
+      <c r="AM11" s="263"/>
+      <c r="AN11" s="249"/>
+      <c r="AO11" s="249"/>
+      <c r="AP11" s="249"/>
+      <c r="AQ11" s="249"/>
+      <c r="AR11" s="249"/>
+      <c r="AS11" s="249"/>
+      <c r="AT11" s="249"/>
+      <c r="AU11" s="249"/>
+      <c r="AV11" s="249"/>
+      <c r="AW11" s="249"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="255"/>
-      <c r="C12" s="256"/>
-      <c r="D12" s="257"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="248"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="260"/>
-      <c r="S12" s="245"/>
-      <c r="T12" s="245"/>
-      <c r="U12" s="245"/>
-      <c r="V12" s="261"/>
-      <c r="W12" s="262"/>
-      <c r="X12" s="262"/>
-      <c r="Y12" s="262"/>
-      <c r="Z12" s="262"/>
-      <c r="AA12" s="262"/>
-      <c r="AB12" s="262"/>
-      <c r="AC12" s="262"/>
-      <c r="AD12" s="262"/>
-      <c r="AE12" s="262"/>
-      <c r="AF12" s="262"/>
-      <c r="AG12" s="262"/>
-      <c r="AH12" s="262"/>
-      <c r="AI12" s="262"/>
-      <c r="AJ12" s="262"/>
-      <c r="AK12" s="262"/>
-      <c r="AL12" s="262"/>
-      <c r="AM12" s="263"/>
-      <c r="AN12" s="264"/>
-      <c r="AO12" s="265"/>
-      <c r="AP12" s="265"/>
-      <c r="AQ12" s="265"/>
-      <c r="AR12" s="266"/>
-      <c r="AS12" s="264"/>
-      <c r="AT12" s="265"/>
-      <c r="AU12" s="265"/>
-      <c r="AV12" s="265"/>
-      <c r="AW12" s="266"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="245"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="254"/>
+      <c r="O12" s="254"/>
+      <c r="P12" s="254"/>
+      <c r="Q12" s="254"/>
+      <c r="R12" s="255"/>
+      <c r="S12" s="249"/>
+      <c r="T12" s="249"/>
+      <c r="U12" s="249"/>
+      <c r="V12" s="250"/>
+      <c r="W12" s="251"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="251"/>
+      <c r="Z12" s="251"/>
+      <c r="AA12" s="251"/>
+      <c r="AB12" s="251"/>
+      <c r="AC12" s="251"/>
+      <c r="AD12" s="251"/>
+      <c r="AE12" s="251"/>
+      <c r="AF12" s="251"/>
+      <c r="AG12" s="251"/>
+      <c r="AH12" s="251"/>
+      <c r="AI12" s="251"/>
+      <c r="AJ12" s="251"/>
+      <c r="AK12" s="251"/>
+      <c r="AL12" s="251"/>
+      <c r="AM12" s="252"/>
+      <c r="AN12" s="236"/>
+      <c r="AO12" s="237"/>
+      <c r="AP12" s="237"/>
+      <c r="AQ12" s="237"/>
+      <c r="AR12" s="238"/>
+      <c r="AS12" s="236"/>
+      <c r="AT12" s="237"/>
+      <c r="AU12" s="237"/>
+      <c r="AV12" s="237"/>
+      <c r="AW12" s="238"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="255"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="257"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="259"/>
-      <c r="O13" s="259"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="260"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="245"/>
-      <c r="U13" s="245"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="262"/>
-      <c r="X13" s="262"/>
-      <c r="Y13" s="262"/>
-      <c r="Z13" s="262"/>
-      <c r="AA13" s="262"/>
-      <c r="AB13" s="262"/>
-      <c r="AC13" s="262"/>
-      <c r="AD13" s="262"/>
-      <c r="AE13" s="262"/>
-      <c r="AF13" s="262"/>
-      <c r="AG13" s="262"/>
-      <c r="AH13" s="262"/>
-      <c r="AI13" s="262"/>
-      <c r="AJ13" s="262"/>
-      <c r="AK13" s="262"/>
-      <c r="AL13" s="262"/>
-      <c r="AM13" s="263"/>
-      <c r="AN13" s="264"/>
-      <c r="AO13" s="265"/>
-      <c r="AP13" s="265"/>
-      <c r="AQ13" s="265"/>
-      <c r="AR13" s="266"/>
-      <c r="AS13" s="264"/>
-      <c r="AT13" s="265"/>
-      <c r="AU13" s="265"/>
-      <c r="AV13" s="265"/>
-      <c r="AW13" s="266"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="254"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="254"/>
+      <c r="Q13" s="254"/>
+      <c r="R13" s="255"/>
+      <c r="S13" s="249"/>
+      <c r="T13" s="249"/>
+      <c r="U13" s="249"/>
+      <c r="V13" s="250"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
+      <c r="Y13" s="251"/>
+      <c r="Z13" s="251"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="251"/>
+      <c r="AC13" s="251"/>
+      <c r="AD13" s="251"/>
+      <c r="AE13" s="251"/>
+      <c r="AF13" s="251"/>
+      <c r="AG13" s="251"/>
+      <c r="AH13" s="251"/>
+      <c r="AI13" s="251"/>
+      <c r="AJ13" s="251"/>
+      <c r="AK13" s="251"/>
+      <c r="AL13" s="251"/>
+      <c r="AM13" s="252"/>
+      <c r="AN13" s="236"/>
+      <c r="AO13" s="237"/>
+      <c r="AP13" s="237"/>
+      <c r="AQ13" s="237"/>
+      <c r="AR13" s="238"/>
+      <c r="AS13" s="236"/>
+      <c r="AT13" s="237"/>
+      <c r="AU13" s="237"/>
+      <c r="AV13" s="237"/>
+      <c r="AW13" s="238"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="255"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="257"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="249"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="269"/>
-      <c r="N14" s="259"/>
-      <c r="O14" s="259"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="259"/>
-      <c r="R14" s="260"/>
-      <c r="S14" s="245"/>
-      <c r="T14" s="245"/>
-      <c r="U14" s="245"/>
-      <c r="V14" s="270"/>
-      <c r="W14" s="254"/>
-      <c r="X14" s="254"/>
-      <c r="Y14" s="254"/>
-      <c r="Z14" s="254"/>
-      <c r="AA14" s="254"/>
-      <c r="AB14" s="254"/>
-      <c r="AC14" s="254"/>
-      <c r="AD14" s="254"/>
-      <c r="AE14" s="254"/>
-      <c r="AF14" s="254"/>
-      <c r="AG14" s="254"/>
-      <c r="AH14" s="254"/>
-      <c r="AI14" s="254"/>
-      <c r="AJ14" s="254"/>
-      <c r="AK14" s="254"/>
-      <c r="AL14" s="254"/>
-      <c r="AM14" s="254"/>
-      <c r="AN14" s="245"/>
-      <c r="AO14" s="245"/>
-      <c r="AP14" s="245"/>
-      <c r="AQ14" s="245"/>
-      <c r="AR14" s="245"/>
-      <c r="AS14" s="264"/>
-      <c r="AT14" s="265"/>
-      <c r="AU14" s="265"/>
-      <c r="AV14" s="265"/>
-      <c r="AW14" s="266"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="244"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="254"/>
+      <c r="O14" s="254"/>
+      <c r="P14" s="254"/>
+      <c r="Q14" s="254"/>
+      <c r="R14" s="255"/>
+      <c r="S14" s="249"/>
+      <c r="T14" s="249"/>
+      <c r="U14" s="249"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="260"/>
+      <c r="X14" s="260"/>
+      <c r="Y14" s="260"/>
+      <c r="Z14" s="260"/>
+      <c r="AA14" s="260"/>
+      <c r="AB14" s="260"/>
+      <c r="AC14" s="260"/>
+      <c r="AD14" s="260"/>
+      <c r="AE14" s="260"/>
+      <c r="AF14" s="260"/>
+      <c r="AG14" s="260"/>
+      <c r="AH14" s="260"/>
+      <c r="AI14" s="260"/>
+      <c r="AJ14" s="260"/>
+      <c r="AK14" s="260"/>
+      <c r="AL14" s="260"/>
+      <c r="AM14" s="260"/>
+      <c r="AN14" s="249"/>
+      <c r="AO14" s="249"/>
+      <c r="AP14" s="249"/>
+      <c r="AQ14" s="249"/>
+      <c r="AR14" s="249"/>
+      <c r="AS14" s="236"/>
+      <c r="AT14" s="237"/>
+      <c r="AU14" s="237"/>
+      <c r="AV14" s="237"/>
+      <c r="AW14" s="238"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="255"/>
-      <c r="C15" s="256"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="248"/>
-      <c r="K15" s="249"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="259"/>
-      <c r="O15" s="259"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="260"/>
-      <c r="S15" s="245"/>
-      <c r="T15" s="245"/>
-      <c r="U15" s="245"/>
-      <c r="V15" s="261"/>
-      <c r="W15" s="262"/>
-      <c r="X15" s="262"/>
-      <c r="Y15" s="262"/>
-      <c r="Z15" s="262"/>
-      <c r="AA15" s="262"/>
-      <c r="AB15" s="262"/>
-      <c r="AC15" s="262"/>
-      <c r="AD15" s="262"/>
-      <c r="AE15" s="262"/>
-      <c r="AF15" s="262"/>
-      <c r="AG15" s="262"/>
-      <c r="AH15" s="262"/>
-      <c r="AI15" s="262"/>
-      <c r="AJ15" s="262"/>
-      <c r="AK15" s="262"/>
-      <c r="AL15" s="262"/>
-      <c r="AM15" s="263"/>
-      <c r="AN15" s="264"/>
-      <c r="AO15" s="265"/>
-      <c r="AP15" s="265"/>
-      <c r="AQ15" s="265"/>
-      <c r="AR15" s="266"/>
-      <c r="AS15" s="264"/>
-      <c r="AT15" s="265"/>
-      <c r="AU15" s="265"/>
-      <c r="AV15" s="265"/>
-      <c r="AW15" s="266"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="240"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="254"/>
+      <c r="O15" s="254"/>
+      <c r="P15" s="254"/>
+      <c r="Q15" s="254"/>
+      <c r="R15" s="255"/>
+      <c r="S15" s="249"/>
+      <c r="T15" s="249"/>
+      <c r="U15" s="249"/>
+      <c r="V15" s="250"/>
+      <c r="W15" s="251"/>
+      <c r="X15" s="251"/>
+      <c r="Y15" s="251"/>
+      <c r="Z15" s="251"/>
+      <c r="AA15" s="251"/>
+      <c r="AB15" s="251"/>
+      <c r="AC15" s="251"/>
+      <c r="AD15" s="251"/>
+      <c r="AE15" s="251"/>
+      <c r="AF15" s="251"/>
+      <c r="AG15" s="251"/>
+      <c r="AH15" s="251"/>
+      <c r="AI15" s="251"/>
+      <c r="AJ15" s="251"/>
+      <c r="AK15" s="251"/>
+      <c r="AL15" s="251"/>
+      <c r="AM15" s="252"/>
+      <c r="AN15" s="236"/>
+      <c r="AO15" s="237"/>
+      <c r="AP15" s="237"/>
+      <c r="AQ15" s="237"/>
+      <c r="AR15" s="238"/>
+      <c r="AS15" s="236"/>
+      <c r="AT15" s="237"/>
+      <c r="AU15" s="237"/>
+      <c r="AV15" s="237"/>
+      <c r="AW15" s="238"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="255"/>
-      <c r="C16" s="256"/>
-      <c r="D16" s="257"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="248"/>
-      <c r="K16" s="249"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="260"/>
-      <c r="S16" s="245"/>
-      <c r="T16" s="245"/>
-      <c r="U16" s="245"/>
-      <c r="V16" s="261"/>
-      <c r="W16" s="262"/>
-      <c r="X16" s="262"/>
-      <c r="Y16" s="262"/>
-      <c r="Z16" s="262"/>
-      <c r="AA16" s="262"/>
-      <c r="AB16" s="262"/>
-      <c r="AC16" s="262"/>
-      <c r="AD16" s="262"/>
-      <c r="AE16" s="262"/>
-      <c r="AF16" s="262"/>
-      <c r="AG16" s="262"/>
-      <c r="AH16" s="262"/>
-      <c r="AI16" s="262"/>
-      <c r="AJ16" s="262"/>
-      <c r="AK16" s="262"/>
-      <c r="AL16" s="262"/>
-      <c r="AM16" s="263"/>
-      <c r="AN16" s="264"/>
-      <c r="AO16" s="265"/>
-      <c r="AP16" s="265"/>
-      <c r="AQ16" s="265"/>
-      <c r="AR16" s="266"/>
-      <c r="AS16" s="264"/>
-      <c r="AT16" s="265"/>
-      <c r="AU16" s="265"/>
-      <c r="AV16" s="265"/>
-      <c r="AW16" s="266"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="254"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="254"/>
+      <c r="R16" s="255"/>
+      <c r="S16" s="249"/>
+      <c r="T16" s="249"/>
+      <c r="U16" s="249"/>
+      <c r="V16" s="250"/>
+      <c r="W16" s="251"/>
+      <c r="X16" s="251"/>
+      <c r="Y16" s="251"/>
+      <c r="Z16" s="251"/>
+      <c r="AA16" s="251"/>
+      <c r="AB16" s="251"/>
+      <c r="AC16" s="251"/>
+      <c r="AD16" s="251"/>
+      <c r="AE16" s="251"/>
+      <c r="AF16" s="251"/>
+      <c r="AG16" s="251"/>
+      <c r="AH16" s="251"/>
+      <c r="AI16" s="251"/>
+      <c r="AJ16" s="251"/>
+      <c r="AK16" s="251"/>
+      <c r="AL16" s="251"/>
+      <c r="AM16" s="252"/>
+      <c r="AN16" s="236"/>
+      <c r="AO16" s="237"/>
+      <c r="AP16" s="237"/>
+      <c r="AQ16" s="237"/>
+      <c r="AR16" s="238"/>
+      <c r="AS16" s="236"/>
+      <c r="AT16" s="237"/>
+      <c r="AU16" s="237"/>
+      <c r="AV16" s="237"/>
+      <c r="AW16" s="238"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="255"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="257"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="248"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="259"/>
-      <c r="O17" s="259"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="259"/>
-      <c r="R17" s="271"/>
-      <c r="S17" s="272"/>
-      <c r="T17" s="272"/>
-      <c r="U17" s="272"/>
-      <c r="V17" s="261"/>
-      <c r="W17" s="262"/>
-      <c r="X17" s="262"/>
-      <c r="Y17" s="262"/>
-      <c r="Z17" s="262"/>
-      <c r="AA17" s="262"/>
-      <c r="AB17" s="262"/>
-      <c r="AC17" s="262"/>
-      <c r="AD17" s="262"/>
-      <c r="AE17" s="262"/>
-      <c r="AF17" s="262"/>
-      <c r="AG17" s="262"/>
-      <c r="AH17" s="262"/>
-      <c r="AI17" s="262"/>
-      <c r="AJ17" s="262"/>
-      <c r="AK17" s="262"/>
-      <c r="AL17" s="262"/>
-      <c r="AM17" s="263"/>
-      <c r="AN17" s="264"/>
-      <c r="AO17" s="265"/>
-      <c r="AP17" s="265"/>
-      <c r="AQ17" s="265"/>
-      <c r="AR17" s="266"/>
-      <c r="AS17" s="264"/>
-      <c r="AT17" s="265"/>
-      <c r="AU17" s="265"/>
-      <c r="AV17" s="265"/>
-      <c r="AW17" s="266"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="243"/>
+      <c r="K17" s="244"/>
+      <c r="L17" s="245"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="254"/>
+      <c r="O17" s="254"/>
+      <c r="P17" s="254"/>
+      <c r="Q17" s="254"/>
+      <c r="R17" s="257"/>
+      <c r="S17" s="258"/>
+      <c r="T17" s="258"/>
+      <c r="U17" s="258"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="251"/>
+      <c r="X17" s="251"/>
+      <c r="Y17" s="251"/>
+      <c r="Z17" s="251"/>
+      <c r="AA17" s="251"/>
+      <c r="AB17" s="251"/>
+      <c r="AC17" s="251"/>
+      <c r="AD17" s="251"/>
+      <c r="AE17" s="251"/>
+      <c r="AF17" s="251"/>
+      <c r="AG17" s="251"/>
+      <c r="AH17" s="251"/>
+      <c r="AI17" s="251"/>
+      <c r="AJ17" s="251"/>
+      <c r="AK17" s="251"/>
+      <c r="AL17" s="251"/>
+      <c r="AM17" s="252"/>
+      <c r="AN17" s="236"/>
+      <c r="AO17" s="237"/>
+      <c r="AP17" s="237"/>
+      <c r="AQ17" s="237"/>
+      <c r="AR17" s="238"/>
+      <c r="AS17" s="236"/>
+      <c r="AT17" s="237"/>
+      <c r="AU17" s="237"/>
+      <c r="AV17" s="237"/>
+      <c r="AW17" s="238"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="255"/>
-      <c r="C18" s="256"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
-      <c r="G18" s="247"/>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="248"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="269"/>
-      <c r="N18" s="259"/>
-      <c r="O18" s="259"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="259"/>
-      <c r="R18" s="260"/>
-      <c r="S18" s="245"/>
-      <c r="T18" s="245"/>
-      <c r="U18" s="245"/>
-      <c r="V18" s="261"/>
-      <c r="W18" s="262"/>
-      <c r="X18" s="262"/>
-      <c r="Y18" s="262"/>
-      <c r="Z18" s="262"/>
-      <c r="AA18" s="262"/>
-      <c r="AB18" s="262"/>
-      <c r="AC18" s="262"/>
-      <c r="AD18" s="262"/>
-      <c r="AE18" s="262"/>
-      <c r="AF18" s="262"/>
-      <c r="AG18" s="262"/>
-      <c r="AH18" s="262"/>
-      <c r="AI18" s="262"/>
-      <c r="AJ18" s="262"/>
-      <c r="AK18" s="262"/>
-      <c r="AL18" s="262"/>
-      <c r="AM18" s="263"/>
-      <c r="AN18" s="264"/>
-      <c r="AO18" s="265"/>
-      <c r="AP18" s="265"/>
-      <c r="AQ18" s="265"/>
-      <c r="AR18" s="266"/>
-      <c r="AS18" s="264"/>
-      <c r="AT18" s="265"/>
-      <c r="AU18" s="265"/>
-      <c r="AV18" s="265"/>
-      <c r="AW18" s="266"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="241"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="253"/>
+      <c r="N18" s="254"/>
+      <c r="O18" s="254"/>
+      <c r="P18" s="254"/>
+      <c r="Q18" s="254"/>
+      <c r="R18" s="255"/>
+      <c r="S18" s="249"/>
+      <c r="T18" s="249"/>
+      <c r="U18" s="249"/>
+      <c r="V18" s="250"/>
+      <c r="W18" s="251"/>
+      <c r="X18" s="251"/>
+      <c r="Y18" s="251"/>
+      <c r="Z18" s="251"/>
+      <c r="AA18" s="251"/>
+      <c r="AB18" s="251"/>
+      <c r="AC18" s="251"/>
+      <c r="AD18" s="251"/>
+      <c r="AE18" s="251"/>
+      <c r="AF18" s="251"/>
+      <c r="AG18" s="251"/>
+      <c r="AH18" s="251"/>
+      <c r="AI18" s="251"/>
+      <c r="AJ18" s="251"/>
+      <c r="AK18" s="251"/>
+      <c r="AL18" s="251"/>
+      <c r="AM18" s="252"/>
+      <c r="AN18" s="236"/>
+      <c r="AO18" s="237"/>
+      <c r="AP18" s="237"/>
+      <c r="AQ18" s="237"/>
+      <c r="AR18" s="238"/>
+      <c r="AS18" s="236"/>
+      <c r="AT18" s="237"/>
+      <c r="AU18" s="237"/>
+      <c r="AV18" s="237"/>
+      <c r="AW18" s="238"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="255"/>
-      <c r="C19" s="256"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="247"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="259"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="260"/>
-      <c r="S19" s="245"/>
-      <c r="T19" s="245"/>
-      <c r="U19" s="245"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="262"/>
-      <c r="X19" s="262"/>
-      <c r="Y19" s="262"/>
-      <c r="Z19" s="262"/>
-      <c r="AA19" s="262"/>
-      <c r="AB19" s="262"/>
-      <c r="AC19" s="262"/>
-      <c r="AD19" s="262"/>
-      <c r="AE19" s="262"/>
-      <c r="AF19" s="262"/>
-      <c r="AG19" s="262"/>
-      <c r="AH19" s="262"/>
-      <c r="AI19" s="262"/>
-      <c r="AJ19" s="262"/>
-      <c r="AK19" s="262"/>
-      <c r="AL19" s="262"/>
-      <c r="AM19" s="263"/>
-      <c r="AN19" s="245"/>
-      <c r="AO19" s="245"/>
-      <c r="AP19" s="245"/>
-      <c r="AQ19" s="245"/>
-      <c r="AR19" s="245"/>
-      <c r="AS19" s="264"/>
-      <c r="AT19" s="265"/>
-      <c r="AU19" s="265"/>
-      <c r="AV19" s="265"/>
-      <c r="AW19" s="266"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="256"/>
+      <c r="N19" s="254"/>
+      <c r="O19" s="254"/>
+      <c r="P19" s="254"/>
+      <c r="Q19" s="254"/>
+      <c r="R19" s="255"/>
+      <c r="S19" s="249"/>
+      <c r="T19" s="249"/>
+      <c r="U19" s="249"/>
+      <c r="V19" s="250"/>
+      <c r="W19" s="251"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="251"/>
+      <c r="Z19" s="251"/>
+      <c r="AA19" s="251"/>
+      <c r="AB19" s="251"/>
+      <c r="AC19" s="251"/>
+      <c r="AD19" s="251"/>
+      <c r="AE19" s="251"/>
+      <c r="AF19" s="251"/>
+      <c r="AG19" s="251"/>
+      <c r="AH19" s="251"/>
+      <c r="AI19" s="251"/>
+      <c r="AJ19" s="251"/>
+      <c r="AK19" s="251"/>
+      <c r="AL19" s="251"/>
+      <c r="AM19" s="252"/>
+      <c r="AN19" s="249"/>
+      <c r="AO19" s="249"/>
+      <c r="AP19" s="249"/>
+      <c r="AQ19" s="249"/>
+      <c r="AR19" s="249"/>
+      <c r="AS19" s="236"/>
+      <c r="AT19" s="237"/>
+      <c r="AU19" s="237"/>
+      <c r="AV19" s="237"/>
+      <c r="AW19" s="238"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="255"/>
-      <c r="C20" s="256"/>
-      <c r="D20" s="257"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="248"/>
-      <c r="K20" s="249"/>
-      <c r="L20" s="250"/>
-      <c r="M20" s="258"/>
-      <c r="N20" s="259"/>
-      <c r="O20" s="259"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="260"/>
-      <c r="S20" s="264"/>
-      <c r="T20" s="265"/>
-      <c r="U20" s="266"/>
-      <c r="V20" s="261"/>
-      <c r="W20" s="262"/>
-      <c r="X20" s="262"/>
-      <c r="Y20" s="262"/>
-      <c r="Z20" s="262"/>
-      <c r="AA20" s="262"/>
-      <c r="AB20" s="262"/>
-      <c r="AC20" s="262"/>
-      <c r="AD20" s="262"/>
-      <c r="AE20" s="262"/>
-      <c r="AF20" s="262"/>
-      <c r="AG20" s="262"/>
-      <c r="AH20" s="262"/>
-      <c r="AI20" s="262"/>
-      <c r="AJ20" s="262"/>
-      <c r="AK20" s="262"/>
-      <c r="AL20" s="262"/>
-      <c r="AM20" s="263"/>
-      <c r="AN20" s="264"/>
-      <c r="AO20" s="265"/>
-      <c r="AP20" s="265"/>
-      <c r="AQ20" s="265"/>
-      <c r="AR20" s="266"/>
-      <c r="AS20" s="264"/>
-      <c r="AT20" s="265"/>
-      <c r="AU20" s="265"/>
-      <c r="AV20" s="265"/>
-      <c r="AW20" s="266"/>
+      <c r="B20" s="239"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="242"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="256"/>
+      <c r="N20" s="254"/>
+      <c r="O20" s="254"/>
+      <c r="P20" s="254"/>
+      <c r="Q20" s="254"/>
+      <c r="R20" s="255"/>
+      <c r="S20" s="236"/>
+      <c r="T20" s="237"/>
+      <c r="U20" s="238"/>
+      <c r="V20" s="250"/>
+      <c r="W20" s="251"/>
+      <c r="X20" s="251"/>
+      <c r="Y20" s="251"/>
+      <c r="Z20" s="251"/>
+      <c r="AA20" s="251"/>
+      <c r="AB20" s="251"/>
+      <c r="AC20" s="251"/>
+      <c r="AD20" s="251"/>
+      <c r="AE20" s="251"/>
+      <c r="AF20" s="251"/>
+      <c r="AG20" s="251"/>
+      <c r="AH20" s="251"/>
+      <c r="AI20" s="251"/>
+      <c r="AJ20" s="251"/>
+      <c r="AK20" s="251"/>
+      <c r="AL20" s="251"/>
+      <c r="AM20" s="252"/>
+      <c r="AN20" s="236"/>
+      <c r="AO20" s="237"/>
+      <c r="AP20" s="237"/>
+      <c r="AQ20" s="237"/>
+      <c r="AR20" s="238"/>
+      <c r="AS20" s="236"/>
+      <c r="AT20" s="237"/>
+      <c r="AU20" s="237"/>
+      <c r="AV20" s="237"/>
+      <c r="AW20" s="238"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="255"/>
-      <c r="C21" s="256"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="248"/>
-      <c r="K21" s="249"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="258"/>
-      <c r="N21" s="259"/>
-      <c r="O21" s="259"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="260"/>
-      <c r="S21" s="245"/>
-      <c r="T21" s="245"/>
-      <c r="U21" s="245"/>
-      <c r="V21" s="261"/>
-      <c r="W21" s="262"/>
-      <c r="X21" s="262"/>
-      <c r="Y21" s="262"/>
-      <c r="Z21" s="262"/>
-      <c r="AA21" s="262"/>
-      <c r="AB21" s="262"/>
-      <c r="AC21" s="262"/>
-      <c r="AD21" s="262"/>
-      <c r="AE21" s="262"/>
-      <c r="AF21" s="262"/>
-      <c r="AG21" s="262"/>
-      <c r="AH21" s="262"/>
-      <c r="AI21" s="262"/>
-      <c r="AJ21" s="262"/>
-      <c r="AK21" s="262"/>
-      <c r="AL21" s="262"/>
-      <c r="AM21" s="263"/>
-      <c r="AN21" s="264"/>
-      <c r="AO21" s="265"/>
-      <c r="AP21" s="265"/>
-      <c r="AQ21" s="265"/>
-      <c r="AR21" s="266"/>
-      <c r="AS21" s="264"/>
-      <c r="AT21" s="265"/>
-      <c r="AU21" s="265"/>
-      <c r="AV21" s="265"/>
-      <c r="AW21" s="266"/>
+      <c r="B21" s="239"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="243"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="245"/>
+      <c r="M21" s="256"/>
+      <c r="N21" s="254"/>
+      <c r="O21" s="254"/>
+      <c r="P21" s="254"/>
+      <c r="Q21" s="254"/>
+      <c r="R21" s="255"/>
+      <c r="S21" s="249"/>
+      <c r="T21" s="249"/>
+      <c r="U21" s="249"/>
+      <c r="V21" s="250"/>
+      <c r="W21" s="251"/>
+      <c r="X21" s="251"/>
+      <c r="Y21" s="251"/>
+      <c r="Z21" s="251"/>
+      <c r="AA21" s="251"/>
+      <c r="AB21" s="251"/>
+      <c r="AC21" s="251"/>
+      <c r="AD21" s="251"/>
+      <c r="AE21" s="251"/>
+      <c r="AF21" s="251"/>
+      <c r="AG21" s="251"/>
+      <c r="AH21" s="251"/>
+      <c r="AI21" s="251"/>
+      <c r="AJ21" s="251"/>
+      <c r="AK21" s="251"/>
+      <c r="AL21" s="251"/>
+      <c r="AM21" s="252"/>
+      <c r="AN21" s="236"/>
+      <c r="AO21" s="237"/>
+      <c r="AP21" s="237"/>
+      <c r="AQ21" s="237"/>
+      <c r="AR21" s="238"/>
+      <c r="AS21" s="236"/>
+      <c r="AT21" s="237"/>
+      <c r="AU21" s="237"/>
+      <c r="AV21" s="237"/>
+      <c r="AW21" s="238"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="255"/>
-      <c r="C22" s="256"/>
-      <c r="D22" s="257"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="247"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="248"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="250"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="259"/>
-      <c r="O22" s="259"/>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="259"/>
-      <c r="R22" s="260"/>
-      <c r="S22" s="245"/>
-      <c r="T22" s="245"/>
-      <c r="U22" s="245"/>
-      <c r="V22" s="261"/>
-      <c r="W22" s="262"/>
-      <c r="X22" s="262"/>
-      <c r="Y22" s="262"/>
-      <c r="Z22" s="262"/>
-      <c r="AA22" s="262"/>
-      <c r="AB22" s="262"/>
-      <c r="AC22" s="262"/>
-      <c r="AD22" s="262"/>
-      <c r="AE22" s="262"/>
-      <c r="AF22" s="262"/>
-      <c r="AG22" s="262"/>
-      <c r="AH22" s="262"/>
-      <c r="AI22" s="262"/>
-      <c r="AJ22" s="262"/>
-      <c r="AK22" s="262"/>
-      <c r="AL22" s="262"/>
-      <c r="AM22" s="263"/>
-      <c r="AN22" s="264"/>
-      <c r="AO22" s="265"/>
-      <c r="AP22" s="265"/>
-      <c r="AQ22" s="265"/>
-      <c r="AR22" s="266"/>
-      <c r="AS22" s="264"/>
-      <c r="AT22" s="265"/>
-      <c r="AU22" s="265"/>
-      <c r="AV22" s="265"/>
-      <c r="AW22" s="266"/>
+      <c r="B22" s="239"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="242"/>
+      <c r="J22" s="243"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="245"/>
+      <c r="M22" s="256"/>
+      <c r="N22" s="254"/>
+      <c r="O22" s="254"/>
+      <c r="P22" s="254"/>
+      <c r="Q22" s="254"/>
+      <c r="R22" s="255"/>
+      <c r="S22" s="249"/>
+      <c r="T22" s="249"/>
+      <c r="U22" s="249"/>
+      <c r="V22" s="250"/>
+      <c r="W22" s="251"/>
+      <c r="X22" s="251"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="251"/>
+      <c r="AA22" s="251"/>
+      <c r="AB22" s="251"/>
+      <c r="AC22" s="251"/>
+      <c r="AD22" s="251"/>
+      <c r="AE22" s="251"/>
+      <c r="AF22" s="251"/>
+      <c r="AG22" s="251"/>
+      <c r="AH22" s="251"/>
+      <c r="AI22" s="251"/>
+      <c r="AJ22" s="251"/>
+      <c r="AK22" s="251"/>
+      <c r="AL22" s="251"/>
+      <c r="AM22" s="252"/>
+      <c r="AN22" s="236"/>
+      <c r="AO22" s="237"/>
+      <c r="AP22" s="237"/>
+      <c r="AQ22" s="237"/>
+      <c r="AR22" s="238"/>
+      <c r="AS22" s="236"/>
+      <c r="AT22" s="237"/>
+      <c r="AU22" s="237"/>
+      <c r="AV22" s="237"/>
+      <c r="AW22" s="238"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="255"/>
-      <c r="C23" s="256"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="248"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="259"/>
-      <c r="O23" s="259"/>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="259"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="245"/>
-      <c r="T23" s="245"/>
-      <c r="U23" s="245"/>
-      <c r="V23" s="261"/>
-      <c r="W23" s="262"/>
-      <c r="X23" s="262"/>
-      <c r="Y23" s="262"/>
-      <c r="Z23" s="262"/>
-      <c r="AA23" s="262"/>
-      <c r="AB23" s="262"/>
-      <c r="AC23" s="262"/>
-      <c r="AD23" s="262"/>
-      <c r="AE23" s="262"/>
-      <c r="AF23" s="262"/>
-      <c r="AG23" s="262"/>
-      <c r="AH23" s="262"/>
-      <c r="AI23" s="262"/>
-      <c r="AJ23" s="262"/>
-      <c r="AK23" s="262"/>
-      <c r="AL23" s="262"/>
-      <c r="AM23" s="263"/>
-      <c r="AN23" s="264"/>
-      <c r="AO23" s="265"/>
-      <c r="AP23" s="265"/>
-      <c r="AQ23" s="265"/>
-      <c r="AR23" s="266"/>
-      <c r="AS23" s="264"/>
-      <c r="AT23" s="265"/>
-      <c r="AU23" s="265"/>
-      <c r="AV23" s="265"/>
-      <c r="AW23" s="266"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="243"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="256"/>
+      <c r="N23" s="254"/>
+      <c r="O23" s="254"/>
+      <c r="P23" s="254"/>
+      <c r="Q23" s="254"/>
+      <c r="R23" s="255"/>
+      <c r="S23" s="249"/>
+      <c r="T23" s="249"/>
+      <c r="U23" s="249"/>
+      <c r="V23" s="250"/>
+      <c r="W23" s="251"/>
+      <c r="X23" s="251"/>
+      <c r="Y23" s="251"/>
+      <c r="Z23" s="251"/>
+      <c r="AA23" s="251"/>
+      <c r="AB23" s="251"/>
+      <c r="AC23" s="251"/>
+      <c r="AD23" s="251"/>
+      <c r="AE23" s="251"/>
+      <c r="AF23" s="251"/>
+      <c r="AG23" s="251"/>
+      <c r="AH23" s="251"/>
+      <c r="AI23" s="251"/>
+      <c r="AJ23" s="251"/>
+      <c r="AK23" s="251"/>
+      <c r="AL23" s="251"/>
+      <c r="AM23" s="252"/>
+      <c r="AN23" s="236"/>
+      <c r="AO23" s="237"/>
+      <c r="AP23" s="237"/>
+      <c r="AQ23" s="237"/>
+      <c r="AR23" s="238"/>
+      <c r="AS23" s="236"/>
+      <c r="AT23" s="237"/>
+      <c r="AU23" s="237"/>
+      <c r="AV23" s="237"/>
+      <c r="AW23" s="238"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="255"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="257"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="248"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="259"/>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="245"/>
-      <c r="T24" s="245"/>
-      <c r="U24" s="245"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="262"/>
-      <c r="X24" s="262"/>
-      <c r="Y24" s="262"/>
-      <c r="Z24" s="262"/>
-      <c r="AA24" s="262"/>
-      <c r="AB24" s="262"/>
-      <c r="AC24" s="262"/>
-      <c r="AD24" s="262"/>
-      <c r="AE24" s="262"/>
-      <c r="AF24" s="262"/>
-      <c r="AG24" s="262"/>
-      <c r="AH24" s="262"/>
-      <c r="AI24" s="262"/>
-      <c r="AJ24" s="262"/>
-      <c r="AK24" s="262"/>
-      <c r="AL24" s="262"/>
-      <c r="AM24" s="263"/>
-      <c r="AN24" s="264"/>
-      <c r="AO24" s="265"/>
-      <c r="AP24" s="265"/>
-      <c r="AQ24" s="265"/>
-      <c r="AR24" s="266"/>
-      <c r="AS24" s="264"/>
-      <c r="AT24" s="265"/>
-      <c r="AU24" s="265"/>
-      <c r="AV24" s="265"/>
-      <c r="AW24" s="266"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="242"/>
+      <c r="H24" s="242"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="243"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="256"/>
+      <c r="N24" s="254"/>
+      <c r="O24" s="254"/>
+      <c r="P24" s="254"/>
+      <c r="Q24" s="254"/>
+      <c r="R24" s="255"/>
+      <c r="S24" s="249"/>
+      <c r="T24" s="249"/>
+      <c r="U24" s="249"/>
+      <c r="V24" s="250"/>
+      <c r="W24" s="251"/>
+      <c r="X24" s="251"/>
+      <c r="Y24" s="251"/>
+      <c r="Z24" s="251"/>
+      <c r="AA24" s="251"/>
+      <c r="AB24" s="251"/>
+      <c r="AC24" s="251"/>
+      <c r="AD24" s="251"/>
+      <c r="AE24" s="251"/>
+      <c r="AF24" s="251"/>
+      <c r="AG24" s="251"/>
+      <c r="AH24" s="251"/>
+      <c r="AI24" s="251"/>
+      <c r="AJ24" s="251"/>
+      <c r="AK24" s="251"/>
+      <c r="AL24" s="251"/>
+      <c r="AM24" s="252"/>
+      <c r="AN24" s="236"/>
+      <c r="AO24" s="237"/>
+      <c r="AP24" s="237"/>
+      <c r="AQ24" s="237"/>
+      <c r="AR24" s="238"/>
+      <c r="AS24" s="236"/>
+      <c r="AT24" s="237"/>
+      <c r="AU24" s="237"/>
+      <c r="AV24" s="237"/>
+      <c r="AW24" s="238"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="255"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="257"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="269"/>
-      <c r="N25" s="259"/>
-      <c r="O25" s="259"/>
-      <c r="P25" s="259"/>
-      <c r="Q25" s="259"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="245"/>
-      <c r="T25" s="245"/>
-      <c r="U25" s="245"/>
-      <c r="V25" s="261"/>
-      <c r="W25" s="262"/>
-      <c r="X25" s="262"/>
-      <c r="Y25" s="262"/>
-      <c r="Z25" s="262"/>
-      <c r="AA25" s="262"/>
-      <c r="AB25" s="262"/>
-      <c r="AC25" s="262"/>
-      <c r="AD25" s="262"/>
-      <c r="AE25" s="262"/>
-      <c r="AF25" s="262"/>
-      <c r="AG25" s="262"/>
-      <c r="AH25" s="262"/>
-      <c r="AI25" s="262"/>
-      <c r="AJ25" s="262"/>
-      <c r="AK25" s="262"/>
-      <c r="AL25" s="262"/>
-      <c r="AM25" s="263"/>
-      <c r="AN25" s="264"/>
-      <c r="AO25" s="265"/>
-      <c r="AP25" s="265"/>
-      <c r="AQ25" s="265"/>
-      <c r="AR25" s="266"/>
-      <c r="AS25" s="264"/>
-      <c r="AT25" s="265"/>
-      <c r="AU25" s="265"/>
-      <c r="AV25" s="265"/>
-      <c r="AW25" s="266"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="243"/>
+      <c r="K25" s="244"/>
+      <c r="L25" s="245"/>
+      <c r="M25" s="253"/>
+      <c r="N25" s="254"/>
+      <c r="O25" s="254"/>
+      <c r="P25" s="254"/>
+      <c r="Q25" s="254"/>
+      <c r="R25" s="255"/>
+      <c r="S25" s="249"/>
+      <c r="T25" s="249"/>
+      <c r="U25" s="249"/>
+      <c r="V25" s="250"/>
+      <c r="W25" s="251"/>
+      <c r="X25" s="251"/>
+      <c r="Y25" s="251"/>
+      <c r="Z25" s="251"/>
+      <c r="AA25" s="251"/>
+      <c r="AB25" s="251"/>
+      <c r="AC25" s="251"/>
+      <c r="AD25" s="251"/>
+      <c r="AE25" s="251"/>
+      <c r="AF25" s="251"/>
+      <c r="AG25" s="251"/>
+      <c r="AH25" s="251"/>
+      <c r="AI25" s="251"/>
+      <c r="AJ25" s="251"/>
+      <c r="AK25" s="251"/>
+      <c r="AL25" s="251"/>
+      <c r="AM25" s="252"/>
+      <c r="AN25" s="236"/>
+      <c r="AO25" s="237"/>
+      <c r="AP25" s="237"/>
+      <c r="AQ25" s="237"/>
+      <c r="AR25" s="238"/>
+      <c r="AS25" s="236"/>
+      <c r="AT25" s="237"/>
+      <c r="AU25" s="237"/>
+      <c r="AV25" s="237"/>
+      <c r="AW25" s="238"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="255"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="257"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="248"/>
-      <c r="K26" s="249"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="269"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="245"/>
-      <c r="T26" s="245"/>
-      <c r="U26" s="245"/>
-      <c r="V26" s="261"/>
-      <c r="W26" s="262"/>
-      <c r="X26" s="262"/>
-      <c r="Y26" s="262"/>
-      <c r="Z26" s="262"/>
-      <c r="AA26" s="262"/>
-      <c r="AB26" s="262"/>
-      <c r="AC26" s="262"/>
-      <c r="AD26" s="262"/>
-      <c r="AE26" s="262"/>
-      <c r="AF26" s="262"/>
-      <c r="AG26" s="262"/>
-      <c r="AH26" s="262"/>
-      <c r="AI26" s="262"/>
-      <c r="AJ26" s="262"/>
-      <c r="AK26" s="262"/>
-      <c r="AL26" s="262"/>
-      <c r="AM26" s="263"/>
-      <c r="AN26" s="264"/>
-      <c r="AO26" s="265"/>
-      <c r="AP26" s="265"/>
-      <c r="AQ26" s="265"/>
-      <c r="AR26" s="266"/>
-      <c r="AS26" s="264"/>
-      <c r="AT26" s="265"/>
-      <c r="AU26" s="265"/>
-      <c r="AV26" s="265"/>
-      <c r="AW26" s="266"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="240"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="242"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="243"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="253"/>
+      <c r="N26" s="254"/>
+      <c r="O26" s="254"/>
+      <c r="P26" s="254"/>
+      <c r="Q26" s="254"/>
+      <c r="R26" s="255"/>
+      <c r="S26" s="249"/>
+      <c r="T26" s="249"/>
+      <c r="U26" s="249"/>
+      <c r="V26" s="250"/>
+      <c r="W26" s="251"/>
+      <c r="X26" s="251"/>
+      <c r="Y26" s="251"/>
+      <c r="Z26" s="251"/>
+      <c r="AA26" s="251"/>
+      <c r="AB26" s="251"/>
+      <c r="AC26" s="251"/>
+      <c r="AD26" s="251"/>
+      <c r="AE26" s="251"/>
+      <c r="AF26" s="251"/>
+      <c r="AG26" s="251"/>
+      <c r="AH26" s="251"/>
+      <c r="AI26" s="251"/>
+      <c r="AJ26" s="251"/>
+      <c r="AK26" s="251"/>
+      <c r="AL26" s="251"/>
+      <c r="AM26" s="252"/>
+      <c r="AN26" s="236"/>
+      <c r="AO26" s="237"/>
+      <c r="AP26" s="237"/>
+      <c r="AQ26" s="237"/>
+      <c r="AR26" s="238"/>
+      <c r="AS26" s="236"/>
+      <c r="AT26" s="237"/>
+      <c r="AU26" s="237"/>
+      <c r="AV26" s="237"/>
+      <c r="AW26" s="238"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
-      <c r="B27" s="255"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="257"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="248"/>
-      <c r="K27" s="249"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="269"/>
-      <c r="N27" s="259"/>
-      <c r="O27" s="259"/>
-      <c r="P27" s="259"/>
-      <c r="Q27" s="259"/>
-      <c r="R27" s="260"/>
-      <c r="S27" s="245"/>
-      <c r="T27" s="245"/>
-      <c r="U27" s="245"/>
-      <c r="V27" s="261"/>
-      <c r="W27" s="262"/>
-      <c r="X27" s="262"/>
-      <c r="Y27" s="262"/>
-      <c r="Z27" s="262"/>
-      <c r="AA27" s="262"/>
-      <c r="AB27" s="262"/>
-      <c r="AC27" s="262"/>
-      <c r="AD27" s="262"/>
-      <c r="AE27" s="262"/>
-      <c r="AF27" s="262"/>
-      <c r="AG27" s="262"/>
-      <c r="AH27" s="262"/>
-      <c r="AI27" s="262"/>
-      <c r="AJ27" s="262"/>
-      <c r="AK27" s="262"/>
-      <c r="AL27" s="262"/>
-      <c r="AM27" s="263"/>
-      <c r="AN27" s="264"/>
-      <c r="AO27" s="265"/>
-      <c r="AP27" s="265"/>
-      <c r="AQ27" s="265"/>
-      <c r="AR27" s="266"/>
-      <c r="AS27" s="264"/>
-      <c r="AT27" s="265"/>
-      <c r="AU27" s="265"/>
-      <c r="AV27" s="265"/>
-      <c r="AW27" s="266"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="240"/>
+      <c r="D27" s="241"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="243"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="253"/>
+      <c r="N27" s="254"/>
+      <c r="O27" s="254"/>
+      <c r="P27" s="254"/>
+      <c r="Q27" s="254"/>
+      <c r="R27" s="255"/>
+      <c r="S27" s="249"/>
+      <c r="T27" s="249"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="250"/>
+      <c r="W27" s="251"/>
+      <c r="X27" s="251"/>
+      <c r="Y27" s="251"/>
+      <c r="Z27" s="251"/>
+      <c r="AA27" s="251"/>
+      <c r="AB27" s="251"/>
+      <c r="AC27" s="251"/>
+      <c r="AD27" s="251"/>
+      <c r="AE27" s="251"/>
+      <c r="AF27" s="251"/>
+      <c r="AG27" s="251"/>
+      <c r="AH27" s="251"/>
+      <c r="AI27" s="251"/>
+      <c r="AJ27" s="251"/>
+      <c r="AK27" s="251"/>
+      <c r="AL27" s="251"/>
+      <c r="AM27" s="252"/>
+      <c r="AN27" s="236"/>
+      <c r="AO27" s="237"/>
+      <c r="AP27" s="237"/>
+      <c r="AQ27" s="237"/>
+      <c r="AR27" s="238"/>
+      <c r="AS27" s="236"/>
+      <c r="AT27" s="237"/>
+      <c r="AU27" s="237"/>
+      <c r="AV27" s="237"/>
+      <c r="AW27" s="238"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
-      <c r="B28" s="255"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="257"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="247"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="248"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="258"/>
-      <c r="N28" s="259"/>
-      <c r="O28" s="259"/>
-      <c r="P28" s="259"/>
-      <c r="Q28" s="259"/>
-      <c r="R28" s="260"/>
-      <c r="S28" s="245"/>
-      <c r="T28" s="245"/>
-      <c r="U28" s="245"/>
-      <c r="V28" s="261"/>
-      <c r="W28" s="262"/>
-      <c r="X28" s="262"/>
-      <c r="Y28" s="262"/>
-      <c r="Z28" s="262"/>
-      <c r="AA28" s="262"/>
-      <c r="AB28" s="262"/>
-      <c r="AC28" s="262"/>
-      <c r="AD28" s="262"/>
-      <c r="AE28" s="262"/>
-      <c r="AF28" s="262"/>
-      <c r="AG28" s="262"/>
-      <c r="AH28" s="262"/>
-      <c r="AI28" s="262"/>
-      <c r="AJ28" s="262"/>
-      <c r="AK28" s="262"/>
-      <c r="AL28" s="262"/>
-      <c r="AM28" s="263"/>
-      <c r="AN28" s="264"/>
-      <c r="AO28" s="265"/>
-      <c r="AP28" s="265"/>
-      <c r="AQ28" s="265"/>
-      <c r="AR28" s="266"/>
-      <c r="AS28" s="264"/>
-      <c r="AT28" s="265"/>
-      <c r="AU28" s="265"/>
-      <c r="AV28" s="265"/>
-      <c r="AW28" s="266"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="243"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="245"/>
+      <c r="M28" s="256"/>
+      <c r="N28" s="254"/>
+      <c r="O28" s="254"/>
+      <c r="P28" s="254"/>
+      <c r="Q28" s="254"/>
+      <c r="R28" s="255"/>
+      <c r="S28" s="249"/>
+      <c r="T28" s="249"/>
+      <c r="U28" s="249"/>
+      <c r="V28" s="250"/>
+      <c r="W28" s="251"/>
+      <c r="X28" s="251"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
+      <c r="AA28" s="251"/>
+      <c r="AB28" s="251"/>
+      <c r="AC28" s="251"/>
+      <c r="AD28" s="251"/>
+      <c r="AE28" s="251"/>
+      <c r="AF28" s="251"/>
+      <c r="AG28" s="251"/>
+      <c r="AH28" s="251"/>
+      <c r="AI28" s="251"/>
+      <c r="AJ28" s="251"/>
+      <c r="AK28" s="251"/>
+      <c r="AL28" s="251"/>
+      <c r="AM28" s="252"/>
+      <c r="AN28" s="236"/>
+      <c r="AO28" s="237"/>
+      <c r="AP28" s="237"/>
+      <c r="AQ28" s="237"/>
+      <c r="AR28" s="238"/>
+      <c r="AS28" s="236"/>
+      <c r="AT28" s="237"/>
+      <c r="AU28" s="237"/>
+      <c r="AV28" s="237"/>
+      <c r="AW28" s="238"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
-      <c r="B29" s="255"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="248"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="250"/>
-      <c r="M29" s="258"/>
-      <c r="N29" s="259"/>
-      <c r="O29" s="259"/>
-      <c r="P29" s="259"/>
-      <c r="Q29" s="259"/>
-      <c r="R29" s="260"/>
-      <c r="S29" s="245"/>
-      <c r="T29" s="245"/>
-      <c r="U29" s="245"/>
-      <c r="V29" s="261"/>
-      <c r="W29" s="262"/>
-      <c r="X29" s="262"/>
-      <c r="Y29" s="262"/>
-      <c r="Z29" s="262"/>
-      <c r="AA29" s="262"/>
-      <c r="AB29" s="262"/>
-      <c r="AC29" s="262"/>
-      <c r="AD29" s="262"/>
-      <c r="AE29" s="262"/>
-      <c r="AF29" s="262"/>
-      <c r="AG29" s="262"/>
-      <c r="AH29" s="262"/>
-      <c r="AI29" s="262"/>
-      <c r="AJ29" s="262"/>
-      <c r="AK29" s="262"/>
-      <c r="AL29" s="262"/>
-      <c r="AM29" s="263"/>
-      <c r="AN29" s="264"/>
-      <c r="AO29" s="265"/>
-      <c r="AP29" s="265"/>
-      <c r="AQ29" s="265"/>
-      <c r="AR29" s="266"/>
-      <c r="AS29" s="264"/>
-      <c r="AT29" s="265"/>
-      <c r="AU29" s="265"/>
-      <c r="AV29" s="265"/>
-      <c r="AW29" s="266"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="243"/>
+      <c r="K29" s="244"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="256"/>
+      <c r="N29" s="254"/>
+      <c r="O29" s="254"/>
+      <c r="P29" s="254"/>
+      <c r="Q29" s="254"/>
+      <c r="R29" s="255"/>
+      <c r="S29" s="249"/>
+      <c r="T29" s="249"/>
+      <c r="U29" s="249"/>
+      <c r="V29" s="250"/>
+      <c r="W29" s="251"/>
+      <c r="X29" s="251"/>
+      <c r="Y29" s="251"/>
+      <c r="Z29" s="251"/>
+      <c r="AA29" s="251"/>
+      <c r="AB29" s="251"/>
+      <c r="AC29" s="251"/>
+      <c r="AD29" s="251"/>
+      <c r="AE29" s="251"/>
+      <c r="AF29" s="251"/>
+      <c r="AG29" s="251"/>
+      <c r="AH29" s="251"/>
+      <c r="AI29" s="251"/>
+      <c r="AJ29" s="251"/>
+      <c r="AK29" s="251"/>
+      <c r="AL29" s="251"/>
+      <c r="AM29" s="252"/>
+      <c r="AN29" s="236"/>
+      <c r="AO29" s="237"/>
+      <c r="AP29" s="237"/>
+      <c r="AQ29" s="237"/>
+      <c r="AR29" s="238"/>
+      <c r="AS29" s="236"/>
+      <c r="AT29" s="237"/>
+      <c r="AU29" s="237"/>
+      <c r="AV29" s="237"/>
+      <c r="AW29" s="238"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
-      <c r="B30" s="255"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="257"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="247"/>
-      <c r="I30" s="247"/>
-      <c r="J30" s="248"/>
-      <c r="K30" s="249"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="269"/>
-      <c r="N30" s="259"/>
-      <c r="O30" s="259"/>
-      <c r="P30" s="259"/>
-      <c r="Q30" s="259"/>
-      <c r="R30" s="260"/>
-      <c r="S30" s="245"/>
-      <c r="T30" s="245"/>
-      <c r="U30" s="245"/>
-      <c r="V30" s="261"/>
-      <c r="W30" s="262"/>
-      <c r="X30" s="262"/>
-      <c r="Y30" s="262"/>
-      <c r="Z30" s="262"/>
-      <c r="AA30" s="262"/>
-      <c r="AB30" s="262"/>
-      <c r="AC30" s="262"/>
-      <c r="AD30" s="262"/>
-      <c r="AE30" s="262"/>
-      <c r="AF30" s="262"/>
-      <c r="AG30" s="262"/>
-      <c r="AH30" s="262"/>
-      <c r="AI30" s="262"/>
-      <c r="AJ30" s="262"/>
-      <c r="AK30" s="262"/>
-      <c r="AL30" s="262"/>
-      <c r="AM30" s="263"/>
-      <c r="AN30" s="264"/>
-      <c r="AO30" s="265"/>
-      <c r="AP30" s="265"/>
-      <c r="AQ30" s="265"/>
-      <c r="AR30" s="266"/>
-      <c r="AS30" s="264"/>
-      <c r="AT30" s="265"/>
-      <c r="AU30" s="265"/>
-      <c r="AV30" s="265"/>
-      <c r="AW30" s="266"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="243"/>
+      <c r="K30" s="244"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="253"/>
+      <c r="N30" s="254"/>
+      <c r="O30" s="254"/>
+      <c r="P30" s="254"/>
+      <c r="Q30" s="254"/>
+      <c r="R30" s="255"/>
+      <c r="S30" s="249"/>
+      <c r="T30" s="249"/>
+      <c r="U30" s="249"/>
+      <c r="V30" s="250"/>
+      <c r="W30" s="251"/>
+      <c r="X30" s="251"/>
+      <c r="Y30" s="251"/>
+      <c r="Z30" s="251"/>
+      <c r="AA30" s="251"/>
+      <c r="AB30" s="251"/>
+      <c r="AC30" s="251"/>
+      <c r="AD30" s="251"/>
+      <c r="AE30" s="251"/>
+      <c r="AF30" s="251"/>
+      <c r="AG30" s="251"/>
+      <c r="AH30" s="251"/>
+      <c r="AI30" s="251"/>
+      <c r="AJ30" s="251"/>
+      <c r="AK30" s="251"/>
+      <c r="AL30" s="251"/>
+      <c r="AM30" s="252"/>
+      <c r="AN30" s="236"/>
+      <c r="AO30" s="237"/>
+      <c r="AP30" s="237"/>
+      <c r="AQ30" s="237"/>
+      <c r="AR30" s="238"/>
+      <c r="AS30" s="236"/>
+      <c r="AT30" s="237"/>
+      <c r="AU30" s="237"/>
+      <c r="AV30" s="237"/>
+      <c r="AW30" s="238"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
-      <c r="B31" s="255"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="257"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="247"/>
-      <c r="G31" s="247"/>
-      <c r="H31" s="247"/>
-      <c r="I31" s="247"/>
-      <c r="J31" s="248"/>
-      <c r="K31" s="249"/>
-      <c r="L31" s="250"/>
-      <c r="M31" s="269"/>
-      <c r="N31" s="259"/>
-      <c r="O31" s="259"/>
-      <c r="P31" s="259"/>
-      <c r="Q31" s="259"/>
-      <c r="R31" s="260"/>
-      <c r="S31" s="245"/>
-      <c r="T31" s="245"/>
-      <c r="U31" s="245"/>
-      <c r="V31" s="261"/>
-      <c r="W31" s="262"/>
-      <c r="X31" s="262"/>
-      <c r="Y31" s="262"/>
-      <c r="Z31" s="262"/>
-      <c r="AA31" s="262"/>
-      <c r="AB31" s="262"/>
-      <c r="AC31" s="262"/>
-      <c r="AD31" s="262"/>
-      <c r="AE31" s="262"/>
-      <c r="AF31" s="262"/>
-      <c r="AG31" s="262"/>
-      <c r="AH31" s="262"/>
-      <c r="AI31" s="262"/>
-      <c r="AJ31" s="262"/>
-      <c r="AK31" s="262"/>
-      <c r="AL31" s="262"/>
-      <c r="AM31" s="263"/>
-      <c r="AN31" s="264"/>
-      <c r="AO31" s="265"/>
-      <c r="AP31" s="265"/>
-      <c r="AQ31" s="265"/>
-      <c r="AR31" s="266"/>
-      <c r="AS31" s="264"/>
-      <c r="AT31" s="265"/>
-      <c r="AU31" s="265"/>
-      <c r="AV31" s="265"/>
-      <c r="AW31" s="266"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="242"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="242"/>
+      <c r="I31" s="242"/>
+      <c r="J31" s="243"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="253"/>
+      <c r="N31" s="254"/>
+      <c r="O31" s="254"/>
+      <c r="P31" s="254"/>
+      <c r="Q31" s="254"/>
+      <c r="R31" s="255"/>
+      <c r="S31" s="249"/>
+      <c r="T31" s="249"/>
+      <c r="U31" s="249"/>
+      <c r="V31" s="250"/>
+      <c r="W31" s="251"/>
+      <c r="X31" s="251"/>
+      <c r="Y31" s="251"/>
+      <c r="Z31" s="251"/>
+      <c r="AA31" s="251"/>
+      <c r="AB31" s="251"/>
+      <c r="AC31" s="251"/>
+      <c r="AD31" s="251"/>
+      <c r="AE31" s="251"/>
+      <c r="AF31" s="251"/>
+      <c r="AG31" s="251"/>
+      <c r="AH31" s="251"/>
+      <c r="AI31" s="251"/>
+      <c r="AJ31" s="251"/>
+      <c r="AK31" s="251"/>
+      <c r="AL31" s="251"/>
+      <c r="AM31" s="252"/>
+      <c r="AN31" s="236"/>
+      <c r="AO31" s="237"/>
+      <c r="AP31" s="237"/>
+      <c r="AQ31" s="237"/>
+      <c r="AR31" s="238"/>
+      <c r="AS31" s="236"/>
+      <c r="AT31" s="237"/>
+      <c r="AU31" s="237"/>
+      <c r="AV31" s="237"/>
+      <c r="AW31" s="238"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
-      <c r="B32" s="255"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="257"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="247"/>
-      <c r="G32" s="247"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="247"/>
-      <c r="J32" s="248"/>
-      <c r="K32" s="249"/>
-      <c r="L32" s="250"/>
-      <c r="M32" s="269"/>
-      <c r="N32" s="259"/>
-      <c r="O32" s="259"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="260"/>
-      <c r="S32" s="245"/>
-      <c r="T32" s="245"/>
-      <c r="U32" s="245"/>
-      <c r="V32" s="261"/>
-      <c r="W32" s="262"/>
-      <c r="X32" s="262"/>
-      <c r="Y32" s="262"/>
-      <c r="Z32" s="262"/>
-      <c r="AA32" s="262"/>
-      <c r="AB32" s="262"/>
-      <c r="AC32" s="262"/>
-      <c r="AD32" s="262"/>
-      <c r="AE32" s="262"/>
-      <c r="AF32" s="262"/>
-      <c r="AG32" s="262"/>
-      <c r="AH32" s="262"/>
-      <c r="AI32" s="262"/>
-      <c r="AJ32" s="262"/>
-      <c r="AK32" s="262"/>
-      <c r="AL32" s="262"/>
-      <c r="AM32" s="263"/>
-      <c r="AN32" s="264"/>
-      <c r="AO32" s="265"/>
-      <c r="AP32" s="265"/>
-      <c r="AQ32" s="265"/>
-      <c r="AR32" s="266"/>
-      <c r="AS32" s="264"/>
-      <c r="AT32" s="265"/>
-      <c r="AU32" s="265"/>
-      <c r="AV32" s="265"/>
-      <c r="AW32" s="266"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="240"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="242"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="243"/>
+      <c r="K32" s="244"/>
+      <c r="L32" s="245"/>
+      <c r="M32" s="253"/>
+      <c r="N32" s="254"/>
+      <c r="O32" s="254"/>
+      <c r="P32" s="254"/>
+      <c r="Q32" s="254"/>
+      <c r="R32" s="255"/>
+      <c r="S32" s="249"/>
+      <c r="T32" s="249"/>
+      <c r="U32" s="249"/>
+      <c r="V32" s="250"/>
+      <c r="W32" s="251"/>
+      <c r="X32" s="251"/>
+      <c r="Y32" s="251"/>
+      <c r="Z32" s="251"/>
+      <c r="AA32" s="251"/>
+      <c r="AB32" s="251"/>
+      <c r="AC32" s="251"/>
+      <c r="AD32" s="251"/>
+      <c r="AE32" s="251"/>
+      <c r="AF32" s="251"/>
+      <c r="AG32" s="251"/>
+      <c r="AH32" s="251"/>
+      <c r="AI32" s="251"/>
+      <c r="AJ32" s="251"/>
+      <c r="AK32" s="251"/>
+      <c r="AL32" s="251"/>
+      <c r="AM32" s="252"/>
+      <c r="AN32" s="236"/>
+      <c r="AO32" s="237"/>
+      <c r="AP32" s="237"/>
+      <c r="AQ32" s="237"/>
+      <c r="AR32" s="238"/>
+      <c r="AS32" s="236"/>
+      <c r="AT32" s="237"/>
+      <c r="AU32" s="237"/>
+      <c r="AV32" s="237"/>
+      <c r="AW32" s="238"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="255"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="257"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="249"/>
-      <c r="L33" s="250"/>
-      <c r="M33" s="269"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="259"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="260"/>
-      <c r="S33" s="245"/>
-      <c r="T33" s="245"/>
-      <c r="U33" s="245"/>
-      <c r="V33" s="261"/>
-      <c r="W33" s="262"/>
-      <c r="X33" s="262"/>
-      <c r="Y33" s="262"/>
-      <c r="Z33" s="262"/>
-      <c r="AA33" s="262"/>
-      <c r="AB33" s="262"/>
-      <c r="AC33" s="262"/>
-      <c r="AD33" s="262"/>
-      <c r="AE33" s="262"/>
-      <c r="AF33" s="262"/>
-      <c r="AG33" s="262"/>
-      <c r="AH33" s="262"/>
-      <c r="AI33" s="262"/>
-      <c r="AJ33" s="262"/>
-      <c r="AK33" s="262"/>
-      <c r="AL33" s="262"/>
-      <c r="AM33" s="263"/>
-      <c r="AN33" s="264"/>
-      <c r="AO33" s="265"/>
-      <c r="AP33" s="265"/>
-      <c r="AQ33" s="265"/>
-      <c r="AR33" s="266"/>
-      <c r="AS33" s="264"/>
-      <c r="AT33" s="265"/>
-      <c r="AU33" s="265"/>
-      <c r="AV33" s="265"/>
-      <c r="AW33" s="266"/>
+      <c r="B33" s="239"/>
+      <c r="C33" s="240"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="244"/>
+      <c r="L33" s="245"/>
+      <c r="M33" s="253"/>
+      <c r="N33" s="254"/>
+      <c r="O33" s="254"/>
+      <c r="P33" s="254"/>
+      <c r="Q33" s="254"/>
+      <c r="R33" s="255"/>
+      <c r="S33" s="249"/>
+      <c r="T33" s="249"/>
+      <c r="U33" s="249"/>
+      <c r="V33" s="250"/>
+      <c r="W33" s="251"/>
+      <c r="X33" s="251"/>
+      <c r="Y33" s="251"/>
+      <c r="Z33" s="251"/>
+      <c r="AA33" s="251"/>
+      <c r="AB33" s="251"/>
+      <c r="AC33" s="251"/>
+      <c r="AD33" s="251"/>
+      <c r="AE33" s="251"/>
+      <c r="AF33" s="251"/>
+      <c r="AG33" s="251"/>
+      <c r="AH33" s="251"/>
+      <c r="AI33" s="251"/>
+      <c r="AJ33" s="251"/>
+      <c r="AK33" s="251"/>
+      <c r="AL33" s="251"/>
+      <c r="AM33" s="252"/>
+      <c r="AN33" s="236"/>
+      <c r="AO33" s="237"/>
+      <c r="AP33" s="237"/>
+      <c r="AQ33" s="237"/>
+      <c r="AR33" s="238"/>
+      <c r="AS33" s="236"/>
+      <c r="AT33" s="237"/>
+      <c r="AU33" s="237"/>
+      <c r="AV33" s="237"/>
+      <c r="AW33" s="238"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="255"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="257"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="247"/>
-      <c r="J34" s="248"/>
-      <c r="K34" s="249"/>
-      <c r="L34" s="250"/>
-      <c r="M34" s="273"/>
-      <c r="N34" s="274"/>
-      <c r="O34" s="274"/>
-      <c r="P34" s="274"/>
-      <c r="Q34" s="274"/>
-      <c r="R34" s="275"/>
-      <c r="S34" s="245"/>
-      <c r="T34" s="245"/>
-      <c r="U34" s="245"/>
-      <c r="V34" s="261"/>
-      <c r="W34" s="262"/>
-      <c r="X34" s="262"/>
-      <c r="Y34" s="262"/>
-      <c r="Z34" s="262"/>
-      <c r="AA34" s="262"/>
-      <c r="AB34" s="262"/>
-      <c r="AC34" s="262"/>
-      <c r="AD34" s="262"/>
-      <c r="AE34" s="262"/>
-      <c r="AF34" s="262"/>
-      <c r="AG34" s="262"/>
-      <c r="AH34" s="262"/>
-      <c r="AI34" s="262"/>
-      <c r="AJ34" s="262"/>
-      <c r="AK34" s="262"/>
-      <c r="AL34" s="262"/>
-      <c r="AM34" s="263"/>
-      <c r="AN34" s="264"/>
-      <c r="AO34" s="265"/>
-      <c r="AP34" s="265"/>
-      <c r="AQ34" s="265"/>
-      <c r="AR34" s="266"/>
-      <c r="AS34" s="264"/>
-      <c r="AT34" s="265"/>
-      <c r="AU34" s="265"/>
-      <c r="AV34" s="265"/>
-      <c r="AW34" s="266"/>
+      <c r="B34" s="239"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="242"/>
+      <c r="G34" s="242"/>
+      <c r="H34" s="242"/>
+      <c r="I34" s="242"/>
+      <c r="J34" s="243"/>
+      <c r="K34" s="244"/>
+      <c r="L34" s="245"/>
+      <c r="M34" s="246"/>
+      <c r="N34" s="247"/>
+      <c r="O34" s="247"/>
+      <c r="P34" s="247"/>
+      <c r="Q34" s="247"/>
+      <c r="R34" s="248"/>
+      <c r="S34" s="249"/>
+      <c r="T34" s="249"/>
+      <c r="U34" s="249"/>
+      <c r="V34" s="250"/>
+      <c r="W34" s="251"/>
+      <c r="X34" s="251"/>
+      <c r="Y34" s="251"/>
+      <c r="Z34" s="251"/>
+      <c r="AA34" s="251"/>
+      <c r="AB34" s="251"/>
+      <c r="AC34" s="251"/>
+      <c r="AD34" s="251"/>
+      <c r="AE34" s="251"/>
+      <c r="AF34" s="251"/>
+      <c r="AG34" s="251"/>
+      <c r="AH34" s="251"/>
+      <c r="AI34" s="251"/>
+      <c r="AJ34" s="251"/>
+      <c r="AK34" s="251"/>
+      <c r="AL34" s="251"/>
+      <c r="AM34" s="252"/>
+      <c r="AN34" s="236"/>
+      <c r="AO34" s="237"/>
+      <c r="AP34" s="237"/>
+      <c r="AQ34" s="237"/>
+      <c r="AR34" s="238"/>
+      <c r="AS34" s="236"/>
+      <c r="AT34" s="237"/>
+      <c r="AU34" s="237"/>
+      <c r="AV34" s="237"/>
+      <c r="AW34" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -8483,239 +8704,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11474,22 +11462,22 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="269" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="238" t="s">
+      <c r="D6" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="238" t="s">
+      <c r="E6" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="238" t="s">
+      <c r="F6" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="238" t="s">
+      <c r="G6" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="238" t="s">
+      <c r="H6" s="269" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="297" t="s">
@@ -11498,13 +11486,13 @@
       <c r="J6" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="238" t="s">
+      <c r="K6" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="238" t="s">
+      <c r="L6" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="238" t="s">
+      <c r="M6" s="269" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="65" t="s">
@@ -11519,17 +11507,17 @@
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
       <c r="I7" s="297"/>
       <c r="J7" s="297"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="238"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
       <c r="N7" s="43" t="s">
         <v>69</v>
       </c>
@@ -11691,22 +11679,22 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="238" t="s">
+      <c r="C13" s="269" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="238" t="s">
+      <c r="D13" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="238" t="s">
+      <c r="E13" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="238" t="s">
+      <c r="F13" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="238" t="s">
+      <c r="G13" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="238" t="s">
+      <c r="H13" s="269" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="298" t="s">
@@ -11715,13 +11703,13 @@
       <c r="J13" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="238" t="s">
+      <c r="K13" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="238" t="s">
+      <c r="L13" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="238" t="s">
+      <c r="M13" s="269" t="s">
         <v>33</v>
       </c>
       <c r="N13" s="65" t="s">
@@ -11736,17 +11724,17 @@
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="238"/>
-      <c r="F14" s="238"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="269"/>
+      <c r="F14" s="269"/>
+      <c r="G14" s="269"/>
+      <c r="H14" s="269"/>
       <c r="I14" s="299"/>
       <c r="J14" s="297"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
+      <c r="K14" s="269"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="269"/>
       <c r="N14" s="43" t="s">
         <v>69</v>
       </c>
@@ -11915,22 +11903,22 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="95"/>
-      <c r="C21" s="238" t="s">
+      <c r="C21" s="269" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="238" t="s">
+      <c r="D21" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="238" t="s">
+      <c r="E21" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="238" t="s">
+      <c r="F21" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="238" t="s">
+      <c r="G21" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="238" t="s">
+      <c r="H21" s="269" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="297" t="s">
@@ -11939,13 +11927,13 @@
       <c r="J21" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="238" t="s">
+      <c r="K21" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="238" t="s">
+      <c r="L21" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="238" t="s">
+      <c r="M21" s="269" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="65" t="s">
@@ -11959,17 +11947,17 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="95"/>
-      <c r="C22" s="238"/>
-      <c r="D22" s="238"/>
-      <c r="E22" s="238"/>
-      <c r="F22" s="238"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="238"/>
+      <c r="C22" s="269"/>
+      <c r="D22" s="269"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="269"/>
+      <c r="H22" s="269"/>
       <c r="I22" s="297"/>
       <c r="J22" s="297"/>
-      <c r="K22" s="238"/>
-      <c r="L22" s="238"/>
-      <c r="M22" s="238"/>
+      <c r="K22" s="269"/>
+      <c r="L22" s="269"/>
+      <c r="M22" s="269"/>
       <c r="N22" s="183" t="s">
         <v>69</v>
       </c>
@@ -12265,22 +12253,22 @@
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="95"/>
-      <c r="C30" s="238" t="s">
+      <c r="C30" s="269" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="238" t="s">
+      <c r="D30" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="238" t="s">
+      <c r="E30" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="238" t="s">
+      <c r="F30" s="269" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="238" t="s">
+      <c r="G30" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="238" t="s">
+      <c r="H30" s="269" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="297" t="s">
@@ -12289,13 +12277,13 @@
       <c r="J30" s="297" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="238" t="s">
+      <c r="K30" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="238" t="s">
+      <c r="L30" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="238" t="s">
+      <c r="M30" s="269" t="s">
         <v>33</v>
       </c>
       <c r="N30" s="65" t="s">
@@ -12309,17 +12297,17 @@
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="95"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-      <c r="G31" s="238"/>
-      <c r="H31" s="238"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="269"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="269"/>
       <c r="I31" s="297"/>
       <c r="J31" s="297"/>
-      <c r="K31" s="238"/>
-      <c r="L31" s="238"/>
-      <c r="M31" s="238"/>
+      <c r="K31" s="269"/>
+      <c r="L31" s="269"/>
+      <c r="M31" s="269"/>
       <c r="N31" s="93" t="s">
         <v>69</v>
       </c>
@@ -12709,34 +12697,16 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="Q30:Q31"/>
@@ -12747,16 +12717,34 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12772,9 +12760,11 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ208"/>
+  <dimension ref="A1:AZ204"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG38" sqref="AG38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14228,11 +14218,11 @@
       <c r="G34" s="229"/>
       <c r="K34" s="230"/>
       <c r="M34" s="231"/>
-      <c r="N34" s="231" t="s">
-        <v>336</v>
-      </c>
-      <c r="O34" s="231"/>
-      <c r="P34" s="231"/>
+      <c r="N34" s="227" t="s">
+        <v>338</v>
+      </c>
+      <c r="O34" s="227"/>
+      <c r="P34" s="227"/>
       <c r="Q34" s="231"/>
       <c r="R34" s="231"/>
       <c r="S34" s="231"/>
@@ -14266,11 +14256,11 @@
       <c r="G35" s="229"/>
       <c r="K35" s="230"/>
       <c r="M35" s="231"/>
-      <c r="N35" s="231" t="s">
-        <v>337</v>
-      </c>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
+      <c r="N35" s="227" t="s">
+        <v>339</v>
+      </c>
+      <c r="O35" s="227"/>
+      <c r="P35" s="227"/>
       <c r="Q35" s="231"/>
       <c r="R35" s="231"/>
       <c r="S35" s="231"/>
@@ -14304,11 +14294,11 @@
       <c r="G36" s="229"/>
       <c r="K36" s="230"/>
       <c r="M36" s="231"/>
-      <c r="N36" s="231" t="s">
-        <v>335</v>
-      </c>
-      <c r="O36" s="231"/>
-      <c r="P36" s="231"/>
+      <c r="N36" s="227" t="s">
+        <v>334</v>
+      </c>
+      <c r="O36" s="227"/>
+      <c r="P36" s="227"/>
       <c r="Q36" s="231"/>
       <c r="R36" s="231"/>
       <c r="S36" s="231"/>
@@ -14342,10 +14332,10 @@
       <c r="G37" s="229"/>
       <c r="K37" s="230"/>
       <c r="M37" s="231"/>
-      <c r="N37" s="231"/>
-      <c r="O37" s="231"/>
-      <c r="P37" s="231" t="s">
-        <v>338</v>
+      <c r="N37" s="227"/>
+      <c r="O37" s="227"/>
+      <c r="P37" s="227" t="s">
+        <v>335</v>
       </c>
       <c r="Q37" s="231"/>
       <c r="R37" s="231"/>
@@ -14380,10 +14370,10 @@
       <c r="G38" s="229"/>
       <c r="K38" s="230"/>
       <c r="M38" s="231"/>
-      <c r="N38" s="231"/>
-      <c r="O38" s="231"/>
-      <c r="P38" s="231" t="s">
-        <v>339</v>
+      <c r="N38" s="227"/>
+      <c r="O38" s="227"/>
+      <c r="P38" s="227" t="s">
+        <v>336</v>
       </c>
       <c r="Q38" s="231"/>
       <c r="R38" s="231"/>
@@ -14418,9 +14408,9 @@
       <c r="G39" s="229"/>
       <c r="K39" s="230"/>
       <c r="M39" s="231"/>
-      <c r="N39" s="231"/>
-      <c r="O39" s="231"/>
-      <c r="P39" s="231" t="s">
+      <c r="N39" s="227"/>
+      <c r="O39" s="227"/>
+      <c r="P39" s="227" t="s">
         <v>340</v>
       </c>
       <c r="Q39" s="231"/>
@@ -14456,11 +14446,11 @@
       <c r="G40" s="229"/>
       <c r="K40" s="230"/>
       <c r="M40" s="231"/>
-      <c r="N40" s="231"/>
-      <c r="O40" s="231" t="s">
-        <v>341</v>
-      </c>
-      <c r="P40" s="231"/>
+      <c r="N40" s="227"/>
+      <c r="O40" s="227" t="s">
+        <v>337</v>
+      </c>
+      <c r="P40" s="227"/>
       <c r="Q40" s="231"/>
       <c r="R40" s="231"/>
       <c r="S40" s="231"/>
@@ -14742,19 +14732,20 @@
       </c>
       <c r="AV49" s="226"/>
     </row>
-    <row r="50" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="67"/>
-      <c r="K50" s="68"/>
-      <c r="M50" s="211" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA50" s="211"/>
-      <c r="AB50" s="212"/>
-      <c r="AG50" s="211"/>
-      <c r="AV50" s="68"/>
+    <row r="50" spans="2:48" s="224" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B50" s="225"/>
+      <c r="C50" s="225"/>
+      <c r="F50" s="226"/>
+      <c r="G50" s="225"/>
+      <c r="K50" s="226"/>
+      <c r="N50" s="227" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA50" s="227" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB50" s="228"/>
+      <c r="AV50" s="226"/>
     </row>
     <row r="51" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B51" s="67"/>
@@ -14762,9 +14753,8 @@
       <c r="F51" s="68"/>
       <c r="G51" s="67"/>
       <c r="K51" s="68"/>
-      <c r="M51" s="211"/>
-      <c r="N51" s="17" t="s">
-        <v>289</v>
+      <c r="M51" s="211" t="s">
+        <v>290</v>
       </c>
       <c r="AA51" s="211"/>
       <c r="AB51" s="212"/>
@@ -14778,13 +14768,9 @@
       <c r="G52" s="67"/>
       <c r="K52" s="68"/>
       <c r="M52" s="211"/>
-      <c r="N52" s="214" t="s">
-        <v>288</v>
-      </c>
-      <c r="O52" s="214"/>
-      <c r="P52" s="214"/>
-      <c r="Q52" s="214"/>
-      <c r="R52" s="214"/>
+      <c r="N52" s="17" t="s">
+        <v>289</v>
+      </c>
       <c r="AA52" s="211"/>
       <c r="AB52" s="212"/>
       <c r="AG52" s="211"/>
@@ -14797,51 +14783,32 @@
       <c r="G53" s="67"/>
       <c r="K53" s="68"/>
       <c r="M53" s="211"/>
-      <c r="N53" s="17" t="s">
-        <v>298</v>
-      </c>
+      <c r="N53" s="214" t="s">
+        <v>288</v>
+      </c>
+      <c r="O53" s="214"/>
+      <c r="P53" s="214"/>
+      <c r="Q53" s="214"/>
+      <c r="R53" s="214"/>
       <c r="AA53" s="211"/>
       <c r="AB53" s="212"/>
       <c r="AG53" s="211"/>
       <c r="AV53" s="68"/>
     </row>
-    <row r="54" spans="2:48" s="220" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B54" s="229"/>
-      <c r="C54" s="229"/>
-      <c r="F54" s="230"/>
-      <c r="G54" s="229"/>
-      <c r="K54" s="230"/>
-      <c r="M54" s="231"/>
-      <c r="N54" s="231" t="s">
-        <v>334</v>
-      </c>
-      <c r="O54" s="231"/>
-      <c r="P54" s="231"/>
-      <c r="Q54" s="231"/>
-      <c r="R54" s="231"/>
-      <c r="S54" s="231"/>
-      <c r="T54" s="231"/>
-      <c r="U54" s="231"/>
-      <c r="V54" s="231"/>
-      <c r="W54" s="231"/>
-      <c r="X54" s="231"/>
-      <c r="Y54" s="231"/>
-      <c r="Z54" s="231"/>
-      <c r="AA54" s="231"/>
-      <c r="AB54" s="231"/>
-      <c r="AC54" s="231"/>
-      <c r="AD54" s="231"/>
-      <c r="AE54" s="231"/>
-      <c r="AF54" s="231"/>
-      <c r="AG54" s="231"/>
-      <c r="AH54" s="231"/>
-      <c r="AK54" s="232"/>
-      <c r="AL54" s="232"/>
-      <c r="AM54" s="231"/>
-      <c r="AN54" s="232"/>
-      <c r="AO54" s="232"/>
-      <c r="AP54" s="232"/>
-      <c r="AV54" s="230"/>
+    <row r="54" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="67"/>
+      <c r="K54" s="68"/>
+      <c r="M54" s="211"/>
+      <c r="N54" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA54" s="211"/>
+      <c r="AB54" s="212"/>
+      <c r="AG54" s="211"/>
+      <c r="AV54" s="68"/>
     </row>
     <row r="55" spans="2:48" s="220" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B55" s="229"/>
@@ -14850,10 +14817,10 @@
       <c r="G55" s="229"/>
       <c r="K55" s="230"/>
       <c r="M55" s="231"/>
-      <c r="N55" s="231"/>
-      <c r="O55" s="231" t="s">
-        <v>343</v>
-      </c>
+      <c r="N55" s="231" t="s">
+        <v>341</v>
+      </c>
+      <c r="O55" s="231"/>
       <c r="P55" s="231"/>
       <c r="Q55" s="231"/>
       <c r="R55" s="231"/>
@@ -14881,724 +14848,788 @@
       <c r="AP55" s="232"/>
       <c r="AV55" s="230"/>
     </row>
-    <row r="56" spans="2:48" s="220" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B56" s="229"/>
-      <c r="C56" s="229"/>
-      <c r="F56" s="230"/>
-      <c r="G56" s="229"/>
-      <c r="K56" s="230"/>
-      <c r="M56" s="231"/>
-      <c r="N56" s="231"/>
-      <c r="O56" s="231" t="s">
-        <v>344</v>
-      </c>
-      <c r="P56" s="231"/>
-      <c r="Q56" s="231"/>
-      <c r="R56" s="231"/>
-      <c r="S56" s="231"/>
-      <c r="T56" s="231"/>
-      <c r="U56" s="231"/>
-      <c r="V56" s="231"/>
-      <c r="W56" s="231"/>
-      <c r="X56" s="231"/>
-      <c r="Y56" s="231"/>
-      <c r="Z56" s="231"/>
-      <c r="AA56" s="231"/>
-      <c r="AB56" s="231"/>
-      <c r="AC56" s="231"/>
-      <c r="AD56" s="231"/>
-      <c r="AE56" s="231"/>
-      <c r="AF56" s="231"/>
-      <c r="AG56" s="231"/>
-      <c r="AH56" s="231"/>
-      <c r="AK56" s="232"/>
-      <c r="AL56" s="232"/>
-      <c r="AM56" s="231"/>
-      <c r="AN56" s="232"/>
-      <c r="AO56" s="232"/>
-      <c r="AP56" s="232"/>
-      <c r="AV56" s="230"/>
-    </row>
-    <row r="57" spans="2:48" s="220" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B57" s="229"/>
-      <c r="C57" s="229"/>
-      <c r="F57" s="230"/>
-      <c r="G57" s="229"/>
-      <c r="K57" s="230"/>
-      <c r="M57" s="231"/>
-      <c r="N57" s="231"/>
-      <c r="O57" s="231" t="s">
-        <v>345</v>
-      </c>
-      <c r="P57" s="231"/>
-      <c r="Q57" s="231"/>
-      <c r="R57" s="231"/>
-      <c r="S57" s="231"/>
-      <c r="T57" s="231"/>
-      <c r="U57" s="231"/>
-      <c r="V57" s="231"/>
-      <c r="W57" s="231"/>
-      <c r="X57" s="231"/>
-      <c r="Y57" s="231"/>
-      <c r="Z57" s="231"/>
-      <c r="AA57" s="231"/>
-      <c r="AB57" s="231"/>
-      <c r="AC57" s="231"/>
-      <c r="AD57" s="231"/>
-      <c r="AE57" s="231"/>
-      <c r="AF57" s="231"/>
-      <c r="AG57" s="231"/>
-      <c r="AH57" s="231"/>
-      <c r="AK57" s="232"/>
-      <c r="AL57" s="232"/>
-      <c r="AM57" s="231"/>
-      <c r="AN57" s="232"/>
-      <c r="AO57" s="232"/>
-      <c r="AP57" s="232"/>
-      <c r="AV57" s="230"/>
-    </row>
-    <row r="58" spans="2:48" s="220" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="229"/>
-      <c r="C58" s="229"/>
-      <c r="F58" s="230"/>
-      <c r="G58" s="229"/>
-      <c r="K58" s="230"/>
-      <c r="M58" s="231"/>
-      <c r="N58" s="231"/>
-      <c r="O58" s="231" t="s">
-        <v>346</v>
-      </c>
-      <c r="P58" s="231"/>
-      <c r="Q58" s="231"/>
-      <c r="R58" s="231"/>
-      <c r="S58" s="231"/>
-      <c r="T58" s="231"/>
-      <c r="U58" s="231"/>
-      <c r="V58" s="231"/>
-      <c r="W58" s="231"/>
-      <c r="X58" s="231"/>
-      <c r="Y58" s="231"/>
-      <c r="Z58" s="231"/>
-      <c r="AA58" s="231"/>
-      <c r="AB58" s="231"/>
-      <c r="AC58" s="231"/>
-      <c r="AD58" s="231"/>
-      <c r="AE58" s="231"/>
-      <c r="AF58" s="231"/>
-      <c r="AG58" s="231"/>
-      <c r="AH58" s="231"/>
-      <c r="AK58" s="232"/>
-      <c r="AL58" s="232"/>
-      <c r="AM58" s="231"/>
-      <c r="AN58" s="232"/>
-      <c r="AO58" s="232"/>
-      <c r="AP58" s="232"/>
-      <c r="AV58" s="230"/>
-    </row>
-    <row r="59" spans="2:48" s="220" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="229"/>
-      <c r="K59" s="230"/>
-      <c r="M59" s="231"/>
-      <c r="N59" s="231" t="s">
-        <v>342</v>
-      </c>
-      <c r="O59" s="231"/>
-      <c r="P59" s="231"/>
-      <c r="Q59" s="231"/>
-      <c r="R59" s="231"/>
-      <c r="S59" s="231"/>
-      <c r="T59" s="231"/>
-      <c r="U59" s="231"/>
-      <c r="V59" s="231"/>
-      <c r="W59" s="231"/>
-      <c r="X59" s="231"/>
-      <c r="Y59" s="231"/>
-      <c r="Z59" s="231"/>
-      <c r="AA59" s="231"/>
-      <c r="AB59" s="231"/>
-      <c r="AC59" s="231"/>
-      <c r="AD59" s="231"/>
-      <c r="AE59" s="231"/>
-      <c r="AF59" s="231"/>
-      <c r="AG59" s="231"/>
-      <c r="AH59" s="231"/>
-      <c r="AK59" s="232"/>
-      <c r="AL59" s="232"/>
-      <c r="AM59" s="231"/>
-      <c r="AN59" s="232"/>
-      <c r="AO59" s="232"/>
-      <c r="AP59" s="232"/>
-      <c r="AV59" s="230"/>
-    </row>
-    <row r="60" spans="2:48" s="214" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B60" s="215"/>
-      <c r="C60" s="215"/>
-      <c r="D60" s="216"/>
-      <c r="E60" s="216"/>
-      <c r="F60" s="217"/>
-      <c r="G60" s="215"/>
-      <c r="H60" s="216"/>
-      <c r="I60" s="216"/>
-      <c r="J60" s="216"/>
-      <c r="K60" s="217"/>
-      <c r="L60" s="216"/>
-      <c r="M60" s="218" t="s">
+    <row r="56" spans="2:48" s="214" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B56" s="215"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="216"/>
+      <c r="E56" s="216"/>
+      <c r="F56" s="217"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="216"/>
+      <c r="I56" s="216"/>
+      <c r="J56" s="216"/>
+      <c r="K56" s="217"/>
+      <c r="L56" s="216"/>
+      <c r="M56" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="N60" s="216"/>
-      <c r="O60" s="216"/>
-      <c r="P60" s="216"/>
-      <c r="Q60" s="216"/>
-      <c r="R60" s="216"/>
-      <c r="S60" s="216"/>
-      <c r="T60" s="216"/>
-      <c r="U60" s="216"/>
-      <c r="V60" s="216"/>
-      <c r="W60" s="216"/>
-      <c r="X60" s="216"/>
-      <c r="Y60" s="216"/>
-      <c r="Z60" s="216"/>
-      <c r="AA60" s="216"/>
-      <c r="AB60" s="216"/>
-      <c r="AC60" s="216"/>
-      <c r="AD60" s="216"/>
-      <c r="AE60" s="216"/>
-      <c r="AF60" s="216"/>
-      <c r="AG60" s="216"/>
-      <c r="AH60" s="216"/>
-      <c r="AI60" s="216"/>
-      <c r="AJ60" s="216"/>
-      <c r="AK60" s="216"/>
-      <c r="AL60" s="216"/>
-      <c r="AM60" s="216"/>
-      <c r="AN60" s="216"/>
-      <c r="AO60" s="216"/>
-      <c r="AP60" s="216"/>
-      <c r="AQ60" s="216"/>
-      <c r="AR60" s="216"/>
-      <c r="AS60" s="216"/>
-      <c r="AT60" s="216"/>
-      <c r="AU60" s="216"/>
-      <c r="AV60" s="217"/>
-    </row>
-    <row r="61" spans="2:48" s="214" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B61" s="215"/>
-      <c r="C61" s="215"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="217"/>
-      <c r="G61" s="215"/>
-      <c r="H61" s="216"/>
-      <c r="I61" s="216"/>
-      <c r="J61" s="216"/>
-      <c r="K61" s="217"/>
-      <c r="L61" s="216"/>
-      <c r="M61" s="216"/>
-      <c r="N61" s="214" t="s">
+      <c r="N56" s="216"/>
+      <c r="O56" s="216"/>
+      <c r="P56" s="216"/>
+      <c r="Q56" s="216"/>
+      <c r="R56" s="216"/>
+      <c r="S56" s="216"/>
+      <c r="T56" s="216"/>
+      <c r="U56" s="216"/>
+      <c r="V56" s="216"/>
+      <c r="W56" s="216"/>
+      <c r="X56" s="216"/>
+      <c r="Y56" s="216"/>
+      <c r="Z56" s="216"/>
+      <c r="AA56" s="216"/>
+      <c r="AB56" s="216"/>
+      <c r="AC56" s="216"/>
+      <c r="AD56" s="216"/>
+      <c r="AE56" s="216"/>
+      <c r="AF56" s="216"/>
+      <c r="AG56" s="216"/>
+      <c r="AH56" s="216"/>
+      <c r="AI56" s="216"/>
+      <c r="AJ56" s="216"/>
+      <c r="AK56" s="216"/>
+      <c r="AL56" s="216"/>
+      <c r="AM56" s="216"/>
+      <c r="AN56" s="216"/>
+      <c r="AO56" s="216"/>
+      <c r="AP56" s="216"/>
+      <c r="AQ56" s="216"/>
+      <c r="AR56" s="216"/>
+      <c r="AS56" s="216"/>
+      <c r="AT56" s="216"/>
+      <c r="AU56" s="216"/>
+      <c r="AV56" s="217"/>
+    </row>
+    <row r="57" spans="2:48" s="214" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="216"/>
+      <c r="E57" s="216"/>
+      <c r="F57" s="217"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="216"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="217"/>
+      <c r="L57" s="216"/>
+      <c r="M57" s="216"/>
+      <c r="N57" s="214" t="s">
         <v>292</v>
       </c>
-      <c r="O61" s="216"/>
-      <c r="P61" s="216"/>
-      <c r="Q61" s="216"/>
-      <c r="R61" s="216"/>
-      <c r="S61" s="216"/>
-      <c r="T61" s="216"/>
-      <c r="U61" s="216"/>
-      <c r="V61" s="216"/>
-      <c r="W61" s="216"/>
-      <c r="X61" s="216"/>
-      <c r="Y61" s="216"/>
-      <c r="Z61" s="216"/>
-      <c r="AA61" s="216"/>
-      <c r="AB61" s="216"/>
-      <c r="AC61" s="216"/>
-      <c r="AD61" s="216"/>
-      <c r="AE61" s="216"/>
-      <c r="AF61" s="216"/>
-      <c r="AG61" s="216"/>
-      <c r="AH61" s="216"/>
-      <c r="AI61" s="216"/>
-      <c r="AJ61" s="216"/>
-      <c r="AK61" s="216"/>
-      <c r="AL61" s="216"/>
-      <c r="AM61" s="216"/>
-      <c r="AN61" s="216"/>
-      <c r="AO61" s="216"/>
-      <c r="AP61" s="216"/>
-      <c r="AQ61" s="216"/>
-      <c r="AR61" s="216"/>
-      <c r="AS61" s="216"/>
-      <c r="AT61" s="216"/>
-      <c r="AU61" s="216"/>
-      <c r="AV61" s="217"/>
-    </row>
-    <row r="62" spans="2:48" s="214" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B62" s="215"/>
-      <c r="C62" s="215"/>
-      <c r="D62" s="216"/>
-      <c r="E62" s="216"/>
-      <c r="F62" s="217"/>
-      <c r="G62" s="215"/>
-      <c r="H62" s="216"/>
-      <c r="I62" s="216"/>
-      <c r="J62" s="216"/>
-      <c r="K62" s="217"/>
-      <c r="L62" s="216"/>
-      <c r="M62" s="216"/>
-      <c r="N62" s="214" t="s">
+      <c r="O57" s="216"/>
+      <c r="P57" s="216"/>
+      <c r="Q57" s="216"/>
+      <c r="R57" s="216"/>
+      <c r="S57" s="216"/>
+      <c r="T57" s="216"/>
+      <c r="U57" s="216"/>
+      <c r="V57" s="216"/>
+      <c r="W57" s="216"/>
+      <c r="X57" s="216"/>
+      <c r="Y57" s="216"/>
+      <c r="Z57" s="216"/>
+      <c r="AA57" s="216"/>
+      <c r="AB57" s="216"/>
+      <c r="AC57" s="216"/>
+      <c r="AD57" s="216"/>
+      <c r="AE57" s="216"/>
+      <c r="AF57" s="216"/>
+      <c r="AG57" s="216"/>
+      <c r="AH57" s="216"/>
+      <c r="AI57" s="216"/>
+      <c r="AJ57" s="216"/>
+      <c r="AK57" s="216"/>
+      <c r="AL57" s="216"/>
+      <c r="AM57" s="216"/>
+      <c r="AN57" s="216"/>
+      <c r="AO57" s="216"/>
+      <c r="AP57" s="216"/>
+      <c r="AQ57" s="216"/>
+      <c r="AR57" s="216"/>
+      <c r="AS57" s="216"/>
+      <c r="AT57" s="216"/>
+      <c r="AU57" s="216"/>
+      <c r="AV57" s="217"/>
+    </row>
+    <row r="58" spans="2:48" s="214" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B58" s="215"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="216"/>
+      <c r="E58" s="216"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="216"/>
+      <c r="I58" s="216"/>
+      <c r="J58" s="216"/>
+      <c r="K58" s="217"/>
+      <c r="L58" s="216"/>
+      <c r="M58" s="216"/>
+      <c r="N58" s="214" t="s">
         <v>291</v>
       </c>
-      <c r="O62" s="216"/>
-      <c r="P62" s="216"/>
-      <c r="Q62" s="216"/>
-      <c r="R62" s="216"/>
-      <c r="S62" s="216"/>
-      <c r="T62" s="216"/>
-      <c r="U62" s="216"/>
-      <c r="V62" s="216"/>
-      <c r="W62" s="216"/>
-      <c r="X62" s="216"/>
-      <c r="Y62" s="216"/>
-      <c r="Z62" s="216"/>
-      <c r="AA62" s="216"/>
-      <c r="AB62" s="216"/>
-      <c r="AC62" s="216"/>
-      <c r="AD62" s="216"/>
-      <c r="AE62" s="216"/>
-      <c r="AF62" s="216"/>
-      <c r="AG62" s="216"/>
-      <c r="AH62" s="216"/>
-      <c r="AI62" s="216"/>
-      <c r="AJ62" s="216"/>
-      <c r="AK62" s="216"/>
-      <c r="AL62" s="216"/>
-      <c r="AM62" s="216"/>
-      <c r="AN62" s="216"/>
-      <c r="AO62" s="216"/>
-      <c r="AP62" s="216"/>
-      <c r="AQ62" s="216"/>
-      <c r="AR62" s="216"/>
-      <c r="AS62" s="216"/>
-      <c r="AT62" s="216"/>
-      <c r="AU62" s="216"/>
-      <c r="AV62" s="217"/>
-    </row>
-    <row r="63" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="98"/>
-      <c r="O63" s="98"/>
-      <c r="P63" s="98"/>
-      <c r="Q63" s="98"/>
-      <c r="R63" s="98"/>
-      <c r="S63" s="98"/>
-      <c r="T63" s="98"/>
-      <c r="U63" s="98"/>
-      <c r="V63" s="98"/>
-      <c r="W63" s="98"/>
-      <c r="X63" s="98"/>
-      <c r="Y63" s="98"/>
-      <c r="Z63" s="98"/>
-      <c r="AA63" s="69"/>
-      <c r="AB63" s="96"/>
-      <c r="AC63" s="98"/>
-      <c r="AD63" s="98"/>
-      <c r="AE63" s="98"/>
-      <c r="AF63" s="98"/>
-      <c r="AG63" s="69"/>
-      <c r="AH63" s="98"/>
-      <c r="AI63" s="98"/>
-      <c r="AJ63" s="98"/>
-      <c r="AK63" s="98"/>
-      <c r="AL63" s="98"/>
-      <c r="AM63" s="98"/>
-      <c r="AN63" s="98"/>
-      <c r="AO63" s="98"/>
-      <c r="AP63" s="98"/>
-      <c r="AQ63" s="98"/>
-      <c r="AR63" s="98"/>
-      <c r="AS63" s="98"/>
-      <c r="AT63" s="98"/>
-      <c r="AU63" s="98"/>
-      <c r="AV63" s="99"/>
+      <c r="O58" s="216"/>
+      <c r="P58" s="216"/>
+      <c r="Q58" s="216"/>
+      <c r="R58" s="216"/>
+      <c r="S58" s="216"/>
+      <c r="T58" s="216"/>
+      <c r="U58" s="216"/>
+      <c r="V58" s="216"/>
+      <c r="W58" s="216"/>
+      <c r="X58" s="216"/>
+      <c r="Y58" s="216"/>
+      <c r="Z58" s="216"/>
+      <c r="AA58" s="216"/>
+      <c r="AB58" s="216"/>
+      <c r="AC58" s="216"/>
+      <c r="AD58" s="216"/>
+      <c r="AE58" s="216"/>
+      <c r="AF58" s="216"/>
+      <c r="AG58" s="216"/>
+      <c r="AH58" s="216"/>
+      <c r="AI58" s="216"/>
+      <c r="AJ58" s="216"/>
+      <c r="AK58" s="216"/>
+      <c r="AL58" s="216"/>
+      <c r="AM58" s="216"/>
+      <c r="AN58" s="216"/>
+      <c r="AO58" s="216"/>
+      <c r="AP58" s="216"/>
+      <c r="AQ58" s="216"/>
+      <c r="AR58" s="216"/>
+      <c r="AS58" s="216"/>
+      <c r="AT58" s="216"/>
+      <c r="AU58" s="216"/>
+      <c r="AV58" s="217"/>
+    </row>
+    <row r="59" spans="2:48" s="100" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="98"/>
+      <c r="U59" s="98"/>
+      <c r="V59" s="98"/>
+      <c r="W59" s="98"/>
+      <c r="X59" s="98"/>
+      <c r="Y59" s="98"/>
+      <c r="Z59" s="98"/>
+      <c r="AA59" s="69"/>
+      <c r="AB59" s="96"/>
+      <c r="AC59" s="98"/>
+      <c r="AD59" s="98"/>
+      <c r="AE59" s="98"/>
+      <c r="AF59" s="98"/>
+      <c r="AG59" s="69"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="98"/>
+      <c r="AJ59" s="98"/>
+      <c r="AK59" s="98"/>
+      <c r="AL59" s="98"/>
+      <c r="AM59" s="98"/>
+      <c r="AN59" s="98"/>
+      <c r="AO59" s="98"/>
+      <c r="AP59" s="98"/>
+      <c r="AQ59" s="98"/>
+      <c r="AR59" s="98"/>
+      <c r="AS59" s="98"/>
+      <c r="AT59" s="98"/>
+      <c r="AU59" s="98"/>
+      <c r="AV59" s="99"/>
+    </row>
+    <row r="60" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B60" s="21">
+        <v>2</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="22"/>
+      <c r="AN60" s="22"/>
+      <c r="AO60" s="22"/>
+      <c r="AP60" s="22"/>
+      <c r="AQ60" s="22"/>
+      <c r="AR60" s="22"/>
+      <c r="AS60" s="22"/>
+      <c r="AT60" s="22"/>
+      <c r="AU60" s="22"/>
+      <c r="AV60" s="23"/>
+    </row>
+    <row r="61" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="K61" s="68"/>
+      <c r="L61" s="220" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV61" s="68"/>
+    </row>
+    <row r="62" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="26"/>
+      <c r="AH62" s="26"/>
+      <c r="AI62" s="26"/>
+      <c r="AJ62" s="26"/>
+      <c r="AK62" s="26"/>
+      <c r="AL62" s="26"/>
+      <c r="AM62" s="26"/>
+      <c r="AN62" s="26"/>
+      <c r="AO62" s="26"/>
+      <c r="AP62" s="26"/>
+      <c r="AQ62" s="26"/>
+      <c r="AR62" s="26"/>
+      <c r="AS62" s="26"/>
+      <c r="AT62" s="26"/>
+      <c r="AU62" s="26"/>
+      <c r="AV62" s="27"/>
+    </row>
+    <row r="63" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B63" s="21">
+        <v>3</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
+      <c r="AQ63" s="22"/>
+      <c r="AR63" s="22"/>
+      <c r="AS63" s="22"/>
+      <c r="AT63" s="22"/>
+      <c r="AU63" s="22"/>
+      <c r="AV63" s="23"/>
     </row>
     <row r="64" spans="2:48" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B64" s="21">
-        <v>2</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="22"/>
-      <c r="AQ64" s="22"/>
-      <c r="AR64" s="22"/>
-      <c r="AS64" s="22"/>
-      <c r="AT64" s="22"/>
-      <c r="AU64" s="22"/>
-      <c r="AV64" s="23"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="K64" s="68"/>
+      <c r="L64" s="220" t="s">
+        <v>317</v>
+      </c>
+      <c r="AV64" s="68"/>
     </row>
     <row r="65" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="67" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="27"/>
+      <c r="AV65" s="68"/>
+    </row>
+    <row r="66" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B66" s="21">
+        <v>4</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="22"/>
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="22"/>
+      <c r="AO66" s="22"/>
+      <c r="AP66" s="22"/>
+      <c r="AQ66" s="22"/>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="22"/>
+      <c r="AU66" s="22"/>
+      <c r="AV66" s="23"/>
+    </row>
+    <row r="67" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="K65" s="68"/>
-      <c r="L65" s="220" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV65" s="68"/>
-    </row>
-    <row r="66" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="26"/>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="26"/>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="26"/>
-      <c r="AK66" s="26"/>
-      <c r="AL66" s="26"/>
-      <c r="AM66" s="26"/>
-      <c r="AN66" s="26"/>
-      <c r="AO66" s="26"/>
-      <c r="AP66" s="26"/>
-      <c r="AQ66" s="26"/>
-      <c r="AR66" s="26"/>
-      <c r="AS66" s="26"/>
-      <c r="AT66" s="26"/>
-      <c r="AU66" s="26"/>
-      <c r="AV66" s="27"/>
-    </row>
-    <row r="67" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B67" s="21">
-        <v>3</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
-      <c r="AE67" s="22"/>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="22"/>
-      <c r="AJ67" s="22"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="22"/>
-      <c r="AM67" s="22"/>
-      <c r="AN67" s="22"/>
-      <c r="AO67" s="22"/>
-      <c r="AP67" s="22"/>
-      <c r="AQ67" s="22"/>
-      <c r="AR67" s="22"/>
-      <c r="AS67" s="22"/>
-      <c r="AT67" s="22"/>
-      <c r="AU67" s="22"/>
-      <c r="AV67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
+      <c r="AQ67" s="24"/>
+      <c r="AR67" s="24"/>
+      <c r="AS67" s="24"/>
+      <c r="AT67" s="24"/>
+      <c r="AU67" s="24"/>
+      <c r="AV67" s="68"/>
     </row>
     <row r="68" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="K68" s="68"/>
-      <c r="L68" s="220" t="s">
-        <v>317</v>
-      </c>
-      <c r="AV68" s="68"/>
-    </row>
-    <row r="69" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="27"/>
-      <c r="AV69" s="68"/>
-    </row>
-    <row r="70" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B70" s="21">
-        <v>4</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="22"/>
-      <c r="AB70" s="22"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="22"/>
-      <c r="AE70" s="22"/>
-      <c r="AF70" s="22"/>
-      <c r="AG70" s="22"/>
-      <c r="AH70" s="22"/>
-      <c r="AI70" s="22"/>
-      <c r="AJ70" s="22"/>
-      <c r="AK70" s="22"/>
-      <c r="AL70" s="22"/>
-      <c r="AM70" s="22"/>
-      <c r="AN70" s="22"/>
-      <c r="AO70" s="22"/>
-      <c r="AP70" s="22"/>
-      <c r="AQ70" s="22"/>
-      <c r="AR70" s="22"/>
-      <c r="AS70" s="22"/>
-      <c r="AT70" s="22"/>
-      <c r="AU70" s="22"/>
-      <c r="AV70" s="23"/>
-    </row>
-    <row r="71" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="24"/>
-      <c r="AJ71" s="24"/>
-      <c r="AK71" s="24"/>
-      <c r="AL71" s="24"/>
-      <c r="AM71" s="24"/>
-      <c r="AN71" s="24"/>
-      <c r="AO71" s="24"/>
-      <c r="AP71" s="24"/>
-      <c r="AQ71" s="24"/>
-      <c r="AR71" s="24"/>
-      <c r="AS71" s="24"/>
-      <c r="AT71" s="24"/>
-      <c r="AU71" s="24"/>
-      <c r="AV71" s="68"/>
-    </row>
-    <row r="72" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="26"/>
-      <c r="U72" s="26"/>
-      <c r="V72" s="26"/>
-      <c r="W72" s="26"/>
-      <c r="X72" s="26"/>
-      <c r="Y72" s="26"/>
-      <c r="Z72" s="26"/>
-      <c r="AA72" s="26"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="26"/>
-      <c r="AD72" s="26"/>
-      <c r="AE72" s="26"/>
-      <c r="AF72" s="26"/>
-      <c r="AG72" s="26"/>
-      <c r="AH72" s="26"/>
-      <c r="AI72" s="26"/>
-      <c r="AJ72" s="26"/>
-      <c r="AK72" s="26"/>
-      <c r="AL72" s="26"/>
-      <c r="AM72" s="26"/>
-      <c r="AN72" s="26"/>
-      <c r="AO72" s="26"/>
-      <c r="AP72" s="26"/>
-      <c r="AQ72" s="26"/>
-      <c r="AR72" s="26"/>
-      <c r="AS72" s="26"/>
-      <c r="AT72" s="26"/>
-      <c r="AU72" s="26"/>
-      <c r="AV72" s="27"/>
-    </row>
-    <row r="73" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="26"/>
+      <c r="V68" s="26"/>
+      <c r="W68" s="26"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="26"/>
+      <c r="AD68" s="26"/>
+      <c r="AE68" s="26"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="26"/>
+      <c r="AH68" s="26"/>
+      <c r="AI68" s="26"/>
+      <c r="AJ68" s="26"/>
+      <c r="AK68" s="26"/>
+      <c r="AL68" s="26"/>
+      <c r="AM68" s="26"/>
+      <c r="AN68" s="26"/>
+      <c r="AO68" s="26"/>
+      <c r="AP68" s="26"/>
+      <c r="AQ68" s="26"/>
+      <c r="AR68" s="26"/>
+      <c r="AS68" s="26"/>
+      <c r="AT68" s="26"/>
+      <c r="AU68" s="26"/>
+      <c r="AV68" s="27"/>
+    </row>
+    <row r="69" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="51"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="51"/>
+      <c r="V72" s="51"/>
+      <c r="W72" s="51"/>
+      <c r="X72" s="51"/>
+      <c r="Y72" s="51"/>
+      <c r="Z72" s="51"/>
+      <c r="AA72" s="51"/>
+      <c r="AB72" s="51"/>
+      <c r="AC72" s="51"/>
+      <c r="AD72" s="51"/>
+      <c r="AE72" s="51"/>
+      <c r="AF72" s="51"/>
+      <c r="AG72" s="51"/>
+      <c r="AH72" s="51"/>
+      <c r="AI72" s="51"/>
+      <c r="AJ72" s="51"/>
+      <c r="AK72" s="51"/>
+      <c r="AL72" s="51"/>
+      <c r="AM72" s="51"/>
+      <c r="AN72" s="51"/>
+      <c r="AO72" s="51"/>
+      <c r="AP72" s="51"/>
+      <c r="AQ72" s="51"/>
+      <c r="AR72" s="51"/>
+      <c r="AS72" s="51"/>
+      <c r="AT72" s="51"/>
+      <c r="AU72" s="51"/>
+      <c r="AV72" s="51"/>
+      <c r="AW72" s="51"/>
+      <c r="AX72" s="51"/>
+      <c r="AY72" s="51"/>
+      <c r="AZ72" s="51"/>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="51"/>
+      <c r="W73" s="51"/>
+      <c r="X73" s="51"/>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="51"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="51"/>
+      <c r="AC73" s="51"/>
+      <c r="AD73" s="51"/>
+      <c r="AE73" s="51"/>
+      <c r="AF73" s="51"/>
+      <c r="AG73" s="51"/>
+      <c r="AH73" s="51"/>
+      <c r="AI73" s="51"/>
+      <c r="AJ73" s="51"/>
+      <c r="AK73" s="51"/>
+      <c r="AL73" s="51"/>
+      <c r="AM73" s="51"/>
+      <c r="AN73" s="51"/>
+      <c r="AO73" s="51"/>
+      <c r="AP73" s="51"/>
+      <c r="AQ73" s="51"/>
+      <c r="AR73" s="51"/>
+      <c r="AS73" s="51"/>
+      <c r="AT73" s="51"/>
+      <c r="AU73" s="51"/>
+      <c r="AV73" s="51"/>
+      <c r="AW73" s="51"/>
+      <c r="AX73" s="51"/>
+      <c r="AY73" s="51"/>
+      <c r="AZ73" s="51"/>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="51"/>
+      <c r="W74" s="51"/>
+      <c r="X74" s="51"/>
+      <c r="Y74" s="51"/>
+      <c r="Z74" s="51"/>
+      <c r="AA74" s="51"/>
+      <c r="AB74" s="51"/>
+      <c r="AC74" s="51"/>
+      <c r="AD74" s="51"/>
+      <c r="AE74" s="51"/>
+      <c r="AF74" s="51"/>
+      <c r="AG74" s="51"/>
+      <c r="AH74" s="51"/>
+      <c r="AI74" s="51"/>
+      <c r="AJ74" s="51"/>
+      <c r="AK74" s="51"/>
+      <c r="AL74" s="51"/>
+      <c r="AM74" s="51"/>
+      <c r="AN74" s="51"/>
+      <c r="AO74" s="51"/>
+      <c r="AP74" s="51"/>
+      <c r="AQ74" s="51"/>
+      <c r="AR74" s="51"/>
+      <c r="AS74" s="51"/>
+      <c r="AT74" s="51"/>
+      <c r="AU74" s="51"/>
+      <c r="AV74" s="51"/>
+      <c r="AW74" s="51"/>
+      <c r="AX74" s="51"/>
+      <c r="AY74" s="51"/>
+      <c r="AZ74" s="51"/>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="51"/>
+      <c r="AC75" s="51"/>
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="51"/>
+      <c r="AF75" s="51"/>
+      <c r="AG75" s="51"/>
+      <c r="AH75" s="51"/>
+      <c r="AI75" s="51"/>
+      <c r="AJ75" s="51"/>
+      <c r="AK75" s="51"/>
+      <c r="AL75" s="51"/>
+      <c r="AM75" s="51"/>
+      <c r="AN75" s="51"/>
+      <c r="AO75" s="51"/>
+      <c r="AP75" s="51"/>
+      <c r="AQ75" s="51"/>
+      <c r="AR75" s="51"/>
+      <c r="AS75" s="51"/>
+      <c r="AT75" s="51"/>
+      <c r="AU75" s="51"/>
+      <c r="AV75" s="51"/>
+      <c r="AW75" s="51"/>
+      <c r="AX75" s="51"/>
+      <c r="AY75" s="51"/>
+      <c r="AZ75" s="51"/>
+    </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A76" s="51"/>
       <c r="B76" s="51"/>
@@ -22564,222 +22595,6 @@
       <c r="AX204" s="51"/>
       <c r="AY204" s="51"/>
       <c r="AZ204" s="51"/>
-    </row>
-    <row r="205" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A205" s="51"/>
-      <c r="B205" s="51"/>
-      <c r="C205" s="51"/>
-      <c r="D205" s="51"/>
-      <c r="E205" s="51"/>
-      <c r="F205" s="51"/>
-      <c r="G205" s="51"/>
-      <c r="H205" s="51"/>
-      <c r="I205" s="51"/>
-      <c r="J205" s="51"/>
-      <c r="K205" s="51"/>
-      <c r="L205" s="51"/>
-      <c r="M205" s="51"/>
-      <c r="N205" s="51"/>
-      <c r="O205" s="51"/>
-      <c r="P205" s="51"/>
-      <c r="Q205" s="51"/>
-      <c r="R205" s="51"/>
-      <c r="S205" s="51"/>
-      <c r="T205" s="51"/>
-      <c r="U205" s="51"/>
-      <c r="V205" s="51"/>
-      <c r="W205" s="51"/>
-      <c r="X205" s="51"/>
-      <c r="Y205" s="51"/>
-      <c r="Z205" s="51"/>
-      <c r="AA205" s="51"/>
-      <c r="AB205" s="51"/>
-      <c r="AC205" s="51"/>
-      <c r="AD205" s="51"/>
-      <c r="AE205" s="51"/>
-      <c r="AF205" s="51"/>
-      <c r="AG205" s="51"/>
-      <c r="AH205" s="51"/>
-      <c r="AI205" s="51"/>
-      <c r="AJ205" s="51"/>
-      <c r="AK205" s="51"/>
-      <c r="AL205" s="51"/>
-      <c r="AM205" s="51"/>
-      <c r="AN205" s="51"/>
-      <c r="AO205" s="51"/>
-      <c r="AP205" s="51"/>
-      <c r="AQ205" s="51"/>
-      <c r="AR205" s="51"/>
-      <c r="AS205" s="51"/>
-      <c r="AT205" s="51"/>
-      <c r="AU205" s="51"/>
-      <c r="AV205" s="51"/>
-      <c r="AW205" s="51"/>
-      <c r="AX205" s="51"/>
-      <c r="AY205" s="51"/>
-      <c r="AZ205" s="51"/>
-    </row>
-    <row r="206" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A206" s="51"/>
-      <c r="B206" s="51"/>
-      <c r="C206" s="51"/>
-      <c r="D206" s="51"/>
-      <c r="E206" s="51"/>
-      <c r="F206" s="51"/>
-      <c r="G206" s="51"/>
-      <c r="H206" s="51"/>
-      <c r="I206" s="51"/>
-      <c r="J206" s="51"/>
-      <c r="K206" s="51"/>
-      <c r="L206" s="51"/>
-      <c r="M206" s="51"/>
-      <c r="N206" s="51"/>
-      <c r="O206" s="51"/>
-      <c r="P206" s="51"/>
-      <c r="Q206" s="51"/>
-      <c r="R206" s="51"/>
-      <c r="S206" s="51"/>
-      <c r="T206" s="51"/>
-      <c r="U206" s="51"/>
-      <c r="V206" s="51"/>
-      <c r="W206" s="51"/>
-      <c r="X206" s="51"/>
-      <c r="Y206" s="51"/>
-      <c r="Z206" s="51"/>
-      <c r="AA206" s="51"/>
-      <c r="AB206" s="51"/>
-      <c r="AC206" s="51"/>
-      <c r="AD206" s="51"/>
-      <c r="AE206" s="51"/>
-      <c r="AF206" s="51"/>
-      <c r="AG206" s="51"/>
-      <c r="AH206" s="51"/>
-      <c r="AI206" s="51"/>
-      <c r="AJ206" s="51"/>
-      <c r="AK206" s="51"/>
-      <c r="AL206" s="51"/>
-      <c r="AM206" s="51"/>
-      <c r="AN206" s="51"/>
-      <c r="AO206" s="51"/>
-      <c r="AP206" s="51"/>
-      <c r="AQ206" s="51"/>
-      <c r="AR206" s="51"/>
-      <c r="AS206" s="51"/>
-      <c r="AT206" s="51"/>
-      <c r="AU206" s="51"/>
-      <c r="AV206" s="51"/>
-      <c r="AW206" s="51"/>
-      <c r="AX206" s="51"/>
-      <c r="AY206" s="51"/>
-      <c r="AZ206" s="51"/>
-    </row>
-    <row r="207" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A207" s="51"/>
-      <c r="B207" s="51"/>
-      <c r="C207" s="51"/>
-      <c r="D207" s="51"/>
-      <c r="E207" s="51"/>
-      <c r="F207" s="51"/>
-      <c r="G207" s="51"/>
-      <c r="H207" s="51"/>
-      <c r="I207" s="51"/>
-      <c r="J207" s="51"/>
-      <c r="K207" s="51"/>
-      <c r="L207" s="51"/>
-      <c r="M207" s="51"/>
-      <c r="N207" s="51"/>
-      <c r="O207" s="51"/>
-      <c r="P207" s="51"/>
-      <c r="Q207" s="51"/>
-      <c r="R207" s="51"/>
-      <c r="S207" s="51"/>
-      <c r="T207" s="51"/>
-      <c r="U207" s="51"/>
-      <c r="V207" s="51"/>
-      <c r="W207" s="51"/>
-      <c r="X207" s="51"/>
-      <c r="Y207" s="51"/>
-      <c r="Z207" s="51"/>
-      <c r="AA207" s="51"/>
-      <c r="AB207" s="51"/>
-      <c r="AC207" s="51"/>
-      <c r="AD207" s="51"/>
-      <c r="AE207" s="51"/>
-      <c r="AF207" s="51"/>
-      <c r="AG207" s="51"/>
-      <c r="AH207" s="51"/>
-      <c r="AI207" s="51"/>
-      <c r="AJ207" s="51"/>
-      <c r="AK207" s="51"/>
-      <c r="AL207" s="51"/>
-      <c r="AM207" s="51"/>
-      <c r="AN207" s="51"/>
-      <c r="AO207" s="51"/>
-      <c r="AP207" s="51"/>
-      <c r="AQ207" s="51"/>
-      <c r="AR207" s="51"/>
-      <c r="AS207" s="51"/>
-      <c r="AT207" s="51"/>
-      <c r="AU207" s="51"/>
-      <c r="AV207" s="51"/>
-      <c r="AW207" s="51"/>
-      <c r="AX207" s="51"/>
-      <c r="AY207" s="51"/>
-      <c r="AZ207" s="51"/>
-    </row>
-    <row r="208" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A208" s="51"/>
-      <c r="B208" s="51"/>
-      <c r="C208" s="51"/>
-      <c r="D208" s="51"/>
-      <c r="E208" s="51"/>
-      <c r="F208" s="51"/>
-      <c r="G208" s="51"/>
-      <c r="H208" s="51"/>
-      <c r="I208" s="51"/>
-      <c r="J208" s="51"/>
-      <c r="K208" s="51"/>
-      <c r="L208" s="51"/>
-      <c r="M208" s="51"/>
-      <c r="N208" s="51"/>
-      <c r="O208" s="51"/>
-      <c r="P208" s="51"/>
-      <c r="Q208" s="51"/>
-      <c r="R208" s="51"/>
-      <c r="S208" s="51"/>
-      <c r="T208" s="51"/>
-      <c r="U208" s="51"/>
-      <c r="V208" s="51"/>
-      <c r="W208" s="51"/>
-      <c r="X208" s="51"/>
-      <c r="Y208" s="51"/>
-      <c r="Z208" s="51"/>
-      <c r="AA208" s="51"/>
-      <c r="AB208" s="51"/>
-      <c r="AC208" s="51"/>
-      <c r="AD208" s="51"/>
-      <c r="AE208" s="51"/>
-      <c r="AF208" s="51"/>
-      <c r="AG208" s="51"/>
-      <c r="AH208" s="51"/>
-      <c r="AI208" s="51"/>
-      <c r="AJ208" s="51"/>
-      <c r="AK208" s="51"/>
-      <c r="AL208" s="51"/>
-      <c r="AM208" s="51"/>
-      <c r="AN208" s="51"/>
-      <c r="AO208" s="51"/>
-      <c r="AP208" s="51"/>
-      <c r="AQ208" s="51"/>
-      <c r="AR208" s="51"/>
-      <c r="AS208" s="51"/>
-      <c r="AT208" s="51"/>
-      <c r="AU208" s="51"/>
-      <c r="AV208" s="51"/>
-      <c r="AW208" s="51"/>
-      <c r="AX208" s="51"/>
-      <c r="AY208" s="51"/>
-      <c r="AZ208" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -44576,6 +44391,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -44733,15 +44557,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -44759,6 +44574,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44774,12 +44597,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>